--- a/indexation-estampes.xlsx
+++ b/indexation-estampes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annepiejus/Documents/Projets:Travaux/MERCURE GALANT/MG ÉDITIONS/mercure-galant-sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8E3C61-87B2-0A41-9AD6-60F0C1111C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC05ABD-DD7B-4C4B-AEAC-1CCDCC89F8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9400" yWindow="-28300" windowWidth="45960" windowHeight="27860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="500" windowWidth="27300" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -662,7 +662,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7310" uniqueCount="4087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7311" uniqueCount="4088">
   <si>
     <t>ID estampe</t>
   </si>
@@ -17693,12 +17693,15 @@
   <si>
     <t>Publication d'une vue du palais royal de Tolède</t>
   </si>
+  <si>
+    <t>publi vue</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="164">
+  <fonts count="165">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -18847,6 +18850,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Monaco"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="29">
@@ -20294,7 +20303,6 @@
     <xf numFmtId="0" fontId="16" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -20315,6 +20323,7 @@
     <xf numFmtId="0" fontId="163" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -20539,7 +20548,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A433" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J462" sqref="J462"/>
+      <selection pane="bottomLeft" activeCell="F443" sqref="F443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -20548,7 +20557,7 @@
     <col min="3" max="3" width="16.33203125" style="292" customWidth="1"/>
     <col min="4" max="4" width="14" style="93" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="318" customWidth="1"/>
-    <col min="6" max="6" width="31.6640625" style="453" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="452" customWidth="1"/>
     <col min="7" max="8" width="19.1640625" customWidth="1"/>
     <col min="9" max="9" width="29.83203125" customWidth="1"/>
     <col min="10" max="10" width="82" style="125" customWidth="1"/>
@@ -28732,7 +28741,7 @@
       <c r="E107" s="95" t="s">
         <v>168</v>
       </c>
-      <c r="F107" s="454" t="s">
+      <c r="F107" s="453" t="s">
         <v>4077</v>
       </c>
       <c r="G107" s="257"/>
@@ -31122,7 +31131,7 @@
       </c>
       <c r="D138" s="84"/>
       <c r="E138" s="301"/>
-      <c r="F138" s="454" t="s">
+      <c r="F138" s="453" t="s">
         <v>4079</v>
       </c>
       <c r="G138" s="14"/>
@@ -31204,7 +31213,7 @@
       <c r="C139" s="257"/>
       <c r="D139" s="94"/>
       <c r="E139" s="313"/>
-      <c r="F139" s="454" t="s">
+      <c r="F139" s="453" t="s">
         <v>4079</v>
       </c>
       <c r="G139" s="282"/>
@@ -31288,7 +31297,7 @@
       <c r="C140" s="257"/>
       <c r="D140" s="94"/>
       <c r="E140" s="313"/>
-      <c r="F140" s="454" t="s">
+      <c r="F140" s="453" t="s">
         <v>4079</v>
       </c>
       <c r="G140" s="282"/>
@@ -31374,7 +31383,7 @@
       <c r="E141" s="323" t="s">
         <v>4036</v>
       </c>
-      <c r="F141" s="454" t="s">
+      <c r="F141" s="453" t="s">
         <v>4079</v>
       </c>
       <c r="G141" s="260"/>
@@ -31454,7 +31463,7 @@
       </c>
       <c r="D142" s="87"/>
       <c r="E142" s="301"/>
-      <c r="F142" s="454" t="s">
+      <c r="F142" s="453" t="s">
         <v>4079</v>
       </c>
       <c r="G142" s="14"/>
@@ -55069,7 +55078,7 @@
       <c r="AT440" s="14"/>
     </row>
     <row r="441" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A441" s="455" t="s">
+      <c r="A441" s="454" t="s">
         <v>1455</v>
       </c>
       <c r="B441" s="5" t="s">
@@ -55252,7 +55261,9 @@
       </c>
       <c r="D443" s="84"/>
       <c r="E443" s="347"/>
-      <c r="F443" s="448"/>
+      <c r="F443" s="456" t="s">
+        <v>4087</v>
+      </c>
       <c r="G443" s="349"/>
       <c r="H443" s="23" t="s">
         <v>1667</v>
@@ -55806,7 +55817,7 @@
       <c r="E450" s="328" t="s">
         <v>4044</v>
       </c>
-      <c r="F450" s="449"/>
+      <c r="F450" s="448"/>
       <c r="G450" s="38"/>
       <c r="H450" s="59" t="s">
         <v>1280</v>
@@ -56744,7 +56755,7 @@
       <c r="E462" s="95" t="s">
         <v>168</v>
       </c>
-      <c r="F462" s="454" t="s">
+      <c r="F462" s="453" t="s">
         <v>4081</v>
       </c>
       <c r="G462" s="257"/>
@@ -57142,7 +57153,7 @@
       </c>
       <c r="D467" s="84"/>
       <c r="E467" s="301"/>
-      <c r="F467" s="456" t="s">
+      <c r="F467" s="455" t="s">
         <v>4081</v>
       </c>
       <c r="G467" s="14"/>
@@ -57394,7 +57405,7 @@
       <c r="E470" s="301" t="s">
         <v>2076</v>
       </c>
-      <c r="F470" s="454" t="s">
+      <c r="F470" s="453" t="s">
         <v>4086</v>
       </c>
       <c r="G470" s="14"/>
@@ -58186,7 +58197,7 @@
       <c r="C480" s="291"/>
       <c r="D480" s="143"/>
       <c r="E480" s="315"/>
-      <c r="F480" s="450"/>
+      <c r="F480" s="449"/>
       <c r="G480" s="141"/>
       <c r="H480" s="141"/>
       <c r="I480" s="141"/>
@@ -58234,7 +58245,7 @@
       <c r="C481" s="294"/>
       <c r="D481" s="117"/>
       <c r="E481" s="316"/>
-      <c r="F481" s="451"/>
+      <c r="F481" s="450"/>
       <c r="G481" s="118"/>
       <c r="H481" s="119"/>
       <c r="I481" s="118"/>
@@ -58426,7 +58437,7 @@
       <c r="C485" s="257"/>
       <c r="D485" s="84"/>
       <c r="E485" s="317"/>
-      <c r="F485" s="452"/>
+      <c r="F485" s="451"/>
       <c r="G485" s="185"/>
       <c r="H485" s="41"/>
       <c r="I485" s="41"/>

--- a/indexation-estampes.xlsx
+++ b/indexation-estampes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annepiejus/Documents/Projets:Travaux/MERCURE GALANT/MG ÉDITIONS/mercure-galant-sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43319320-8206-9A41-8034-7FAE6F61F1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C5408A-C16C-6149-B988-E1C10C7C44E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3920" yWindow="-20620" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15961,12 +15961,6 @@
     <t>1678-09_061</t>
   </si>
   <si>
-    <t>1678-09e_390</t>
-  </si>
-  <si>
-    <t>1678-10_351</t>
-  </si>
-  <si>
     <t>1678-10_361a</t>
   </si>
   <si>
@@ -17677,6 +17671,12 @@
   </si>
   <si>
     <t>1678-09e_136</t>
+  </si>
+  <si>
+    <t>1678-09e_393</t>
+  </si>
+  <si>
+    <t>1678-10_355</t>
   </si>
 </sst>
 </file>
@@ -20637,8 +20637,8 @@
   <dimension ref="A1:AT680"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="189" zoomScaleNormal="204" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -20682,16 +20682,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="254" t="s">
-        <v>3989</v>
+        <v>3987</v>
       </c>
       <c r="D1" s="80" t="s">
-        <v>3988</v>
+        <v>3986</v>
       </c>
       <c r="E1" s="268" t="s">
-        <v>3939</v>
+        <v>3937</v>
       </c>
       <c r="F1" s="323" t="s">
-        <v>3946</v>
+        <v>3944</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -20703,7 +20703,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="126" t="s">
-        <v>3959</v>
+        <v>3957</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>5</v>
@@ -20751,7 +20751,7 @@
         <v>18</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>3992</v>
+        <v>3990</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>19</v>
@@ -20775,7 +20775,7 @@
         <v>25</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>3874</v>
+        <v>3872</v>
       </c>
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
@@ -20792,10 +20792,10 @@
     </row>
     <row r="2" spans="1:46" ht="15.75" customHeight="1">
       <c r="A2" s="109" t="s">
-        <v>4059</v>
+        <v>4057</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3945</v>
+        <v>3943</v>
       </c>
       <c r="C2" s="251" t="s">
         <v>26</v>
@@ -20954,17 +20954,17 @@
         <v>38</v>
       </c>
       <c r="C4" s="444" t="s">
-        <v>3976</v>
+        <v>3974</v>
       </c>
       <c r="D4" s="444" t="s">
-        <v>3979</v>
+        <v>3977</v>
       </c>
       <c r="E4" s="388"/>
       <c r="F4" s="329" t="s">
-        <v>3977</v>
+        <v>3975</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>3978</v>
+        <v>3976</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>51</v>
@@ -21015,7 +21015,7 @@
       <c r="Z4" s="14"/>
       <c r="AA4" s="14"/>
       <c r="AB4" s="14" t="s">
-        <v>3771</v>
+        <v>3769</v>
       </c>
       <c r="AC4" s="14"/>
       <c r="AD4" s="14"/>
@@ -21042,7 +21042,7 @@
     </row>
     <row r="5" spans="1:46" s="164" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="109" t="s">
-        <v>4060</v>
+        <v>4058</v>
       </c>
       <c r="B5" s="285" t="s">
         <v>64</v>
@@ -21122,7 +21122,7 @@
     </row>
     <row r="6" spans="1:46" s="164" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="109" t="s">
-        <v>4061</v>
+        <v>4059</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>38</v>
@@ -21135,7 +21135,7 @@
       </c>
       <c r="E6" s="273"/>
       <c r="F6" s="324" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>79</v>
@@ -21284,7 +21284,7 @@
     </row>
     <row r="8" spans="1:46" s="164" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="109" t="s">
-        <v>4062</v>
+        <v>4060</v>
       </c>
       <c r="B8" s="285" t="s">
         <v>92</v>
@@ -21453,7 +21453,7 @@
       </c>
       <c r="E10" s="366"/>
       <c r="F10" s="366" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G10" s="366" t="s">
         <v>107</v>
@@ -21528,7 +21528,7 @@
       <c r="C11" s="407"/>
       <c r="D11" s="85"/>
       <c r="E11" s="471" t="s">
-        <v>4057</v>
+        <v>4055</v>
       </c>
       <c r="F11" s="328"/>
       <c r="G11" s="234"/>
@@ -21604,7 +21604,7 @@
       <c r="C12" s="403"/>
       <c r="D12" s="85"/>
       <c r="E12" s="471" t="s">
-        <v>4057</v>
+        <v>4055</v>
       </c>
       <c r="F12" s="324"/>
       <c r="G12" s="14"/>
@@ -21676,7 +21676,7 @@
         <v>38</v>
       </c>
       <c r="C13" s="444" t="s">
-        <v>3998</v>
+        <v>3996</v>
       </c>
       <c r="D13" s="84"/>
       <c r="E13" s="452"/>
@@ -21755,7 +21755,7 @@
       <c r="D14" s="84"/>
       <c r="E14" s="271"/>
       <c r="F14" s="324" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="6" t="s">
@@ -21830,14 +21830,14 @@
       <c r="C15" s="234"/>
       <c r="D15" s="84"/>
       <c r="E15" s="275" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F15" s="326" t="s">
         <v>457</v>
       </c>
       <c r="G15" s="248"/>
       <c r="H15" s="14" t="s">
-        <v>3973</v>
+        <v>3971</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>162</v>
@@ -21898,13 +21898,13 @@
     </row>
     <row r="16" spans="1:46" s="100" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="237" t="s">
-        <v>3827</v>
+        <v>3825</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="444" t="s">
-        <v>3999</v>
+        <v>3997</v>
       </c>
       <c r="D16" s="83" t="s">
         <v>168</v>
@@ -21915,13 +21915,13 @@
         <v>169</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>3974</v>
+        <v>3972</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>170</v>
       </c>
       <c r="J16" s="41" t="s">
-        <v>3857</v>
+        <v>3855</v>
       </c>
       <c r="K16" s="14" t="s">
         <v>171</v>
@@ -21963,7 +21963,7 @@
         <v>179</v>
       </c>
       <c r="AB16" s="14" t="s">
-        <v>3775</v>
+        <v>3773</v>
       </c>
       <c r="AC16" s="14"/>
       <c r="AD16" s="14"/>
@@ -21975,7 +21975,7 @@
       </c>
       <c r="AG16" s="14"/>
       <c r="AH16" s="14" t="s">
-        <v>3915</v>
+        <v>3913</v>
       </c>
       <c r="AI16" s="99"/>
       <c r="AJ16" s="99"/>
@@ -21992,13 +21992,13 @@
     </row>
     <row r="17" spans="1:46" ht="15.75" customHeight="1">
       <c r="A17" s="41" t="s">
-        <v>3828</v>
+        <v>3826</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="444" t="s">
-        <v>3999</v>
+        <v>3997</v>
       </c>
       <c r="D17" s="83" t="s">
         <v>168</v>
@@ -22009,13 +22009,13 @@
         <v>169</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>3975</v>
+        <v>3973</v>
       </c>
       <c r="I17" s="14" t="s">
         <v>170</v>
       </c>
       <c r="J17" s="41" t="s">
-        <v>3880</v>
+        <v>3878</v>
       </c>
       <c r="K17" s="14" t="s">
         <v>182</v>
@@ -22084,13 +22084,13 @@
     </row>
     <row r="18" spans="1:46" ht="15.75" customHeight="1">
       <c r="A18" s="41" t="s">
-        <v>3829</v>
+        <v>3827</v>
       </c>
       <c r="B18" s="34" t="s">
         <v>187</v>
       </c>
       <c r="C18" s="444" t="s">
-        <v>4000</v>
+        <v>3998</v>
       </c>
       <c r="D18" s="86" t="s">
         <v>168</v>
@@ -22176,13 +22176,13 @@
     </row>
     <row r="19" spans="1:46" ht="15.75" customHeight="1">
       <c r="A19" s="41" t="s">
-        <v>3830</v>
+        <v>3828</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="444" t="s">
-        <v>4000</v>
+        <v>3998</v>
       </c>
       <c r="D19" s="83" t="s">
         <v>168</v>
@@ -22193,7 +22193,7 @@
         <v>169</v>
       </c>
       <c r="H19" s="269" t="s">
-        <v>3972</v>
+        <v>3970</v>
       </c>
       <c r="I19" s="14" t="s">
         <v>194</v>
@@ -22274,7 +22274,7 @@
         <v>38</v>
       </c>
       <c r="C20" s="444" t="s">
-        <v>4001</v>
+        <v>3999</v>
       </c>
       <c r="D20" s="83" t="s">
         <v>168</v>
@@ -22285,13 +22285,13 @@
         <v>169</v>
       </c>
       <c r="H20" s="269" t="s">
-        <v>3972</v>
+        <v>3970</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>200</v>
       </c>
       <c r="J20" s="41" t="s">
-        <v>3858</v>
+        <v>3856</v>
       </c>
       <c r="K20" s="14" t="s">
         <v>201</v>
@@ -22362,7 +22362,7 @@
         <v>38</v>
       </c>
       <c r="C21" s="444" t="s">
-        <v>4001</v>
+        <v>3999</v>
       </c>
       <c r="D21" s="83" t="s">
         <v>168</v>
@@ -22373,11 +22373,11 @@
         <v>169</v>
       </c>
       <c r="H21" s="286" t="s">
-        <v>3971</v>
+        <v>3969</v>
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="41" t="s">
-        <v>3859</v>
+        <v>3857</v>
       </c>
       <c r="K21" s="14" t="s">
         <v>204</v>
@@ -22424,7 +22424,7 @@
       <c r="AC21" s="14"/>
       <c r="AD21" s="14"/>
       <c r="AE21" s="316" t="s">
-        <v>3852</v>
+        <v>3850</v>
       </c>
       <c r="AF21" s="37" t="s">
         <v>207</v>
@@ -22534,7 +22534,7 @@
       <c r="C23" s="234"/>
       <c r="D23" s="84"/>
       <c r="E23" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F23" s="326"/>
       <c r="G23" s="234"/>
@@ -22604,7 +22604,7 @@
     </row>
     <row r="24" spans="1:46" ht="15.75" customHeight="1">
       <c r="A24" s="109" t="s">
-        <v>4063</v>
+        <v>4061</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>227</v>
@@ -22678,7 +22678,7 @@
     </row>
     <row r="25" spans="1:46" ht="15.75" customHeight="1">
       <c r="A25" s="109" t="s">
-        <v>3786</v>
+        <v>3784</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>227</v>
@@ -22752,7 +22752,7 @@
     </row>
     <row r="26" spans="1:46" ht="15.75" customHeight="1">
       <c r="A26" s="109" t="s">
-        <v>3817</v>
+        <v>3815</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>227</v>
@@ -22765,7 +22765,7 @@
       </c>
       <c r="E26" s="269"/>
       <c r="F26" s="324" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>248</v>
@@ -22916,7 +22916,7 @@
     </row>
     <row r="28" spans="1:46" ht="15.75" customHeight="1">
       <c r="A28" s="358" t="s">
-        <v>4064</v>
+        <v>4062</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>268</v>
@@ -22930,7 +22930,7 @@
       <c r="E28" s="274"/>
       <c r="F28" s="343"/>
       <c r="G28" s="41" t="s">
-        <v>3831</v>
+        <v>3829</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>269</v>
@@ -23000,7 +23000,7 @@
     </row>
     <row r="29" spans="1:46" ht="15.75" customHeight="1">
       <c r="A29" s="109" t="s">
-        <v>4065</v>
+        <v>4063</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>268</v>
@@ -23010,7 +23010,7 @@
       </c>
       <c r="D29" s="81"/>
       <c r="E29" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F29" s="326"/>
       <c r="G29" s="234"/>
@@ -23078,7 +23078,7 @@
     </row>
     <row r="30" spans="1:46" ht="15.75" customHeight="1">
       <c r="A30" s="109" t="s">
-        <v>4066</v>
+        <v>4064</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>285</v>
@@ -23088,10 +23088,10 @@
       </c>
       <c r="D30" s="89"/>
       <c r="E30" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F30" s="324" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G30" s="41"/>
       <c r="H30" s="6" t="s">
@@ -23170,7 +23170,7 @@
       <c r="C31" s="407"/>
       <c r="D31" s="81"/>
       <c r="E31" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F31" s="326"/>
       <c r="G31" s="234"/>
@@ -23238,13 +23238,13 @@
     </row>
     <row r="32" spans="1:46" ht="15.75" customHeight="1">
       <c r="A32" s="109" t="s">
-        <v>4067</v>
+        <v>4065</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="444" t="s">
-        <v>4002</v>
+        <v>4000</v>
       </c>
       <c r="D32" s="83" t="s">
         <v>256</v>
@@ -23252,7 +23252,7 @@
       <c r="E32" s="274"/>
       <c r="F32" s="343"/>
       <c r="G32" s="41" t="s">
-        <v>3832</v>
+        <v>3830</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>300</v>
@@ -23324,13 +23324,13 @@
     </row>
     <row r="33" spans="1:46" ht="15.75" customHeight="1">
       <c r="A33" s="109" t="s">
-        <v>4068</v>
+        <v>4066</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="444" t="s">
-        <v>4002</v>
+        <v>4000</v>
       </c>
       <c r="D33" s="83" t="s">
         <v>256</v>
@@ -23338,7 +23338,7 @@
       <c r="E33" s="274"/>
       <c r="F33" s="343"/>
       <c r="G33" s="41" t="s">
-        <v>3832</v>
+        <v>3830</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>306</v>
@@ -23410,7 +23410,7 @@
     </row>
     <row r="34" spans="1:46" ht="15.75" customHeight="1">
       <c r="A34" s="358" t="s">
-        <v>4070</v>
+        <v>4068</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>38</v>
@@ -23418,12 +23418,12 @@
       <c r="C34" s="407"/>
       <c r="D34" s="84"/>
       <c r="E34" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F34" s="326"/>
       <c r="G34" s="234"/>
       <c r="H34" s="6" t="s">
-        <v>4069</v>
+        <v>4067</v>
       </c>
       <c r="I34" s="14" t="s">
         <v>312</v>
@@ -23507,7 +23507,7 @@
       </c>
       <c r="E35" s="269"/>
       <c r="F35" s="324" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="6" t="s">
@@ -23572,7 +23572,7 @@
     </row>
     <row r="36" spans="1:46" ht="15.75" customHeight="1">
       <c r="A36" s="109" t="s">
-        <v>4071</v>
+        <v>4069</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>38</v>
@@ -23585,11 +23585,11 @@
       <c r="F36" s="324"/>
       <c r="G36" s="14"/>
       <c r="H36" s="269" t="s">
-        <v>3901</v>
+        <v>3899</v>
       </c>
       <c r="I36" s="14"/>
       <c r="J36" s="109" t="s">
-        <v>3887</v>
+        <v>3885</v>
       </c>
       <c r="K36" s="21" t="s">
         <v>333</v>
@@ -23622,7 +23622,7 @@
         <v>317</v>
       </c>
       <c r="W36" s="14" t="s">
-        <v>3818</v>
+        <v>3816</v>
       </c>
       <c r="X36" s="14"/>
       <c r="Y36" s="14"/>
@@ -23656,7 +23656,7 @@
     </row>
     <row r="37" spans="1:46" ht="15.75" customHeight="1">
       <c r="A37" s="109" t="s">
-        <v>4072</v>
+        <v>4070</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>38</v>
@@ -23669,7 +23669,7 @@
       <c r="F37" s="324"/>
       <c r="G37" s="14"/>
       <c r="H37" s="269" t="s">
-        <v>3902</v>
+        <v>3900</v>
       </c>
       <c r="I37" s="14"/>
       <c r="J37" s="109" t="s">
@@ -23706,7 +23706,7 @@
         <v>331</v>
       </c>
       <c r="W37" s="14" t="s">
-        <v>3819</v>
+        <v>3817</v>
       </c>
       <c r="X37" s="14"/>
       <c r="Y37" s="14"/>
@@ -23742,14 +23742,14 @@
       <c r="C38" s="259"/>
       <c r="D38" s="84"/>
       <c r="E38" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F38" s="326" t="s">
         <v>457</v>
       </c>
       <c r="G38" s="234"/>
       <c r="H38" s="14" t="s">
-        <v>3902</v>
+        <v>3900</v>
       </c>
       <c r="I38" s="14" t="s">
         <v>350</v>
@@ -23780,7 +23780,7 @@
       </c>
       <c r="V38" s="14"/>
       <c r="W38" s="14" t="s">
-        <v>3820</v>
+        <v>3818</v>
       </c>
       <c r="X38" s="14"/>
       <c r="Y38" s="14"/>
@@ -23808,30 +23808,30 @@
     </row>
     <row r="39" spans="1:46" s="100" customFormat="1" ht="15.75" customHeight="1">
       <c r="A39" s="109" t="s">
-        <v>4073</v>
+        <v>4071</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="403" t="s">
-        <v>4077</v>
+        <v>4075</v>
       </c>
       <c r="D39" s="83" t="s">
         <v>168</v>
       </c>
       <c r="E39" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F39" s="324"/>
       <c r="G39" s="14"/>
       <c r="H39" s="235" t="s">
-        <v>3902</v>
+        <v>3900</v>
       </c>
       <c r="I39" s="14" t="s">
         <v>243</v>
       </c>
       <c r="J39" s="41" t="s">
-        <v>3860</v>
+        <v>3858</v>
       </c>
       <c r="K39" s="15" t="s">
         <v>244</v>
@@ -23856,7 +23856,7 @@
       </c>
       <c r="V39" s="14"/>
       <c r="W39" s="14" t="s">
-        <v>3821</v>
+        <v>3819</v>
       </c>
       <c r="X39" s="14"/>
       <c r="Y39" s="14"/>
@@ -23866,7 +23866,7 @@
       <c r="AC39" s="14"/>
       <c r="AD39" s="14"/>
       <c r="AE39" s="216" t="s">
-        <v>3850</v>
+        <v>3848</v>
       </c>
       <c r="AF39" s="14"/>
       <c r="AG39" s="14"/>
@@ -23886,30 +23886,30 @@
     </row>
     <row r="40" spans="1:46" s="100" customFormat="1" ht="15.75" customHeight="1">
       <c r="A40" s="109" t="s">
-        <v>4074</v>
+        <v>4072</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C40" s="234" t="s">
-        <v>4077</v>
+        <v>4075</v>
       </c>
       <c r="D40" s="83" t="s">
         <v>168</v>
       </c>
       <c r="E40" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F40" s="324"/>
       <c r="G40" s="14"/>
       <c r="H40" s="235" t="s">
-        <v>3902</v>
+        <v>3900</v>
       </c>
       <c r="I40" s="14" t="s">
         <v>243</v>
       </c>
       <c r="J40" s="41" t="s">
-        <v>3861</v>
+        <v>3859</v>
       </c>
       <c r="K40" s="21" t="s">
         <v>245</v>
@@ -23966,7 +23966,7 @@
         <v>38</v>
       </c>
       <c r="C41" s="446" t="s">
-        <v>3980</v>
+        <v>3978</v>
       </c>
       <c r="D41" s="84"/>
       <c r="E41" s="269"/>
@@ -23977,7 +23977,7 @@
       </c>
       <c r="I41" s="14"/>
       <c r="J41" s="41" t="s">
-        <v>3760</v>
+        <v>3758</v>
       </c>
       <c r="K41" s="21" t="s">
         <v>355</v>
@@ -23988,7 +23988,7 @@
         <v>356</v>
       </c>
       <c r="O41" s="38" t="s">
-        <v>3759</v>
+        <v>3757</v>
       </c>
       <c r="P41" s="26" t="s">
         <v>357</v>
@@ -24030,17 +24030,17 @@
     </row>
     <row r="42" spans="1:46" ht="15.75" customHeight="1">
       <c r="A42" s="109" t="s">
-        <v>4075</v>
+        <v>4073</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C42" s="259" t="s">
-        <v>4076</v>
+        <v>4074</v>
       </c>
       <c r="D42" s="84"/>
       <c r="E42" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F42" s="326"/>
       <c r="G42" s="234"/>
@@ -24106,17 +24106,17 @@
     </row>
     <row r="43" spans="1:46" ht="15.75" customHeight="1">
       <c r="A43" s="109" t="s">
-        <v>4078</v>
+        <v>4076</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C43" s="259" t="s">
-        <v>4076</v>
+        <v>4074</v>
       </c>
       <c r="D43" s="84"/>
       <c r="E43" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F43" s="326"/>
       <c r="G43" s="234"/>
@@ -24163,7 +24163,7 @@
         <v>375</v>
       </c>
       <c r="AB43" s="14" t="s">
-        <v>3776</v>
+        <v>3774</v>
       </c>
       <c r="AC43" s="14"/>
       <c r="AD43" s="14"/>
@@ -24197,7 +24197,7 @@
       <c r="D44" s="84"/>
       <c r="E44" s="269"/>
       <c r="F44" s="324" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="6" t="s">
@@ -24269,7 +24269,7 @@
       <c r="D45" s="84"/>
       <c r="E45" s="269"/>
       <c r="F45" s="324" t="s">
-        <v>3948</v>
+        <v>3946</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" s="6" t="s">
@@ -24332,7 +24332,7 @@
     </row>
     <row r="46" spans="1:46" ht="15.75" customHeight="1">
       <c r="A46" s="109" t="s">
-        <v>4079</v>
+        <v>4077</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>38</v>
@@ -24342,7 +24342,7 @@
       </c>
       <c r="D46" s="84"/>
       <c r="E46" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F46" s="326"/>
       <c r="G46" s="234"/>
@@ -24422,10 +24422,10 @@
       <c r="C47" s="141"/>
       <c r="D47" s="84"/>
       <c r="E47" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F47" s="324" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G47" s="234"/>
       <c r="H47" s="6" t="s">
@@ -24486,7 +24486,7 @@
     </row>
     <row r="48" spans="1:46" ht="15.75" customHeight="1">
       <c r="A48" s="109" t="s">
-        <v>4080</v>
+        <v>4078</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>405</v>
@@ -24496,7 +24496,7 @@
       </c>
       <c r="D48" s="84"/>
       <c r="E48" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F48" s="326"/>
       <c r="G48" s="234"/>
@@ -24636,7 +24636,7 @@
       <c r="AD49" s="14"/>
       <c r="AE49" s="14"/>
       <c r="AF49" s="14" t="s">
-        <v>3935</v>
+        <v>3933</v>
       </c>
       <c r="AG49" s="14"/>
       <c r="AH49" s="14"/>
@@ -24655,17 +24655,17 @@
     </row>
     <row r="50" spans="1:46" ht="15.75" customHeight="1">
       <c r="A50" s="109" t="s">
-        <v>4081</v>
+        <v>4079</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>405</v>
       </c>
       <c r="C50" s="109" t="s">
-        <v>3793</v>
+        <v>3791</v>
       </c>
       <c r="D50" s="84"/>
       <c r="E50" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F50" s="326"/>
       <c r="G50" s="234"/>
@@ -24733,22 +24733,22 @@
     </row>
     <row r="51" spans="1:46" ht="15.75" customHeight="1">
       <c r="A51" s="109" t="s">
-        <v>4082</v>
+        <v>4080</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C51" s="109" t="s">
-        <v>3792</v>
+        <v>3790</v>
       </c>
       <c r="D51" s="83" t="s">
         <v>435</v>
       </c>
       <c r="E51" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F51" s="324" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G51" s="14"/>
       <c r="H51" s="97" t="s">
@@ -24809,7 +24809,7 @@
     </row>
     <row r="52" spans="1:46" ht="15.75" customHeight="1">
       <c r="A52" s="109" t="s">
-        <v>4083</v>
+        <v>4081</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>440</v>
@@ -24880,7 +24880,7 @@
       </c>
       <c r="AG52" s="14"/>
       <c r="AH52" s="14" t="s">
-        <v>3916</v>
+        <v>3914</v>
       </c>
       <c r="AI52" s="14"/>
       <c r="AJ52" s="14"/>
@@ -24903,7 +24903,7 @@
         <v>440</v>
       </c>
       <c r="C53" s="251" t="s">
-        <v>3981</v>
+        <v>3979</v>
       </c>
       <c r="D53" s="450"/>
       <c r="E53" s="269"/>
@@ -24966,7 +24966,7 @@
       <c r="AF53" s="14"/>
       <c r="AG53" s="14"/>
       <c r="AH53" s="14" t="s">
-        <v>3916</v>
+        <v>3914</v>
       </c>
       <c r="AI53" s="14"/>
       <c r="AJ53" s="14"/>
@@ -24982,8 +24982,8 @@
       <c r="AT53" s="14"/>
     </row>
     <row r="54" spans="1:46" s="100" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A54" s="358" t="s">
-        <v>3716</v>
+      <c r="A54" s="357" t="s">
+        <v>4082</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>465</v>
@@ -25000,7 +25000,7 @@
       </c>
       <c r="I54" s="14"/>
       <c r="J54" s="109" t="s">
-        <v>3888</v>
+        <v>3886</v>
       </c>
       <c r="K54" s="21" t="s">
         <v>467</v>
@@ -25039,16 +25039,16 @@
       <c r="AC54" s="14"/>
       <c r="AD54" s="14"/>
       <c r="AE54" s="118" t="s">
-        <v>3844</v>
+        <v>3842</v>
       </c>
       <c r="AF54" s="14" t="s">
         <v>473</v>
       </c>
       <c r="AG54" s="14" t="s">
-        <v>3917</v>
+        <v>3915</v>
       </c>
       <c r="AH54" s="14" t="s">
-        <v>3916</v>
+        <v>3914</v>
       </c>
       <c r="AI54" s="99"/>
       <c r="AJ54" s="99"/>
@@ -25073,7 +25073,7 @@
       <c r="C55" s="259"/>
       <c r="D55" s="84"/>
       <c r="E55" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F55" s="326"/>
       <c r="G55" s="234"/>
@@ -25081,7 +25081,7 @@
         <v>475</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>4003</v>
+        <v>4001</v>
       </c>
       <c r="J55" s="41" t="s">
         <v>476</v>
@@ -25145,7 +25145,7 @@
       <c r="C56" s="234"/>
       <c r="D56" s="84"/>
       <c r="E56" s="437" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F56" s="330"/>
       <c r="G56" s="235"/>
@@ -25217,7 +25217,7 @@
     </row>
     <row r="57" spans="1:46" ht="15.75" customHeight="1">
       <c r="A57" s="109" t="s">
-        <v>3717</v>
+        <v>4083</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>38</v>
@@ -25228,7 +25228,7 @@
       <c r="D57" s="84"/>
       <c r="E57" s="269"/>
       <c r="F57" s="324" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G57" s="14"/>
       <c r="H57" s="6" t="s">
@@ -25289,7 +25289,7 @@
     </row>
     <row r="58" spans="1:46" ht="15.75" customHeight="1">
       <c r="A58" s="109" t="s">
-        <v>3718</v>
+        <v>3716</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>38</v>
@@ -25299,7 +25299,7 @@
         <v>168</v>
       </c>
       <c r="E58" s="274" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F58" s="324"/>
       <c r="G58" s="14"/>
@@ -25310,7 +25310,7 @@
         <v>170</v>
       </c>
       <c r="J58" s="41" t="s">
-        <v>3862</v>
+        <v>3860</v>
       </c>
       <c r="K58" s="21" t="s">
         <v>497</v>
@@ -25365,7 +25365,7 @@
     </row>
     <row r="59" spans="1:46" ht="15.75" customHeight="1">
       <c r="A59" s="109" t="s">
-        <v>3719</v>
+        <v>3717</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>38</v>
@@ -25377,7 +25377,7 @@
         <v>168</v>
       </c>
       <c r="E59" s="274" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F59" s="324"/>
       <c r="G59" s="14"/>
@@ -25388,7 +25388,7 @@
         <v>170</v>
       </c>
       <c r="J59" s="41" t="s">
-        <v>3881</v>
+        <v>3879</v>
       </c>
       <c r="K59" s="21" t="s">
         <v>501</v>
@@ -25439,7 +25439,7 @@
     </row>
     <row r="60" spans="1:46" ht="15.75" customHeight="1">
       <c r="A60" s="109" t="s">
-        <v>3720</v>
+        <v>3718</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>38</v>
@@ -25492,7 +25492,7 @@
       <c r="Z60" s="24"/>
       <c r="AA60" s="24"/>
       <c r="AB60" s="14" t="s">
-        <v>3833</v>
+        <v>3831</v>
       </c>
       <c r="AC60" s="14" t="s">
         <v>510</v>
@@ -25519,7 +25519,7 @@
     </row>
     <row r="61" spans="1:46" ht="15.75" customHeight="1">
       <c r="A61" s="109" t="s">
-        <v>3721</v>
+        <v>3719</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>38</v>
@@ -25527,7 +25527,7 @@
       <c r="C61" s="259"/>
       <c r="D61" s="84"/>
       <c r="E61" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F61" s="326"/>
       <c r="G61" s="234"/>
@@ -25675,10 +25675,10 @@
         <v>528</v>
       </c>
       <c r="E63" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F63" s="324" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="97" t="s">
@@ -25751,7 +25751,7 @@
       <c r="C64" s="141"/>
       <c r="D64" s="84"/>
       <c r="E64" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F64" s="326" t="s">
         <v>535</v>
@@ -25831,7 +25831,7 @@
       <c r="C65" s="234"/>
       <c r="D65" s="84"/>
       <c r="E65" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F65" s="324"/>
       <c r="G65" s="14"/>
@@ -25914,7 +25914,7 @@
       </c>
       <c r="E66" s="269"/>
       <c r="F66" s="324" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G66" s="14" t="s">
         <v>553</v>
@@ -25991,10 +25991,10 @@
         <v>559</v>
       </c>
       <c r="E67" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F67" s="326" t="s">
-        <v>3949</v>
+        <v>3947</v>
       </c>
       <c r="G67" s="234"/>
       <c r="H67" s="6" t="s">
@@ -26002,7 +26002,7 @@
       </c>
       <c r="I67" s="14"/>
       <c r="J67" s="41" t="s">
-        <v>3863</v>
+        <v>3861</v>
       </c>
       <c r="K67" s="21" t="s">
         <v>561</v>
@@ -26020,7 +26020,7 @@
       </c>
       <c r="Q67" s="110"/>
       <c r="R67" s="196" t="s">
-        <v>3893</v>
+        <v>3891</v>
       </c>
       <c r="S67" s="196" t="s">
         <v>565</v>
@@ -26055,7 +26055,7 @@
         <v>569</v>
       </c>
       <c r="AG67" s="118" t="s">
-        <v>3892</v>
+        <v>3890</v>
       </c>
       <c r="AH67" s="14"/>
       <c r="AI67" s="14"/>
@@ -26079,11 +26079,11 @@
         <v>38</v>
       </c>
       <c r="C68" s="444" t="s">
-        <v>4004</v>
+        <v>4002</v>
       </c>
       <c r="D68" s="163"/>
       <c r="E68" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F68" s="333"/>
       <c r="G68" s="248"/>
@@ -26092,7 +26092,7 @@
       </c>
       <c r="I68" s="14"/>
       <c r="J68" s="14" t="s">
-        <v>3864</v>
+        <v>3862</v>
       </c>
       <c r="K68" s="21" t="s">
         <v>572</v>
@@ -26138,7 +26138,7 @@
         <v>577</v>
       </c>
       <c r="AF68" s="14" t="s">
-        <v>3934</v>
+        <v>3932</v>
       </c>
       <c r="AG68" s="14"/>
       <c r="AH68" s="14"/>
@@ -26163,7 +26163,7 @@
         <v>38</v>
       </c>
       <c r="C69" s="444" t="s">
-        <v>4005</v>
+        <v>4003</v>
       </c>
       <c r="D69" s="83"/>
       <c r="E69" s="269"/>
@@ -26266,7 +26266,7 @@
       </c>
       <c r="I70" s="14"/>
       <c r="J70" s="41" t="s">
-        <v>3889</v>
+        <v>3887</v>
       </c>
       <c r="K70" s="21" t="s">
         <v>591</v>
@@ -26331,7 +26331,7 @@
       <c r="C71" s="259"/>
       <c r="D71" s="84"/>
       <c r="E71" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F71" s="326"/>
       <c r="G71" s="234"/>
@@ -26408,7 +26408,7 @@
       <c r="D72" s="84"/>
       <c r="E72" s="269"/>
       <c r="F72" s="324" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="6" t="s">
@@ -26479,7 +26479,7 @@
         <v>38</v>
       </c>
       <c r="C73" s="444" t="s">
-        <v>4006</v>
+        <v>4004</v>
       </c>
       <c r="D73" s="84"/>
       <c r="E73" s="269"/>
@@ -26640,7 +26640,7 @@
       <c r="D75" s="405"/>
       <c r="E75" s="269"/>
       <c r="F75" s="324" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G75" s="14"/>
       <c r="H75" s="6" t="s">
@@ -26779,7 +26779,7 @@
         <v>38</v>
       </c>
       <c r="C77" s="444" t="s">
-        <v>4007</v>
+        <v>4005</v>
       </c>
       <c r="D77" s="84"/>
       <c r="E77" s="276"/>
@@ -26861,10 +26861,10 @@
       <c r="C78" s="261"/>
       <c r="D78" s="405"/>
       <c r="E78" s="276" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F78" s="324" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G78" s="236"/>
       <c r="H78" s="6" t="s">
@@ -26937,7 +26937,7 @@
       <c r="C79" s="234"/>
       <c r="D79" s="84"/>
       <c r="E79" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F79" s="326"/>
       <c r="G79" s="234"/>
@@ -27021,7 +27021,7 @@
         <v>559</v>
       </c>
       <c r="E80" s="276" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F80" s="327"/>
       <c r="G80" s="248"/>
@@ -27032,7 +27032,7 @@
         <v>675</v>
       </c>
       <c r="J80" s="172" t="s">
-        <v>3865</v>
+        <v>3863</v>
       </c>
       <c r="K80" s="21" t="s">
         <v>676</v>
@@ -27103,7 +27103,7 @@
         <v>559</v>
       </c>
       <c r="E81" s="276" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F81" s="326" t="s">
         <v>457</v>
@@ -27175,7 +27175,7 @@
       <c r="C82" s="259"/>
       <c r="D82" s="163"/>
       <c r="E82" s="276" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F82" s="333"/>
       <c r="G82" s="248"/>
@@ -27215,7 +27215,7 @@
         <v>695</v>
       </c>
       <c r="W82" s="101" t="s">
-        <v>3924</v>
+        <v>3922</v>
       </c>
       <c r="X82" s="101"/>
       <c r="Y82" s="101"/>
@@ -27399,10 +27399,10 @@
       <c r="C85" s="259"/>
       <c r="D85" s="84"/>
       <c r="E85" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F85" s="324" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G85" s="234"/>
       <c r="H85" s="6" t="s">
@@ -27484,7 +27484,7 @@
       </c>
       <c r="I86" s="14"/>
       <c r="J86" s="41" t="s">
-        <v>3890</v>
+        <v>3888</v>
       </c>
       <c r="K86" s="21" t="s">
         <v>719</v>
@@ -27547,14 +27547,14 @@
         <v>405</v>
       </c>
       <c r="C87" s="444" t="s">
-        <v>4008</v>
+        <v>4006</v>
       </c>
       <c r="D87" s="84"/>
       <c r="E87" s="269"/>
       <c r="F87" s="324"/>
       <c r="G87" s="14"/>
       <c r="H87" s="97" t="s">
-        <v>4058</v>
+        <v>4056</v>
       </c>
       <c r="I87" s="14"/>
       <c r="J87" s="41" t="s">
@@ -27635,10 +27635,10 @@
         <v>735</v>
       </c>
       <c r="E88" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F88" s="324" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G88" s="14"/>
       <c r="H88" s="6" t="s">
@@ -27873,14 +27873,14 @@
         <v>38</v>
       </c>
       <c r="C91" s="402" t="s">
-        <v>3982</v>
+        <v>3980</v>
       </c>
       <c r="D91" s="406" t="s">
         <v>762</v>
       </c>
       <c r="E91" s="411"/>
       <c r="F91" s="334" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G91" s="401"/>
       <c r="H91" s="6" t="s">
@@ -27953,7 +27953,7 @@
       <c r="C92" s="261"/>
       <c r="D92" s="163"/>
       <c r="E92" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F92" s="327"/>
       <c r="G92" s="248"/>
@@ -28057,11 +28057,11 @@
         <v>781</v>
       </c>
       <c r="Q93" s="31" t="s">
-        <v>3841</v>
+        <v>3839</v>
       </c>
       <c r="R93" s="31"/>
       <c r="S93" s="36" t="s">
-        <v>3840</v>
+        <v>3838</v>
       </c>
       <c r="T93" s="401" t="s">
         <v>489</v>
@@ -28116,7 +28116,7 @@
       </c>
       <c r="I94" s="14"/>
       <c r="J94" s="41" t="s">
-        <v>3882</v>
+        <v>3880</v>
       </c>
       <c r="K94" s="21" t="s">
         <v>785</v>
@@ -28130,7 +28130,7 @@
         <v>787</v>
       </c>
       <c r="P94" s="26" t="s">
-        <v>3856</v>
+        <v>3854</v>
       </c>
       <c r="Q94" s="26"/>
       <c r="R94" s="26"/>
@@ -28143,7 +28143,7 @@
       </c>
       <c r="V94" s="14"/>
       <c r="W94" s="14" t="s">
-        <v>3908</v>
+        <v>3906</v>
       </c>
       <c r="X94" s="14"/>
       <c r="Y94" s="14"/>
@@ -28153,7 +28153,7 @@
       <c r="AC94" s="14"/>
       <c r="AD94" s="14"/>
       <c r="AE94" s="216" t="s">
-        <v>3842</v>
+        <v>3840</v>
       </c>
       <c r="AF94" s="14"/>
       <c r="AG94" s="14"/>
@@ -28254,7 +28254,7 @@
       <c r="D96" s="405"/>
       <c r="E96" s="411"/>
       <c r="F96" s="324" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G96" s="401"/>
       <c r="H96" s="6" t="s">
@@ -28393,7 +28393,7 @@
       <c r="C98" s="234"/>
       <c r="D98" s="84"/>
       <c r="E98" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F98" s="326"/>
       <c r="G98" s="234"/>
@@ -28465,10 +28465,10 @@
         <v>812</v>
       </c>
       <c r="E99" s="362" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="F99" s="343" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G99" s="234"/>
       <c r="H99" s="6" t="s">
@@ -28546,7 +28546,7 @@
       </c>
       <c r="I100" s="14"/>
       <c r="J100" s="41" t="s">
-        <v>3891</v>
+        <v>3889</v>
       </c>
       <c r="K100" s="21" t="s">
         <v>820</v>
@@ -28681,7 +28681,7 @@
     </row>
     <row r="102" spans="1:46" ht="15.75" customHeight="1">
       <c r="A102" s="109" t="s">
-        <v>3791</v>
+        <v>3789</v>
       </c>
       <c r="B102" s="14" t="s">
         <v>836</v>
@@ -28691,10 +28691,10 @@
       </c>
       <c r="D102" s="84"/>
       <c r="E102" s="274" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F102" s="324" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G102" s="14"/>
       <c r="H102" s="6" t="s">
@@ -28763,12 +28763,12 @@
       <c r="C103" s="403"/>
       <c r="D103" s="84"/>
       <c r="E103" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F103" s="326"/>
       <c r="G103" s="234"/>
       <c r="H103" s="14" t="s">
-        <v>3903</v>
+        <v>3901</v>
       </c>
       <c r="I103" s="14"/>
       <c r="J103" s="41" t="s">
@@ -28852,7 +28852,7 @@
       <c r="F104" s="324"/>
       <c r="G104" s="14"/>
       <c r="H104" s="269" t="s">
-        <v>3903</v>
+        <v>3901</v>
       </c>
       <c r="I104" s="14" t="s">
         <v>852</v>
@@ -28923,7 +28923,7 @@
       <c r="C105" s="403"/>
       <c r="D105" s="84"/>
       <c r="E105" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F105" s="326"/>
       <c r="G105" s="234"/>
@@ -29001,10 +29001,10 @@
       <c r="C106" s="403"/>
       <c r="D106" s="84"/>
       <c r="E106" s="362" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="F106" s="343" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G106" s="234"/>
       <c r="H106" s="6" t="s">
@@ -29233,7 +29233,7 @@
       <c r="C109" s="234"/>
       <c r="D109" s="84"/>
       <c r="E109" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F109" s="326"/>
       <c r="G109" s="234"/>
@@ -29299,11 +29299,11 @@
         <v>38</v>
       </c>
       <c r="C110" s="234" t="s">
-        <v>4009</v>
+        <v>4007</v>
       </c>
       <c r="D110" s="84"/>
       <c r="E110" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F110" s="326"/>
       <c r="G110" s="234"/>
@@ -29452,7 +29452,7 @@
       <c r="D112" s="84"/>
       <c r="E112" s="269"/>
       <c r="F112" s="324" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G112" s="14"/>
       <c r="H112" s="6" t="s">
@@ -29525,7 +29525,7 @@
       <c r="C113" s="234"/>
       <c r="D113" s="84"/>
       <c r="E113" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F113" s="326"/>
       <c r="G113" s="234"/>
@@ -29599,13 +29599,13 @@
     </row>
     <row r="114" spans="1:46" ht="15.75" customHeight="1">
       <c r="A114" s="109" t="s">
-        <v>3790</v>
+        <v>3788</v>
       </c>
       <c r="B114" s="14" t="s">
         <v>405</v>
       </c>
       <c r="C114" s="444" t="s">
-        <v>4010</v>
+        <v>4008</v>
       </c>
       <c r="D114" s="84"/>
       <c r="E114" s="96"/>
@@ -29689,10 +29689,10 @@
       <c r="C115" s="234"/>
       <c r="D115" s="84"/>
       <c r="E115" s="362" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="F115" s="343" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G115" s="234"/>
       <c r="H115" s="6" t="s">
@@ -29765,7 +29765,7 @@
       <c r="C116" s="234"/>
       <c r="D116" s="84"/>
       <c r="E116" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F116" s="326"/>
       <c r="G116" s="234"/>
@@ -29774,7 +29774,7 @@
       </c>
       <c r="I116" s="14"/>
       <c r="J116" s="41" t="s">
-        <v>3866</v>
+        <v>3864</v>
       </c>
       <c r="K116" s="21" t="s">
         <v>953</v>
@@ -29835,7 +29835,7 @@
       <c r="C117" s="234"/>
       <c r="D117" s="84"/>
       <c r="E117" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F117" s="324"/>
       <c r="G117" s="14"/>
@@ -29913,7 +29913,7 @@
       <c r="C118" s="234"/>
       <c r="D118" s="84"/>
       <c r="E118" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F118" s="326"/>
       <c r="G118" s="234"/>
@@ -30000,7 +30000,7 @@
       </c>
       <c r="I119" s="14"/>
       <c r="J119" s="41" t="s">
-        <v>3774</v>
+        <v>3772</v>
       </c>
       <c r="K119" s="21" t="s">
         <v>981</v>
@@ -30067,10 +30067,10 @@
       <c r="C120" s="234"/>
       <c r="D120" s="84"/>
       <c r="E120" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F120" s="324" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G120" s="234"/>
       <c r="H120" s="6" t="s">
@@ -30139,7 +30139,7 @@
       <c r="C121" s="234"/>
       <c r="D121" s="84"/>
       <c r="E121" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F121" s="326"/>
       <c r="G121" s="234"/>
@@ -30205,7 +30205,7 @@
     </row>
     <row r="122" spans="1:46" ht="15.75" customHeight="1">
       <c r="A122" s="114" t="s">
-        <v>3789</v>
+        <v>3787</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>38</v>
@@ -30213,10 +30213,10 @@
       <c r="C122" s="234"/>
       <c r="D122" s="87"/>
       <c r="E122" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F122" s="349" t="s">
-        <v>3958</v>
+        <v>3956</v>
       </c>
       <c r="G122" s="234"/>
       <c r="H122" s="35" t="s">
@@ -30262,7 +30262,7 @@
       <c r="Z122" s="14"/>
       <c r="AA122" s="14"/>
       <c r="AB122" s="14" t="s">
-        <v>3777</v>
+        <v>3775</v>
       </c>
       <c r="AC122" s="14"/>
       <c r="AD122" s="14"/>
@@ -30371,10 +30371,10 @@
       <c r="C124" s="234"/>
       <c r="D124" s="84"/>
       <c r="E124" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F124" s="324" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G124" s="234"/>
       <c r="H124" s="23" t="s">
@@ -30445,7 +30445,7 @@
         <v>1028</v>
       </c>
       <c r="E125" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F125" s="324"/>
       <c r="G125" s="14" t="s">
@@ -30506,7 +30506,7 @@
       <c r="AD125" s="14"/>
       <c r="AE125" s="14"/>
       <c r="AF125" s="24" t="s">
-        <v>3931</v>
+        <v>3929</v>
       </c>
       <c r="AG125" s="10"/>
       <c r="AH125" s="14"/>
@@ -30533,14 +30533,14 @@
       <c r="C126" s="234"/>
       <c r="D126" s="84"/>
       <c r="E126" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F126" s="326" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="G126" s="234"/>
       <c r="H126" s="14" t="s">
-        <v>3903</v>
+        <v>3901</v>
       </c>
       <c r="I126" s="14" t="s">
         <v>1042</v>
@@ -30605,7 +30605,7 @@
       <c r="C127" s="234"/>
       <c r="D127" s="87"/>
       <c r="E127" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F127" s="326"/>
       <c r="G127" s="234"/>
@@ -30687,10 +30687,10 @@
       <c r="C128" s="236"/>
       <c r="D128" s="84"/>
       <c r="E128" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F128" s="324" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G128" s="234"/>
       <c r="H128" s="14" t="s">
@@ -30913,7 +30913,7 @@
         <v>38</v>
       </c>
       <c r="C131" s="251" t="s">
-        <v>3936</v>
+        <v>3934</v>
       </c>
       <c r="D131" s="84"/>
       <c r="E131" s="269"/>
@@ -30924,7 +30924,7 @@
       </c>
       <c r="I131" s="14"/>
       <c r="J131" s="127" t="s">
-        <v>3867</v>
+        <v>3865</v>
       </c>
       <c r="K131" s="21" t="s">
         <v>1082</v>
@@ -30997,7 +30997,7 @@
       <c r="C132" s="234"/>
       <c r="D132" s="84"/>
       <c r="E132" s="389" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F132" s="326" t="s">
         <v>457</v>
@@ -31069,7 +31069,7 @@
       <c r="C133" s="141"/>
       <c r="D133" s="163"/>
       <c r="E133" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F133" s="327"/>
       <c r="G133" s="248"/>
@@ -31080,7 +31080,7 @@
         <v>1093</v>
       </c>
       <c r="J133" s="14" t="s">
-        <v>3922</v>
+        <v>3920</v>
       </c>
       <c r="K133" s="21" t="s">
         <v>1094</v>
@@ -31097,7 +31097,7 @@
       <c r="Q133" s="385"/>
       <c r="R133" s="110"/>
       <c r="S133" s="26" t="s">
-        <v>3923</v>
+        <v>3921</v>
       </c>
       <c r="T133" s="166" t="s">
         <v>72</v>
@@ -31143,7 +31143,7 @@
         <v>1098</v>
       </c>
       <c r="E134" s="436" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="F134" s="326"/>
       <c r="G134" s="234"/>
@@ -31166,7 +31166,7 @@
         <v>810</v>
       </c>
       <c r="P134" s="19" t="s">
-        <v>3895</v>
+        <v>3893</v>
       </c>
       <c r="Q134" s="19"/>
       <c r="R134" s="31" t="s">
@@ -31183,7 +31183,7 @@
       </c>
       <c r="V134" s="14"/>
       <c r="W134" s="172" t="s">
-        <v>3909</v>
+        <v>3907</v>
       </c>
       <c r="X134" s="14"/>
       <c r="Y134" s="14"/>
@@ -31219,7 +31219,7 @@
       <c r="C135" s="234"/>
       <c r="D135" s="84"/>
       <c r="E135" s="436" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="F135" s="326"/>
       <c r="G135" s="234"/>
@@ -31228,7 +31228,7 @@
       </c>
       <c r="I135" s="14"/>
       <c r="J135" s="109" t="s">
-        <v>3896</v>
+        <v>3894</v>
       </c>
       <c r="K135" s="21" t="s">
         <v>960</v>
@@ -31259,7 +31259,7 @@
       </c>
       <c r="V135" s="14"/>
       <c r="W135" s="172" t="s">
-        <v>3910</v>
+        <v>3908</v>
       </c>
       <c r="X135" s="14"/>
       <c r="Y135" s="14"/>
@@ -31305,10 +31305,10 @@
       <c r="C136" s="259"/>
       <c r="D136" s="84"/>
       <c r="E136" s="436" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="F136" s="324" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G136" s="234"/>
       <c r="H136" s="7" t="s">
@@ -31345,7 +31345,7 @@
       </c>
       <c r="V136" s="14"/>
       <c r="W136" s="404" t="s">
-        <v>3911</v>
+        <v>3909</v>
       </c>
       <c r="X136" s="14"/>
       <c r="Y136" s="14"/>
@@ -31390,7 +31390,7 @@
       </c>
       <c r="I137" s="14"/>
       <c r="J137" s="41" t="s">
-        <v>3772</v>
+        <v>3770</v>
       </c>
       <c r="K137" s="21" t="s">
         <v>1122</v>
@@ -31453,7 +31453,7 @@
       <c r="C138" s="234"/>
       <c r="D138" s="84"/>
       <c r="E138" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F138" s="326"/>
       <c r="G138" s="234"/>
@@ -31536,7 +31536,7 @@
       </c>
       <c r="I139" s="14"/>
       <c r="J139" s="41" t="s">
-        <v>3773</v>
+        <v>3771</v>
       </c>
       <c r="K139" s="21" t="s">
         <v>1136</v>
@@ -31599,7 +31599,7 @@
       <c r="C140" s="234"/>
       <c r="D140" s="84"/>
       <c r="E140" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F140" s="326"/>
       <c r="G140" s="234"/>
@@ -31669,7 +31669,7 @@
       <c r="C141" s="234"/>
       <c r="D141" s="87"/>
       <c r="E141" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F141" s="324"/>
       <c r="G141" s="14"/>
@@ -31751,10 +31751,10 @@
       <c r="C142" s="234"/>
       <c r="D142" s="84"/>
       <c r="E142" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F142" s="324" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G142" s="234"/>
       <c r="H142" s="6" t="s">
@@ -31823,10 +31823,10 @@
       <c r="C143" s="234"/>
       <c r="D143" s="87"/>
       <c r="E143" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F143" s="326" t="s">
-        <v>3966</v>
+        <v>3964</v>
       </c>
       <c r="G143" s="234"/>
       <c r="H143" s="22" t="s">
@@ -31863,7 +31863,7 @@
       </c>
       <c r="V143" s="14"/>
       <c r="W143" s="14" t="s">
-        <v>3824</v>
+        <v>3822</v>
       </c>
       <c r="X143" s="14"/>
       <c r="Y143" s="14"/>
@@ -31899,10 +31899,10 @@
       <c r="C144" s="234"/>
       <c r="D144" s="87"/>
       <c r="E144" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F144" s="326" t="s">
-        <v>3966</v>
+        <v>3964</v>
       </c>
       <c r="G144" s="234"/>
       <c r="H144" s="22" t="s">
@@ -31939,7 +31939,7 @@
       </c>
       <c r="V144" s="14"/>
       <c r="W144" s="14" t="s">
-        <v>3825</v>
+        <v>3823</v>
       </c>
       <c r="X144" s="14"/>
       <c r="Y144" s="14"/>
@@ -31975,7 +31975,7 @@
       <c r="C145" s="234"/>
       <c r="D145" s="84"/>
       <c r="E145" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F145" s="326"/>
       <c r="G145" s="234"/>
@@ -32143,10 +32143,10 @@
       <c r="C147" s="234"/>
       <c r="D147" s="87"/>
       <c r="E147" s="362" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="F147" s="343" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G147" s="234"/>
       <c r="H147" s="10" t="s">
@@ -32219,10 +32219,10 @@
       <c r="C148" s="234"/>
       <c r="D148" s="90"/>
       <c r="E148" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F148" s="326" t="s">
-        <v>3956</v>
+        <v>3954</v>
       </c>
       <c r="G148" s="234"/>
       <c r="H148" s="10" t="s">
@@ -32303,7 +32303,7 @@
       <c r="C149" s="234"/>
       <c r="D149" s="87"/>
       <c r="E149" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F149" s="326"/>
       <c r="G149" s="234"/>
@@ -32385,10 +32385,10 @@
       <c r="C150" s="234"/>
       <c r="D150" s="84"/>
       <c r="E150" s="362" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="F150" s="343" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G150" s="234"/>
       <c r="H150" s="14" t="s">
@@ -32457,7 +32457,7 @@
       <c r="C151" s="234"/>
       <c r="D151" s="84"/>
       <c r="E151" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F151" s="326"/>
       <c r="G151" s="234"/>
@@ -32535,10 +32535,10 @@
       <c r="C152" s="234"/>
       <c r="D152" s="84"/>
       <c r="E152" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F152" s="324" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G152" s="234"/>
       <c r="H152" s="6" t="s">
@@ -32607,7 +32607,7 @@
       <c r="C153" s="234"/>
       <c r="D153" s="84"/>
       <c r="E153" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F153" s="324"/>
       <c r="G153" s="14"/>
@@ -32616,7 +32616,7 @@
       </c>
       <c r="I153" s="14"/>
       <c r="J153" s="109" t="s">
-        <v>3869</v>
+        <v>3867</v>
       </c>
       <c r="K153" s="21" t="s">
         <v>1237</v>
@@ -32677,7 +32677,7 @@
       <c r="C154" s="234"/>
       <c r="D154" s="84"/>
       <c r="E154" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F154" s="326"/>
       <c r="G154" s="234"/>
@@ -32688,7 +32688,7 @@
         <v>1242</v>
       </c>
       <c r="J154" s="109" t="s">
-        <v>3868</v>
+        <v>3866</v>
       </c>
       <c r="K154" s="21" t="s">
         <v>1243</v>
@@ -32749,7 +32749,7 @@
         <v>1249</v>
       </c>
       <c r="C155" s="444" t="s">
-        <v>4011</v>
+        <v>4009</v>
       </c>
       <c r="D155" s="87"/>
       <c r="E155" s="269"/>
@@ -32923,7 +32923,7 @@
       <c r="C157" s="234"/>
       <c r="D157" s="87"/>
       <c r="E157" s="274" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F157" s="326"/>
       <c r="G157" s="234"/>
@@ -32997,12 +32997,12 @@
         <v>38</v>
       </c>
       <c r="C158" s="444" t="s">
-        <v>4012</v>
+        <v>4010</v>
       </c>
       <c r="D158" s="87"/>
       <c r="E158" s="390"/>
       <c r="F158" s="326" t="s">
-        <v>3957</v>
+        <v>3955</v>
       </c>
       <c r="G158" s="14"/>
       <c r="H158" s="35" t="s">
@@ -33073,10 +33073,10 @@
       <c r="C159" s="234"/>
       <c r="D159" s="84"/>
       <c r="E159" s="274" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F159" s="324" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G159" s="234"/>
       <c r="H159" s="6" t="s">
@@ -33145,7 +33145,7 @@
       <c r="C160" s="234"/>
       <c r="D160" s="87"/>
       <c r="E160" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F160" s="326"/>
       <c r="G160" s="234"/>
@@ -33223,10 +33223,10 @@
       <c r="C161" s="234"/>
       <c r="D161" s="92"/>
       <c r="E161" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F161" s="326" t="s">
-        <v>3957</v>
+        <v>3955</v>
       </c>
       <c r="G161" s="234"/>
       <c r="H161" s="8" t="s">
@@ -33272,7 +33272,7 @@
       <c r="Z161" s="14"/>
       <c r="AA161" s="14"/>
       <c r="AB161" s="14" t="s">
-        <v>3929</v>
+        <v>3927</v>
       </c>
       <c r="AC161" s="14"/>
       <c r="AD161" s="14"/>
@@ -33307,10 +33307,10 @@
       <c r="C162" s="234"/>
       <c r="D162" s="84"/>
       <c r="E162" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F162" s="324" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G162" s="234"/>
       <c r="H162" s="6" t="s">
@@ -33379,7 +33379,7 @@
       <c r="C163" s="234"/>
       <c r="D163" s="84"/>
       <c r="E163" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F163" s="326"/>
       <c r="G163" s="234"/>
@@ -33453,7 +33453,7 @@
       <c r="C164" s="234"/>
       <c r="D164" s="84"/>
       <c r="E164" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F164" s="326"/>
       <c r="G164" s="234"/>
@@ -33533,10 +33533,10 @@
       <c r="C165" s="234"/>
       <c r="D165" s="84"/>
       <c r="E165" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F165" s="324" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G165" s="234"/>
       <c r="H165" s="6" t="s">
@@ -33605,10 +33605,10 @@
       <c r="C166" s="234"/>
       <c r="D166" s="87"/>
       <c r="E166" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F166" s="326" t="s">
-        <v>3957</v>
+        <v>3955</v>
       </c>
       <c r="G166" s="234"/>
       <c r="H166" s="35" t="s">
@@ -33689,7 +33689,7 @@
       <c r="C167" s="234"/>
       <c r="D167" s="87"/>
       <c r="E167" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F167" s="326"/>
       <c r="G167" s="234"/>
@@ -33710,7 +33710,7 @@
         <v>165</v>
       </c>
       <c r="P167" s="53" t="s">
-        <v>3795</v>
+        <v>3793</v>
       </c>
       <c r="Q167" s="53"/>
       <c r="R167" s="152" t="s">
@@ -33720,7 +33720,7 @@
         <v>1353</v>
       </c>
       <c r="T167" s="401" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="U167" s="10" t="s">
         <v>36</v>
@@ -33763,10 +33763,10 @@
       <c r="C168" s="234"/>
       <c r="D168" s="87"/>
       <c r="E168" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F168" s="326" t="s">
-        <v>3957</v>
+        <v>3955</v>
       </c>
       <c r="G168" s="234"/>
       <c r="H168" s="35" t="s">
@@ -33925,10 +33925,10 @@
       <c r="C170" s="234"/>
       <c r="D170" s="84"/>
       <c r="E170" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F170" s="326" t="s">
-        <v>3951</v>
+        <v>3949</v>
       </c>
       <c r="G170" s="234"/>
       <c r="H170" s="6" t="s">
@@ -33997,10 +33997,10 @@
       <c r="C171" s="259"/>
       <c r="D171" s="84"/>
       <c r="E171" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F171" s="326" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="G171" s="234"/>
       <c r="H171" s="23" t="s">
@@ -34071,7 +34071,7 @@
       <c r="C172" s="234"/>
       <c r="D172" s="84"/>
       <c r="E172" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F172" s="326"/>
       <c r="G172" s="234"/>
@@ -34123,7 +34123,7 @@
         <v>569</v>
       </c>
       <c r="AG172" s="14" t="s">
-        <v>3918</v>
+        <v>3916</v>
       </c>
       <c r="AH172" s="14"/>
       <c r="AI172" s="14"/>
@@ -34149,10 +34149,10 @@
       <c r="C173" s="234"/>
       <c r="D173" s="87"/>
       <c r="E173" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F173" s="326" t="s">
-        <v>3962</v>
+        <v>3960</v>
       </c>
       <c r="G173" s="234"/>
       <c r="H173" s="35" t="s">
@@ -34236,7 +34236,7 @@
       <c r="D174" s="84"/>
       <c r="E174" s="269"/>
       <c r="F174" s="324" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G174" s="14"/>
       <c r="H174" s="97" t="s">
@@ -34306,7 +34306,7 @@
       <c r="D175" s="84"/>
       <c r="E175" s="269"/>
       <c r="F175" s="324" t="s">
-        <v>3952</v>
+        <v>3950</v>
       </c>
       <c r="G175" s="14"/>
       <c r="H175" s="6" t="s">
@@ -34381,10 +34381,10 @@
       </c>
       <c r="D176" s="84"/>
       <c r="E176" s="436" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="F176" s="324" t="s">
-        <v>3952</v>
+        <v>3950</v>
       </c>
       <c r="G176" s="14"/>
       <c r="H176" s="23" t="s">
@@ -34445,22 +34445,22 @@
     </row>
     <row r="177" spans="1:46" s="106" customFormat="1" ht="15.75" customHeight="1">
       <c r="A177" s="114" t="s">
-        <v>3990</v>
+        <v>3988</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>440</v>
       </c>
       <c r="C177" s="444" t="s">
-        <v>3983</v>
+        <v>3981</v>
       </c>
       <c r="D177" s="87"/>
       <c r="E177" s="269"/>
       <c r="F177" s="324" t="s">
-        <v>3968</v>
+        <v>3966</v>
       </c>
       <c r="G177" s="14"/>
       <c r="H177" s="10" t="s">
-        <v>3969</v>
+        <v>3967</v>
       </c>
       <c r="I177" s="10" t="s">
         <v>1426</v>
@@ -34546,11 +34546,11 @@
       </c>
       <c r="E178" s="269"/>
       <c r="F178" s="326" t="s">
-        <v>3967</v>
+        <v>3965</v>
       </c>
       <c r="G178" s="14"/>
       <c r="H178" s="10" t="s">
-        <v>3969</v>
+        <v>3967</v>
       </c>
       <c r="I178" s="10" t="s">
         <v>1437</v>
@@ -34631,7 +34631,7 @@
       <c r="C179" s="163"/>
       <c r="D179" s="168"/>
       <c r="E179" s="275" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F179" s="327"/>
       <c r="G179" s="248"/>
@@ -34682,7 +34682,7 @@
       <c r="AD179" s="14"/>
       <c r="AE179" s="14"/>
       <c r="AF179" s="10" t="s">
-        <v>3932</v>
+        <v>3930</v>
       </c>
       <c r="AG179" s="10"/>
       <c r="AH179" s="14"/>
@@ -34712,7 +34712,7 @@
       <c r="D180" s="87"/>
       <c r="E180" s="269"/>
       <c r="F180" s="326" t="s">
-        <v>3970</v>
+        <v>3968</v>
       </c>
       <c r="G180" s="14"/>
       <c r="H180" s="35" t="s">
@@ -34781,12 +34781,12 @@
         <v>38</v>
       </c>
       <c r="C181" s="444" t="s">
-        <v>4014</v>
+        <v>4012</v>
       </c>
       <c r="D181" s="87"/>
       <c r="E181" s="96"/>
       <c r="F181" s="326" t="s">
-        <v>3970</v>
+        <v>3968</v>
       </c>
       <c r="G181" s="234"/>
       <c r="H181" s="35" t="s">
@@ -34867,7 +34867,7 @@
       <c r="C182" s="234"/>
       <c r="D182" s="84"/>
       <c r="E182" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F182" s="326"/>
       <c r="G182" s="234"/>
@@ -35091,14 +35091,14 @@
       <c r="C185" s="234"/>
       <c r="D185" s="92"/>
       <c r="E185" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F185" s="326" t="s">
-        <v>3970</v>
+        <v>3968</v>
       </c>
       <c r="G185" s="234"/>
       <c r="H185" s="10" t="s">
-        <v>3969</v>
+        <v>3967</v>
       </c>
       <c r="I185" s="9" t="s">
         <v>1492</v>
@@ -35175,14 +35175,14 @@
       <c r="C186" s="234"/>
       <c r="D186" s="87"/>
       <c r="E186" s="362" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="F186" s="326" t="s">
-        <v>3970</v>
+        <v>3968</v>
       </c>
       <c r="G186" s="234"/>
       <c r="H186" s="10" t="s">
-        <v>3969</v>
+        <v>3967</v>
       </c>
       <c r="I186" s="10" t="s">
         <v>1501</v>
@@ -35259,7 +35259,7 @@
       <c r="C187" s="234"/>
       <c r="D187" s="87"/>
       <c r="E187" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F187" s="326"/>
       <c r="G187" s="234"/>
@@ -35331,7 +35331,7 @@
       <c r="C188" s="234"/>
       <c r="D188" s="91"/>
       <c r="E188" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F188" s="326"/>
       <c r="G188" s="234"/>
@@ -35403,10 +35403,10 @@
       <c r="C189" s="234"/>
       <c r="D189" s="92"/>
       <c r="E189" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F189" s="326" t="s">
-        <v>3963</v>
+        <v>3961</v>
       </c>
       <c r="G189" s="234"/>
       <c r="H189" s="9" t="s">
@@ -35480,7 +35480,7 @@
       <c r="D190" s="87"/>
       <c r="E190" s="269"/>
       <c r="F190" s="326" t="s">
-        <v>3970</v>
+        <v>3968</v>
       </c>
       <c r="G190" s="14"/>
       <c r="H190" s="35" t="s">
@@ -35549,7 +35549,7 @@
       <c r="C191" s="234"/>
       <c r="D191" s="84"/>
       <c r="E191" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F191" s="326"/>
       <c r="G191" s="234"/>
@@ -35592,7 +35592,7 @@
       <c r="Z191" s="14"/>
       <c r="AA191" s="41"/>
       <c r="AB191" s="14" t="s">
-        <v>3834</v>
+        <v>3832</v>
       </c>
       <c r="AC191" s="14" t="s">
         <v>1540</v>
@@ -35627,7 +35627,7 @@
       <c r="C192" s="234"/>
       <c r="D192" s="84"/>
       <c r="E192" s="362" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="F192" s="326"/>
       <c r="G192" s="234"/>
@@ -35697,7 +35697,7 @@
         <v>38</v>
       </c>
       <c r="C193" s="444" t="s">
-        <v>3937</v>
+        <v>3935</v>
       </c>
       <c r="D193" s="84"/>
       <c r="E193" s="269"/>
@@ -35778,7 +35778,7 @@
       <c r="D194" s="87"/>
       <c r="E194" s="269"/>
       <c r="F194" s="349" t="s">
-        <v>3960</v>
+        <v>3958</v>
       </c>
       <c r="G194" s="14"/>
       <c r="H194" s="57" t="s">
@@ -35815,7 +35815,7 @@
       </c>
       <c r="V194" s="14"/>
       <c r="W194" s="14" t="s">
-        <v>3822</v>
+        <v>3820</v>
       </c>
       <c r="X194" s="14" t="s">
         <v>1008</v>
@@ -35864,7 +35864,7 @@
       <c r="D195" s="84"/>
       <c r="E195" s="269"/>
       <c r="F195" s="326" t="s">
-        <v>3956</v>
+        <v>3954</v>
       </c>
       <c r="G195" s="14"/>
       <c r="H195" s="23" t="s">
@@ -35901,7 +35901,7 @@
       </c>
       <c r="V195" s="14"/>
       <c r="W195" s="14" t="s">
-        <v>3823</v>
+        <v>3821</v>
       </c>
       <c r="X195" s="14" t="s">
         <v>1008</v>
@@ -35947,7 +35947,7 @@
       <c r="C196" s="234"/>
       <c r="D196" s="84"/>
       <c r="E196" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F196" s="326"/>
       <c r="G196" s="234"/>
@@ -35967,7 +35967,7 @@
         <v>1583</v>
       </c>
       <c r="O196" s="38" t="s">
-        <v>3759</v>
+        <v>3757</v>
       </c>
       <c r="P196" s="26" t="s">
         <v>1584</v>
@@ -36017,7 +36017,7 @@
       <c r="C197" s="259"/>
       <c r="D197" s="84"/>
       <c r="E197" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F197" s="326"/>
       <c r="G197" s="234"/>
@@ -36087,7 +36087,7 @@
       <c r="C198" s="236"/>
       <c r="D198" s="84"/>
       <c r="E198" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F198" s="326"/>
       <c r="G198" s="234"/>
@@ -36157,10 +36157,10 @@
       <c r="C199" s="234"/>
       <c r="D199" s="84"/>
       <c r="E199" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F199" s="326" t="s">
-        <v>3956</v>
+        <v>3954</v>
       </c>
       <c r="G199" s="234"/>
       <c r="H199" s="6" t="s">
@@ -36305,13 +36305,13 @@
     </row>
     <row r="201" spans="1:46" ht="15.75" customHeight="1">
       <c r="A201" s="109" t="s">
-        <v>3991</v>
+        <v>3989</v>
       </c>
       <c r="B201" s="14" t="s">
         <v>1613</v>
       </c>
       <c r="C201" s="444" t="s">
-        <v>3984</v>
+        <v>3982</v>
       </c>
       <c r="D201" s="163"/>
       <c r="E201" s="269"/>
@@ -36389,10 +36389,10 @@
       <c r="C202" s="234"/>
       <c r="D202" s="84"/>
       <c r="E202" s="362" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="F202" s="326" t="s">
-        <v>3956</v>
+        <v>3954</v>
       </c>
       <c r="G202" s="234"/>
       <c r="H202" s="14" t="s">
@@ -36479,10 +36479,10 @@
       </c>
       <c r="D203" s="84"/>
       <c r="E203" s="362" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="F203" s="326" t="s">
-        <v>3956</v>
+        <v>3954</v>
       </c>
       <c r="G203" s="14"/>
       <c r="H203" s="14" t="s">
@@ -36557,10 +36557,10 @@
       <c r="C204" s="234"/>
       <c r="D204" s="84"/>
       <c r="E204" s="276" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F204" s="325" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="G204" s="101"/>
       <c r="H204" s="23" t="s">
@@ -36634,7 +36634,7 @@
       <c r="D205" s="84"/>
       <c r="E205" s="290"/>
       <c r="F205" s="326" t="s">
-        <v>3965</v>
+        <v>3963</v>
       </c>
       <c r="G205" s="292"/>
       <c r="H205" s="23" t="s">
@@ -36705,7 +36705,7 @@
       <c r="C206" s="234"/>
       <c r="D206" s="84"/>
       <c r="E206" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F206" s="326"/>
       <c r="G206" s="234"/>
@@ -36873,7 +36873,7 @@
         <v>405</v>
       </c>
       <c r="C208" s="444" t="s">
-        <v>3938</v>
+        <v>3936</v>
       </c>
       <c r="D208" s="84"/>
       <c r="E208" s="269"/>
@@ -36951,7 +36951,7 @@
       <c r="C209" s="234"/>
       <c r="D209" s="84"/>
       <c r="E209" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F209" s="326"/>
       <c r="G209" s="234"/>
@@ -37033,10 +37033,10 @@
       <c r="C210" s="234"/>
       <c r="D210" s="84"/>
       <c r="E210" s="362" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="F210" s="326" t="s">
-        <v>3956</v>
+        <v>3954</v>
       </c>
       <c r="G210" s="234"/>
       <c r="H210" s="14" t="s">
@@ -37120,7 +37120,7 @@
       <c r="D211" s="84"/>
       <c r="E211" s="269"/>
       <c r="F211" s="326" t="s">
-        <v>3956</v>
+        <v>3954</v>
       </c>
       <c r="G211" s="14"/>
       <c r="H211" s="14" t="s">
@@ -37201,7 +37201,7 @@
       <c r="C212" s="248"/>
       <c r="D212" s="163"/>
       <c r="E212" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F212" s="351"/>
       <c r="G212" s="249"/>
@@ -37210,7 +37210,7 @@
       </c>
       <c r="I212" s="14"/>
       <c r="J212" s="14" t="s">
-        <v>3870</v>
+        <v>3868</v>
       </c>
       <c r="K212" s="21" t="s">
         <v>1705</v>
@@ -37260,7 +37260,7 @@
         <v>1710</v>
       </c>
       <c r="AF212" s="14" t="s">
-        <v>3933</v>
+        <v>3931</v>
       </c>
       <c r="AG212" s="14"/>
       <c r="AH212" s="14"/>
@@ -37337,7 +37337,7 @@
       <c r="AE213" s="24"/>
       <c r="AF213" s="14"/>
       <c r="AG213" s="10" t="s">
-        <v>3754</v>
+        <v>3752</v>
       </c>
       <c r="AH213" s="14"/>
       <c r="AI213" s="14"/>
@@ -37363,10 +37363,10 @@
       <c r="C214" s="234"/>
       <c r="D214" s="84"/>
       <c r="E214" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F214" s="349" t="s">
-        <v>3961</v>
+        <v>3959</v>
       </c>
       <c r="G214" s="234"/>
       <c r="H214" s="14" t="s">
@@ -37454,7 +37454,7 @@
       <c r="D215" s="84"/>
       <c r="E215" s="269"/>
       <c r="F215" s="350" t="s">
-        <v>3961</v>
+        <v>3959</v>
       </c>
       <c r="G215" s="14"/>
       <c r="H215" s="23" t="s">
@@ -37535,7 +37535,7 @@
       <c r="C216" s="234"/>
       <c r="D216" s="84"/>
       <c r="E216" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F216" s="324"/>
       <c r="G216" s="14"/>
@@ -37603,10 +37603,10 @@
         <v>951</v>
       </c>
       <c r="C217" s="473" t="s">
-        <v>3985</v>
+        <v>3983</v>
       </c>
       <c r="D217" s="84" t="s">
-        <v>3985</v>
+        <v>3983</v>
       </c>
       <c r="E217" s="269"/>
       <c r="F217" s="324"/>
@@ -37635,7 +37635,7 @@
       <c r="Q217" s="26"/>
       <c r="R217" s="26"/>
       <c r="S217" s="26" t="s">
-        <v>3826</v>
+        <v>3824</v>
       </c>
       <c r="T217" s="47" t="s">
         <v>358</v>
@@ -37685,7 +37685,7 @@
       <c r="C218" s="234"/>
       <c r="D218" s="84"/>
       <c r="E218" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F218" s="324"/>
       <c r="G218" s="14"/>
@@ -37759,7 +37759,7 @@
       <c r="C219" s="234"/>
       <c r="D219" s="84"/>
       <c r="E219" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F219" s="326"/>
       <c r="G219" s="234"/>
@@ -37768,7 +37768,7 @@
       </c>
       <c r="I219" s="14"/>
       <c r="J219" s="41" t="s">
-        <v>3871</v>
+        <v>3869</v>
       </c>
       <c r="K219" s="21" t="s">
         <v>1760</v>
@@ -37837,10 +37837,10 @@
       <c r="C220" s="234"/>
       <c r="D220" s="83"/>
       <c r="E220" s="362" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="F220" s="326" t="s">
-        <v>3955</v>
+        <v>3953</v>
       </c>
       <c r="G220" s="234"/>
       <c r="H220" s="23" t="s">
@@ -37920,7 +37920,7 @@
       </c>
       <c r="I221" s="14"/>
       <c r="J221" s="41" t="s">
-        <v>3872</v>
+        <v>3870</v>
       </c>
       <c r="K221" s="21" t="s">
         <v>1777</v>
@@ -37957,10 +37957,10 @@
         <v>3092</v>
       </c>
       <c r="AA221" s="14" t="s">
-        <v>3836</v>
+        <v>3834</v>
       </c>
       <c r="AB221" s="431" t="s">
-        <v>3837</v>
+        <v>3835</v>
       </c>
       <c r="AC221" s="14"/>
       <c r="AD221" s="14"/>
@@ -37970,7 +37970,7 @@
       <c r="AF221" s="14"/>
       <c r="AG221" s="10"/>
       <c r="AH221" s="14" t="s">
-        <v>3875</v>
+        <v>3873</v>
       </c>
       <c r="AI221" s="14"/>
       <c r="AJ221" s="14"/>
@@ -38004,7 +38004,7 @@
       </c>
       <c r="I222" s="14"/>
       <c r="J222" s="41" t="s">
-        <v>3873</v>
+        <v>3871</v>
       </c>
       <c r="K222" s="21" t="s">
         <v>1784</v>
@@ -38052,7 +38052,7 @@
       <c r="AF222" s="14"/>
       <c r="AG222" s="10"/>
       <c r="AH222" s="14" t="s">
-        <v>3875</v>
+        <v>3873</v>
       </c>
       <c r="AI222" s="14"/>
       <c r="AJ222" s="14"/>
@@ -38170,7 +38170,7 @@
       </c>
       <c r="I224" s="366"/>
       <c r="J224" s="367" t="s">
-        <v>3996</v>
+        <v>3994</v>
       </c>
       <c r="K224" s="368" t="s">
         <v>1807</v>
@@ -38178,7 +38178,7 @@
       <c r="L224" s="369"/>
       <c r="M224" s="369"/>
       <c r="N224" s="369" t="s">
-        <v>3997</v>
+        <v>3995</v>
       </c>
       <c r="O224" s="370" t="s">
         <v>1808</v>
@@ -38231,7 +38231,7 @@
       <c r="C225" s="234"/>
       <c r="D225" s="84"/>
       <c r="E225" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F225" s="326"/>
       <c r="G225" s="234"/>
@@ -38301,7 +38301,7 @@
       <c r="C226" s="234"/>
       <c r="D226" s="84"/>
       <c r="E226" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F226" s="324"/>
       <c r="G226" s="14"/>
@@ -38321,10 +38321,10 @@
       <c r="M226" s="176"/>
       <c r="N226" s="176"/>
       <c r="O226" s="25" t="s">
-        <v>3763</v>
+        <v>3761</v>
       </c>
       <c r="P226" s="26" t="s">
-        <v>3803</v>
+        <v>3801</v>
       </c>
       <c r="Q226" s="26"/>
       <c r="R226" s="19" t="s">
@@ -38387,7 +38387,7 @@
       <c r="C227" s="234"/>
       <c r="D227" s="84"/>
       <c r="E227" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F227" s="324"/>
       <c r="G227" s="14"/>
@@ -38407,10 +38407,10 @@
       <c r="M227" s="177"/>
       <c r="N227" s="176"/>
       <c r="O227" s="25" t="s">
-        <v>3763</v>
+        <v>3761</v>
       </c>
       <c r="P227" s="26" t="s">
-        <v>3800</v>
+        <v>3798</v>
       </c>
       <c r="Q227" s="385"/>
       <c r="R227" s="19" t="s">
@@ -38465,7 +38465,7 @@
     </row>
     <row r="228" spans="1:46" ht="15.75" customHeight="1">
       <c r="A228" s="377" t="s">
-        <v>3995</v>
+        <v>3993</v>
       </c>
       <c r="B228" s="360" t="s">
         <v>1830</v>
@@ -38484,7 +38484,7 @@
         <v>1833</v>
       </c>
       <c r="J228" s="41" t="s">
-        <v>3885</v>
+        <v>3883</v>
       </c>
       <c r="K228" s="21" t="s">
         <v>719</v>
@@ -38557,7 +38557,7 @@
       <c r="C229" s="234"/>
       <c r="D229" s="84"/>
       <c r="E229" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F229" s="328"/>
       <c r="G229" s="234"/>
@@ -38566,7 +38566,7 @@
       </c>
       <c r="I229" s="14"/>
       <c r="J229" s="41" t="s">
-        <v>3876</v>
+        <v>3874</v>
       </c>
       <c r="K229" s="21" t="s">
         <v>1844</v>
@@ -38593,11 +38593,11 @@
       </c>
       <c r="V229" s="101"/>
       <c r="W229" s="101" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
       <c r="X229" s="101"/>
       <c r="Y229" s="233" t="s">
-        <v>3849</v>
+        <v>3847</v>
       </c>
       <c r="Z229" s="14"/>
       <c r="AA229" s="14"/>
@@ -38609,7 +38609,7 @@
       </c>
       <c r="AF229" s="14"/>
       <c r="AG229" s="14" t="s">
-        <v>3897</v>
+        <v>3895</v>
       </c>
       <c r="AH229" s="14"/>
       <c r="AI229" s="99"/>
@@ -38719,7 +38719,7 @@
       <c r="C231" s="403"/>
       <c r="D231" s="84"/>
       <c r="E231" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F231" s="326"/>
       <c r="G231" s="234"/>
@@ -38802,7 +38802,7 @@
       </c>
       <c r="I232" s="14"/>
       <c r="J232" s="109" t="s">
-        <v>3877</v>
+        <v>3875</v>
       </c>
       <c r="K232" s="21" t="s">
         <v>1867</v>
@@ -38873,7 +38873,7 @@
       <c r="C233" s="234"/>
       <c r="D233" s="84"/>
       <c r="E233" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F233" s="326"/>
       <c r="G233" s="234"/>
@@ -38945,7 +38945,7 @@
       </c>
       <c r="D234" s="84"/>
       <c r="E234" s="391" t="s">
-        <v>4015</v>
+        <v>4013</v>
       </c>
       <c r="F234" s="336"/>
       <c r="G234" s="252"/>
@@ -38954,7 +38954,7 @@
       </c>
       <c r="I234" s="14"/>
       <c r="J234" s="41" t="s">
-        <v>3886</v>
+        <v>3884</v>
       </c>
       <c r="K234" s="21" t="s">
         <v>719</v>
@@ -39019,10 +39019,10 @@
       <c r="C235" s="234"/>
       <c r="D235" s="84"/>
       <c r="E235" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F235" s="326" t="s">
-        <v>3956</v>
+        <v>3954</v>
       </c>
       <c r="G235" s="234"/>
       <c r="H235" s="14" t="s">
@@ -39114,7 +39114,7 @@
       <c r="D236" s="84"/>
       <c r="E236" s="96"/>
       <c r="F236" s="326" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="G236" s="14"/>
       <c r="H236" s="23" t="s">
@@ -39191,7 +39191,7 @@
       <c r="C237" s="234"/>
       <c r="D237" s="84"/>
       <c r="E237" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F237" s="326"/>
       <c r="G237" s="234"/>
@@ -39277,12 +39277,12 @@
         <v>405</v>
       </c>
       <c r="C238" s="444" t="s">
-        <v>4016</v>
+        <v>4014</v>
       </c>
       <c r="D238" s="84"/>
       <c r="E238" s="269"/>
       <c r="F238" s="324" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G238" s="14"/>
       <c r="H238" s="23" t="s">
@@ -39301,7 +39301,7 @@
         <v>1920</v>
       </c>
       <c r="O238" s="38" t="s">
-        <v>3759</v>
+        <v>3757</v>
       </c>
       <c r="P238" s="19" t="s">
         <v>1584</v>
@@ -39371,7 +39371,7 @@
       <c r="C239" s="234"/>
       <c r="D239" s="84"/>
       <c r="E239" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F239" s="326"/>
       <c r="G239" s="234"/>
@@ -39393,10 +39393,10 @@
         <v>1931</v>
       </c>
       <c r="O239" s="49" t="s">
-        <v>3758</v>
+        <v>3756</v>
       </c>
       <c r="P239" s="26" t="s">
-        <v>3801</v>
+        <v>3799</v>
       </c>
       <c r="Q239" s="26"/>
       <c r="R239" s="19" t="s">
@@ -39509,7 +39509,7 @@
       <c r="AC240" s="14"/>
       <c r="AD240" s="14"/>
       <c r="AE240" s="222" t="s">
-        <v>3854</v>
+        <v>3852</v>
       </c>
       <c r="AF240" s="14"/>
       <c r="AG240" s="10"/>
@@ -39537,7 +39537,7 @@
       <c r="C241" s="234"/>
       <c r="D241" s="84"/>
       <c r="E241" s="436" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="F241" s="326"/>
       <c r="G241" s="234"/>
@@ -39557,7 +39557,7 @@
       <c r="M241" s="177"/>
       <c r="N241" s="177"/>
       <c r="O241" s="25" t="s">
-        <v>3763</v>
+        <v>3761</v>
       </c>
       <c r="P241" s="26" t="s">
         <v>1944</v>
@@ -39623,7 +39623,7 @@
       <c r="C242" s="234"/>
       <c r="D242" s="84"/>
       <c r="E242" s="436" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="F242" s="326"/>
       <c r="G242" s="234"/>
@@ -39634,7 +39634,7 @@
         <v>1948</v>
       </c>
       <c r="J242" s="41" t="s">
-        <v>3767</v>
+        <v>3765</v>
       </c>
       <c r="K242" s="21" t="s">
         <v>1949</v>
@@ -39643,7 +39643,7 @@
       <c r="M242" s="176"/>
       <c r="N242" s="176"/>
       <c r="O242" s="25" t="s">
-        <v>3763</v>
+        <v>3761</v>
       </c>
       <c r="P242" s="26" t="s">
         <v>1950</v>
@@ -39804,7 +39804,7 @@
         <v>1967</v>
       </c>
       <c r="J244" s="41" t="s">
-        <v>3846</v>
+        <v>3844</v>
       </c>
       <c r="K244" s="21" t="s">
         <v>1968</v>
@@ -39831,11 +39831,11 @@
         <v>35</v>
       </c>
       <c r="U244" s="118" t="s">
-        <v>3847</v>
+        <v>3845</v>
       </c>
       <c r="V244" s="14"/>
       <c r="W244" s="14" t="s">
-        <v>3848</v>
+        <v>3846</v>
       </c>
       <c r="X244" s="14"/>
       <c r="Y244" s="14"/>
@@ -39957,7 +39957,7 @@
       <c r="C246" s="234"/>
       <c r="D246" s="84"/>
       <c r="E246" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F246" s="326"/>
       <c r="G246" s="234"/>
@@ -40024,12 +40024,12 @@
         <v>3633</v>
       </c>
       <c r="B247" s="442" t="s">
-        <v>3941</v>
+        <v>3939</v>
       </c>
       <c r="C247" s="407"/>
       <c r="D247" s="451"/>
       <c r="E247" s="412" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F247" s="325"/>
       <c r="G247" s="403"/>
@@ -40040,7 +40040,7 @@
         <v>3635</v>
       </c>
       <c r="J247" s="404" t="s">
-        <v>3765</v>
+        <v>3763</v>
       </c>
       <c r="K247" s="458" t="s">
         <v>1828</v>
@@ -40049,10 +40049,10 @@
       <c r="M247" s="431"/>
       <c r="N247" s="431"/>
       <c r="O247" s="458" t="s">
-        <v>3763</v>
+        <v>3761</v>
       </c>
       <c r="P247" s="463" t="s">
-        <v>3804</v>
+        <v>3802</v>
       </c>
       <c r="Q247" s="462"/>
       <c r="R247" s="19" t="s">
@@ -40082,7 +40082,7 @@
       <c r="Z247" s="431"/>
       <c r="AA247" s="431"/>
       <c r="AB247" s="315" t="s">
-        <v>3755</v>
+        <v>3753</v>
       </c>
       <c r="AC247" s="431"/>
       <c r="AD247" s="431"/>
@@ -40091,7 +40091,7 @@
         <v>1994</v>
       </c>
       <c r="AG247" s="431" t="s">
-        <v>3756</v>
+        <v>3754</v>
       </c>
       <c r="AH247" s="431"/>
       <c r="AI247" s="158"/>
@@ -40112,19 +40112,19 @@
         <v>3630</v>
       </c>
       <c r="B248" s="443" t="s">
-        <v>3942</v>
+        <v>3940</v>
       </c>
       <c r="C248" s="407"/>
       <c r="D248" s="451"/>
       <c r="E248" s="412" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F248" s="325"/>
       <c r="G248" s="403"/>
       <c r="H248" s="431"/>
       <c r="I248" s="409"/>
       <c r="J248" s="404" t="s">
-        <v>3766</v>
+        <v>3764</v>
       </c>
       <c r="K248" s="458" t="s">
         <v>1943</v>
@@ -40133,10 +40133,10 @@
       <c r="M248" s="431"/>
       <c r="N248" s="431"/>
       <c r="O248" s="458" t="s">
-        <v>3763</v>
+        <v>3761</v>
       </c>
       <c r="P248" s="463" t="s">
-        <v>3804</v>
+        <v>3802</v>
       </c>
       <c r="Q248" s="462"/>
       <c r="R248" s="19" t="s">
@@ -40197,7 +40197,7 @@
       <c r="C249" s="234"/>
       <c r="D249" s="84"/>
       <c r="E249" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F249" s="326"/>
       <c r="G249" s="234"/>
@@ -40277,7 +40277,7 @@
       <c r="C250" s="234"/>
       <c r="D250" s="84"/>
       <c r="E250" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F250" s="328"/>
       <c r="G250" s="234"/>
@@ -40326,7 +40326,7 @@
       <c r="AF250" s="14"/>
       <c r="AG250" s="14"/>
       <c r="AH250" s="14" t="s">
-        <v>3904</v>
+        <v>3902</v>
       </c>
       <c r="AI250" s="14"/>
       <c r="AJ250" s="14"/>
@@ -40351,7 +40351,7 @@
       <c r="C251" s="234"/>
       <c r="D251" s="84"/>
       <c r="E251" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F251" s="326"/>
       <c r="G251" s="234"/>
@@ -40427,7 +40427,7 @@
       <c r="C252" s="234"/>
       <c r="D252" s="84"/>
       <c r="E252" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F252" s="326"/>
       <c r="G252" s="234"/>
@@ -40579,7 +40579,7 @@
       <c r="C254" s="234"/>
       <c r="D254" s="84"/>
       <c r="E254" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F254" s="326"/>
       <c r="G254" s="234"/>
@@ -40657,7 +40657,7 @@
       <c r="C255" s="234"/>
       <c r="D255" s="84"/>
       <c r="E255" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F255" s="326"/>
       <c r="G255" s="234"/>
@@ -40734,7 +40734,7 @@
       <c r="D256" s="87"/>
       <c r="E256" s="269"/>
       <c r="F256" s="349" t="s">
-        <v>3964</v>
+        <v>3962</v>
       </c>
       <c r="G256" s="14"/>
       <c r="H256" s="283"/>
@@ -40782,7 +40782,7 @@
       <c r="Z256" s="14"/>
       <c r="AA256" s="14"/>
       <c r="AB256" s="14" t="s">
-        <v>3929</v>
+        <v>3927</v>
       </c>
       <c r="AC256" s="14"/>
       <c r="AD256" s="14"/>
@@ -40817,7 +40817,7 @@
       <c r="C257" s="234"/>
       <c r="D257" s="84"/>
       <c r="E257" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F257" s="326"/>
       <c r="G257" s="234"/>
@@ -40826,7 +40826,7 @@
       </c>
       <c r="I257" s="14"/>
       <c r="J257" s="41" t="s">
-        <v>4017</v>
+        <v>4015</v>
       </c>
       <c r="K257" s="21" t="s">
         <v>2061</v>
@@ -40902,7 +40902,7 @@
       </c>
       <c r="I258" s="14"/>
       <c r="J258" s="41" t="s">
-        <v>4018</v>
+        <v>4016</v>
       </c>
       <c r="K258" s="21" t="s">
         <v>2068</v>
@@ -41007,7 +41007,7 @@
       </c>
       <c r="V259" s="14"/>
       <c r="W259" s="14" t="s">
-        <v>3899</v>
+        <v>3897</v>
       </c>
       <c r="X259" s="14"/>
       <c r="Y259" s="14"/>
@@ -41025,7 +41025,7 @@
       <c r="AE259" s="213"/>
       <c r="AF259" s="14"/>
       <c r="AG259" s="10" t="s">
-        <v>3900</v>
+        <v>3898</v>
       </c>
       <c r="AH259" s="14"/>
       <c r="AI259" s="14"/>
@@ -41062,7 +41062,7 @@
         <v>2081</v>
       </c>
       <c r="J260" s="109" t="s">
-        <v>3898</v>
+        <v>3896</v>
       </c>
       <c r="K260" s="21" t="s">
         <v>2082</v>
@@ -41089,7 +41089,7 @@
       </c>
       <c r="V260" s="14"/>
       <c r="W260" s="14" t="s">
-        <v>3906</v>
+        <v>3904</v>
       </c>
       <c r="X260" s="14"/>
       <c r="Y260" s="14"/>
@@ -41129,7 +41129,7 @@
       <c r="C261" s="234"/>
       <c r="D261" s="84"/>
       <c r="E261" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F261" s="326"/>
       <c r="G261" s="234"/>
@@ -41209,7 +41209,7 @@
       <c r="C262" s="234"/>
       <c r="D262" s="84"/>
       <c r="E262" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F262" s="326"/>
       <c r="G262" s="234"/>
@@ -41349,7 +41349,7 @@
       <c r="C264" s="234"/>
       <c r="D264" s="84"/>
       <c r="E264" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F264" s="326"/>
       <c r="G264" s="234"/>
@@ -41419,15 +41419,15 @@
     </row>
     <row r="265" spans="1:46" s="125" customFormat="1" ht="15.75" customHeight="1">
       <c r="A265" s="109" t="s">
-        <v>3788</v>
+        <v>3786</v>
       </c>
       <c r="B265" s="15" t="s">
-        <v>3943</v>
+        <v>3941</v>
       </c>
       <c r="C265" s="234"/>
       <c r="D265" s="84"/>
       <c r="E265" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F265" s="326"/>
       <c r="G265" s="234"/>
@@ -41447,10 +41447,10 @@
       <c r="M265" s="176"/>
       <c r="N265" s="176"/>
       <c r="O265" s="25" t="s">
-        <v>3763</v>
+        <v>3761</v>
       </c>
       <c r="P265" s="19" t="s">
-        <v>3805</v>
+        <v>3803</v>
       </c>
       <c r="Q265" s="19"/>
       <c r="R265" s="19" t="s">
@@ -41493,17 +41493,17 @@
     </row>
     <row r="266" spans="1:46" s="125" customFormat="1" ht="15.75" customHeight="1">
       <c r="A266" s="438" t="s">
-        <v>4055</v>
+        <v>4053</v>
       </c>
       <c r="B266" s="15" t="s">
         <v>405</v>
       </c>
       <c r="C266" s="403" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="D266" s="84"/>
       <c r="E266" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F266" s="324"/>
       <c r="G266" s="14"/>
@@ -41577,7 +41577,7 @@
       <c r="C267" s="234"/>
       <c r="D267" s="84"/>
       <c r="E267" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F267" s="326"/>
       <c r="G267" s="234"/>
@@ -41653,10 +41653,10 @@
       <c r="C268" s="234"/>
       <c r="D268" s="84"/>
       <c r="E268" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F268" s="326" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="G268" s="14"/>
       <c r="H268" s="132" t="s">
@@ -41756,7 +41756,7 @@
         <v>1045</v>
       </c>
       <c r="P269" s="36" t="s">
-        <v>3884</v>
+        <v>3882</v>
       </c>
       <c r="Q269" s="36"/>
       <c r="R269" s="36" t="s">
@@ -41813,7 +41813,7 @@
       <c r="C270" s="234"/>
       <c r="D270" s="84"/>
       <c r="E270" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F270" s="326"/>
       <c r="G270" s="234"/>
@@ -41833,10 +41833,10 @@
       <c r="M270" s="176"/>
       <c r="N270" s="176"/>
       <c r="O270" s="136" t="s">
-        <v>3763</v>
+        <v>3761</v>
       </c>
       <c r="P270" s="36" t="s">
-        <v>3806</v>
+        <v>3804</v>
       </c>
       <c r="Q270" s="36"/>
       <c r="R270" s="19" t="s">
@@ -41862,7 +41862,7 @@
       <c r="Z270" s="14"/>
       <c r="AA270" s="14"/>
       <c r="AB270" s="14" t="s">
-        <v>3768</v>
+        <v>3766</v>
       </c>
       <c r="AC270" s="14"/>
       <c r="AD270" s="14"/>
@@ -41963,7 +41963,7 @@
       <c r="C272" s="234"/>
       <c r="D272" s="84"/>
       <c r="E272" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F272" s="326"/>
       <c r="G272" s="234"/>
@@ -42033,7 +42033,7 @@
       <c r="C273" s="234"/>
       <c r="D273" s="84"/>
       <c r="E273" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F273" s="326"/>
       <c r="G273" s="234"/>
@@ -42097,7 +42097,7 @@
     </row>
     <row r="274" spans="1:46" ht="15.75" customHeight="1">
       <c r="A274" s="109" t="s">
-        <v>3802</v>
+        <v>3800</v>
       </c>
       <c r="B274" s="15" t="s">
         <v>405</v>
@@ -42105,7 +42105,7 @@
       <c r="C274" s="234"/>
       <c r="D274" s="84"/>
       <c r="E274" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F274" s="326"/>
       <c r="G274" s="234"/>
@@ -42181,7 +42181,7 @@
       <c r="C275" s="234"/>
       <c r="D275" s="84"/>
       <c r="E275" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F275" s="326"/>
       <c r="G275" s="234"/>
@@ -42255,7 +42255,7 @@
         <v>405</v>
       </c>
       <c r="C276" s="444" t="s">
-        <v>4020</v>
+        <v>4018</v>
       </c>
       <c r="D276" s="84"/>
       <c r="E276" s="269"/>
@@ -42341,7 +42341,7 @@
       <c r="C277" s="234"/>
       <c r="D277" s="84"/>
       <c r="E277" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F277" s="326"/>
       <c r="G277" s="234"/>
@@ -42361,10 +42361,10 @@
       <c r="M277" s="177"/>
       <c r="N277" s="176"/>
       <c r="O277" s="136" t="s">
-        <v>3763</v>
+        <v>3761</v>
       </c>
       <c r="P277" s="19" t="s">
-        <v>3807</v>
+        <v>3805</v>
       </c>
       <c r="Q277" s="19"/>
       <c r="R277" s="19" t="s">
@@ -42419,7 +42419,7 @@
         <v>405</v>
       </c>
       <c r="C278" s="444" t="s">
-        <v>4021</v>
+        <v>4019</v>
       </c>
       <c r="D278" s="84"/>
       <c r="E278" s="96"/>
@@ -42505,7 +42505,7 @@
       <c r="C279" s="234"/>
       <c r="D279" s="84"/>
       <c r="E279" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F279" s="326"/>
       <c r="G279" s="234"/>
@@ -42575,7 +42575,7 @@
         <v>1579</v>
       </c>
       <c r="C280" s="444" t="s">
-        <v>4022</v>
+        <v>4020</v>
       </c>
       <c r="D280" s="84"/>
       <c r="E280" s="96"/>
@@ -42657,7 +42657,7 @@
       <c r="C281" s="234"/>
       <c r="D281" s="84"/>
       <c r="E281" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F281" s="326"/>
       <c r="G281" s="234"/>
@@ -42719,7 +42719,7 @@
     </row>
     <row r="282" spans="1:46" s="125" customFormat="1" ht="15.75" customHeight="1">
       <c r="A282" s="109" t="s">
-        <v>4023</v>
+        <v>4021</v>
       </c>
       <c r="B282" s="15" t="s">
         <v>951</v>
@@ -42727,7 +42727,7 @@
       <c r="C282" s="234"/>
       <c r="D282" s="84"/>
       <c r="E282" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F282" s="326"/>
       <c r="G282" s="234"/>
@@ -42747,7 +42747,7 @@
       <c r="M282" s="176"/>
       <c r="N282" s="176"/>
       <c r="O282" s="136" t="s">
-        <v>3763</v>
+        <v>3761</v>
       </c>
       <c r="P282" s="461" t="s">
         <v>2352</v>
@@ -42776,7 +42776,7 @@
       <c r="Z282" s="14"/>
       <c r="AA282" s="14"/>
       <c r="AB282" s="14" t="s">
-        <v>3769</v>
+        <v>3767</v>
       </c>
       <c r="AC282" s="14"/>
       <c r="AD282" s="14"/>
@@ -42842,7 +42842,7 @@
         <v>1822</v>
       </c>
       <c r="T283" s="14" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="U283" s="14" t="s">
         <v>36</v>
@@ -42885,7 +42885,7 @@
       <c r="C284" s="234"/>
       <c r="D284" s="84"/>
       <c r="E284" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F284" s="326"/>
       <c r="G284" s="234"/>
@@ -42961,7 +42961,7 @@
       <c r="C285" s="141"/>
       <c r="D285" s="163"/>
       <c r="E285" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F285" s="327"/>
       <c r="G285" s="248"/>
@@ -43029,7 +43029,7 @@
       <c r="C286" s="234"/>
       <c r="D286" s="84"/>
       <c r="E286" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F286" s="326"/>
       <c r="G286" s="234"/>
@@ -43049,10 +43049,10 @@
       <c r="M286" s="176"/>
       <c r="N286" s="176"/>
       <c r="O286" s="304" t="s">
-        <v>3763</v>
+        <v>3761</v>
       </c>
       <c r="P286" s="36" t="s">
-        <v>3806</v>
+        <v>3804</v>
       </c>
       <c r="Q286" s="36"/>
       <c r="R286" s="111" t="s">
@@ -43069,7 +43069,7 @@
       </c>
       <c r="V286" s="14"/>
       <c r="W286" s="14" t="s">
-        <v>3913</v>
+        <v>3911</v>
       </c>
       <c r="X286" s="14"/>
       <c r="Y286" s="14"/>
@@ -43107,7 +43107,7 @@
       <c r="C287" s="234"/>
       <c r="D287" s="84"/>
       <c r="E287" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F287" s="326"/>
       <c r="G287" s="234"/>
@@ -43179,10 +43179,10 @@
       <c r="C288" s="234"/>
       <c r="D288" s="84"/>
       <c r="E288" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F288" s="326" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="G288" s="234"/>
       <c r="H288" s="132" t="s">
@@ -43249,11 +43249,11 @@
         <v>38</v>
       </c>
       <c r="C289" s="236" t="s">
-        <v>4024</v>
+        <v>4022</v>
       </c>
       <c r="D289" s="84"/>
       <c r="E289" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F289" s="332"/>
       <c r="G289" s="249"/>
@@ -43299,7 +43299,7 @@
       </c>
       <c r="Z289" s="14"/>
       <c r="AA289" s="14" t="s">
-        <v>3930</v>
+        <v>3928</v>
       </c>
       <c r="AB289" s="14" t="s">
         <v>2275</v>
@@ -43308,7 +43308,7 @@
       <c r="AD289" s="14"/>
       <c r="AE289" s="14"/>
       <c r="AF289" s="14" t="s">
-        <v>3925</v>
+        <v>3923</v>
       </c>
       <c r="AG289" s="14" t="s">
         <v>2276</v>
@@ -43337,7 +43337,7 @@
       <c r="C290" s="234"/>
       <c r="D290" s="84"/>
       <c r="E290" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F290" s="326"/>
       <c r="G290" s="234"/>
@@ -43355,7 +43355,7 @@
       <c r="M290" s="177"/>
       <c r="N290" s="176"/>
       <c r="O290" s="136" t="s">
-        <v>3763</v>
+        <v>3761</v>
       </c>
       <c r="P290" s="19" t="s">
         <v>2279</v>
@@ -43401,7 +43401,7 @@
     </row>
     <row r="291" spans="1:46" s="173" customFormat="1" ht="15.75" customHeight="1">
       <c r="A291" s="109" t="s">
-        <v>4025</v>
+        <v>4023</v>
       </c>
       <c r="B291" s="14" t="s">
         <v>38</v>
@@ -43409,7 +43409,7 @@
       <c r="C291" s="234"/>
       <c r="D291" s="84"/>
       <c r="E291" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F291" s="326"/>
       <c r="G291" s="234"/>
@@ -43420,7 +43420,7 @@
         <v>2281</v>
       </c>
       <c r="J291" s="41" t="s">
-        <v>3851</v>
+        <v>3849</v>
       </c>
       <c r="K291" s="21" t="s">
         <v>419</v>
@@ -43481,7 +43481,7 @@
       <c r="C292" s="234"/>
       <c r="D292" s="84"/>
       <c r="E292" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F292" s="326"/>
       <c r="G292" s="234"/>
@@ -43559,7 +43559,7 @@
       <c r="C293" s="234"/>
       <c r="D293" s="84"/>
       <c r="E293" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F293" s="326"/>
       <c r="G293" s="234"/>
@@ -43604,7 +43604,7 @@
       <c r="Z293" s="101"/>
       <c r="AA293" s="101"/>
       <c r="AB293" s="313" t="s">
-        <v>3926</v>
+        <v>3924</v>
       </c>
       <c r="AC293" s="14" t="s">
         <v>2302</v>
@@ -43637,7 +43637,7 @@
         <v>951</v>
       </c>
       <c r="C294" s="444" t="s">
-        <v>4027</v>
+        <v>4025</v>
       </c>
       <c r="D294" s="84"/>
       <c r="E294" s="96"/>
@@ -43659,10 +43659,10 @@
       <c r="M294" s="177"/>
       <c r="N294" s="177"/>
       <c r="O294" s="15" t="s">
-        <v>3764</v>
+        <v>3762</v>
       </c>
       <c r="P294" s="36" t="s">
-        <v>3808</v>
+        <v>3806</v>
       </c>
       <c r="Q294" s="430"/>
       <c r="R294" s="111" t="s">
@@ -43688,7 +43688,7 @@
       <c r="Z294" s="14"/>
       <c r="AA294" s="14"/>
       <c r="AB294" s="14" t="s">
-        <v>3770</v>
+        <v>3768</v>
       </c>
       <c r="AC294" s="14"/>
       <c r="AD294" s="14"/>
@@ -43730,7 +43730,7 @@
       </c>
       <c r="I295" s="14"/>
       <c r="J295" s="109" t="s">
-        <v>3878</v>
+        <v>3876</v>
       </c>
       <c r="K295" s="21" t="s">
         <v>1959</v>
@@ -43756,7 +43756,7 @@
         <v>2314</v>
       </c>
       <c r="T295" s="310" t="s">
-        <v>3855</v>
+        <v>3853</v>
       </c>
       <c r="U295" s="14" t="s">
         <v>36</v>
@@ -43801,11 +43801,11 @@
         <v>405</v>
       </c>
       <c r="C296" s="234" t="s">
-        <v>4028</v>
+        <v>4026</v>
       </c>
       <c r="D296" s="84"/>
       <c r="E296" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F296" s="326"/>
       <c r="G296" s="234"/>
@@ -43889,7 +43889,7 @@
       <c r="C297" s="234"/>
       <c r="D297" s="84"/>
       <c r="E297" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F297" s="326"/>
       <c r="G297" s="234"/>
@@ -43961,7 +43961,7 @@
       <c r="C298" s="234"/>
       <c r="D298" s="84"/>
       <c r="E298" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F298" s="326"/>
       <c r="G298" s="234"/>
@@ -44031,7 +44031,7 @@
       <c r="C299" s="234"/>
       <c r="D299" s="84"/>
       <c r="E299" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F299" s="326"/>
       <c r="G299" s="234"/>
@@ -44051,7 +44051,7 @@
       <c r="M299" s="176"/>
       <c r="N299" s="176"/>
       <c r="O299" s="136" t="s">
-        <v>3763</v>
+        <v>3761</v>
       </c>
       <c r="P299" s="36" t="s">
         <v>1950</v>
@@ -44191,11 +44191,11 @@
         <v>405</v>
       </c>
       <c r="C301" s="234" t="s">
-        <v>4030</v>
+        <v>4028</v>
       </c>
       <c r="D301" s="84"/>
       <c r="E301" s="362" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="F301" s="326"/>
       <c r="G301" s="234"/>
@@ -44220,7 +44220,7 @@
         <v>2357</v>
       </c>
       <c r="P301" s="19" t="s">
-        <v>3809</v>
+        <v>3807</v>
       </c>
       <c r="Q301" s="19"/>
       <c r="R301" s="19"/>
@@ -44265,11 +44265,11 @@
         <v>405</v>
       </c>
       <c r="C302" s="236" t="s">
-        <v>4031</v>
+        <v>4029</v>
       </c>
       <c r="D302" s="84"/>
       <c r="E302" s="362" t="s">
-        <v>4026</v>
+        <v>4024</v>
       </c>
       <c r="F302" s="326"/>
       <c r="G302" s="234"/>
@@ -44345,7 +44345,7 @@
       <c r="C303" s="236"/>
       <c r="D303" s="84"/>
       <c r="E303" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F303" s="326"/>
       <c r="G303" s="234"/>
@@ -44417,7 +44417,7 @@
       <c r="C304" s="234"/>
       <c r="D304" s="84"/>
       <c r="E304" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F304" s="326"/>
       <c r="G304" s="234"/>
@@ -44491,10 +44491,10 @@
       </c>
       <c r="D305" s="84"/>
       <c r="E305" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F305" s="326" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="G305" s="14"/>
       <c r="H305" s="23" t="s">
@@ -44567,7 +44567,7 @@
       <c r="C306" s="251"/>
       <c r="D306" s="84"/>
       <c r="E306" s="362" t="s">
-        <v>4026</v>
+        <v>4024</v>
       </c>
       <c r="F306" s="324"/>
       <c r="G306" s="14"/>
@@ -44651,7 +44651,7 @@
       <c r="C307" s="234"/>
       <c r="D307" s="95"/>
       <c r="E307" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F307" s="326"/>
       <c r="G307" s="234"/>
@@ -44660,7 +44660,7 @@
       </c>
       <c r="I307" s="65"/>
       <c r="J307" s="129" t="s">
-        <v>4032</v>
+        <v>4030</v>
       </c>
       <c r="K307" s="14" t="s">
         <v>2399</v>
@@ -44904,7 +44904,7 @@
       </c>
       <c r="I310" s="14"/>
       <c r="J310" s="129" t="s">
-        <v>3761</v>
+        <v>3759</v>
       </c>
       <c r="K310" s="14" t="s">
         <v>2399</v>
@@ -44981,7 +44981,7 @@
       <c r="C311" s="234"/>
       <c r="D311" s="84"/>
       <c r="E311" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F311" s="326"/>
       <c r="G311" s="234"/>
@@ -45051,7 +45051,7 @@
       <c r="C312" s="234"/>
       <c r="D312" s="84"/>
       <c r="E312" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F312" s="326"/>
       <c r="G312" s="234"/>
@@ -45127,7 +45127,7 @@
       <c r="C313" s="234"/>
       <c r="D313" s="84"/>
       <c r="E313" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F313" s="326"/>
       <c r="G313" s="234"/>
@@ -45205,7 +45205,7 @@
       <c r="C314" s="258"/>
       <c r="D314" s="87"/>
       <c r="E314" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F314" s="337"/>
       <c r="G314" s="250"/>
@@ -45293,11 +45293,11 @@
         <v>405</v>
       </c>
       <c r="C315" s="444" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="D315" s="84"/>
       <c r="E315" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F315" s="326"/>
       <c r="G315" s="234"/>
@@ -45373,7 +45373,7 @@
       <c r="C316" s="259"/>
       <c r="D316" s="84"/>
       <c r="E316" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F316" s="326"/>
       <c r="G316" s="234"/>
@@ -45447,7 +45447,7 @@
       <c r="C317" s="234"/>
       <c r="D317" s="84"/>
       <c r="E317" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F317" s="326"/>
       <c r="G317" s="234"/>
@@ -45525,7 +45525,7 @@
         <v>2490</v>
       </c>
       <c r="C318" s="444" t="s">
-        <v>4034</v>
+        <v>4032</v>
       </c>
       <c r="D318" s="451"/>
       <c r="E318" s="96"/>
@@ -45767,10 +45767,10 @@
       <c r="C321" s="251"/>
       <c r="D321" s="93"/>
       <c r="E321" s="362" t="s">
-        <v>4026</v>
+        <v>4024</v>
       </c>
       <c r="F321" s="326" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="G321" s="24"/>
       <c r="H321" s="4" t="s">
@@ -45857,10 +45857,10 @@
       <c r="C322" s="259"/>
       <c r="D322" s="84"/>
       <c r="E322" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F322" s="326" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="G322" s="234"/>
       <c r="H322" s="6" t="s">
@@ -45935,7 +45935,7 @@
       <c r="C323" s="234"/>
       <c r="D323" s="84"/>
       <c r="E323" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F323" s="326"/>
       <c r="G323" s="234"/>
@@ -46011,7 +46011,7 @@
       <c r="C324" s="234"/>
       <c r="D324" s="84"/>
       <c r="E324" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F324" s="326"/>
       <c r="G324" s="234"/>
@@ -46087,7 +46087,7 @@
       <c r="C325" s="234"/>
       <c r="D325" s="84"/>
       <c r="E325" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F325" s="326"/>
       <c r="G325" s="234"/>
@@ -46161,7 +46161,7 @@
       <c r="C326" s="234"/>
       <c r="D326" s="410"/>
       <c r="E326" s="453" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F326" s="326"/>
       <c r="G326" s="234"/>
@@ -46206,7 +46206,7 @@
         <v>2140</v>
       </c>
       <c r="AB326" s="14" t="s">
-        <v>3778</v>
+        <v>3776</v>
       </c>
       <c r="AC326" s="14"/>
       <c r="AD326" s="14" t="s">
@@ -46239,11 +46239,11 @@
         <v>405</v>
       </c>
       <c r="C327" s="234" t="s">
-        <v>4035</v>
+        <v>4033</v>
       </c>
       <c r="D327" s="93"/>
       <c r="E327" s="362" t="s">
-        <v>4026</v>
+        <v>4024</v>
       </c>
       <c r="F327" s="326"/>
       <c r="G327" s="234"/>
@@ -46401,13 +46401,13 @@
     </row>
     <row r="329" spans="1:46" ht="15.75" customHeight="1">
       <c r="A329" s="116" t="s">
-        <v>3813</v>
+        <v>3811</v>
       </c>
       <c r="B329" s="15" t="s">
         <v>405</v>
       </c>
       <c r="C329" s="449" t="s">
-        <v>3993</v>
+        <v>3991</v>
       </c>
       <c r="D329" s="84"/>
       <c r="E329" s="96"/>
@@ -46495,7 +46495,7 @@
       <c r="C330" s="234"/>
       <c r="D330" s="93"/>
       <c r="E330" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F330" s="326"/>
       <c r="G330" s="234"/>
@@ -46661,7 +46661,7 @@
       <c r="C332" s="234"/>
       <c r="D332" s="84"/>
       <c r="E332" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F332" s="326"/>
       <c r="G332" s="234"/>
@@ -46739,7 +46739,7 @@
       <c r="C333" s="234"/>
       <c r="D333" s="93"/>
       <c r="E333" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F333" s="326"/>
       <c r="G333" s="234"/>
@@ -46817,10 +46817,10 @@
       </c>
       <c r="D334" s="84"/>
       <c r="E334" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F334" s="326" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="G334" s="14"/>
       <c r="H334" s="23" t="s">
@@ -46895,7 +46895,7 @@
       <c r="C335" s="234"/>
       <c r="D335" s="84"/>
       <c r="E335" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F335" s="326"/>
       <c r="G335" s="234"/>
@@ -46971,19 +46971,19 @@
         <v>405</v>
       </c>
       <c r="C336" s="234" t="s">
-        <v>4038</v>
+        <v>4036</v>
       </c>
       <c r="D336" s="84"/>
       <c r="E336" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F336" s="326"/>
       <c r="G336" s="234"/>
       <c r="H336" s="132" t="s">
-        <v>4037</v>
+        <v>4035</v>
       </c>
       <c r="I336" s="14" t="s">
-        <v>4036</v>
+        <v>4034</v>
       </c>
       <c r="J336" s="130" t="s">
         <v>2639</v>
@@ -47000,7 +47000,7 @@
         <v>2642</v>
       </c>
       <c r="P336" s="19" t="s">
-        <v>3894</v>
+        <v>3892</v>
       </c>
       <c r="Q336" s="19"/>
       <c r="R336" s="36" t="s">
@@ -47061,7 +47061,7 @@
       <c r="C337" s="234"/>
       <c r="D337" s="84"/>
       <c r="E337" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F337" s="326"/>
       <c r="G337" s="234" t="s">
@@ -47137,7 +47137,7 @@
       <c r="C338" s="234"/>
       <c r="D338" s="93"/>
       <c r="E338" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F338" s="326"/>
       <c r="G338" s="234"/>
@@ -47146,7 +47146,7 @@
       </c>
       <c r="I338" s="24"/>
       <c r="J338" s="41" t="s">
-        <v>3797</v>
+        <v>3795</v>
       </c>
       <c r="K338" s="66" t="s">
         <v>2655</v>
@@ -47160,7 +47160,7 @@
         <v>2657</v>
       </c>
       <c r="P338" s="19" t="s">
-        <v>3798</v>
+        <v>3796</v>
       </c>
       <c r="Q338" s="19"/>
       <c r="R338" s="19" t="s">
@@ -47170,7 +47170,7 @@
         <v>2659</v>
       </c>
       <c r="T338" s="464" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="U338" s="32" t="s">
         <v>36</v>
@@ -47293,7 +47293,7 @@
         <v>405</v>
       </c>
       <c r="C340" s="444" t="s">
-        <v>4039</v>
+        <v>4037</v>
       </c>
       <c r="D340" s="93"/>
       <c r="E340" s="273"/>
@@ -47390,7 +47390,7 @@
       </c>
       <c r="I341" s="14"/>
       <c r="J341" s="130" t="s">
-        <v>3843</v>
+        <v>3841</v>
       </c>
       <c r="K341" s="66" t="s">
         <v>2674</v>
@@ -47433,7 +47433,7 @@
       <c r="AC341" s="101"/>
       <c r="AD341" s="14"/>
       <c r="AE341" s="118" t="s">
-        <v>3845</v>
+        <v>3843</v>
       </c>
       <c r="AF341" s="14"/>
       <c r="AG341" s="14"/>
@@ -47453,7 +47453,7 @@
     </row>
     <row r="342" spans="1:46" ht="15.75" customHeight="1">
       <c r="A342" s="116" t="s">
-        <v>3722</v>
+        <v>3720</v>
       </c>
       <c r="B342" s="15" t="s">
         <v>405</v>
@@ -47541,7 +47541,7 @@
       <c r="C343" s="234"/>
       <c r="D343" s="84"/>
       <c r="E343" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F343" s="326"/>
       <c r="G343" s="234"/>
@@ -47626,7 +47626,7 @@
       </c>
       <c r="I344" s="14"/>
       <c r="J344" s="129" t="s">
-        <v>3835</v>
+        <v>3833</v>
       </c>
       <c r="K344" s="68" t="s">
         <v>2399</v>
@@ -47691,13 +47691,13 @@
     </row>
     <row r="345" spans="1:46" ht="15.75" customHeight="1">
       <c r="A345" s="116" t="s">
-        <v>3723</v>
+        <v>3721</v>
       </c>
       <c r="B345" s="15" t="s">
         <v>405</v>
       </c>
       <c r="C345" s="444" t="s">
-        <v>3723</v>
+        <v>3721</v>
       </c>
       <c r="D345" s="163"/>
       <c r="E345" s="269"/>
@@ -47710,7 +47710,7 @@
         <v>2714</v>
       </c>
       <c r="J345" s="162" t="s">
-        <v>3879</v>
+        <v>3877</v>
       </c>
       <c r="K345" s="66" t="s">
         <v>2715</v>
@@ -47773,7 +47773,7 @@
     </row>
     <row r="346" spans="1:46" ht="15.75" customHeight="1">
       <c r="A346" s="116" t="s">
-        <v>3814</v>
+        <v>3812</v>
       </c>
       <c r="B346" s="15" t="s">
         <v>405</v>
@@ -47781,7 +47781,7 @@
       <c r="C346" s="403"/>
       <c r="D346" s="84"/>
       <c r="E346" s="436" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="F346" s="326"/>
       <c r="G346" s="234"/>
@@ -47865,10 +47865,10 @@
       <c r="C347" s="259"/>
       <c r="D347" s="84"/>
       <c r="E347" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F347" s="326" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="G347" s="234"/>
       <c r="H347" s="6" t="s">
@@ -47945,7 +47945,7 @@
       <c r="C348" s="403"/>
       <c r="D348" s="95"/>
       <c r="E348" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F348" s="326"/>
       <c r="G348" s="234"/>
@@ -48019,7 +48019,7 @@
     </row>
     <row r="349" spans="1:46" ht="15.75" customHeight="1">
       <c r="A349" s="116" t="s">
-        <v>3815</v>
+        <v>3813</v>
       </c>
       <c r="B349" s="15" t="s">
         <v>405</v>
@@ -48027,7 +48027,7 @@
       <c r="C349" s="234"/>
       <c r="D349" s="84"/>
       <c r="E349" s="436" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="F349" s="326"/>
       <c r="G349" s="234"/>
@@ -48107,7 +48107,7 @@
       <c r="C350" s="259"/>
       <c r="D350" s="93"/>
       <c r="E350" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F350" s="326"/>
       <c r="G350" s="234"/>
@@ -48185,15 +48185,15 @@
     </row>
     <row r="351" spans="1:46" ht="15.75" customHeight="1">
       <c r="A351" s="116" t="s">
-        <v>3816</v>
+        <v>3814</v>
       </c>
       <c r="B351" s="66" t="s">
-        <v>3944</v>
+        <v>3942</v>
       </c>
       <c r="C351" s="234"/>
       <c r="D351" s="84"/>
       <c r="E351" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F351" s="326"/>
       <c r="G351" s="234"/>
@@ -48263,7 +48263,7 @@
     </row>
     <row r="352" spans="1:46" ht="15.75" customHeight="1">
       <c r="A352" s="393" t="s">
-        <v>4040</v>
+        <v>4038</v>
       </c>
       <c r="B352" s="15" t="s">
         <v>405</v>
@@ -48271,12 +48271,12 @@
       <c r="C352" s="234"/>
       <c r="D352" s="84"/>
       <c r="E352" s="363" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F352" s="326"/>
       <c r="G352" s="234"/>
       <c r="H352" s="97" t="s">
-        <v>4053</v>
+        <v>4051</v>
       </c>
       <c r="I352" s="14"/>
       <c r="J352" s="130" t="s">
@@ -48299,7 +48299,7 @@
         <v>2455</v>
       </c>
       <c r="S352" s="19" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="T352" s="42" t="s">
         <v>35</v>
@@ -48347,7 +48347,7 @@
     </row>
     <row r="353" spans="1:46" ht="15.75" customHeight="1">
       <c r="A353" s="393" t="s">
-        <v>4054</v>
+        <v>4052</v>
       </c>
       <c r="B353" s="15" t="s">
         <v>405</v>
@@ -48355,7 +48355,7 @@
       <c r="C353" s="234"/>
       <c r="D353" s="84"/>
       <c r="E353" s="363" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F353" s="326"/>
       <c r="G353" s="234"/>
@@ -48431,7 +48431,7 @@
       <c r="C354" s="234"/>
       <c r="D354" s="84"/>
       <c r="E354" s="436" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="F354" s="326"/>
       <c r="G354" s="234"/>
@@ -48536,7 +48536,7 @@
         <v>1548</v>
       </c>
       <c r="P355" s="26" t="s">
-        <v>3838</v>
+        <v>3836</v>
       </c>
       <c r="Q355" s="26" t="s">
         <v>2789</v>
@@ -48597,7 +48597,7 @@
       <c r="C356" s="234"/>
       <c r="D356" s="84"/>
       <c r="E356" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F356" s="326"/>
       <c r="G356" s="234"/>
@@ -48758,12 +48758,12 @@
         <v>2810</v>
       </c>
       <c r="B358" s="394" t="s">
-        <v>4041</v>
+        <v>4039</v>
       </c>
       <c r="C358" s="234"/>
       <c r="D358" s="84"/>
       <c r="E358" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F358" s="326"/>
       <c r="G358" s="234"/>
@@ -48843,10 +48843,10 @@
       </c>
       <c r="D359" s="84"/>
       <c r="E359" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F359" s="326" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="G359" s="14"/>
       <c r="H359" s="23" t="s">
@@ -48927,7 +48927,7 @@
       <c r="C360" s="234"/>
       <c r="D360" s="84"/>
       <c r="E360" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F360" s="326"/>
       <c r="G360" s="234"/>
@@ -49009,7 +49009,7 @@
       <c r="C361" s="234"/>
       <c r="D361" s="84"/>
       <c r="E361" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F361" s="326"/>
       <c r="G361" s="234"/>
@@ -49032,7 +49032,7 @@
         <v>2840</v>
       </c>
       <c r="P361" s="26" t="s">
-        <v>3810</v>
+        <v>3808</v>
       </c>
       <c r="Q361" s="26"/>
       <c r="R361" s="19" t="s">
@@ -49091,7 +49091,7 @@
         <v>349</v>
       </c>
       <c r="C362" s="444" t="s">
-        <v>4042</v>
+        <v>4040</v>
       </c>
       <c r="D362" s="84"/>
       <c r="E362" s="96"/>
@@ -49126,7 +49126,7 @@
         <v>1822</v>
       </c>
       <c r="T362" s="32" t="s">
-        <v>3794</v>
+        <v>3792</v>
       </c>
       <c r="U362" s="32" t="s">
         <v>36</v>
@@ -49175,12 +49175,12 @@
         <v>349</v>
       </c>
       <c r="C363" s="444" t="s">
-        <v>4042</v>
+        <v>4040</v>
       </c>
       <c r="D363" s="84"/>
       <c r="E363" s="404"/>
       <c r="F363" s="326" t="s">
-        <v>3953</v>
+        <v>3951</v>
       </c>
       <c r="G363" s="234"/>
       <c r="H363" s="132" t="s">
@@ -49259,7 +49259,7 @@
       <c r="C364" s="234"/>
       <c r="D364" s="84"/>
       <c r="E364" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F364" s="326"/>
       <c r="G364" s="234"/>
@@ -49329,7 +49329,7 @@
       <c r="C365" s="234"/>
       <c r="D365" s="84"/>
       <c r="E365" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F365" s="326"/>
       <c r="G365" s="234"/>
@@ -49403,7 +49403,7 @@
     </row>
     <row r="366" spans="1:46" ht="15.75" customHeight="1">
       <c r="A366" s="116" t="s">
-        <v>3724</v>
+        <v>3722</v>
       </c>
       <c r="B366" s="15" t="s">
         <v>349</v>
@@ -49489,7 +49489,7 @@
       <c r="C367" s="234"/>
       <c r="D367" s="84"/>
       <c r="E367" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F367" s="326"/>
       <c r="G367" s="234"/>
@@ -49573,7 +49573,7 @@
       <c r="C368" s="234"/>
       <c r="D368" s="84"/>
       <c r="E368" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F368" s="326"/>
       <c r="G368" s="234"/>
@@ -49664,7 +49664,7 @@
       </c>
       <c r="I369" s="14"/>
       <c r="J369" s="41" t="s">
-        <v>3784</v>
+        <v>3782</v>
       </c>
       <c r="K369" s="68" t="s">
         <v>2399</v>
@@ -49676,7 +49676,7 @@
         <v>2898</v>
       </c>
       <c r="P369" s="19" t="s">
-        <v>3812</v>
+        <v>3810</v>
       </c>
       <c r="Q369" s="19" t="s">
         <v>33</v>
@@ -49711,10 +49711,10 @@
         <v>2903</v>
       </c>
       <c r="AE369" s="6" t="s">
+        <v>3781</v>
+      </c>
+      <c r="AF369" s="222" t="s">
         <v>3783</v>
-      </c>
-      <c r="AF369" s="222" t="s">
-        <v>3785</v>
       </c>
       <c r="AG369" s="14"/>
       <c r="AH369" s="14"/>
@@ -49827,10 +49827,10 @@
         <v>2905</v>
       </c>
       <c r="E371" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F371" s="326" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="G371" s="14" t="s">
         <v>2914</v>
@@ -49918,7 +49918,7 @@
       </c>
       <c r="I372" s="401"/>
       <c r="J372" s="129" t="s">
-        <v>3839</v>
+        <v>3837</v>
       </c>
       <c r="K372" s="68" t="s">
         <v>2399</v>
@@ -49988,10 +49988,10 @@
       </c>
       <c r="C373" s="234"/>
       <c r="D373" s="444" t="s">
-        <v>4043</v>
+        <v>4041</v>
       </c>
       <c r="E373" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F373" s="326"/>
       <c r="G373" s="234"/>
@@ -50061,17 +50061,17 @@
     </row>
     <row r="374" spans="1:46" ht="15.75" customHeight="1">
       <c r="A374" s="116" t="s">
-        <v>4044</v>
+        <v>4042</v>
       </c>
       <c r="B374" s="15" t="s">
         <v>349</v>
       </c>
       <c r="C374" s="251" t="s">
-        <v>4045</v>
+        <v>4043</v>
       </c>
       <c r="D374" s="84"/>
       <c r="E374" s="439" t="s">
-        <v>4056</v>
+        <v>4054</v>
       </c>
       <c r="F374" s="324"/>
       <c r="G374" s="14"/>
@@ -50239,7 +50239,7 @@
       <c r="C376" s="407"/>
       <c r="D376" s="451"/>
       <c r="E376" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F376" s="326"/>
       <c r="G376" s="234"/>
@@ -50287,7 +50287,7 @@
       <c r="AE376" s="431"/>
       <c r="AF376" s="431"/>
       <c r="AG376" s="409" t="s">
-        <v>3919</v>
+        <v>3917</v>
       </c>
       <c r="AH376" s="431"/>
       <c r="AI376" s="158"/>
@@ -50305,7 +50305,7 @@
     </row>
     <row r="377" spans="1:46" ht="15.75" customHeight="1">
       <c r="A377" s="393" t="s">
-        <v>4046</v>
+        <v>4044</v>
       </c>
       <c r="B377" s="15" t="s">
         <v>349</v>
@@ -50313,7 +50313,7 @@
       <c r="C377" s="403"/>
       <c r="D377" s="84"/>
       <c r="E377" s="362" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="F377" s="326"/>
       <c r="G377" s="234"/>
@@ -50395,7 +50395,7 @@
       <c r="C378" s="234"/>
       <c r="D378" s="84"/>
       <c r="E378" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F378" s="326"/>
       <c r="G378" s="234"/>
@@ -50475,7 +50475,7 @@
       <c r="C379" s="234"/>
       <c r="D379" s="84"/>
       <c r="E379" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F379" s="326"/>
       <c r="G379" s="234"/>
@@ -50715,13 +50715,13 @@
     </row>
     <row r="382" spans="1:46" ht="15" customHeight="1">
       <c r="A382" s="399" t="s">
-        <v>3787</v>
+        <v>3785</v>
       </c>
       <c r="B382" s="400" t="s">
         <v>349</v>
       </c>
       <c r="C382" s="444" t="s">
-        <v>3986</v>
+        <v>3984</v>
       </c>
       <c r="D382" s="405"/>
       <c r="E382" s="269"/>
@@ -51092,7 +51092,7 @@
       <c r="E387" s="96"/>
       <c r="F387" s="324"/>
       <c r="G387" s="14" t="s">
-        <v>3940</v>
+        <v>3938</v>
       </c>
       <c r="H387" s="23" t="s">
         <v>3026</v>
@@ -51174,7 +51174,7 @@
       <c r="C388" s="259"/>
       <c r="D388" s="142"/>
       <c r="E388" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F388" s="326"/>
       <c r="G388" s="234"/>
@@ -51224,7 +51224,7 @@
       <c r="AE388" s="143"/>
       <c r="AF388" s="143"/>
       <c r="AG388" s="141" t="s">
-        <v>3920</v>
+        <v>3918</v>
       </c>
       <c r="AH388" s="143"/>
       <c r="AI388" s="14"/>
@@ -51250,7 +51250,7 @@
       <c r="C389" s="403"/>
       <c r="D389" s="405"/>
       <c r="E389" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F389" s="326"/>
       <c r="G389" s="234"/>
@@ -51318,7 +51318,7 @@
     </row>
     <row r="390" spans="1:46" ht="15.75" customHeight="1">
       <c r="A390" s="395" t="s">
-        <v>4047</v>
+        <v>4045</v>
       </c>
       <c r="B390" s="15" t="s">
         <v>349</v>
@@ -51326,7 +51326,7 @@
       <c r="C390" s="234"/>
       <c r="D390" s="84"/>
       <c r="E390" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F390" s="326"/>
       <c r="G390" s="234"/>
@@ -51335,7 +51335,7 @@
       </c>
       <c r="I390" s="14"/>
       <c r="J390" s="155" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="K390" s="14" t="s">
         <v>2439</v>
@@ -51416,7 +51416,7 @@
       <c r="C391" s="234"/>
       <c r="D391" s="84"/>
       <c r="E391" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F391" s="326"/>
       <c r="G391" s="234"/>
@@ -51494,7 +51494,7 @@
       <c r="C392" s="234"/>
       <c r="D392" s="84"/>
       <c r="E392" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F392" s="326"/>
       <c r="G392" s="234"/>
@@ -51576,7 +51576,7 @@
       <c r="C393" s="236"/>
       <c r="D393" s="405"/>
       <c r="E393" s="454" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="F393" s="325"/>
       <c r="G393" s="236"/>
@@ -51658,7 +51658,7 @@
       <c r="C394" s="234"/>
       <c r="D394" s="93"/>
       <c r="E394" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F394" s="326"/>
       <c r="G394" s="234"/>
@@ -51682,7 +51682,7 @@
         <v>3077</v>
       </c>
       <c r="O394" s="38" t="s">
-        <v>3759</v>
+        <v>3757</v>
       </c>
       <c r="P394" s="26" t="s">
         <v>3078</v>
@@ -51814,7 +51814,7 @@
       <c r="C396" s="234"/>
       <c r="D396" s="84"/>
       <c r="E396" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F396" s="326"/>
       <c r="G396" s="234"/>
@@ -51898,7 +51898,7 @@
       <c r="C397" s="234"/>
       <c r="D397" s="84"/>
       <c r="E397" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F397" s="326"/>
       <c r="G397" s="234"/>
@@ -51966,7 +51966,7 @@
       <c r="C398" s="234"/>
       <c r="D398" s="84"/>
       <c r="E398" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F398" s="326"/>
       <c r="G398" s="234"/>
@@ -52036,12 +52036,12 @@
       <c r="C399" s="234"/>
       <c r="D399" s="84"/>
       <c r="E399" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F399" s="326"/>
       <c r="G399" s="234"/>
       <c r="H399" s="97" t="s">
-        <v>4048</v>
+        <v>4046</v>
       </c>
       <c r="I399" s="14"/>
       <c r="J399" s="129" t="s">
@@ -52118,7 +52118,7 @@
       <c r="C400" s="248"/>
       <c r="D400" s="163"/>
       <c r="E400" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F400" s="332"/>
       <c r="G400" s="249"/>
@@ -52148,7 +52148,7 @@
         <v>33</v>
       </c>
       <c r="S400" s="19" t="s">
-        <v>3757</v>
+        <v>3755</v>
       </c>
       <c r="T400" s="46" t="s">
         <v>72</v>
@@ -52198,7 +52198,7 @@
       <c r="C401" s="234"/>
       <c r="D401" s="84"/>
       <c r="E401" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F401" s="326"/>
       <c r="G401" s="234"/>
@@ -52278,7 +52278,7 @@
       <c r="C402" s="234"/>
       <c r="D402" s="84"/>
       <c r="E402" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F402" s="326"/>
       <c r="G402" s="234"/>
@@ -52362,7 +52362,7 @@
       <c r="C403" s="234"/>
       <c r="D403" s="84"/>
       <c r="E403" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F403" s="326"/>
       <c r="G403" s="234"/>
@@ -52438,7 +52438,7 @@
     </row>
     <row r="404" spans="1:46" ht="15.75" customHeight="1">
       <c r="A404" s="397" t="s">
-        <v>4049</v>
+        <v>4047</v>
       </c>
       <c r="B404" s="15" t="s">
         <v>349</v>
@@ -52446,7 +52446,7 @@
       <c r="C404" s="396"/>
       <c r="D404" s="84"/>
       <c r="E404" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F404" s="326"/>
       <c r="G404" s="234"/>
@@ -52530,7 +52530,7 @@
       <c r="C405" s="234"/>
       <c r="D405" s="84"/>
       <c r="E405" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F405" s="326"/>
       <c r="G405" s="234"/>
@@ -52616,7 +52616,7 @@
       <c r="C406" s="234"/>
       <c r="D406" s="84"/>
       <c r="E406" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F406" s="326"/>
       <c r="G406" s="234"/>
@@ -52696,7 +52696,7 @@
       <c r="C407" s="403"/>
       <c r="D407" s="95"/>
       <c r="E407" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F407" s="326"/>
       <c r="G407" s="234"/>
@@ -52886,7 +52886,7 @@
         <v>3190</v>
       </c>
       <c r="W409" s="14" t="s">
-        <v>3907</v>
+        <v>3905</v>
       </c>
       <c r="X409" s="14"/>
       <c r="Y409" s="14"/>
@@ -52926,7 +52926,7 @@
       <c r="C410" s="234"/>
       <c r="D410" s="84"/>
       <c r="E410" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F410" s="326"/>
       <c r="G410" s="234"/>
@@ -53004,7 +53004,7 @@
       <c r="C411" s="234"/>
       <c r="D411" s="84"/>
       <c r="E411" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F411" s="326"/>
       <c r="G411" s="234"/>
@@ -53080,7 +53080,7 @@
       <c r="C412" s="403"/>
       <c r="D412" s="84"/>
       <c r="E412" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F412" s="326"/>
       <c r="G412" s="234"/>
@@ -53160,7 +53160,7 @@
       <c r="C413" s="403"/>
       <c r="D413" s="84"/>
       <c r="E413" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F413" s="326"/>
       <c r="G413" s="234"/>
@@ -53240,7 +53240,7 @@
       </c>
       <c r="D414" s="95"/>
       <c r="E414" s="276" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F414" s="355"/>
       <c r="G414" s="294"/>
@@ -53310,13 +53310,13 @@
     </row>
     <row r="415" spans="1:46" ht="15.75" customHeight="1">
       <c r="A415" s="116" t="s">
-        <v>3737</v>
+        <v>3735</v>
       </c>
       <c r="B415" s="15" t="s">
         <v>349</v>
       </c>
       <c r="C415" s="444" t="s">
-        <v>3737</v>
+        <v>3735</v>
       </c>
       <c r="D415" s="84"/>
       <c r="E415" s="412"/>
@@ -53392,7 +53392,7 @@
     </row>
     <row r="416" spans="1:46" ht="15.75" customHeight="1">
       <c r="A416" s="116" t="s">
-        <v>3725</v>
+        <v>3723</v>
       </c>
       <c r="B416" s="15" t="s">
         <v>349</v>
@@ -53400,7 +53400,7 @@
       <c r="C416" s="403"/>
       <c r="D416" s="84"/>
       <c r="E416" s="276" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F416" s="354"/>
       <c r="G416" s="236"/>
@@ -53409,10 +53409,10 @@
       </c>
       <c r="I416" s="14"/>
       <c r="J416" s="129" t="s">
-        <v>3883</v>
+        <v>3881</v>
       </c>
       <c r="K416" s="14" t="s">
-        <v>3853</v>
+        <v>3851</v>
       </c>
       <c r="L416" s="176"/>
       <c r="M416" s="176"/>
@@ -53462,7 +53462,7 @@
     </row>
     <row r="417" spans="1:46" s="100" customFormat="1" ht="15.75" customHeight="1">
       <c r="A417" s="116" t="s">
-        <v>3726</v>
+        <v>3724</v>
       </c>
       <c r="B417" s="15" t="s">
         <v>349</v>
@@ -53470,7 +53470,7 @@
       <c r="C417" s="236"/>
       <c r="D417" s="84"/>
       <c r="E417" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F417" s="326"/>
       <c r="G417" s="234"/>
@@ -53534,13 +53534,13 @@
     </row>
     <row r="418" spans="1:46" ht="15.75" customHeight="1">
       <c r="A418" s="116" t="s">
-        <v>3727</v>
+        <v>3725</v>
       </c>
       <c r="B418" s="15" t="s">
         <v>349</v>
       </c>
       <c r="C418" s="444" t="s">
-        <v>3727</v>
+        <v>3725</v>
       </c>
       <c r="D418" s="84"/>
       <c r="E418" s="363"/>
@@ -53614,7 +53614,7 @@
       <c r="C419" s="236"/>
       <c r="D419" s="95"/>
       <c r="E419" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F419" s="326"/>
       <c r="G419" s="234"/>
@@ -53701,7 +53701,7 @@
       </c>
       <c r="I420" s="65"/>
       <c r="J420" s="129" t="s">
-        <v>3782</v>
+        <v>3780</v>
       </c>
       <c r="K420" s="14" t="s">
         <v>2399</v>
@@ -53774,7 +53774,7 @@
       <c r="C421" s="236"/>
       <c r="D421" s="95"/>
       <c r="E421" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F421" s="326"/>
       <c r="G421" s="234"/>
@@ -53860,7 +53860,7 @@
       <c r="C422" s="236"/>
       <c r="D422" s="95"/>
       <c r="E422" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F422" s="326"/>
       <c r="G422" s="234"/>
@@ -53869,7 +53869,7 @@
       </c>
       <c r="I422" s="65"/>
       <c r="J422" s="129" t="s">
-        <v>3779</v>
+        <v>3777</v>
       </c>
       <c r="K422" s="68" t="s">
         <v>2399</v>
@@ -53917,10 +53917,10 @@
       </c>
       <c r="AC422" s="14"/>
       <c r="AD422" s="14" t="s">
-        <v>3780</v>
+        <v>3778</v>
       </c>
       <c r="AE422" s="14" t="s">
-        <v>3781</v>
+        <v>3779</v>
       </c>
       <c r="AF422" s="14"/>
       <c r="AG422" s="14"/>
@@ -53940,7 +53940,7 @@
     </row>
     <row r="423" spans="1:46" ht="15.75" customHeight="1">
       <c r="A423" s="116" t="s">
-        <v>3728</v>
+        <v>3726</v>
       </c>
       <c r="B423" s="15" t="s">
         <v>349</v>
@@ -53948,7 +53948,7 @@
       <c r="C423" s="84"/>
       <c r="D423" s="84"/>
       <c r="E423" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F423" s="326"/>
       <c r="G423" s="234"/>
@@ -54014,7 +54014,7 @@
     </row>
     <row r="424" spans="1:46" ht="15.75" customHeight="1">
       <c r="A424" s="116" t="s">
-        <v>3729</v>
+        <v>3727</v>
       </c>
       <c r="B424" s="15" t="s">
         <v>349</v>
@@ -54102,7 +54102,7 @@
       <c r="C425" s="403"/>
       <c r="D425" s="84"/>
       <c r="E425" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F425" s="325"/>
       <c r="G425" s="236"/>
@@ -54170,7 +54170,7 @@
       <c r="C426" s="234"/>
       <c r="D426" s="84"/>
       <c r="E426" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F426" s="326"/>
       <c r="G426" s="234"/>
@@ -54240,7 +54240,7 @@
       <c r="C427" s="234"/>
       <c r="D427" s="84"/>
       <c r="E427" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F427" s="326"/>
       <c r="G427" s="234"/>
@@ -54316,7 +54316,7 @@
       <c r="C428" s="234"/>
       <c r="D428" s="84"/>
       <c r="E428" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F428" s="326"/>
       <c r="G428" s="234"/>
@@ -54384,7 +54384,7 @@
     </row>
     <row r="429" spans="1:46" ht="15.75" customHeight="1">
       <c r="A429" s="116" t="s">
-        <v>3730</v>
+        <v>3728</v>
       </c>
       <c r="B429" s="15" t="s">
         <v>349</v>
@@ -54392,10 +54392,10 @@
       <c r="C429" s="234"/>
       <c r="D429" s="84"/>
       <c r="E429" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F429" s="326" t="s">
-        <v>3950</v>
+        <v>3948</v>
       </c>
       <c r="G429" s="234"/>
       <c r="H429" s="137" t="s">
@@ -54420,7 +54420,7 @@
       <c r="Q429" s="428"/>
       <c r="R429" s="262"/>
       <c r="S429" s="111" t="s">
-        <v>3762</v>
+        <v>3760</v>
       </c>
       <c r="T429" s="135" t="s">
         <v>358</v>
@@ -54456,7 +54456,7 @@
     </row>
     <row r="430" spans="1:46" s="125" customFormat="1" ht="15.75" customHeight="1">
       <c r="A430" s="116" t="s">
-        <v>3731</v>
+        <v>3729</v>
       </c>
       <c r="B430" s="15" t="s">
         <v>349</v>
@@ -54464,7 +54464,7 @@
       <c r="C430" s="403"/>
       <c r="D430" s="84"/>
       <c r="E430" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F430" s="326"/>
       <c r="G430" s="234"/>
@@ -54524,13 +54524,13 @@
     </row>
     <row r="431" spans="1:46" ht="15.75" customHeight="1">
       <c r="A431" s="116" t="s">
-        <v>3732</v>
+        <v>3730</v>
       </c>
       <c r="B431" s="15" t="s">
         <v>349</v>
       </c>
       <c r="C431" s="444" t="s">
-        <v>3732</v>
+        <v>3730</v>
       </c>
       <c r="D431" s="84"/>
       <c r="E431" s="363"/>
@@ -54602,7 +54602,7 @@
       <c r="C432" s="259"/>
       <c r="D432" s="84"/>
       <c r="E432" s="96" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F432" s="326"/>
       <c r="G432" s="234"/>
@@ -54682,10 +54682,10 @@
       <c r="C433" s="407"/>
       <c r="D433" s="84"/>
       <c r="E433" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F433" s="326" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="G433" s="236"/>
       <c r="H433" s="97" t="s">
@@ -54750,7 +54750,7 @@
     </row>
     <row r="434" spans="1:46" ht="15.75" customHeight="1">
       <c r="A434" s="116" t="s">
-        <v>3733</v>
+        <v>3731</v>
       </c>
       <c r="B434" s="15" t="s">
         <v>349</v>
@@ -54758,7 +54758,7 @@
       <c r="C434" s="409"/>
       <c r="D434" s="163"/>
       <c r="E434" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F434" s="327"/>
       <c r="G434" s="291"/>
@@ -54818,7 +54818,7 @@
     </row>
     <row r="435" spans="1:46" ht="15.75" customHeight="1">
       <c r="A435" s="116" t="s">
-        <v>3734</v>
+        <v>3732</v>
       </c>
       <c r="B435" s="15" t="s">
         <v>349</v>
@@ -54826,7 +54826,7 @@
       <c r="C435" s="403"/>
       <c r="D435" s="84"/>
       <c r="E435" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F435" s="326"/>
       <c r="G435" s="236"/>
@@ -54896,10 +54896,10 @@
       <c r="C436" s="236"/>
       <c r="D436" s="84"/>
       <c r="E436" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F436" s="349" t="s">
-        <v>3960</v>
+        <v>3958</v>
       </c>
       <c r="G436" s="14"/>
       <c r="H436" s="97" t="s">
@@ -54972,7 +54972,7 @@
     </row>
     <row r="437" spans="1:46" ht="15.75" customHeight="1">
       <c r="A437" s="116" t="s">
-        <v>3735</v>
+        <v>3733</v>
       </c>
       <c r="B437" s="15" t="s">
         <v>349</v>
@@ -54980,7 +54980,7 @@
       <c r="C437" s="236"/>
       <c r="D437" s="84"/>
       <c r="E437" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F437" s="326"/>
       <c r="G437" s="234"/>
@@ -55056,10 +55056,10 @@
       <c r="C438" s="234"/>
       <c r="D438" s="84"/>
       <c r="E438" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F438" s="349" t="s">
-        <v>3960</v>
+        <v>3958</v>
       </c>
       <c r="G438" s="235"/>
       <c r="H438" s="6" t="s">
@@ -55136,12 +55136,12 @@
       <c r="C439" s="234"/>
       <c r="D439" s="84"/>
       <c r="E439" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F439" s="326"/>
       <c r="G439" s="234"/>
       <c r="H439" s="97" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="I439" s="14"/>
       <c r="J439" s="129" t="s">
@@ -55214,7 +55214,7 @@
       <c r="C440" s="407"/>
       <c r="D440" s="84"/>
       <c r="E440" s="436" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="F440" s="324"/>
       <c r="G440" s="14"/>
@@ -55272,7 +55272,7 @@
       </c>
       <c r="AF440" s="14"/>
       <c r="AG440" s="154" t="s">
-        <v>3921</v>
+        <v>3919</v>
       </c>
       <c r="AH440" s="14"/>
       <c r="AI440" s="14"/>
@@ -55298,7 +55298,7 @@
       <c r="C441" s="234"/>
       <c r="D441" s="84"/>
       <c r="E441" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F441" s="326"/>
       <c r="G441" s="234"/>
@@ -55374,7 +55374,7 @@
     </row>
     <row r="442" spans="1:46" ht="15.75" customHeight="1">
       <c r="A442" s="116" t="s">
-        <v>3738</v>
+        <v>3736</v>
       </c>
       <c r="B442" s="15" t="s">
         <v>349</v>
@@ -55382,10 +55382,10 @@
       <c r="C442" s="236"/>
       <c r="D442" s="84"/>
       <c r="E442" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F442" s="326" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="G442" s="234"/>
       <c r="H442" s="97" t="s">
@@ -55460,7 +55460,7 @@
       <c r="C443" s="236"/>
       <c r="D443" s="84"/>
       <c r="E443" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F443" s="326"/>
       <c r="G443" s="234"/>
@@ -55535,7 +55535,7 @@
       <c r="D444" s="95"/>
       <c r="E444" s="361"/>
       <c r="F444" s="349" t="s">
-        <v>3960</v>
+        <v>3958</v>
       </c>
       <c r="G444" s="250"/>
       <c r="H444" s="67" t="s">
@@ -55621,7 +55621,7 @@
       <c r="D445" s="95"/>
       <c r="E445" s="361"/>
       <c r="F445" s="349" t="s">
-        <v>3960</v>
+        <v>3958</v>
       </c>
       <c r="G445" s="250"/>
       <c r="H445" s="67" t="s">
@@ -55696,7 +55696,7 @@
     </row>
     <row r="446" spans="1:46" ht="15.75" customHeight="1">
       <c r="A446" s="116" t="s">
-        <v>3739</v>
+        <v>3737</v>
       </c>
       <c r="B446" s="15" t="s">
         <v>349</v>
@@ -55704,7 +55704,7 @@
       <c r="C446" s="234"/>
       <c r="D446" s="84"/>
       <c r="E446" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F446" s="326"/>
       <c r="G446" s="234"/>
@@ -55772,7 +55772,7 @@
     </row>
     <row r="447" spans="1:46" ht="15.75" customHeight="1">
       <c r="A447" s="397" t="s">
-        <v>4050</v>
+        <v>4048</v>
       </c>
       <c r="B447" s="15" t="s">
         <v>349</v>
@@ -55780,7 +55780,7 @@
       <c r="C447" s="84"/>
       <c r="D447" s="84"/>
       <c r="E447" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F447" s="326"/>
       <c r="G447" s="234"/>
@@ -55926,7 +55926,7 @@
       <c r="C449" s="234"/>
       <c r="D449" s="84"/>
       <c r="E449" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F449" s="326"/>
       <c r="G449" s="234"/>
@@ -56000,14 +56000,14 @@
         <v>349</v>
       </c>
       <c r="C450" s="444" t="s">
-        <v>4051</v>
+        <v>4049</v>
       </c>
       <c r="D450" s="84"/>
       <c r="E450" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F450" s="349" t="s">
-        <v>3960</v>
+        <v>3958</v>
       </c>
       <c r="G450" s="250"/>
       <c r="H450" s="97" t="s">
@@ -56090,7 +56090,7 @@
       <c r="C451" s="234"/>
       <c r="D451" s="84"/>
       <c r="E451" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F451" s="326"/>
       <c r="G451" s="234"/>
@@ -56123,7 +56123,7 @@
         <v>36</v>
       </c>
       <c r="V451" s="24" t="s">
-        <v>3914</v>
+        <v>3912</v>
       </c>
       <c r="W451" s="24"/>
       <c r="X451" s="24"/>
@@ -56137,7 +56137,7 @@
       <c r="AF451" s="14"/>
       <c r="AG451" s="10"/>
       <c r="AH451" s="14" t="s">
-        <v>3905</v>
+        <v>3903</v>
       </c>
       <c r="AI451" s="14"/>
       <c r="AJ451" s="14"/>
@@ -56162,10 +56162,10 @@
       <c r="C452" s="140"/>
       <c r="D452" s="84"/>
       <c r="E452" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F452" s="326" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="G452" s="234"/>
       <c r="H452" s="97" t="s">
@@ -56242,10 +56242,10 @@
       <c r="C453" s="259"/>
       <c r="D453" s="84"/>
       <c r="E453" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F453" s="326" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="G453" s="234"/>
       <c r="H453" s="97" t="s">
@@ -56312,7 +56312,7 @@
     </row>
     <row r="454" spans="1:46" ht="15.75" customHeight="1">
       <c r="A454" s="116" t="s">
-        <v>3740</v>
+        <v>3738</v>
       </c>
       <c r="B454" s="15" t="s">
         <v>349</v>
@@ -56320,7 +56320,7 @@
       <c r="C454" s="234"/>
       <c r="D454" s="84"/>
       <c r="E454" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F454" s="326"/>
       <c r="G454" s="234"/>
@@ -56329,7 +56329,7 @@
       </c>
       <c r="I454" s="14"/>
       <c r="J454" s="129" t="s">
-        <v>3741</v>
+        <v>3739</v>
       </c>
       <c r="K454" s="14" t="s">
         <v>3447</v>
@@ -56396,10 +56396,10 @@
       <c r="C455" s="234"/>
       <c r="D455" s="84"/>
       <c r="E455" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F455" s="326" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="G455" s="234"/>
       <c r="H455" s="97" t="s">
@@ -56472,7 +56472,7 @@
     </row>
     <row r="456" spans="1:46" ht="15.75" customHeight="1">
       <c r="A456" s="116" t="s">
-        <v>3742</v>
+        <v>3740</v>
       </c>
       <c r="B456" s="14" t="s">
         <v>349</v>
@@ -56480,7 +56480,7 @@
       <c r="C456" s="234"/>
       <c r="D456" s="84"/>
       <c r="E456" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F456" s="326"/>
       <c r="G456" s="234"/>
@@ -56556,7 +56556,7 @@
     </row>
     <row r="457" spans="1:46" ht="15.75" customHeight="1">
       <c r="A457" s="116" t="s">
-        <v>3743</v>
+        <v>3741</v>
       </c>
       <c r="B457" s="15" t="s">
         <v>349</v>
@@ -56564,7 +56564,7 @@
       <c r="C457" s="234"/>
       <c r="D457" s="84"/>
       <c r="E457" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F457" s="326"/>
       <c r="G457" s="234"/>
@@ -56640,7 +56640,7 @@
     </row>
     <row r="458" spans="1:46" ht="15.75" customHeight="1">
       <c r="A458" s="116" t="s">
-        <v>3744</v>
+        <v>3742</v>
       </c>
       <c r="B458" s="15" t="s">
         <v>349</v>
@@ -56648,7 +56648,7 @@
       <c r="C458" s="234"/>
       <c r="D458" s="85"/>
       <c r="E458" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F458" s="326"/>
       <c r="G458" s="234"/>
@@ -56724,10 +56724,10 @@
       <c r="C459" s="234"/>
       <c r="D459" s="84"/>
       <c r="E459" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F459" s="326" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="G459" s="234"/>
       <c r="H459" s="97" t="s">
@@ -56800,7 +56800,7 @@
     </row>
     <row r="460" spans="1:46" ht="15.75" customHeight="1">
       <c r="A460" s="116" t="s">
-        <v>3745</v>
+        <v>3743</v>
       </c>
       <c r="B460" s="15" t="s">
         <v>349</v>
@@ -56878,13 +56878,13 @@
     </row>
     <row r="461" spans="1:46" ht="15.75" customHeight="1">
       <c r="A461" s="116" t="s">
-        <v>3746</v>
+        <v>3744</v>
       </c>
       <c r="B461" s="15" t="s">
         <v>349</v>
       </c>
       <c r="C461" s="444" t="s">
-        <v>4052</v>
+        <v>4050</v>
       </c>
       <c r="D461" s="84"/>
       <c r="E461" s="361"/>
@@ -56970,10 +56970,10 @@
       <c r="C462" s="259"/>
       <c r="D462" s="85"/>
       <c r="E462" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F462" s="326" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="G462" s="234"/>
       <c r="H462" s="6" t="s">
@@ -57050,7 +57050,7 @@
       <c r="C463" s="234"/>
       <c r="D463" s="84"/>
       <c r="E463" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F463" s="328"/>
       <c r="G463" s="234"/>
@@ -57114,7 +57114,7 @@
     </row>
     <row r="464" spans="1:46" s="100" customFormat="1" ht="15.75" customHeight="1">
       <c r="A464" s="116" t="s">
-        <v>3747</v>
+        <v>3745</v>
       </c>
       <c r="B464" s="15" t="s">
         <v>349</v>
@@ -57124,7 +57124,7 @@
       </c>
       <c r="D464" s="84"/>
       <c r="E464" s="274" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F464" s="324"/>
       <c r="G464" s="14"/>
@@ -57196,7 +57196,7 @@
     </row>
     <row r="465" spans="1:46" ht="15.75" customHeight="1">
       <c r="A465" s="116" t="s">
-        <v>3749</v>
+        <v>3747</v>
       </c>
       <c r="B465" s="15" t="s">
         <v>349</v>
@@ -57204,10 +57204,10 @@
       <c r="C465" s="234"/>
       <c r="D465" s="84"/>
       <c r="E465" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F465" s="326" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="G465" s="234"/>
       <c r="H465" s="23" t="s">
@@ -57278,7 +57278,7 @@
     </row>
     <row r="466" spans="1:46" ht="15.75" customHeight="1">
       <c r="A466" s="116" t="s">
-        <v>3748</v>
+        <v>3746</v>
       </c>
       <c r="B466" s="15" t="s">
         <v>349</v>
@@ -57323,7 +57323,7 @@
         <v>3534</v>
       </c>
       <c r="T466" s="417" t="s">
-        <v>3799</v>
+        <v>3797</v>
       </c>
       <c r="U466" s="32" t="s">
         <v>36</v>
@@ -57364,10 +57364,10 @@
       <c r="C467" s="234"/>
       <c r="D467" s="85"/>
       <c r="E467" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F467" s="326" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="G467" s="234"/>
       <c r="H467" s="97" t="s">
@@ -57444,7 +57444,7 @@
       <c r="C468" s="146"/>
       <c r="D468" s="84"/>
       <c r="E468" s="471" t="s">
-        <v>4057</v>
+        <v>4055</v>
       </c>
       <c r="F468" s="326"/>
       <c r="G468" s="234"/>
@@ -57514,7 +57514,7 @@
     </row>
     <row r="469" spans="1:46" ht="15.75" customHeight="1">
       <c r="A469" s="116" t="s">
-        <v>3750</v>
+        <v>3748</v>
       </c>
       <c r="B469" s="15" t="s">
         <v>349</v>
@@ -57522,7 +57522,7 @@
       <c r="C469" s="234"/>
       <c r="D469" s="85"/>
       <c r="E469" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F469" s="326"/>
       <c r="G469" s="234"/>
@@ -57545,7 +57545,7 @@
         <v>2375</v>
       </c>
       <c r="P469" s="26" t="s">
-        <v>3811</v>
+        <v>3809</v>
       </c>
       <c r="Q469" s="385"/>
       <c r="R469" s="196" t="s">
@@ -57555,7 +57555,7 @@
         <v>3556</v>
       </c>
       <c r="T469" s="24" t="s">
-        <v>3794</v>
+        <v>3792</v>
       </c>
       <c r="U469" s="32" t="s">
         <v>36</v>
@@ -57596,10 +57596,10 @@
       <c r="C470" s="259"/>
       <c r="D470" s="84"/>
       <c r="E470" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F470" s="326" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="G470" s="234"/>
       <c r="H470" s="23" t="s">
@@ -57681,7 +57681,7 @@
       <c r="F471" s="330"/>
       <c r="G471" s="235"/>
       <c r="H471" s="97" t="s">
-        <v>3751</v>
+        <v>3749</v>
       </c>
       <c r="I471" s="401"/>
       <c r="J471" s="41" t="s">
@@ -57746,10 +57746,10 @@
       <c r="C472" s="259"/>
       <c r="D472" s="85"/>
       <c r="E472" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F472" s="326" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="G472" s="234"/>
       <c r="H472" s="97" t="s">
@@ -57812,7 +57812,7 @@
     </row>
     <row r="473" spans="1:46" ht="15.75" customHeight="1">
       <c r="A473" s="288" t="s">
-        <v>3752</v>
+        <v>3750</v>
       </c>
       <c r="B473" s="15" t="s">
         <v>349</v>
@@ -57820,7 +57820,7 @@
       <c r="C473" s="234"/>
       <c r="D473" s="84"/>
       <c r="E473" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F473" s="326"/>
       <c r="G473" s="234"/>
@@ -57890,7 +57890,7 @@
     </row>
     <row r="474" spans="1:46" ht="15.75" customHeight="1">
       <c r="A474" s="116" t="s">
-        <v>3753</v>
+        <v>3751</v>
       </c>
       <c r="B474" s="15" t="s">
         <v>349</v>
@@ -57898,7 +57898,7 @@
       <c r="C474" s="234"/>
       <c r="D474" s="84"/>
       <c r="E474" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F474" s="326"/>
       <c r="G474" s="234"/>
@@ -57983,7 +57983,7 @@
       <c r="D475" s="84"/>
       <c r="E475" s="277"/>
       <c r="F475" s="326" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="G475" s="14"/>
       <c r="H475" s="6" t="s">
@@ -58068,10 +58068,10 @@
       <c r="C476" s="259"/>
       <c r="D476" s="85"/>
       <c r="E476" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F476" s="326" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="G476" s="234"/>
       <c r="H476" s="23" t="s">
@@ -58154,10 +58154,10 @@
       <c r="C477" s="259"/>
       <c r="D477" s="85"/>
       <c r="E477" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F477" s="326" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="G477" s="234"/>
       <c r="H477" s="97" t="s">
@@ -58236,11 +58236,11 @@
         <v>349</v>
       </c>
       <c r="C478" s="446" t="s">
-        <v>3987</v>
+        <v>3985</v>
       </c>
       <c r="D478" s="84"/>
       <c r="E478" s="361" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="F478" s="324"/>
       <c r="G478" s="14"/>
@@ -58317,7 +58317,7 @@
       <c r="D479" s="85"/>
       <c r="E479" s="277"/>
       <c r="F479" s="326" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="G479" s="14"/>
       <c r="H479" s="23" t="s">

--- a/indexation-estampes.xlsx
+++ b/indexation-estampes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annepiejus/Documents/Projets:Travaux/MERCURE GALANT/MG ÉDITIONS/mercure-galant-sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC447729-A86A-A143-AF6B-D90883AEA72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DB7B32-1AFA-DE40-8BFF-7127D6FF9229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10620" yWindow="-28300" windowWidth="45720" windowHeight="27040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -736,7 +736,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7994" uniqueCount="4416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7994" uniqueCount="4417">
   <si>
     <t>Provenance cliché</t>
   </si>
@@ -15765,9 +15765,6 @@
     <t>1692-02a_307a</t>
   </si>
   <si>
-    <t>1678-02_328</t>
-  </si>
-  <si>
     <t>1678-03e_521a</t>
   </si>
   <si>
@@ -15898,9 +15895,6 @@
   </si>
   <si>
     <t>1678-12e_348</t>
-  </si>
-  <si>
-    <t>1678-12_291</t>
   </si>
   <si>
     <t>1678-12_271</t>
@@ -17536,6 +17530,12 @@
     <t>1678-12_097</t>
   </si>
   <si>
+    <t>1678-12_272</t>
+  </si>
+  <si>
+    <t>1678-12_295</t>
+  </si>
+  <si>
     <t>1679-10b_081</t>
   </si>
   <si>
@@ -18731,6 +18731,9 @@
   </si>
   <si>
     <t>https://gallica.bnf.fr/ark:/12148/bpt6k6373215x/f6.item</t>
+  </si>
+  <si>
+    <t>1678-02_236</t>
   </si>
 </sst>
 </file>
@@ -21937,8 +21940,8 @@
   <dimension ref="A1:AU681"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E121" sqref="E121"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -21983,19 +21986,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="250" t="s">
-        <v>3923</v>
+        <v>3921</v>
       </c>
       <c r="D1" s="80" t="s">
-        <v>3922</v>
+        <v>3920</v>
       </c>
       <c r="E1" s="489" t="s">
-        <v>3827</v>
+        <v>3825</v>
       </c>
       <c r="F1" s="263" t="s">
-        <v>3892</v>
+        <v>3890</v>
       </c>
       <c r="G1" s="317" t="s">
-        <v>3900</v>
+        <v>3898</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4114</v>
@@ -22007,7 +22010,7 @@
         <v>2</v>
       </c>
       <c r="K1" s="125" t="s">
-        <v>3904</v>
+        <v>3902</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>3</v>
@@ -22055,7 +22058,7 @@
         <v>16</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>3926</v>
+        <v>3924</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>17</v>
@@ -22079,7 +22082,7 @@
         <v>23</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>3827</v>
+        <v>3825</v>
       </c>
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
@@ -22096,10 +22099,10 @@
     </row>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>3992</v>
+        <v>3990</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3899</v>
+        <v>3897</v>
       </c>
       <c r="C2" s="247" t="s">
         <v>24</v>
@@ -22264,10 +22267,10 @@
         <v>36</v>
       </c>
       <c r="C4" s="438" t="s">
+        <v>3909</v>
+      </c>
+      <c r="D4" s="438" t="s">
         <v>3911</v>
-      </c>
-      <c r="D4" s="438" t="s">
-        <v>3913</v>
       </c>
       <c r="E4" s="490" t="s">
         <v>4127</v>
@@ -22277,7 +22280,7 @@
         <v>4102</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>49</v>
@@ -22355,7 +22358,7 @@
     </row>
     <row r="5" spans="1:47" s="161" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>3993</v>
+        <v>3991</v>
       </c>
       <c r="B5" s="280" t="s">
         <v>62</v>
@@ -22438,7 +22441,7 @@
     </row>
     <row r="6" spans="1:47" s="161" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>36</v>
@@ -22606,7 +22609,7 @@
     </row>
     <row r="8" spans="1:47" s="161" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>3995</v>
+        <v>3993</v>
       </c>
       <c r="B8" s="280" t="s">
         <v>90</v>
@@ -22768,7 +22771,7 @@
     </row>
     <row r="10" spans="1:47" s="471" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="350" t="s">
-        <v>3626</v>
+        <v>4416</v>
       </c>
       <c r="B10" s="363" t="s">
         <v>90</v>
@@ -22789,7 +22792,7 @@
       <c r="H10" s="363" t="s">
         <v>105</v>
       </c>
-      <c r="I10" s="376" t="s">
+      <c r="I10" s="213" t="s">
         <v>106</v>
       </c>
       <c r="J10" s="363" t="s">
@@ -22864,7 +22867,7 @@
         <v>4127</v>
       </c>
       <c r="F11" s="465" t="s">
-        <v>3990</v>
+        <v>3988</v>
       </c>
       <c r="G11" s="322"/>
       <c r="H11" s="231"/>
@@ -22945,7 +22948,7 @@
         <v>4127</v>
       </c>
       <c r="F12" s="465" t="s">
-        <v>3990</v>
+        <v>3988</v>
       </c>
       <c r="G12" s="318"/>
       <c r="H12" s="14"/>
@@ -23017,7 +23020,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="438" t="s">
-        <v>3932</v>
+        <v>3930</v>
       </c>
       <c r="D13" s="84"/>
       <c r="E13" s="546" t="s">
@@ -23182,12 +23185,12 @@
         <v>4127</v>
       </c>
       <c r="F15" s="270" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G15" s="320"/>
       <c r="H15" s="244"/>
       <c r="I15" s="97" t="s">
-        <v>3908</v>
+        <v>3906</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>159</v>
@@ -23248,13 +23251,13 @@
     </row>
     <row r="16" spans="1:47" s="100" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="131" t="s">
-        <v>3780</v>
+        <v>3778</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="438" t="s">
-        <v>3933</v>
+        <v>3931</v>
       </c>
       <c r="D16" s="83" t="s">
         <v>165</v>
@@ -23268,13 +23271,13 @@
         <v>4103</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>3909</v>
+        <v>3907</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>167</v>
       </c>
       <c r="K16" s="41" t="s">
-        <v>3810</v>
+        <v>3808</v>
       </c>
       <c r="L16" s="14" t="s">
         <v>168</v>
@@ -23316,7 +23319,7 @@
         <v>176</v>
       </c>
       <c r="AC16" s="14" t="s">
-        <v>3728</v>
+        <v>3726</v>
       </c>
       <c r="AD16" s="14"/>
       <c r="AE16" s="14"/>
@@ -23328,7 +23331,7 @@
       </c>
       <c r="AH16" s="14"/>
       <c r="AI16" s="14" t="s">
-        <v>3868</v>
+        <v>3866</v>
       </c>
       <c r="AJ16" s="99"/>
       <c r="AK16" s="99"/>
@@ -23345,13 +23348,13 @@
     </row>
     <row r="17" spans="1:47" ht="15.75" customHeight="1">
       <c r="A17" s="14" t="s">
-        <v>3781</v>
+        <v>3779</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="438" t="s">
-        <v>3933</v>
+        <v>3931</v>
       </c>
       <c r="D17" s="83" t="s">
         <v>165</v>
@@ -23365,13 +23368,13 @@
         <v>166</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>3910</v>
+        <v>3908</v>
       </c>
       <c r="J17" s="14" t="s">
         <v>167</v>
       </c>
       <c r="K17" s="41" t="s">
-        <v>3833</v>
+        <v>3831</v>
       </c>
       <c r="L17" s="14" t="s">
         <v>179</v>
@@ -23440,13 +23443,13 @@
     </row>
     <row r="18" spans="1:47" ht="15.75" customHeight="1">
       <c r="A18" s="41" t="s">
-        <v>3782</v>
+        <v>3780</v>
       </c>
       <c r="B18" s="34" t="s">
         <v>184</v>
       </c>
       <c r="C18" s="438" t="s">
-        <v>3934</v>
+        <v>3932</v>
       </c>
       <c r="D18" s="86" t="s">
         <v>165</v>
@@ -23535,13 +23538,13 @@
     </row>
     <row r="19" spans="1:47" ht="15.75" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>3783</v>
+        <v>3781</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="438" t="s">
-        <v>3934</v>
+        <v>3932</v>
       </c>
       <c r="D19" s="83" t="s">
         <v>165</v>
@@ -23555,7 +23558,7 @@
         <v>166</v>
       </c>
       <c r="I19" s="264" t="s">
-        <v>3907</v>
+        <v>3905</v>
       </c>
       <c r="J19" s="14" t="s">
         <v>191</v>
@@ -23630,13 +23633,13 @@
     </row>
     <row r="20" spans="1:47" ht="15.75" customHeight="1">
       <c r="A20" s="14" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="438" t="s">
-        <v>3935</v>
+        <v>3933</v>
       </c>
       <c r="D20" s="83" t="s">
         <v>165</v>
@@ -23650,13 +23653,13 @@
         <v>166</v>
       </c>
       <c r="I20" s="264" t="s">
-        <v>3907</v>
+        <v>3905</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>197</v>
       </c>
       <c r="K20" s="41" t="s">
-        <v>3811</v>
+        <v>3809</v>
       </c>
       <c r="L20" s="14" t="s">
         <v>198</v>
@@ -23721,13 +23724,13 @@
     </row>
     <row r="21" spans="1:47" ht="15.75" customHeight="1">
       <c r="A21" s="14" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="438" t="s">
-        <v>3935</v>
+        <v>3933</v>
       </c>
       <c r="D21" s="83" t="s">
         <v>165</v>
@@ -23741,11 +23744,11 @@
         <v>166</v>
       </c>
       <c r="I21" s="281" t="s">
-        <v>3906</v>
+        <v>3904</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="41" t="s">
-        <v>3812</v>
+        <v>3810</v>
       </c>
       <c r="L21" s="14" t="s">
         <v>201</v>
@@ -23792,7 +23795,7 @@
       <c r="AD21" s="14"/>
       <c r="AE21" s="14"/>
       <c r="AF21" s="310" t="s">
-        <v>3805</v>
+        <v>3803</v>
       </c>
       <c r="AG21" s="37" t="s">
         <v>204</v>
@@ -23910,7 +23913,7 @@
         <v>4127</v>
       </c>
       <c r="F23" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G23" s="320"/>
       <c r="H23" s="231"/>
@@ -23980,7 +23983,7 @@
     </row>
     <row r="24" spans="1:47" ht="15.75" customHeight="1">
       <c r="A24" s="15" t="s">
-        <v>3739</v>
+        <v>3737</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>224</v>
@@ -24057,7 +24060,7 @@
     </row>
     <row r="25" spans="1:47" ht="15.75" customHeight="1">
       <c r="A25" s="15" t="s">
-        <v>3996</v>
+        <v>3994</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>224</v>
@@ -24134,7 +24137,7 @@
     </row>
     <row r="26" spans="1:47" ht="15.75" customHeight="1">
       <c r="A26" s="109" t="s">
-        <v>3770</v>
+        <v>3768</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>224</v>
@@ -24221,7 +24224,7 @@
     </row>
     <row r="27" spans="1:47" ht="15.75" customHeight="1">
       <c r="A27" s="356" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>252</v>
@@ -24304,7 +24307,7 @@
     </row>
     <row r="28" spans="1:47" ht="15.75" customHeight="1">
       <c r="A28" s="350" t="s">
-        <v>3997</v>
+        <v>3995</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>265</v>
@@ -24321,7 +24324,7 @@
       <c r="F28" s="269"/>
       <c r="G28" s="337"/>
       <c r="H28" s="41" t="s">
-        <v>3784</v>
+        <v>3782</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>266</v>
@@ -24391,20 +24394,20 @@
     </row>
     <row r="29" spans="1:47" ht="15.75" customHeight="1">
       <c r="A29" s="15" t="s">
-        <v>3998</v>
+        <v>3996</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>265</v>
       </c>
       <c r="C29" s="403" t="s">
-        <v>3630</v>
+        <v>3629</v>
       </c>
       <c r="D29" s="81"/>
       <c r="E29" s="546" t="s">
         <v>4127</v>
       </c>
       <c r="F29" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G29" s="320"/>
       <c r="H29" s="231"/>
@@ -24472,7 +24475,7 @@
     </row>
     <row r="30" spans="1:47" ht="15.75" customHeight="1">
       <c r="A30" s="15" t="s">
-        <v>3999</v>
+        <v>3997</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>282</v>
@@ -24485,7 +24488,7 @@
         <v>4127</v>
       </c>
       <c r="F30" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G30" s="41" t="s">
         <v>4067</v>
@@ -24572,7 +24575,7 @@
         <v>4127</v>
       </c>
       <c r="F31" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G31" s="320"/>
       <c r="H31" s="231"/>
@@ -24640,13 +24643,13 @@
     </row>
     <row r="32" spans="1:47" ht="15.75" customHeight="1">
       <c r="A32" s="15" t="s">
-        <v>4000</v>
+        <v>3998</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="438" t="s">
-        <v>3936</v>
+        <v>3934</v>
       </c>
       <c r="D32" s="83" t="s">
         <v>253</v>
@@ -24657,7 +24660,7 @@
       <c r="F32" s="269"/>
       <c r="G32" s="337"/>
       <c r="H32" s="41" t="s">
-        <v>3785</v>
+        <v>3783</v>
       </c>
       <c r="I32" s="97" t="s">
         <v>297</v>
@@ -24729,13 +24732,13 @@
     </row>
     <row r="33" spans="1:47" ht="15.75" customHeight="1">
       <c r="A33" s="15" t="s">
-        <v>4001</v>
+        <v>3999</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C33" s="438" t="s">
-        <v>3936</v>
+        <v>3934</v>
       </c>
       <c r="D33" s="83" t="s">
         <v>253</v>
@@ -24746,7 +24749,7 @@
       <c r="F33" s="269"/>
       <c r="G33" s="337"/>
       <c r="H33" s="41" t="s">
-        <v>3785</v>
+        <v>3783</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>303</v>
@@ -24818,7 +24821,7 @@
     </row>
     <row r="34" spans="1:47" ht="15.75" customHeight="1">
       <c r="A34" s="356" t="s">
-        <v>4003</v>
+        <v>4001</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>36</v>
@@ -24831,12 +24834,12 @@
         <v>4127</v>
       </c>
       <c r="F34" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G34" s="320"/>
       <c r="H34" s="231"/>
       <c r="I34" s="97" t="s">
-        <v>4002</v>
+        <v>4000</v>
       </c>
       <c r="J34" s="14" t="s">
         <v>309</v>
@@ -24988,7 +24991,7 @@
     </row>
     <row r="36" spans="1:47" ht="15.75" customHeight="1">
       <c r="A36" s="15" t="s">
-        <v>4004</v>
+        <v>4002</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>36</v>
@@ -24998,17 +25001,17 @@
       </c>
       <c r="D36" s="84"/>
       <c r="E36" s="495" t="s">
-        <v>3898</v>
+        <v>3896</v>
       </c>
       <c r="F36" s="264"/>
       <c r="G36" s="318"/>
       <c r="H36" s="14"/>
       <c r="I36" s="264" t="s">
-        <v>3854</v>
+        <v>3852</v>
       </c>
       <c r="J36" s="14"/>
       <c r="K36" s="109" t="s">
-        <v>3840</v>
+        <v>3838</v>
       </c>
       <c r="L36" s="21" t="s">
         <v>4106</v>
@@ -25041,7 +25044,7 @@
         <v>314</v>
       </c>
       <c r="X36" s="14" t="s">
-        <v>3771</v>
+        <v>3769</v>
       </c>
       <c r="Y36" s="14"/>
       <c r="Z36" s="14"/>
@@ -25075,7 +25078,7 @@
     </row>
     <row r="37" spans="1:47" ht="15.75" customHeight="1">
       <c r="A37" s="15" t="s">
-        <v>4005</v>
+        <v>4003</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>36</v>
@@ -25085,13 +25088,13 @@
       </c>
       <c r="D37" s="84"/>
       <c r="E37" s="495" t="s">
-        <v>3898</v>
+        <v>3896</v>
       </c>
       <c r="F37" s="264"/>
       <c r="G37" s="318"/>
       <c r="H37" s="14"/>
       <c r="I37" s="264" t="s">
-        <v>3855</v>
+        <v>3853</v>
       </c>
       <c r="J37" s="14"/>
       <c r="K37" s="109" t="s">
@@ -25128,7 +25131,7 @@
         <v>328</v>
       </c>
       <c r="X37" s="14" t="s">
-        <v>3772</v>
+        <v>3770</v>
       </c>
       <c r="Y37" s="14"/>
       <c r="Z37" s="14"/>
@@ -25166,15 +25169,15 @@
       </c>
       <c r="D38" s="84"/>
       <c r="E38" s="495" t="s">
-        <v>3898</v>
+        <v>3896</v>
       </c>
       <c r="F38" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G38" s="320"/>
       <c r="H38" s="231"/>
       <c r="I38" s="14" t="s">
-        <v>3855</v>
+        <v>3853</v>
       </c>
       <c r="J38" s="14" t="s">
         <v>346</v>
@@ -25205,7 +25208,7 @@
       </c>
       <c r="W38" s="14"/>
       <c r="X38" s="14" t="s">
-        <v>3773</v>
+        <v>3771</v>
       </c>
       <c r="Y38" s="14"/>
       <c r="Z38" s="14"/>
@@ -25233,33 +25236,33 @@
     </row>
     <row r="39" spans="1:47" s="100" customFormat="1" ht="15.75" customHeight="1">
       <c r="A39" s="15" t="s">
-        <v>4006</v>
+        <v>4004</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="399" t="s">
-        <v>4010</v>
+        <v>4008</v>
       </c>
       <c r="D39" s="83" t="s">
         <v>165</v>
       </c>
       <c r="E39" s="492" t="s">
-        <v>3898</v>
+        <v>3896</v>
       </c>
       <c r="F39" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G39" s="318"/>
       <c r="H39" s="14"/>
       <c r="I39" s="232" t="s">
-        <v>3855</v>
+        <v>3853</v>
       </c>
       <c r="J39" s="14" t="s">
         <v>240</v>
       </c>
       <c r="K39" s="41" t="s">
-        <v>3813</v>
+        <v>3811</v>
       </c>
       <c r="L39" s="15" t="s">
         <v>241</v>
@@ -25284,7 +25287,7 @@
       </c>
       <c r="W39" s="14"/>
       <c r="X39" s="14" t="s">
-        <v>3774</v>
+        <v>3772</v>
       </c>
       <c r="Y39" s="14"/>
       <c r="Z39" s="14"/>
@@ -25294,7 +25297,7 @@
       <c r="AD39" s="14"/>
       <c r="AE39" s="14"/>
       <c r="AF39" s="213" t="s">
-        <v>3803</v>
+        <v>3801</v>
       </c>
       <c r="AG39" s="14"/>
       <c r="AH39" s="14"/>
@@ -25314,33 +25317,33 @@
     </row>
     <row r="40" spans="1:47" s="100" customFormat="1" ht="15.75" customHeight="1">
       <c r="A40" s="15" t="s">
-        <v>4007</v>
+        <v>4005</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="231" t="s">
-        <v>4010</v>
+        <v>4008</v>
       </c>
       <c r="D40" s="83" t="s">
         <v>165</v>
       </c>
       <c r="E40" s="492" t="s">
-        <v>3898</v>
+        <v>3896</v>
       </c>
       <c r="F40" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G40" s="318"/>
       <c r="H40" s="14"/>
       <c r="I40" s="232" t="s">
-        <v>3855</v>
+        <v>3853</v>
       </c>
       <c r="J40" s="14" t="s">
         <v>240</v>
       </c>
       <c r="K40" s="41" t="s">
-        <v>3814</v>
+        <v>3812</v>
       </c>
       <c r="L40" s="21" t="s">
         <v>242</v>
@@ -25397,7 +25400,7 @@
         <v>36</v>
       </c>
       <c r="C41" s="440" t="s">
-        <v>3914</v>
+        <v>3912</v>
       </c>
       <c r="D41" s="84"/>
       <c r="E41" s="546" t="s">
@@ -25411,7 +25414,7 @@
       </c>
       <c r="J41" s="14"/>
       <c r="K41" s="41" t="s">
-        <v>3714</v>
+        <v>3712</v>
       </c>
       <c r="L41" s="21" t="s">
         <v>351</v>
@@ -25422,7 +25425,7 @@
         <v>352</v>
       </c>
       <c r="P41" s="38" t="s">
-        <v>3713</v>
+        <v>3711</v>
       </c>
       <c r="Q41" s="26" t="s">
         <v>353</v>
@@ -25464,20 +25467,20 @@
     </row>
     <row r="42" spans="1:47" ht="15.75" customHeight="1">
       <c r="A42" s="15" t="s">
-        <v>4008</v>
+        <v>4006</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C42" s="255" t="s">
-        <v>4009</v>
+        <v>4007</v>
       </c>
       <c r="D42" s="84"/>
       <c r="E42" s="546" t="s">
         <v>4127</v>
       </c>
       <c r="F42" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G42" s="320"/>
       <c r="H42" s="231"/>
@@ -25543,20 +25546,20 @@
     </row>
     <row r="43" spans="1:47" ht="15.75" customHeight="1">
       <c r="A43" s="15" t="s">
-        <v>4011</v>
+        <v>4009</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C43" s="255" t="s">
-        <v>4009</v>
+        <v>4007</v>
       </c>
       <c r="D43" s="84"/>
       <c r="E43" s="546" t="s">
         <v>4127</v>
       </c>
       <c r="F43" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G43" s="320"/>
       <c r="H43" s="231"/>
@@ -25603,7 +25606,7 @@
         <v>371</v>
       </c>
       <c r="AC43" s="14" t="s">
-        <v>3729</v>
+        <v>3727</v>
       </c>
       <c r="AD43" s="14"/>
       <c r="AE43" s="14"/>
@@ -25778,20 +25781,20 @@
     </row>
     <row r="46" spans="1:47" ht="15.75" customHeight="1">
       <c r="A46" s="15" t="s">
-        <v>4012</v>
+        <v>4010</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C46" s="109" t="s">
-        <v>3674</v>
+        <v>3672</v>
       </c>
       <c r="D46" s="84"/>
       <c r="E46" s="495" t="s">
         <v>4398</v>
       </c>
       <c r="F46" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G46" s="320"/>
       <c r="H46" s="231"/>
@@ -25876,7 +25879,7 @@
         <v>4398</v>
       </c>
       <c r="F47" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G47" s="41" t="s">
         <v>4067</v>
@@ -25940,20 +25943,20 @@
     </row>
     <row r="48" spans="1:47" ht="15.75" customHeight="1">
       <c r="A48" s="15" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>401</v>
       </c>
       <c r="C48" s="109" t="s">
-        <v>3675</v>
+        <v>3673</v>
       </c>
       <c r="D48" s="84"/>
       <c r="E48" s="495" t="s">
         <v>4399</v>
       </c>
       <c r="F48" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G48" s="320"/>
       <c r="H48" s="231"/>
@@ -26096,7 +26099,7 @@
       <c r="AE49" s="14"/>
       <c r="AF49" s="14"/>
       <c r="AG49" s="14" t="s">
-        <v>3888</v>
+        <v>3886</v>
       </c>
       <c r="AH49" s="14"/>
       <c r="AI49" s="14"/>
@@ -26115,20 +26118,20 @@
     </row>
     <row r="50" spans="1:47" ht="15.75" customHeight="1">
       <c r="A50" s="15" t="s">
-        <v>4014</v>
+        <v>4012</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>401</v>
       </c>
       <c r="C50" s="109" t="s">
-        <v>3746</v>
+        <v>3744</v>
       </c>
       <c r="D50" s="84"/>
       <c r="E50" s="495" t="s">
         <v>4399</v>
       </c>
       <c r="F50" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G50" s="320"/>
       <c r="H50" s="231"/>
@@ -26196,13 +26199,13 @@
     </row>
     <row r="51" spans="1:47" ht="15.75" customHeight="1">
       <c r="A51" s="15" t="s">
-        <v>4015</v>
+        <v>4013</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C51" s="109" t="s">
-        <v>3745</v>
+        <v>3743</v>
       </c>
       <c r="D51" s="83" t="s">
         <v>431</v>
@@ -26211,7 +26214,7 @@
         <v>4399</v>
       </c>
       <c r="F51" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G51" s="41" t="s">
         <v>4067</v>
@@ -26275,7 +26278,7 @@
     </row>
     <row r="52" spans="1:47" ht="15.75" customHeight="1">
       <c r="A52" s="15" t="s">
-        <v>4016</v>
+        <v>4014</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>436</v>
@@ -26349,7 +26352,7 @@
       </c>
       <c r="AH52" s="14"/>
       <c r="AI52" s="14" t="s">
-        <v>3869</v>
+        <v>3867</v>
       </c>
       <c r="AJ52" s="14"/>
       <c r="AK52" s="14"/>
@@ -26372,7 +26375,7 @@
         <v>436</v>
       </c>
       <c r="C53" s="247" t="s">
-        <v>3915</v>
+        <v>3913</v>
       </c>
       <c r="D53" s="444"/>
       <c r="E53" s="498" t="s">
@@ -26436,7 +26439,7 @@
       <c r="AG53" s="14"/>
       <c r="AH53" s="14"/>
       <c r="AI53" s="14" t="s">
-        <v>3869</v>
+        <v>3867</v>
       </c>
       <c r="AJ53" s="14"/>
       <c r="AK53" s="14"/>
@@ -26453,7 +26456,7 @@
     </row>
     <row r="54" spans="1:47" s="100" customFormat="1" ht="15.75" customHeight="1">
       <c r="A54" s="356" t="s">
-        <v>4017</v>
+        <v>4015</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>461</v>
@@ -26473,7 +26476,7 @@
       </c>
       <c r="J54" s="14"/>
       <c r="K54" s="109" t="s">
-        <v>3841</v>
+        <v>3839</v>
       </c>
       <c r="L54" s="21" t="s">
         <v>463</v>
@@ -26512,16 +26515,16 @@
       <c r="AD54" s="14"/>
       <c r="AE54" s="14"/>
       <c r="AF54" s="117" t="s">
-        <v>3797</v>
+        <v>3795</v>
       </c>
       <c r="AG54" s="14" t="s">
         <v>469</v>
       </c>
       <c r="AH54" s="14" t="s">
-        <v>3870</v>
+        <v>3868</v>
       </c>
       <c r="AI54" s="14" t="s">
-        <v>3869</v>
+        <v>3867</v>
       </c>
       <c r="AJ54" s="99"/>
       <c r="AK54" s="99"/>
@@ -26551,7 +26554,7 @@
         <v>4399</v>
       </c>
       <c r="F55" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G55" s="320"/>
       <c r="H55" s="231"/>
@@ -26559,7 +26562,7 @@
         <v>471</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>3937</v>
+        <v>3935</v>
       </c>
       <c r="K55" s="41" t="s">
         <v>472</v>
@@ -26628,7 +26631,7 @@
         <v>4399</v>
       </c>
       <c r="F56" s="432" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G56" s="324"/>
       <c r="H56" s="232"/>
@@ -26700,7 +26703,7 @@
     </row>
     <row r="57" spans="1:47" ht="15.75" customHeight="1">
       <c r="A57" s="15" t="s">
-        <v>4018</v>
+        <v>4016</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>36</v>
@@ -26775,13 +26778,13 @@
     </row>
     <row r="58" spans="1:47" ht="15.75" customHeight="1">
       <c r="A58" s="15" t="s">
-        <v>4020</v>
+        <v>4018</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C58" s="231" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="D58" s="83" t="s">
         <v>165</v>
@@ -26790,7 +26793,7 @@
         <v>4399</v>
       </c>
       <c r="F58" s="269" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G58" s="318"/>
       <c r="H58" s="14"/>
@@ -26801,7 +26804,7 @@
         <v>167</v>
       </c>
       <c r="K58" s="41" t="s">
-        <v>3815</v>
+        <v>3813</v>
       </c>
       <c r="L58" s="21" t="s">
         <v>493</v>
@@ -26856,13 +26859,13 @@
     </row>
     <row r="59" spans="1:47" ht="15.75" customHeight="1">
       <c r="A59" s="15" t="s">
-        <v>4021</v>
+        <v>4019</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C59" s="231" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="D59" s="83" t="s">
         <v>165</v>
@@ -26871,7 +26874,7 @@
         <v>4399</v>
       </c>
       <c r="F59" s="269" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G59" s="318"/>
       <c r="H59" s="14"/>
@@ -26882,7 +26885,7 @@
         <v>167</v>
       </c>
       <c r="K59" s="41" t="s">
-        <v>3834</v>
+        <v>3832</v>
       </c>
       <c r="L59" s="21" t="s">
         <v>497</v>
@@ -26933,7 +26936,7 @@
     </row>
     <row r="60" spans="1:47" ht="15.75" customHeight="1">
       <c r="A60" s="15" t="s">
-        <v>4022</v>
+        <v>4020</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>36</v>
@@ -26989,7 +26992,7 @@
       <c r="AA60" s="24"/>
       <c r="AB60" s="24"/>
       <c r="AC60" s="14" t="s">
-        <v>3786</v>
+        <v>3784</v>
       </c>
       <c r="AD60" s="14" t="s">
         <v>506</v>
@@ -27016,20 +27019,20 @@
     </row>
     <row r="61" spans="1:47" ht="15.75" customHeight="1">
       <c r="A61" s="15" t="s">
-        <v>4023</v>
+        <v>4021</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C61" s="109" t="s">
-        <v>3676</v>
+        <v>3674</v>
       </c>
       <c r="D61" s="84"/>
       <c r="E61" s="495" t="s">
         <v>4399</v>
       </c>
       <c r="F61" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G61" s="320"/>
       <c r="H61" s="231"/>
@@ -27097,7 +27100,7 @@
     </row>
     <row r="62" spans="1:47" ht="15.75" customHeight="1">
       <c r="A62" s="15" t="s">
-        <v>4024</v>
+        <v>4022</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>36</v>
@@ -27185,7 +27188,7 @@
         <v>4399</v>
       </c>
       <c r="F63" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G63" s="41" t="s">
         <v>4067</v>
@@ -27253,20 +27256,20 @@
     </row>
     <row r="64" spans="1:47" ht="15.75" customHeight="1">
       <c r="A64" s="15" t="s">
-        <v>4025</v>
+        <v>4023</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C64" s="109" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="D64" s="84"/>
       <c r="E64" s="495" t="s">
         <v>4400</v>
       </c>
       <c r="F64" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G64" s="320" t="s">
         <v>531</v>
@@ -27338,20 +27341,20 @@
     </row>
     <row r="65" spans="1:47" s="161" customFormat="1" ht="15.75" customHeight="1">
       <c r="A65" s="109" t="s">
-        <v>3672</v>
+        <v>4024</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C65" s="109" t="s">
-        <v>3672</v>
+        <v>3670</v>
       </c>
       <c r="D65" s="84"/>
-      <c r="E65" s="495" t="s">
+      <c r="E65" s="518" t="s">
         <v>4400</v>
       </c>
       <c r="F65" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G65" s="318"/>
       <c r="H65" s="14"/>
@@ -27421,7 +27424,7 @@
     </row>
     <row r="66" spans="1:47" s="161" customFormat="1" ht="15.75" customHeight="1">
       <c r="A66" s="109" t="s">
-        <v>3671</v>
+        <v>4025</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>36</v>
@@ -27432,7 +27435,7 @@
       <c r="D66" s="83" t="s">
         <v>548</v>
       </c>
-      <c r="E66" s="492" t="s">
+      <c r="E66" s="518" t="s">
         <v>4400</v>
       </c>
       <c r="F66" s="264"/>
@@ -27519,7 +27522,7 @@
         <v>556</v>
       </c>
       <c r="F67" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G67" s="320"/>
       <c r="H67" s="231"/>
@@ -27528,7 +27531,7 @@
       </c>
       <c r="J67" s="14"/>
       <c r="K67" s="41" t="s">
-        <v>3816</v>
+        <v>3814</v>
       </c>
       <c r="L67" s="21" t="s">
         <v>557</v>
@@ -27546,7 +27549,7 @@
       </c>
       <c r="R67" s="110"/>
       <c r="S67" s="193" t="s">
-        <v>3846</v>
+        <v>3844</v>
       </c>
       <c r="T67" s="193" t="s">
         <v>561</v>
@@ -27581,7 +27584,7 @@
         <v>565</v>
       </c>
       <c r="AH67" s="117" t="s">
-        <v>3845</v>
+        <v>3843</v>
       </c>
       <c r="AI67" s="14"/>
       <c r="AJ67" s="14"/>
@@ -27605,14 +27608,14 @@
         <v>36</v>
       </c>
       <c r="C68" s="438" t="s">
-        <v>3938</v>
+        <v>3936</v>
       </c>
       <c r="D68" s="160"/>
       <c r="E68" s="496" t="s">
         <v>556</v>
       </c>
       <c r="F68" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G68" s="327"/>
       <c r="H68" s="244"/>
@@ -27621,7 +27624,7 @@
       </c>
       <c r="J68" s="14"/>
       <c r="K68" s="14" t="s">
-        <v>3817</v>
+        <v>3815</v>
       </c>
       <c r="L68" s="21" t="s">
         <v>567</v>
@@ -27667,7 +27670,7 @@
         <v>572</v>
       </c>
       <c r="AG68" s="14" t="s">
-        <v>3887</v>
+        <v>3885</v>
       </c>
       <c r="AH68" s="14"/>
       <c r="AI68" s="14"/>
@@ -27686,13 +27689,13 @@
     </row>
     <row r="69" spans="1:47" ht="15.75" customHeight="1">
       <c r="A69" s="15" t="s">
-        <v>3670</v>
+        <v>3669</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C69" s="438" t="s">
-        <v>3939</v>
+        <v>3937</v>
       </c>
       <c r="D69" s="83"/>
       <c r="E69" s="496" t="s">
@@ -27781,7 +27784,7 @@
     </row>
     <row r="70" spans="1:47" ht="15.75" customHeight="1">
       <c r="A70" s="109" t="s">
-        <v>3669</v>
+        <v>3668</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>36</v>
@@ -27801,7 +27804,7 @@
       </c>
       <c r="J70" s="14"/>
       <c r="K70" s="41" t="s">
-        <v>3842</v>
+        <v>3840</v>
       </c>
       <c r="L70" s="21" t="s">
         <v>586</v>
@@ -27858,20 +27861,20 @@
     </row>
     <row r="71" spans="1:47" ht="15.75" customHeight="1">
       <c r="A71" s="109" t="s">
-        <v>3668</v>
+        <v>3667</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C71" s="109" t="s">
-        <v>3668</v>
+        <v>3667</v>
       </c>
       <c r="D71" s="84"/>
       <c r="E71" s="495" t="s">
         <v>4402</v>
       </c>
       <c r="F71" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G71" s="320"/>
       <c r="H71" s="231"/>
@@ -27937,7 +27940,7 @@
     </row>
     <row r="72" spans="1:47" ht="15.75" customHeight="1">
       <c r="A72" s="109" t="s">
-        <v>3667</v>
+        <v>3666</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>598</v>
@@ -28022,7 +28025,7 @@
         <v>36</v>
       </c>
       <c r="C73" s="438" t="s">
-        <v>3940</v>
+        <v>3938</v>
       </c>
       <c r="D73" s="84"/>
       <c r="E73" s="495" t="s">
@@ -28101,7 +28104,7 @@
     </row>
     <row r="74" spans="1:47" ht="15" customHeight="1">
       <c r="A74" s="109" t="s">
-        <v>3666</v>
+        <v>3665</v>
       </c>
       <c r="B74" s="397" t="s">
         <v>36</v>
@@ -28334,7 +28337,7 @@
         <v>36</v>
       </c>
       <c r="C77" s="438" t="s">
-        <v>3941</v>
+        <v>3939</v>
       </c>
       <c r="D77" s="84"/>
       <c r="E77" s="493" t="s">
@@ -28424,7 +28427,7 @@
         <v>4403</v>
       </c>
       <c r="F78" s="271" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G78" s="41" t="s">
         <v>4067</v>
@@ -28505,7 +28508,7 @@
         <v>4403</v>
       </c>
       <c r="F79" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G79" s="320"/>
       <c r="H79" s="231"/>
@@ -28594,7 +28597,7 @@
         <v>4403</v>
       </c>
       <c r="F80" s="271" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G80" s="321"/>
       <c r="H80" s="244"/>
@@ -28605,7 +28608,7 @@
         <v>670</v>
       </c>
       <c r="K80" s="169" t="s">
-        <v>3818</v>
+        <v>3816</v>
       </c>
       <c r="L80" s="21" t="s">
         <v>671</v>
@@ -28681,7 +28684,7 @@
         <v>4403</v>
       </c>
       <c r="F81" s="271" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G81" s="320"/>
       <c r="H81" s="101"/>
@@ -28756,7 +28759,7 @@
         <v>4403</v>
       </c>
       <c r="F82" s="271" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G82" s="327"/>
       <c r="H82" s="244"/>
@@ -28796,7 +28799,7 @@
         <v>689</v>
       </c>
       <c r="X82" s="101" t="s">
-        <v>3877</v>
+        <v>3875</v>
       </c>
       <c r="Y82" s="101"/>
       <c r="Z82" s="101"/>
@@ -28905,7 +28908,7 @@
     </row>
     <row r="84" spans="1:47" ht="15.75" customHeight="1">
       <c r="A84" s="109" t="s">
-        <v>3665</v>
+        <v>3664</v>
       </c>
       <c r="B84" s="15" t="s">
         <v>697</v>
@@ -28991,7 +28994,7 @@
         <v>4404</v>
       </c>
       <c r="F85" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G85" s="41" t="s">
         <v>4067</v>
@@ -29061,7 +29064,7 @@
     </row>
     <row r="86" spans="1:47" ht="15.75" customHeight="1">
       <c r="A86" s="109" t="s">
-        <v>3664</v>
+        <v>3663</v>
       </c>
       <c r="B86" s="15" t="s">
         <v>401</v>
@@ -29081,7 +29084,7 @@
       </c>
       <c r="J86" s="14"/>
       <c r="K86" s="41" t="s">
-        <v>3843</v>
+        <v>3841</v>
       </c>
       <c r="L86" s="21" t="s">
         <v>712</v>
@@ -29144,7 +29147,7 @@
         <v>401</v>
       </c>
       <c r="C87" s="438" t="s">
-        <v>3942</v>
+        <v>3940</v>
       </c>
       <c r="D87" s="84"/>
       <c r="E87" s="495" t="s">
@@ -29154,7 +29157,7 @@
       <c r="G87" s="318"/>
       <c r="H87" s="14"/>
       <c r="I87" s="97" t="s">
-        <v>3991</v>
+        <v>3989</v>
       </c>
       <c r="J87" s="14"/>
       <c r="K87" s="41" t="s">
@@ -29240,7 +29243,7 @@
         <v>4405</v>
       </c>
       <c r="F88" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G88" s="41" t="s">
         <v>4067</v>
@@ -29478,13 +29481,13 @@
     </row>
     <row r="91" spans="1:47" ht="15.75" customHeight="1">
       <c r="A91" s="109" t="s">
-        <v>3663</v>
+        <v>3662</v>
       </c>
       <c r="B91" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C91" s="398" t="s">
-        <v>3916</v>
+        <v>3914</v>
       </c>
       <c r="D91" s="402" t="s">
         <v>755</v>
@@ -29572,7 +29575,7 @@
         <v>4407</v>
       </c>
       <c r="F92" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G92" s="321"/>
       <c r="H92" s="244"/>
@@ -29679,11 +29682,11 @@
         <v>774</v>
       </c>
       <c r="R93" s="31" t="s">
-        <v>3794</v>
+        <v>3792</v>
       </c>
       <c r="S93" s="31"/>
       <c r="T93" s="36" t="s">
-        <v>3793</v>
+        <v>3791</v>
       </c>
       <c r="U93" s="397" t="s">
         <v>485</v>
@@ -29741,7 +29744,7 @@
       </c>
       <c r="J94" s="14"/>
       <c r="K94" s="41" t="s">
-        <v>3835</v>
+        <v>3833</v>
       </c>
       <c r="L94" s="21" t="s">
         <v>778</v>
@@ -29755,7 +29758,7 @@
         <v>780</v>
       </c>
       <c r="Q94" s="26" t="s">
-        <v>3809</v>
+        <v>3807</v>
       </c>
       <c r="R94" s="26"/>
       <c r="S94" s="26"/>
@@ -29768,7 +29771,7 @@
       </c>
       <c r="W94" s="14"/>
       <c r="X94" s="14" t="s">
-        <v>3861</v>
+        <v>3859</v>
       </c>
       <c r="Y94" s="14"/>
       <c r="Z94" s="14"/>
@@ -29778,7 +29781,7 @@
       <c r="AD94" s="14"/>
       <c r="AE94" s="14"/>
       <c r="AF94" s="213" t="s">
-        <v>3795</v>
+        <v>3793</v>
       </c>
       <c r="AG94" s="14"/>
       <c r="AH94" s="14"/>
@@ -29871,7 +29874,7 @@
     </row>
     <row r="96" spans="1:47" ht="15.75" customHeight="1">
       <c r="A96" s="109" t="s">
-        <v>3662</v>
+        <v>3661</v>
       </c>
       <c r="B96" s="15" t="s">
         <v>401</v>
@@ -29946,7 +29949,7 @@
     </row>
     <row r="97" spans="1:47" ht="15.75" customHeight="1">
       <c r="A97" s="109" t="s">
-        <v>3661</v>
+        <v>3660</v>
       </c>
       <c r="B97" s="14" t="s">
         <v>36</v>
@@ -30032,7 +30035,7 @@
         <v>4408</v>
       </c>
       <c r="F98" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G98" s="320"/>
       <c r="H98" s="231"/>
@@ -30173,7 +30176,7 @@
     </row>
     <row r="100" spans="1:47" ht="15.75" customHeight="1">
       <c r="A100" s="109" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>808</v>
@@ -30193,7 +30196,7 @@
       </c>
       <c r="J100" s="14"/>
       <c r="K100" s="41" t="s">
-        <v>3844</v>
+        <v>3842</v>
       </c>
       <c r="L100" s="21" t="s">
         <v>811</v>
@@ -30331,7 +30334,7 @@
     </row>
     <row r="102" spans="1:47" ht="15.75" customHeight="1">
       <c r="A102" s="15" t="s">
-        <v>3744</v>
+        <v>3742</v>
       </c>
       <c r="B102" s="14" t="s">
         <v>827</v>
@@ -30344,7 +30347,7 @@
         <v>4409</v>
       </c>
       <c r="F102" s="269" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G102" s="41" t="s">
         <v>4067</v>
@@ -30418,15 +30421,15 @@
       </c>
       <c r="D103" s="84"/>
       <c r="E103" s="495" t="s">
-        <v>3898</v>
+        <v>3896</v>
       </c>
       <c r="F103" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G103" s="320"/>
       <c r="H103" s="231"/>
       <c r="I103" s="14" t="s">
-        <v>3856</v>
+        <v>3854</v>
       </c>
       <c r="J103" s="14"/>
       <c r="K103" s="41" t="s">
@@ -30497,23 +30500,23 @@
     </row>
     <row r="104" spans="1:47" ht="15.75" customHeight="1">
       <c r="A104" s="109" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="B104" s="14" t="s">
         <v>436</v>
       </c>
       <c r="C104" s="438" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="D104" s="84"/>
       <c r="E104" s="495" t="s">
-        <v>3898</v>
+        <v>3896</v>
       </c>
       <c r="F104" s="264"/>
       <c r="G104" s="318"/>
       <c r="H104" s="14"/>
       <c r="I104" s="264" t="s">
-        <v>3856</v>
+        <v>3854</v>
       </c>
       <c r="J104" s="14" t="s">
         <v>843</v>
@@ -30589,7 +30592,7 @@
         <v>4410</v>
       </c>
       <c r="F105" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G105" s="320"/>
       <c r="H105" s="231"/>
@@ -30915,7 +30918,7 @@
         <v>4411</v>
       </c>
       <c r="F109" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G109" s="320"/>
       <c r="H109" s="231"/>
@@ -30981,14 +30984,14 @@
         <v>36</v>
       </c>
       <c r="C110" s="231" t="s">
-        <v>3943</v>
+        <v>3941</v>
       </c>
       <c r="D110" s="84"/>
       <c r="E110" s="495" t="s">
         <v>4413</v>
       </c>
       <c r="F110" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G110" s="320"/>
       <c r="H110" s="231"/>
@@ -31054,7 +31057,7 @@
     </row>
     <row r="111" spans="1:47" ht="15.75" customHeight="1">
       <c r="A111" s="109" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="B111" s="14" t="s">
         <v>36</v>
@@ -31221,7 +31224,7 @@
         <v>4414</v>
       </c>
       <c r="F113" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G113" s="320"/>
       <c r="H113" s="231"/>
@@ -31295,13 +31298,13 @@
     </row>
     <row r="114" spans="1:47" ht="15.75" customHeight="1">
       <c r="A114" s="109" t="s">
-        <v>3743</v>
+        <v>3741</v>
       </c>
       <c r="B114" s="14" t="s">
         <v>401</v>
       </c>
       <c r="C114" s="438" t="s">
-        <v>3944</v>
+        <v>3942</v>
       </c>
       <c r="D114" s="84"/>
       <c r="E114" s="518" t="s">
@@ -31393,7 +31396,7 @@
         <v>4414</v>
       </c>
       <c r="F115" s="358" t="s">
-        <v>3962</v>
+        <v>3960</v>
       </c>
       <c r="G115" s="41" t="s">
         <v>4067</v>
@@ -31474,7 +31477,7 @@
         <v>4415</v>
       </c>
       <c r="F116" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G116" s="320"/>
       <c r="H116" s="231"/>
@@ -31483,7 +31486,7 @@
       </c>
       <c r="J116" s="14"/>
       <c r="K116" s="41" t="s">
-        <v>3819</v>
+        <v>3817</v>
       </c>
       <c r="L116" s="21" t="s">
         <v>944</v>
@@ -31549,7 +31552,7 @@
         <v>4415</v>
       </c>
       <c r="F117" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G117" s="318"/>
       <c r="H117" s="14"/>
@@ -31632,7 +31635,7 @@
         <v>4127</v>
       </c>
       <c r="F118" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G118" s="320"/>
       <c r="H118" s="231"/>
@@ -31702,7 +31705,7 @@
     </row>
     <row r="119" spans="1:47" ht="15.75" customHeight="1">
       <c r="A119" s="109" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="B119" s="15" t="s">
         <v>36</v>
@@ -31722,7 +31725,7 @@
       </c>
       <c r="J119" s="14"/>
       <c r="K119" s="41" t="s">
-        <v>3727</v>
+        <v>3725</v>
       </c>
       <c r="L119" s="21" t="s">
         <v>972</v>
@@ -31794,7 +31797,7 @@
         <v>4127</v>
       </c>
       <c r="F120" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G120" s="41" t="s">
         <v>4067</v>
@@ -31869,7 +31872,7 @@
       <c r="D121" s="84"/>
       <c r="E121" s="495"/>
       <c r="F121" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G121" s="320"/>
       <c r="H121" s="231"/>
@@ -31935,7 +31938,7 @@
     </row>
     <row r="122" spans="1:47" ht="15.75" customHeight="1">
       <c r="A122" s="5" t="s">
-        <v>3742</v>
+        <v>3740</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>36</v>
@@ -31946,7 +31949,7 @@
       <c r="D122" s="87"/>
       <c r="E122" s="497"/>
       <c r="F122" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G122" s="343" t="s">
         <v>4096</v>
@@ -31995,7 +31998,7 @@
       <c r="AA122" s="14"/>
       <c r="AB122" s="14"/>
       <c r="AC122" s="14" t="s">
-        <v>3730</v>
+        <v>3728</v>
       </c>
       <c r="AD122" s="14"/>
       <c r="AE122" s="14"/>
@@ -32108,7 +32111,7 @@
       <c r="D124" s="84"/>
       <c r="E124" s="495"/>
       <c r="F124" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G124" s="41" t="s">
         <v>4067</v>
@@ -32185,7 +32188,7 @@
       </c>
       <c r="E125" s="504"/>
       <c r="F125" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G125" s="318"/>
       <c r="H125" s="14" t="s">
@@ -32246,7 +32249,7 @@
       <c r="AE125" s="14"/>
       <c r="AF125" s="14"/>
       <c r="AG125" s="24" t="s">
-        <v>3884</v>
+        <v>3882</v>
       </c>
       <c r="AH125" s="10"/>
       <c r="AI125" s="14"/>
@@ -32276,14 +32279,14 @@
       <c r="D126" s="84"/>
       <c r="E126" s="495"/>
       <c r="F126" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G126" s="320" t="s">
-        <v>3903</v>
+        <v>3901</v>
       </c>
       <c r="H126" s="231"/>
       <c r="I126" s="14" t="s">
-        <v>3856</v>
+        <v>3854</v>
       </c>
       <c r="J126" s="14" t="s">
         <v>1032</v>
@@ -32351,7 +32354,7 @@
       <c r="D127" s="87"/>
       <c r="E127" s="497"/>
       <c r="F127" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G127" s="320"/>
       <c r="H127" s="231"/>
@@ -32436,7 +32439,7 @@
       <c r="D128" s="84"/>
       <c r="E128" s="495"/>
       <c r="F128" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G128" s="41" t="s">
         <v>4067</v>
@@ -32504,7 +32507,7 @@
     </row>
     <row r="129" spans="1:47" ht="15.75" customHeight="1">
       <c r="A129" s="113" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="B129" s="14" t="s">
         <v>36</v>
@@ -32579,7 +32582,7 @@
     </row>
     <row r="130" spans="1:47" s="100" customFormat="1" ht="15.75" customHeight="1">
       <c r="A130" s="109" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="B130" s="15" t="s">
         <v>36</v>
@@ -32658,13 +32661,13 @@
     </row>
     <row r="131" spans="1:47" s="100" customFormat="1" ht="15.75" customHeight="1">
       <c r="A131" s="109" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="B131" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C131" s="247" t="s">
-        <v>3889</v>
+        <v>3887</v>
       </c>
       <c r="D131" s="84"/>
       <c r="E131" s="495"/>
@@ -32676,7 +32679,7 @@
       </c>
       <c r="J131" s="14"/>
       <c r="K131" s="126" t="s">
-        <v>3820</v>
+        <v>3818</v>
       </c>
       <c r="L131" s="21" t="s">
         <v>1072</v>
@@ -32752,7 +32755,7 @@
       <c r="D132" s="84"/>
       <c r="E132" s="495"/>
       <c r="F132" s="386" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G132" s="320"/>
       <c r="H132" s="245"/>
@@ -32825,7 +32828,7 @@
       <c r="D133" s="160"/>
       <c r="E133" s="496"/>
       <c r="F133" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G133" s="321"/>
       <c r="H133" s="244"/>
@@ -32836,7 +32839,7 @@
         <v>1083</v>
       </c>
       <c r="K133" s="14" t="s">
-        <v>3875</v>
+        <v>3873</v>
       </c>
       <c r="L133" s="21" t="s">
         <v>1084</v>
@@ -32853,7 +32856,7 @@
       <c r="R133" s="382"/>
       <c r="S133" s="110"/>
       <c r="T133" s="26" t="s">
-        <v>3876</v>
+        <v>3874</v>
       </c>
       <c r="U133" s="163" t="s">
         <v>70</v>
@@ -32902,7 +32905,7 @@
       </c>
       <c r="E134" s="492"/>
       <c r="F134" s="431" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G134" s="320"/>
       <c r="H134" s="231"/>
@@ -32925,7 +32928,7 @@
         <v>802</v>
       </c>
       <c r="Q134" s="19" t="s">
-        <v>3848</v>
+        <v>3846</v>
       </c>
       <c r="R134" s="19"/>
       <c r="S134" s="31" t="s">
@@ -32942,7 +32945,7 @@
       </c>
       <c r="W134" s="14"/>
       <c r="X134" s="169" t="s">
-        <v>3862</v>
+        <v>3860</v>
       </c>
       <c r="Y134" s="14"/>
       <c r="Z134" s="14"/>
@@ -32981,7 +32984,7 @@
       <c r="D135" s="84"/>
       <c r="E135" s="495"/>
       <c r="F135" s="431" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G135" s="320"/>
       <c r="H135" s="231"/>
@@ -32990,7 +32993,7 @@
       </c>
       <c r="J135" s="14"/>
       <c r="K135" s="109" t="s">
-        <v>3849</v>
+        <v>3847</v>
       </c>
       <c r="L135" s="21" t="s">
         <v>951</v>
@@ -33021,7 +33024,7 @@
       </c>
       <c r="W135" s="14"/>
       <c r="X135" s="169" t="s">
-        <v>3863</v>
+        <v>3861</v>
       </c>
       <c r="Y135" s="14"/>
       <c r="Z135" s="14"/>
@@ -33070,7 +33073,7 @@
       <c r="D136" s="84"/>
       <c r="E136" s="495"/>
       <c r="F136" s="431" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G136" s="41" t="s">
         <v>4067</v>
@@ -33110,7 +33113,7 @@
       </c>
       <c r="W136" s="14"/>
       <c r="X136" s="400" t="s">
-        <v>3864</v>
+        <v>3862</v>
       </c>
       <c r="Y136" s="14"/>
       <c r="Z136" s="14"/>
@@ -33138,7 +33141,7 @@
     </row>
     <row r="137" spans="1:47" ht="15.75" customHeight="1">
       <c r="A137" s="109" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="B137" s="15" t="s">
         <v>36</v>
@@ -33156,7 +33159,7 @@
       </c>
       <c r="J137" s="14"/>
       <c r="K137" s="41" t="s">
-        <v>3725</v>
+        <v>3723</v>
       </c>
       <c r="L137" s="21" t="s">
         <v>1112</v>
@@ -33222,7 +33225,7 @@
       <c r="D138" s="84"/>
       <c r="E138" s="495"/>
       <c r="F138" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G138" s="320"/>
       <c r="H138" s="231"/>
@@ -33288,7 +33291,7 @@
     </row>
     <row r="139" spans="1:47" ht="15.75" customHeight="1">
       <c r="A139" s="109" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="B139" s="15" t="s">
         <v>36</v>
@@ -33306,7 +33309,7 @@
       </c>
       <c r="J139" s="14"/>
       <c r="K139" s="41" t="s">
-        <v>3726</v>
+        <v>3724</v>
       </c>
       <c r="L139" s="21" t="s">
         <v>1125</v>
@@ -33372,7 +33375,7 @@
       <c r="D140" s="84"/>
       <c r="E140" s="495"/>
       <c r="F140" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G140" s="320"/>
       <c r="H140" s="231"/>
@@ -33445,7 +33448,7 @@
       <c r="D141" s="87"/>
       <c r="E141" s="497"/>
       <c r="F141" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G141" s="318"/>
       <c r="H141" s="14"/>
@@ -33530,7 +33533,7 @@
       <c r="D142" s="84"/>
       <c r="E142" s="495"/>
       <c r="F142" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G142" s="41" t="s">
         <v>4067</v>
@@ -33605,7 +33608,7 @@
       <c r="D143" s="87"/>
       <c r="E143" s="497"/>
       <c r="F143" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G143" s="320" t="s">
         <v>4100</v>
@@ -33645,7 +33648,7 @@
       </c>
       <c r="W143" s="14"/>
       <c r="X143" s="14" t="s">
-        <v>3777</v>
+        <v>3775</v>
       </c>
       <c r="Y143" s="14"/>
       <c r="Z143" s="14"/>
@@ -33684,7 +33687,7 @@
       <c r="D144" s="87"/>
       <c r="E144" s="497"/>
       <c r="F144" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G144" s="320" t="s">
         <v>4100</v>
@@ -33724,7 +33727,7 @@
       </c>
       <c r="W144" s="14"/>
       <c r="X144" s="14" t="s">
-        <v>3778</v>
+        <v>3776</v>
       </c>
       <c r="Y144" s="14"/>
       <c r="Z144" s="14"/>
@@ -33763,7 +33766,7 @@
       <c r="D145" s="84"/>
       <c r="E145" s="495"/>
       <c r="F145" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G145" s="320"/>
       <c r="H145" s="231"/>
@@ -33935,7 +33938,7 @@
       <c r="D147" s="87"/>
       <c r="E147" s="497"/>
       <c r="F147" s="358" t="s">
-        <v>3962</v>
+        <v>3960</v>
       </c>
       <c r="G147" s="41" t="s">
         <v>4067</v>
@@ -34014,7 +34017,7 @@
       <c r="D148" s="90"/>
       <c r="E148" s="505"/>
       <c r="F148" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G148" s="320" t="s">
         <v>4093</v>
@@ -34101,7 +34104,7 @@
       <c r="D149" s="87"/>
       <c r="E149" s="497"/>
       <c r="F149" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G149" s="320"/>
       <c r="H149" s="231"/>
@@ -34186,7 +34189,7 @@
       <c r="D150" s="84"/>
       <c r="E150" s="495"/>
       <c r="F150" s="358" t="s">
-        <v>3962</v>
+        <v>3960</v>
       </c>
       <c r="G150" s="41" t="s">
         <v>4067</v>
@@ -34261,7 +34264,7 @@
       <c r="D151" s="84"/>
       <c r="E151" s="495"/>
       <c r="F151" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G151" s="320"/>
       <c r="H151" s="231"/>
@@ -34342,7 +34345,7 @@
       <c r="D152" s="84"/>
       <c r="E152" s="495"/>
       <c r="F152" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G152" s="41" t="s">
         <v>4067</v>
@@ -34417,7 +34420,7 @@
       <c r="D153" s="84"/>
       <c r="E153" s="495"/>
       <c r="F153" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G153" s="318"/>
       <c r="H153" s="14"/>
@@ -34426,7 +34429,7 @@
       </c>
       <c r="J153" s="14"/>
       <c r="K153" s="109" t="s">
-        <v>3822</v>
+        <v>3820</v>
       </c>
       <c r="L153" s="21" t="s">
         <v>1226</v>
@@ -34490,7 +34493,7 @@
       <c r="D154" s="84"/>
       <c r="E154" s="495"/>
       <c r="F154" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G154" s="320"/>
       <c r="H154" s="231"/>
@@ -34501,7 +34504,7 @@
         <v>1231</v>
       </c>
       <c r="K154" s="109" t="s">
-        <v>3821</v>
+        <v>3819</v>
       </c>
       <c r="L154" s="21" t="s">
         <v>1232</v>
@@ -34562,7 +34565,7 @@
         <v>1238</v>
       </c>
       <c r="C155" s="438" t="s">
-        <v>3945</v>
+        <v>3943</v>
       </c>
       <c r="D155" s="87"/>
       <c r="E155" s="497"/>
@@ -34741,7 +34744,7 @@
       <c r="D157" s="87"/>
       <c r="E157" s="497"/>
       <c r="F157" s="269" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G157" s="320"/>
       <c r="H157" s="231"/>
@@ -34815,7 +34818,7 @@
         <v>36</v>
       </c>
       <c r="C158" s="438" t="s">
-        <v>3946</v>
+        <v>3944</v>
       </c>
       <c r="D158" s="87"/>
       <c r="E158" s="497"/>
@@ -34895,7 +34898,7 @@
       <c r="D159" s="84"/>
       <c r="E159" s="495"/>
       <c r="F159" s="269" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G159" s="41" t="s">
         <v>4067</v>
@@ -34970,7 +34973,7 @@
       <c r="D160" s="87"/>
       <c r="E160" s="497"/>
       <c r="F160" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G160" s="320"/>
       <c r="H160" s="231"/>
@@ -35051,7 +35054,7 @@
       <c r="D161" s="92"/>
       <c r="E161" s="507"/>
       <c r="F161" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G161" s="320" t="s">
         <v>4091</v>
@@ -35100,7 +35103,7 @@
       <c r="AA161" s="14"/>
       <c r="AB161" s="14"/>
       <c r="AC161" s="14" t="s">
-        <v>3882</v>
+        <v>3880</v>
       </c>
       <c r="AD161" s="14"/>
       <c r="AE161" s="14"/>
@@ -35138,7 +35141,7 @@
       <c r="D162" s="84"/>
       <c r="E162" s="495"/>
       <c r="F162" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G162" s="41" t="s">
         <v>4067</v>
@@ -35213,7 +35216,7 @@
       <c r="D163" s="84"/>
       <c r="E163" s="495"/>
       <c r="F163" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G163" s="320"/>
       <c r="H163" s="231"/>
@@ -35373,7 +35376,7 @@
       <c r="D165" s="84"/>
       <c r="E165" s="495"/>
       <c r="F165" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G165" s="41" t="s">
         <v>4067</v>
@@ -35448,7 +35451,7 @@
       <c r="D166" s="87"/>
       <c r="E166" s="497"/>
       <c r="F166" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G166" s="320" t="s">
         <v>4091</v>
@@ -35535,7 +35538,7 @@
       <c r="D167" s="87"/>
       <c r="E167" s="497"/>
       <c r="F167" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G167" s="320"/>
       <c r="H167" s="231"/>
@@ -35556,7 +35559,7 @@
         <v>162</v>
       </c>
       <c r="Q167" s="53" t="s">
-        <v>3748</v>
+        <v>3746</v>
       </c>
       <c r="R167" s="53"/>
       <c r="S167" s="150" t="s">
@@ -35566,7 +35569,7 @@
         <v>1341</v>
       </c>
       <c r="U167" s="397" t="s">
-        <v>3749</v>
+        <v>3747</v>
       </c>
       <c r="V167" s="10" t="s">
         <v>34</v>
@@ -35612,7 +35615,7 @@
       <c r="D168" s="87"/>
       <c r="E168" s="497"/>
       <c r="F168" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G168" s="320" t="s">
         <v>4091</v>
@@ -35688,7 +35691,7 @@
     </row>
     <row r="169" spans="1:47" ht="15.75" customHeight="1">
       <c r="A169" s="109" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="B169" s="15" t="s">
         <v>36</v>
@@ -35778,10 +35781,10 @@
       <c r="D170" s="84"/>
       <c r="E170" s="495"/>
       <c r="F170" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G170" s="320" t="s">
-        <v>3901</v>
+        <v>3899</v>
       </c>
       <c r="H170" s="231"/>
       <c r="I170" s="6" t="s">
@@ -35853,10 +35856,10 @@
       <c r="D171" s="84"/>
       <c r="E171" s="495"/>
       <c r="F171" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G171" s="320" t="s">
-        <v>3903</v>
+        <v>3901</v>
       </c>
       <c r="H171" s="231"/>
       <c r="I171" s="23" t="s">
@@ -35930,7 +35933,7 @@
       <c r="D172" s="84"/>
       <c r="E172" s="495"/>
       <c r="F172" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G172" s="320"/>
       <c r="H172" s="231"/>
@@ -35982,7 +35985,7 @@
         <v>565</v>
       </c>
       <c r="AH172" s="14" t="s">
-        <v>3871</v>
+        <v>3869</v>
       </c>
       <c r="AI172" s="14"/>
       <c r="AJ172" s="14"/>
@@ -36011,7 +36014,7 @@
       <c r="D173" s="87"/>
       <c r="E173" s="497"/>
       <c r="F173" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G173" s="320" t="s">
         <v>4094</v>
@@ -36158,7 +36161,7 @@
     </row>
     <row r="175" spans="1:47" ht="15.75" customHeight="1">
       <c r="A175" s="109" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
       <c r="B175" s="15" t="s">
         <v>36</v>
@@ -36235,7 +36238,7 @@
     </row>
     <row r="176" spans="1:47" ht="15.75" customHeight="1">
       <c r="A176" s="109" t="s">
-        <v>3649</v>
+        <v>3648</v>
       </c>
       <c r="B176" s="15" t="s">
         <v>36</v>
@@ -36246,7 +36249,7 @@
       <c r="D176" s="84"/>
       <c r="E176" s="495"/>
       <c r="F176" s="431" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G176" s="318" t="s">
         <v>4089</v>
@@ -36310,13 +36313,13 @@
     </row>
     <row r="177" spans="1:47" s="106" customFormat="1" ht="15.75" customHeight="1">
       <c r="A177" s="113" t="s">
-        <v>3924</v>
+        <v>3922</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>436</v>
       </c>
       <c r="C177" s="438" t="s">
-        <v>3917</v>
+        <v>3915</v>
       </c>
       <c r="D177" s="87"/>
       <c r="E177" s="497"/>
@@ -36326,7 +36329,7 @@
       </c>
       <c r="H177" s="14"/>
       <c r="I177" s="10" t="s">
-        <v>3905</v>
+        <v>3903</v>
       </c>
       <c r="J177" s="10" t="s">
         <v>1413</v>
@@ -36417,7 +36420,7 @@
       </c>
       <c r="H178" s="14"/>
       <c r="I178" s="10" t="s">
-        <v>3905</v>
+        <v>3903</v>
       </c>
       <c r="J178" s="10" t="s">
         <v>1424</v>
@@ -36501,7 +36504,7 @@
       <c r="D179" s="165"/>
       <c r="E179" s="509"/>
       <c r="F179" s="270" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G179" s="321"/>
       <c r="H179" s="244"/>
@@ -36552,7 +36555,7 @@
       <c r="AE179" s="14"/>
       <c r="AF179" s="14"/>
       <c r="AG179" s="10" t="s">
-        <v>3885</v>
+        <v>3883</v>
       </c>
       <c r="AH179" s="10"/>
       <c r="AI179" s="14"/>
@@ -36652,7 +36655,7 @@
         <v>36</v>
       </c>
       <c r="C181" s="438" t="s">
-        <v>3948</v>
+        <v>3946</v>
       </c>
       <c r="D181" s="87"/>
       <c r="E181" s="497"/>
@@ -36742,7 +36745,7 @@
       <c r="D182" s="84"/>
       <c r="E182" s="495"/>
       <c r="F182" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G182" s="320"/>
       <c r="H182" s="231"/>
@@ -36971,14 +36974,14 @@
       <c r="D185" s="92"/>
       <c r="E185" s="507"/>
       <c r="F185" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G185" s="320" t="s">
         <v>4095</v>
       </c>
       <c r="H185" s="231"/>
       <c r="I185" s="10" t="s">
-        <v>3905</v>
+        <v>3903</v>
       </c>
       <c r="J185" s="9" t="s">
         <v>1479</v>
@@ -37058,14 +37061,14 @@
       <c r="D186" s="92"/>
       <c r="E186" s="507"/>
       <c r="F186" s="358" t="s">
-        <v>3962</v>
+        <v>3960</v>
       </c>
       <c r="G186" s="320" t="s">
         <v>4095</v>
       </c>
       <c r="H186" s="231"/>
       <c r="I186" s="10" t="s">
-        <v>3905</v>
+        <v>3903</v>
       </c>
       <c r="J186" s="10" t="s">
         <v>1488</v>
@@ -37145,7 +37148,7 @@
       <c r="D187" s="87"/>
       <c r="E187" s="497"/>
       <c r="F187" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G187" s="320"/>
       <c r="H187" s="231"/>
@@ -37220,7 +37223,7 @@
       <c r="D188" s="91"/>
       <c r="E188" s="506"/>
       <c r="F188" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G188" s="320"/>
       <c r="H188" s="231"/>
@@ -37295,7 +37298,7 @@
       <c r="D189" s="92"/>
       <c r="E189" s="507"/>
       <c r="F189" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G189" s="320" t="s">
         <v>4098</v>
@@ -37445,7 +37448,7 @@
       <c r="D191" s="84"/>
       <c r="E191" s="495"/>
       <c r="F191" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G191" s="320"/>
       <c r="H191" s="231"/>
@@ -37488,7 +37491,7 @@
       <c r="AA191" s="14"/>
       <c r="AB191" s="41"/>
       <c r="AC191" s="14" t="s">
-        <v>3787</v>
+        <v>3785</v>
       </c>
       <c r="AD191" s="14" t="s">
         <v>1527</v>
@@ -37526,7 +37529,7 @@
       <c r="D192" s="84"/>
       <c r="E192" s="495"/>
       <c r="F192" s="358" t="s">
-        <v>3962</v>
+        <v>3960</v>
       </c>
       <c r="G192" s="320"/>
       <c r="H192" s="231"/>
@@ -37590,13 +37593,13 @@
     </row>
     <row r="193" spans="1:47" ht="15.75" customHeight="1">
       <c r="A193" s="109" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="B193" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C193" s="438" t="s">
-        <v>3890</v>
+        <v>3888</v>
       </c>
       <c r="D193" s="84"/>
       <c r="E193" s="495"/>
@@ -37716,7 +37719,7 @@
       </c>
       <c r="W194" s="14"/>
       <c r="X194" s="14" t="s">
-        <v>3775</v>
+        <v>3773</v>
       </c>
       <c r="Y194" s="14" t="s">
         <v>998</v>
@@ -37803,7 +37806,7 @@
       </c>
       <c r="W195" s="14"/>
       <c r="X195" s="14" t="s">
-        <v>3776</v>
+        <v>3774</v>
       </c>
       <c r="Y195" s="14" t="s">
         <v>998</v>
@@ -37852,7 +37855,7 @@
       <c r="D196" s="84"/>
       <c r="E196" s="495"/>
       <c r="F196" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G196" s="320"/>
       <c r="H196" s="231"/>
@@ -37872,7 +37875,7 @@
         <v>1570</v>
       </c>
       <c r="P196" s="38" t="s">
-        <v>3713</v>
+        <v>3711</v>
       </c>
       <c r="Q196" s="26" t="s">
         <v>1571</v>
@@ -37925,7 +37928,7 @@
       <c r="D197" s="84"/>
       <c r="E197" s="495"/>
       <c r="F197" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G197" s="320" t="s">
         <v>4079</v>
@@ -38000,7 +38003,7 @@
       <c r="D198" s="84"/>
       <c r="E198" s="495"/>
       <c r="F198" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G198" s="320" t="s">
         <v>4080</v>
@@ -38075,7 +38078,7 @@
       <c r="D199" s="84"/>
       <c r="E199" s="495"/>
       <c r="F199" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G199" s="320" t="s">
         <v>4093</v>
@@ -38224,13 +38227,13 @@
     </row>
     <row r="201" spans="1:47" ht="15.75" customHeight="1">
       <c r="A201" s="109" t="s">
-        <v>3925</v>
+        <v>3923</v>
       </c>
       <c r="B201" s="14" t="s">
         <v>1599</v>
       </c>
       <c r="C201" s="438" t="s">
-        <v>3918</v>
+        <v>3916</v>
       </c>
       <c r="D201" s="160"/>
       <c r="E201" s="496"/>
@@ -38312,7 +38315,7 @@
       <c r="D202" s="445"/>
       <c r="E202" s="502"/>
       <c r="F202" s="358" t="s">
-        <v>3962</v>
+        <v>3960</v>
       </c>
       <c r="G202" s="320" t="s">
         <v>4093</v>
@@ -38403,7 +38406,7 @@
       <c r="D203" s="84"/>
       <c r="E203" s="495"/>
       <c r="F203" s="358" t="s">
-        <v>3962</v>
+        <v>3960</v>
       </c>
       <c r="G203" s="320" t="s">
         <v>4093</v>
@@ -38484,10 +38487,10 @@
       <c r="D204" s="84"/>
       <c r="E204" s="493"/>
       <c r="F204" s="271" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G204" s="319" t="s">
-        <v>3903</v>
+        <v>3901</v>
       </c>
       <c r="H204" s="101"/>
       <c r="I204" s="23" t="s">
@@ -38550,7 +38553,7 @@
     </row>
     <row r="205" spans="1:47" ht="15.75" customHeight="1">
       <c r="A205" s="109" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="B205" s="15" t="s">
         <v>36</v>
@@ -38636,7 +38639,7 @@
       <c r="D206" s="84"/>
       <c r="E206" s="495"/>
       <c r="F206" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G206" s="320"/>
       <c r="H206" s="231"/>
@@ -38708,7 +38711,7 @@
     </row>
     <row r="207" spans="1:47" ht="15.75" customHeight="1">
       <c r="A207" s="109" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="B207" s="15" t="s">
         <v>401</v>
@@ -38805,7 +38808,7 @@
         <v>401</v>
       </c>
       <c r="C208" s="438" t="s">
-        <v>3891</v>
+        <v>3889</v>
       </c>
       <c r="D208" s="84"/>
       <c r="E208" s="495"/>
@@ -38887,7 +38890,7 @@
       <c r="D209" s="84"/>
       <c r="E209" s="495"/>
       <c r="F209" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G209" s="320" t="s">
         <v>4088</v>
@@ -38974,7 +38977,7 @@
       <c r="D210" s="84"/>
       <c r="E210" s="495"/>
       <c r="F210" s="358" t="s">
-        <v>3962</v>
+        <v>3960</v>
       </c>
       <c r="G210" s="320" t="s">
         <v>4093</v>
@@ -39050,7 +39053,7 @@
     </row>
     <row r="211" spans="1:47" ht="15.75" customHeight="1">
       <c r="A211" s="109" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
       <c r="B211" s="15" t="s">
         <v>942</v>
@@ -39146,7 +39149,7 @@
       <c r="D212" s="160"/>
       <c r="E212" s="496"/>
       <c r="F212" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G212" s="345"/>
       <c r="H212" s="245"/>
@@ -39155,7 +39158,7 @@
       </c>
       <c r="J212" s="14"/>
       <c r="K212" s="14" t="s">
-        <v>3823</v>
+        <v>3821</v>
       </c>
       <c r="L212" s="21" t="s">
         <v>1689</v>
@@ -39205,7 +39208,7 @@
         <v>1694</v>
       </c>
       <c r="AG212" s="14" t="s">
-        <v>3886</v>
+        <v>3884</v>
       </c>
       <c r="AH212" s="14"/>
       <c r="AI212" s="14"/>
@@ -39224,7 +39227,7 @@
     </row>
     <row r="213" spans="1:47" ht="15.75" customHeight="1">
       <c r="A213" s="109" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
       <c r="B213" s="15" t="s">
         <v>401</v>
@@ -39283,7 +39286,7 @@
       <c r="AF213" s="24"/>
       <c r="AG213" s="14"/>
       <c r="AH213" s="10" t="s">
-        <v>3708</v>
+        <v>3706</v>
       </c>
       <c r="AI213" s="14"/>
       <c r="AJ213" s="14"/>
@@ -39312,7 +39315,7 @@
       <c r="D214" s="84"/>
       <c r="E214" s="495"/>
       <c r="F214" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G214" s="343" t="s">
         <v>4110</v>
@@ -39488,7 +39491,7 @@
       <c r="D216" s="84"/>
       <c r="E216" s="495"/>
       <c r="F216" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G216" s="337" t="s">
         <v>4109</v>
@@ -39558,10 +39561,10 @@
         <v>942</v>
       </c>
       <c r="C217" s="467" t="s">
-        <v>3919</v>
+        <v>3917</v>
       </c>
       <c r="D217" s="84" t="s">
-        <v>3919</v>
+        <v>3917</v>
       </c>
       <c r="E217" s="495"/>
       <c r="F217" s="264"/>
@@ -39591,7 +39594,7 @@
       <c r="R217" s="26"/>
       <c r="S217" s="26"/>
       <c r="T217" s="26" t="s">
-        <v>3779</v>
+        <v>3777</v>
       </c>
       <c r="U217" s="47" t="s">
         <v>354</v>
@@ -39644,7 +39647,7 @@
       <c r="D218" s="84"/>
       <c r="E218" s="495"/>
       <c r="F218" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G218" s="318"/>
       <c r="H218" s="14"/>
@@ -39732,7 +39735,7 @@
       </c>
       <c r="J219" s="14"/>
       <c r="K219" s="41" t="s">
-        <v>3824</v>
+        <v>3822</v>
       </c>
       <c r="L219" s="21" t="s">
         <v>1744</v>
@@ -39806,7 +39809,7 @@
         <v>4115</v>
       </c>
       <c r="F220" s="358" t="s">
-        <v>3962</v>
+        <v>3960</v>
       </c>
       <c r="G220" s="320" t="s">
         <v>4092</v>
@@ -39890,7 +39893,7 @@
       </c>
       <c r="J221" s="14"/>
       <c r="K221" s="41" t="s">
-        <v>3825</v>
+        <v>3823</v>
       </c>
       <c r="L221" s="21" t="s">
         <v>1761</v>
@@ -39927,10 +39930,10 @@
         <v>3065</v>
       </c>
       <c r="AB221" s="14" t="s">
-        <v>3789</v>
+        <v>3787</v>
       </c>
       <c r="AC221" s="426" t="s">
-        <v>3790</v>
+        <v>3788</v>
       </c>
       <c r="AD221" s="14"/>
       <c r="AE221" s="14"/>
@@ -39940,7 +39943,7 @@
       <c r="AG221" s="14"/>
       <c r="AH221" s="10"/>
       <c r="AI221" s="14" t="s">
-        <v>3828</v>
+        <v>3826</v>
       </c>
       <c r="AJ221" s="14"/>
       <c r="AK221" s="14"/>
@@ -39957,7 +39960,7 @@
     </row>
     <row r="222" spans="1:47" ht="15.75" customHeight="1">
       <c r="A222" s="109" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
       <c r="B222" s="15" t="s">
         <v>401</v>
@@ -39975,7 +39978,7 @@
       </c>
       <c r="J222" s="14"/>
       <c r="K222" s="41" t="s">
-        <v>3826</v>
+        <v>3824</v>
       </c>
       <c r="L222" s="21" t="s">
         <v>1768</v>
@@ -40023,7 +40026,7 @@
       <c r="AG222" s="14"/>
       <c r="AH222" s="10"/>
       <c r="AI222" s="14" t="s">
-        <v>3828</v>
+        <v>3826</v>
       </c>
       <c r="AJ222" s="14"/>
       <c r="AK222" s="14"/>
@@ -40127,7 +40130,7 @@
     </row>
     <row r="224" spans="1:47" ht="15.75" customHeight="1">
       <c r="A224" s="374" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
       <c r="B224" s="356" t="s">
         <v>401</v>
@@ -40145,7 +40148,7 @@
       </c>
       <c r="J224" s="363"/>
       <c r="K224" s="364" t="s">
-        <v>3930</v>
+        <v>3928</v>
       </c>
       <c r="L224" s="365" t="s">
         <v>1791</v>
@@ -40153,7 +40156,7 @@
       <c r="M224" s="366"/>
       <c r="N224" s="366"/>
       <c r="O224" s="366" t="s">
-        <v>3931</v>
+        <v>3929</v>
       </c>
       <c r="P224" s="367" t="s">
         <v>1792</v>
@@ -40209,7 +40212,7 @@
       <c r="D225" s="84"/>
       <c r="E225" s="495"/>
       <c r="F225" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G225" s="320" t="s">
         <v>4118</v>
@@ -40284,7 +40287,7 @@
       <c r="D226" s="84"/>
       <c r="E226" s="495"/>
       <c r="F226" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G226" s="318"/>
       <c r="H226" s="14"/>
@@ -40304,10 +40307,10 @@
       <c r="N226" s="173"/>
       <c r="O226" s="173"/>
       <c r="P226" s="25" t="s">
-        <v>3717</v>
+        <v>3715</v>
       </c>
       <c r="Q226" s="26" t="s">
-        <v>3756</v>
+        <v>3754</v>
       </c>
       <c r="R226" s="26"/>
       <c r="S226" s="19" t="s">
@@ -40373,7 +40376,7 @@
       <c r="D227" s="84"/>
       <c r="E227" s="495"/>
       <c r="F227" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G227" s="318"/>
       <c r="H227" s="14"/>
@@ -40393,10 +40396,10 @@
       <c r="N227" s="174"/>
       <c r="O227" s="173"/>
       <c r="P227" s="25" t="s">
-        <v>3717</v>
+        <v>3715</v>
       </c>
       <c r="Q227" s="26" t="s">
-        <v>3753</v>
+        <v>3751</v>
       </c>
       <c r="R227" s="382"/>
       <c r="S227" s="19" t="s">
@@ -40451,7 +40454,7 @@
     </row>
     <row r="228" spans="1:47" ht="15.75" customHeight="1">
       <c r="A228" s="374" t="s">
-        <v>3929</v>
+        <v>3927</v>
       </c>
       <c r="B228" s="356" t="s">
         <v>1813</v>
@@ -40471,7 +40474,7 @@
         <v>1816</v>
       </c>
       <c r="K228" s="41" t="s">
-        <v>3838</v>
+        <v>3836</v>
       </c>
       <c r="L228" s="21" t="s">
         <v>712</v>
@@ -40547,7 +40550,7 @@
       <c r="D229" s="84"/>
       <c r="E229" s="495"/>
       <c r="F229" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G229" s="322"/>
       <c r="H229" s="231"/>
@@ -40556,7 +40559,7 @@
       </c>
       <c r="J229" s="14"/>
       <c r="K229" s="41" t="s">
-        <v>3829</v>
+        <v>3827</v>
       </c>
       <c r="L229" s="21" t="s">
         <v>1827</v>
@@ -40583,11 +40586,11 @@
       </c>
       <c r="W229" s="101"/>
       <c r="X229" s="101" t="s">
-        <v>3865</v>
+        <v>3863</v>
       </c>
       <c r="Y229" s="101"/>
       <c r="Z229" s="230" t="s">
-        <v>3802</v>
+        <v>3800</v>
       </c>
       <c r="AA229" s="14"/>
       <c r="AB229" s="14"/>
@@ -40599,7 +40602,7 @@
       </c>
       <c r="AG229" s="14"/>
       <c r="AH229" s="14" t="s">
-        <v>3850</v>
+        <v>3848</v>
       </c>
       <c r="AI229" s="14"/>
       <c r="AJ229" s="99"/>
@@ -40715,7 +40718,7 @@
         <v>4121</v>
       </c>
       <c r="F231" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G231" s="320"/>
       <c r="H231" s="231"/>
@@ -40801,7 +40804,7 @@
       </c>
       <c r="J232" s="14"/>
       <c r="K232" s="109" t="s">
-        <v>3830</v>
+        <v>3828</v>
       </c>
       <c r="L232" s="21" t="s">
         <v>1850</v>
@@ -40877,7 +40880,7 @@
         <v>4122</v>
       </c>
       <c r="F233" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G233" s="320"/>
       <c r="H233" s="231"/>
@@ -40939,20 +40942,20 @@
     </row>
     <row r="234" spans="1:47" ht="15.75" customHeight="1">
       <c r="A234" s="109" t="s">
-        <v>3641</v>
+        <v>3640</v>
       </c>
       <c r="B234" s="15" t="s">
         <v>401</v>
       </c>
       <c r="C234" s="438" t="s">
-        <v>3641</v>
+        <v>3640</v>
       </c>
       <c r="D234" s="84"/>
       <c r="E234" s="495" t="s">
         <v>4122</v>
       </c>
       <c r="F234" s="388" t="s">
-        <v>3949</v>
+        <v>3947</v>
       </c>
       <c r="G234" s="330"/>
       <c r="H234" s="248"/>
@@ -40961,7 +40964,7 @@
       </c>
       <c r="J234" s="14"/>
       <c r="K234" s="41" t="s">
-        <v>3839</v>
+        <v>3837</v>
       </c>
       <c r="L234" s="21" t="s">
         <v>712</v>
@@ -41029,7 +41032,7 @@
       <c r="D235" s="84"/>
       <c r="E235" s="495"/>
       <c r="F235" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G235" s="320" t="s">
         <v>4093</v>
@@ -41125,7 +41128,7 @@
       <c r="E236" s="495"/>
       <c r="F236" s="96"/>
       <c r="G236" s="320" t="s">
-        <v>3903</v>
+        <v>3901</v>
       </c>
       <c r="H236" s="14"/>
       <c r="I236" s="23" t="s">
@@ -41207,7 +41210,7 @@
         <v>4123</v>
       </c>
       <c r="F237" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G237" s="320"/>
       <c r="H237" s="231"/>
@@ -41293,7 +41296,7 @@
         <v>401</v>
       </c>
       <c r="C238" s="438" t="s">
-        <v>3950</v>
+        <v>3948</v>
       </c>
       <c r="D238" s="84"/>
       <c r="E238" s="495" t="s">
@@ -41318,7 +41321,7 @@
         <v>1903</v>
       </c>
       <c r="P238" s="38" t="s">
-        <v>3713</v>
+        <v>3711</v>
       </c>
       <c r="Q238" s="19" t="s">
         <v>1571</v>
@@ -41393,7 +41396,7 @@
         <v>4124</v>
       </c>
       <c r="F239" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G239" s="320"/>
       <c r="H239" s="231"/>
@@ -41415,10 +41418,10 @@
         <v>1914</v>
       </c>
       <c r="P239" s="49" t="s">
-        <v>3712</v>
+        <v>3710</v>
       </c>
       <c r="Q239" s="26" t="s">
-        <v>3754</v>
+        <v>3752</v>
       </c>
       <c r="R239" s="26"/>
       <c r="S239" s="19" t="s">
@@ -41469,7 +41472,7 @@
     </row>
     <row r="240" spans="1:47" ht="15.75" customHeight="1">
       <c r="A240" s="109" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
       <c r="B240" s="15" t="s">
         <v>401</v>
@@ -41534,7 +41537,7 @@
       <c r="AD240" s="14"/>
       <c r="AE240" s="14"/>
       <c r="AF240" s="219" t="s">
-        <v>3807</v>
+        <v>3805</v>
       </c>
       <c r="AG240" s="14"/>
       <c r="AH240" s="10"/>
@@ -41565,7 +41568,7 @@
       <c r="D241" s="84"/>
       <c r="E241" s="495"/>
       <c r="F241" s="431" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G241" s="320"/>
       <c r="H241" s="231"/>
@@ -41585,7 +41588,7 @@
       <c r="N241" s="174"/>
       <c r="O241" s="174"/>
       <c r="P241" s="25" t="s">
-        <v>3717</v>
+        <v>3715</v>
       </c>
       <c r="Q241" s="26" t="s">
         <v>1927</v>
@@ -41654,7 +41657,7 @@
       <c r="D242" s="84"/>
       <c r="E242" s="495"/>
       <c r="F242" s="431" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G242" s="320"/>
       <c r="H242" s="231"/>
@@ -41665,7 +41668,7 @@
         <v>1931</v>
       </c>
       <c r="K242" s="41" t="s">
-        <v>3721</v>
+        <v>3719</v>
       </c>
       <c r="L242" s="21" t="s">
         <v>1932</v>
@@ -41674,7 +41677,7 @@
       <c r="N242" s="173"/>
       <c r="O242" s="173"/>
       <c r="P242" s="25" t="s">
-        <v>3717</v>
+        <v>3715</v>
       </c>
       <c r="Q242" s="26" t="s">
         <v>1933</v>
@@ -41837,7 +41840,7 @@
         <v>1950</v>
       </c>
       <c r="K244" s="41" t="s">
-        <v>3799</v>
+        <v>3797</v>
       </c>
       <c r="L244" s="21" t="s">
         <v>1951</v>
@@ -41864,11 +41867,11 @@
         <v>33</v>
       </c>
       <c r="V244" s="117" t="s">
-        <v>3800</v>
+        <v>3798</v>
       </c>
       <c r="W244" s="14"/>
       <c r="X244" s="14" t="s">
-        <v>3801</v>
+        <v>3799</v>
       </c>
       <c r="Y244" s="14"/>
       <c r="Z244" s="14"/>
@@ -41996,7 +41999,7 @@
         <v>4127</v>
       </c>
       <c r="F246" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G246" s="320" t="s">
         <v>4125</v>
@@ -42065,7 +42068,7 @@
         <v>3602</v>
       </c>
       <c r="B247" s="436" t="s">
-        <v>3894</v>
+        <v>3892</v>
       </c>
       <c r="C247" s="403" t="s">
         <v>4043</v>
@@ -42073,7 +42076,7 @@
       <c r="D247" s="445"/>
       <c r="E247" s="502"/>
       <c r="F247" s="408" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G247" s="319"/>
       <c r="H247" s="399"/>
@@ -42084,7 +42087,7 @@
         <v>3604</v>
       </c>
       <c r="K247" s="400" t="s">
-        <v>3719</v>
+        <v>3717</v>
       </c>
       <c r="L247" s="452" t="s">
         <v>1811</v>
@@ -42093,10 +42096,10 @@
       <c r="N247" s="426"/>
       <c r="O247" s="426"/>
       <c r="P247" s="452" t="s">
-        <v>3717</v>
+        <v>3715</v>
       </c>
       <c r="Q247" s="457" t="s">
-        <v>3757</v>
+        <v>3755</v>
       </c>
       <c r="R247" s="456"/>
       <c r="S247" s="19" t="s">
@@ -42126,7 +42129,7 @@
       <c r="AA247" s="426"/>
       <c r="AB247" s="426"/>
       <c r="AC247" s="309" t="s">
-        <v>3709</v>
+        <v>3707</v>
       </c>
       <c r="AD247" s="426"/>
       <c r="AE247" s="426"/>
@@ -42135,7 +42138,7 @@
         <v>1977</v>
       </c>
       <c r="AH247" s="426" t="s">
-        <v>3710</v>
+        <v>3708</v>
       </c>
       <c r="AI247" s="426"/>
       <c r="AJ247" s="156"/>
@@ -42156,7 +42159,7 @@
         <v>3599</v>
       </c>
       <c r="B248" s="437" t="s">
-        <v>3895</v>
+        <v>3893</v>
       </c>
       <c r="C248" s="403" t="s">
         <v>4043</v>
@@ -42164,14 +42167,14 @@
       <c r="D248" s="445"/>
       <c r="E248" s="502"/>
       <c r="F248" s="408" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G248" s="319"/>
       <c r="H248" s="399"/>
       <c r="I248" s="426"/>
       <c r="J248" s="405"/>
       <c r="K248" s="400" t="s">
-        <v>3720</v>
+        <v>3718</v>
       </c>
       <c r="L248" s="452" t="s">
         <v>1926</v>
@@ -42180,10 +42183,10 @@
       <c r="N248" s="426"/>
       <c r="O248" s="426"/>
       <c r="P248" s="452" t="s">
-        <v>3717</v>
+        <v>3715</v>
       </c>
       <c r="Q248" s="457" t="s">
-        <v>3757</v>
+        <v>3755</v>
       </c>
       <c r="R248" s="456"/>
       <c r="S248" s="19" t="s">
@@ -42249,7 +42252,7 @@
         <v>4127</v>
       </c>
       <c r="F249" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G249" s="320"/>
       <c r="H249" s="231"/>
@@ -42334,7 +42337,7 @@
         <v>4127</v>
       </c>
       <c r="F250" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G250" s="322"/>
       <c r="H250" s="231"/>
@@ -42383,7 +42386,7 @@
       <c r="AG250" s="14"/>
       <c r="AH250" s="14"/>
       <c r="AI250" s="14" t="s">
-        <v>3857</v>
+        <v>3855</v>
       </c>
       <c r="AJ250" s="14"/>
       <c r="AK250" s="14"/>
@@ -42413,7 +42416,7 @@
         <v>4132</v>
       </c>
       <c r="F251" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G251" s="320"/>
       <c r="H251" s="231"/>
@@ -42494,7 +42497,7 @@
         <v>4132</v>
       </c>
       <c r="F252" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G252" s="320"/>
       <c r="H252" s="231"/>
@@ -42654,7 +42657,7 @@
         <v>4134</v>
       </c>
       <c r="F254" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G254" s="320" t="s">
         <v>4135</v>
@@ -42739,7 +42742,7 @@
         <v>4134</v>
       </c>
       <c r="F255" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G255" s="320"/>
       <c r="H255" s="231"/>
@@ -42865,7 +42868,7 @@
       <c r="AA256" s="14"/>
       <c r="AB256" s="14"/>
       <c r="AC256" s="14" t="s">
-        <v>3882</v>
+        <v>3880</v>
       </c>
       <c r="AD256" s="14"/>
       <c r="AE256" s="14"/>
@@ -42898,12 +42901,12 @@
         <v>401</v>
       </c>
       <c r="C257" s="438" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
       <c r="D257" s="84"/>
       <c r="E257" s="495"/>
       <c r="F257" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G257" s="320" t="s">
         <v>4138</v>
@@ -42914,7 +42917,7 @@
       </c>
       <c r="J257" s="14"/>
       <c r="K257" s="41" t="s">
-        <v>3951</v>
+        <v>3949</v>
       </c>
       <c r="L257" s="21" t="s">
         <v>2043</v>
@@ -42977,7 +42980,7 @@
         <v>401</v>
       </c>
       <c r="C258" s="438" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
       <c r="D258" s="84"/>
       <c r="E258" s="495"/>
@@ -42991,7 +42994,7 @@
       </c>
       <c r="J258" s="14"/>
       <c r="K258" s="41" t="s">
-        <v>3952</v>
+        <v>3950</v>
       </c>
       <c r="L258" s="21" t="s">
         <v>2050</v>
@@ -43097,7 +43100,7 @@
       </c>
       <c r="W259" s="14"/>
       <c r="X259" s="14" t="s">
-        <v>3852</v>
+        <v>3850</v>
       </c>
       <c r="Y259" s="14"/>
       <c r="Z259" s="14"/>
@@ -43115,7 +43118,7 @@
       <c r="AF259" s="210"/>
       <c r="AG259" s="14"/>
       <c r="AH259" s="10" t="s">
-        <v>3853</v>
+        <v>3851</v>
       </c>
       <c r="AI259" s="14"/>
       <c r="AJ259" s="14"/>
@@ -43153,7 +43156,7 @@
         <v>2063</v>
       </c>
       <c r="K260" s="109" t="s">
-        <v>3851</v>
+        <v>3849</v>
       </c>
       <c r="L260" s="21" t="s">
         <v>2064</v>
@@ -43180,7 +43183,7 @@
       </c>
       <c r="W260" s="14"/>
       <c r="X260" s="14" t="s">
-        <v>3859</v>
+        <v>3857</v>
       </c>
       <c r="Y260" s="14"/>
       <c r="Z260" s="14"/>
@@ -43225,7 +43228,7 @@
         <v>4142</v>
       </c>
       <c r="F261" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G261" s="320" t="s">
         <v>4141</v>
@@ -43312,7 +43315,7 @@
         <v>4142</v>
       </c>
       <c r="F262" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G262" s="320" t="s">
         <v>4139</v>
@@ -43378,7 +43381,7 @@
     </row>
     <row r="263" spans="1:47" ht="15.75" customHeight="1">
       <c r="A263" s="517" t="s">
-        <v>3638</v>
+        <v>3637</v>
       </c>
       <c r="B263" s="15" t="s">
         <v>401</v>
@@ -43462,7 +43465,7 @@
         <v>4143</v>
       </c>
       <c r="F264" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G264" s="320"/>
       <c r="H264" s="231"/>
@@ -43532,10 +43535,10 @@
     </row>
     <row r="265" spans="1:47" s="124" customFormat="1" ht="15.75" customHeight="1">
       <c r="A265" s="109" t="s">
-        <v>3741</v>
+        <v>3739</v>
       </c>
       <c r="B265" s="15" t="s">
-        <v>3896</v>
+        <v>3894</v>
       </c>
       <c r="C265" s="231" t="s">
         <v>4043</v>
@@ -43543,7 +43546,7 @@
       <c r="D265" s="84"/>
       <c r="E265" s="495"/>
       <c r="F265" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G265" s="320"/>
       <c r="H265" s="231"/>
@@ -43563,10 +43566,10 @@
       <c r="N265" s="173"/>
       <c r="O265" s="173"/>
       <c r="P265" s="25" t="s">
-        <v>3717</v>
+        <v>3715</v>
       </c>
       <c r="Q265" s="19" t="s">
-        <v>3758</v>
+        <v>3756</v>
       </c>
       <c r="R265" s="19"/>
       <c r="S265" s="19" t="s">
@@ -43609,20 +43612,20 @@
     </row>
     <row r="266" spans="1:47" s="124" customFormat="1" ht="15.75" customHeight="1">
       <c r="A266" s="433" t="s">
-        <v>3988</v>
+        <v>3986</v>
       </c>
       <c r="B266" s="15" t="s">
         <v>401</v>
       </c>
       <c r="C266" s="399" t="s">
-        <v>3953</v>
+        <v>3951</v>
       </c>
       <c r="D266" s="84"/>
       <c r="E266" s="495" t="s">
         <v>4147</v>
       </c>
       <c r="F266" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G266" s="318"/>
       <c r="H266" s="14"/>
@@ -43701,7 +43704,7 @@
         <v>4147</v>
       </c>
       <c r="F267" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G267" s="320"/>
       <c r="H267" s="231"/>
@@ -43782,10 +43785,10 @@
         <v>4148</v>
       </c>
       <c r="F268" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G268" s="320" t="s">
-        <v>3903</v>
+        <v>3901</v>
       </c>
       <c r="H268" s="14"/>
       <c r="I268" s="131" t="s">
@@ -43854,7 +43857,7 @@
     </row>
     <row r="269" spans="1:47" s="124" customFormat="1" ht="15.75" customHeight="1">
       <c r="A269" s="109" t="s">
-        <v>3637</v>
+        <v>3636</v>
       </c>
       <c r="B269" s="14" t="s">
         <v>2123</v>
@@ -43886,7 +43889,7 @@
         <v>1035</v>
       </c>
       <c r="Q269" s="36" t="s">
-        <v>3837</v>
+        <v>3835</v>
       </c>
       <c r="R269" s="36"/>
       <c r="S269" s="36" t="s">
@@ -43948,7 +43951,7 @@
         <v>4151</v>
       </c>
       <c r="F270" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G270" s="320"/>
       <c r="H270" s="231"/>
@@ -43968,10 +43971,10 @@
       <c r="N270" s="173"/>
       <c r="O270" s="173"/>
       <c r="P270" s="135" t="s">
-        <v>3717</v>
+        <v>3715</v>
       </c>
       <c r="Q270" s="36" t="s">
-        <v>3759</v>
+        <v>3757</v>
       </c>
       <c r="R270" s="36"/>
       <c r="S270" s="19" t="s">
@@ -43997,7 +44000,7 @@
       <c r="AA270" s="14"/>
       <c r="AB270" s="14"/>
       <c r="AC270" s="14" t="s">
-        <v>3722</v>
+        <v>3720</v>
       </c>
       <c r="AD270" s="14"/>
       <c r="AE270" s="14"/>
@@ -44104,7 +44107,7 @@
         <v>4152</v>
       </c>
       <c r="F272" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G272" s="320" t="s">
         <v>4153</v>
@@ -44181,7 +44184,7 @@
         <v>4152</v>
       </c>
       <c r="F273" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G273" s="320" t="s">
         <v>4155</v>
@@ -44247,20 +44250,20 @@
     </row>
     <row r="274" spans="1:47" ht="15.75" customHeight="1">
       <c r="A274" s="109" t="s">
-        <v>3755</v>
+        <v>3753</v>
       </c>
       <c r="B274" s="15" t="s">
         <v>401</v>
       </c>
       <c r="C274" s="109" t="s">
-        <v>3755</v>
+        <v>3753</v>
       </c>
       <c r="D274" s="84"/>
       <c r="E274" s="518" t="s">
         <v>4157</v>
       </c>
       <c r="F274" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G274" s="320"/>
       <c r="H274" s="231"/>
@@ -44339,7 +44342,7 @@
       <c r="D275" s="84"/>
       <c r="E275" s="495"/>
       <c r="F275" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G275" s="320"/>
       <c r="H275" s="231"/>
@@ -44413,7 +44416,7 @@
         <v>401</v>
       </c>
       <c r="C276" s="438" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
       <c r="D276" s="84"/>
       <c r="E276" s="495"/>
@@ -44503,7 +44506,7 @@
       <c r="D277" s="84"/>
       <c r="E277" s="495"/>
       <c r="F277" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G277" s="320"/>
       <c r="H277" s="231"/>
@@ -44523,10 +44526,10 @@
       <c r="N277" s="174"/>
       <c r="O277" s="173"/>
       <c r="P277" s="135" t="s">
-        <v>3717</v>
+        <v>3715</v>
       </c>
       <c r="Q277" s="19" t="s">
-        <v>3760</v>
+        <v>3758</v>
       </c>
       <c r="R277" s="19"/>
       <c r="S277" s="19" t="s">
@@ -44581,7 +44584,7 @@
         <v>401</v>
       </c>
       <c r="C278" s="438" t="s">
-        <v>3955</v>
+        <v>3953</v>
       </c>
       <c r="D278" s="84"/>
       <c r="E278" s="495"/>
@@ -44671,7 +44674,7 @@
       <c r="D279" s="84"/>
       <c r="E279" s="495"/>
       <c r="F279" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G279" s="320"/>
       <c r="H279" s="231"/>
@@ -44741,7 +44744,7 @@
         <v>1566</v>
       </c>
       <c r="C280" s="438" t="s">
-        <v>3956</v>
+        <v>3954</v>
       </c>
       <c r="D280" s="84"/>
       <c r="E280" s="495"/>
@@ -44829,7 +44832,7 @@
         <v>4158</v>
       </c>
       <c r="F281" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G281" s="320" t="s">
         <v>4159</v>
@@ -44906,7 +44909,7 @@
         <v>4161</v>
       </c>
       <c r="F282" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G282" s="320" t="s">
         <v>4163</v>
@@ -44928,7 +44931,7 @@
       <c r="N282" s="173"/>
       <c r="O282" s="173"/>
       <c r="P282" s="135" t="s">
-        <v>3717</v>
+        <v>3715</v>
       </c>
       <c r="Q282" s="455" t="s">
         <v>2332</v>
@@ -44957,7 +44960,7 @@
       <c r="AA282" s="14"/>
       <c r="AB282" s="14"/>
       <c r="AC282" s="14" t="s">
-        <v>3723</v>
+        <v>3721</v>
       </c>
       <c r="AD282" s="14"/>
       <c r="AE282" s="14"/>
@@ -45028,7 +45031,7 @@
         <v>1805</v>
       </c>
       <c r="U283" s="14" t="s">
-        <v>3749</v>
+        <v>3747</v>
       </c>
       <c r="V283" s="14" t="s">
         <v>34</v>
@@ -45076,7 +45079,7 @@
         <v>4168</v>
       </c>
       <c r="F284" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G284" s="320" t="s">
         <v>4169</v>
@@ -45159,7 +45162,7 @@
         <v>4171</v>
       </c>
       <c r="F285" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G285" s="321"/>
       <c r="H285" s="244"/>
@@ -45230,7 +45233,7 @@
       <c r="D286" s="84"/>
       <c r="E286" s="495"/>
       <c r="F286" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G286" s="320"/>
       <c r="H286" s="231"/>
@@ -45250,10 +45253,10 @@
       <c r="N286" s="173"/>
       <c r="O286" s="173"/>
       <c r="P286" s="298" t="s">
-        <v>3717</v>
+        <v>3715</v>
       </c>
       <c r="Q286" s="36" t="s">
-        <v>3759</v>
+        <v>3757</v>
       </c>
       <c r="R286" s="36"/>
       <c r="S286" s="111" t="s">
@@ -45270,7 +45273,7 @@
       </c>
       <c r="W286" s="14"/>
       <c r="X286" s="14" t="s">
-        <v>3866</v>
+        <v>3864</v>
       </c>
       <c r="Y286" s="14"/>
       <c r="Z286" s="14"/>
@@ -45311,7 +45314,7 @@
       <c r="D287" s="84"/>
       <c r="E287" s="495"/>
       <c r="F287" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G287" s="320"/>
       <c r="H287" s="231"/>
@@ -45386,10 +45389,10 @@
       <c r="D288" s="84"/>
       <c r="E288" s="495"/>
       <c r="F288" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G288" s="320" t="s">
-        <v>3903</v>
+        <v>3901</v>
       </c>
       <c r="H288" s="231"/>
       <c r="I288" s="131" t="s">
@@ -45456,12 +45459,12 @@
         <v>36</v>
       </c>
       <c r="C289" s="233" t="s">
-        <v>3957</v>
+        <v>3955</v>
       </c>
       <c r="D289" s="84"/>
       <c r="E289" s="495"/>
       <c r="F289" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G289" s="326"/>
       <c r="H289" s="245"/>
@@ -45507,7 +45510,7 @@
       </c>
       <c r="AA289" s="14"/>
       <c r="AB289" s="14" t="s">
-        <v>3883</v>
+        <v>3881</v>
       </c>
       <c r="AC289" s="14" t="s">
         <v>2255</v>
@@ -45516,7 +45519,7 @@
       <c r="AE289" s="14"/>
       <c r="AF289" s="14"/>
       <c r="AG289" s="14" t="s">
-        <v>3878</v>
+        <v>3876</v>
       </c>
       <c r="AH289" s="14" t="s">
         <v>2256</v>
@@ -45548,7 +45551,7 @@
       <c r="D290" s="84"/>
       <c r="E290" s="495"/>
       <c r="F290" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G290" s="320"/>
       <c r="H290" s="231"/>
@@ -45566,7 +45569,7 @@
       <c r="N290" s="174"/>
       <c r="O290" s="173"/>
       <c r="P290" s="135" t="s">
-        <v>3717</v>
+        <v>3715</v>
       </c>
       <c r="Q290" s="19" t="s">
         <v>2259</v>
@@ -45612,18 +45615,18 @@
     </row>
     <row r="291" spans="1:47" s="170" customFormat="1" ht="15.75" customHeight="1">
       <c r="A291" s="517" t="s">
-        <v>3958</v>
+        <v>3956</v>
       </c>
       <c r="B291" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C291" s="109" t="s">
-        <v>3958</v>
+        <v>3956</v>
       </c>
       <c r="D291" s="84"/>
       <c r="E291" s="495"/>
       <c r="F291" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G291" s="320"/>
       <c r="H291" s="231"/>
@@ -45634,7 +45637,7 @@
         <v>2261</v>
       </c>
       <c r="K291" s="41" t="s">
-        <v>3804</v>
+        <v>3802</v>
       </c>
       <c r="L291" s="21" t="s">
         <v>415</v>
@@ -45700,7 +45703,7 @@
         <v>4172</v>
       </c>
       <c r="F292" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G292" s="320" t="s">
         <v>4173</v>
@@ -45783,7 +45786,7 @@
       <c r="D293" s="84"/>
       <c r="E293" s="495"/>
       <c r="F293" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G293" s="320"/>
       <c r="H293" s="231"/>
@@ -45828,7 +45831,7 @@
       <c r="AA293" s="101"/>
       <c r="AB293" s="101"/>
       <c r="AC293" s="307" t="s">
-        <v>3879</v>
+        <v>3877</v>
       </c>
       <c r="AD293" s="14" t="s">
         <v>2282</v>
@@ -45861,7 +45864,7 @@
         <v>942</v>
       </c>
       <c r="C294" s="438" t="s">
-        <v>3960</v>
+        <v>3958</v>
       </c>
       <c r="D294" s="84"/>
       <c r="E294" s="495"/>
@@ -45884,10 +45887,10 @@
       <c r="N294" s="174"/>
       <c r="O294" s="174"/>
       <c r="P294" s="15" t="s">
-        <v>3718</v>
+        <v>3716</v>
       </c>
       <c r="Q294" s="36" t="s">
-        <v>3761</v>
+        <v>3759</v>
       </c>
       <c r="R294" s="425"/>
       <c r="S294" s="111" t="s">
@@ -45913,7 +45916,7 @@
       <c r="AA294" s="14"/>
       <c r="AB294" s="14"/>
       <c r="AC294" s="14" t="s">
-        <v>3724</v>
+        <v>3722</v>
       </c>
       <c r="AD294" s="14"/>
       <c r="AE294" s="14"/>
@@ -45938,7 +45941,7 @@
     </row>
     <row r="295" spans="1:47" s="100" customFormat="1" ht="15.75" customHeight="1">
       <c r="A295" s="109" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="B295" s="15" t="s">
         <v>401</v>
@@ -45956,7 +45959,7 @@
       </c>
       <c r="J295" s="14"/>
       <c r="K295" s="109" t="s">
-        <v>3831</v>
+        <v>3829</v>
       </c>
       <c r="L295" s="21" t="s">
         <v>1942</v>
@@ -45982,7 +45985,7 @@
         <v>2294</v>
       </c>
       <c r="U295" s="304" t="s">
-        <v>3808</v>
+        <v>3806</v>
       </c>
       <c r="V295" s="14" t="s">
         <v>34</v>
@@ -46027,12 +46030,12 @@
         <v>401</v>
       </c>
       <c r="C296" s="231" t="s">
-        <v>3961</v>
+        <v>3959</v>
       </c>
       <c r="D296" s="84"/>
       <c r="E296" s="495"/>
       <c r="F296" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G296" s="320"/>
       <c r="H296" s="231"/>
@@ -46121,7 +46124,7 @@
         <v>4174</v>
       </c>
       <c r="F297" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G297" s="320" t="s">
         <v>4175</v>
@@ -46200,7 +46203,7 @@
         <v>4174</v>
       </c>
       <c r="F298" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G298" s="320" t="s">
         <v>4177</v>
@@ -46277,7 +46280,7 @@
         <v>4178</v>
       </c>
       <c r="F299" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G299" s="320"/>
       <c r="H299" s="231"/>
@@ -46297,7 +46300,7 @@
       <c r="N299" s="173"/>
       <c r="O299" s="173"/>
       <c r="P299" s="135" t="s">
-        <v>3717</v>
+        <v>3715</v>
       </c>
       <c r="Q299" s="36" t="s">
         <v>1933</v>
@@ -46438,12 +46441,12 @@
         <v>401</v>
       </c>
       <c r="C301" s="231" t="s">
-        <v>3963</v>
+        <v>3961</v>
       </c>
       <c r="D301" s="84"/>
       <c r="E301" s="495"/>
       <c r="F301" s="358" t="s">
-        <v>3962</v>
+        <v>3960</v>
       </c>
       <c r="G301" s="320"/>
       <c r="H301" s="231"/>
@@ -46468,7 +46471,7 @@
         <v>2337</v>
       </c>
       <c r="Q301" s="19" t="s">
-        <v>3762</v>
+        <v>3760</v>
       </c>
       <c r="R301" s="19"/>
       <c r="S301" s="19"/>
@@ -46513,12 +46516,12 @@
         <v>401</v>
       </c>
       <c r="C302" s="233" t="s">
-        <v>3964</v>
+        <v>3962</v>
       </c>
       <c r="D302" s="84"/>
       <c r="E302" s="495"/>
       <c r="F302" s="358" t="s">
-        <v>3959</v>
+        <v>3957</v>
       </c>
       <c r="G302" s="320"/>
       <c r="H302" s="231"/>
@@ -46597,7 +46600,7 @@
       <c r="D303" s="84"/>
       <c r="E303" s="495"/>
       <c r="F303" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G303" s="320"/>
       <c r="H303" s="231"/>
@@ -46672,7 +46675,7 @@
       <c r="D304" s="84"/>
       <c r="E304" s="495"/>
       <c r="F304" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G304" s="320"/>
       <c r="H304" s="231"/>
@@ -46747,10 +46750,10 @@
       <c r="D305" s="84"/>
       <c r="E305" s="495"/>
       <c r="F305" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G305" s="320" t="s">
-        <v>3903</v>
+        <v>3901</v>
       </c>
       <c r="H305" s="14"/>
       <c r="I305" s="23" t="s">
@@ -46828,7 +46831,7 @@
         <v>4180</v>
       </c>
       <c r="F306" s="358" t="s">
-        <v>3959</v>
+        <v>3957</v>
       </c>
       <c r="G306" s="318" t="s">
         <v>4181</v>
@@ -46919,7 +46922,7 @@
         <v>4184</v>
       </c>
       <c r="F307" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G307" s="320"/>
       <c r="H307" s="231"/>
@@ -46928,7 +46931,7 @@
       </c>
       <c r="J307" s="65"/>
       <c r="K307" s="128" t="s">
-        <v>3965</v>
+        <v>3963</v>
       </c>
       <c r="L307" s="14" t="s">
         <v>2378</v>
@@ -46991,7 +46994,7 @@
     </row>
     <row r="308" spans="1:47" ht="15.75" customHeight="1">
       <c r="A308" s="115" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
       <c r="B308" s="15" t="s">
         <v>401</v>
@@ -47157,7 +47160,7 @@
     </row>
     <row r="310" spans="1:47" ht="15.75" customHeight="1">
       <c r="A310" s="115" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
       <c r="B310" s="15" t="s">
         <v>401</v>
@@ -47175,7 +47178,7 @@
       </c>
       <c r="J310" s="14"/>
       <c r="K310" s="128" t="s">
-        <v>3715</v>
+        <v>3713</v>
       </c>
       <c r="L310" s="14" t="s">
         <v>2378</v>
@@ -47257,7 +47260,7 @@
         <v>4185</v>
       </c>
       <c r="F311" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G311" s="320" t="s">
         <v>4186</v>
@@ -47336,7 +47339,7 @@
         <v>4187</v>
       </c>
       <c r="F312" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G312" s="320" t="s">
         <v>4189</v>
@@ -47421,7 +47424,7 @@
         <v>4192</v>
       </c>
       <c r="F313" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G313" s="320" t="s">
         <v>4127</v>
@@ -47504,7 +47507,7 @@
       <c r="D314" s="87"/>
       <c r="E314" s="497"/>
       <c r="F314" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G314" s="331"/>
       <c r="H314" s="246"/>
@@ -47592,12 +47595,12 @@
         <v>401</v>
       </c>
       <c r="C315" s="438" t="s">
-        <v>3966</v>
+        <v>3964</v>
       </c>
       <c r="D315" s="84"/>
       <c r="E315" s="495"/>
       <c r="F315" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G315" s="320"/>
       <c r="H315" s="231"/>
@@ -47678,7 +47681,7 @@
         <v>4193</v>
       </c>
       <c r="F316" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G316" s="320" t="s">
         <v>4194</v>
@@ -47831,13 +47834,13 @@
     </row>
     <row r="318" spans="1:47" ht="15.75" customHeight="1">
       <c r="A318" s="41" t="s">
-        <v>3633</v>
+        <v>3632</v>
       </c>
       <c r="B318" s="15" t="s">
         <v>2468</v>
       </c>
       <c r="C318" s="438" t="s">
-        <v>3967</v>
+        <v>3965</v>
       </c>
       <c r="D318" s="445"/>
       <c r="E318" s="502"/>
@@ -47999,7 +48002,7 @@
     </row>
     <row r="320" spans="1:47" ht="15.75" customHeight="1">
       <c r="A320" s="115" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
       <c r="B320" s="15" t="s">
         <v>401</v>
@@ -48074,7 +48077,7 @@
     </row>
     <row r="321" spans="1:47" ht="15.75" customHeight="1">
       <c r="A321" s="115" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
       <c r="B321" s="15" t="s">
         <v>401</v>
@@ -48085,10 +48088,10 @@
       <c r="D321" s="93"/>
       <c r="E321" s="510"/>
       <c r="F321" s="358" t="s">
-        <v>3959</v>
+        <v>3957</v>
       </c>
       <c r="G321" s="320" t="s">
-        <v>3903</v>
+        <v>3901</v>
       </c>
       <c r="H321" s="24"/>
       <c r="I321" s="4" t="s">
@@ -48180,7 +48183,7 @@
         <v>4127</v>
       </c>
       <c r="F322" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G322" s="320" t="s">
         <v>4201</v>
@@ -48263,7 +48266,7 @@
         <v>4202</v>
       </c>
       <c r="F323" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G323" s="320" t="s">
         <v>4201</v>
@@ -48346,7 +48349,7 @@
         <v>4207</v>
       </c>
       <c r="F324" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G324" s="320"/>
       <c r="H324" s="231"/>
@@ -48427,7 +48430,7 @@
         <v>4208</v>
       </c>
       <c r="F325" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G325" s="320" t="s">
         <v>4210</v>
@@ -48508,7 +48511,7 @@
         <v>4212</v>
       </c>
       <c r="F326" s="447" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G326" s="320" t="s">
         <v>4213</v>
@@ -48555,7 +48558,7 @@
         <v>2121</v>
       </c>
       <c r="AC326" s="14" t="s">
-        <v>3731</v>
+        <v>3729</v>
       </c>
       <c r="AD326" s="14"/>
       <c r="AE326" s="14" t="s">
@@ -48588,12 +48591,12 @@
         <v>401</v>
       </c>
       <c r="C327" s="231" t="s">
-        <v>3968</v>
+        <v>3966</v>
       </c>
       <c r="D327" s="93"/>
       <c r="E327" s="510"/>
       <c r="F327" s="358" t="s">
-        <v>3959</v>
+        <v>3957</v>
       </c>
       <c r="G327" s="320"/>
       <c r="H327" s="231"/>
@@ -48752,13 +48755,13 @@
     </row>
     <row r="329" spans="1:47" ht="15.75" customHeight="1">
       <c r="A329" s="115" t="s">
-        <v>3766</v>
+        <v>3764</v>
       </c>
       <c r="B329" s="15" t="s">
         <v>401</v>
       </c>
       <c r="C329" s="443" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="D329" s="84"/>
       <c r="E329" s="495"/>
@@ -48852,7 +48855,7 @@
         <v>4215</v>
       </c>
       <c r="F330" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G330" s="320" t="s">
         <v>4216</v>
@@ -49026,7 +49029,7 @@
         <v>4218</v>
       </c>
       <c r="F332" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G332" s="320" t="s">
         <v>4219</v>
@@ -49109,7 +49112,7 @@
       <c r="D333" s="93"/>
       <c r="E333" s="510"/>
       <c r="F333" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G333" s="320"/>
       <c r="H333" s="231"/>
@@ -49188,10 +49191,10 @@
       <c r="D334" s="84"/>
       <c r="E334" s="495"/>
       <c r="F334" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G334" s="320" t="s">
-        <v>3903</v>
+        <v>3901</v>
       </c>
       <c r="H334" s="14"/>
       <c r="I334" s="23" t="s">
@@ -49271,7 +49274,7 @@
         <v>4221</v>
       </c>
       <c r="F335" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G335" s="41" t="s">
         <v>2606</v>
@@ -49349,24 +49352,24 @@
         <v>401</v>
       </c>
       <c r="C336" s="231" t="s">
-        <v>3971</v>
+        <v>3969</v>
       </c>
       <c r="D336" s="84"/>
       <c r="E336" s="495" t="s">
         <v>4222</v>
       </c>
       <c r="F336" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G336" s="320" t="s">
         <v>4223</v>
       </c>
       <c r="H336" s="231"/>
       <c r="I336" s="97" t="s">
-        <v>3970</v>
+        <v>3968</v>
       </c>
       <c r="J336" s="14" t="s">
-        <v>3969</v>
+        <v>3967</v>
       </c>
       <c r="K336" s="129" t="s">
         <v>2613</v>
@@ -49383,7 +49386,7 @@
         <v>2616</v>
       </c>
       <c r="Q336" s="19" t="s">
-        <v>3847</v>
+        <v>3845</v>
       </c>
       <c r="R336" s="19"/>
       <c r="S336" s="36" t="s">
@@ -49449,7 +49452,7 @@
         <v>4225</v>
       </c>
       <c r="F337" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G337" s="320" t="s">
         <v>4226</v>
@@ -49528,7 +49531,7 @@
       <c r="D338" s="93"/>
       <c r="E338" s="510"/>
       <c r="F338" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G338" s="320"/>
       <c r="H338" s="231"/>
@@ -49537,7 +49540,7 @@
       </c>
       <c r="J338" s="24"/>
       <c r="K338" s="41" t="s">
-        <v>3750</v>
+        <v>3748</v>
       </c>
       <c r="L338" s="66" t="s">
         <v>2629</v>
@@ -49551,7 +49554,7 @@
         <v>2631</v>
       </c>
       <c r="Q338" s="19" t="s">
-        <v>3751</v>
+        <v>3749</v>
       </c>
       <c r="R338" s="19"/>
       <c r="S338" s="19" t="s">
@@ -49561,7 +49564,7 @@
         <v>2633</v>
       </c>
       <c r="U338" s="458" t="s">
-        <v>3749</v>
+        <v>3747</v>
       </c>
       <c r="V338" s="32" t="s">
         <v>34</v>
@@ -49685,7 +49688,7 @@
         <v>401</v>
       </c>
       <c r="C340" s="438" t="s">
-        <v>3972</v>
+        <v>3970</v>
       </c>
       <c r="D340" s="93"/>
       <c r="E340" s="510"/>
@@ -49784,7 +49787,7 @@
       </c>
       <c r="J341" s="14"/>
       <c r="K341" s="129" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="L341" s="66" t="s">
         <v>2648</v>
@@ -49827,7 +49830,7 @@
       <c r="AD341" s="101"/>
       <c r="AE341" s="14"/>
       <c r="AF341" s="117" t="s">
-        <v>3798</v>
+        <v>3796</v>
       </c>
       <c r="AG341" s="14"/>
       <c r="AH341" s="14"/>
@@ -49847,7 +49850,7 @@
     </row>
     <row r="342" spans="1:47" ht="15.75" customHeight="1">
       <c r="A342" s="115" t="s">
-        <v>3677</v>
+        <v>3675</v>
       </c>
       <c r="B342" s="15" t="s">
         <v>401</v>
@@ -49941,14 +49944,14 @@
         <v>4228</v>
       </c>
       <c r="F343" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G343" s="320" t="s">
         <v>4201</v>
       </c>
       <c r="H343" s="231"/>
       <c r="I343" s="97" t="s">
-        <v>3973</v>
+        <v>3971</v>
       </c>
       <c r="J343" s="14"/>
       <c r="K343" s="128" t="s">
@@ -50029,7 +50032,7 @@
       </c>
       <c r="J344" s="14"/>
       <c r="K344" s="128" t="s">
-        <v>3788</v>
+        <v>3786</v>
       </c>
       <c r="L344" s="68" t="s">
         <v>2378</v>
@@ -50094,13 +50097,13 @@
     </row>
     <row r="345" spans="1:47" ht="15.75" customHeight="1">
       <c r="A345" s="115" t="s">
-        <v>3678</v>
+        <v>3676</v>
       </c>
       <c r="B345" s="15" t="s">
         <v>401</v>
       </c>
       <c r="C345" s="438" t="s">
-        <v>3678</v>
+        <v>3676</v>
       </c>
       <c r="D345" s="160"/>
       <c r="E345" s="496"/>
@@ -50114,7 +50117,7 @@
         <v>2687</v>
       </c>
       <c r="K345" s="159" t="s">
-        <v>3832</v>
+        <v>3830</v>
       </c>
       <c r="L345" s="66" t="s">
         <v>2688</v>
@@ -50177,7 +50180,7 @@
     </row>
     <row r="346" spans="1:47" ht="15.75" customHeight="1">
       <c r="A346" s="390" t="s">
-        <v>3767</v>
+        <v>3765</v>
       </c>
       <c r="B346" s="15" t="s">
         <v>401</v>
@@ -50188,7 +50191,7 @@
       <c r="D346" s="84"/>
       <c r="E346" s="495"/>
       <c r="F346" s="431" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G346" s="320" t="s">
         <v>4201</v>
@@ -50277,10 +50280,10 @@
       <c r="D347" s="84"/>
       <c r="E347" s="495"/>
       <c r="F347" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G347" s="320" t="s">
-        <v>3903</v>
+        <v>3901</v>
       </c>
       <c r="H347" s="231"/>
       <c r="I347" s="6" t="s">
@@ -50362,7 +50365,7 @@
         <v>4230</v>
       </c>
       <c r="F348" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G348" s="320" t="s">
         <v>4201</v>
@@ -50438,7 +50441,7 @@
     </row>
     <row r="349" spans="1:47" ht="15.75" customHeight="1">
       <c r="A349" s="115" t="s">
-        <v>3768</v>
+        <v>3766</v>
       </c>
       <c r="B349" s="15" t="s">
         <v>401</v>
@@ -50451,7 +50454,7 @@
         <v>4234</v>
       </c>
       <c r="F349" s="431" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G349" s="320" t="s">
         <v>4233</v>
@@ -50538,7 +50541,7 @@
         <v>4235</v>
       </c>
       <c r="F350" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G350" s="320"/>
       <c r="H350" s="231"/>
@@ -50616,20 +50619,20 @@
     </row>
     <row r="351" spans="1:47" ht="15.75" customHeight="1">
       <c r="A351" s="115" t="s">
-        <v>3769</v>
+        <v>3767</v>
       </c>
       <c r="B351" s="66" t="s">
-        <v>3897</v>
+        <v>3895</v>
       </c>
       <c r="C351" s="115" t="s">
-        <v>3769</v>
+        <v>3767</v>
       </c>
       <c r="D351" s="84"/>
       <c r="E351" s="518" t="s">
         <v>4236</v>
       </c>
       <c r="F351" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G351" s="320"/>
       <c r="H351" s="231"/>
@@ -50699,7 +50702,7 @@
     </row>
     <row r="352" spans="1:47" ht="15.75" customHeight="1">
       <c r="A352" s="390" t="s">
-        <v>3974</v>
+        <v>3972</v>
       </c>
       <c r="B352" s="15" t="s">
         <v>401</v>
@@ -50712,14 +50715,14 @@
         <v>4238</v>
       </c>
       <c r="F352" s="359" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G352" s="320" t="s">
         <v>4177</v>
       </c>
       <c r="H352" s="231"/>
       <c r="I352" s="97" t="s">
-        <v>3986</v>
+        <v>3984</v>
       </c>
       <c r="J352" s="14"/>
       <c r="K352" s="129" t="s">
@@ -50742,7 +50745,7 @@
         <v>2434</v>
       </c>
       <c r="T352" s="19" t="s">
-        <v>3881</v>
+        <v>3879</v>
       </c>
       <c r="U352" s="42" t="s">
         <v>33</v>
@@ -50790,7 +50793,7 @@
     </row>
     <row r="353" spans="1:47" ht="15.75" customHeight="1">
       <c r="A353" s="390" t="s">
-        <v>3987</v>
+        <v>3985</v>
       </c>
       <c r="B353" s="15" t="s">
         <v>401</v>
@@ -50803,7 +50806,7 @@
         <v>4239</v>
       </c>
       <c r="F353" s="359" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G353" s="320" t="s">
         <v>4240</v>
@@ -50886,7 +50889,7 @@
         <v>4242</v>
       </c>
       <c r="F354" s="431" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G354" s="320" t="s">
         <v>4201</v>
@@ -50994,7 +50997,7 @@
         <v>1535</v>
       </c>
       <c r="Q355" s="26" t="s">
-        <v>3791</v>
+        <v>3789</v>
       </c>
       <c r="R355" s="26" t="s">
         <v>2762</v>
@@ -51060,7 +51063,7 @@
         <v>4243</v>
       </c>
       <c r="F356" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G356" s="320" t="s">
         <v>4201</v>
@@ -51224,7 +51227,7 @@
         <v>2783</v>
       </c>
       <c r="B358" s="391" t="s">
-        <v>3975</v>
+        <v>3973</v>
       </c>
       <c r="C358" s="115" t="s">
         <v>2783</v>
@@ -51234,7 +51237,7 @@
         <v>4244</v>
       </c>
       <c r="F358" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G358" s="320" t="s">
         <v>4201</v>
@@ -51317,10 +51320,10 @@
       <c r="D359" s="84"/>
       <c r="E359" s="495"/>
       <c r="F359" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G359" s="320" t="s">
-        <v>3903</v>
+        <v>3901</v>
       </c>
       <c r="H359" s="14"/>
       <c r="I359" s="23" t="s">
@@ -51406,7 +51409,7 @@
         <v>4245</v>
       </c>
       <c r="F360" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G360" s="320" t="s">
         <v>4201</v>
@@ -51493,7 +51496,7 @@
       <c r="D361" s="84"/>
       <c r="E361" s="495"/>
       <c r="F361" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G361" s="320"/>
       <c r="H361" s="231"/>
@@ -51516,7 +51519,7 @@
         <v>2813</v>
       </c>
       <c r="Q361" s="26" t="s">
-        <v>3763</v>
+        <v>3761</v>
       </c>
       <c r="R361" s="26"/>
       <c r="S361" s="19" t="s">
@@ -51575,7 +51578,7 @@
         <v>345</v>
       </c>
       <c r="C362" s="438" t="s">
-        <v>3976</v>
+        <v>3974</v>
       </c>
       <c r="D362" s="84"/>
       <c r="E362" s="495"/>
@@ -51611,7 +51614,7 @@
         <v>1805</v>
       </c>
       <c r="U362" s="32" t="s">
-        <v>3747</v>
+        <v>3745</v>
       </c>
       <c r="V362" s="32" t="s">
         <v>34</v>
@@ -51660,13 +51663,13 @@
         <v>345</v>
       </c>
       <c r="C363" s="438" t="s">
-        <v>3976</v>
+        <v>3974</v>
       </c>
       <c r="D363" s="84"/>
       <c r="E363" s="493"/>
       <c r="F363" s="400"/>
       <c r="G363" s="320" t="s">
-        <v>3902</v>
+        <v>3900</v>
       </c>
       <c r="H363" s="231"/>
       <c r="I363" s="131" t="s">
@@ -51750,7 +51753,7 @@
         <v>4246</v>
       </c>
       <c r="F364" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G364" s="320" t="s">
         <v>4201</v>
@@ -51892,7 +51895,7 @@
         <v>4247</v>
       </c>
       <c r="F366" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G366" s="320"/>
       <c r="H366" s="231"/>
@@ -51966,7 +51969,7 @@
     </row>
     <row r="367" spans="1:47" ht="15.75" customHeight="1">
       <c r="A367" s="115" t="s">
-        <v>3679</v>
+        <v>3677</v>
       </c>
       <c r="B367" s="15" t="s">
         <v>345</v>
@@ -52058,7 +52061,7 @@
         <v>4255</v>
       </c>
       <c r="F368" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G368" s="320" t="s">
         <v>4201</v>
@@ -52149,7 +52152,7 @@
         <v>4256</v>
       </c>
       <c r="F369" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G369" s="320" t="s">
         <v>4201</v>
@@ -52243,7 +52246,7 @@
       </c>
       <c r="J370" s="14"/>
       <c r="K370" s="41" t="s">
-        <v>3737</v>
+        <v>3735</v>
       </c>
       <c r="L370" s="68" t="s">
         <v>2378</v>
@@ -52255,7 +52258,7 @@
         <v>2871</v>
       </c>
       <c r="Q370" s="19" t="s">
-        <v>3765</v>
+        <v>3763</v>
       </c>
       <c r="R370" s="19" t="s">
         <v>31</v>
@@ -52290,10 +52293,10 @@
         <v>2876</v>
       </c>
       <c r="AF370" s="6" t="s">
+        <v>3734</v>
+      </c>
+      <c r="AG370" s="219" t="s">
         <v>3736</v>
-      </c>
-      <c r="AG370" s="219" t="s">
-        <v>3738</v>
       </c>
       <c r="AH370" s="14"/>
       <c r="AI370" s="14"/>
@@ -52408,10 +52411,10 @@
       </c>
       <c r="E372" s="492"/>
       <c r="F372" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G372" s="320" t="s">
-        <v>3903</v>
+        <v>3901</v>
       </c>
       <c r="H372" s="14" t="s">
         <v>2887</v>
@@ -52500,7 +52503,7 @@
       </c>
       <c r="J373" s="397"/>
       <c r="K373" s="128" t="s">
-        <v>3792</v>
+        <v>3790</v>
       </c>
       <c r="L373" s="68" t="s">
         <v>2378</v>
@@ -52572,13 +52575,13 @@
         <v>2901</v>
       </c>
       <c r="D374" s="438" t="s">
-        <v>3977</v>
+        <v>3975</v>
       </c>
       <c r="E374" s="491" t="s">
         <v>4257</v>
       </c>
       <c r="F374" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G374" s="320" t="s">
         <v>4201</v>
@@ -52650,18 +52653,18 @@
     </row>
     <row r="375" spans="1:47" ht="15.75" customHeight="1">
       <c r="A375" s="115" t="s">
-        <v>3978</v>
+        <v>3976</v>
       </c>
       <c r="B375" s="15" t="s">
         <v>345</v>
       </c>
       <c r="C375" s="247" t="s">
-        <v>3979</v>
+        <v>3977</v>
       </c>
       <c r="D375" s="84"/>
       <c r="E375" s="495"/>
       <c r="F375" s="434" t="s">
-        <v>3989</v>
+        <v>3987</v>
       </c>
       <c r="G375" s="318"/>
       <c r="H375" s="14"/>
@@ -52835,7 +52838,7 @@
         <v>4259</v>
       </c>
       <c r="F377" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G377" s="320" t="s">
         <v>4260</v>
@@ -52885,7 +52888,7 @@
       <c r="AF377" s="426"/>
       <c r="AG377" s="426"/>
       <c r="AH377" s="405" t="s">
-        <v>3872</v>
+        <v>3870</v>
       </c>
       <c r="AI377" s="426"/>
       <c r="AJ377" s="156"/>
@@ -52903,13 +52906,13 @@
     </row>
     <row r="378" spans="1:47" ht="15.75" customHeight="1">
       <c r="A378" s="390" t="s">
-        <v>3980</v>
+        <v>3978</v>
       </c>
       <c r="B378" s="15" t="s">
         <v>345</v>
       </c>
       <c r="C378" s="115" t="s">
-        <v>3980</v>
+        <v>3978</v>
       </c>
       <c r="D378" s="84" t="s">
         <v>4263</v>
@@ -52918,7 +52921,7 @@
         <v>4262</v>
       </c>
       <c r="F378" s="358" t="s">
-        <v>3962</v>
+        <v>3960</v>
       </c>
       <c r="G378" s="320" t="s">
         <v>4201</v>
@@ -53007,7 +53010,7 @@
         <v>4264</v>
       </c>
       <c r="F379" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G379" s="320" t="s">
         <v>4201</v>
@@ -53092,7 +53095,7 @@
       <c r="D380" s="84"/>
       <c r="E380" s="495"/>
       <c r="F380" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G380" s="320"/>
       <c r="H380" s="231"/>
@@ -53334,13 +53337,13 @@
     </row>
     <row r="383" spans="1:47" ht="15" customHeight="1">
       <c r="A383" s="395" t="s">
-        <v>3740</v>
+        <v>3738</v>
       </c>
       <c r="B383" s="396" t="s">
         <v>345</v>
       </c>
       <c r="C383" s="438" t="s">
-        <v>3920</v>
+        <v>3918</v>
       </c>
       <c r="D383" s="401"/>
       <c r="E383" s="493"/>
@@ -53717,7 +53720,7 @@
       <c r="F388" s="96"/>
       <c r="G388" s="318"/>
       <c r="H388" s="14" t="s">
-        <v>3893</v>
+        <v>3891</v>
       </c>
       <c r="I388" s="23" t="s">
         <v>2999</v>
@@ -53800,7 +53803,7 @@
       <c r="D389" s="141"/>
       <c r="E389" s="513"/>
       <c r="F389" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G389" s="320"/>
       <c r="H389" s="231"/>
@@ -53850,7 +53853,7 @@
       <c r="AF389" s="142"/>
       <c r="AG389" s="142"/>
       <c r="AH389" s="140" t="s">
-        <v>3873</v>
+        <v>3871</v>
       </c>
       <c r="AI389" s="142"/>
       <c r="AJ389" s="14"/>
@@ -53879,7 +53882,7 @@
       <c r="D390" s="401"/>
       <c r="E390" s="493"/>
       <c r="F390" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G390" s="320" t="s">
         <v>4201</v>
@@ -53962,7 +53965,7 @@
         <v>4266</v>
       </c>
       <c r="F391" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G391" s="320" t="s">
         <v>4268</v>
@@ -53973,7 +53976,7 @@
       </c>
       <c r="J391" s="14"/>
       <c r="K391" s="153" t="s">
-        <v>3880</v>
+        <v>3878</v>
       </c>
       <c r="L391" s="14" t="s">
         <v>2418</v>
@@ -54059,7 +54062,7 @@
         <v>4267</v>
       </c>
       <c r="F392" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G392" s="320"/>
       <c r="H392" s="231"/>
@@ -54140,7 +54143,7 @@
       <c r="D393" s="84"/>
       <c r="E393" s="495"/>
       <c r="F393" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G393" s="320"/>
       <c r="H393" s="231"/>
@@ -54227,7 +54230,7 @@
         <v>4269</v>
       </c>
       <c r="F394" s="448" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G394" s="319" t="s">
         <v>4201</v>
@@ -54316,7 +54319,7 @@
         <v>4270</v>
       </c>
       <c r="F395" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G395" s="319" t="s">
         <v>4201</v>
@@ -54342,7 +54345,7 @@
         <v>3050</v>
       </c>
       <c r="P395" s="38" t="s">
-        <v>3713</v>
+        <v>3711</v>
       </c>
       <c r="Q395" s="26" t="s">
         <v>3051</v>
@@ -54480,7 +54483,7 @@
         <v>4271</v>
       </c>
       <c r="F397" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G397" s="319" t="s">
         <v>4201</v>
@@ -54571,7 +54574,7 @@
         <v>4274</v>
       </c>
       <c r="F398" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G398" s="320" t="s">
         <v>4272</v>
@@ -54646,7 +54649,7 @@
         <v>4275</v>
       </c>
       <c r="F399" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G399" s="320" t="s">
         <v>4201</v>
@@ -54723,14 +54726,14 @@
         <v>4278</v>
       </c>
       <c r="F400" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G400" s="320" t="s">
         <v>4279</v>
       </c>
       <c r="H400" s="231"/>
       <c r="I400" s="97" t="s">
-        <v>3981</v>
+        <v>3979</v>
       </c>
       <c r="J400" s="14"/>
       <c r="K400" s="128" t="s">
@@ -54812,7 +54815,7 @@
         <v>4283</v>
       </c>
       <c r="F401" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G401" s="326"/>
       <c r="H401" s="245"/>
@@ -54842,7 +54845,7 @@
         <v>31</v>
       </c>
       <c r="T401" s="19" t="s">
-        <v>3711</v>
+        <v>3709</v>
       </c>
       <c r="U401" s="46" t="s">
         <v>70</v>
@@ -54897,7 +54900,7 @@
         <v>4280</v>
       </c>
       <c r="F402" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G402" s="320" t="s">
         <v>4282</v>
@@ -54984,7 +54987,7 @@
         <v>4284</v>
       </c>
       <c r="F403" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G403" s="320" t="s">
         <v>4287</v>
@@ -55075,7 +55078,7 @@
         <v>4288</v>
       </c>
       <c r="F404" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G404" s="320" t="s">
         <v>4177</v>
@@ -55153,7 +55156,7 @@
     </row>
     <row r="405" spans="1:47" ht="15.75" customHeight="1">
       <c r="A405" s="393" t="s">
-        <v>3982</v>
+        <v>3980</v>
       </c>
       <c r="B405" s="15" t="s">
         <v>345</v>
@@ -55166,7 +55169,7 @@
         <v>4289</v>
       </c>
       <c r="F405" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G405" s="320" t="s">
         <v>4177</v>
@@ -55257,7 +55260,7 @@
         <v>4293</v>
       </c>
       <c r="F406" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G406" s="320" t="s">
         <v>4294</v>
@@ -55350,7 +55353,7 @@
         <v>4295</v>
       </c>
       <c r="F407" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G407" s="320" t="s">
         <v>4177</v>
@@ -55437,7 +55440,7 @@
         <v>4296</v>
       </c>
       <c r="F408" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G408" s="320" t="s">
         <v>4297</v>
@@ -55635,7 +55638,7 @@
         <v>3162</v>
       </c>
       <c r="X410" s="14" t="s">
-        <v>3860</v>
+        <v>3858</v>
       </c>
       <c r="Y410" s="14"/>
       <c r="Z410" s="14"/>
@@ -55680,7 +55683,7 @@
         <v>4301</v>
       </c>
       <c r="F411" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G411" s="320" t="s">
         <v>4302</v>
@@ -55765,7 +55768,7 @@
         <v>4303</v>
       </c>
       <c r="F412" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G412" s="320" t="s">
         <v>4304</v>
@@ -55848,7 +55851,7 @@
         <v>4306</v>
       </c>
       <c r="F413" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G413" s="320" t="s">
         <v>4310</v>
@@ -55935,7 +55938,7 @@
         <v>4306</v>
       </c>
       <c r="F414" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G414" s="320" t="s">
         <v>4308</v>
@@ -56020,7 +56023,7 @@
         <v>4311</v>
       </c>
       <c r="F415" s="271" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G415" s="348" t="s">
         <v>4312</v>
@@ -56092,13 +56095,13 @@
     </row>
     <row r="416" spans="1:47" ht="15.75" customHeight="1">
       <c r="A416" s="115" t="s">
-        <v>3691</v>
+        <v>3689</v>
       </c>
       <c r="B416" s="15" t="s">
         <v>345</v>
       </c>
       <c r="C416" s="438" t="s">
-        <v>3691</v>
+        <v>3689</v>
       </c>
       <c r="D416" s="84"/>
       <c r="E416" s="493" t="s">
@@ -56183,14 +56186,14 @@
         <v>345</v>
       </c>
       <c r="C417" s="115" t="s">
-        <v>3680</v>
+        <v>3678</v>
       </c>
       <c r="D417" s="84"/>
       <c r="E417" s="493" t="s">
         <v>4316</v>
       </c>
       <c r="F417" s="271" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G417" s="347" t="s">
         <v>4177</v>
@@ -56201,10 +56204,10 @@
       </c>
       <c r="J417" s="14"/>
       <c r="K417" s="128" t="s">
-        <v>3836</v>
+        <v>3834</v>
       </c>
       <c r="L417" s="14" t="s">
-        <v>3806</v>
+        <v>3804</v>
       </c>
       <c r="M417" s="173"/>
       <c r="N417" s="173"/>
@@ -56254,20 +56257,20 @@
     </row>
     <row r="418" spans="1:47" s="100" customFormat="1" ht="15.75" customHeight="1">
       <c r="A418" s="115" t="s">
-        <v>3681</v>
+        <v>3679</v>
       </c>
       <c r="B418" s="15" t="s">
         <v>345</v>
       </c>
       <c r="C418" s="115" t="s">
-        <v>3681</v>
+        <v>3679</v>
       </c>
       <c r="D418" s="84"/>
       <c r="E418" s="495" t="s">
         <v>4317</v>
       </c>
       <c r="F418" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G418" s="347" t="s">
         <v>4177</v>
@@ -56333,13 +56336,13 @@
     </row>
     <row r="419" spans="1:47" ht="15.75" customHeight="1">
       <c r="A419" s="115" t="s">
-        <v>3682</v>
+        <v>3680</v>
       </c>
       <c r="B419" s="15" t="s">
         <v>345</v>
       </c>
       <c r="C419" s="438" t="s">
-        <v>3682</v>
+        <v>3680</v>
       </c>
       <c r="D419" s="84"/>
       <c r="E419" s="495"/>
@@ -56419,7 +56422,7 @@
         <v>4318</v>
       </c>
       <c r="F420" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G420" s="320" t="s">
         <v>4177</v>
@@ -56509,7 +56512,7 @@
       </c>
       <c r="J421" s="65"/>
       <c r="K421" s="128" t="s">
-        <v>3735</v>
+        <v>3733</v>
       </c>
       <c r="L421" s="14" t="s">
         <v>2378</v>
@@ -56587,7 +56590,7 @@
         <v>4319</v>
       </c>
       <c r="F422" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G422" s="320"/>
       <c r="H422" s="231"/>
@@ -56678,7 +56681,7 @@
         <v>4320</v>
       </c>
       <c r="F423" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G423" s="320" t="s">
         <v>4177</v>
@@ -56689,7 +56692,7 @@
       </c>
       <c r="J423" s="65"/>
       <c r="K423" s="128" t="s">
-        <v>3732</v>
+        <v>3730</v>
       </c>
       <c r="L423" s="68" t="s">
         <v>2378</v>
@@ -56737,10 +56740,10 @@
       </c>
       <c r="AD423" s="14"/>
       <c r="AE423" s="14" t="s">
-        <v>3733</v>
+        <v>3731</v>
       </c>
       <c r="AF423" s="14" t="s">
-        <v>3734</v>
+        <v>3732</v>
       </c>
       <c r="AG423" s="14"/>
       <c r="AH423" s="14"/>
@@ -56766,14 +56769,14 @@
         <v>345</v>
       </c>
       <c r="C424" s="115" t="s">
-        <v>3683</v>
+        <v>3681</v>
       </c>
       <c r="D424" s="84"/>
       <c r="E424" s="495" t="s">
         <v>4321</v>
       </c>
       <c r="F424" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G424" s="320" t="s">
         <v>4323</v>
@@ -56937,7 +56940,7 @@
         <v>4327</v>
       </c>
       <c r="F426" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G426" s="319" t="s">
         <v>4328</v>
@@ -57012,7 +57015,7 @@
         <v>4330</v>
       </c>
       <c r="F427" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G427" s="320" t="s">
         <v>4177</v>
@@ -57089,7 +57092,7 @@
         <v>4331</v>
       </c>
       <c r="F428" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G428" s="320" t="s">
         <v>4332</v>
@@ -57172,7 +57175,7 @@
         <v>4335</v>
       </c>
       <c r="F429" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G429" s="320" t="s">
         <v>4334</v>
@@ -57242,22 +57245,22 @@
     </row>
     <row r="430" spans="1:47" ht="15.75" customHeight="1">
       <c r="A430" s="115" t="s">
-        <v>3684</v>
+        <v>3682</v>
       </c>
       <c r="B430" s="15" t="s">
         <v>345</v>
       </c>
       <c r="C430" s="115" t="s">
-        <v>3684</v>
+        <v>3682</v>
       </c>
       <c r="D430" s="115" t="s">
-        <v>3685</v>
+        <v>3683</v>
       </c>
       <c r="E430" s="495" t="s">
         <v>4127</v>
       </c>
       <c r="F430" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G430" s="320" t="s">
         <v>4336</v>
@@ -57285,7 +57288,7 @@
       <c r="R430" s="423"/>
       <c r="S430" s="257"/>
       <c r="T430" s="111" t="s">
-        <v>3716</v>
+        <v>3714</v>
       </c>
       <c r="U430" s="134" t="s">
         <v>354</v>
@@ -57327,16 +57330,16 @@
         <v>345</v>
       </c>
       <c r="C431" s="115" t="s">
-        <v>3685</v>
+        <v>3683</v>
       </c>
       <c r="D431" s="115" t="s">
-        <v>3684</v>
+        <v>3682</v>
       </c>
       <c r="E431" s="495" t="s">
         <v>4337</v>
       </c>
       <c r="F431" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G431" s="320" t="s">
         <v>4339</v>
@@ -57398,13 +57401,13 @@
     </row>
     <row r="432" spans="1:47" ht="15.75" customHeight="1">
       <c r="A432" s="115" t="s">
-        <v>3686</v>
+        <v>3684</v>
       </c>
       <c r="B432" s="15" t="s">
         <v>345</v>
       </c>
       <c r="C432" s="438" t="s">
-        <v>3686</v>
+        <v>3684</v>
       </c>
       <c r="D432" s="84"/>
       <c r="E432" s="495"/>
@@ -57482,7 +57485,7 @@
         <v>4340</v>
       </c>
       <c r="F433" s="96" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G433" s="320" t="s">
         <v>4177</v>
@@ -57569,7 +57572,7 @@
         <v>4341</v>
       </c>
       <c r="F434" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G434" s="320" t="s">
         <v>4177</v>
@@ -57643,14 +57646,14 @@
         <v>345</v>
       </c>
       <c r="C435" s="115" t="s">
-        <v>3687</v>
+        <v>3685</v>
       </c>
       <c r="D435" s="160"/>
       <c r="E435" s="518" t="s">
         <v>4344</v>
       </c>
       <c r="F435" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G435" s="320" t="s">
         <v>4343</v>
@@ -57718,14 +57721,14 @@
         <v>345</v>
       </c>
       <c r="C436" s="115" t="s">
-        <v>3688</v>
+        <v>3686</v>
       </c>
       <c r="D436" s="84"/>
       <c r="E436" s="518" t="s">
         <v>4345</v>
       </c>
       <c r="F436" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G436" s="320" t="s">
         <v>4346</v>
@@ -57802,7 +57805,7 @@
         <v>4349</v>
       </c>
       <c r="F437" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G437" s="343" t="s">
         <v>4350</v>
@@ -57884,14 +57887,14 @@
         <v>345</v>
       </c>
       <c r="C438" s="233" t="s">
-        <v>3689</v>
+        <v>3687</v>
       </c>
       <c r="D438" s="84"/>
       <c r="E438" s="495" t="s">
         <v>4351</v>
       </c>
       <c r="F438" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G438" s="320" t="s">
         <v>4177</v>
@@ -57974,7 +57977,7 @@
         <v>4353</v>
       </c>
       <c r="F439" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G439" s="343" t="s">
         <v>4104</v>
@@ -58059,14 +58062,14 @@
         <v>4354</v>
       </c>
       <c r="F440" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G440" s="320" t="s">
         <v>4177</v>
       </c>
       <c r="H440" s="231"/>
       <c r="I440" s="97" t="s">
-        <v>3690</v>
+        <v>3688</v>
       </c>
       <c r="J440" s="14"/>
       <c r="K440" s="128" t="s">
@@ -58144,7 +58147,7 @@
         <v>4355</v>
       </c>
       <c r="F441" s="431" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
       <c r="G441" s="318" t="s">
         <v>4177</v>
@@ -58204,7 +58207,7 @@
       </c>
       <c r="AG441" s="14"/>
       <c r="AH441" s="152" t="s">
-        <v>3874</v>
+        <v>3872</v>
       </c>
       <c r="AI441" s="14"/>
       <c r="AJ441" s="14"/>
@@ -58235,7 +58238,7 @@
         <v>4356</v>
       </c>
       <c r="F442" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G442" s="320" t="s">
         <v>4177</v>
@@ -58313,20 +58316,20 @@
     </row>
     <row r="443" spans="1:47" ht="15.75" customHeight="1">
       <c r="A443" s="115" t="s">
-        <v>3692</v>
+        <v>3690</v>
       </c>
       <c r="B443" s="15" t="s">
         <v>345</v>
       </c>
       <c r="C443" s="115" t="s">
-        <v>3692</v>
+        <v>3690</v>
       </c>
       <c r="D443" s="84"/>
       <c r="E443" s="495" t="s">
         <v>4358</v>
       </c>
       <c r="F443" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G443" s="320" t="s">
         <v>4357</v>
@@ -58409,7 +58412,7 @@
         <v>4359</v>
       </c>
       <c r="F444" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G444" s="320" t="s">
         <v>4177</v>
@@ -58655,14 +58658,14 @@
         <v>345</v>
       </c>
       <c r="C447" s="231" t="s">
-        <v>3693</v>
+        <v>3691</v>
       </c>
       <c r="D447" s="84"/>
       <c r="E447" s="518" t="s">
         <v>4361</v>
       </c>
       <c r="F447" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G447" s="320" t="s">
         <v>4177</v>
@@ -58732,7 +58735,7 @@
     </row>
     <row r="448" spans="1:47" ht="15.75" customHeight="1">
       <c r="A448" s="393" t="s">
-        <v>3983</v>
+        <v>3981</v>
       </c>
       <c r="B448" s="15" t="s">
         <v>345</v>
@@ -58745,7 +58748,7 @@
         <v>4363</v>
       </c>
       <c r="F448" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G448" s="320" t="s">
         <v>4365</v>
@@ -58899,7 +58902,7 @@
         <v>4366</v>
       </c>
       <c r="F450" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G450" s="320" t="s">
         <v>4367</v>
@@ -58975,12 +58978,12 @@
         <v>345</v>
       </c>
       <c r="C451" s="438" t="s">
-        <v>3984</v>
+        <v>3982</v>
       </c>
       <c r="D451" s="84"/>
       <c r="E451" s="495"/>
       <c r="F451" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G451" s="343" t="s">
         <v>4104</v>
@@ -59068,10 +59071,10 @@
       </c>
       <c r="D452" s="84"/>
       <c r="E452" s="495" t="s">
-        <v>3858</v>
+        <v>3856</v>
       </c>
       <c r="F452" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G452" s="320" t="s">
         <v>4368</v>
@@ -59106,7 +59109,7 @@
         <v>34</v>
       </c>
       <c r="W452" s="24" t="s">
-        <v>3867</v>
+        <v>3865</v>
       </c>
       <c r="X452" s="24"/>
       <c r="Y452" s="24"/>
@@ -59120,7 +59123,7 @@
       <c r="AG452" s="14"/>
       <c r="AH452" s="10"/>
       <c r="AI452" s="14" t="s">
-        <v>3858</v>
+        <v>3856</v>
       </c>
       <c r="AJ452" s="14"/>
       <c r="AK452" s="14"/>
@@ -59150,7 +59153,7 @@
         <v>4369</v>
       </c>
       <c r="F453" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G453" s="320" t="s">
         <v>4370</v>
@@ -59235,7 +59238,7 @@
         <v>4371</v>
       </c>
       <c r="F454" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G454" s="320" t="s">
         <v>4370</v>
@@ -59311,14 +59314,14 @@
         <v>345</v>
       </c>
       <c r="C455" s="231" t="s">
-        <v>3694</v>
+        <v>3692</v>
       </c>
       <c r="D455" s="84"/>
       <c r="E455" s="495" t="s">
         <v>4127</v>
       </c>
       <c r="F455" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G455" s="320" t="s">
         <v>4370</v>
@@ -59329,7 +59332,7 @@
       </c>
       <c r="J455" s="14"/>
       <c r="K455" s="128" t="s">
-        <v>3695</v>
+        <v>3693</v>
       </c>
       <c r="L455" s="14" t="s">
         <v>3416</v>
@@ -59401,7 +59404,7 @@
         <v>4373</v>
       </c>
       <c r="F456" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G456" s="320" t="s">
         <v>4370</v>
@@ -59483,14 +59486,14 @@
         <v>345</v>
       </c>
       <c r="C457" s="115" t="s">
-        <v>3696</v>
+        <v>3694</v>
       </c>
       <c r="D457" s="84"/>
       <c r="E457" s="495" t="s">
         <v>4375</v>
       </c>
       <c r="F457" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G457" s="320"/>
       <c r="H457" s="231"/>
@@ -59572,14 +59575,14 @@
         <v>345</v>
       </c>
       <c r="C458" s="115" t="s">
-        <v>3697</v>
+        <v>3695</v>
       </c>
       <c r="D458" s="84"/>
       <c r="E458" s="518" t="s">
         <v>4377</v>
       </c>
       <c r="F458" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G458" s="320"/>
       <c r="H458" s="231"/>
@@ -59661,14 +59664,14 @@
         <v>345</v>
       </c>
       <c r="C459" s="115" t="s">
-        <v>3698</v>
+        <v>3696</v>
       </c>
       <c r="D459" s="85"/>
       <c r="E459" s="518" t="s">
         <v>4378</v>
       </c>
       <c r="F459" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G459" s="320"/>
       <c r="H459" s="231"/>
@@ -59749,7 +59752,7 @@
         <v>4127</v>
       </c>
       <c r="F460" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G460" s="320" t="s">
         <v>4370</v>
@@ -59825,7 +59828,7 @@
     </row>
     <row r="461" spans="1:47" ht="15.75" customHeight="1">
       <c r="A461" s="115" t="s">
-        <v>3699</v>
+        <v>3697</v>
       </c>
       <c r="B461" s="15" t="s">
         <v>345</v>
@@ -59904,13 +59907,13 @@
     </row>
     <row r="462" spans="1:47" ht="15.75" customHeight="1">
       <c r="A462" s="115" t="s">
-        <v>3700</v>
+        <v>3698</v>
       </c>
       <c r="B462" s="15" t="s">
         <v>345</v>
       </c>
       <c r="C462" s="438" t="s">
-        <v>3985</v>
+        <v>3983</v>
       </c>
       <c r="D462" s="84"/>
       <c r="E462" s="495"/>
@@ -60002,7 +60005,7 @@
         <v>4380</v>
       </c>
       <c r="F463" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G463" s="320" t="s">
         <v>4177</v>
@@ -60085,7 +60088,7 @@
       <c r="D464" s="84"/>
       <c r="E464" s="495"/>
       <c r="F464" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G464" s="322"/>
       <c r="H464" s="231"/>
@@ -60149,7 +60152,7 @@
     </row>
     <row r="465" spans="1:47" s="100" customFormat="1" ht="15.75" customHeight="1">
       <c r="A465" s="115" t="s">
-        <v>3701</v>
+        <v>3699</v>
       </c>
       <c r="B465" s="15" t="s">
         <v>345</v>
@@ -60160,7 +60163,7 @@
       <c r="D465" s="84"/>
       <c r="E465" s="495"/>
       <c r="F465" s="269" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G465" s="318"/>
       <c r="H465" s="14"/>
@@ -60238,7 +60241,7 @@
         <v>345</v>
       </c>
       <c r="C466" s="115" t="s">
-        <v>3703</v>
+        <v>3701</v>
       </c>
       <c r="D466" s="84"/>
       <c r="E466" s="495" t="s">
@@ -60319,7 +60322,7 @@
     </row>
     <row r="467" spans="1:47" ht="15.75" customHeight="1">
       <c r="A467" s="115" t="s">
-        <v>3702</v>
+        <v>3700</v>
       </c>
       <c r="B467" s="15" t="s">
         <v>345</v>
@@ -60365,7 +60368,7 @@
         <v>3503</v>
       </c>
       <c r="U467" s="412" t="s">
-        <v>3752</v>
+        <v>3750</v>
       </c>
       <c r="V467" s="32" t="s">
         <v>34</v>
@@ -60413,7 +60416,7 @@
         <v>4385</v>
       </c>
       <c r="F468" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G468" s="320" t="s">
         <v>4177</v>
@@ -60494,7 +60497,7 @@
       <c r="D469" s="84"/>
       <c r="E469" s="495"/>
       <c r="F469" s="465" t="s">
-        <v>3990</v>
+        <v>3988</v>
       </c>
       <c r="G469" s="320"/>
       <c r="H469" s="231"/>
@@ -60570,14 +60573,14 @@
         <v>345</v>
       </c>
       <c r="C470" s="361" t="s">
-        <v>3704</v>
+        <v>3702</v>
       </c>
       <c r="D470" s="537"/>
       <c r="E470" s="213" t="s">
         <v>4387</v>
       </c>
       <c r="F470" s="538" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G470" s="361"/>
       <c r="H470" s="361"/>
@@ -60600,7 +60603,7 @@
         <v>2355</v>
       </c>
       <c r="Q470" s="368" t="s">
-        <v>3764</v>
+        <v>3762</v>
       </c>
       <c r="R470" s="381"/>
       <c r="S470" s="542" t="s">
@@ -60610,7 +60613,7 @@
         <v>3525</v>
       </c>
       <c r="U470" s="539" t="s">
-        <v>3747</v>
+        <v>3745</v>
       </c>
       <c r="V470" s="543" t="s">
         <v>34</v>
@@ -60656,7 +60659,7 @@
         <v>4389</v>
       </c>
       <c r="F471" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G471" s="320" t="s">
         <v>4177</v>
@@ -60742,7 +60745,7 @@
       <c r="G472" s="324"/>
       <c r="H472" s="232"/>
       <c r="I472" s="97" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="J472" s="397"/>
       <c r="K472" s="41" t="s">
@@ -60812,7 +60815,7 @@
         <v>4390</v>
       </c>
       <c r="F473" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G473" s="320" t="s">
         <v>4177</v>
@@ -60884,14 +60887,14 @@
         <v>345</v>
       </c>
       <c r="C474" s="231" t="s">
-        <v>3706</v>
+        <v>3704</v>
       </c>
       <c r="D474" s="84"/>
       <c r="E474" s="495" t="s">
         <v>4391</v>
       </c>
       <c r="F474" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G474" s="320"/>
       <c r="H474" s="231"/>
@@ -60967,14 +60970,14 @@
         <v>345</v>
       </c>
       <c r="C475" s="115" t="s">
-        <v>3707</v>
+        <v>3705</v>
       </c>
       <c r="D475" s="84"/>
       <c r="E475" s="518" t="s">
         <v>4394</v>
       </c>
       <c r="F475" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G475" s="320" t="s">
         <v>4177</v>
@@ -61154,7 +61157,7 @@
         <v>4396</v>
       </c>
       <c r="F477" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G477" s="320" t="s">
         <v>4177</v>
@@ -61245,7 +61248,7 @@
         <v>4397</v>
       </c>
       <c r="F478" s="357" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="G478" s="320" t="s">
         <v>4177</v>
@@ -61327,7 +61330,7 @@
         <v>345</v>
       </c>
       <c r="C479" s="440" t="s">
-        <v>3921</v>
+        <v>3919</v>
       </c>
       <c r="D479" s="84"/>
       <c r="E479" s="518" t="s">
@@ -72229,9 +72232,11 @@
     <hyperlink ref="E107" r:id="rId890" xr:uid="{6D7B5BED-036F-264A-ADF5-42A9E8EE8A5B}"/>
     <hyperlink ref="E114" r:id="rId891" xr:uid="{AAEA7453-D59C-0445-8BFF-6FB9473FE5A7}"/>
     <hyperlink ref="E115" r:id="rId892" xr:uid="{6CD83E18-381A-824D-B09D-F6EC3496B17B}"/>
+    <hyperlink ref="E65" r:id="rId893" xr:uid="{D4C8B6F9-A3F2-E140-A5F2-8AE06C15FAFE}"/>
+    <hyperlink ref="E66" r:id="rId894" xr:uid="{C0D7293D-92A2-6849-B05E-402194B1C4BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <legacyDrawing r:id="rId893"/>
+  <legacyDrawing r:id="rId895"/>
 </worksheet>
 </file>
--- a/indexation-estampes.xlsx
+++ b/indexation-estampes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annepiejus/Documents/Projets:Travaux/MERCURE GALANT/MG ÉDITIONS/mercure-galant-sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F557B1CD-6CFA-7E40-B3AC-65CCDF134454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B02C3B-7A7F-1043-B0D1-1D67DB98026E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4300" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18793,10 +18793,10 @@
     <t>1701-07_316</t>
   </si>
   <si>
-    <t>1702-10_086</t>
-  </si>
-  <si>
     <t>1703-02_074</t>
+  </si>
+  <si>
+    <t>1702-10a_086</t>
   </si>
 </sst>
 </file>
@@ -22006,8 +22006,8 @@
   <dimension ref="A1:AU681"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A465" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A481" sqref="A481"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -60230,7 +60230,7 @@
     </row>
     <row r="465" spans="1:47" s="100" customFormat="1" ht="15.75" customHeight="1">
       <c r="A465" s="115" t="s">
-        <v>4436</v>
+        <v>4437</v>
       </c>
       <c r="B465" s="15" t="s">
         <v>345</v>
@@ -60400,7 +60400,7 @@
     </row>
     <row r="467" spans="1:47" ht="15.75" customHeight="1">
       <c r="A467" s="115" t="s">
-        <v>4437</v>
+        <v>4436</v>
       </c>
       <c r="B467" s="15" t="s">
         <v>345</v>
@@ -72134,196 +72134,196 @@
     <hyperlink ref="AB462" r:id="rId714" xr:uid="{00000000-0004-0000-0000-0000F9020000}"/>
     <hyperlink ref="I463" r:id="rId715" xr:uid="{00000000-0004-0000-0000-0000FA020000}"/>
     <hyperlink ref="AB463" r:id="rId716" xr:uid="{00000000-0004-0000-0000-0000FB020000}"/>
-    <hyperlink ref="C465" r:id="rId717" location="MG-1702-10_63" xr:uid="{00000000-0004-0000-0000-0000FC020000}"/>
-    <hyperlink ref="I465" r:id="rId718" xr:uid="{00000000-0004-0000-0000-0000FD020000}"/>
-    <hyperlink ref="I466" r:id="rId719" xr:uid="{00000000-0004-0000-0000-0000FE020000}"/>
-    <hyperlink ref="AB466" r:id="rId720" xr:uid="{00000000-0004-0000-0000-0000FF020000}"/>
-    <hyperlink ref="C467" r:id="rId721" location="MG-1703-02_71" xr:uid="{00000000-0004-0000-0000-000000030000}"/>
-    <hyperlink ref="D467" r:id="rId722" location="MG-1703-03_363" xr:uid="{00000000-0004-0000-0000-000001030000}"/>
-    <hyperlink ref="I467" r:id="rId723" xr:uid="{00000000-0004-0000-0000-000002030000}"/>
-    <hyperlink ref="J467" r:id="rId724" location="MG-1703-02_71" xr:uid="{00000000-0004-0000-0000-000003030000}"/>
-    <hyperlink ref="I468" r:id="rId725" xr:uid="{00000000-0004-0000-0000-000004030000}"/>
-    <hyperlink ref="AB468" r:id="rId726" xr:uid="{00000000-0004-0000-0000-000005030000}"/>
-    <hyperlink ref="AF468" r:id="rId727" xr:uid="{00000000-0004-0000-0000-000006030000}"/>
-    <hyperlink ref="I469" r:id="rId728" xr:uid="{00000000-0004-0000-0000-000007030000}"/>
-    <hyperlink ref="I470" r:id="rId729" xr:uid="{00000000-0004-0000-0000-000008030000}"/>
-    <hyperlink ref="I471" r:id="rId730" xr:uid="{00000000-0004-0000-0000-000009030000}"/>
-    <hyperlink ref="I472" r:id="rId731" xr:uid="{00000000-0004-0000-0000-00000A030000}"/>
-    <hyperlink ref="I473" r:id="rId732" xr:uid="{00000000-0004-0000-0000-00000B030000}"/>
-    <hyperlink ref="I474" r:id="rId733" xr:uid="{00000000-0004-0000-0000-00000C030000}"/>
-    <hyperlink ref="I475" r:id="rId734" xr:uid="{00000000-0004-0000-0000-00000D030000}"/>
-    <hyperlink ref="AB475" r:id="rId735" xr:uid="{00000000-0004-0000-0000-00000E030000}"/>
-    <hyperlink ref="C476" r:id="rId736" location="MG-1707-01_162" xr:uid="{00000000-0004-0000-0000-00000F030000}"/>
-    <hyperlink ref="I476" r:id="rId737" xr:uid="{00000000-0004-0000-0000-000010030000}"/>
-    <hyperlink ref="AB476" r:id="rId738" xr:uid="{00000000-0004-0000-0000-000011030000}"/>
-    <hyperlink ref="AF476" r:id="rId739" xr:uid="{00000000-0004-0000-0000-000012030000}"/>
-    <hyperlink ref="I477" r:id="rId740" xr:uid="{00000000-0004-0000-0000-000013030000}"/>
-    <hyperlink ref="AB477" r:id="rId741" xr:uid="{00000000-0004-0000-0000-000014030000}"/>
-    <hyperlink ref="AF477" r:id="rId742" xr:uid="{00000000-0004-0000-0000-000015030000}"/>
-    <hyperlink ref="I478" r:id="rId743" xr:uid="{00000000-0004-0000-0000-000016030000}"/>
-    <hyperlink ref="AB478" r:id="rId744" xr:uid="{00000000-0004-0000-0000-000017030000}"/>
-    <hyperlink ref="I479" r:id="rId745" xr:uid="{00000000-0004-0000-0000-000019030000}"/>
-    <hyperlink ref="I480" r:id="rId746" xr:uid="{00000000-0004-0000-0000-00001A030000}"/>
-    <hyperlink ref="AC247" r:id="rId747" display="https://gallica.bnf.fr/ark:/12148/bpt6k56069895" xr:uid="{406C8F90-712D-EA4E-983E-641EE322383B}"/>
-    <hyperlink ref="I389" r:id="rId748" display="https://gallica.bnf.fr/ark:/12148/bpt6k6274143z/f227.item" xr:uid="{E92130F0-40E3-964F-9C82-6A4A8E98FE4A}"/>
-    <hyperlink ref="AG370" r:id="rId749" xr:uid="{6661D188-986C-EA4F-9D9E-F3E7E746DD57}"/>
-    <hyperlink ref="I274" r:id="rId750" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
-    <hyperlink ref="AF39" r:id="rId751" xr:uid="{59D7B19B-E445-5341-AEC7-484840EFD906}"/>
-    <hyperlink ref="AF21" r:id="rId752" xr:uid="{024EF768-5BB4-EA4B-98D6-E638D5C9AE12}"/>
-    <hyperlink ref="AF94" r:id="rId753" xr:uid="{9A551E61-0061-8A4D-A950-ADBAA8591053}"/>
-    <hyperlink ref="F234" r:id="rId754" location="MG-1682-12_205" display="Article incomplet : MG-1682-12_205" xr:uid="{3B6D2FBB-EF4A-6648-97DF-C75E9CBBB10F}"/>
-    <hyperlink ref="F258" r:id="rId755" location="MG-1683-10a_143" xr:uid="{AB4F9708-3AA0-4541-A875-54B8CBE5792B}"/>
-    <hyperlink ref="D178" r:id="rId756" location="MG-1681-03e_296" xr:uid="{3064C531-B96F-0741-8EA5-D2EB7828B23D}"/>
-    <hyperlink ref="D4" r:id="rId757" location="MG-1677-09_064" display="https://obtic.huma-num.fr/obvil-web/corpus/mercure-galant/MG-1677-09 - MG-1677-09_064" xr:uid="{A4376FAC-2EF2-7B42-A2CF-D3B15736EF2D}"/>
-    <hyperlink ref="C175" r:id="rId758" location="MG-1681-03_63" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="C177" r:id="rId759" location="MG-1681-03e_167b" display="https://obvil.sorbonne-universite.fr/corpus/mercure-galant/MG-1681-03e - MG-1681-03e_167b" xr:uid="{4393B59E-046A-384C-A094-4F2F791C68D4}"/>
-    <hyperlink ref="C201" r:id="rId760" location="MG-1681-12_281a" display="https://obvil.sorbonne-universite.fr/corpus/mercure-galant/MG-1681-12 - MG-1681-12_281a" xr:uid="{E1DA8D89-8E22-E945-A0E3-A111AA83F237}"/>
-    <hyperlink ref="C345" r:id="rId761" location="MG-1688-12a_131" display="https://obtic.huma-num.fr/obvil-web/corpus/mercure-galant/MG-1688-12a - MG-1688-12a_131" xr:uid="{5E04A85B-D575-EE48-A9EA-AB33AE827368}"/>
-    <hyperlink ref="C383" r:id="rId762" location="MG-1692-01a_288" display="https://obvil.sorbonne-universite.fr/corpus/mercure-galant/MG-1692-01a - MG-1692-01a_288" xr:uid="{0F71F014-6E19-6A4F-A743-442D995AD4EC}"/>
-    <hyperlink ref="C329" r:id="rId763" location="MG-1687-09a_270" display="https://obtic.huma-num.fr/obvil-web/corpus/mercure-galant/MG-1687-09a - MG-1687-09a_270" xr:uid="{0484B1E7-D76A-C74C-9F8B-F68FAE48BD83}"/>
-    <hyperlink ref="C421" r:id="rId764" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/2ac47326-83f2-4843-b6bb-1ad4de096477" xr:uid="{9709AFCD-FFD3-4940-83DC-CBF60A1FDE67}"/>
-    <hyperlink ref="C419" r:id="rId765" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/54fc6e16-7976-452f-94fe-5f7372175875" xr:uid="{C6DE1C41-9730-1848-B30C-41702C6E3BA0}"/>
-    <hyperlink ref="C432" r:id="rId766" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/58efc1f0-d85d-4581-99e3-f63c1bfb5670" xr:uid="{FCD9C72E-6BA3-5946-BD33-DA5B15CF2BD5}"/>
-    <hyperlink ref="C4" r:id="rId767" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/7966c0b3-acb5-4260-aac8-c951bb1c7f93" xr:uid="{1A9821A0-5891-1640-B388-85F8F7C9BF1D}"/>
-    <hyperlink ref="C13" r:id="rId768" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/9b8fc2de-e97f-419e-ad90-3cdcb4d823a4" xr:uid="{A2381389-4175-844C-AA1F-981B392272EE}"/>
-    <hyperlink ref="C16" r:id="rId769" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/6005bece-bf75-49a1-96f4-7ebe647cbe3f" xr:uid="{6F494336-ABF7-454F-881E-20AF7CD620DC}"/>
-    <hyperlink ref="C17" r:id="rId770" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/6005bece-bf75-49a1-96f4-7ebe647cbe3f" xr:uid="{51656F72-3CB2-D24B-BF33-1FA35F919D99}"/>
-    <hyperlink ref="C18" r:id="rId771" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/84a01626-7ca3-426e-8a6c-12cbf487c574" xr:uid="{7C96A1F5-BD5D-3B42-BADC-AFEF8FDA223A}"/>
-    <hyperlink ref="C19" r:id="rId772" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/84a01626-7ca3-426e-8a6c-12cbf487c574" xr:uid="{79697E3A-6AC4-304A-96D4-43AD9C05FD62}"/>
-    <hyperlink ref="C20" r:id="rId773" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/05e08d23-c011-4ad2-8238-6db718d1e156" xr:uid="{AD313050-3D8D-6942-89AA-8954918016E2}"/>
-    <hyperlink ref="C21" r:id="rId774" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/05e08d23-c011-4ad2-8238-6db718d1e156" xr:uid="{B019E70A-0717-2E4D-BF9E-44AE27B210DA}"/>
-    <hyperlink ref="C22" r:id="rId775" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/d33b915c-2ac7-4b3d-bee2-ecc64753b50e" xr:uid="{B06504CF-23DC-964A-B3B9-AF296A0DE5F2}"/>
-    <hyperlink ref="C32" r:id="rId776" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/36ccf529-07d6-41a0-8f23-0087228cb823" xr:uid="{56B2C8C9-9922-E246-92D0-F616B3D08F13}"/>
-    <hyperlink ref="C33" r:id="rId777" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/36ccf529-07d6-41a0-8f23-0087228cb823" xr:uid="{D5CBEC56-1DD3-B549-A32B-BDDCEBE271DF}"/>
-    <hyperlink ref="C68" r:id="rId778" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/c06c8f60-3cc3-4f4a-bfb6-d52aa732c792" xr:uid="{81A494C0-0763-8F49-B105-F445BE241662}"/>
-    <hyperlink ref="C69" r:id="rId779" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/facfdba7-44d5-4824-b87f-44e24b97a82b" xr:uid="{EACA6EDA-2209-F14E-9102-2D5A355E153E}"/>
-    <hyperlink ref="C73" r:id="rId780" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/70fe0214-4e3d-44e1-bb04-875c39924a63" xr:uid="{9B94457D-31CE-3240-9C3A-62C34DFB3964}"/>
-    <hyperlink ref="C77" r:id="rId781" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/6e6fdf8a-855f-4058-95d9-bff28df8774d" xr:uid="{9C640852-46F5-1C47-B36B-70C2C70DDA1C}"/>
-    <hyperlink ref="C83" r:id="rId782" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/4bb7b619-8324-43e8-8995-c7aa4ab95c67" xr:uid="{E85B4E5F-44BF-F443-BC22-DE9E0578CC44}"/>
-    <hyperlink ref="C87" r:id="rId783" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/3e58a58a-4d88-497a-b7a7-a0f6053c53f3" xr:uid="{C24576AA-07CD-1F4A-A4B1-5A745145771C}"/>
-    <hyperlink ref="C89" r:id="rId784" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/cbcd9a22-ff00-4541-babb-8d49aac69b4e" xr:uid="{2710BF76-9A5D-8F47-85E4-853B4BC8957A}"/>
-    <hyperlink ref="C90" r:id="rId785" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/7eda1b7b-5e1c-4c97-a764-28a6c0abb372" xr:uid="{2DB796AE-01EF-F645-B2E0-E6DF949B8BEA}"/>
-    <hyperlink ref="C95" r:id="rId786" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/b675407a-2330-4e6a-939d-8786cbdc78a7" xr:uid="{7FAF1CF5-272D-5A47-A77B-0C17C02FE68C}"/>
-    <hyperlink ref="C101" r:id="rId787" display="https://data-iremus.huma-num.fr/sherlock/mercure-galant/livraison/1679-09" xr:uid="{63D2B64B-FDA1-9C46-B1A4-A37C6FBF023E}"/>
-    <hyperlink ref="C104" r:id="rId788" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/d609cd3e-9437-42ba-92d3-de7e5000e442" xr:uid="{6742BE8C-0F6F-A14D-AC0A-812506BF823D}"/>
-    <hyperlink ref="C114" r:id="rId789" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/9a39e0ad-3016-4b8b-9a06-34c1cc913de6" xr:uid="{96A37A67-8F14-8349-974B-647D91B6A4A5}"/>
-    <hyperlink ref="C155" r:id="rId790" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/756e638c-3c71-4faa-8757-215d05dddc16" xr:uid="{A7976994-27FF-E74E-B897-F3AF28B0E4EA}"/>
-    <hyperlink ref="C156" r:id="rId791" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/c322d217-5176-413b-95fc-a1dc07f88984" xr:uid="{84B78F08-4778-3F41-9FA3-C67B6E8BDEDF}"/>
-    <hyperlink ref="C158" r:id="rId792" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/8f804528-9e00-48da-9844-8be1ffa6e0bd" xr:uid="{34F0F940-759F-1E48-9406-758C867AE6A7}"/>
-    <hyperlink ref="C181" r:id="rId793" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/40cd7d44-e325-4dfd-92a2-1be268439897" xr:uid="{EF824A5C-6A0B-EF4C-BC95-38515DB50488}"/>
-    <hyperlink ref="C193" r:id="rId794" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/a09ffd10-a8a2-4333-adc5-d53d5d2100fd" xr:uid="{A9ADFF14-EED9-AB45-8C3C-44310F2FEF8A}"/>
-    <hyperlink ref="C200" r:id="rId795" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/3051a8e8-f045-439a-a5c4-4a04a00df643" xr:uid="{8CB50D67-D967-4441-A9AA-23A2D9BD62BC}"/>
-    <hyperlink ref="C208" r:id="rId796" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/80fbe8b2-b387-444a-979e-72cbe0272967" xr:uid="{147E1567-F9FF-AC4A-827D-29A91B69758E}"/>
-    <hyperlink ref="C232" r:id="rId797" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/5cfb32c6-7bfe-497d-95f1-d4bb1f2e3e0f" xr:uid="{AA6CE0C8-F2AC-F24E-AC4A-AEB93539B83B}"/>
-    <hyperlink ref="C234" r:id="rId798" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/61970020-e76a-4561-ab69-d6c7c9f75f66" xr:uid="{B2CFB129-D4DE-E541-B9AF-BD856DC17CE8}"/>
-    <hyperlink ref="C238" r:id="rId799" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/ac095890-e699-4a20-afab-e32598a100a2" xr:uid="{11D0370E-FAF5-0147-9A23-1461757E03F7}"/>
-    <hyperlink ref="C245" r:id="rId800" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/1aa2235d-c539-44e2-9209-ec091e148a35" xr:uid="{E5A1CE61-44BA-F744-884B-AC6D4EA34AEE}"/>
-    <hyperlink ref="C253" r:id="rId801" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/1291c712-2196-4780-b876-b103312a88f4" xr:uid="{C25F586D-173D-D849-9A44-3DF3A44F3CCE}"/>
-    <hyperlink ref="C258" r:id="rId802" display="https://data-iremus.huma-num.fr/sherlock/mercure-galant/livraison/1683-10a" xr:uid="{AEE7631D-FB23-0B41-B3EB-59E5D3C0CF83}"/>
-    <hyperlink ref="C259" r:id="rId803" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/876ef960-aa4d-4d4f-9e4d-34d7ef4cb841" xr:uid="{5BA4E65F-B8E6-4743-AD08-FDED735A2320}"/>
-    <hyperlink ref="C260" r:id="rId804" display="applewebdata://C4DC52DE-9392-407C-8816-9A3EE8DA2D65/1683-10b_324" xr:uid="{D07A8D1D-A3A2-864C-950A-D93D7E24AF8C}"/>
-    <hyperlink ref="C271" r:id="rId805" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/65f7e0b4-6ed9-4aab-8309-82bf45b6f955" xr:uid="{97DE68B0-6E8A-234D-A2B5-11DD04EC47FE}"/>
-    <hyperlink ref="C276" r:id="rId806" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/654349d9-39b9-4ba6-a2c1-fcff211bfaed" xr:uid="{2CF2B85F-F790-5943-A229-2947B554C8C8}"/>
-    <hyperlink ref="C278" r:id="rId807" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/aa5820b5-01e0-4915-8c87-6d1f2b338ee3" xr:uid="{9A9F5373-105B-F745-B2B4-722DC16D6F68}"/>
-    <hyperlink ref="C280" r:id="rId808" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/271a1520-68c2-41fb-b21b-b6ddc86cc70b" xr:uid="{B30EAF68-30EC-4A41-8D56-D986A5E5A39B}"/>
-    <hyperlink ref="C294" r:id="rId809" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/11d6e014-1b9c-4c82-b73d-f492abae623b" xr:uid="{0152CF40-BE5D-B542-A90F-7B18EF4403B9}"/>
-    <hyperlink ref="C300" r:id="rId810" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/a520501e-7322-44c8-8169-9b8bbaca16ff" xr:uid="{2DC9F757-1559-014B-AFC5-AE354252DC9B}"/>
-    <hyperlink ref="C315" r:id="rId811" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/3da1ac86-2765-4670-8f04-a217ad09834d" xr:uid="{EE9486FE-B473-D34C-84B1-36CEB8CFCD3D}"/>
-    <hyperlink ref="C318" r:id="rId812" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/c07851e7-4aa2-4a92-b452-fab9923dafcd" xr:uid="{9BFF6FC4-6337-6947-9236-14796FC24961}"/>
-    <hyperlink ref="C319" r:id="rId813" location="MG-1687-01a_158" xr:uid="{66509003-0653-9E4C-815F-2CEF88BD9864}"/>
-    <hyperlink ref="C328" r:id="rId814" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/de367aae-6a1d-4e19-a85f-a1e580c36a6b" xr:uid="{877DF50A-4606-2F41-9BA1-516200C51A5D}"/>
-    <hyperlink ref="C340" r:id="rId815" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/4eabda65-6ad3-44f7-b2a4-78826372483c" xr:uid="{71FFFE63-7C13-F145-9BAC-68FA202A4E26}"/>
-    <hyperlink ref="C355" r:id="rId816" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/899815eb-f9d6-4cd2-a13e-4477b3a98aea" xr:uid="{BA1EB6F3-1E03-F944-A8DE-1B5246FC60C4}"/>
-    <hyperlink ref="C362" r:id="rId817" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/7ffbcad6-daa8-4a46-9300-49d3a5dbb3f5" xr:uid="{4CF28385-B402-F644-AA1C-E7F4BA84B030}"/>
-    <hyperlink ref="C363" r:id="rId818" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/7ffbcad6-daa8-4a46-9300-49d3a5dbb3f5" xr:uid="{95687490-CA95-004A-8724-141959693643}"/>
-    <hyperlink ref="D374" r:id="rId819" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/d24fcfce-e724-4895-8d4e-2a742ad55788" xr:uid="{21DEABB8-CF42-2B4C-AFC0-89FA60D27C5B}"/>
-    <hyperlink ref="C382" r:id="rId820" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/3229998b-e79c-4e86-b6cf-f3e68bde2846" xr:uid="{3EB50DE5-2F11-8C46-9620-2D93342ADB2B}"/>
-    <hyperlink ref="C388" r:id="rId821" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/b992c9a8-2827-4fbc-9b97-b1abe6ba220f" xr:uid="{CE6B1369-7A30-C043-B5A3-88553DE52098}"/>
-    <hyperlink ref="C396" r:id="rId822" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/dee855fd-e3cc-45c3-ab0f-1640170626f0" xr:uid="{5412A03D-E78D-DB43-86D0-699EB4F5FA09}"/>
-    <hyperlink ref="I400" r:id="rId823" xr:uid="{93151C59-D5DA-2547-9183-ACD09FB68EF8}"/>
-    <hyperlink ref="C416" r:id="rId824" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/35502ef1-e217-43d2-b5c0-75b80bbf4281" xr:uid="{153C1258-77EB-FC49-A0EB-EB611DBE833B}"/>
-    <hyperlink ref="C445" r:id="rId825" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/5eb7d3db-6e36-4139-9103-861e8332962d" xr:uid="{926A2DCD-ED46-1C46-A084-B52B6F253539}"/>
-    <hyperlink ref="C446" r:id="rId826" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/53833720-ea53-4005-a08e-a92527e4a996" xr:uid="{AAF39A9D-C046-D544-A369-91A5A06F18E4}"/>
-    <hyperlink ref="C449" r:id="rId827" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/c13c3940-2c71-4cb9-a3f2-97111ba42176" xr:uid="{CFA3D566-FD89-7E41-90CA-44DB3C0CC1AE}"/>
-    <hyperlink ref="C451" r:id="rId828" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/4b8acf96-9293-43b2-b86e-032b15ad8f4f" xr:uid="{1A00293E-5E4D-104C-9213-873C7B33B663}"/>
-    <hyperlink ref="C462" r:id="rId829" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/e89dc9fd-ab88-4540-9757-dbba8312a1f5" xr:uid="{A34EF62C-679A-6B4C-913B-C2C48A6FD5A4}"/>
-    <hyperlink ref="C472" r:id="rId830" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/0b540dd2-194c-4d76-ab41-bb265237814a" xr:uid="{F18F6E01-2613-D648-B9CA-8DA6DD29A89C}"/>
-    <hyperlink ref="C480" r:id="rId831" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/1bfdedfc-7851-4752-bb88-3a5f1ee938d7" xr:uid="{86CE263A-3964-C645-B08D-AAF0D79F75A8}"/>
-    <hyperlink ref="I352" r:id="rId832" xr:uid="{0D35BAC9-B6D0-A543-A556-5AA325F133B3}"/>
-    <hyperlink ref="I15" r:id="rId833" xr:uid="{5FA3E753-415E-2041-9990-E54AEEFDF8C6}"/>
-    <hyperlink ref="I34" r:id="rId834" xr:uid="{FCC122BD-2714-5B40-93E9-CDDDBB3A1FE4}"/>
-    <hyperlink ref="C257" r:id="rId835" display="https://data-iremus.huma-num.fr/sherlock/mercure-galant/livraison/1683-10a" xr:uid="{E9545DC6-A469-4B40-9DAA-547CDE7E9DF2}"/>
-    <hyperlink ref="E273" r:id="rId836" xr:uid="{9C1B49C3-A242-2F44-B2C1-04C6CDBAA1FB}"/>
-    <hyperlink ref="E274" r:id="rId837" xr:uid="{368C33B5-B50C-B242-B59A-094C4C030462}"/>
-    <hyperlink ref="E282" r:id="rId838" xr:uid="{269C510D-0429-1248-A9A7-A87B939A53BE}"/>
-    <hyperlink ref="I283" r:id="rId839" xr:uid="{89A798F5-821F-D943-A11A-0B0BBAC85342}"/>
-    <hyperlink ref="E284" r:id="rId840" xr:uid="{5FF0C75A-D08D-7543-89EC-736FE5FEC476}"/>
-    <hyperlink ref="E285" r:id="rId841" xr:uid="{51B51063-B9B3-5A40-B317-9F918C8386C0}"/>
-    <hyperlink ref="E292" r:id="rId842" xr:uid="{7879A012-3E0F-B740-BE8C-D8B3D757139A}"/>
-    <hyperlink ref="E297" r:id="rId843" xr:uid="{0FFB7FD9-17EA-4540-98EF-C4257DA5D552}"/>
-    <hyperlink ref="E298" r:id="rId844" xr:uid="{50EB68F6-3193-4543-9960-EDE8DB7D8ACC}"/>
-    <hyperlink ref="E479" r:id="rId845" xr:uid="{1CBA51B4-5D50-2448-9802-EDB065D72CFC}"/>
-    <hyperlink ref="E330" r:id="rId846" xr:uid="{E8BFCEC0-446A-AF44-89A7-49A5AF7E17BE}"/>
-    <hyperlink ref="I336" r:id="rId847" xr:uid="{45C62FD9-2AE9-AC49-9E91-982469B80DF1}"/>
-    <hyperlink ref="E337" r:id="rId848" xr:uid="{B5CD030C-FFDB-9148-83DB-DE426EB12F83}"/>
-    <hyperlink ref="E349" r:id="rId849" xr:uid="{18C2AF43-D6A1-4745-B808-B328CBAB2EC5}"/>
-    <hyperlink ref="E350" r:id="rId850" xr:uid="{B9F11DFC-0164-4D41-9A75-EA7FB166587E}"/>
-    <hyperlink ref="E351" r:id="rId851" xr:uid="{EE0AA50F-CB76-A041-BA3E-7E788247A620}"/>
-    <hyperlink ref="E352" r:id="rId852" xr:uid="{7A3C004B-1455-F249-B133-6BA5847D6787}"/>
-    <hyperlink ref="E353" r:id="rId853" xr:uid="{5CCF7C0D-4AC2-0042-B1CE-2477EA789CCB}"/>
-    <hyperlink ref="E354" r:id="rId854" xr:uid="{D88929E3-FA0E-264B-99F9-520E5844C4E2}"/>
-    <hyperlink ref="E364" r:id="rId855" xr:uid="{EAFF719B-289A-3E45-BDAB-A9E648590164}"/>
-    <hyperlink ref="E366" r:id="rId856" xr:uid="{64D69931-C571-D543-8040-788EFB1B3430}"/>
-    <hyperlink ref="E365" r:id="rId857" xr:uid="{274418EB-7D64-7B4B-AEA9-A3852E96A346}"/>
-    <hyperlink ref="E369" r:id="rId858" xr:uid="{E46B718E-BD08-C348-90B5-4183A7AFEF2A}"/>
-    <hyperlink ref="E374" r:id="rId859" xr:uid="{73221B59-D280-B744-8599-CCA8DD7A5288}"/>
-    <hyperlink ref="I377" r:id="rId860" xr:uid="{99528BAC-25AF-3645-95E0-18B5F63BB1D7}"/>
-    <hyperlink ref="E377" r:id="rId861" xr:uid="{D6702C24-E8E3-B545-B02E-B6C2D0860F36}"/>
-    <hyperlink ref="E378" r:id="rId862" xr:uid="{D3DA6CB9-36B8-B849-B8A3-C38A5370CCC2}"/>
-    <hyperlink ref="E398" r:id="rId863" xr:uid="{135FBA24-35F8-6147-B8A7-0F2F362EB396}"/>
-    <hyperlink ref="E399" r:id="rId864" xr:uid="{C437DDB5-0975-0E41-A394-836188BDB6CF}"/>
-    <hyperlink ref="E401" r:id="rId865" xr:uid="{22B460F7-E695-4940-8A5B-21E7DA87D1B5}"/>
-    <hyperlink ref="E411" r:id="rId866" xr:uid="{97A0D0AB-56B0-2E48-A379-8E023B3BB0EF}"/>
-    <hyperlink ref="E427" r:id="rId867" xr:uid="{CA1DE4B3-5277-5444-9AEF-252090FD07D4}"/>
-    <hyperlink ref="E428" r:id="rId868" xr:uid="{CB631B08-20A5-E44B-9BDF-E5F06B467B8B}"/>
-    <hyperlink ref="E429" r:id="rId869" xr:uid="{EBCB88AC-DBE3-8B4A-AE8A-9663AD35C2BA}"/>
-    <hyperlink ref="E435" r:id="rId870" xr:uid="{6DAE1B50-7383-144C-AB9A-C7440B89354E}"/>
-    <hyperlink ref="E436" r:id="rId871" xr:uid="{E390E808-2214-794A-9EC1-40B94B39A5D8}"/>
-    <hyperlink ref="E437" r:id="rId872" xr:uid="{9F6A8B52-4F74-E343-A0DB-D11C81AE8EE0}"/>
-    <hyperlink ref="E439" r:id="rId873" xr:uid="{0AEEDC94-9CBF-D144-8E52-DF195159FDA2}"/>
-    <hyperlink ref="I440" r:id="rId874" xr:uid="{67A0EACD-A33F-4F46-A127-1E30497E310C}"/>
-    <hyperlink ref="E441" r:id="rId875" xr:uid="{514E6EFF-8C68-B747-8A3A-A449CEC64DD5}"/>
-    <hyperlink ref="E444" r:id="rId876" xr:uid="{258B7BA3-8130-CB4F-ABA7-D4B01867E5C9}"/>
-    <hyperlink ref="I447" r:id="rId877" xr:uid="{35A29F48-1614-574C-AD6D-06B4E882F8AD}"/>
-    <hyperlink ref="E447" r:id="rId878" xr:uid="{93360EC8-185F-9D42-8735-2A25E107A2F2}"/>
-    <hyperlink ref="E450" r:id="rId879" xr:uid="{893FC51F-BEF1-4D4A-9C6C-1219A8874439}"/>
-    <hyperlink ref="E458" r:id="rId880" xr:uid="{FB71877D-E657-2246-8150-09B81732344E}"/>
-    <hyperlink ref="E459" r:id="rId881" xr:uid="{897B2C30-5CB6-A348-AB56-53350BC3E592}"/>
-    <hyperlink ref="E463" r:id="rId882" xr:uid="{09947A59-63CA-7A49-AED9-4AC5FF336DD0}"/>
-    <hyperlink ref="E468" r:id="rId883" xr:uid="{1FC77B2B-1519-FB49-8BB3-931A5AA62CB1}"/>
-    <hyperlink ref="E470" r:id="rId884" xr:uid="{C390EF3B-04E4-C942-8A86-4A1F3839429D}"/>
-    <hyperlink ref="E475" r:id="rId885" xr:uid="{D1B2386E-CB4B-5843-8109-6A44FE4FC51C}"/>
-    <hyperlink ref="E477" r:id="rId886" xr:uid="{737B0937-C45B-FE4E-8003-721CB4371BF8}"/>
-    <hyperlink ref="E478" r:id="rId887" xr:uid="{4FD7BFA1-F256-874E-9EA5-669580B508B2}"/>
-    <hyperlink ref="E60" r:id="rId888" xr:uid="{C52FB026-5F8B-F843-AA13-BD7ECCABA541}"/>
-    <hyperlink ref="E107" r:id="rId889" xr:uid="{6D7B5BED-036F-264A-ADF5-42A9E8EE8A5B}"/>
-    <hyperlink ref="E114" r:id="rId890" xr:uid="{AAEA7453-D59C-0445-8BFF-6FB9473FE5A7}"/>
-    <hyperlink ref="E115" r:id="rId891" xr:uid="{6CD83E18-381A-824D-B09D-F6EC3496B17B}"/>
-    <hyperlink ref="E65" r:id="rId892" xr:uid="{D4C8B6F9-A3F2-E140-A5F2-8AE06C15FAFE}"/>
-    <hyperlink ref="E66" r:id="rId893" xr:uid="{C0D7293D-92A2-6849-B05E-402194B1C4BC}"/>
-    <hyperlink ref="E70" r:id="rId894" xr:uid="{824689B2-D1C5-BB4C-A843-8D48671E2660}"/>
-    <hyperlink ref="E71" r:id="rId895" xr:uid="{BC84B2BA-41FA-8143-8D1E-16E1CE074210}"/>
-    <hyperlink ref="E72" r:id="rId896" xr:uid="{FD7C5BA0-5E1C-A445-B09E-F2B9518F5C64}"/>
-    <hyperlink ref="I74" r:id="rId897" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="E74" r:id="rId898" xr:uid="{5BB41AEA-1894-DC4D-9093-1F03B9FBBB69}"/>
-    <hyperlink ref="E84" r:id="rId899" xr:uid="{4C5EA57B-20EF-FD41-B4FE-37D83B697B15}"/>
-    <hyperlink ref="E86" r:id="rId900" xr:uid="{75A74513-087E-8F46-9BB4-BF4261FD3ED3}"/>
-    <hyperlink ref="E93" r:id="rId901" xr:uid="{2AAEE7C3-1166-C143-A662-4CBA86A3B00B}"/>
-    <hyperlink ref="I209" r:id="rId902" xr:uid="{80E7CC36-D572-D741-A3CC-1A90990A8F01}"/>
-    <hyperlink ref="E209" r:id="rId903" xr:uid="{9FA4A104-05A6-7A4F-AD7C-607339ABF2A3}"/>
-    <hyperlink ref="E208" r:id="rId904" xr:uid="{68FF83C3-DE26-8B43-91A8-7C8545043FA7}"/>
-    <hyperlink ref="E324" r:id="rId905" xr:uid="{B4CB8467-D298-244E-A413-C6CC70062B35}"/>
-    <hyperlink ref="E406" r:id="rId906" xr:uid="{F9FD3791-0A3C-8540-82C1-3FC3CFE48BA1}"/>
+    <hyperlink ref="I465" r:id="rId717" xr:uid="{00000000-0004-0000-0000-0000FD020000}"/>
+    <hyperlink ref="I466" r:id="rId718" xr:uid="{00000000-0004-0000-0000-0000FE020000}"/>
+    <hyperlink ref="AB466" r:id="rId719" xr:uid="{00000000-0004-0000-0000-0000FF020000}"/>
+    <hyperlink ref="C467" r:id="rId720" location="MG-1703-02_71" xr:uid="{00000000-0004-0000-0000-000000030000}"/>
+    <hyperlink ref="D467" r:id="rId721" location="MG-1703-03_363" xr:uid="{00000000-0004-0000-0000-000001030000}"/>
+    <hyperlink ref="I467" r:id="rId722" xr:uid="{00000000-0004-0000-0000-000002030000}"/>
+    <hyperlink ref="J467" r:id="rId723" location="MG-1703-02_71" xr:uid="{00000000-0004-0000-0000-000003030000}"/>
+    <hyperlink ref="I468" r:id="rId724" xr:uid="{00000000-0004-0000-0000-000004030000}"/>
+    <hyperlink ref="AB468" r:id="rId725" xr:uid="{00000000-0004-0000-0000-000005030000}"/>
+    <hyperlink ref="AF468" r:id="rId726" xr:uid="{00000000-0004-0000-0000-000006030000}"/>
+    <hyperlink ref="I469" r:id="rId727" xr:uid="{00000000-0004-0000-0000-000007030000}"/>
+    <hyperlink ref="I470" r:id="rId728" xr:uid="{00000000-0004-0000-0000-000008030000}"/>
+    <hyperlink ref="I471" r:id="rId729" xr:uid="{00000000-0004-0000-0000-000009030000}"/>
+    <hyperlink ref="I472" r:id="rId730" xr:uid="{00000000-0004-0000-0000-00000A030000}"/>
+    <hyperlink ref="I473" r:id="rId731" xr:uid="{00000000-0004-0000-0000-00000B030000}"/>
+    <hyperlink ref="I474" r:id="rId732" xr:uid="{00000000-0004-0000-0000-00000C030000}"/>
+    <hyperlink ref="I475" r:id="rId733" xr:uid="{00000000-0004-0000-0000-00000D030000}"/>
+    <hyperlink ref="AB475" r:id="rId734" xr:uid="{00000000-0004-0000-0000-00000E030000}"/>
+    <hyperlink ref="C476" r:id="rId735" location="MG-1707-01_162" xr:uid="{00000000-0004-0000-0000-00000F030000}"/>
+    <hyperlink ref="I476" r:id="rId736" xr:uid="{00000000-0004-0000-0000-000010030000}"/>
+    <hyperlink ref="AB476" r:id="rId737" xr:uid="{00000000-0004-0000-0000-000011030000}"/>
+    <hyperlink ref="AF476" r:id="rId738" xr:uid="{00000000-0004-0000-0000-000012030000}"/>
+    <hyperlink ref="I477" r:id="rId739" xr:uid="{00000000-0004-0000-0000-000013030000}"/>
+    <hyperlink ref="AB477" r:id="rId740" xr:uid="{00000000-0004-0000-0000-000014030000}"/>
+    <hyperlink ref="AF477" r:id="rId741" xr:uid="{00000000-0004-0000-0000-000015030000}"/>
+    <hyperlink ref="I478" r:id="rId742" xr:uid="{00000000-0004-0000-0000-000016030000}"/>
+    <hyperlink ref="AB478" r:id="rId743" xr:uid="{00000000-0004-0000-0000-000017030000}"/>
+    <hyperlink ref="I479" r:id="rId744" xr:uid="{00000000-0004-0000-0000-000019030000}"/>
+    <hyperlink ref="I480" r:id="rId745" xr:uid="{00000000-0004-0000-0000-00001A030000}"/>
+    <hyperlink ref="AC247" r:id="rId746" display="https://gallica.bnf.fr/ark:/12148/bpt6k56069895" xr:uid="{406C8F90-712D-EA4E-983E-641EE322383B}"/>
+    <hyperlink ref="I389" r:id="rId747" display="https://gallica.bnf.fr/ark:/12148/bpt6k6274143z/f227.item" xr:uid="{E92130F0-40E3-964F-9C82-6A4A8E98FE4A}"/>
+    <hyperlink ref="AG370" r:id="rId748" xr:uid="{6661D188-986C-EA4F-9D9E-F3E7E746DD57}"/>
+    <hyperlink ref="I274" r:id="rId749" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
+    <hyperlink ref="AF39" r:id="rId750" xr:uid="{59D7B19B-E445-5341-AEC7-484840EFD906}"/>
+    <hyperlink ref="AF21" r:id="rId751" xr:uid="{024EF768-5BB4-EA4B-98D6-E638D5C9AE12}"/>
+    <hyperlink ref="AF94" r:id="rId752" xr:uid="{9A551E61-0061-8A4D-A950-ADBAA8591053}"/>
+    <hyperlink ref="F234" r:id="rId753" location="MG-1682-12_205" display="Article incomplet : MG-1682-12_205" xr:uid="{3B6D2FBB-EF4A-6648-97DF-C75E9CBBB10F}"/>
+    <hyperlink ref="F258" r:id="rId754" location="MG-1683-10a_143" xr:uid="{AB4F9708-3AA0-4541-A875-54B8CBE5792B}"/>
+    <hyperlink ref="D178" r:id="rId755" location="MG-1681-03e_296" xr:uid="{3064C531-B96F-0741-8EA5-D2EB7828B23D}"/>
+    <hyperlink ref="D4" r:id="rId756" location="MG-1677-09_064" display="https://obtic.huma-num.fr/obvil-web/corpus/mercure-galant/MG-1677-09 - MG-1677-09_064" xr:uid="{A4376FAC-2EF2-7B42-A2CF-D3B15736EF2D}"/>
+    <hyperlink ref="C175" r:id="rId757" location="MG-1681-03_63" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="C177" r:id="rId758" location="MG-1681-03e_167b" display="https://obvil.sorbonne-universite.fr/corpus/mercure-galant/MG-1681-03e - MG-1681-03e_167b" xr:uid="{4393B59E-046A-384C-A094-4F2F791C68D4}"/>
+    <hyperlink ref="C201" r:id="rId759" location="MG-1681-12_281a" display="https://obvil.sorbonne-universite.fr/corpus/mercure-galant/MG-1681-12 - MG-1681-12_281a" xr:uid="{E1DA8D89-8E22-E945-A0E3-A111AA83F237}"/>
+    <hyperlink ref="C345" r:id="rId760" location="MG-1688-12a_131" display="https://obtic.huma-num.fr/obvil-web/corpus/mercure-galant/MG-1688-12a - MG-1688-12a_131" xr:uid="{5E04A85B-D575-EE48-A9EA-AB33AE827368}"/>
+    <hyperlink ref="C383" r:id="rId761" location="MG-1692-01a_288" display="https://obvil.sorbonne-universite.fr/corpus/mercure-galant/MG-1692-01a - MG-1692-01a_288" xr:uid="{0F71F014-6E19-6A4F-A743-442D995AD4EC}"/>
+    <hyperlink ref="C329" r:id="rId762" location="MG-1687-09a_270" display="https://obtic.huma-num.fr/obvil-web/corpus/mercure-galant/MG-1687-09a - MG-1687-09a_270" xr:uid="{0484B1E7-D76A-C74C-9F8B-F68FAE48BD83}"/>
+    <hyperlink ref="C421" r:id="rId763" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/2ac47326-83f2-4843-b6bb-1ad4de096477" xr:uid="{9709AFCD-FFD3-4940-83DC-CBF60A1FDE67}"/>
+    <hyperlink ref="C419" r:id="rId764" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/54fc6e16-7976-452f-94fe-5f7372175875" xr:uid="{C6DE1C41-9730-1848-B30C-41702C6E3BA0}"/>
+    <hyperlink ref="C432" r:id="rId765" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/58efc1f0-d85d-4581-99e3-f63c1bfb5670" xr:uid="{FCD9C72E-6BA3-5946-BD33-DA5B15CF2BD5}"/>
+    <hyperlink ref="C4" r:id="rId766" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/7966c0b3-acb5-4260-aac8-c951bb1c7f93" xr:uid="{1A9821A0-5891-1640-B388-85F8F7C9BF1D}"/>
+    <hyperlink ref="C13" r:id="rId767" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/9b8fc2de-e97f-419e-ad90-3cdcb4d823a4" xr:uid="{A2381389-4175-844C-AA1F-981B392272EE}"/>
+    <hyperlink ref="C16" r:id="rId768" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/6005bece-bf75-49a1-96f4-7ebe647cbe3f" xr:uid="{6F494336-ABF7-454F-881E-20AF7CD620DC}"/>
+    <hyperlink ref="C17" r:id="rId769" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/6005bece-bf75-49a1-96f4-7ebe647cbe3f" xr:uid="{51656F72-3CB2-D24B-BF33-1FA35F919D99}"/>
+    <hyperlink ref="C18" r:id="rId770" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/84a01626-7ca3-426e-8a6c-12cbf487c574" xr:uid="{7C96A1F5-BD5D-3B42-BADC-AFEF8FDA223A}"/>
+    <hyperlink ref="C19" r:id="rId771" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/84a01626-7ca3-426e-8a6c-12cbf487c574" xr:uid="{79697E3A-6AC4-304A-96D4-43AD9C05FD62}"/>
+    <hyperlink ref="C20" r:id="rId772" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/05e08d23-c011-4ad2-8238-6db718d1e156" xr:uid="{AD313050-3D8D-6942-89AA-8954918016E2}"/>
+    <hyperlink ref="C21" r:id="rId773" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/05e08d23-c011-4ad2-8238-6db718d1e156" xr:uid="{B019E70A-0717-2E4D-BF9E-44AE27B210DA}"/>
+    <hyperlink ref="C22" r:id="rId774" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/d33b915c-2ac7-4b3d-bee2-ecc64753b50e" xr:uid="{B06504CF-23DC-964A-B3B9-AF296A0DE5F2}"/>
+    <hyperlink ref="C32" r:id="rId775" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/36ccf529-07d6-41a0-8f23-0087228cb823" xr:uid="{56B2C8C9-9922-E246-92D0-F616B3D08F13}"/>
+    <hyperlink ref="C33" r:id="rId776" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/36ccf529-07d6-41a0-8f23-0087228cb823" xr:uid="{D5CBEC56-1DD3-B549-A32B-BDDCEBE271DF}"/>
+    <hyperlink ref="C68" r:id="rId777" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/c06c8f60-3cc3-4f4a-bfb6-d52aa732c792" xr:uid="{81A494C0-0763-8F49-B105-F445BE241662}"/>
+    <hyperlink ref="C69" r:id="rId778" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/facfdba7-44d5-4824-b87f-44e24b97a82b" xr:uid="{EACA6EDA-2209-F14E-9102-2D5A355E153E}"/>
+    <hyperlink ref="C73" r:id="rId779" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/70fe0214-4e3d-44e1-bb04-875c39924a63" xr:uid="{9B94457D-31CE-3240-9C3A-62C34DFB3964}"/>
+    <hyperlink ref="C77" r:id="rId780" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/6e6fdf8a-855f-4058-95d9-bff28df8774d" xr:uid="{9C640852-46F5-1C47-B36B-70C2C70DDA1C}"/>
+    <hyperlink ref="C83" r:id="rId781" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/4bb7b619-8324-43e8-8995-c7aa4ab95c67" xr:uid="{E85B4E5F-44BF-F443-BC22-DE9E0578CC44}"/>
+    <hyperlink ref="C87" r:id="rId782" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/3e58a58a-4d88-497a-b7a7-a0f6053c53f3" xr:uid="{C24576AA-07CD-1F4A-A4B1-5A745145771C}"/>
+    <hyperlink ref="C89" r:id="rId783" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/cbcd9a22-ff00-4541-babb-8d49aac69b4e" xr:uid="{2710BF76-9A5D-8F47-85E4-853B4BC8957A}"/>
+    <hyperlink ref="C90" r:id="rId784" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/7eda1b7b-5e1c-4c97-a764-28a6c0abb372" xr:uid="{2DB796AE-01EF-F645-B2E0-E6DF949B8BEA}"/>
+    <hyperlink ref="C95" r:id="rId785" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/b675407a-2330-4e6a-939d-8786cbdc78a7" xr:uid="{7FAF1CF5-272D-5A47-A77B-0C17C02FE68C}"/>
+    <hyperlink ref="C101" r:id="rId786" display="https://data-iremus.huma-num.fr/sherlock/mercure-galant/livraison/1679-09" xr:uid="{63D2B64B-FDA1-9C46-B1A4-A37C6FBF023E}"/>
+    <hyperlink ref="C104" r:id="rId787" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/d609cd3e-9437-42ba-92d3-de7e5000e442" xr:uid="{6742BE8C-0F6F-A14D-AC0A-812506BF823D}"/>
+    <hyperlink ref="C114" r:id="rId788" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/9a39e0ad-3016-4b8b-9a06-34c1cc913de6" xr:uid="{96A37A67-8F14-8349-974B-647D91B6A4A5}"/>
+    <hyperlink ref="C155" r:id="rId789" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/756e638c-3c71-4faa-8757-215d05dddc16" xr:uid="{A7976994-27FF-E74E-B897-F3AF28B0E4EA}"/>
+    <hyperlink ref="C156" r:id="rId790" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/c322d217-5176-413b-95fc-a1dc07f88984" xr:uid="{84B78F08-4778-3F41-9FA3-C67B6E8BDEDF}"/>
+    <hyperlink ref="C158" r:id="rId791" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/8f804528-9e00-48da-9844-8be1ffa6e0bd" xr:uid="{34F0F940-759F-1E48-9406-758C867AE6A7}"/>
+    <hyperlink ref="C181" r:id="rId792" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/40cd7d44-e325-4dfd-92a2-1be268439897" xr:uid="{EF824A5C-6A0B-EF4C-BC95-38515DB50488}"/>
+    <hyperlink ref="C193" r:id="rId793" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/a09ffd10-a8a2-4333-adc5-d53d5d2100fd" xr:uid="{A9ADFF14-EED9-AB45-8C3C-44310F2FEF8A}"/>
+    <hyperlink ref="C200" r:id="rId794" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/3051a8e8-f045-439a-a5c4-4a04a00df643" xr:uid="{8CB50D67-D967-4441-A9AA-23A2D9BD62BC}"/>
+    <hyperlink ref="C208" r:id="rId795" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/80fbe8b2-b387-444a-979e-72cbe0272967" xr:uid="{147E1567-F9FF-AC4A-827D-29A91B69758E}"/>
+    <hyperlink ref="C232" r:id="rId796" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/5cfb32c6-7bfe-497d-95f1-d4bb1f2e3e0f" xr:uid="{AA6CE0C8-F2AC-F24E-AC4A-AEB93539B83B}"/>
+    <hyperlink ref="C234" r:id="rId797" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/61970020-e76a-4561-ab69-d6c7c9f75f66" xr:uid="{B2CFB129-D4DE-E541-B9AF-BD856DC17CE8}"/>
+    <hyperlink ref="C238" r:id="rId798" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/ac095890-e699-4a20-afab-e32598a100a2" xr:uid="{11D0370E-FAF5-0147-9A23-1461757E03F7}"/>
+    <hyperlink ref="C245" r:id="rId799" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/1aa2235d-c539-44e2-9209-ec091e148a35" xr:uid="{E5A1CE61-44BA-F744-884B-AC6D4EA34AEE}"/>
+    <hyperlink ref="C253" r:id="rId800" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/1291c712-2196-4780-b876-b103312a88f4" xr:uid="{C25F586D-173D-D849-9A44-3DF3A44F3CCE}"/>
+    <hyperlink ref="C258" r:id="rId801" display="https://data-iremus.huma-num.fr/sherlock/mercure-galant/livraison/1683-10a" xr:uid="{AEE7631D-FB23-0B41-B3EB-59E5D3C0CF83}"/>
+    <hyperlink ref="C259" r:id="rId802" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/876ef960-aa4d-4d4f-9e4d-34d7ef4cb841" xr:uid="{5BA4E65F-B8E6-4743-AD08-FDED735A2320}"/>
+    <hyperlink ref="C260" r:id="rId803" display="applewebdata://C4DC52DE-9392-407C-8816-9A3EE8DA2D65/1683-10b_324" xr:uid="{D07A8D1D-A3A2-864C-950A-D93D7E24AF8C}"/>
+    <hyperlink ref="C271" r:id="rId804" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/65f7e0b4-6ed9-4aab-8309-82bf45b6f955" xr:uid="{97DE68B0-6E8A-234D-A2B5-11DD04EC47FE}"/>
+    <hyperlink ref="C276" r:id="rId805" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/654349d9-39b9-4ba6-a2c1-fcff211bfaed" xr:uid="{2CF2B85F-F790-5943-A229-2947B554C8C8}"/>
+    <hyperlink ref="C278" r:id="rId806" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/aa5820b5-01e0-4915-8c87-6d1f2b338ee3" xr:uid="{9A9F5373-105B-F745-B2B4-722DC16D6F68}"/>
+    <hyperlink ref="C280" r:id="rId807" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/271a1520-68c2-41fb-b21b-b6ddc86cc70b" xr:uid="{B30EAF68-30EC-4A41-8D56-D986A5E5A39B}"/>
+    <hyperlink ref="C294" r:id="rId808" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/11d6e014-1b9c-4c82-b73d-f492abae623b" xr:uid="{0152CF40-BE5D-B542-A90F-7B18EF4403B9}"/>
+    <hyperlink ref="C300" r:id="rId809" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/a520501e-7322-44c8-8169-9b8bbaca16ff" xr:uid="{2DC9F757-1559-014B-AFC5-AE354252DC9B}"/>
+    <hyperlink ref="C315" r:id="rId810" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/3da1ac86-2765-4670-8f04-a217ad09834d" xr:uid="{EE9486FE-B473-D34C-84B1-36CEB8CFCD3D}"/>
+    <hyperlink ref="C318" r:id="rId811" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/c07851e7-4aa2-4a92-b452-fab9923dafcd" xr:uid="{9BFF6FC4-6337-6947-9236-14796FC24961}"/>
+    <hyperlink ref="C319" r:id="rId812" location="MG-1687-01a_158" xr:uid="{66509003-0653-9E4C-815F-2CEF88BD9864}"/>
+    <hyperlink ref="C328" r:id="rId813" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/de367aae-6a1d-4e19-a85f-a1e580c36a6b" xr:uid="{877DF50A-4606-2F41-9BA1-516200C51A5D}"/>
+    <hyperlink ref="C340" r:id="rId814" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/4eabda65-6ad3-44f7-b2a4-78826372483c" xr:uid="{71FFFE63-7C13-F145-9BAC-68FA202A4E26}"/>
+    <hyperlink ref="C355" r:id="rId815" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/899815eb-f9d6-4cd2-a13e-4477b3a98aea" xr:uid="{BA1EB6F3-1E03-F944-A8DE-1B5246FC60C4}"/>
+    <hyperlink ref="C362" r:id="rId816" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/7ffbcad6-daa8-4a46-9300-49d3a5dbb3f5" xr:uid="{4CF28385-B402-F644-AA1C-E7F4BA84B030}"/>
+    <hyperlink ref="C363" r:id="rId817" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/7ffbcad6-daa8-4a46-9300-49d3a5dbb3f5" xr:uid="{95687490-CA95-004A-8724-141959693643}"/>
+    <hyperlink ref="D374" r:id="rId818" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/d24fcfce-e724-4895-8d4e-2a742ad55788" xr:uid="{21DEABB8-CF42-2B4C-AFC0-89FA60D27C5B}"/>
+    <hyperlink ref="C382" r:id="rId819" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/3229998b-e79c-4e86-b6cf-f3e68bde2846" xr:uid="{3EB50DE5-2F11-8C46-9620-2D93342ADB2B}"/>
+    <hyperlink ref="C388" r:id="rId820" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/b992c9a8-2827-4fbc-9b97-b1abe6ba220f" xr:uid="{CE6B1369-7A30-C043-B5A3-88553DE52098}"/>
+    <hyperlink ref="C396" r:id="rId821" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/dee855fd-e3cc-45c3-ab0f-1640170626f0" xr:uid="{5412A03D-E78D-DB43-86D0-699EB4F5FA09}"/>
+    <hyperlink ref="I400" r:id="rId822" xr:uid="{93151C59-D5DA-2547-9183-ACD09FB68EF8}"/>
+    <hyperlink ref="C416" r:id="rId823" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/35502ef1-e217-43d2-b5c0-75b80bbf4281" xr:uid="{153C1258-77EB-FC49-A0EB-EB611DBE833B}"/>
+    <hyperlink ref="C445" r:id="rId824" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/5eb7d3db-6e36-4139-9103-861e8332962d" xr:uid="{926A2DCD-ED46-1C46-A084-B52B6F253539}"/>
+    <hyperlink ref="C446" r:id="rId825" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/53833720-ea53-4005-a08e-a92527e4a996" xr:uid="{AAF39A9D-C046-D544-A369-91A5A06F18E4}"/>
+    <hyperlink ref="C449" r:id="rId826" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/c13c3940-2c71-4cb9-a3f2-97111ba42176" xr:uid="{CFA3D566-FD89-7E41-90CA-44DB3C0CC1AE}"/>
+    <hyperlink ref="C451" r:id="rId827" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/4b8acf96-9293-43b2-b86e-032b15ad8f4f" xr:uid="{1A00293E-5E4D-104C-9213-873C7B33B663}"/>
+    <hyperlink ref="C462" r:id="rId828" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/e89dc9fd-ab88-4540-9757-dbba8312a1f5" xr:uid="{A34EF62C-679A-6B4C-913B-C2C48A6FD5A4}"/>
+    <hyperlink ref="C472" r:id="rId829" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/0b540dd2-194c-4d76-ab41-bb265237814a" xr:uid="{F18F6E01-2613-D648-B9CA-8DA6DD29A89C}"/>
+    <hyperlink ref="C480" r:id="rId830" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/1bfdedfc-7851-4752-bb88-3a5f1ee938d7" xr:uid="{86CE263A-3964-C645-B08D-AAF0D79F75A8}"/>
+    <hyperlink ref="I352" r:id="rId831" xr:uid="{0D35BAC9-B6D0-A543-A556-5AA325F133B3}"/>
+    <hyperlink ref="I15" r:id="rId832" xr:uid="{5FA3E753-415E-2041-9990-E54AEEFDF8C6}"/>
+    <hyperlink ref="I34" r:id="rId833" xr:uid="{FCC122BD-2714-5B40-93E9-CDDDBB3A1FE4}"/>
+    <hyperlink ref="C257" r:id="rId834" display="https://data-iremus.huma-num.fr/sherlock/mercure-galant/livraison/1683-10a" xr:uid="{E9545DC6-A469-4B40-9DAA-547CDE7E9DF2}"/>
+    <hyperlink ref="E273" r:id="rId835" xr:uid="{9C1B49C3-A242-2F44-B2C1-04C6CDBAA1FB}"/>
+    <hyperlink ref="E274" r:id="rId836" xr:uid="{368C33B5-B50C-B242-B59A-094C4C030462}"/>
+    <hyperlink ref="E282" r:id="rId837" xr:uid="{269C510D-0429-1248-A9A7-A87B939A53BE}"/>
+    <hyperlink ref="I283" r:id="rId838" xr:uid="{89A798F5-821F-D943-A11A-0B0BBAC85342}"/>
+    <hyperlink ref="E284" r:id="rId839" xr:uid="{5FF0C75A-D08D-7543-89EC-736FE5FEC476}"/>
+    <hyperlink ref="E285" r:id="rId840" xr:uid="{51B51063-B9B3-5A40-B317-9F918C8386C0}"/>
+    <hyperlink ref="E292" r:id="rId841" xr:uid="{7879A012-3E0F-B740-BE8C-D8B3D757139A}"/>
+    <hyperlink ref="E297" r:id="rId842" xr:uid="{0FFB7FD9-17EA-4540-98EF-C4257DA5D552}"/>
+    <hyperlink ref="E298" r:id="rId843" xr:uid="{50EB68F6-3193-4543-9960-EDE8DB7D8ACC}"/>
+    <hyperlink ref="E479" r:id="rId844" xr:uid="{1CBA51B4-5D50-2448-9802-EDB065D72CFC}"/>
+    <hyperlink ref="E330" r:id="rId845" xr:uid="{E8BFCEC0-446A-AF44-89A7-49A5AF7E17BE}"/>
+    <hyperlink ref="I336" r:id="rId846" xr:uid="{45C62FD9-2AE9-AC49-9E91-982469B80DF1}"/>
+    <hyperlink ref="E337" r:id="rId847" xr:uid="{B5CD030C-FFDB-9148-83DB-DE426EB12F83}"/>
+    <hyperlink ref="E349" r:id="rId848" xr:uid="{18C2AF43-D6A1-4745-B808-B328CBAB2EC5}"/>
+    <hyperlink ref="E350" r:id="rId849" xr:uid="{B9F11DFC-0164-4D41-9A75-EA7FB166587E}"/>
+    <hyperlink ref="E351" r:id="rId850" xr:uid="{EE0AA50F-CB76-A041-BA3E-7E788247A620}"/>
+    <hyperlink ref="E352" r:id="rId851" xr:uid="{7A3C004B-1455-F249-B133-6BA5847D6787}"/>
+    <hyperlink ref="E353" r:id="rId852" xr:uid="{5CCF7C0D-4AC2-0042-B1CE-2477EA789CCB}"/>
+    <hyperlink ref="E354" r:id="rId853" xr:uid="{D88929E3-FA0E-264B-99F9-520E5844C4E2}"/>
+    <hyperlink ref="E364" r:id="rId854" xr:uid="{EAFF719B-289A-3E45-BDAB-A9E648590164}"/>
+    <hyperlink ref="E366" r:id="rId855" xr:uid="{64D69931-C571-D543-8040-788EFB1B3430}"/>
+    <hyperlink ref="E365" r:id="rId856" xr:uid="{274418EB-7D64-7B4B-AEA9-A3852E96A346}"/>
+    <hyperlink ref="E369" r:id="rId857" xr:uid="{E46B718E-BD08-C348-90B5-4183A7AFEF2A}"/>
+    <hyperlink ref="E374" r:id="rId858" xr:uid="{73221B59-D280-B744-8599-CCA8DD7A5288}"/>
+    <hyperlink ref="I377" r:id="rId859" xr:uid="{99528BAC-25AF-3645-95E0-18B5F63BB1D7}"/>
+    <hyperlink ref="E377" r:id="rId860" xr:uid="{D6702C24-E8E3-B545-B02E-B6C2D0860F36}"/>
+    <hyperlink ref="E378" r:id="rId861" xr:uid="{D3DA6CB9-36B8-B849-B8A3-C38A5370CCC2}"/>
+    <hyperlink ref="E398" r:id="rId862" xr:uid="{135FBA24-35F8-6147-B8A7-0F2F362EB396}"/>
+    <hyperlink ref="E399" r:id="rId863" xr:uid="{C437DDB5-0975-0E41-A394-836188BDB6CF}"/>
+    <hyperlink ref="E401" r:id="rId864" xr:uid="{22B460F7-E695-4940-8A5B-21E7DA87D1B5}"/>
+    <hyperlink ref="E411" r:id="rId865" xr:uid="{97A0D0AB-56B0-2E48-A379-8E023B3BB0EF}"/>
+    <hyperlink ref="E427" r:id="rId866" xr:uid="{CA1DE4B3-5277-5444-9AEF-252090FD07D4}"/>
+    <hyperlink ref="E428" r:id="rId867" xr:uid="{CB631B08-20A5-E44B-9BDF-E5F06B467B8B}"/>
+    <hyperlink ref="E429" r:id="rId868" xr:uid="{EBCB88AC-DBE3-8B4A-AE8A-9663AD35C2BA}"/>
+    <hyperlink ref="E435" r:id="rId869" xr:uid="{6DAE1B50-7383-144C-AB9A-C7440B89354E}"/>
+    <hyperlink ref="E436" r:id="rId870" xr:uid="{E390E808-2214-794A-9EC1-40B94B39A5D8}"/>
+    <hyperlink ref="E437" r:id="rId871" xr:uid="{9F6A8B52-4F74-E343-A0DB-D11C81AE8EE0}"/>
+    <hyperlink ref="E439" r:id="rId872" xr:uid="{0AEEDC94-9CBF-D144-8E52-DF195159FDA2}"/>
+    <hyperlink ref="I440" r:id="rId873" xr:uid="{67A0EACD-A33F-4F46-A127-1E30497E310C}"/>
+    <hyperlink ref="E441" r:id="rId874" xr:uid="{514E6EFF-8C68-B747-8A3A-A449CEC64DD5}"/>
+    <hyperlink ref="E444" r:id="rId875" xr:uid="{258B7BA3-8130-CB4F-ABA7-D4B01867E5C9}"/>
+    <hyperlink ref="I447" r:id="rId876" xr:uid="{35A29F48-1614-574C-AD6D-06B4E882F8AD}"/>
+    <hyperlink ref="E447" r:id="rId877" xr:uid="{93360EC8-185F-9D42-8735-2A25E107A2F2}"/>
+    <hyperlink ref="E450" r:id="rId878" xr:uid="{893FC51F-BEF1-4D4A-9C6C-1219A8874439}"/>
+    <hyperlink ref="E458" r:id="rId879" xr:uid="{FB71877D-E657-2246-8150-09B81732344E}"/>
+    <hyperlink ref="E459" r:id="rId880" xr:uid="{897B2C30-5CB6-A348-AB56-53350BC3E592}"/>
+    <hyperlink ref="E463" r:id="rId881" xr:uid="{09947A59-63CA-7A49-AED9-4AC5FF336DD0}"/>
+    <hyperlink ref="E468" r:id="rId882" xr:uid="{1FC77B2B-1519-FB49-8BB3-931A5AA62CB1}"/>
+    <hyperlink ref="E470" r:id="rId883" xr:uid="{C390EF3B-04E4-C942-8A86-4A1F3839429D}"/>
+    <hyperlink ref="E475" r:id="rId884" xr:uid="{D1B2386E-CB4B-5843-8109-6A44FE4FC51C}"/>
+    <hyperlink ref="E477" r:id="rId885" xr:uid="{737B0937-C45B-FE4E-8003-721CB4371BF8}"/>
+    <hyperlink ref="E478" r:id="rId886" xr:uid="{4FD7BFA1-F256-874E-9EA5-669580B508B2}"/>
+    <hyperlink ref="E60" r:id="rId887" xr:uid="{C52FB026-5F8B-F843-AA13-BD7ECCABA541}"/>
+    <hyperlink ref="E107" r:id="rId888" xr:uid="{6D7B5BED-036F-264A-ADF5-42A9E8EE8A5B}"/>
+    <hyperlink ref="E114" r:id="rId889" xr:uid="{AAEA7453-D59C-0445-8BFF-6FB9473FE5A7}"/>
+    <hyperlink ref="E115" r:id="rId890" xr:uid="{6CD83E18-381A-824D-B09D-F6EC3496B17B}"/>
+    <hyperlink ref="E65" r:id="rId891" xr:uid="{D4C8B6F9-A3F2-E140-A5F2-8AE06C15FAFE}"/>
+    <hyperlink ref="E66" r:id="rId892" xr:uid="{C0D7293D-92A2-6849-B05E-402194B1C4BC}"/>
+    <hyperlink ref="E70" r:id="rId893" xr:uid="{824689B2-D1C5-BB4C-A843-8D48671E2660}"/>
+    <hyperlink ref="E71" r:id="rId894" xr:uid="{BC84B2BA-41FA-8143-8D1E-16E1CE074210}"/>
+    <hyperlink ref="E72" r:id="rId895" xr:uid="{FD7C5BA0-5E1C-A445-B09E-F2B9518F5C64}"/>
+    <hyperlink ref="I74" r:id="rId896" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="E74" r:id="rId897" xr:uid="{5BB41AEA-1894-DC4D-9093-1F03B9FBBB69}"/>
+    <hyperlink ref="E84" r:id="rId898" xr:uid="{4C5EA57B-20EF-FD41-B4FE-37D83B697B15}"/>
+    <hyperlink ref="E86" r:id="rId899" xr:uid="{75A74513-087E-8F46-9BB4-BF4261FD3ED3}"/>
+    <hyperlink ref="E93" r:id="rId900" xr:uid="{2AAEE7C3-1166-C143-A662-4CBA86A3B00B}"/>
+    <hyperlink ref="I209" r:id="rId901" xr:uid="{80E7CC36-D572-D741-A3CC-1A90990A8F01}"/>
+    <hyperlink ref="E209" r:id="rId902" xr:uid="{9FA4A104-05A6-7A4F-AD7C-607339ABF2A3}"/>
+    <hyperlink ref="E208" r:id="rId903" xr:uid="{68FF83C3-DE26-8B43-91A8-7C8545043FA7}"/>
+    <hyperlink ref="E324" r:id="rId904" xr:uid="{B4CB8467-D298-244E-A413-C6CC70062B35}"/>
+    <hyperlink ref="E406" r:id="rId905" xr:uid="{F9FD3791-0A3C-8540-82C1-3FC3CFE48BA1}"/>
+    <hyperlink ref="C465" r:id="rId906" location="MG-1702-10_63" xr:uid="{00000000-0004-0000-0000-0000FC020000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/indexation-estampes.xlsx
+++ b/indexation-estampes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annepiejus/Documents/Projets:Travaux/MERCURE GALANT/MG ÉDITIONS/mercure-galant-sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100AF09A-67AE-A24D-A1A2-B64C3AD85CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A81C62-A43C-6D4F-9590-25915C9DBA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3840" yWindow="-18600" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -737,7 +737,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7998" uniqueCount="4440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8000" uniqueCount="4443">
   <si>
     <t>Provenance cliché</t>
   </si>
@@ -18765,7 +18765,27 @@
     <t>https://gallica.bnf.fr/ark:/12148/bpt6k9962869?rk=64378;0</t>
   </si>
   <si>
-    <t>Lien vers l'image en ligne (n°s mq MAJ 20250419)</t>
+    <r>
+      <t xml:space="preserve">Lien image Gallica </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(n°s mq au 20250419)</t>
+    </r>
+  </si>
+  <si>
+    <t>https://gallica.bnf.fr/ark:/12148/bpt6k1152975/f176.item</t>
+  </si>
+  <si>
+    <t>https://gallica.bnf.fr/ark:/12148/bpt6k1152975/f345.item</t>
+  </si>
+  <si>
+    <t>https://gallica.bnf.fr/ark:/12148/bpt6k1152975/f377.item</t>
   </si>
 </sst>
 </file>
@@ -20284,7 +20304,7 @@
     <xf numFmtId="0" fontId="95" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="133" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="538">
+  <cellXfs count="539">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -21706,9 +21726,6 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="174" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -21720,6 +21737,12 @@
     </xf>
     <xf numFmtId="0" fontId="175" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="35" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="31" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -21949,9 +21972,9 @@
   </sheetPr>
   <dimension ref="A1:AU681"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D230" sqref="D230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -40564,18 +40587,20 @@
       <c r="B229" s="506" t="s">
         <v>400</v>
       </c>
-      <c r="C229" s="533" t="s">
+      <c r="C229" s="537" t="s">
         <v>4436</v>
       </c>
       <c r="D229" s="508"/>
-      <c r="E229" s="508"/>
+      <c r="E229" s="538" t="s">
+        <v>4442</v>
+      </c>
       <c r="F229" s="509" t="s">
         <v>3884</v>
       </c>
       <c r="G229" s="507"/>
       <c r="H229" s="507"/>
       <c r="I229" s="510" t="s">
-        <v>1030</v>
+        <v>4440</v>
       </c>
       <c r="J229" s="510"/>
       <c r="K229" s="511" t="s">
@@ -40649,12 +40674,14 @@
         <v>1832</v>
       </c>
       <c r="D230" s="524"/>
-      <c r="E230" s="524"/>
+      <c r="E230" s="538" t="s">
+        <v>4442</v>
+      </c>
       <c r="F230" s="525"/>
       <c r="G230" s="525"/>
       <c r="H230" s="525"/>
       <c r="I230" s="510" t="s">
-        <v>1030</v>
+        <v>4441</v>
       </c>
       <c r="J230" s="525" t="s">
         <v>1833</v>
@@ -46616,7 +46643,7 @@
       <c r="B303" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="C303" s="534" t="s">
+      <c r="C303" s="533" t="s">
         <v>4437</v>
       </c>
       <c r="D303" s="83"/>
@@ -46689,7 +46716,7 @@
       <c r="B304" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="C304" s="535" t="s">
+      <c r="C304" s="534" t="s">
         <v>4437</v>
       </c>
       <c r="D304" s="83"/>
@@ -48037,7 +48064,7 @@
       <c r="F320" s="266"/>
       <c r="G320" s="326"/>
       <c r="H320" s="23"/>
-      <c r="I320" s="536"/>
+      <c r="I320" s="535"/>
       <c r="J320" s="23"/>
       <c r="K320" s="40" t="s">
         <v>2490</v>
@@ -48102,7 +48129,7 @@
       <c r="B321" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="C321" s="537" t="s">
+      <c r="C321" s="536" t="s">
         <v>4438</v>
       </c>
       <c r="E321" s="404"/>
@@ -48113,7 +48140,7 @@
         <v>3861</v>
       </c>
       <c r="H321" s="23"/>
-      <c r="I321" s="536"/>
+      <c r="I321" s="535"/>
       <c r="J321" s="23"/>
       <c r="K321" s="108" t="s">
         <v>2494</v>
@@ -72267,10 +72294,13 @@
     <hyperlink ref="I198" r:id="rId908" xr:uid="{E86E46E3-44C8-CD49-B7CE-ABA6745C61EC}"/>
     <hyperlink ref="E198" r:id="rId909" xr:uid="{557FF54D-A9D6-4942-9889-EE76DE3CA3B9}"/>
     <hyperlink ref="D320" r:id="rId910" xr:uid="{2458E3FB-B14E-EA4D-8CC0-A843AA97DF8C}"/>
+    <hyperlink ref="C229" r:id="rId911" xr:uid="{089D9343-AF90-754A-8183-3803EAAF9407}"/>
+    <hyperlink ref="E229" r:id="rId912" xr:uid="{C3290AB0-5479-B74A-9FAC-DE06EA6F38FC}"/>
+    <hyperlink ref="E230" r:id="rId913" xr:uid="{8C79DFBC-E889-4D48-A61A-EE776A7992AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <legacyDrawing r:id="rId911"/>
+  <legacyDrawing r:id="rId914"/>
 </worksheet>
 </file>
 

--- a/indexation-estampes.xlsx
+++ b/indexation-estampes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annepiejus/Documents/Projets:Travaux/MERCURE GALANT/MG ÉDITIONS/mercure-galant-sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796192FE-34E8-B749-9EA7-1BB6E4489F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D85937-009A-6F4F-8AFC-D219F92C3B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -737,7 +737,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8095" uniqueCount="4496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8095" uniqueCount="4497">
   <si>
     <t>Provenance cliché</t>
   </si>
@@ -18907,6 +18907,9 @@
   </si>
   <si>
     <t>https://gallica.bnf.fr/ark:/12148/bpt6k42267730/f383.item</t>
+  </si>
+  <si>
+    <t>https://gallica.bnf.fr/ark:/12148/bpt6k6220794q/f25.item</t>
   </si>
 </sst>
 </file>
@@ -21903,8 +21906,8 @@
   <dimension ref="A1:AU681"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -31593,7 +31596,7 @@
       </c>
       <c r="D118" s="82"/>
       <c r="E118" s="375" t="s">
-        <v>4085</v>
+        <v>4496</v>
       </c>
       <c r="F118" s="94" t="s">
         <v>3881</v>
@@ -31676,7 +31679,7 @@
       </c>
       <c r="D119" s="82"/>
       <c r="E119" s="375" t="s">
-        <v>4085</v>
+        <v>4496</v>
       </c>
       <c r="F119" s="255"/>
       <c r="G119" s="307"/>
@@ -31755,7 +31758,7 @@
       </c>
       <c r="D120" s="82"/>
       <c r="E120" s="375" t="s">
-        <v>4085</v>
+        <v>4496</v>
       </c>
       <c r="F120" s="94" t="s">
         <v>3881</v>

--- a/indexation-estampes.xlsx
+++ b/indexation-estampes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annepiejus/Documents/Projets:Travaux/MERCURE GALANT/MG ÉDITIONS/mercure-galant-sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB6BEBB-5F54-3041-8750-97FA1EC15DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8588E4DC-9FA9-0146-915C-47A1747180A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2480" yWindow="-21100" windowWidth="36580" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -22082,9 +22082,9 @@
   </sheetPr>
   <dimension ref="A1:AU681"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A91" sqref="A91"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A365" sqref="A365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -26282,7 +26282,7 @@
         <v>3694</v>
       </c>
       <c r="D50" s="82"/>
-      <c r="E50" s="370" t="s">
+      <c r="E50" s="389" t="s">
         <v>4328</v>
       </c>
       <c r="F50" s="94" t="s">
@@ -72651,10 +72651,11 @@
     <hyperlink ref="E53" r:id="rId918" xr:uid="{4344EA42-8BBD-E94D-B4E7-01B3D1B8C822}"/>
     <hyperlink ref="E91" r:id="rId919" xr:uid="{50446855-53B1-5C4F-8457-A99935FEE581}"/>
     <hyperlink ref="E92" r:id="rId920" xr:uid="{416C4EF2-4CC5-3849-884C-B02D75133531}"/>
+    <hyperlink ref="E50" r:id="rId921" xr:uid="{68ADBAEC-98DC-C547-AA48-B5A571650DD2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <legacyDrawing r:id="rId921"/>
+  <legacyDrawing r:id="rId922"/>
 </worksheet>
 </file>
 

--- a/indexation-estampes.xlsx
+++ b/indexation-estampes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annepiejus/Documents/Projets:Travaux/MERCURE GALANT/MG ÉDITIONS/mercure-galant-sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411C9DA5-B4E7-B744-BEB9-3B360183A768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9155EE56-F8DD-3B43-918A-390ED314C39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5340" yWindow="-28300" windowWidth="46740" windowHeight="27780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12080" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -763,7 +763,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8033" uniqueCount="4601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8034" uniqueCount="4601">
   <si>
     <t>Provenance cliché</t>
   </si>
@@ -22471,7 +22471,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -24199,7 +24199,9 @@
       <c r="F21" s="246" t="s">
         <v>2036</v>
       </c>
-      <c r="G21" s="486"/>
+      <c r="G21" s="486" t="s">
+        <v>4064</v>
+      </c>
       <c r="H21" s="225"/>
       <c r="I21" s="22" t="s">
         <v>2037</v>
@@ -25289,7 +25291,7 @@
       </c>
       <c r="G34" s="482"/>
       <c r="H34" s="222"/>
-      <c r="I34" s="124" t="s">
+      <c r="I34" s="91" t="s">
         <v>2215</v>
       </c>
       <c r="J34" s="13"/>
@@ -72014,183 +72016,183 @@
     <hyperlink ref="AE447" r:id="rId745" xr:uid="{024EF768-5BB4-EA4B-98D6-E638D5C9AE12}"/>
     <hyperlink ref="AE347" r:id="rId746" xr:uid="{9A551E61-0061-8A4D-A950-ADBAA8591053}"/>
     <hyperlink ref="F20" r:id="rId747" location="MG-1682-12_205" display="Article incomplet : MG-1682-12_205" xr:uid="{3B6D2FBB-EF4A-6648-97DF-C75E9CBBB10F}"/>
-    <hyperlink ref="F21" r:id="rId748" location="MG-1683-10a_143" xr:uid="{AB4F9708-3AA0-4541-A875-54B8CBE5792B}"/>
-    <hyperlink ref="D460" r:id="rId749" location="MG-1681-03e_296" xr:uid="{3064C531-B96F-0741-8EA5-D2EB7828B23D}"/>
-    <hyperlink ref="D311" r:id="rId750" location="MG-1677-09_064" display="https://obtic.huma-num.fr/obvil-web/corpus/mercure-galant/MG-1677-09 - MG-1677-09_064" xr:uid="{A4376FAC-2EF2-7B42-A2CF-D3B15736EF2D}"/>
-    <hyperlink ref="C338" r:id="rId751" location="MG-1681-03_63" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="C468" r:id="rId752" location="MG-1681-03e_167b" display="https://obvil.sorbonne-universite.fr/corpus/mercure-galant/MG-1681-03e - MG-1681-03e_167b" xr:uid="{4393B59E-046A-384C-A094-4F2F791C68D4}"/>
-    <hyperlink ref="C422" r:id="rId753" location="MG-1681-12_281a" display="https://obvil.sorbonne-universite.fr/corpus/mercure-galant/MG-1681-12 - MG-1681-12_281a" xr:uid="{E1DA8D89-8E22-E945-A0E3-A111AA83F237}"/>
-    <hyperlink ref="C328" r:id="rId754" location="MG-1688-12a_131" display="https://obtic.huma-num.fr/obvil-web/corpus/mercure-galant/MG-1688-12a - MG-1688-12a_131" xr:uid="{5E04A85B-D575-EE48-A9EA-AB33AE827368}"/>
-    <hyperlink ref="C372" r:id="rId755" location="MG-1692-01a_288" display="https://obvil.sorbonne-universite.fr/corpus/mercure-galant/MG-1692-01a - MG-1692-01a_288" xr:uid="{0F71F014-6E19-6A4F-A743-442D995AD4EC}"/>
-    <hyperlink ref="C400" r:id="rId756" location="MG-1687-09a_270" display="https://obtic.huma-num.fr/obvil-web/corpus/mercure-galant/MG-1687-09a - MG-1687-09a_270" xr:uid="{0484B1E7-D76A-C74C-9F8B-F68FAE48BD83}"/>
-    <hyperlink ref="C384" r:id="rId757" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/2ac47326-83f2-4843-b6bb-1ad4de096477" xr:uid="{9709AFCD-FFD3-4940-83DC-CBF60A1FDE67}"/>
-    <hyperlink ref="C474" r:id="rId758" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/54fc6e16-7976-452f-94fe-5f7372175875" xr:uid="{C6DE1C41-9730-1848-B30C-41702C6E3BA0}"/>
-    <hyperlink ref="C310" r:id="rId759" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/58efc1f0-d85d-4581-99e3-f63c1bfb5670" xr:uid="{FCD9C72E-6BA3-5946-BD33-DA5B15CF2BD5}"/>
-    <hyperlink ref="C311" r:id="rId760" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/7966c0b3-acb5-4260-aac8-c951bb1c7f93" xr:uid="{1A9821A0-5891-1640-B388-85F8F7C9BF1D}"/>
-    <hyperlink ref="C475" r:id="rId761" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/9b8fc2de-e97f-419e-ad90-3cdcb4d823a4" xr:uid="{A2381389-4175-844C-AA1F-981B392272EE}"/>
-    <hyperlink ref="C442" r:id="rId762" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/6005bece-bf75-49a1-96f4-7ebe647cbe3f" xr:uid="{6F494336-ABF7-454F-881E-20AF7CD620DC}"/>
-    <hyperlink ref="C443" r:id="rId763" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/6005bece-bf75-49a1-96f4-7ebe647cbe3f" xr:uid="{51656F72-3CB2-D24B-BF33-1FA35F919D99}"/>
-    <hyperlink ref="C444" r:id="rId764" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/84a01626-7ca3-426e-8a6c-12cbf487c574" xr:uid="{7C96A1F5-BD5D-3B42-BADC-AFEF8FDA223A}"/>
-    <hyperlink ref="C445" r:id="rId765" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/84a01626-7ca3-426e-8a6c-12cbf487c574" xr:uid="{79697E3A-6AC4-304A-96D4-43AD9C05FD62}"/>
-    <hyperlink ref="C446" r:id="rId766" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/05e08d23-c011-4ad2-8238-6db718d1e156" xr:uid="{AD313050-3D8D-6942-89AA-8954918016E2}"/>
-    <hyperlink ref="C447" r:id="rId767" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/05e08d23-c011-4ad2-8238-6db718d1e156" xr:uid="{B019E70A-0717-2E4D-BF9E-44AE27B210DA}"/>
-    <hyperlink ref="C472" r:id="rId768" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/d33b915c-2ac7-4b3d-bee2-ecc64753b50e" xr:uid="{B06504CF-23DC-964A-B3B9-AF296A0DE5F2}"/>
-    <hyperlink ref="C314" r:id="rId769" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/36ccf529-07d6-41a0-8f23-0087228cb823" xr:uid="{56B2C8C9-9922-E246-92D0-F616B3D08F13}"/>
-    <hyperlink ref="C315" r:id="rId770" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/36ccf529-07d6-41a0-8f23-0087228cb823" xr:uid="{D5CBEC56-1DD3-B549-A32B-BDDCEBE271DF}"/>
-    <hyperlink ref="C142" r:id="rId771" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/c06c8f60-3cc3-4f4a-bfb6-d52aa732c792" xr:uid="{81A494C0-0763-8F49-B105-F445BE241662}"/>
-    <hyperlink ref="C395" r:id="rId772" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/facfdba7-44d5-4824-b87f-44e24b97a82b" xr:uid="{EACA6EDA-2209-F14E-9102-2D5A355E153E}"/>
-    <hyperlink ref="C362" r:id="rId773" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/70fe0214-4e3d-44e1-bb04-875c39924a63" xr:uid="{9B94457D-31CE-3240-9C3A-62C34DFB3964}"/>
-    <hyperlink ref="C416" r:id="rId774" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/6e6fdf8a-855f-4058-95d9-bff28df8774d" xr:uid="{9C640852-46F5-1C47-B36B-70C2C70DDA1C}"/>
-    <hyperlink ref="C363" r:id="rId775" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/4bb7b619-8324-43e8-8995-c7aa4ab95c67" xr:uid="{E85B4E5F-44BF-F443-BC22-DE9E0578CC44}"/>
-    <hyperlink ref="C364" r:id="rId776" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/3e58a58a-4d88-497a-b7a7-a0f6053c53f3" xr:uid="{C24576AA-07CD-1F4A-A4B1-5A745145771C}"/>
-    <hyperlink ref="C365" r:id="rId777" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/cbcd9a22-ff00-4541-babb-8d49aac69b4e" xr:uid="{2710BF76-9A5D-8F47-85E4-853B4BC8957A}"/>
-    <hyperlink ref="C380" r:id="rId778" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/7eda1b7b-5e1c-4c97-a764-28a6c0abb372" xr:uid="{2DB796AE-01EF-F645-B2E0-E6DF949B8BEA}"/>
-    <hyperlink ref="C399" r:id="rId779" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/b675407a-2330-4e6a-939d-8786cbdc78a7" xr:uid="{7FAF1CF5-272D-5A47-A77B-0C17C02FE68C}"/>
-    <hyperlink ref="C393" r:id="rId780" display="https://data-iremus.huma-num.fr/sherlock/mercure-galant/livraison/1679-09" xr:uid="{63D2B64B-FDA1-9C46-B1A4-A37C6FBF023E}"/>
-    <hyperlink ref="C346" r:id="rId781" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/d609cd3e-9437-42ba-92d3-de7e5000e442" xr:uid="{6742BE8C-0F6F-A14D-AC0A-812506BF823D}"/>
-    <hyperlink ref="C408" r:id="rId782" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/9a39e0ad-3016-4b8b-9a06-34c1cc913de6" xr:uid="{96A37A67-8F14-8349-974B-647D91B6A4A5}"/>
-    <hyperlink ref="C466" r:id="rId783" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/756e638c-3c71-4faa-8757-215d05dddc16" xr:uid="{A7976994-27FF-E74E-B897-F3AF28B0E4EA}"/>
-    <hyperlink ref="C323" r:id="rId784" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/c322d217-5176-413b-95fc-a1dc07f88984" xr:uid="{84B78F08-4778-3F41-9FA3-C67B6E8BDEDF}"/>
-    <hyperlink ref="C457" r:id="rId785" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/8f804528-9e00-48da-9844-8be1ffa6e0bd" xr:uid="{34F0F940-759F-1E48-9406-758C867AE6A7}"/>
-    <hyperlink ref="C467" r:id="rId786" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/40cd7d44-e325-4dfd-92a2-1be268439897" xr:uid="{EF824A5C-6A0B-EF4C-BC95-38515DB50488}"/>
-    <hyperlink ref="C370" r:id="rId787" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/a09ffd10-a8a2-4333-adc5-d53d5d2100fd" xr:uid="{A9ADFF14-EED9-AB45-8C3C-44310F2FEF8A}"/>
-    <hyperlink ref="C421" r:id="rId788" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/3051a8e8-f045-439a-a5c4-4a04a00df643" xr:uid="{8CB50D67-D967-4441-A9AA-23A2D9BD62BC}"/>
-    <hyperlink ref="C394" r:id="rId789" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/80fbe8b2-b387-444a-979e-72cbe0272967" xr:uid="{147E1567-F9FF-AC4A-827D-29A91B69758E}"/>
-    <hyperlink ref="C344" r:id="rId790" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/5cfb32c6-7bfe-497d-95f1-d4bb1f2e3e0f" xr:uid="{AA6CE0C8-F2AC-F24E-AC4A-AEB93539B83B}"/>
-    <hyperlink ref="C20" r:id="rId791" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/61970020-e76a-4561-ab69-d6c7c9f75f66" xr:uid="{B2CFB129-D4DE-E541-B9AF-BD856DC17CE8}"/>
-    <hyperlink ref="C308" r:id="rId792" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/ac095890-e699-4a20-afab-e32598a100a2" xr:uid="{11D0370E-FAF5-0147-9A23-1461757E03F7}"/>
-    <hyperlink ref="C367" r:id="rId793" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/1aa2235d-c539-44e2-9209-ec091e148a35" xr:uid="{E5A1CE61-44BA-F744-884B-AC6D4EA34AEE}"/>
-    <hyperlink ref="C480" r:id="rId794" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/1291c712-2196-4780-b876-b103312a88f4" xr:uid="{C25F586D-173D-D849-9A44-3DF3A44F3CCE}"/>
-    <hyperlink ref="C21" r:id="rId795" display="https://data-iremus.huma-num.fr/sherlock/mercure-galant/livraison/1683-10a" xr:uid="{AEE7631D-FB23-0B41-B3EB-59E5D3C0CF83}"/>
-    <hyperlink ref="C298" r:id="rId796" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/876ef960-aa4d-4d4f-9e4d-34d7ef4cb841" xr:uid="{5BA4E65F-B8E6-4743-AD08-FDED735A2320}"/>
-    <hyperlink ref="C297" r:id="rId797" display="applewebdata://C4DC52DE-9392-407C-8816-9A3EE8DA2D65/1683-10b_324" xr:uid="{D07A8D1D-A3A2-864C-950A-D93D7E24AF8C}"/>
-    <hyperlink ref="C302" r:id="rId798" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/65f7e0b4-6ed9-4aab-8309-82bf45b6f955" xr:uid="{97DE68B0-6E8A-234D-A2B5-11DD04EC47FE}"/>
-    <hyperlink ref="C473" r:id="rId799" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/654349d9-39b9-4ba6-a2c1-fcff211bfaed" xr:uid="{2CF2B85F-F790-5943-A229-2947B554C8C8}"/>
-    <hyperlink ref="C407" r:id="rId800" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/aa5820b5-01e0-4915-8c87-6d1f2b338ee3" xr:uid="{9A9F5373-105B-F745-B2B4-722DC16D6F68}"/>
-    <hyperlink ref="C357" r:id="rId801" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/271a1520-68c2-41fb-b21b-b6ddc86cc70b" xr:uid="{B30EAF68-30EC-4A41-8D56-D986A5E5A39B}"/>
-    <hyperlink ref="C361" r:id="rId802" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/11d6e014-1b9c-4c82-b73d-f492abae623b" xr:uid="{0152CF40-BE5D-B542-A90F-7B18EF4403B9}"/>
-    <hyperlink ref="C368" r:id="rId803" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/a520501e-7322-44c8-8169-9b8bbaca16ff" xr:uid="{2DC9F757-1559-014B-AFC5-AE354252DC9B}"/>
-    <hyperlink ref="C62" r:id="rId804" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/3da1ac86-2765-4670-8f04-a217ad09834d" xr:uid="{EE9486FE-B473-D34C-84B1-36CEB8CFCD3D}"/>
-    <hyperlink ref="C23" r:id="rId805" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/c07851e7-4aa2-4a92-b452-fab9923dafcd" xr:uid="{9BFF6FC4-6337-6947-9236-14796FC24961}"/>
-    <hyperlink ref="C388" r:id="rId806" location="MG-1687-01a_158" xr:uid="{66509003-0653-9E4C-815F-2CEF88BD9864}"/>
-    <hyperlink ref="C383" r:id="rId807" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/de367aae-6a1d-4e19-a85f-a1e580c36a6b" xr:uid="{877DF50A-4606-2F41-9BA1-516200C51A5D}"/>
-    <hyperlink ref="C350" r:id="rId808" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/4eabda65-6ad3-44f7-b2a4-78826372483c" xr:uid="{71FFFE63-7C13-F145-9BAC-68FA202A4E26}"/>
-    <hyperlink ref="C403" r:id="rId809" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/899815eb-f9d6-4cd2-a13e-4477b3a98aea" xr:uid="{BA1EB6F3-1E03-F944-A8DE-1B5246FC60C4}"/>
-    <hyperlink ref="D283" r:id="rId810" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/d24fcfce-e724-4895-8d4e-2a742ad55788" xr:uid="{21DEABB8-CF42-2B4C-AFC0-89FA60D27C5B}"/>
-    <hyperlink ref="C409" r:id="rId811" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/3229998b-e79c-4e86-b6cf-f3e68bde2846" xr:uid="{3EB50DE5-2F11-8C46-9620-2D93342ADB2B}"/>
-    <hyperlink ref="C369" r:id="rId812" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/b992c9a8-2827-4fbc-9b97-b1abe6ba220f" xr:uid="{CE6B1369-7A30-C043-B5A3-88553DE52098}"/>
-    <hyperlink ref="C398" r:id="rId813" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/dee855fd-e3cc-45c3-ab0f-1640170626f0" xr:uid="{5412A03D-E78D-DB43-86D0-699EB4F5FA09}"/>
-    <hyperlink ref="I106" r:id="rId814" xr:uid="{93151C59-D5DA-2547-9183-ACD09FB68EF8}"/>
-    <hyperlink ref="C390" r:id="rId815" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/35502ef1-e217-43d2-b5c0-75b80bbf4281" xr:uid="{153C1258-77EB-FC49-A0EB-EB611DBE833B}"/>
-    <hyperlink ref="C320" r:id="rId816" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/5eb7d3db-6e36-4139-9103-861e8332962d" xr:uid="{926A2DCD-ED46-1C46-A084-B52B6F253539}"/>
-    <hyperlink ref="C321" r:id="rId817" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/53833720-ea53-4005-a08e-a92527e4a996" xr:uid="{AAF39A9D-C046-D544-A369-91A5A06F18E4}"/>
-    <hyperlink ref="C324" r:id="rId818" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/c13c3940-2c71-4cb9-a3f2-97111ba42176" xr:uid="{CFA3D566-FD89-7E41-90CA-44DB3C0CC1AE}"/>
-    <hyperlink ref="C44" r:id="rId819" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/4b8acf96-9293-43b2-b86e-032b15ad8f4f" xr:uid="{1A00293E-5E4D-104C-9213-873C7B33B663}"/>
-    <hyperlink ref="C358" r:id="rId820" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/e89dc9fd-ab88-4540-9757-dbba8312a1f5" xr:uid="{A34EF62C-679A-6B4C-913B-C2C48A6FD5A4}"/>
-    <hyperlink ref="C313" r:id="rId821" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/0b540dd2-194c-4d76-ab41-bb265237814a" xr:uid="{F18F6E01-2613-D648-B9CA-8DA6DD29A89C}"/>
-    <hyperlink ref="C3" r:id="rId822" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/1bfdedfc-7851-4752-bb88-3a5f1ee938d7" xr:uid="{86CE263A-3964-C645-B08D-AAF0D79F75A8}"/>
-    <hyperlink ref="I280" r:id="rId823" xr:uid="{0D35BAC9-B6D0-A543-A556-5AA325F133B3}"/>
-    <hyperlink ref="I36" r:id="rId824" xr:uid="{5FA3E753-415E-2041-9990-E54AEEFDF8C6}"/>
-    <hyperlink ref="I200" r:id="rId825" xr:uid="{FCC122BD-2714-5B40-93E9-CDDDBB3A1FE4}"/>
-    <hyperlink ref="C66" r:id="rId826" display="https://data-iremus.huma-num.fr/sherlock/mercure-galant/livraison/1683-10a" xr:uid="{E9545DC6-A469-4B40-9DAA-547CDE7E9DF2}"/>
-    <hyperlink ref="E217" r:id="rId827" xr:uid="{9C1B49C3-A242-2F44-B2C1-04C6CDBAA1FB}"/>
-    <hyperlink ref="E218" r:id="rId828" xr:uid="{368C33B5-B50C-B242-B59A-094C4C030462}"/>
-    <hyperlink ref="E80" r:id="rId829" xr:uid="{269C510D-0429-1248-A9A7-A87B939A53BE}"/>
-    <hyperlink ref="I307" r:id="rId830" xr:uid="{89A798F5-821F-D943-A11A-0B0BBAC85342}"/>
-    <hyperlink ref="E219" r:id="rId831" xr:uid="{5FF0C75A-D08D-7543-89EC-736FE5FEC476}"/>
-    <hyperlink ref="E34" r:id="rId832" xr:uid="{51B51063-B9B3-5A40-B317-9F918C8386C0}"/>
-    <hyperlink ref="E294" r:id="rId833" xr:uid="{7879A012-3E0F-B740-BE8C-D8B3D757139A}"/>
-    <hyperlink ref="E221" r:id="rId834" xr:uid="{0FFB7FD9-17EA-4540-98EF-C4257DA5D552}"/>
-    <hyperlink ref="E281" r:id="rId835" xr:uid="{50EB68F6-3193-4543-9960-EDE8DB7D8ACC}"/>
-    <hyperlink ref="E319" r:id="rId836" xr:uid="{1CBA51B4-5D50-2448-9802-EDB065D72CFC}"/>
-    <hyperlink ref="E118" r:id="rId837" xr:uid="{E8BFCEC0-446A-AF44-89A7-49A5AF7E17BE}"/>
-    <hyperlink ref="I293" r:id="rId838" xr:uid="{45C62FD9-2AE9-AC49-9E91-982469B80DF1}"/>
-    <hyperlink ref="E59" r:id="rId839" xr:uid="{B5CD030C-FFDB-9148-83DB-DE426EB12F83}"/>
-    <hyperlink ref="E28" r:id="rId840" xr:uid="{18C2AF43-D6A1-4745-B808-B328CBAB2EC5}"/>
-    <hyperlink ref="E109" r:id="rId841" xr:uid="{B9F11DFC-0164-4D41-9A75-EA7FB166587E}"/>
-    <hyperlink ref="E136" r:id="rId842" xr:uid="{EE0AA50F-CB76-A041-BA3E-7E788247A620}"/>
-    <hyperlink ref="E280" r:id="rId843" xr:uid="{7A3C004B-1455-F249-B133-6BA5847D6787}"/>
-    <hyperlink ref="E224" r:id="rId844" xr:uid="{5CCF7C0D-4AC2-0042-B1CE-2477EA789CCB}"/>
-    <hyperlink ref="E6" r:id="rId845" xr:uid="{D88929E3-FA0E-264B-99F9-520E5844C4E2}"/>
-    <hyperlink ref="E289" r:id="rId846" xr:uid="{EAFF719B-289A-3E45-BDAB-A9E648590164}"/>
-    <hyperlink ref="E130" r:id="rId847" xr:uid="{64D69931-C571-D543-8040-788EFB1B3430}"/>
-    <hyperlink ref="E16" r:id="rId848" xr:uid="{274418EB-7D64-7B4B-AEA9-A3852E96A346}"/>
-    <hyperlink ref="E258" r:id="rId849" xr:uid="{E46B718E-BD08-C348-90B5-4183A7AFEF2A}"/>
-    <hyperlink ref="E283" r:id="rId850" xr:uid="{73221B59-D280-B744-8599-CCA8DD7A5288}"/>
-    <hyperlink ref="I234" r:id="rId851" xr:uid="{99528BAC-25AF-3645-95E0-18B5F63BB1D7}"/>
-    <hyperlink ref="E234" r:id="rId852" xr:uid="{D6702C24-E8E3-B545-B02E-B6C2D0860F36}"/>
-    <hyperlink ref="E392" r:id="rId853" xr:uid="{D3DA6CB9-36B8-B849-B8A3-C38A5370CCC2}"/>
-    <hyperlink ref="E172" r:id="rId854" xr:uid="{135FBA24-35F8-6147-B8A7-0F2F362EB396}"/>
-    <hyperlink ref="E277" r:id="rId855" xr:uid="{C437DDB5-0975-0E41-A394-836188BDB6CF}"/>
-    <hyperlink ref="E145" r:id="rId856" xr:uid="{22B460F7-E695-4940-8A5B-21E7DA87D1B5}"/>
-    <hyperlink ref="E104" r:id="rId857" xr:uid="{97A0D0AB-56B0-2E48-A379-8E023B3BB0EF}"/>
-    <hyperlink ref="E290" r:id="rId858" xr:uid="{CA1DE4B3-5277-5444-9AEF-252090FD07D4}"/>
-    <hyperlink ref="E42" r:id="rId859" xr:uid="{CB631B08-20A5-E44B-9BDF-E5F06B467B8B}"/>
-    <hyperlink ref="E175" r:id="rId860" xr:uid="{EBCB88AC-DBE3-8B4A-AE8A-9663AD35C2BA}"/>
-    <hyperlink ref="E31" r:id="rId861" xr:uid="{6DAE1B50-7383-144C-AB9A-C7440B89354E}"/>
-    <hyperlink ref="E236" r:id="rId862" xr:uid="{E390E808-2214-794A-9EC1-40B94B39A5D8}"/>
-    <hyperlink ref="E43" r:id="rId863" xr:uid="{9F6A8B52-4F74-E343-A0DB-D11C81AE8EE0}"/>
-    <hyperlink ref="E186" r:id="rId864" xr:uid="{0AEEDC94-9CBF-D144-8E52-DF195159FDA2}"/>
-    <hyperlink ref="I291" r:id="rId865" xr:uid="{67A0EACD-A33F-4F46-A127-1E30497E310C}"/>
-    <hyperlink ref="E257" r:id="rId866" xr:uid="{514E6EFF-8C68-B747-8A3A-A449CEC64DD5}"/>
-    <hyperlink ref="E276" r:id="rId867" xr:uid="{258B7BA3-8130-CB4F-ABA7-D4B01867E5C9}"/>
-    <hyperlink ref="I286" r:id="rId868" xr:uid="{35A29F48-1614-574C-AD6D-06B4E882F8AD}"/>
-    <hyperlink ref="E286" r:id="rId869" xr:uid="{93360EC8-185F-9D42-8735-2A25E107A2F2}"/>
-    <hyperlink ref="E250" r:id="rId870" xr:uid="{893FC51F-BEF1-4D4A-9C6C-1219A8874439}"/>
-    <hyperlink ref="E97" r:id="rId871" xr:uid="{FB71877D-E657-2246-8150-09B81732344E}"/>
-    <hyperlink ref="E165" r:id="rId872" xr:uid="{897B2C30-5CB6-A348-AB56-53350BC3E592}"/>
-    <hyperlink ref="E263" r:id="rId873" xr:uid="{09947A59-63CA-7A49-AED9-4AC5FF336DD0}"/>
-    <hyperlink ref="E274" r:id="rId874" xr:uid="{1FC77B2B-1519-FB49-8BB3-931A5AA62CB1}"/>
-    <hyperlink ref="E166" r:id="rId875" xr:uid="{C390EF3B-04E4-C942-8A86-4A1F3839429D}"/>
-    <hyperlink ref="E296" r:id="rId876" xr:uid="{D1B2386E-CB4B-5843-8109-6A44FE4FC51C}"/>
-    <hyperlink ref="E244" r:id="rId877" xr:uid="{737B0937-C45B-FE4E-8003-721CB4371BF8}"/>
-    <hyperlink ref="E245" r:id="rId878" xr:uid="{4FD7BFA1-F256-874E-9EA5-669580B508B2}"/>
-    <hyperlink ref="E411" r:id="rId879" xr:uid="{C52FB026-5F8B-F843-AA13-BD7ECCABA541}"/>
-    <hyperlink ref="E448" r:id="rId880" xr:uid="{6D7B5BED-036F-264A-ADF5-42A9E8EE8A5B}"/>
-    <hyperlink ref="E408" r:id="rId881" xr:uid="{AAEA7453-D59C-0445-8BFF-6FB9473FE5A7}"/>
-    <hyperlink ref="E10" r:id="rId882" xr:uid="{6CD83E18-381A-824D-B09D-F6EC3496B17B}"/>
-    <hyperlink ref="E67" r:id="rId883" xr:uid="{D4C8B6F9-A3F2-E140-A5F2-8AE06C15FAFE}"/>
-    <hyperlink ref="E432" r:id="rId884" xr:uid="{C0D7293D-92A2-6849-B05E-402194B1C4BC}"/>
-    <hyperlink ref="E352" r:id="rId885" xr:uid="{824689B2-D1C5-BB4C-A843-8D48671E2660}"/>
-    <hyperlink ref="E54" r:id="rId886" xr:uid="{BC84B2BA-41FA-8143-8D1E-16E1CE074210}"/>
-    <hyperlink ref="E433" r:id="rId887" xr:uid="{FD7C5BA0-5E1C-A445-B09E-F2B9518F5C64}"/>
-    <hyperlink ref="I329" r:id="rId888" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="E329" r:id="rId889" xr:uid="{5BB41AEA-1894-DC4D-9093-1F03B9FBBB69}"/>
-    <hyperlink ref="E300" r:id="rId890" xr:uid="{4C5EA57B-20EF-FD41-B4FE-37D83B697B15}"/>
-    <hyperlink ref="E353" r:id="rId891" xr:uid="{75A74513-087E-8F46-9BB4-BF4261FD3ED3}"/>
-    <hyperlink ref="E379" r:id="rId892" xr:uid="{2AAEE7C3-1166-C143-A662-4CBA86A3B00B}"/>
-    <hyperlink ref="I195" r:id="rId893" xr:uid="{80E7CC36-D572-D741-A3CC-1A90990A8F01}"/>
-    <hyperlink ref="E195" r:id="rId894" xr:uid="{9FA4A104-05A6-7A4F-AD7C-607339ABF2A3}"/>
-    <hyperlink ref="E394" r:id="rId895" xr:uid="{68FF83C3-DE26-8B43-91A8-7C8545043FA7}"/>
-    <hyperlink ref="E197" r:id="rId896" xr:uid="{B4CB8467-D298-244E-A413-C6CC70062B35}"/>
-    <hyperlink ref="E99" r:id="rId897" xr:uid="{F9FD3791-0A3C-8540-82C1-3FC3CFE48BA1}"/>
-    <hyperlink ref="C101" r:id="rId898" location="MG-1702-10_63" xr:uid="{00000000-0004-0000-0000-0000FC020000}"/>
-    <hyperlink ref="I16" r:id="rId899" xr:uid="{E09C30B3-9019-8146-B01C-DFA23FAF5C71}"/>
-    <hyperlink ref="I230" r:id="rId900" xr:uid="{E86E46E3-44C8-CD49-B7CE-ABA6745C61EC}"/>
-    <hyperlink ref="E230" r:id="rId901" xr:uid="{557FF54D-A9D6-4942-9889-EE76DE3CA3B9}"/>
-    <hyperlink ref="D335" r:id="rId902" xr:uid="{2458E3FB-B14E-EA4D-8CC0-A843AA97DF8C}"/>
-    <hyperlink ref="E212" r:id="rId903" xr:uid="{C3290AB0-5479-B74A-9FAC-DE06EA6F38FC}"/>
-    <hyperlink ref="E441" r:id="rId904" xr:uid="{8C79DFBC-E889-4D48-A61A-EE776A7992AD}"/>
-    <hyperlink ref="E366" r:id="rId905" xr:uid="{FB2BB97E-5CE6-1642-8EF1-C04F699C0F28}"/>
-    <hyperlink ref="E191" r:id="rId906" xr:uid="{2DD39C3C-3CD4-9246-90BC-A7B77E306762}"/>
-    <hyperlink ref="E140" r:id="rId907" xr:uid="{5DFF724F-C1FC-8448-A3AD-E8F9533FF750}"/>
-    <hyperlink ref="E419" r:id="rId908" xr:uid="{C1A54ED6-3FF7-D245-9B0B-14F92BDE556A}"/>
-    <hyperlink ref="I212" r:id="rId909" xr:uid="{0F7F160D-55E9-0747-906D-A6883A3F8D03}"/>
-    <hyperlink ref="I447" r:id="rId910" xr:uid="{5A167C83-D012-8947-B19F-63CAF8D95368}"/>
-    <hyperlink ref="E7" r:id="rId911" xr:uid="{F73830FF-CD7B-6947-AE02-54312B84AFDD}"/>
-    <hyperlink ref="E305" r:id="rId912" xr:uid="{4344EA42-8BBD-E94D-B4E7-01B3D1B8C822}"/>
-    <hyperlink ref="E435" r:id="rId913" xr:uid="{50446855-53B1-5C4F-8457-A99935FEE581}"/>
-    <hyperlink ref="E143" r:id="rId914" xr:uid="{416C4EF2-4CC5-3849-884C-B02D75133531}"/>
-    <hyperlink ref="E209" r:id="rId915" xr:uid="{68ADBAEC-98DC-C547-AA48-B5A571650DD2}"/>
-    <hyperlink ref="C303" r:id="rId916" location="MG-1678-04_306" xr:uid="{71D2089E-180E-2449-9F7B-E38BD32BA61B}"/>
-    <hyperlink ref="E307" r:id="rId917" xr:uid="{3DA721D4-A8F4-684A-B4B1-25C66DDE1CC6}"/>
-    <hyperlink ref="E247" r:id="rId918" xr:uid="{F2FE9404-1CB0-2342-9AD1-51A03048E923}"/>
-    <hyperlink ref="C306" r:id="rId919" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/7ffbcad6-daa8-4a46-9300-49d3a5dbb3f5" xr:uid="{713C80B7-2FA0-6747-9AE1-15F990E963C2}"/>
-    <hyperlink ref="E310" r:id="rId920" xr:uid="{B6F2AAD5-848F-A34D-931A-ED5B8923F4EF}"/>
-    <hyperlink ref="E318" r:id="rId921" xr:uid="{4CD7A26B-015C-F44E-BC58-3E6E3CC2F39C}"/>
-    <hyperlink ref="D318" r:id="rId922" location="MG-1679-10b_043" display="MG-1679-10b_043" xr:uid="{797768B4-9A08-D141-AEAF-E139BCFFC17E}"/>
-    <hyperlink ref="E4" r:id="rId923" xr:uid="{E86D308F-3395-F040-A335-55D1D28C9BB4}"/>
-    <hyperlink ref="E5" r:id="rId924" xr:uid="{98F6F27E-FDC9-2B49-8C3B-309F3B06CD26}"/>
+    <hyperlink ref="D460" r:id="rId748" location="MG-1681-03e_296" xr:uid="{3064C531-B96F-0741-8EA5-D2EB7828B23D}"/>
+    <hyperlink ref="D311" r:id="rId749" location="MG-1677-09_064" display="https://obtic.huma-num.fr/obvil-web/corpus/mercure-galant/MG-1677-09 - MG-1677-09_064" xr:uid="{A4376FAC-2EF2-7B42-A2CF-D3B15736EF2D}"/>
+    <hyperlink ref="C338" r:id="rId750" location="MG-1681-03_63" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="C468" r:id="rId751" location="MG-1681-03e_167b" display="https://obvil.sorbonne-universite.fr/corpus/mercure-galant/MG-1681-03e - MG-1681-03e_167b" xr:uid="{4393B59E-046A-384C-A094-4F2F791C68D4}"/>
+    <hyperlink ref="C422" r:id="rId752" location="MG-1681-12_281a" display="https://obvil.sorbonne-universite.fr/corpus/mercure-galant/MG-1681-12 - MG-1681-12_281a" xr:uid="{E1DA8D89-8E22-E945-A0E3-A111AA83F237}"/>
+    <hyperlink ref="C328" r:id="rId753" location="MG-1688-12a_131" display="https://obtic.huma-num.fr/obvil-web/corpus/mercure-galant/MG-1688-12a - MG-1688-12a_131" xr:uid="{5E04A85B-D575-EE48-A9EA-AB33AE827368}"/>
+    <hyperlink ref="C372" r:id="rId754" location="MG-1692-01a_288" display="https://obvil.sorbonne-universite.fr/corpus/mercure-galant/MG-1692-01a - MG-1692-01a_288" xr:uid="{0F71F014-6E19-6A4F-A743-442D995AD4EC}"/>
+    <hyperlink ref="C400" r:id="rId755" location="MG-1687-09a_270" display="https://obtic.huma-num.fr/obvil-web/corpus/mercure-galant/MG-1687-09a - MG-1687-09a_270" xr:uid="{0484B1E7-D76A-C74C-9F8B-F68FAE48BD83}"/>
+    <hyperlink ref="C384" r:id="rId756" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/2ac47326-83f2-4843-b6bb-1ad4de096477" xr:uid="{9709AFCD-FFD3-4940-83DC-CBF60A1FDE67}"/>
+    <hyperlink ref="C474" r:id="rId757" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/54fc6e16-7976-452f-94fe-5f7372175875" xr:uid="{C6DE1C41-9730-1848-B30C-41702C6E3BA0}"/>
+    <hyperlink ref="C310" r:id="rId758" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/58efc1f0-d85d-4581-99e3-f63c1bfb5670" xr:uid="{FCD9C72E-6BA3-5946-BD33-DA5B15CF2BD5}"/>
+    <hyperlink ref="C311" r:id="rId759" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/7966c0b3-acb5-4260-aac8-c951bb1c7f93" xr:uid="{1A9821A0-5891-1640-B388-85F8F7C9BF1D}"/>
+    <hyperlink ref="C475" r:id="rId760" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/9b8fc2de-e97f-419e-ad90-3cdcb4d823a4" xr:uid="{A2381389-4175-844C-AA1F-981B392272EE}"/>
+    <hyperlink ref="C442" r:id="rId761" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/6005bece-bf75-49a1-96f4-7ebe647cbe3f" xr:uid="{6F494336-ABF7-454F-881E-20AF7CD620DC}"/>
+    <hyperlink ref="C443" r:id="rId762" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/6005bece-bf75-49a1-96f4-7ebe647cbe3f" xr:uid="{51656F72-3CB2-D24B-BF33-1FA35F919D99}"/>
+    <hyperlink ref="C444" r:id="rId763" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/84a01626-7ca3-426e-8a6c-12cbf487c574" xr:uid="{7C96A1F5-BD5D-3B42-BADC-AFEF8FDA223A}"/>
+    <hyperlink ref="C445" r:id="rId764" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/84a01626-7ca3-426e-8a6c-12cbf487c574" xr:uid="{79697E3A-6AC4-304A-96D4-43AD9C05FD62}"/>
+    <hyperlink ref="C446" r:id="rId765" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/05e08d23-c011-4ad2-8238-6db718d1e156" xr:uid="{AD313050-3D8D-6942-89AA-8954918016E2}"/>
+    <hyperlink ref="C447" r:id="rId766" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/05e08d23-c011-4ad2-8238-6db718d1e156" xr:uid="{B019E70A-0717-2E4D-BF9E-44AE27B210DA}"/>
+    <hyperlink ref="C472" r:id="rId767" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/d33b915c-2ac7-4b3d-bee2-ecc64753b50e" xr:uid="{B06504CF-23DC-964A-B3B9-AF296A0DE5F2}"/>
+    <hyperlink ref="C314" r:id="rId768" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/36ccf529-07d6-41a0-8f23-0087228cb823" xr:uid="{56B2C8C9-9922-E246-92D0-F616B3D08F13}"/>
+    <hyperlink ref="C315" r:id="rId769" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/36ccf529-07d6-41a0-8f23-0087228cb823" xr:uid="{D5CBEC56-1DD3-B549-A32B-BDDCEBE271DF}"/>
+    <hyperlink ref="C142" r:id="rId770" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/c06c8f60-3cc3-4f4a-bfb6-d52aa732c792" xr:uid="{81A494C0-0763-8F49-B105-F445BE241662}"/>
+    <hyperlink ref="C395" r:id="rId771" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/facfdba7-44d5-4824-b87f-44e24b97a82b" xr:uid="{EACA6EDA-2209-F14E-9102-2D5A355E153E}"/>
+    <hyperlink ref="C362" r:id="rId772" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/70fe0214-4e3d-44e1-bb04-875c39924a63" xr:uid="{9B94457D-31CE-3240-9C3A-62C34DFB3964}"/>
+    <hyperlink ref="C416" r:id="rId773" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/6e6fdf8a-855f-4058-95d9-bff28df8774d" xr:uid="{9C640852-46F5-1C47-B36B-70C2C70DDA1C}"/>
+    <hyperlink ref="C363" r:id="rId774" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/4bb7b619-8324-43e8-8995-c7aa4ab95c67" xr:uid="{E85B4E5F-44BF-F443-BC22-DE9E0578CC44}"/>
+    <hyperlink ref="C364" r:id="rId775" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/3e58a58a-4d88-497a-b7a7-a0f6053c53f3" xr:uid="{C24576AA-07CD-1F4A-A4B1-5A745145771C}"/>
+    <hyperlink ref="C365" r:id="rId776" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/cbcd9a22-ff00-4541-babb-8d49aac69b4e" xr:uid="{2710BF76-9A5D-8F47-85E4-853B4BC8957A}"/>
+    <hyperlink ref="C380" r:id="rId777" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/7eda1b7b-5e1c-4c97-a764-28a6c0abb372" xr:uid="{2DB796AE-01EF-F645-B2E0-E6DF949B8BEA}"/>
+    <hyperlink ref="C399" r:id="rId778" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/b675407a-2330-4e6a-939d-8786cbdc78a7" xr:uid="{7FAF1CF5-272D-5A47-A77B-0C17C02FE68C}"/>
+    <hyperlink ref="C393" r:id="rId779" display="https://data-iremus.huma-num.fr/sherlock/mercure-galant/livraison/1679-09" xr:uid="{63D2B64B-FDA1-9C46-B1A4-A37C6FBF023E}"/>
+    <hyperlink ref="C346" r:id="rId780" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/d609cd3e-9437-42ba-92d3-de7e5000e442" xr:uid="{6742BE8C-0F6F-A14D-AC0A-812506BF823D}"/>
+    <hyperlink ref="C408" r:id="rId781" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/9a39e0ad-3016-4b8b-9a06-34c1cc913de6" xr:uid="{96A37A67-8F14-8349-974B-647D91B6A4A5}"/>
+    <hyperlink ref="C466" r:id="rId782" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/756e638c-3c71-4faa-8757-215d05dddc16" xr:uid="{A7976994-27FF-E74E-B897-F3AF28B0E4EA}"/>
+    <hyperlink ref="C323" r:id="rId783" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/c322d217-5176-413b-95fc-a1dc07f88984" xr:uid="{84B78F08-4778-3F41-9FA3-C67B6E8BDEDF}"/>
+    <hyperlink ref="C457" r:id="rId784" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/8f804528-9e00-48da-9844-8be1ffa6e0bd" xr:uid="{34F0F940-759F-1E48-9406-758C867AE6A7}"/>
+    <hyperlink ref="C467" r:id="rId785" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/40cd7d44-e325-4dfd-92a2-1be268439897" xr:uid="{EF824A5C-6A0B-EF4C-BC95-38515DB50488}"/>
+    <hyperlink ref="C370" r:id="rId786" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/a09ffd10-a8a2-4333-adc5-d53d5d2100fd" xr:uid="{A9ADFF14-EED9-AB45-8C3C-44310F2FEF8A}"/>
+    <hyperlink ref="C421" r:id="rId787" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/3051a8e8-f045-439a-a5c4-4a04a00df643" xr:uid="{8CB50D67-D967-4441-A9AA-23A2D9BD62BC}"/>
+    <hyperlink ref="C394" r:id="rId788" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/80fbe8b2-b387-444a-979e-72cbe0272967" xr:uid="{147E1567-F9FF-AC4A-827D-29A91B69758E}"/>
+    <hyperlink ref="C344" r:id="rId789" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/5cfb32c6-7bfe-497d-95f1-d4bb1f2e3e0f" xr:uid="{AA6CE0C8-F2AC-F24E-AC4A-AEB93539B83B}"/>
+    <hyperlink ref="C20" r:id="rId790" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/61970020-e76a-4561-ab69-d6c7c9f75f66" xr:uid="{B2CFB129-D4DE-E541-B9AF-BD856DC17CE8}"/>
+    <hyperlink ref="C308" r:id="rId791" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/ac095890-e699-4a20-afab-e32598a100a2" xr:uid="{11D0370E-FAF5-0147-9A23-1461757E03F7}"/>
+    <hyperlink ref="C367" r:id="rId792" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/1aa2235d-c539-44e2-9209-ec091e148a35" xr:uid="{E5A1CE61-44BA-F744-884B-AC6D4EA34AEE}"/>
+    <hyperlink ref="C480" r:id="rId793" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/1291c712-2196-4780-b876-b103312a88f4" xr:uid="{C25F586D-173D-D849-9A44-3DF3A44F3CCE}"/>
+    <hyperlink ref="C21" r:id="rId794" display="https://data-iremus.huma-num.fr/sherlock/mercure-galant/livraison/1683-10a" xr:uid="{AEE7631D-FB23-0B41-B3EB-59E5D3C0CF83}"/>
+    <hyperlink ref="C298" r:id="rId795" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/876ef960-aa4d-4d4f-9e4d-34d7ef4cb841" xr:uid="{5BA4E65F-B8E6-4743-AD08-FDED735A2320}"/>
+    <hyperlink ref="C297" r:id="rId796" display="applewebdata://C4DC52DE-9392-407C-8816-9A3EE8DA2D65/1683-10b_324" xr:uid="{D07A8D1D-A3A2-864C-950A-D93D7E24AF8C}"/>
+    <hyperlink ref="C302" r:id="rId797" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/65f7e0b4-6ed9-4aab-8309-82bf45b6f955" xr:uid="{97DE68B0-6E8A-234D-A2B5-11DD04EC47FE}"/>
+    <hyperlink ref="C473" r:id="rId798" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/654349d9-39b9-4ba6-a2c1-fcff211bfaed" xr:uid="{2CF2B85F-F790-5943-A229-2947B554C8C8}"/>
+    <hyperlink ref="C407" r:id="rId799" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/aa5820b5-01e0-4915-8c87-6d1f2b338ee3" xr:uid="{9A9F5373-105B-F745-B2B4-722DC16D6F68}"/>
+    <hyperlink ref="C357" r:id="rId800" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/271a1520-68c2-41fb-b21b-b6ddc86cc70b" xr:uid="{B30EAF68-30EC-4A41-8D56-D986A5E5A39B}"/>
+    <hyperlink ref="C361" r:id="rId801" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/11d6e014-1b9c-4c82-b73d-f492abae623b" xr:uid="{0152CF40-BE5D-B542-A90F-7B18EF4403B9}"/>
+    <hyperlink ref="C368" r:id="rId802" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/a520501e-7322-44c8-8169-9b8bbaca16ff" xr:uid="{2DC9F757-1559-014B-AFC5-AE354252DC9B}"/>
+    <hyperlink ref="C62" r:id="rId803" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/3da1ac86-2765-4670-8f04-a217ad09834d" xr:uid="{EE9486FE-B473-D34C-84B1-36CEB8CFCD3D}"/>
+    <hyperlink ref="C23" r:id="rId804" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/c07851e7-4aa2-4a92-b452-fab9923dafcd" xr:uid="{9BFF6FC4-6337-6947-9236-14796FC24961}"/>
+    <hyperlink ref="C388" r:id="rId805" location="MG-1687-01a_158" xr:uid="{66509003-0653-9E4C-815F-2CEF88BD9864}"/>
+    <hyperlink ref="C383" r:id="rId806" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/de367aae-6a1d-4e19-a85f-a1e580c36a6b" xr:uid="{877DF50A-4606-2F41-9BA1-516200C51A5D}"/>
+    <hyperlink ref="C350" r:id="rId807" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/4eabda65-6ad3-44f7-b2a4-78826372483c" xr:uid="{71FFFE63-7C13-F145-9BAC-68FA202A4E26}"/>
+    <hyperlink ref="C403" r:id="rId808" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/899815eb-f9d6-4cd2-a13e-4477b3a98aea" xr:uid="{BA1EB6F3-1E03-F944-A8DE-1B5246FC60C4}"/>
+    <hyperlink ref="D283" r:id="rId809" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/d24fcfce-e724-4895-8d4e-2a742ad55788" xr:uid="{21DEABB8-CF42-2B4C-AFC0-89FA60D27C5B}"/>
+    <hyperlink ref="C409" r:id="rId810" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/3229998b-e79c-4e86-b6cf-f3e68bde2846" xr:uid="{3EB50DE5-2F11-8C46-9620-2D93342ADB2B}"/>
+    <hyperlink ref="C369" r:id="rId811" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/b992c9a8-2827-4fbc-9b97-b1abe6ba220f" xr:uid="{CE6B1369-7A30-C043-B5A3-88553DE52098}"/>
+    <hyperlink ref="C398" r:id="rId812" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/dee855fd-e3cc-45c3-ab0f-1640170626f0" xr:uid="{5412A03D-E78D-DB43-86D0-699EB4F5FA09}"/>
+    <hyperlink ref="I106" r:id="rId813" xr:uid="{93151C59-D5DA-2547-9183-ACD09FB68EF8}"/>
+    <hyperlink ref="C390" r:id="rId814" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/35502ef1-e217-43d2-b5c0-75b80bbf4281" xr:uid="{153C1258-77EB-FC49-A0EB-EB611DBE833B}"/>
+    <hyperlink ref="C320" r:id="rId815" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/5eb7d3db-6e36-4139-9103-861e8332962d" xr:uid="{926A2DCD-ED46-1C46-A084-B52B6F253539}"/>
+    <hyperlink ref="C321" r:id="rId816" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/53833720-ea53-4005-a08e-a92527e4a996" xr:uid="{AAF39A9D-C046-D544-A369-91A5A06F18E4}"/>
+    <hyperlink ref="C324" r:id="rId817" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/c13c3940-2c71-4cb9-a3f2-97111ba42176" xr:uid="{CFA3D566-FD89-7E41-90CA-44DB3C0CC1AE}"/>
+    <hyperlink ref="C44" r:id="rId818" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/4b8acf96-9293-43b2-b86e-032b15ad8f4f" xr:uid="{1A00293E-5E4D-104C-9213-873C7B33B663}"/>
+    <hyperlink ref="C358" r:id="rId819" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/e89dc9fd-ab88-4540-9757-dbba8312a1f5" xr:uid="{A34EF62C-679A-6B4C-913B-C2C48A6FD5A4}"/>
+    <hyperlink ref="C313" r:id="rId820" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/0b540dd2-194c-4d76-ab41-bb265237814a" xr:uid="{F18F6E01-2613-D648-B9CA-8DA6DD29A89C}"/>
+    <hyperlink ref="C3" r:id="rId821" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/1bfdedfc-7851-4752-bb88-3a5f1ee938d7" xr:uid="{86CE263A-3964-C645-B08D-AAF0D79F75A8}"/>
+    <hyperlink ref="I280" r:id="rId822" xr:uid="{0D35BAC9-B6D0-A543-A556-5AA325F133B3}"/>
+    <hyperlink ref="I36" r:id="rId823" xr:uid="{5FA3E753-415E-2041-9990-E54AEEFDF8C6}"/>
+    <hyperlink ref="I200" r:id="rId824" xr:uid="{FCC122BD-2714-5B40-93E9-CDDDBB3A1FE4}"/>
+    <hyperlink ref="C66" r:id="rId825" display="https://data-iremus.huma-num.fr/sherlock/mercure-galant/livraison/1683-10a" xr:uid="{E9545DC6-A469-4B40-9DAA-547CDE7E9DF2}"/>
+    <hyperlink ref="E217" r:id="rId826" xr:uid="{9C1B49C3-A242-2F44-B2C1-04C6CDBAA1FB}"/>
+    <hyperlink ref="E218" r:id="rId827" xr:uid="{368C33B5-B50C-B242-B59A-094C4C030462}"/>
+    <hyperlink ref="E80" r:id="rId828" xr:uid="{269C510D-0429-1248-A9A7-A87B939A53BE}"/>
+    <hyperlink ref="I307" r:id="rId829" xr:uid="{89A798F5-821F-D943-A11A-0B0BBAC85342}"/>
+    <hyperlink ref="E219" r:id="rId830" xr:uid="{5FF0C75A-D08D-7543-89EC-736FE5FEC476}"/>
+    <hyperlink ref="E34" r:id="rId831" xr:uid="{51B51063-B9B3-5A40-B317-9F918C8386C0}"/>
+    <hyperlink ref="E294" r:id="rId832" xr:uid="{7879A012-3E0F-B740-BE8C-D8B3D757139A}"/>
+    <hyperlink ref="E221" r:id="rId833" xr:uid="{0FFB7FD9-17EA-4540-98EF-C4257DA5D552}"/>
+    <hyperlink ref="E281" r:id="rId834" xr:uid="{50EB68F6-3193-4543-9960-EDE8DB7D8ACC}"/>
+    <hyperlink ref="E319" r:id="rId835" xr:uid="{1CBA51B4-5D50-2448-9802-EDB065D72CFC}"/>
+    <hyperlink ref="E118" r:id="rId836" xr:uid="{E8BFCEC0-446A-AF44-89A7-49A5AF7E17BE}"/>
+    <hyperlink ref="I293" r:id="rId837" xr:uid="{45C62FD9-2AE9-AC49-9E91-982469B80DF1}"/>
+    <hyperlink ref="E59" r:id="rId838" xr:uid="{B5CD030C-FFDB-9148-83DB-DE426EB12F83}"/>
+    <hyperlink ref="E28" r:id="rId839" xr:uid="{18C2AF43-D6A1-4745-B808-B328CBAB2EC5}"/>
+    <hyperlink ref="E109" r:id="rId840" xr:uid="{B9F11DFC-0164-4D41-9A75-EA7FB166587E}"/>
+    <hyperlink ref="E136" r:id="rId841" xr:uid="{EE0AA50F-CB76-A041-BA3E-7E788247A620}"/>
+    <hyperlink ref="E280" r:id="rId842" xr:uid="{7A3C004B-1455-F249-B133-6BA5847D6787}"/>
+    <hyperlink ref="E224" r:id="rId843" xr:uid="{5CCF7C0D-4AC2-0042-B1CE-2477EA789CCB}"/>
+    <hyperlink ref="E6" r:id="rId844" xr:uid="{D88929E3-FA0E-264B-99F9-520E5844C4E2}"/>
+    <hyperlink ref="E289" r:id="rId845" xr:uid="{EAFF719B-289A-3E45-BDAB-A9E648590164}"/>
+    <hyperlink ref="E130" r:id="rId846" xr:uid="{64D69931-C571-D543-8040-788EFB1B3430}"/>
+    <hyperlink ref="E16" r:id="rId847" xr:uid="{274418EB-7D64-7B4B-AEA9-A3852E96A346}"/>
+    <hyperlink ref="E258" r:id="rId848" xr:uid="{E46B718E-BD08-C348-90B5-4183A7AFEF2A}"/>
+    <hyperlink ref="E283" r:id="rId849" xr:uid="{73221B59-D280-B744-8599-CCA8DD7A5288}"/>
+    <hyperlink ref="I234" r:id="rId850" xr:uid="{99528BAC-25AF-3645-95E0-18B5F63BB1D7}"/>
+    <hyperlink ref="E234" r:id="rId851" xr:uid="{D6702C24-E8E3-B545-B02E-B6C2D0860F36}"/>
+    <hyperlink ref="E392" r:id="rId852" xr:uid="{D3DA6CB9-36B8-B849-B8A3-C38A5370CCC2}"/>
+    <hyperlink ref="E172" r:id="rId853" xr:uid="{135FBA24-35F8-6147-B8A7-0F2F362EB396}"/>
+    <hyperlink ref="E277" r:id="rId854" xr:uid="{C437DDB5-0975-0E41-A394-836188BDB6CF}"/>
+    <hyperlink ref="E145" r:id="rId855" xr:uid="{22B460F7-E695-4940-8A5B-21E7DA87D1B5}"/>
+    <hyperlink ref="E104" r:id="rId856" xr:uid="{97A0D0AB-56B0-2E48-A379-8E023B3BB0EF}"/>
+    <hyperlink ref="E290" r:id="rId857" xr:uid="{CA1DE4B3-5277-5444-9AEF-252090FD07D4}"/>
+    <hyperlink ref="E42" r:id="rId858" xr:uid="{CB631B08-20A5-E44B-9BDF-E5F06B467B8B}"/>
+    <hyperlink ref="E175" r:id="rId859" xr:uid="{EBCB88AC-DBE3-8B4A-AE8A-9663AD35C2BA}"/>
+    <hyperlink ref="E31" r:id="rId860" xr:uid="{6DAE1B50-7383-144C-AB9A-C7440B89354E}"/>
+    <hyperlink ref="E236" r:id="rId861" xr:uid="{E390E808-2214-794A-9EC1-40B94B39A5D8}"/>
+    <hyperlink ref="E43" r:id="rId862" xr:uid="{9F6A8B52-4F74-E343-A0DB-D11C81AE8EE0}"/>
+    <hyperlink ref="E186" r:id="rId863" xr:uid="{0AEEDC94-9CBF-D144-8E52-DF195159FDA2}"/>
+    <hyperlink ref="I291" r:id="rId864" xr:uid="{67A0EACD-A33F-4F46-A127-1E30497E310C}"/>
+    <hyperlink ref="E257" r:id="rId865" xr:uid="{514E6EFF-8C68-B747-8A3A-A449CEC64DD5}"/>
+    <hyperlink ref="E276" r:id="rId866" xr:uid="{258B7BA3-8130-CB4F-ABA7-D4B01867E5C9}"/>
+    <hyperlink ref="I286" r:id="rId867" xr:uid="{35A29F48-1614-574C-AD6D-06B4E882F8AD}"/>
+    <hyperlink ref="E286" r:id="rId868" xr:uid="{93360EC8-185F-9D42-8735-2A25E107A2F2}"/>
+    <hyperlink ref="E250" r:id="rId869" xr:uid="{893FC51F-BEF1-4D4A-9C6C-1219A8874439}"/>
+    <hyperlink ref="E97" r:id="rId870" xr:uid="{FB71877D-E657-2246-8150-09B81732344E}"/>
+    <hyperlink ref="E165" r:id="rId871" xr:uid="{897B2C30-5CB6-A348-AB56-53350BC3E592}"/>
+    <hyperlink ref="E263" r:id="rId872" xr:uid="{09947A59-63CA-7A49-AED9-4AC5FF336DD0}"/>
+    <hyperlink ref="E274" r:id="rId873" xr:uid="{1FC77B2B-1519-FB49-8BB3-931A5AA62CB1}"/>
+    <hyperlink ref="E166" r:id="rId874" xr:uid="{C390EF3B-04E4-C942-8A86-4A1F3839429D}"/>
+    <hyperlink ref="E296" r:id="rId875" xr:uid="{D1B2386E-CB4B-5843-8109-6A44FE4FC51C}"/>
+    <hyperlink ref="E244" r:id="rId876" xr:uid="{737B0937-C45B-FE4E-8003-721CB4371BF8}"/>
+    <hyperlink ref="E245" r:id="rId877" xr:uid="{4FD7BFA1-F256-874E-9EA5-669580B508B2}"/>
+    <hyperlink ref="E411" r:id="rId878" xr:uid="{C52FB026-5F8B-F843-AA13-BD7ECCABA541}"/>
+    <hyperlink ref="E448" r:id="rId879" xr:uid="{6D7B5BED-036F-264A-ADF5-42A9E8EE8A5B}"/>
+    <hyperlink ref="E408" r:id="rId880" xr:uid="{AAEA7453-D59C-0445-8BFF-6FB9473FE5A7}"/>
+    <hyperlink ref="E10" r:id="rId881" xr:uid="{6CD83E18-381A-824D-B09D-F6EC3496B17B}"/>
+    <hyperlink ref="E67" r:id="rId882" xr:uid="{D4C8B6F9-A3F2-E140-A5F2-8AE06C15FAFE}"/>
+    <hyperlink ref="E432" r:id="rId883" xr:uid="{C0D7293D-92A2-6849-B05E-402194B1C4BC}"/>
+    <hyperlink ref="E352" r:id="rId884" xr:uid="{824689B2-D1C5-BB4C-A843-8D48671E2660}"/>
+    <hyperlink ref="E54" r:id="rId885" xr:uid="{BC84B2BA-41FA-8143-8D1E-16E1CE074210}"/>
+    <hyperlink ref="E433" r:id="rId886" xr:uid="{FD7C5BA0-5E1C-A445-B09E-F2B9518F5C64}"/>
+    <hyperlink ref="I329" r:id="rId887" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="E329" r:id="rId888" xr:uid="{5BB41AEA-1894-DC4D-9093-1F03B9FBBB69}"/>
+    <hyperlink ref="E300" r:id="rId889" xr:uid="{4C5EA57B-20EF-FD41-B4FE-37D83B697B15}"/>
+    <hyperlink ref="E353" r:id="rId890" xr:uid="{75A74513-087E-8F46-9BB4-BF4261FD3ED3}"/>
+    <hyperlink ref="E379" r:id="rId891" xr:uid="{2AAEE7C3-1166-C143-A662-4CBA86A3B00B}"/>
+    <hyperlink ref="I195" r:id="rId892" xr:uid="{80E7CC36-D572-D741-A3CC-1A90990A8F01}"/>
+    <hyperlink ref="E195" r:id="rId893" xr:uid="{9FA4A104-05A6-7A4F-AD7C-607339ABF2A3}"/>
+    <hyperlink ref="E394" r:id="rId894" xr:uid="{68FF83C3-DE26-8B43-91A8-7C8545043FA7}"/>
+    <hyperlink ref="E197" r:id="rId895" xr:uid="{B4CB8467-D298-244E-A413-C6CC70062B35}"/>
+    <hyperlink ref="E99" r:id="rId896" xr:uid="{F9FD3791-0A3C-8540-82C1-3FC3CFE48BA1}"/>
+    <hyperlink ref="C101" r:id="rId897" location="MG-1702-10_63" xr:uid="{00000000-0004-0000-0000-0000FC020000}"/>
+    <hyperlink ref="I16" r:id="rId898" xr:uid="{E09C30B3-9019-8146-B01C-DFA23FAF5C71}"/>
+    <hyperlink ref="I230" r:id="rId899" xr:uid="{E86E46E3-44C8-CD49-B7CE-ABA6745C61EC}"/>
+    <hyperlink ref="E230" r:id="rId900" xr:uid="{557FF54D-A9D6-4942-9889-EE76DE3CA3B9}"/>
+    <hyperlink ref="D335" r:id="rId901" xr:uid="{2458E3FB-B14E-EA4D-8CC0-A843AA97DF8C}"/>
+    <hyperlink ref="E212" r:id="rId902" xr:uid="{C3290AB0-5479-B74A-9FAC-DE06EA6F38FC}"/>
+    <hyperlink ref="E441" r:id="rId903" xr:uid="{8C79DFBC-E889-4D48-A61A-EE776A7992AD}"/>
+    <hyperlink ref="E366" r:id="rId904" xr:uid="{FB2BB97E-5CE6-1642-8EF1-C04F699C0F28}"/>
+    <hyperlink ref="E191" r:id="rId905" xr:uid="{2DD39C3C-3CD4-9246-90BC-A7B77E306762}"/>
+    <hyperlink ref="E140" r:id="rId906" xr:uid="{5DFF724F-C1FC-8448-A3AD-E8F9533FF750}"/>
+    <hyperlink ref="E419" r:id="rId907" xr:uid="{C1A54ED6-3FF7-D245-9B0B-14F92BDE556A}"/>
+    <hyperlink ref="I212" r:id="rId908" xr:uid="{0F7F160D-55E9-0747-906D-A6883A3F8D03}"/>
+    <hyperlink ref="I447" r:id="rId909" xr:uid="{5A167C83-D012-8947-B19F-63CAF8D95368}"/>
+    <hyperlink ref="E7" r:id="rId910" xr:uid="{F73830FF-CD7B-6947-AE02-54312B84AFDD}"/>
+    <hyperlink ref="E305" r:id="rId911" xr:uid="{4344EA42-8BBD-E94D-B4E7-01B3D1B8C822}"/>
+    <hyperlink ref="E435" r:id="rId912" xr:uid="{50446855-53B1-5C4F-8457-A99935FEE581}"/>
+    <hyperlink ref="E143" r:id="rId913" xr:uid="{416C4EF2-4CC5-3849-884C-B02D75133531}"/>
+    <hyperlink ref="E209" r:id="rId914" xr:uid="{68ADBAEC-98DC-C547-AA48-B5A571650DD2}"/>
+    <hyperlink ref="C303" r:id="rId915" location="MG-1678-04_306" xr:uid="{71D2089E-180E-2449-9F7B-E38BD32BA61B}"/>
+    <hyperlink ref="E307" r:id="rId916" xr:uid="{3DA721D4-A8F4-684A-B4B1-25C66DDE1CC6}"/>
+    <hyperlink ref="E247" r:id="rId917" xr:uid="{F2FE9404-1CB0-2342-9AD1-51A03048E923}"/>
+    <hyperlink ref="C306" r:id="rId918" display="https://data-iremus.huma-num.fr/sherlock/?resource=http://data-iremus.huma-num.fr/id/7ffbcad6-daa8-4a46-9300-49d3a5dbb3f5" xr:uid="{713C80B7-2FA0-6747-9AE1-15F990E963C2}"/>
+    <hyperlink ref="E310" r:id="rId919" xr:uid="{B6F2AAD5-848F-A34D-931A-ED5B8923F4EF}"/>
+    <hyperlink ref="E318" r:id="rId920" xr:uid="{4CD7A26B-015C-F44E-BC58-3E6E3CC2F39C}"/>
+    <hyperlink ref="D318" r:id="rId921" location="MG-1679-10b_043" display="MG-1679-10b_043" xr:uid="{797768B4-9A08-D141-AEAF-E139BCFFC17E}"/>
+    <hyperlink ref="E4" r:id="rId922" xr:uid="{E86D308F-3395-F040-A335-55D1D28C9BB4}"/>
+    <hyperlink ref="E5" r:id="rId923" xr:uid="{98F6F27E-FDC9-2B49-8C3B-309F3B06CD26}"/>
+    <hyperlink ref="F21" r:id="rId924" location="MG-1683-10a_143" xr:uid="{AB4F9708-3AA0-4541-A875-54B8CBE5792B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/indexation-estampes.xlsx
+++ b/indexation-estampes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annepiejus/Documents/Projets:Travaux/MERCURE GALANT/MG ÉDITIONS/mercure-galant-sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA4A57E-2DE1-CC4E-9419-100EFDE57D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618D5496-AF75-634E-8E6F-D5B7022C39D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1880" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="2860" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -763,7 +763,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8246" uniqueCount="4737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8248" uniqueCount="4734">
   <si>
     <t>Provenance cliché</t>
   </si>
@@ -18456,9 +18456,6 @@
     <t>[Article tres-curieux touchant les subsides d'Angleterre]</t>
   </si>
   <si>
-    <t>$ mq ds table</t>
-  </si>
-  <si>
     <t>https://gallica.bnf.fr/ark:/12148/bpt6k65172528/f15.item</t>
   </si>
   <si>
@@ -18834,18 +18831,9 @@
     <t>https://gallica.bnf.fr/ark:/12148/bpt6k62902122/f311.item</t>
   </si>
   <si>
-    <t>non transcrit; mq ds table</t>
-  </si>
-  <si>
-    <t>non transcrit ; mq ds table</t>
-  </si>
-  <si>
     <t>; mq ds table</t>
   </si>
   <si>
-    <t>non transcrit ; ; mq ds table</t>
-  </si>
-  <si>
     <t>ID estampe (jaune: erreur tei, mq ds sherlock)</t>
   </si>
   <si>
@@ -18904,9 +18892,6 @@
   </si>
   <si>
     <t>1680-04_322</t>
-  </si>
-  <si>
-    <t>non transcrit ; $ mq ds table</t>
   </si>
   <si>
     <t>[Victoires militaires vénitiennes]*</t>
@@ -19030,9 +19015,6 @@
   </si>
   <si>
     <t>Le Chemin d’Amour</t>
-  </si>
-  <si>
-    <t>non transcrit ; $ pas de table</t>
   </si>
   <si>
     <t>[Enfant porté vingt-six ans par sa Mere]</t>
@@ -19403,9 +19385,6 @@
     <t>11,4 x 8,7 cm</t>
   </si>
   <si>
-    <t>non transcrit; pas de table</t>
-  </si>
-  <si>
     <t>1679-10b_001</t>
   </si>
   <si>
@@ -19590,6 +19569,18 @@
   </si>
   <si>
     <t>1691-07b_100 ; 1691-07b_100z ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BnF, 8-LC2-33 ?; FB-17224  [partie 1)  FB-17225 (2e partie) ; </t>
+  </si>
+  <si>
+    <t>[Relation du voyage du roi en Flandre]*</t>
+  </si>
+  <si>
+    <t>non mentionné dans la table</t>
+  </si>
+  <si>
+    <t>non transcrit ; non mentionné dans la table</t>
   </si>
 </sst>
 </file>
@@ -21175,7 +21166,7 @@
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="111" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="567">
+  <cellXfs count="554">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -22104,23 +22095,8 @@
     <xf numFmtId="0" fontId="68" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="96" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
@@ -22143,7 +22119,6 @@
     <xf numFmtId="0" fontId="131" fillId="32" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="151" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -22151,9 +22126,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="83" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="153" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -22177,16 +22149,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -22197,12 +22160,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -22216,10 +22173,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="127" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -22384,9 +22337,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -22470,9 +22420,6 @@
     </xf>
     <xf numFmtId="0" fontId="176" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -22681,6 +22628,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="164" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -22910,18 +22862,19 @@
   <dimension ref="A1:AT681"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A375" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A378" sqref="A378"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="15.1640625" style="105" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="105" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="105" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="288" customWidth="1"/>
-    <col min="4" max="4" width="14" style="83" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="83" customWidth="1"/>
     <col min="5" max="5" width="14" style="265" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="216" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="319" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" style="216" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" style="319" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" style="138" customWidth="1"/>
     <col min="9" max="9" width="12.1640625" style="138" customWidth="1"/>
     <col min="10" max="10" width="21.33203125" style="133" customWidth="1"/>
@@ -22951,7 +22904,7 @@
   <sheetData>
     <row r="1" spans="1:46" ht="46.5" customHeight="1">
       <c r="A1" s="207" t="s">
-        <v>4501</v>
+        <v>4497</v>
       </c>
       <c r="B1" s="106" t="s">
         <v>0</v>
@@ -22965,7 +22918,7 @@
       <c r="E1" s="247" t="s">
         <v>3748</v>
       </c>
-      <c r="F1" s="529" t="s">
+      <c r="F1" s="513" t="s">
         <v>3812</v>
       </c>
       <c r="G1" s="313" t="s">
@@ -22975,9 +22928,9 @@
         <v>4025</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>4578</v>
-      </c>
-      <c r="J1" s="401" t="s">
+        <v>4572</v>
+      </c>
+      <c r="J1" s="387" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="106" t="s">
@@ -23082,10 +23035,10 @@
       <c r="F2" s="210"/>
       <c r="G2" s="282"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="404" t="s">
+      <c r="I2" s="390" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="403"/>
+      <c r="J2" s="389"/>
       <c r="K2" s="54" t="s">
         <v>25</v>
       </c>
@@ -23156,10 +23109,10 @@
       <c r="F3" s="210"/>
       <c r="G3" s="282"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="405" t="s">
+      <c r="I3" s="391" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="402" t="s">
+      <c r="J3" s="388" t="s">
         <v>37</v>
       </c>
       <c r="K3" s="38" t="s">
@@ -23178,7 +23131,7 @@
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
-      <c r="U3" s="504" t="s">
+      <c r="U3" s="488" t="s">
         <v>41</v>
       </c>
       <c r="V3" s="18" t="s">
@@ -23233,23 +23186,23 @@
       <c r="C4" s="291" t="s">
         <v>3829</v>
       </c>
-      <c r="D4" s="349" t="s">
+      <c r="D4" s="344" t="s">
         <v>3831</v>
       </c>
       <c r="E4" s="248" t="s">
         <v>4038</v>
       </c>
       <c r="F4" s="235"/>
-      <c r="G4" s="549" t="s">
+      <c r="G4" s="533" t="s">
         <v>4368</v>
       </c>
-      <c r="H4" s="552" t="s">
+      <c r="H4" s="536" t="s">
         <v>3830</v>
       </c>
-      <c r="I4" s="406" t="s">
+      <c r="I4" s="392" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="402" t="s">
+      <c r="J4" s="388" t="s">
         <v>49</v>
       </c>
       <c r="K4" s="38" t="s">
@@ -23274,7 +23227,7 @@
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
-      <c r="U4" s="382" t="s">
+      <c r="U4" s="505" t="s">
         <v>32</v>
       </c>
       <c r="V4" s="18" t="s">
@@ -23321,7 +23274,7 @@
       <c r="A5" s="95" t="s">
         <v>3901</v>
       </c>
-      <c r="B5" s="423" t="s">
+      <c r="B5" s="409" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="205" t="s">
@@ -23332,12 +23285,12 @@
         <v>4038</v>
       </c>
       <c r="F5" s="210"/>
-      <c r="G5" s="549"/>
+      <c r="G5" s="533"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="406" t="s">
+      <c r="I5" s="392" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="402" t="s">
+      <c r="J5" s="388" t="s">
         <v>64</v>
       </c>
       <c r="K5" s="38" t="s">
@@ -23407,14 +23360,14 @@
       <c r="C6" s="205" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="495" t="s">
+      <c r="D6" s="479" t="s">
         <v>75</v>
       </c>
       <c r="E6" s="248" t="s">
         <v>4038</v>
       </c>
       <c r="F6" s="211"/>
-      <c r="G6" s="490" t="s">
+      <c r="G6" s="474" t="s">
         <v>3994</v>
       </c>
       <c r="H6" s="22" t="s">
@@ -23444,7 +23397,7 @@
       <c r="R6" s="24"/>
       <c r="S6" s="24"/>
       <c r="T6" s="24"/>
-      <c r="U6" s="132" t="s">
+      <c r="U6" s="488" t="s">
         <v>41</v>
       </c>
       <c r="V6" s="18" t="s">
@@ -23493,15 +23446,15 @@
       <c r="C7" s="332"/>
       <c r="D7" s="244"/>
       <c r="E7" s="278" t="s">
-        <v>4437</v>
+        <v>4436</v>
       </c>
       <c r="F7" s="245"/>
-      <c r="G7" s="359"/>
-      <c r="H7" s="497"/>
-      <c r="I7" s="404" t="s">
+      <c r="G7" s="353"/>
+      <c r="H7" s="481"/>
+      <c r="I7" s="390" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="402" t="s">
+      <c r="J7" s="388" t="s">
         <v>37</v>
       </c>
       <c r="K7" s="38" t="s">
@@ -23520,7 +23473,7 @@
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
       <c r="T7" s="17"/>
-      <c r="U7" s="504" t="s">
+      <c r="U7" s="488" t="s">
         <v>41</v>
       </c>
       <c r="V7" s="18" t="s">
@@ -23563,7 +23516,7 @@
       <c r="A8" s="95" t="s">
         <v>3903</v>
       </c>
-      <c r="B8" s="423" t="s">
+      <c r="B8" s="409" t="s">
         <v>89</v>
       </c>
       <c r="C8" s="205" t="s">
@@ -23571,11 +23524,11 @@
       </c>
       <c r="D8" s="74"/>
       <c r="E8" s="278" t="s">
-        <v>4437</v>
-      </c>
-      <c r="F8" s="496"/>
+        <v>4436</v>
+      </c>
+      <c r="F8" s="480"/>
       <c r="G8" s="228"/>
-      <c r="H8" s="504"/>
+      <c r="H8" s="488"/>
       <c r="I8" s="5" t="s">
         <v>91</v>
       </c>
@@ -23595,7 +23548,7 @@
       <c r="Q8" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="R8" s="518"/>
+      <c r="R8" s="502"/>
       <c r="S8" s="163" t="s">
         <v>96</v>
       </c>
@@ -23648,14 +23601,14 @@
       <c r="B9" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="345" t="s">
+      <c r="C9" s="477" t="s">
         <v>102</v>
       </c>
       <c r="D9" s="73" t="s">
         <v>103</v>
       </c>
       <c r="E9" s="278" t="s">
-        <v>4437</v>
+        <v>4436</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="38" t="s">
@@ -23664,7 +23617,7 @@
       <c r="H9" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="I9" s="407" t="s">
+      <c r="I9" s="393" t="s">
         <v>105</v>
       </c>
       <c r="J9" s="38" t="s">
@@ -23688,7 +23641,7 @@
       <c r="R9" s="25"/>
       <c r="S9" s="25"/>
       <c r="T9" s="25"/>
-      <c r="U9" s="504" t="s">
+      <c r="U9" s="488" t="s">
         <v>41</v>
       </c>
       <c r="V9" s="18" t="s">
@@ -23725,23 +23678,23 @@
       <c r="A10" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="423" t="s">
+      <c r="B10" s="409" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="493" t="s">
+      <c r="C10" s="477" t="s">
         <v>112</v>
       </c>
       <c r="D10" s="71"/>
       <c r="E10" s="278" t="s">
-        <v>4437</v>
+        <v>4436</v>
       </c>
       <c r="F10" s="210"/>
       <c r="G10" s="282"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="406" t="s">
+      <c r="I10" s="392" t="s">
         <v>113</v>
       </c>
-      <c r="J10" s="402" t="s">
+      <c r="J10" s="388" t="s">
         <v>114</v>
       </c>
       <c r="K10" s="38" t="s">
@@ -23807,13 +23760,13 @@
       </c>
       <c r="D11" s="75"/>
       <c r="E11" s="278" t="s">
-        <v>4436</v>
+        <v>4435</v>
       </c>
       <c r="F11" s="243" t="s">
         <v>3898</v>
       </c>
       <c r="G11" s="328" t="s">
-        <v>4548</v>
+        <v>4543</v>
       </c>
       <c r="H11" s="201"/>
       <c r="I11" s="139" t="s">
@@ -23831,7 +23784,7 @@
       <c r="M11" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="N11" s="367"/>
+      <c r="N11" s="360"/>
       <c r="O11" s="113"/>
       <c r="P11" s="15" t="s">
         <v>125</v>
@@ -23842,7 +23795,7 @@
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
       <c r="T11" s="24"/>
-      <c r="U11" s="504" t="s">
+      <c r="U11" s="488" t="s">
         <v>127</v>
       </c>
       <c r="V11" s="18" t="s">
@@ -23889,13 +23842,13 @@
       </c>
       <c r="D12" s="75"/>
       <c r="E12" s="278" t="s">
-        <v>4436</v>
+        <v>4435</v>
       </c>
       <c r="F12" s="243" t="s">
         <v>3898</v>
       </c>
       <c r="G12" s="328" t="s">
-        <v>4548</v>
+        <v>4543</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="5" t="s">
@@ -23905,7 +23858,7 @@
         <v>131</v>
       </c>
       <c r="K12" s="38" t="s">
-        <v>4549</v>
+        <v>4544</v>
       </c>
       <c r="L12" s="19" t="s">
         <v>132</v>
@@ -23913,15 +23866,15 @@
       <c r="M12" s="113" t="s">
         <v>133</v>
       </c>
-      <c r="N12" s="367"/>
+      <c r="N12" s="360"/>
       <c r="O12" s="113"/>
       <c r="P12" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="Q12" s="519" t="s">
+      <c r="Q12" s="503" t="s">
         <v>134</v>
       </c>
-      <c r="R12" s="519"/>
+      <c r="R12" s="503"/>
       <c r="S12" s="153"/>
       <c r="T12" s="163"/>
       <c r="U12" s="132" t="s">
@@ -23969,9 +23922,9 @@
       </c>
       <c r="D13" s="74"/>
       <c r="E13" s="278" t="s">
-        <v>4436</v>
-      </c>
-      <c r="F13" s="546"/>
+        <v>4435</v>
+      </c>
+      <c r="F13" s="530"/>
       <c r="G13" s="323"/>
       <c r="H13" s="201"/>
       <c r="I13" s="5" t="s">
@@ -24000,7 +23953,7 @@
       <c r="R13" s="29"/>
       <c r="S13" s="29"/>
       <c r="T13" s="29"/>
-      <c r="U13" s="132" t="s">
+      <c r="U13" s="488" t="s">
         <v>143</v>
       </c>
       <c r="V13" s="13" t="s">
@@ -24037,7 +23990,7 @@
       <c r="A14" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="B14" s="423" t="s">
+      <c r="B14" s="409" t="s">
         <v>146</v>
       </c>
       <c r="C14" s="331" t="s">
@@ -24045,7 +23998,7 @@
       </c>
       <c r="D14" s="74"/>
       <c r="E14" s="278" t="s">
-        <v>4436</v>
+        <v>4435</v>
       </c>
       <c r="F14" s="308"/>
       <c r="G14" s="38" t="s">
@@ -24076,19 +24029,19 @@
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="24"/>
-      <c r="U14" s="132" t="s">
+      <c r="U14" s="488" t="s">
         <v>41</v>
       </c>
       <c r="V14" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="W14" s="472"/>
+      <c r="W14" s="457"/>
       <c r="X14" s="104"/>
       <c r="Y14" s="104"/>
       <c r="Z14" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="AA14" s="389" t="s">
+      <c r="AA14" s="375" t="s">
         <v>153</v>
       </c>
       <c r="AB14" s="30" t="s">
@@ -24131,7 +24084,7 @@
         <v>3844</v>
       </c>
       <c r="G15" s="320" t="s">
-        <v>4550</v>
+        <v>4545</v>
       </c>
       <c r="H15" s="201"/>
       <c r="I15" s="139" t="s">
@@ -24209,7 +24162,7 @@
       </c>
       <c r="F16" s="208"/>
       <c r="G16" s="303" t="s">
-        <v>4506</v>
+        <v>4502</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>4015</v>
@@ -24238,13 +24191,13 @@
       <c r="R16" s="17"/>
       <c r="S16" s="17"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="132" t="s">
+      <c r="U16" s="488" t="s">
         <v>169</v>
       </c>
       <c r="V16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="W16" s="473" t="s">
+      <c r="W16" s="458" t="s">
         <v>170</v>
       </c>
       <c r="X16" s="167" t="s">
@@ -24305,7 +24258,7 @@
       </c>
       <c r="F17" s="208"/>
       <c r="G17" s="303" t="s">
-        <v>4506</v>
+        <v>4502</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>164</v>
@@ -24340,7 +24293,7 @@
       <c r="V17" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="W17" s="473" t="s">
+      <c r="W17" s="458" t="s">
         <v>178</v>
       </c>
       <c r="X17" s="167" t="s">
@@ -24385,7 +24338,7 @@
       <c r="A18" s="38" t="s">
         <v>3703</v>
       </c>
-      <c r="B18" s="424" t="s">
+      <c r="B18" s="410" t="s">
         <v>182</v>
       </c>
       <c r="C18" s="287" t="s">
@@ -24398,8 +24351,8 @@
         <v>3789</v>
       </c>
       <c r="F18" s="208"/>
-      <c r="G18" s="502" t="s">
-        <v>4506</v>
+      <c r="G18" s="486" t="s">
+        <v>4502</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>164</v>
@@ -24434,7 +24387,7 @@
       <c r="V18" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="W18" s="473" t="s">
+      <c r="W18" s="458" t="s">
         <v>186</v>
       </c>
       <c r="X18" s="167" t="s">
@@ -24454,7 +24407,7 @@
       </c>
       <c r="AC18" s="13"/>
       <c r="AD18" s="13"/>
-      <c r="AE18" s="397" t="s">
+      <c r="AE18" s="383" t="s">
         <v>187</v>
       </c>
       <c r="AF18" s="13" t="s">
@@ -24492,8 +24445,8 @@
         <v>3789</v>
       </c>
       <c r="F19" s="208"/>
-      <c r="G19" s="502" t="s">
-        <v>4506</v>
+      <c r="G19" s="486" t="s">
+        <v>4502</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>164</v>
@@ -24528,7 +24481,7 @@
       <c r="V19" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="W19" s="473" t="s">
+      <c r="W19" s="458" t="s">
         <v>186</v>
       </c>
       <c r="X19" s="167" t="s">
@@ -24586,8 +24539,8 @@
         <v>3789</v>
       </c>
       <c r="F20" s="208"/>
-      <c r="G20" s="502" t="s">
-        <v>4506</v>
+      <c r="G20" s="486" t="s">
+        <v>4502</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>164</v>
@@ -24604,7 +24557,7 @@
       <c r="L20" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="M20" s="366"/>
+      <c r="M20" s="359"/>
       <c r="N20" s="222"/>
       <c r="O20" s="148"/>
       <c r="P20" s="13" t="s">
@@ -24616,13 +24569,13 @@
       <c r="R20" s="17"/>
       <c r="S20" s="17"/>
       <c r="T20" s="17"/>
-      <c r="U20" s="504" t="s">
+      <c r="U20" s="488" t="s">
         <v>169</v>
       </c>
       <c r="V20" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="W20" s="473"/>
+      <c r="W20" s="458"/>
       <c r="X20" s="167" t="s">
         <v>171</v>
       </c>
@@ -24640,7 +24593,7 @@
       </c>
       <c r="AC20" s="13"/>
       <c r="AD20" s="13"/>
-      <c r="AE20" s="396" t="s">
+      <c r="AE20" s="382" t="s">
         <v>197</v>
       </c>
       <c r="AF20" s="13" t="s">
@@ -24682,7 +24635,7 @@
       <c r="H21" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="I21" s="408" t="s">
+      <c r="I21" s="394" t="s">
         <v>3824</v>
       </c>
       <c r="J21" s="38"/>
@@ -24704,13 +24657,13 @@
       <c r="R21" s="33"/>
       <c r="S21" s="33"/>
       <c r="T21" s="33"/>
-      <c r="U21" s="132" t="s">
+      <c r="U21" s="488" t="s">
         <v>169</v>
       </c>
       <c r="V21" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="W21" s="473" t="s">
+      <c r="W21" s="458" t="s">
         <v>201</v>
       </c>
       <c r="X21" s="167" t="s">
@@ -24730,7 +24683,7 @@
       </c>
       <c r="AC21" s="13"/>
       <c r="AD21" s="13"/>
-      <c r="AE21" s="393" t="s">
+      <c r="AE21" s="379" t="s">
         <v>3726</v>
       </c>
       <c r="AF21" s="34" t="s">
@@ -24759,15 +24712,15 @@
         <v>35</v>
       </c>
       <c r="C22" s="287" t="s">
-        <v>4536</v>
+        <v>4531</v>
       </c>
       <c r="D22" s="74"/>
       <c r="E22" s="252" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="F22" s="208"/>
       <c r="G22" s="228" t="s">
-        <v>4537</v>
+        <v>4532</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="139" t="s">
@@ -24796,7 +24749,7 @@
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="24"/>
-      <c r="U22" s="296" t="s">
+      <c r="U22" s="474" t="s">
         <v>127</v>
       </c>
       <c r="V22" s="13" t="s">
@@ -24812,7 +24765,7 @@
       <c r="AB22" s="13"/>
       <c r="AC22" s="13"/>
       <c r="AD22" s="13"/>
-      <c r="AE22" s="398" t="s">
+      <c r="AE22" s="384" t="s">
         <v>211</v>
       </c>
       <c r="AF22" s="28" t="s">
@@ -24845,13 +24798,13 @@
       </c>
       <c r="D23" s="74"/>
       <c r="E23" s="278" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="F23" s="85" t="s">
         <v>3844</v>
       </c>
-      <c r="G23" s="358" t="s">
-        <v>4538</v>
+      <c r="G23" s="352" t="s">
+        <v>4533</v>
       </c>
       <c r="H23" s="201"/>
       <c r="I23" s="5" t="s">
@@ -24916,7 +24869,7 @@
       <c r="AT23" s="13"/>
     </row>
     <row r="24" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A24" s="399" t="s">
+      <c r="A24" s="385" t="s">
         <v>3904</v>
       </c>
       <c r="B24" s="38" t="s">
@@ -24927,11 +24880,11 @@
       </c>
       <c r="D24" s="137"/>
       <c r="E24" s="278" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="F24" s="208"/>
       <c r="G24" s="228" t="s">
-        <v>4540</v>
+        <v>4535</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="5" t="s">
@@ -24941,7 +24894,7 @@
         <v>232</v>
       </c>
       <c r="K24" s="38" t="s">
-        <v>4546</v>
+        <v>4541</v>
       </c>
       <c r="L24" s="19" t="s">
         <v>233</v>
@@ -24958,7 +24911,7 @@
       <c r="R24" s="24"/>
       <c r="S24" s="24"/>
       <c r="T24" s="24"/>
-      <c r="U24" s="383" t="s">
+      <c r="U24" s="371" t="s">
         <v>69</v>
       </c>
       <c r="V24" s="13" t="s">
@@ -24992,8 +24945,8 @@
       <c r="AT24" s="13"/>
     </row>
     <row r="25" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A25" s="399" t="s">
-        <v>4539</v>
+      <c r="A25" s="385" t="s">
+        <v>4534</v>
       </c>
       <c r="B25" s="38" t="s">
         <v>222</v>
@@ -25003,17 +24956,17 @@
       </c>
       <c r="D25" s="71"/>
       <c r="E25" s="278" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="F25" s="85"/>
       <c r="G25" s="228" t="s">
-        <v>4540</v>
+        <v>4535</v>
       </c>
       <c r="H25" s="6"/>
-      <c r="I25" s="406" t="s">
+      <c r="I25" s="392" t="s">
         <v>224</v>
       </c>
-      <c r="J25" s="402" t="s">
+      <c r="J25" s="388" t="s">
         <v>225</v>
       </c>
       <c r="K25" s="95" t="s">
@@ -25081,7 +25034,7 @@
         <v>241</v>
       </c>
       <c r="E26" s="278" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="F26" s="208"/>
       <c r="G26" s="38" t="s">
@@ -25120,7 +25073,7 @@
       <c r="V26" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="W26" s="474" t="s">
+      <c r="W26" s="459" t="s">
         <v>248</v>
       </c>
       <c r="X26" s="104"/>
@@ -25154,8 +25107,8 @@
       <c r="AT26" s="13"/>
     </row>
     <row r="27" spans="1:46" s="105" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A27" s="400" t="s">
-        <v>4509</v>
+      <c r="A27" s="386" t="s">
+        <v>4505</v>
       </c>
       <c r="B27" s="300" t="s">
         <v>249</v>
@@ -25167,11 +25120,11 @@
         <v>251</v>
       </c>
       <c r="E27" s="278" t="s">
-        <v>4434</v>
+        <v>4433</v>
       </c>
       <c r="F27" s="208"/>
       <c r="G27" s="121" t="s">
-        <v>4551</v>
+        <v>4546</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="139" t="s">
@@ -25200,11 +25153,11 @@
       <c r="R27" s="24"/>
       <c r="S27" s="24"/>
       <c r="T27" s="24"/>
-      <c r="U27" s="382" t="s">
+      <c r="U27" s="370" t="s">
         <v>32</v>
       </c>
       <c r="V27" s="13"/>
-      <c r="W27" s="475"/>
+      <c r="W27" s="460"/>
       <c r="X27" s="169" t="s">
         <v>259</v>
       </c>
@@ -25249,11 +25202,11 @@
         <v>251</v>
       </c>
       <c r="E28" s="278" t="s">
-        <v>4434</v>
+        <v>4433</v>
       </c>
       <c r="F28" s="212"/>
       <c r="G28" s="121" t="s">
-        <v>4551</v>
+        <v>4546</v>
       </c>
       <c r="H28" s="13" t="s">
         <v>3705</v>
@@ -25269,7 +25222,7 @@
         <v>265</v>
       </c>
       <c r="M28" s="38"/>
-      <c r="N28" s="367"/>
+      <c r="N28" s="360"/>
       <c r="O28" s="113" t="s">
         <v>256</v>
       </c>
@@ -25282,7 +25235,7 @@
       <c r="R28" s="24"/>
       <c r="S28" s="24"/>
       <c r="T28" s="24"/>
-      <c r="U28" s="382" t="s">
+      <c r="U28" s="370" t="s">
         <v>32</v>
       </c>
       <c r="V28" s="13" t="s">
@@ -25297,7 +25250,7 @@
       <c r="Y28" s="169" t="s">
         <v>260</v>
       </c>
-      <c r="Z28" s="388"/>
+      <c r="Z28" s="374"/>
       <c r="AA28" s="89"/>
       <c r="AB28" s="13" t="s">
         <v>269</v>
@@ -25335,17 +25288,17 @@
       </c>
       <c r="D29" s="71"/>
       <c r="E29" s="278" t="s">
-        <v>4434</v>
+        <v>4433</v>
       </c>
       <c r="F29" s="85" t="s">
         <v>3844</v>
       </c>
-      <c r="G29" s="358"/>
+      <c r="G29" s="485"/>
       <c r="H29" s="201"/>
-      <c r="I29" s="406" t="s">
+      <c r="I29" s="392" t="s">
         <v>271</v>
       </c>
-      <c r="J29" s="402" t="s">
+      <c r="J29" s="388" t="s">
         <v>272</v>
       </c>
       <c r="K29" s="95" t="s">
@@ -25368,14 +25321,14 @@
       <c r="R29" s="24"/>
       <c r="S29" s="24"/>
       <c r="T29" s="24"/>
-      <c r="U29" s="369" t="s">
+      <c r="U29" s="493" t="s">
         <v>127</v>
       </c>
       <c r="V29" s="13" t="s">
         <v>33</v>
       </c>
       <c r="W29" s="126" t="s">
-        <v>4545</v>
+        <v>4540</v>
       </c>
       <c r="X29" s="89"/>
       <c r="Y29" s="89"/>
@@ -25410,12 +25363,12 @@
       <c r="B30" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="C30" s="493" t="s">
+      <c r="C30" s="477" t="s">
         <v>241</v>
       </c>
       <c r="D30" s="78"/>
       <c r="E30" s="278" t="s">
-        <v>4434</v>
+        <v>4433</v>
       </c>
       <c r="F30" s="85" t="s">
         <v>3844</v>
@@ -25455,10 +25408,10 @@
         <v>33</v>
       </c>
       <c r="W30" s="126" t="s">
-        <v>4544</v>
-      </c>
-      <c r="X30" s="386"/>
-      <c r="Y30" s="386"/>
+        <v>4539</v>
+      </c>
+      <c r="X30" s="372"/>
+      <c r="Y30" s="372"/>
       <c r="Z30" s="13" t="s">
         <v>152</v>
       </c>
@@ -25499,17 +25452,17 @@
       </c>
       <c r="D31" s="71"/>
       <c r="E31" s="278" t="s">
-        <v>4434</v>
+        <v>4433</v>
       </c>
       <c r="F31" s="85" t="s">
         <v>3844</v>
       </c>
       <c r="G31" s="320"/>
       <c r="H31" s="201"/>
-      <c r="I31" s="406" t="s">
+      <c r="I31" s="392" t="s">
         <v>285</v>
       </c>
-      <c r="J31" s="402" t="s">
+      <c r="J31" s="388" t="s">
         <v>286</v>
       </c>
       <c r="K31" s="95" t="s">
@@ -25539,7 +25492,7 @@
         <v>33</v>
       </c>
       <c r="W31" s="126" t="s">
-        <v>4543</v>
+        <v>4538</v>
       </c>
       <c r="X31" s="89"/>
       <c r="Y31" s="89"/>
@@ -25579,13 +25532,13 @@
         <v>250</v>
       </c>
       <c r="E32" s="278" t="s">
-        <v>4433</v>
-      </c>
-      <c r="F32" s="499"/>
-      <c r="G32" s="548" t="s">
-        <v>4551</v>
-      </c>
-      <c r="H32" s="504" t="s">
+        <v>4432</v>
+      </c>
+      <c r="F32" s="483"/>
+      <c r="G32" s="532" t="s">
+        <v>4546</v>
+      </c>
+      <c r="H32" s="488" t="s">
         <v>3706</v>
       </c>
       <c r="I32" s="139" t="s">
@@ -25601,7 +25554,7 @@
         <v>293</v>
       </c>
       <c r="M32" s="38"/>
-      <c r="N32" s="367"/>
+      <c r="N32" s="360"/>
       <c r="O32" s="154" t="s">
         <v>256</v>
       </c>
@@ -25621,7 +25574,7 @@
         <v>33</v>
       </c>
       <c r="W32" s="284" t="s">
-        <v>4541</v>
+        <v>4536</v>
       </c>
       <c r="X32" s="169" t="s">
         <v>259</v>
@@ -25667,11 +25620,11 @@
         <v>250</v>
       </c>
       <c r="E33" s="278" t="s">
-        <v>4433</v>
+        <v>4432</v>
       </c>
       <c r="F33" s="212"/>
       <c r="G33" s="121" t="s">
-        <v>4551</v>
+        <v>4546</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>3706</v>
@@ -25689,7 +25642,7 @@
         <v>298</v>
       </c>
       <c r="M33" s="135"/>
-      <c r="N33" s="367"/>
+      <c r="N33" s="360"/>
       <c r="O33" s="113" t="s">
         <v>256</v>
       </c>
@@ -25709,7 +25662,7 @@
         <v>33</v>
       </c>
       <c r="W33" s="284" t="s">
-        <v>4542</v>
+        <v>4537</v>
       </c>
       <c r="X33" s="165" t="s">
         <v>259</v>
@@ -25748,12 +25701,12 @@
       <c r="B34" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="533" t="s">
+      <c r="C34" s="517" t="s">
         <v>3976</v>
       </c>
       <c r="D34" s="74"/>
       <c r="E34" s="278" t="s">
-        <v>4433</v>
+        <v>4432</v>
       </c>
       <c r="F34" s="85" t="s">
         <v>3844</v>
@@ -25812,7 +25765,7 @@
       <c r="AF34" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="AG34" s="565"/>
+      <c r="AG34" s="549"/>
       <c r="AH34" s="13"/>
       <c r="AI34" s="13"/>
       <c r="AJ34" s="13"/>
@@ -25834,14 +25787,14 @@
       <c r="B35" s="38" t="s">
         <v>312</v>
       </c>
-      <c r="C35" s="493" t="s">
+      <c r="C35" s="477" t="s">
         <v>313</v>
       </c>
       <c r="D35" s="73" t="s">
         <v>314</v>
       </c>
       <c r="E35" s="278" t="s">
-        <v>4433</v>
+        <v>4432</v>
       </c>
       <c r="F35" s="208"/>
       <c r="G35" s="38" t="s">
@@ -25921,7 +25874,7 @@
       </c>
       <c r="F36" s="208"/>
       <c r="G36" s="228" t="s">
-        <v>4528</v>
+        <v>4523</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="208" t="s">
@@ -25959,7 +25912,7 @@
         <v>33</v>
       </c>
       <c r="W36" s="38" t="s">
-        <v>4525</v>
+        <v>4520</v>
       </c>
       <c r="X36" s="13"/>
       <c r="Y36" s="13"/>
@@ -26029,7 +25982,7 @@
       <c r="Q37" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="R37" s="518" t="s">
+      <c r="R37" s="502" t="s">
         <v>325</v>
       </c>
       <c r="S37" s="338"/>
@@ -26077,17 +26030,17 @@
         <v>337</v>
       </c>
       <c r="C38" s="95" t="s">
-        <v>4526</v>
+        <v>4521</v>
       </c>
       <c r="D38" s="74"/>
       <c r="E38" s="252" t="s">
         <v>3818</v>
       </c>
       <c r="F38" s="85" t="s">
-        <v>4502</v>
-      </c>
-      <c r="G38" s="501" t="s">
-        <v>4527</v>
+        <v>4498</v>
+      </c>
+      <c r="G38" s="485" t="s">
+        <v>4522</v>
       </c>
       <c r="H38" s="201"/>
       <c r="I38" s="13" t="s">
@@ -26111,7 +26064,7 @@
       <c r="Q38" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="R38" s="520"/>
+      <c r="R38" s="504"/>
       <c r="S38" s="96"/>
       <c r="T38" s="24"/>
       <c r="U38" s="13" t="s">
@@ -26121,7 +26074,7 @@
         <v>33</v>
       </c>
       <c r="W38" s="38" t="s">
-        <v>4687</v>
+        <v>4680</v>
       </c>
       <c r="X38" s="13"/>
       <c r="Y38" s="13"/>
@@ -26154,7 +26107,7 @@
       <c r="B39" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="492" t="s">
+      <c r="C39" s="476" t="s">
         <v>3918</v>
       </c>
       <c r="D39" s="73" t="s">
@@ -26167,7 +26120,7 @@
         <v>3844</v>
       </c>
       <c r="G39" s="228" t="s">
-        <v>4506</v>
+        <v>4502</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="196" t="s">
@@ -26249,7 +26202,7 @@
         <v>3844</v>
       </c>
       <c r="G40" s="228" t="s">
-        <v>4506</v>
+        <v>4502</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="196" t="s">
@@ -26314,16 +26267,16 @@
       <c r="B41" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="537" t="s">
+      <c r="C41" s="521" t="s">
         <v>3832</v>
       </c>
       <c r="D41" s="74"/>
       <c r="E41" s="278" t="s">
-        <v>4432</v>
+        <v>4431</v>
       </c>
       <c r="F41" s="208"/>
       <c r="G41" s="228" t="s">
-        <v>4559</v>
+        <v>4553</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="139" t="s">
@@ -26393,7 +26346,7 @@
       </c>
       <c r="D42" s="74"/>
       <c r="E42" s="278" t="s">
-        <v>4432</v>
+        <v>4431</v>
       </c>
       <c r="F42" s="85" t="s">
         <v>3844</v>
@@ -26471,7 +26424,7 @@
       </c>
       <c r="D43" s="74"/>
       <c r="E43" s="278" t="s">
-        <v>4432</v>
+        <v>4431</v>
       </c>
       <c r="F43" s="85" t="s">
         <v>3844</v>
@@ -26490,11 +26443,11 @@
       <c r="L43" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="M43" s="367" t="s">
+      <c r="M43" s="360" t="s">
         <v>360</v>
       </c>
-      <c r="N43" s="367"/>
-      <c r="O43" s="367"/>
+      <c r="N43" s="360"/>
+      <c r="O43" s="360"/>
       <c r="P43" s="23" t="s">
         <v>304</v>
       </c>
@@ -26553,7 +26506,7 @@
       </c>
       <c r="D44" s="74"/>
       <c r="E44" s="278" t="s">
-        <v>4432</v>
+        <v>4431</v>
       </c>
       <c r="F44" s="208"/>
       <c r="G44" s="38" t="s">
@@ -26566,7 +26519,7 @@
       <c r="J44" s="38" t="s">
         <v>368</v>
       </c>
-      <c r="K44" s="488" t="s">
+      <c r="K44" s="472" t="s">
         <v>369</v>
       </c>
       <c r="L44" s="19" t="s">
@@ -26630,7 +26583,7 @@
         <v>4291</v>
       </c>
       <c r="F45" s="208"/>
-      <c r="G45" s="361" t="s">
+      <c r="G45" s="534" t="s">
         <v>4012</v>
       </c>
       <c r="H45" s="13"/>
@@ -26708,7 +26661,7 @@
       <c r="F46" s="85" t="s">
         <v>3844</v>
       </c>
-      <c r="G46" s="501"/>
+      <c r="G46" s="485"/>
       <c r="H46" s="201"/>
       <c r="I46" s="5" t="s">
         <v>379</v>
@@ -26873,7 +26826,7 @@
       <c r="I48" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="J48" s="490"/>
+      <c r="J48" s="474"/>
       <c r="K48" s="38" t="s">
         <v>395</v>
       </c>
@@ -26883,13 +26836,13 @@
       <c r="M48" s="147"/>
       <c r="N48" s="147"/>
       <c r="O48" s="147"/>
-      <c r="P48" s="514" t="s">
+      <c r="P48" s="498" t="s">
         <v>397</v>
       </c>
       <c r="Q48" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="R48" s="520" t="s">
+      <c r="R48" s="504" t="s">
         <v>399</v>
       </c>
       <c r="S48" s="96"/>
@@ -26918,7 +26871,7 @@
       <c r="AC48" s="13"/>
       <c r="AD48" s="13"/>
       <c r="AE48" s="89"/>
-      <c r="AF48" s="504"/>
+      <c r="AF48" s="488"/>
       <c r="AG48" s="13"/>
       <c r="AH48" s="13"/>
       <c r="AI48" s="13"/>
@@ -26941,7 +26894,7 @@
       <c r="B49" s="95" t="s">
         <v>403</v>
       </c>
-      <c r="C49" s="493" t="s">
+      <c r="C49" s="477" t="s">
         <v>404</v>
       </c>
       <c r="D49" s="137"/>
@@ -26954,7 +26907,7 @@
       <c r="I49" s="98" t="s">
         <v>405</v>
       </c>
-      <c r="J49" s="418"/>
+      <c r="J49" s="404"/>
       <c r="K49" s="13" t="s">
         <v>406</v>
       </c>
@@ -26972,7 +26925,7 @@
       <c r="Q49" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="R49" s="520"/>
+      <c r="R49" s="504"/>
       <c r="S49" s="97" t="s">
         <v>411</v>
       </c>
@@ -27062,7 +27015,7 @@
       <c r="Q50" s="24" t="s">
         <v>421</v>
       </c>
-      <c r="R50" s="520"/>
+      <c r="R50" s="504"/>
       <c r="S50" s="96"/>
       <c r="T50" s="89"/>
       <c r="U50" s="19" t="s">
@@ -27136,7 +27089,7 @@
       <c r="M51" s="148"/>
       <c r="N51" s="148"/>
       <c r="O51" s="148"/>
-      <c r="P51" s="373" t="s">
+      <c r="P51" s="363" t="s">
         <v>81</v>
       </c>
       <c r="Q51" s="25" t="s">
@@ -27276,13 +27229,13 @@
       <c r="C53" s="205" t="s">
         <v>3833</v>
       </c>
-      <c r="D53" s="543"/>
-      <c r="E53" s="352" t="s">
+      <c r="D53" s="527"/>
+      <c r="E53" s="347" t="s">
         <v>4292</v>
       </c>
       <c r="F53" s="208"/>
       <c r="G53" s="335" t="s">
-        <v>4566</v>
+        <v>4560</v>
       </c>
       <c r="H53" s="13"/>
       <c r="I53" s="5" t="s">
@@ -27361,7 +27314,7 @@
       <c r="B54" s="95" t="s">
         <v>453</v>
       </c>
-      <c r="C54" s="345" t="s">
+      <c r="C54" s="477" t="s">
         <v>430</v>
       </c>
       <c r="D54" s="74"/>
@@ -27692,7 +27645,7 @@
         <v>3844</v>
       </c>
       <c r="G58" s="303" t="s">
-        <v>4506</v>
+        <v>4502</v>
       </c>
       <c r="H58" s="13"/>
       <c r="I58" s="5" t="s">
@@ -27774,7 +27727,7 @@
         <v>3844</v>
       </c>
       <c r="G59" s="303" t="s">
-        <v>4506</v>
+        <v>4502</v>
       </c>
       <c r="H59" s="13"/>
       <c r="I59" s="5" t="s">
@@ -28186,7 +28139,7 @@
       <c r="Q64" s="31" t="s">
         <v>528</v>
       </c>
-      <c r="R64" s="380"/>
+      <c r="R64" s="368"/>
       <c r="S64" s="97"/>
       <c r="T64" s="97"/>
       <c r="U64" s="43" t="s">
@@ -28241,7 +28194,7 @@
       <c r="F65" s="231" t="s">
         <v>3844</v>
       </c>
-      <c r="G65" s="550"/>
+      <c r="G65" s="534"/>
       <c r="H65" s="13"/>
       <c r="I65" s="139" t="s">
         <v>531</v>
@@ -28321,7 +28274,7 @@
         <v>4293</v>
       </c>
       <c r="F66" s="208"/>
-      <c r="G66" s="490" t="s">
+      <c r="G66" s="474" t="s">
         <v>3994</v>
       </c>
       <c r="H66" s="13" t="s">
@@ -28330,7 +28283,7 @@
       <c r="I66" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="J66" s="490" t="s">
+      <c r="J66" s="474" t="s">
         <v>542</v>
       </c>
       <c r="K66" s="38" t="s">
@@ -28514,7 +28467,7 @@
       <c r="Q68" s="17" t="s">
         <v>561</v>
       </c>
-      <c r="R68" s="518"/>
+      <c r="R68" s="502"/>
       <c r="S68" s="97"/>
       <c r="T68" s="17"/>
       <c r="U68" s="13" t="s">
@@ -28964,7 +28917,7 @@
       <c r="A74" s="95" t="s">
         <v>3939</v>
       </c>
-      <c r="B74" s="490" t="s">
+      <c r="B74" s="474" t="s">
         <v>35</v>
       </c>
       <c r="C74" s="205" t="s">
@@ -28976,7 +28929,7 @@
       </c>
       <c r="F74" s="208"/>
       <c r="G74" s="334" t="s">
-        <v>4573</v>
+        <v>4567</v>
       </c>
       <c r="H74" s="13"/>
       <c r="I74" s="5" t="s">
@@ -29000,10 +28953,10 @@
       <c r="Q74" s="24" t="s">
         <v>616</v>
       </c>
-      <c r="R74" s="520"/>
+      <c r="R74" s="504"/>
       <c r="S74" s="96"/>
       <c r="T74" s="96"/>
-      <c r="U74" s="504" t="s">
+      <c r="U74" s="488" t="s">
         <v>596</v>
       </c>
       <c r="V74" s="13" t="s">
@@ -29046,7 +28999,7 @@
       <c r="C75" s="195" t="s">
         <v>3589</v>
       </c>
-      <c r="D75" s="494"/>
+      <c r="D75" s="478"/>
       <c r="E75" s="250" t="s">
         <v>4310</v>
       </c>
@@ -29079,7 +29032,7 @@
       <c r="R75" s="24"/>
       <c r="S75" s="24"/>
       <c r="T75" s="24"/>
-      <c r="U75" s="504" t="s">
+      <c r="U75" s="488" t="s">
         <v>41</v>
       </c>
       <c r="V75" s="13" t="s">
@@ -29111,7 +29064,7 @@
       <c r="AT75" s="13"/>
     </row>
     <row r="76" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A76" s="95" t="s">
+      <c r="A76" s="469" t="s">
         <v>623</v>
       </c>
       <c r="B76" s="38" t="s">
@@ -29153,7 +29106,7 @@
       <c r="T76" s="29" t="s">
         <v>632</v>
       </c>
-      <c r="U76" s="521" t="s">
+      <c r="U76" s="505" t="s">
         <v>32</v>
       </c>
       <c r="V76" s="13" t="s">
@@ -29231,7 +29184,7 @@
       <c r="T77" s="29" t="s">
         <v>642</v>
       </c>
-      <c r="U77" s="504" t="s">
+      <c r="U77" s="488" t="s">
         <v>477</v>
       </c>
       <c r="V77" s="13" t="s">
@@ -29274,7 +29227,7 @@
       <c r="C78" s="95" t="s">
         <v>644</v>
       </c>
-      <c r="D78" s="494"/>
+      <c r="D78" s="478"/>
       <c r="E78" s="250" t="s">
         <v>4296</v>
       </c>
@@ -29284,7 +29237,7 @@
       <c r="G78" s="38" t="s">
         <v>3994</v>
       </c>
-      <c r="H78" s="364"/>
+      <c r="H78" s="357"/>
       <c r="I78" s="5" t="s">
         <v>645</v>
       </c>
@@ -29309,7 +29262,7 @@
       <c r="R78" s="24"/>
       <c r="S78" s="24"/>
       <c r="T78" s="24"/>
-      <c r="U78" s="504" t="s">
+      <c r="U78" s="488" t="s">
         <v>41</v>
       </c>
       <c r="V78" s="13" t="s">
@@ -29385,7 +29338,7 @@
       <c r="T79" s="25" t="s">
         <v>655</v>
       </c>
-      <c r="U79" s="504" t="s">
+      <c r="U79" s="488" t="s">
         <v>656</v>
       </c>
       <c r="V79" s="13" t="s">
@@ -29439,14 +29392,14 @@
       <c r="D80" s="307" t="s">
         <v>547</v>
       </c>
-      <c r="E80" s="356" t="s">
+      <c r="E80" s="351" t="s">
         <v>4296</v>
       </c>
       <c r="F80" s="214" t="s">
         <v>3844</v>
       </c>
       <c r="G80" s="320" t="s">
-        <v>4565</v>
+        <v>4559</v>
       </c>
       <c r="H80" s="201"/>
       <c r="I80" s="139" t="s">
@@ -29477,7 +29430,7 @@
       <c r="T80" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="U80" s="383" t="s">
+      <c r="U80" s="371" t="s">
         <v>69</v>
       </c>
       <c r="V80" s="13" t="s">
@@ -29524,10 +29477,10 @@
       <c r="C81" s="197" t="s">
         <v>3961</v>
       </c>
-      <c r="D81" s="350" t="s">
+      <c r="D81" s="345" t="s">
         <v>547</v>
       </c>
-      <c r="E81" s="355"/>
+      <c r="E81" s="350"/>
       <c r="F81" s="214" t="s">
         <v>3844</v>
       </c>
@@ -29599,7 +29552,7 @@
         <v>3962</v>
       </c>
       <c r="D82" s="137"/>
-      <c r="E82" s="354" t="s">
+      <c r="E82" s="349" t="s">
         <v>4296</v>
       </c>
       <c r="F82" s="214" t="s">
@@ -29633,14 +29586,14 @@
       <c r="T82" s="24" t="s">
         <v>680</v>
       </c>
-      <c r="U82" s="504" t="s">
+      <c r="U82" s="488" t="s">
         <v>41</v>
       </c>
       <c r="V82" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="W82" s="476" t="s">
-        <v>4524</v>
+      <c r="W82" s="461" t="s">
+        <v>4519</v>
       </c>
       <c r="X82" s="89"/>
       <c r="Y82" s="89"/>
@@ -29709,7 +29662,7 @@
       <c r="T83" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="U83" s="490" t="s">
+      <c r="U83" s="474" t="s">
         <v>686</v>
       </c>
       <c r="V83" s="13" t="s">
@@ -29760,7 +29713,7 @@
       </c>
       <c r="F84" s="208"/>
       <c r="G84" s="121" t="s">
-        <v>4555</v>
+        <v>4550</v>
       </c>
       <c r="H84" s="13"/>
       <c r="I84" s="5" t="s">
@@ -29828,7 +29781,7 @@
       <c r="C85" s="95" t="s">
         <v>695</v>
       </c>
-      <c r="D85" s="539"/>
+      <c r="D85" s="523"/>
       <c r="E85" s="333" t="s">
         <v>4297</v>
       </c>
@@ -29865,7 +29818,7 @@
       <c r="R85" s="24"/>
       <c r="S85" s="24"/>
       <c r="T85" s="24"/>
-      <c r="U85" s="504" t="s">
+      <c r="U85" s="488" t="s">
         <v>41</v>
       </c>
       <c r="V85" s="13" t="s">
@@ -29943,7 +29896,7 @@
       <c r="T86" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="U86" s="516" t="s">
+      <c r="U86" s="500" t="s">
         <v>335</v>
       </c>
       <c r="V86" s="13" t="s">
@@ -30019,7 +29972,7 @@
       <c r="T87" s="29" t="s">
         <v>712</v>
       </c>
-      <c r="U87" s="504" t="s">
+      <c r="U87" s="488" t="s">
         <v>477</v>
       </c>
       <c r="V87" s="13" t="s">
@@ -30105,7 +30058,7 @@
       <c r="R88" s="24"/>
       <c r="S88" s="24"/>
       <c r="T88" s="24"/>
-      <c r="U88" s="504" t="s">
+      <c r="U88" s="488" t="s">
         <v>41</v>
       </c>
       <c r="V88" s="13" t="s">
@@ -30152,7 +30105,7 @@
       <c r="E89" s="250" t="s">
         <v>4299</v>
       </c>
-      <c r="F89" s="496"/>
+      <c r="F89" s="480"/>
       <c r="G89" s="228"/>
       <c r="H89" s="13"/>
       <c r="I89" s="139" t="s">
@@ -30183,7 +30136,7 @@
       <c r="T89" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="U89" s="504" t="s">
+      <c r="U89" s="488" t="s">
         <v>477</v>
       </c>
       <c r="V89" s="13" t="s">
@@ -30230,13 +30183,13 @@
       <c r="C90" s="287" t="s">
         <v>735</v>
       </c>
-      <c r="D90" s="494"/>
+      <c r="D90" s="478"/>
       <c r="E90" s="250" t="s">
         <v>4299</v>
       </c>
-      <c r="F90" s="496"/>
+      <c r="F90" s="480"/>
       <c r="G90" s="317"/>
-      <c r="H90" s="363"/>
+      <c r="H90" s="356"/>
       <c r="I90" s="5" t="s">
         <v>736</v>
       </c>
@@ -30265,7 +30218,7 @@
       <c r="T90" s="24" t="s">
         <v>743</v>
       </c>
-      <c r="U90" s="504" t="s">
+      <c r="U90" s="488" t="s">
         <v>477</v>
       </c>
       <c r="V90" s="13" t="s">
@@ -30304,25 +30257,25 @@
     </row>
     <row r="91" spans="1:46" ht="15.75" customHeight="1">
       <c r="A91" s="95" t="s">
-        <v>4512</v>
+        <v>4508</v>
       </c>
       <c r="B91" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C91" s="493" t="s">
+      <c r="C91" s="477" t="s">
         <v>3834</v>
       </c>
-      <c r="D91" s="495" t="s">
+      <c r="D91" s="479" t="s">
         <v>746</v>
       </c>
       <c r="E91" s="290" t="s">
         <v>4299</v>
       </c>
-      <c r="F91" s="496"/>
+      <c r="F91" s="480"/>
       <c r="G91" s="126" t="s">
         <v>3994</v>
       </c>
-      <c r="H91" s="504"/>
+      <c r="H91" s="488"/>
       <c r="I91" s="5" t="s">
         <v>747</v>
       </c>
@@ -30347,13 +30300,13 @@
       <c r="R91" s="24"/>
       <c r="S91" s="24"/>
       <c r="T91" s="24"/>
-      <c r="U91" s="132" t="s">
+      <c r="U91" s="488" t="s">
         <v>41</v>
       </c>
       <c r="V91" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="W91" s="521" t="s">
+      <c r="W91" s="505" t="s">
         <v>751</v>
       </c>
       <c r="X91" s="13"/>
@@ -30427,7 +30380,7 @@
       <c r="T92" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="U92" s="504" t="s">
+      <c r="U92" s="488" t="s">
         <v>41</v>
       </c>
       <c r="V92" s="13" t="s">
@@ -30465,7 +30418,7 @@
       <c r="B93" s="38" t="s">
         <v>428</v>
       </c>
-      <c r="C93" s="538" t="s">
+      <c r="C93" s="522" t="s">
         <v>3966</v>
       </c>
       <c r="D93" s="74"/>
@@ -30507,7 +30460,7 @@
       <c r="T93" s="33" t="s">
         <v>3714</v>
       </c>
-      <c r="U93" s="504" t="s">
+      <c r="U93" s="488" t="s">
         <v>477</v>
       </c>
       <c r="V93" s="13" t="s">
@@ -30547,7 +30500,7 @@
       <c r="B94" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C94" s="493" t="s">
+      <c r="C94" s="477" t="s">
         <v>767</v>
       </c>
       <c r="D94" s="74"/>
@@ -30581,7 +30534,7 @@
       <c r="R94" s="24"/>
       <c r="S94" s="24"/>
       <c r="T94" s="24"/>
-      <c r="U94" s="521" t="s">
+      <c r="U94" s="505" t="s">
         <v>32</v>
       </c>
       <c r="V94" s="13" t="s">
@@ -30695,18 +30648,18 @@
       <c r="B96" s="95" t="s">
         <v>393</v>
       </c>
-      <c r="C96" s="493" t="s">
+      <c r="C96" s="477" t="s">
         <v>746</v>
       </c>
-      <c r="D96" s="494"/>
+      <c r="D96" s="478"/>
       <c r="E96" s="250" t="s">
         <v>4311</v>
       </c>
-      <c r="F96" s="496"/>
+      <c r="F96" s="480"/>
       <c r="G96" s="38" t="s">
         <v>3994</v>
       </c>
-      <c r="H96" s="504"/>
+      <c r="H96" s="488"/>
       <c r="I96" s="5" t="s">
         <v>778</v>
       </c>
@@ -30722,7 +30675,7 @@
       <c r="M96" s="147"/>
       <c r="N96" s="147"/>
       <c r="O96" s="147"/>
-      <c r="P96" s="373" t="s">
+      <c r="P96" s="363" t="s">
         <v>81</v>
       </c>
       <c r="Q96" s="24" t="s">
@@ -30731,7 +30684,7 @@
       <c r="R96" s="24"/>
       <c r="S96" s="24"/>
       <c r="T96" s="24"/>
-      <c r="U96" s="132" t="s">
+      <c r="U96" s="488" t="s">
         <v>41</v>
       </c>
       <c r="V96" s="13" t="s">
@@ -30778,11 +30731,11 @@
       </c>
       <c r="F97" s="208"/>
       <c r="G97" s="336" t="s">
-        <v>4553</v>
+        <v>4548</v>
       </c>
       <c r="H97" s="13"/>
       <c r="I97" s="139" t="s">
-        <v>4552</v>
+        <v>4547</v>
       </c>
       <c r="J97" s="38"/>
       <c r="K97" s="38" t="s">
@@ -30805,7 +30758,7 @@
       <c r="R97" s="24"/>
       <c r="S97" s="24"/>
       <c r="T97" s="24"/>
-      <c r="U97" s="382" t="s">
+      <c r="U97" s="505" t="s">
         <v>32</v>
       </c>
       <c r="V97" s="13" t="s">
@@ -30879,7 +30832,7 @@
       <c r="R98" s="24"/>
       <c r="S98" s="24"/>
       <c r="T98" s="24"/>
-      <c r="U98" s="516" t="s">
+      <c r="U98" s="500" t="s">
         <v>335</v>
       </c>
       <c r="V98" s="13" t="s">
@@ -30917,7 +30870,7 @@
       <c r="B99" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C99" s="531" t="s">
+      <c r="C99" s="515" t="s">
         <v>3969</v>
       </c>
       <c r="D99" s="73" t="s">
@@ -30955,7 +30908,7 @@
       <c r="R99" s="24"/>
       <c r="S99" s="24"/>
       <c r="T99" s="24"/>
-      <c r="U99" s="504" t="s">
+      <c r="U99" s="488" t="s">
         <v>41</v>
       </c>
       <c r="V99" s="13" t="s">
@@ -30993,7 +30946,7 @@
       <c r="B100" s="38" t="s">
         <v>798</v>
       </c>
-      <c r="C100" s="493" t="s">
+      <c r="C100" s="477" t="s">
         <v>799</v>
       </c>
       <c r="D100" s="74"/>
@@ -31027,7 +30980,7 @@
       <c r="R100" s="24"/>
       <c r="S100" s="24"/>
       <c r="T100" s="24"/>
-      <c r="U100" s="292" t="s">
+      <c r="U100" s="500" t="s">
         <v>335</v>
       </c>
       <c r="V100" s="13" t="s">
@@ -31149,7 +31102,7 @@
       <c r="B102" s="38" t="s">
         <v>817</v>
       </c>
-      <c r="C102" s="493" t="s">
+      <c r="C102" s="477" t="s">
         <v>793</v>
       </c>
       <c r="D102" s="74"/>
@@ -31187,7 +31140,7 @@
       <c r="R102" s="24"/>
       <c r="S102" s="24"/>
       <c r="T102" s="24"/>
-      <c r="U102" s="504" t="s">
+      <c r="U102" s="488" t="s">
         <v>41</v>
       </c>
       <c r="V102" s="13" t="s">
@@ -31230,13 +31183,13 @@
       </c>
       <c r="D103" s="74"/>
       <c r="E103" s="252" t="s">
-        <v>4535</v>
+        <v>4530</v>
       </c>
       <c r="F103" s="85" t="s">
         <v>3844</v>
       </c>
       <c r="G103" s="320" t="s">
-        <v>4534</v>
+        <v>4529</v>
       </c>
       <c r="H103" s="201"/>
       <c r="I103" s="13" t="s">
@@ -31267,7 +31220,7 @@
       <c r="T103" s="25" t="s">
         <v>829</v>
       </c>
-      <c r="U103" s="504" t="s">
+      <c r="U103" s="488" t="s">
         <v>477</v>
       </c>
       <c r="V103" s="13" t="s">
@@ -31318,7 +31271,7 @@
       </c>
       <c r="D104" s="74"/>
       <c r="E104" s="252" t="s">
-        <v>4535</v>
+        <v>4530</v>
       </c>
       <c r="F104" s="208"/>
       <c r="G104" s="228"/>
@@ -31349,7 +31302,7 @@
       <c r="R104" s="17"/>
       <c r="S104" s="17"/>
       <c r="T104" s="17"/>
-      <c r="U104" s="516" t="s">
+      <c r="U104" s="500" t="s">
         <v>335</v>
       </c>
       <c r="V104" s="13" t="s">
@@ -31431,7 +31384,7 @@
       <c r="T105" s="33" t="s">
         <v>848</v>
       </c>
-      <c r="U105" s="504" t="s">
+      <c r="U105" s="488" t="s">
         <v>477</v>
       </c>
       <c r="V105" s="13" t="s">
@@ -31471,7 +31424,7 @@
       <c r="B106" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C106" s="492" t="s">
+      <c r="C106" s="476" t="s">
         <v>850</v>
       </c>
       <c r="D106" s="74"/>
@@ -31507,7 +31460,7 @@
       <c r="R106" s="17"/>
       <c r="S106" s="17"/>
       <c r="T106" s="17"/>
-      <c r="U106" s="504" t="s">
+      <c r="U106" s="488" t="s">
         <v>41</v>
       </c>
       <c r="V106" s="13" t="s">
@@ -31554,7 +31507,7 @@
       </c>
       <c r="F107" s="208"/>
       <c r="G107" s="121" t="s">
-        <v>4570</v>
+        <v>4564</v>
       </c>
       <c r="H107" s="13"/>
       <c r="I107" s="5" t="s">
@@ -31570,13 +31523,13 @@
       <c r="M107" s="147"/>
       <c r="N107" s="148"/>
       <c r="O107" s="148" t="s">
-        <v>4691</v>
+        <v>4684</v>
       </c>
       <c r="P107" s="19" t="s">
         <v>859</v>
       </c>
       <c r="Q107" s="33" t="s">
-        <v>4684</v>
+        <v>4677</v>
       </c>
       <c r="R107" s="33" t="s">
         <v>860</v>
@@ -31585,14 +31538,14 @@
       <c r="T107" s="33" t="s">
         <v>861</v>
       </c>
-      <c r="U107" s="132" t="s">
+      <c r="U107" s="488" t="s">
         <v>862</v>
       </c>
       <c r="V107" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="W107" s="473" t="s">
-        <v>4685</v>
+      <c r="W107" s="458" t="s">
+        <v>4678</v>
       </c>
       <c r="X107" s="167" t="s">
         <v>171</v>
@@ -31641,18 +31594,18 @@
         <v>855</v>
       </c>
       <c r="D108" s="205" t="s">
-        <v>4569</v>
+        <v>4563</v>
       </c>
       <c r="E108" s="266" t="s">
         <v>4304</v>
       </c>
       <c r="F108" s="208"/>
       <c r="G108" s="121" t="s">
-        <v>4570</v>
+        <v>4564</v>
       </c>
       <c r="H108" s="13"/>
       <c r="I108" s="139" t="s">
-        <v>4568</v>
+        <v>4562</v>
       </c>
       <c r="J108" s="38"/>
       <c r="K108" s="38" t="s">
@@ -31666,7 +31619,7 @@
       </c>
       <c r="N108" s="38"/>
       <c r="O108" s="148" t="s">
-        <v>4690</v>
+        <v>4683</v>
       </c>
       <c r="P108" s="19" t="s">
         <v>868</v>
@@ -31681,14 +31634,14 @@
       <c r="T108" s="17" t="s">
         <v>871</v>
       </c>
-      <c r="U108" s="516" t="s">
+      <c r="U108" s="500" t="s">
         <v>872</v>
       </c>
       <c r="V108" s="35" t="s">
         <v>33</v>
       </c>
       <c r="W108" s="13" t="s">
-        <v>4686</v>
+        <v>4679</v>
       </c>
       <c r="X108" s="13"/>
       <c r="Y108" s="13"/>
@@ -31725,28 +31678,28 @@
         <v>855</v>
       </c>
       <c r="D109" s="95" t="s">
-        <v>4675</v>
+        <v>4668</v>
       </c>
       <c r="E109" s="252" t="s">
         <v>4304</v>
       </c>
       <c r="F109" s="85" t="s">
-        <v>4674</v>
+        <v>4498</v>
       </c>
       <c r="G109" s="121" t="s">
-        <v>4570</v>
+        <v>4564</v>
       </c>
       <c r="H109" s="121" t="s">
-        <v>4570</v>
+        <v>4564</v>
       </c>
       <c r="I109" s="98" t="s">
         <v>874</v>
       </c>
       <c r="J109" s="121" t="s">
-        <v>4688</v>
+        <v>4681</v>
       </c>
       <c r="K109" s="95" t="s">
-        <v>4676</v>
+        <v>4669</v>
       </c>
       <c r="L109" s="19" t="s">
         <v>875</v>
@@ -31754,7 +31707,7 @@
       <c r="M109" s="147"/>
       <c r="N109" s="148"/>
       <c r="O109" s="148" t="s">
-        <v>4691</v>
+        <v>4684</v>
       </c>
       <c r="P109" s="19" t="s">
         <v>876</v>
@@ -31762,17 +31715,17 @@
       <c r="Q109" s="17" t="s">
         <v>877</v>
       </c>
-      <c r="R109" s="518"/>
+      <c r="R109" s="502"/>
       <c r="S109" s="97"/>
       <c r="T109" s="17"/>
-      <c r="U109" s="521" t="s">
+      <c r="U109" s="505" t="s">
         <v>32</v>
       </c>
       <c r="V109" s="13" t="s">
         <v>33</v>
       </c>
       <c r="W109" s="13" t="s">
-        <v>4689</v>
+        <v>4682</v>
       </c>
       <c r="X109" s="13"/>
       <c r="Y109" s="13"/>
@@ -31820,7 +31773,7 @@
       <c r="I110" s="139" t="s">
         <v>879</v>
       </c>
-      <c r="J110" s="490"/>
+      <c r="J110" s="474"/>
       <c r="K110" s="38" t="s">
         <v>880</v>
       </c>
@@ -31845,7 +31798,7 @@
       <c r="T110" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="U110" s="521" t="s">
+      <c r="U110" s="505" t="s">
         <v>32</v>
       </c>
       <c r="V110" s="13" t="s">
@@ -31892,7 +31845,7 @@
       </c>
       <c r="F111" s="208"/>
       <c r="G111" s="121" t="s">
-        <v>4556</v>
+        <v>4551</v>
       </c>
       <c r="H111" s="13"/>
       <c r="I111" s="5" t="s">
@@ -31917,7 +31870,7 @@
       <c r="R111" s="17"/>
       <c r="S111" s="17"/>
       <c r="T111" s="17"/>
-      <c r="U111" s="383" t="s">
+      <c r="U111" s="371" t="s">
         <v>69</v>
       </c>
       <c r="V111" s="13" t="s">
@@ -31993,7 +31946,7 @@
       <c r="R112" s="17"/>
       <c r="S112" s="17"/>
       <c r="T112" s="17"/>
-      <c r="U112" s="504" t="s">
+      <c r="U112" s="488" t="s">
         <v>41</v>
       </c>
       <c r="V112" s="13" t="s">
@@ -32071,7 +32024,7 @@
       <c r="T113" s="33" t="s">
         <v>906</v>
       </c>
-      <c r="U113" s="504" t="s">
+      <c r="U113" s="488" t="s">
         <v>477</v>
       </c>
       <c r="V113" s="13" t="s">
@@ -32200,7 +32153,7 @@
         <v>922</v>
       </c>
       <c r="C115" s="107" t="s">
-        <v>4441</v>
+        <v>4440</v>
       </c>
       <c r="D115" s="74"/>
       <c r="E115" s="266" t="s">
@@ -32313,7 +32266,7 @@
       <c r="R116" s="17"/>
       <c r="S116" s="17"/>
       <c r="T116" s="17"/>
-      <c r="U116" s="382" t="s">
+      <c r="U116" s="505" t="s">
         <v>32</v>
       </c>
       <c r="V116" s="13" t="s">
@@ -32391,7 +32344,7 @@
       <c r="T117" s="33" t="s">
         <v>942</v>
       </c>
-      <c r="U117" s="132" t="s">
+      <c r="U117" s="488" t="s">
         <v>477</v>
       </c>
       <c r="V117" s="13" t="s">
@@ -32438,7 +32391,7 @@
       </c>
       <c r="D118" s="74"/>
       <c r="E118" s="252" t="s">
-        <v>4438</v>
+        <v>4437</v>
       </c>
       <c r="F118" s="85" t="s">
         <v>3844</v>
@@ -32475,7 +32428,7 @@
       <c r="T118" s="29" t="s">
         <v>954</v>
       </c>
-      <c r="U118" s="296" t="s">
+      <c r="U118" s="474" t="s">
         <v>955</v>
       </c>
       <c r="V118" s="13" t="s">
@@ -32520,7 +32473,7 @@
       </c>
       <c r="D119" s="74"/>
       <c r="E119" s="252" t="s">
-        <v>4438</v>
+        <v>4437</v>
       </c>
       <c r="F119" s="208"/>
       <c r="G119" s="228"/>
@@ -32549,7 +32502,7 @@
       <c r="R119" s="24"/>
       <c r="S119" s="24"/>
       <c r="T119" s="24"/>
-      <c r="U119" s="521" t="s">
+      <c r="U119" s="505" t="s">
         <v>32</v>
       </c>
       <c r="V119" s="13" t="s">
@@ -32598,7 +32551,7 @@
       </c>
       <c r="D120" s="74"/>
       <c r="E120" s="252" t="s">
-        <v>4438</v>
+        <v>4437</v>
       </c>
       <c r="F120" s="85" t="s">
         <v>3844</v>
@@ -32628,10 +32581,10 @@
       <c r="Q120" s="24" t="s">
         <v>971</v>
       </c>
-      <c r="R120" s="520"/>
+      <c r="R120" s="504"/>
       <c r="S120" s="96"/>
       <c r="T120" s="24"/>
-      <c r="U120" s="132" t="s">
+      <c r="U120" s="488" t="s">
         <v>41</v>
       </c>
       <c r="V120" s="13" t="s">
@@ -32674,14 +32627,14 @@
       </c>
       <c r="D121" s="74"/>
       <c r="E121" s="252" t="s">
-        <v>4379</v>
+        <v>4378</v>
       </c>
       <c r="F121" s="85" t="s">
         <v>3844</v>
       </c>
       <c r="G121" s="320"/>
       <c r="H121" s="201"/>
-      <c r="I121" s="98" t="s">
+      <c r="I121" s="86" t="s">
         <v>973</v>
       </c>
       <c r="J121" s="38"/>
@@ -32699,17 +32652,17 @@
       <c r="P121" s="23" t="s">
         <v>792</v>
       </c>
-      <c r="Q121" s="520" t="s">
+      <c r="Q121" s="504" t="s">
         <v>29</v>
       </c>
-      <c r="R121" s="520"/>
+      <c r="R121" s="504"/>
       <c r="S121" s="163" t="s">
         <v>975</v>
       </c>
       <c r="T121" s="96" t="s">
         <v>976</v>
       </c>
-      <c r="U121" s="292" t="s">
+      <c r="U121" s="500" t="s">
         <v>335</v>
       </c>
       <c r="V121" s="13" t="s">
@@ -32752,7 +32705,7 @@
       </c>
       <c r="D122" s="77"/>
       <c r="E122" s="254" t="s">
-        <v>4379</v>
+        <v>4378</v>
       </c>
       <c r="F122" s="85" t="s">
         <v>3844</v>
@@ -32784,7 +32737,7 @@
       <c r="Q122" s="49" t="s">
         <v>983</v>
       </c>
-      <c r="R122" s="379"/>
+      <c r="R122" s="367"/>
       <c r="S122" s="163"/>
       <c r="T122" s="29"/>
       <c r="U122" s="50" t="s">
@@ -32840,7 +32793,7 @@
       </c>
       <c r="D123" s="74"/>
       <c r="E123" s="252" t="s">
-        <v>4380</v>
+        <v>4379</v>
       </c>
       <c r="F123" s="208"/>
       <c r="G123" s="228"/>
@@ -32873,7 +32826,7 @@
       <c r="T123" s="24" t="s">
         <v>998</v>
       </c>
-      <c r="U123" s="516" t="s">
+      <c r="U123" s="500" t="s">
         <v>335</v>
       </c>
       <c r="V123" s="13" t="s">
@@ -32916,7 +32869,7 @@
       </c>
       <c r="D124" s="74"/>
       <c r="E124" s="252" t="s">
-        <v>4380</v>
+        <v>4379</v>
       </c>
       <c r="F124" s="85" t="s">
         <v>3844</v>
@@ -32949,7 +32902,7 @@
       <c r="R124" s="24"/>
       <c r="S124" s="24"/>
       <c r="T124" s="24"/>
-      <c r="U124" s="504" t="s">
+      <c r="U124" s="488" t="s">
         <v>41</v>
       </c>
       <c r="V124" s="13" t="s">
@@ -32994,7 +32947,7 @@
         <v>1005</v>
       </c>
       <c r="E125" s="255" t="s">
-        <v>4380</v>
+        <v>4379</v>
       </c>
       <c r="F125" s="85" t="s">
         <v>3844</v>
@@ -33084,7 +33037,7 @@
         <v>35</v>
       </c>
       <c r="C126" s="95" t="s">
-        <v>4646</v>
+        <v>4640</v>
       </c>
       <c r="D126" s="74"/>
       <c r="E126" s="252"/>
@@ -33092,7 +33045,7 @@
         <v>3844</v>
       </c>
       <c r="G126" s="320" t="s">
-        <v>4645</v>
+        <v>4639</v>
       </c>
       <c r="H126" s="201"/>
       <c r="I126" s="13" t="s">
@@ -33110,7 +33063,7 @@
       <c r="M126" s="147"/>
       <c r="N126" s="147"/>
       <c r="O126" s="147"/>
-      <c r="P126" s="509" t="s">
+      <c r="P126" s="493" t="s">
         <v>1022</v>
       </c>
       <c r="Q126" s="26" t="s">
@@ -33126,7 +33079,7 @@
         <v>33</v>
       </c>
       <c r="W126" s="318" t="s">
-        <v>4651</v>
+        <v>4645</v>
       </c>
       <c r="X126" s="22"/>
       <c r="Y126" s="22"/>
@@ -33156,11 +33109,11 @@
       <c r="A127" s="99" t="s">
         <v>1025</v>
       </c>
-      <c r="B127" s="425" t="s">
+      <c r="B127" s="411" t="s">
         <v>1026</v>
       </c>
       <c r="C127" s="99" t="s">
-        <v>4647</v>
+        <v>4641</v>
       </c>
       <c r="D127" s="77"/>
       <c r="E127" s="254"/>
@@ -33168,7 +33121,7 @@
         <v>3844</v>
       </c>
       <c r="G127" s="320" t="s">
-        <v>4649</v>
+        <v>4643</v>
       </c>
       <c r="H127" s="201"/>
       <c r="I127" s="13" t="s">
@@ -33176,7 +33129,7 @@
       </c>
       <c r="J127" s="54"/>
       <c r="K127" s="54" t="s">
-        <v>4650</v>
+        <v>4644</v>
       </c>
       <c r="L127" s="44" t="s">
         <v>1027</v>
@@ -33184,7 +33137,7 @@
       <c r="M127" s="147"/>
       <c r="N127" s="147"/>
       <c r="O127" s="147"/>
-      <c r="P127" s="512" t="s">
+      <c r="P127" s="496" t="s">
         <v>603</v>
       </c>
       <c r="Q127" s="26" t="s">
@@ -33197,7 +33150,7 @@
       <c r="T127" s="17" t="s">
         <v>1029</v>
       </c>
-      <c r="U127" s="504" t="s">
+      <c r="U127" s="488" t="s">
         <v>477</v>
       </c>
       <c r="V127" s="9" t="s">
@@ -33244,7 +33197,7 @@
         <v>1035</v>
       </c>
       <c r="C128" s="95" t="s">
-        <v>4648</v>
+        <v>4642</v>
       </c>
       <c r="D128" s="74"/>
       <c r="E128" s="252"/>
@@ -33270,13 +33223,13 @@
       <c r="M128" s="147"/>
       <c r="N128" s="147"/>
       <c r="O128" s="147"/>
-      <c r="P128" s="373" t="s">
+      <c r="P128" s="363" t="s">
         <v>81</v>
       </c>
       <c r="Q128" s="17" t="s">
         <v>1038</v>
       </c>
-      <c r="R128" s="518"/>
+      <c r="R128" s="502"/>
       <c r="S128" s="97"/>
       <c r="T128" s="17"/>
       <c r="U128" s="132" t="s">
@@ -33324,12 +33277,12 @@
       </c>
       <c r="D129" s="74"/>
       <c r="E129" s="252" t="s">
-        <v>4381</v>
+        <v>4380</v>
       </c>
       <c r="F129" s="208"/>
       <c r="G129" s="228"/>
       <c r="H129" s="13"/>
-      <c r="I129" s="98" t="s">
+      <c r="I129" s="86" t="s">
         <v>1041</v>
       </c>
       <c r="J129" s="38" t="s">
@@ -33344,20 +33297,20 @@
       <c r="M129" s="147"/>
       <c r="N129" s="147"/>
       <c r="O129" s="147"/>
-      <c r="P129" s="504" t="s">
+      <c r="P129" s="488" t="s">
         <v>511</v>
       </c>
       <c r="Q129" s="24" t="s">
         <v>1045</v>
       </c>
-      <c r="R129" s="520"/>
+      <c r="R129" s="504"/>
       <c r="S129" s="163" t="s">
         <v>1046</v>
       </c>
       <c r="T129" s="24" t="s">
         <v>1047</v>
       </c>
-      <c r="U129" s="560" t="s">
+      <c r="U129" s="544" t="s">
         <v>1048</v>
       </c>
       <c r="V129" s="13" t="s">
@@ -33400,7 +33353,7 @@
       </c>
       <c r="D130" s="74"/>
       <c r="E130" s="252" t="s">
-        <v>4381</v>
+        <v>4380</v>
       </c>
       <c r="F130" s="208"/>
       <c r="G130" s="228"/>
@@ -33420,20 +33373,20 @@
       <c r="O130" s="147" t="s">
         <v>1053</v>
       </c>
-      <c r="P130" s="376" t="s">
+      <c r="P130" s="366" t="s">
         <v>792</v>
       </c>
       <c r="Q130" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="R130" s="520"/>
+      <c r="R130" s="504"/>
       <c r="S130" s="163" t="s">
         <v>1054</v>
       </c>
       <c r="T130" s="24" t="s">
         <v>1055</v>
       </c>
-      <c r="U130" s="516" t="s">
+      <c r="U130" s="500" t="s">
         <v>335</v>
       </c>
       <c r="V130" s="13" t="s">
@@ -33478,7 +33431,7 @@
       </c>
       <c r="D131" s="74"/>
       <c r="E131" s="252" t="s">
-        <v>4381</v>
+        <v>4380</v>
       </c>
       <c r="F131" s="208"/>
       <c r="G131" s="228"/>
@@ -33634,10 +33587,10 @@
       </c>
       <c r="D133" s="137"/>
       <c r="E133" s="266" t="s">
-        <v>4382</v>
+        <v>4381</v>
       </c>
       <c r="F133" s="85" t="s">
-        <v>4558</v>
+        <v>4498</v>
       </c>
       <c r="G133" s="38" t="s">
         <v>3796</v>
@@ -33664,12 +33617,12 @@
       <c r="Q133" s="24" t="s">
         <v>1072</v>
       </c>
-      <c r="R133" s="520"/>
+      <c r="R133" s="504"/>
       <c r="S133" s="96"/>
       <c r="T133" s="24" t="s">
         <v>3797</v>
       </c>
-      <c r="U133" s="383" t="s">
+      <c r="U133" s="371" t="s">
         <v>69</v>
       </c>
       <c r="V133" s="13" t="s">
@@ -33708,25 +33661,25 @@
         <v>35</v>
       </c>
       <c r="C134" s="95" t="s">
-        <v>4518</v>
+        <v>4514</v>
       </c>
       <c r="D134" s="73" t="s">
         <v>1074</v>
       </c>
       <c r="E134" s="252" t="s">
-        <v>4514</v>
+        <v>4510</v>
       </c>
       <c r="F134" s="240" t="s">
         <v>3862</v>
       </c>
       <c r="G134" s="320" t="s">
-        <v>4517</v>
+        <v>4513</v>
       </c>
       <c r="H134" s="201"/>
       <c r="I134" s="6" t="s">
         <v>1018</v>
       </c>
-      <c r="J134" s="402"/>
+      <c r="J134" s="388"/>
       <c r="K134" s="38" t="s">
         <v>1075</v>
       </c>
@@ -33796,13 +33749,13 @@
       </c>
       <c r="D135" s="74"/>
       <c r="E135" s="252" t="s">
-        <v>4514</v>
+        <v>4510</v>
       </c>
       <c r="F135" s="240" t="s">
         <v>3862</v>
       </c>
       <c r="G135" s="320" t="s">
-        <v>4519</v>
+        <v>4515</v>
       </c>
       <c r="H135" s="201"/>
       <c r="I135" s="6" t="s">
@@ -33878,17 +33831,17 @@
     </row>
     <row r="136" spans="1:46" ht="15.75" customHeight="1">
       <c r="A136" s="95" t="s">
-        <v>4520</v>
+        <v>4516</v>
       </c>
       <c r="B136" s="38" t="s">
         <v>1089</v>
       </c>
       <c r="C136" s="195" t="s">
-        <v>4520</v>
+        <v>4516</v>
       </c>
       <c r="D136" s="74"/>
       <c r="E136" s="252" t="s">
-        <v>4514</v>
+        <v>4510</v>
       </c>
       <c r="F136" s="240" t="s">
         <v>3862</v>
@@ -33929,7 +33882,7 @@
       <c r="V136" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="W136" s="531" t="s">
+      <c r="W136" s="515" t="s">
         <v>3785</v>
       </c>
       <c r="X136" s="13"/>
@@ -33968,7 +33921,7 @@
       </c>
       <c r="D137" s="74"/>
       <c r="E137" s="252" t="s">
-        <v>4383</v>
+        <v>4382</v>
       </c>
       <c r="F137" s="208"/>
       <c r="G137" s="228"/>
@@ -33994,10 +33947,10 @@
       <c r="Q137" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="R137" s="520"/>
+      <c r="R137" s="504"/>
       <c r="S137" s="96"/>
       <c r="T137" s="24"/>
-      <c r="U137" s="516" t="s">
+      <c r="U137" s="500" t="s">
         <v>335</v>
       </c>
       <c r="V137" s="35" t="s">
@@ -34042,7 +33995,7 @@
       </c>
       <c r="D138" s="74"/>
       <c r="E138" s="252" t="s">
-        <v>4383</v>
+        <v>4382</v>
       </c>
       <c r="F138" s="85" t="s">
         <v>3844</v>
@@ -34077,7 +34030,7 @@
       <c r="T138" s="24" t="s">
         <v>1107</v>
       </c>
-      <c r="U138" s="382" t="s">
+      <c r="U138" s="505" t="s">
         <v>32</v>
       </c>
       <c r="V138" s="13" t="s">
@@ -34120,7 +34073,7 @@
       </c>
       <c r="D139" s="74"/>
       <c r="E139" s="252" t="s">
-        <v>4383</v>
+        <v>4382</v>
       </c>
       <c r="F139" s="208"/>
       <c r="G139" s="228"/>
@@ -34189,12 +34142,12 @@
       <c r="B140" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C140" s="488" t="s">
+      <c r="C140" s="472" t="s">
         <v>1112</v>
       </c>
       <c r="D140" s="74"/>
       <c r="E140" s="252" t="s">
-        <v>4385</v>
+        <v>4384</v>
       </c>
       <c r="F140" s="85" t="s">
         <v>3844</v>
@@ -34225,7 +34178,7 @@
       <c r="R140" s="17"/>
       <c r="S140" s="17"/>
       <c r="T140" s="17"/>
-      <c r="U140" s="132" t="s">
+      <c r="U140" s="488" t="s">
         <v>496</v>
       </c>
       <c r="V140" s="13" t="s">
@@ -34268,7 +34221,7 @@
       </c>
       <c r="D141" s="77"/>
       <c r="E141" s="254" t="s">
-        <v>4385</v>
+        <v>4384</v>
       </c>
       <c r="F141" s="85" t="s">
         <v>3844</v>
@@ -34277,8 +34230,8 @@
         <v>4366</v>
       </c>
       <c r="H141" s="13"/>
-      <c r="I141" s="409" t="s">
-        <v>4384</v>
+      <c r="I141" s="395" t="s">
+        <v>4383</v>
       </c>
       <c r="J141" s="54" t="s">
         <v>1120</v>
@@ -34356,7 +34309,7 @@
       </c>
       <c r="D142" s="74"/>
       <c r="E142" s="252" t="s">
-        <v>4385</v>
+        <v>4384</v>
       </c>
       <c r="F142" s="85" t="s">
         <v>3844</v>
@@ -34432,7 +34385,7 @@
       </c>
       <c r="D143" s="77"/>
       <c r="E143" s="254" t="s">
-        <v>4386</v>
+        <v>4385</v>
       </c>
       <c r="F143" s="85" t="s">
         <v>3844</v>
@@ -34441,7 +34394,7 @@
         <v>4366</v>
       </c>
       <c r="H143" s="201"/>
-      <c r="I143" s="409" t="s">
+      <c r="I143" s="395" t="s">
         <v>1137</v>
       </c>
       <c r="J143" s="54" t="s">
@@ -34512,7 +34465,7 @@
       </c>
       <c r="D144" s="77"/>
       <c r="E144" s="254" t="s">
-        <v>4386</v>
+        <v>4385</v>
       </c>
       <c r="F144" s="85" t="s">
         <v>3844</v>
@@ -34521,7 +34474,7 @@
         <v>4366</v>
       </c>
       <c r="H144" s="201"/>
-      <c r="I144" s="409" t="s">
+      <c r="I144" s="395" t="s">
         <v>1143</v>
       </c>
       <c r="J144" s="54" t="s">
@@ -34596,7 +34549,7 @@
         <v>3844</v>
       </c>
       <c r="G145" s="320" t="s">
-        <v>4519</v>
+        <v>4515</v>
       </c>
       <c r="H145" s="201"/>
       <c r="I145" s="13" t="s">
@@ -34680,7 +34633,7 @@
         <v>3844</v>
       </c>
       <c r="G146" s="228" t="s">
-        <v>4531</v>
+        <v>4526</v>
       </c>
       <c r="H146" s="13"/>
       <c r="I146" s="13" t="s">
@@ -34795,7 +34748,7 @@
       <c r="R147" s="47"/>
       <c r="S147" s="24"/>
       <c r="T147" s="24"/>
-      <c r="U147" s="132" t="s">
+      <c r="U147" s="488" t="s">
         <v>41</v>
       </c>
       <c r="V147" s="9" t="s">
@@ -34836,25 +34789,25 @@
         <v>35</v>
       </c>
       <c r="C148" s="99" t="s">
-        <v>4652</v>
+        <v>4646</v>
       </c>
       <c r="D148" s="79"/>
       <c r="E148" s="256"/>
       <c r="F148" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G148" s="320" t="s">
-        <v>4654</v>
+        <v>4648</v>
       </c>
       <c r="H148" s="201"/>
       <c r="I148" s="9" t="s">
         <v>1018</v>
       </c>
-      <c r="J148" s="419" t="s">
+      <c r="J148" s="405" t="s">
         <v>1171</v>
       </c>
       <c r="K148" s="99" t="s">
-        <v>4655</v>
+        <v>4649</v>
       </c>
       <c r="L148" s="44" t="s">
         <v>1172</v>
@@ -34880,7 +34833,7 @@
         <v>33</v>
       </c>
       <c r="W148" s="38" t="s">
-        <v>4656</v>
+        <v>4650</v>
       </c>
       <c r="X148" s="13" t="s">
         <v>985</v>
@@ -34924,15 +34877,15 @@
         <v>35</v>
       </c>
       <c r="C149" s="99" t="s">
-        <v>4659</v>
+        <v>4653</v>
       </c>
       <c r="D149" s="77"/>
       <c r="E149" s="254"/>
       <c r="F149" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G149" s="320" t="s">
-        <v>4653</v>
+        <v>4647</v>
       </c>
       <c r="H149" s="201"/>
       <c r="I149" s="9" t="s">
@@ -34968,7 +34921,7 @@
         <v>33</v>
       </c>
       <c r="W149" s="38" t="s">
-        <v>4657</v>
+        <v>4651</v>
       </c>
       <c r="X149" s="13" t="s">
         <v>985</v>
@@ -35011,11 +34964,11 @@
       <c r="B150" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C150" s="448" t="s">
-        <v>4661</v>
+      <c r="C150" s="433" t="s">
+        <v>4655</v>
       </c>
       <c r="D150" s="234" t="s">
-        <v>4660</v>
+        <v>4654</v>
       </c>
       <c r="E150" s="252"/>
       <c r="F150" s="231" t="s">
@@ -35056,7 +35009,7 @@
         <v>33</v>
       </c>
       <c r="W150" s="38" t="s">
-        <v>4658</v>
+        <v>4652</v>
       </c>
       <c r="X150" s="13"/>
       <c r="Y150" s="13"/>
@@ -35094,7 +35047,7 @@
       </c>
       <c r="D151" s="74"/>
       <c r="E151" s="252" t="s">
-        <v>4387</v>
+        <v>4386</v>
       </c>
       <c r="F151" s="85" t="s">
         <v>3844</v>
@@ -35129,7 +35082,7 @@
       <c r="T151" s="24" t="s">
         <v>1198</v>
       </c>
-      <c r="U151" s="504" t="s">
+      <c r="U151" s="488" t="s">
         <v>477</v>
       </c>
       <c r="V151" s="13" t="s">
@@ -35148,7 +35101,7 @@
         <v>1200</v>
       </c>
       <c r="AE151" s="13"/>
-      <c r="AF151" s="504"/>
+      <c r="AF151" s="488"/>
       <c r="AG151" s="13"/>
       <c r="AH151" s="13"/>
       <c r="AI151" s="13"/>
@@ -35176,7 +35129,7 @@
       </c>
       <c r="D152" s="74"/>
       <c r="E152" s="252" t="s">
-        <v>4387</v>
+        <v>4386</v>
       </c>
       <c r="F152" s="85" t="s">
         <v>3844</v>
@@ -35252,14 +35205,16 @@
       </c>
       <c r="D153" s="74"/>
       <c r="E153" s="252" t="s">
-        <v>4388</v>
+        <v>4387</v>
       </c>
       <c r="F153" s="85" t="s">
         <v>3844</v>
       </c>
-      <c r="G153" s="228"/>
-      <c r="H153" s="13"/>
-      <c r="I153" s="139" t="s">
+      <c r="G153" s="468" t="s">
+        <v>4731</v>
+      </c>
+      <c r="H153" s="551"/>
+      <c r="I153" s="86" t="s">
         <v>1208</v>
       </c>
       <c r="J153" s="38"/>
@@ -35326,13 +35281,15 @@
       </c>
       <c r="D154" s="74"/>
       <c r="E154" s="252" t="s">
-        <v>4388</v>
+        <v>4387</v>
       </c>
       <c r="F154" s="85" t="s">
         <v>3844</v>
       </c>
-      <c r="G154" s="320"/>
-      <c r="H154" s="201"/>
+      <c r="G154" s="468" t="s">
+        <v>4731</v>
+      </c>
+      <c r="H154" s="540"/>
       <c r="I154" s="5" t="s">
         <v>1213</v>
       </c>
@@ -35404,7 +35361,7 @@
       </c>
       <c r="D155" s="77"/>
       <c r="E155" s="254" t="s">
-        <v>4389</v>
+        <v>4388</v>
       </c>
       <c r="F155" s="208"/>
       <c r="G155" s="320"/>
@@ -35490,15 +35447,15 @@
       </c>
       <c r="D156" s="80"/>
       <c r="E156" s="257" t="s">
-        <v>4389</v>
+        <v>4388</v>
       </c>
       <c r="F156" s="208"/>
       <c r="G156" s="315"/>
       <c r="H156" s="35"/>
-      <c r="I156" s="410" t="s">
+      <c r="I156" s="396" t="s">
         <v>1234</v>
       </c>
-      <c r="J156" s="420" t="s">
+      <c r="J156" s="406" t="s">
         <v>1235</v>
       </c>
       <c r="K156" s="99" t="s">
@@ -35576,7 +35533,7 @@
       </c>
       <c r="D157" s="77"/>
       <c r="E157" s="254" t="s">
-        <v>4390</v>
+        <v>4389</v>
       </c>
       <c r="F157" s="212" t="s">
         <v>3844</v>
@@ -35656,7 +35613,7 @@
       </c>
       <c r="D158" s="77"/>
       <c r="E158" s="254" t="s">
-        <v>4390</v>
+        <v>4389</v>
       </c>
       <c r="F158" s="237"/>
       <c r="G158" s="320" t="s">
@@ -35732,7 +35689,7 @@
       </c>
       <c r="D159" s="74"/>
       <c r="E159" s="252" t="s">
-        <v>4390</v>
+        <v>4389</v>
       </c>
       <c r="F159" s="212" t="s">
         <v>3844</v>
@@ -35808,7 +35765,7 @@
       </c>
       <c r="D160" s="77"/>
       <c r="E160" s="254" t="s">
-        <v>4390</v>
+        <v>4389</v>
       </c>
       <c r="F160" s="85" t="s">
         <v>3844</v>
@@ -35843,7 +35800,7 @@
       <c r="T160" s="17" t="s">
         <v>1270</v>
       </c>
-      <c r="U160" s="132" t="s">
+      <c r="U160" s="488" t="s">
         <v>477</v>
       </c>
       <c r="V160" s="9" t="s">
@@ -35890,7 +35847,7 @@
       </c>
       <c r="D161" s="81"/>
       <c r="E161" s="258" t="s">
-        <v>4390</v>
+        <v>4389</v>
       </c>
       <c r="F161" s="85" t="s">
         <v>3844</v>
@@ -35902,7 +35859,7 @@
       <c r="I161" s="7" t="s">
         <v>1274</v>
       </c>
-      <c r="J161" s="403" t="s">
+      <c r="J161" s="389" t="s">
         <v>1275</v>
       </c>
       <c r="K161" s="99" t="s">
@@ -35978,7 +35935,7 @@
       </c>
       <c r="D162" s="74"/>
       <c r="E162" s="252" t="s">
-        <v>4390</v>
+        <v>4389</v>
       </c>
       <c r="F162" s="85" t="s">
         <v>3844</v>
@@ -36054,7 +36011,7 @@
       </c>
       <c r="D163" s="74"/>
       <c r="E163" s="252" t="s">
-        <v>4391</v>
+        <v>4390</v>
       </c>
       <c r="F163" s="85" t="s">
         <v>3844</v>
@@ -36132,7 +36089,7 @@
       </c>
       <c r="D164" s="74"/>
       <c r="E164" s="290" t="s">
-        <v>4391</v>
+        <v>4390</v>
       </c>
       <c r="F164" s="215"/>
       <c r="G164" s="320" t="s">
@@ -36167,7 +36124,7 @@
       <c r="T164" s="29" t="s">
         <v>1301</v>
       </c>
-      <c r="U164" s="504" t="s">
+      <c r="U164" s="488" t="s">
         <v>477</v>
       </c>
       <c r="V164" s="13" t="s">
@@ -36216,7 +36173,7 @@
       </c>
       <c r="D165" s="74"/>
       <c r="E165" s="252" t="s">
-        <v>4391</v>
+        <v>4390</v>
       </c>
       <c r="F165" s="85" t="s">
         <v>3844</v>
@@ -36292,7 +36249,7 @@
       </c>
       <c r="D166" s="77"/>
       <c r="E166" s="254" t="s">
-        <v>4392</v>
+        <v>4391</v>
       </c>
       <c r="F166" s="85" t="s">
         <v>3844</v>
@@ -36380,7 +36337,7 @@
       </c>
       <c r="D167" s="77"/>
       <c r="E167" s="254" t="s">
-        <v>4392</v>
+        <v>4391</v>
       </c>
       <c r="F167" s="85" t="s">
         <v>3844</v>
@@ -36413,7 +36370,7 @@
       <c r="T167" s="24" t="s">
         <v>1324</v>
       </c>
-      <c r="U167" s="132" t="s">
+      <c r="U167" s="488" t="s">
         <v>3672</v>
       </c>
       <c r="V167" s="9" t="s">
@@ -36458,7 +36415,7 @@
       </c>
       <c r="D168" s="77"/>
       <c r="E168" s="254" t="s">
-        <v>4392</v>
+        <v>4391</v>
       </c>
       <c r="F168" s="85" t="s">
         <v>3844</v>
@@ -36467,7 +36424,7 @@
         <v>4014</v>
       </c>
       <c r="H168" s="201"/>
-      <c r="I168" s="409" t="s">
+      <c r="I168" s="395" t="s">
         <v>1327</v>
       </c>
       <c r="J168" s="54" t="s">
@@ -36546,7 +36503,7 @@
       </c>
       <c r="D169" s="74"/>
       <c r="E169" s="252" t="s">
-        <v>4393</v>
+        <v>4392</v>
       </c>
       <c r="F169" s="208"/>
       <c r="G169" s="228"/>
@@ -36626,7 +36583,7 @@
       </c>
       <c r="D170" s="74"/>
       <c r="E170" s="252" t="s">
-        <v>4393</v>
+        <v>4392</v>
       </c>
       <c r="F170" s="85" t="s">
         <v>3844</v>
@@ -36702,7 +36659,7 @@
       </c>
       <c r="D171" s="74"/>
       <c r="E171" s="252" t="s">
-        <v>4393</v>
+        <v>4392</v>
       </c>
       <c r="F171" s="85" t="s">
         <v>3844</v>
@@ -36780,7 +36737,7 @@
       </c>
       <c r="D172" s="74"/>
       <c r="E172" s="252" t="s">
-        <v>4394</v>
+        <v>4393</v>
       </c>
       <c r="F172" s="85" t="s">
         <v>3844</v>
@@ -36862,7 +36819,7 @@
       </c>
       <c r="D173" s="77"/>
       <c r="E173" s="254" t="s">
-        <v>4394</v>
+        <v>4393</v>
       </c>
       <c r="F173" s="85" t="s">
         <v>3844</v>
@@ -36950,7 +36907,7 @@
       </c>
       <c r="D174" s="74"/>
       <c r="E174" s="252" t="s">
-        <v>4394</v>
+        <v>4393</v>
       </c>
       <c r="F174" s="208"/>
       <c r="G174" s="38" t="s">
@@ -36976,10 +36933,10 @@
       <c r="Q174" s="24" t="s">
         <v>1382</v>
       </c>
-      <c r="R174" s="520"/>
+      <c r="R174" s="504"/>
       <c r="S174" s="96"/>
       <c r="T174" s="96"/>
-      <c r="U174" s="504" t="s">
+      <c r="U174" s="488" t="s">
         <v>41</v>
       </c>
       <c r="V174" s="13" t="s">
@@ -37022,7 +36979,7 @@
       </c>
       <c r="D175" s="74"/>
       <c r="E175" s="252" t="s">
-        <v>4395</v>
+        <v>4394</v>
       </c>
       <c r="F175" s="208"/>
       <c r="G175" s="228" t="s">
@@ -37098,7 +37055,7 @@
       </c>
       <c r="D176" s="74"/>
       <c r="E176" s="252" t="s">
-        <v>4395</v>
+        <v>4394</v>
       </c>
       <c r="F176" s="240" t="s">
         <v>3862</v>
@@ -37131,7 +37088,7 @@
       <c r="R176" s="24"/>
       <c r="S176" s="24"/>
       <c r="T176" s="24"/>
-      <c r="U176" s="132" t="s">
+      <c r="U176" s="488" t="s">
         <v>335</v>
       </c>
       <c r="V176" s="13" t="s">
@@ -37348,13 +37305,13 @@
       </c>
       <c r="D179" s="141"/>
       <c r="E179" s="260" t="s">
-        <v>4396</v>
+        <v>4395</v>
       </c>
       <c r="F179" s="85" t="s">
         <v>3844</v>
       </c>
       <c r="G179" s="320" t="s">
-        <v>4572</v>
+        <v>4566</v>
       </c>
       <c r="H179" s="201"/>
       <c r="I179" s="142" t="s">
@@ -37381,7 +37338,7 @@
       <c r="R179" s="26"/>
       <c r="S179" s="17"/>
       <c r="T179" s="17"/>
-      <c r="U179" s="383" t="s">
+      <c r="U179" s="371" t="s">
         <v>69</v>
       </c>
       <c r="V179" s="9" t="s">
@@ -37432,7 +37389,7 @@
       </c>
       <c r="D180" s="77"/>
       <c r="E180" s="254" t="s">
-        <v>4396</v>
+        <v>4395</v>
       </c>
       <c r="F180" s="208"/>
       <c r="G180" s="320" t="s">
@@ -37453,7 +37410,7 @@
       </c>
       <c r="M180" s="126"/>
       <c r="N180" s="337"/>
-      <c r="O180" s="367" t="s">
+      <c r="O180" s="360" t="s">
         <v>1429</v>
       </c>
       <c r="P180" s="4" t="s">
@@ -37508,7 +37465,7 @@
       </c>
       <c r="D181" s="77"/>
       <c r="E181" s="254" t="s">
-        <v>4397</v>
+        <v>4396</v>
       </c>
       <c r="F181" s="85"/>
       <c r="G181" s="320" t="s">
@@ -37594,7 +37551,7 @@
       </c>
       <c r="D182" s="74"/>
       <c r="E182" s="252" t="s">
-        <v>4397</v>
+        <v>4396</v>
       </c>
       <c r="F182" s="85" t="s">
         <v>3844</v>
@@ -37682,7 +37639,7 @@
       <c r="I183" s="5" t="s">
         <v>1447</v>
       </c>
-      <c r="J183" s="490"/>
+      <c r="J183" s="474"/>
       <c r="K183" s="38" t="s">
         <v>1448</v>
       </c>
@@ -37783,7 +37740,7 @@
       <c r="V184" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="W184" s="521" t="s">
+      <c r="W184" s="505" t="s">
         <v>1460</v>
       </c>
       <c r="X184" s="13"/>
@@ -37830,9 +37787,9 @@
       </c>
       <c r="H185" s="201"/>
       <c r="I185" s="9" t="s">
-        <v>4453</v>
-      </c>
-      <c r="J185" s="403" t="s">
+        <v>4452</v>
+      </c>
+      <c r="J185" s="389" t="s">
         <v>1462</v>
       </c>
       <c r="K185" s="54" t="s">
@@ -37861,8 +37818,8 @@
       <c r="V185" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="W185" s="521" t="s">
-        <v>4713</v>
+      <c r="W185" s="505" t="s">
+        <v>4706</v>
       </c>
       <c r="X185" s="13" t="s">
         <v>985</v>
@@ -37950,7 +37907,7 @@
         <v>33</v>
       </c>
       <c r="W186" s="38" t="s">
-        <v>4714</v>
+        <v>4707</v>
       </c>
       <c r="X186" s="13" t="s">
         <v>985</v>
@@ -37994,20 +37951,20 @@
         <v>35</v>
       </c>
       <c r="C187" s="99" t="s">
-        <v>4682</v>
+        <v>4675</v>
       </c>
       <c r="D187" s="99" t="s">
-        <v>4680</v>
+        <v>4673</v>
       </c>
       <c r="E187" s="254" t="s">
-        <v>4398</v>
+        <v>4397</v>
       </c>
       <c r="F187" s="85" t="s">
         <v>3844</v>
       </c>
       <c r="G187" s="119"/>
       <c r="H187" s="320" t="s">
-        <v>4681</v>
+        <v>4674</v>
       </c>
       <c r="I187" s="142" t="s">
         <v>1478</v>
@@ -38042,7 +37999,7 @@
         <v>33</v>
       </c>
       <c r="W187" s="38" t="s">
-        <v>4683</v>
+        <v>4676</v>
       </c>
       <c r="X187" s="13"/>
       <c r="Y187" s="13"/>
@@ -38076,23 +38033,23 @@
         <v>35</v>
       </c>
       <c r="C188" s="99" t="s">
-        <v>4680</v>
+        <v>4673</v>
       </c>
       <c r="D188" s="80"/>
       <c r="E188" s="257" t="s">
-        <v>4398</v>
+        <v>4397</v>
       </c>
       <c r="F188" s="85" t="s">
         <v>3844</v>
       </c>
-      <c r="G188" s="471" t="s">
-        <v>4681</v>
+      <c r="G188" s="456" t="s">
+        <v>4674</v>
       </c>
       <c r="H188" s="201"/>
-      <c r="I188" s="410" t="s">
+      <c r="I188" s="396" t="s">
         <v>1486</v>
       </c>
-      <c r="J188" s="420" t="s">
+      <c r="J188" s="406" t="s">
         <v>1487</v>
       </c>
       <c r="K188" s="99" t="s">
@@ -38122,7 +38079,7 @@
         <v>33</v>
       </c>
       <c r="W188" s="38" t="s">
-        <v>4679</v>
+        <v>4672</v>
       </c>
       <c r="X188" s="13"/>
       <c r="Y188" s="13"/>
@@ -38155,22 +38112,22 @@
       <c r="B189" s="99" t="s">
         <v>393</v>
       </c>
-      <c r="C189" s="468" t="s">
-        <v>4664</v>
+      <c r="C189" s="453" t="s">
+        <v>4658</v>
       </c>
       <c r="D189" s="81"/>
       <c r="E189" s="258"/>
       <c r="F189" s="85" t="s">
-        <v>4502</v>
+        <v>4498</v>
       </c>
       <c r="G189" s="320" t="s">
-        <v>4665</v>
+        <v>4659</v>
       </c>
       <c r="H189" s="201"/>
       <c r="I189" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="J189" s="403" t="s">
+      <c r="J189" s="389" t="s">
         <v>1493</v>
       </c>
       <c r="K189" s="99" t="s">
@@ -38236,7 +38193,7 @@
       </c>
       <c r="D190" s="77"/>
       <c r="E190" s="254" t="s">
-        <v>4399</v>
+        <v>4398</v>
       </c>
       <c r="F190" s="208"/>
       <c r="G190" s="320" t="s">
@@ -38310,7 +38267,7 @@
       </c>
       <c r="D191" s="74"/>
       <c r="E191" s="252" t="s">
-        <v>4399</v>
+        <v>4398</v>
       </c>
       <c r="F191" s="85" t="s">
         <v>3844</v>
@@ -38388,15 +38345,15 @@
         <v>35</v>
       </c>
       <c r="C192" s="95" t="s">
-        <v>4442</v>
+        <v>4441</v>
       </c>
       <c r="D192" s="74"/>
       <c r="E192" s="252" t="s">
-        <v>4400</v>
+        <v>4399</v>
       </c>
       <c r="F192" s="74"/>
       <c r="G192" s="320" t="s">
-        <v>4443</v>
+        <v>4442</v>
       </c>
       <c r="H192" s="201"/>
       <c r="I192" s="98" t="s">
@@ -38468,7 +38425,7 @@
       </c>
       <c r="D193" s="74"/>
       <c r="E193" s="252" t="s">
-        <v>4400</v>
+        <v>4399</v>
       </c>
       <c r="F193" s="208"/>
       <c r="G193" s="228"/>
@@ -38546,7 +38503,7 @@
       </c>
       <c r="D194" s="77"/>
       <c r="E194" s="254" t="s">
-        <v>4401</v>
+        <v>4400</v>
       </c>
       <c r="F194" s="208"/>
       <c r="G194" s="321" t="s">
@@ -38634,7 +38591,7 @@
       </c>
       <c r="D195" s="74"/>
       <c r="E195" s="252" t="s">
-        <v>4401</v>
+        <v>4400</v>
       </c>
       <c r="F195" s="208"/>
       <c r="G195" s="320" t="s">
@@ -38722,7 +38679,7 @@
       </c>
       <c r="D196" s="74"/>
       <c r="E196" s="252" t="s">
-        <v>4402</v>
+        <v>4401</v>
       </c>
       <c r="F196" s="85" t="s">
         <v>3844</v>
@@ -38796,7 +38753,7 @@
       </c>
       <c r="D197" s="74"/>
       <c r="E197" s="252" t="s">
-        <v>4402</v>
+        <v>4401</v>
       </c>
       <c r="F197" s="85" t="s">
         <v>3844</v>
@@ -38872,7 +38829,7 @@
       </c>
       <c r="D198" s="74"/>
       <c r="E198" s="266" t="s">
-        <v>4372</v>
+        <v>4371</v>
       </c>
       <c r="F198" s="85" t="s">
         <v>3844</v>
@@ -38948,7 +38905,7 @@
       </c>
       <c r="D199" s="74"/>
       <c r="E199" s="266" t="s">
-        <v>4372</v>
+        <v>4371</v>
       </c>
       <c r="F199" s="85" t="s">
         <v>3844</v>
@@ -38993,7 +38950,7 @@
       <c r="X199" s="89" t="s">
         <v>985</v>
       </c>
-      <c r="Y199" s="387" t="s">
+      <c r="Y199" s="373" t="s">
         <v>1574</v>
       </c>
       <c r="Z199" s="13"/>
@@ -39036,7 +38993,7 @@
       </c>
       <c r="D200" s="137"/>
       <c r="E200" s="253" t="s">
-        <v>4403</v>
+        <v>4402</v>
       </c>
       <c r="F200" s="208"/>
       <c r="G200" s="228"/>
@@ -39110,7 +39067,7 @@
       </c>
       <c r="D201" s="137"/>
       <c r="E201" s="253" t="s">
-        <v>4403</v>
+        <v>4402</v>
       </c>
       <c r="F201" s="208"/>
       <c r="G201" s="228"/>
@@ -39183,11 +39140,11 @@
       <c r="B202" s="95" t="s">
         <v>929</v>
       </c>
-      <c r="C202" s="486" t="s">
-        <v>4710</v>
-      </c>
-      <c r="D202" s="541" t="s">
-        <v>4712</v>
+      <c r="C202" s="470" t="s">
+        <v>4703</v>
+      </c>
+      <c r="D202" s="525" t="s">
+        <v>4705</v>
       </c>
       <c r="E202" s="333"/>
       <c r="F202" s="85" t="s">
@@ -39273,11 +39230,11 @@
       <c r="B203" s="95" t="s">
         <v>929</v>
       </c>
-      <c r="C203" s="536" t="s">
-        <v>4711</v>
-      </c>
-      <c r="D203" s="541" t="s">
-        <v>4712</v>
+      <c r="C203" s="520" t="s">
+        <v>4704</v>
+      </c>
+      <c r="D203" s="525" t="s">
+        <v>4705</v>
       </c>
       <c r="E203" s="252"/>
       <c r="F203" s="85" t="s">
@@ -39358,7 +39315,7 @@
       </c>
       <c r="D204" s="74"/>
       <c r="E204" s="250" t="s">
-        <v>4404</v>
+        <v>4403</v>
       </c>
       <c r="F204" s="214" t="s">
         <v>3844</v>
@@ -39436,7 +39393,7 @@
       </c>
       <c r="D205" s="74"/>
       <c r="E205" s="252" t="s">
-        <v>4404</v>
+        <v>4403</v>
       </c>
       <c r="F205" s="218"/>
       <c r="G205" s="320" t="s">
@@ -39512,7 +39469,7 @@
       </c>
       <c r="D206" s="74"/>
       <c r="E206" s="252" t="s">
-        <v>4405</v>
+        <v>4404</v>
       </c>
       <c r="F206" s="85" t="s">
         <v>3844</v>
@@ -39529,7 +39486,7 @@
       <c r="L206" s="19" t="s">
         <v>1621</v>
       </c>
-      <c r="M206" s="368" t="s">
+      <c r="M206" s="361" t="s">
         <v>1622</v>
       </c>
       <c r="N206" s="147"/>
@@ -39596,7 +39553,7 @@
       </c>
       <c r="D207" s="74"/>
       <c r="E207" s="252" t="s">
-        <v>4405</v>
+        <v>4404</v>
       </c>
       <c r="F207" s="211"/>
       <c r="G207" s="316"/>
@@ -39849,11 +39806,11 @@
       <c r="B210" s="95" t="s">
         <v>929</v>
       </c>
-      <c r="C210" s="485" t="s">
-        <v>4709</v>
-      </c>
-      <c r="D210" s="541" t="s">
-        <v>4712</v>
+      <c r="C210" s="469" t="s">
+        <v>4702</v>
+      </c>
+      <c r="D210" s="525" t="s">
+        <v>4705</v>
       </c>
       <c r="E210" s="252"/>
       <c r="F210" s="85" t="s">
@@ -39895,7 +39852,7 @@
       <c r="V210" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="W210" s="422" t="s">
+      <c r="W210" s="408" t="s">
         <v>3722</v>
       </c>
       <c r="X210" s="13" t="s">
@@ -39981,7 +39938,7 @@
       <c r="V211" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="W211" s="422" t="s">
+      <c r="W211" s="408" t="s">
         <v>3722</v>
       </c>
       <c r="X211" s="13" t="s">
@@ -40030,7 +39987,7 @@
       </c>
       <c r="D212" s="137"/>
       <c r="E212" s="266" t="s">
-        <v>4406</v>
+        <v>4405</v>
       </c>
       <c r="F212" s="85" t="s">
         <v>3844</v>
@@ -40126,7 +40083,7 @@
       <c r="I213" s="13" t="s">
         <v>1018</v>
       </c>
-      <c r="J213" s="490"/>
+      <c r="J213" s="474"/>
       <c r="K213" s="38" t="s">
         <v>1680</v>
       </c>
@@ -40190,12 +40147,12 @@
         <v>393</v>
       </c>
       <c r="C214" s="95" t="s">
-        <v>4671</v>
+        <v>4665</v>
       </c>
       <c r="D214" s="74"/>
       <c r="E214" s="252"/>
       <c r="F214" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G214" s="321" t="s">
         <v>4022</v>
@@ -40282,7 +40239,7 @@
       </c>
       <c r="D215" s="74"/>
       <c r="E215" s="252" t="s">
-        <v>4407</v>
+        <v>4406</v>
       </c>
       <c r="F215" s="208"/>
       <c r="G215" s="324" t="s">
@@ -40357,18 +40314,18 @@
       <c r="AT215" s="13"/>
     </row>
     <row r="216" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A216" s="427" t="s">
+      <c r="A216" s="413" t="s">
         <v>1704</v>
       </c>
-      <c r="B216" s="427" t="s">
+      <c r="B216" s="413" t="s">
         <v>393</v>
       </c>
-      <c r="C216" s="427" t="s">
+      <c r="C216" s="413" t="s">
         <v>4020</v>
       </c>
       <c r="D216" s="74"/>
       <c r="E216" s="252" t="s">
-        <v>4407</v>
+        <v>4406</v>
       </c>
       <c r="F216" s="85" t="s">
         <v>3844</v>
@@ -40439,7 +40396,7 @@
       <c r="B217" s="95" t="s">
         <v>929</v>
       </c>
-      <c r="C217" s="535" t="s">
+      <c r="C217" s="519" t="s">
         <v>3837</v>
       </c>
       <c r="D217" s="74"/>
@@ -40523,8 +40480,8 @@
       <c r="F218" s="85" t="s">
         <v>3844</v>
       </c>
-      <c r="G218" s="484" t="s">
-        <v>4702</v>
+      <c r="G218" s="468" t="s">
+        <v>4695</v>
       </c>
       <c r="H218" s="13"/>
       <c r="I218" s="13" t="s">
@@ -40781,15 +40738,15 @@
         <v>1747</v>
       </c>
       <c r="R221" s="24"/>
-      <c r="S221" s="532"/>
-      <c r="T221" s="532"/>
+      <c r="S221" s="516"/>
+      <c r="T221" s="516"/>
       <c r="U221" s="13" t="s">
         <v>335</v>
       </c>
       <c r="V221" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="W221" s="477" t="s">
+      <c r="W221" s="462" t="s">
         <v>1748</v>
       </c>
       <c r="X221" s="135"/>
@@ -40800,7 +40757,7 @@
       <c r="AA221" s="13" t="s">
         <v>3710</v>
       </c>
-      <c r="AB221" s="548" t="s">
+      <c r="AB221" s="532" t="s">
         <v>3711</v>
       </c>
       <c r="AC221" s="13"/>
@@ -40879,14 +40836,14 @@
       <c r="V222" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="W222" s="521" t="s">
+      <c r="W222" s="505" t="s">
         <v>1758</v>
       </c>
       <c r="X222" s="89"/>
       <c r="Y222" s="89"/>
       <c r="Z222" s="13"/>
       <c r="AA222" s="13"/>
-      <c r="AB222" s="548"/>
+      <c r="AB222" s="532"/>
       <c r="AC222" s="13"/>
       <c r="AD222" s="13"/>
       <c r="AE222" s="13"/>
@@ -40925,7 +40882,7 @@
       <c r="F223" s="13"/>
       <c r="G223" s="38"/>
       <c r="H223" s="13"/>
-      <c r="I223" s="407" t="s">
+      <c r="I223" s="393" t="s">
         <v>1761</v>
       </c>
       <c r="J223" s="38" t="s">
@@ -40970,7 +40927,7 @@
       <c r="AA223" s="174" t="s">
         <v>1770</v>
       </c>
-      <c r="AB223" s="393"/>
+      <c r="AB223" s="379"/>
       <c r="AC223" s="13"/>
       <c r="AD223" s="13"/>
       <c r="AE223" s="98" t="s">
@@ -41001,12 +40958,12 @@
       <c r="B224" s="95" t="s">
         <v>393</v>
       </c>
-      <c r="C224" s="345" t="s">
+      <c r="C224" s="477" t="s">
         <v>1773</v>
       </c>
       <c r="D224" s="137"/>
       <c r="E224" s="266" t="s">
-        <v>4408</v>
+        <v>4407</v>
       </c>
       <c r="F224" s="13"/>
       <c r="G224" s="38"/>
@@ -41032,7 +40989,7 @@
       <c r="Q224" s="24" t="s">
         <v>1777</v>
       </c>
-      <c r="R224" s="520"/>
+      <c r="R224" s="504"/>
       <c r="S224" s="96"/>
       <c r="T224" s="24"/>
       <c r="U224" s="223" t="s">
@@ -41078,7 +41035,7 @@
       </c>
       <c r="D225" s="74"/>
       <c r="E225" s="252" t="s">
-        <v>4408</v>
+        <v>4407</v>
       </c>
       <c r="F225" s="85" t="s">
         <v>3844</v>
@@ -41121,7 +41078,7 @@
       <c r="Z225" s="13"/>
       <c r="AA225" s="13"/>
       <c r="AB225" s="13"/>
-      <c r="AC225" s="395" t="s">
+      <c r="AC225" s="381" t="s">
         <v>1782</v>
       </c>
       <c r="AD225" s="13"/>
@@ -41149,16 +41106,16 @@
       <c r="B226" s="95" t="s">
         <v>929</v>
       </c>
-      <c r="C226" s="482" t="s">
-        <v>4703</v>
+      <c r="C226" s="466" t="s">
+        <v>4696</v>
       </c>
       <c r="D226" s="74"/>
       <c r="E226" s="252"/>
       <c r="F226" s="85" t="s">
         <v>3844</v>
       </c>
-      <c r="G226" s="484" t="s">
-        <v>4704</v>
+      <c r="G226" s="468" t="s">
+        <v>4697</v>
       </c>
       <c r="H226" s="13"/>
       <c r="I226" s="13" t="s">
@@ -41237,16 +41194,16 @@
       <c r="B227" s="95" t="s">
         <v>929</v>
       </c>
-      <c r="C227" s="482" t="s">
-        <v>4703</v>
+      <c r="C227" s="466" t="s">
+        <v>4696</v>
       </c>
       <c r="D227" s="74"/>
       <c r="E227" s="252"/>
       <c r="F227" s="85" t="s">
         <v>3844</v>
       </c>
-      <c r="G227" s="484" t="s">
-        <v>4704</v>
+      <c r="G227" s="468" t="s">
+        <v>4697</v>
       </c>
       <c r="H227" s="13"/>
       <c r="I227" s="13" t="s">
@@ -41270,7 +41227,7 @@
       <c r="Q227" s="24" t="s">
         <v>3676</v>
       </c>
-      <c r="R227" s="520"/>
+      <c r="R227" s="504"/>
       <c r="S227" s="17" t="s">
         <v>1788</v>
       </c>
@@ -41318,7 +41275,7 @@
       <c r="AS227" s="13"/>
       <c r="AT227" s="13"/>
     </row>
-    <row r="228" spans="1:46" s="451" customFormat="1" ht="15.75" customHeight="1">
+    <row r="228" spans="1:46" s="436" customFormat="1" ht="15.75" customHeight="1">
       <c r="A228" s="95" t="s">
         <v>4322</v>
       </c>
@@ -41330,15 +41287,15 @@
       </c>
       <c r="D228" s="71"/>
       <c r="E228" s="248" t="s">
-        <v>4463</v>
+        <v>4462</v>
       </c>
       <c r="F228" s="210"/>
       <c r="G228" s="282"/>
       <c r="H228" s="6"/>
-      <c r="I228" s="411" t="s">
+      <c r="I228" s="397" t="s">
         <v>1799</v>
       </c>
-      <c r="J228" s="402" t="s">
+      <c r="J228" s="388" t="s">
         <v>1800</v>
       </c>
       <c r="K228" s="38" t="s">
@@ -41391,18 +41348,18 @@
       </c>
       <c r="AG228" s="13"/>
       <c r="AH228" s="13"/>
-      <c r="AI228" s="450"/>
-      <c r="AJ228" s="450"/>
-      <c r="AK228" s="450"/>
-      <c r="AL228" s="450"/>
-      <c r="AM228" s="450"/>
-      <c r="AN228" s="450"/>
-      <c r="AO228" s="450"/>
-      <c r="AP228" s="450"/>
-      <c r="AQ228" s="450"/>
-      <c r="AR228" s="450"/>
-      <c r="AS228" s="450"/>
-      <c r="AT228" s="450"/>
+      <c r="AI228" s="435"/>
+      <c r="AJ228" s="435"/>
+      <c r="AK228" s="435"/>
+      <c r="AL228" s="435"/>
+      <c r="AM228" s="435"/>
+      <c r="AN228" s="435"/>
+      <c r="AO228" s="435"/>
+      <c r="AP228" s="435"/>
+      <c r="AQ228" s="435"/>
+      <c r="AR228" s="435"/>
+      <c r="AS228" s="435"/>
+      <c r="AT228" s="435"/>
     </row>
     <row r="229" spans="1:46" ht="15.75" customHeight="1">
       <c r="A229" s="95" t="s">
@@ -41416,7 +41373,7 @@
       </c>
       <c r="D229" s="74"/>
       <c r="E229" s="286" t="s">
-        <v>4378</v>
+        <v>4377</v>
       </c>
       <c r="F229" s="195" t="s">
         <v>3844</v>
@@ -41424,7 +41381,7 @@
       <c r="G229" s="328"/>
       <c r="H229" s="201"/>
       <c r="I229" s="139" t="s">
-        <v>4376</v>
+        <v>4375</v>
       </c>
       <c r="J229" s="38"/>
       <c r="K229" s="38" t="s">
@@ -41498,13 +41455,13 @@
       </c>
       <c r="D230" s="82"/>
       <c r="E230" s="286" t="s">
-        <v>4378</v>
+        <v>4377</v>
       </c>
       <c r="F230" s="22"/>
       <c r="G230" s="318"/>
       <c r="H230" s="22"/>
       <c r="I230" s="13" t="s">
-        <v>4377</v>
+        <v>4376</v>
       </c>
       <c r="J230" s="318" t="s">
         <v>1817</v>
@@ -41612,7 +41569,7 @@
       <c r="Q231" s="24" t="s">
         <v>1830</v>
       </c>
-      <c r="R231" s="520"/>
+      <c r="R231" s="504"/>
       <c r="S231" s="96"/>
       <c r="T231" s="24"/>
       <c r="U231" s="43" t="s">
@@ -41768,7 +41725,7 @@
       <c r="Q233" s="17" t="s">
         <v>1846</v>
       </c>
-      <c r="R233" s="518"/>
+      <c r="R233" s="502"/>
       <c r="S233" s="97"/>
       <c r="T233" s="17"/>
       <c r="U233" s="43" t="s">
@@ -41819,9 +41776,9 @@
       <c r="F234" s="238" t="s">
         <v>3864</v>
       </c>
-      <c r="G234" s="362"/>
-      <c r="H234" s="429"/>
-      <c r="I234" s="505" t="s">
+      <c r="G234" s="355"/>
+      <c r="H234" s="415"/>
+      <c r="I234" s="489" t="s">
         <v>1847</v>
       </c>
       <c r="J234" s="38"/>
@@ -41865,7 +41822,7 @@
       <c r="AD234" s="13"/>
       <c r="AE234" s="13"/>
       <c r="AF234" s="13"/>
-      <c r="AG234" s="504"/>
+      <c r="AG234" s="488"/>
       <c r="AH234" s="13"/>
       <c r="AI234" s="13"/>
       <c r="AJ234" s="13"/>
@@ -41884,15 +41841,15 @@
       <c r="A235" s="95" t="s">
         <v>1851</v>
       </c>
-      <c r="B235" s="488" t="s">
+      <c r="B235" s="472" t="s">
         <v>929</v>
       </c>
       <c r="C235" s="95" t="s">
-        <v>4513</v>
+        <v>4509</v>
       </c>
       <c r="D235" s="74"/>
       <c r="E235" s="252" t="s">
-        <v>4514</v>
+        <v>4510</v>
       </c>
       <c r="F235" s="85" t="s">
         <v>3844</v>
@@ -41986,7 +41943,7 @@
       </c>
       <c r="D236" s="74"/>
       <c r="E236" s="252" t="s">
-        <v>4409</v>
+        <v>4408</v>
       </c>
       <c r="F236" s="85" t="s">
         <v>3844</v>
@@ -42375,7 +42332,7 @@
       <c r="V240" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="W240" s="473"/>
+      <c r="W240" s="458"/>
       <c r="X240" s="167" t="s">
         <v>171</v>
       </c>
@@ -42419,16 +42376,16 @@
       <c r="B241" s="95" t="s">
         <v>929</v>
       </c>
-      <c r="C241" s="482" t="s">
-        <v>4705</v>
+      <c r="C241" s="466" t="s">
+        <v>4698</v>
       </c>
       <c r="D241" s="74"/>
       <c r="E241" s="252"/>
       <c r="F241" s="240" t="s">
         <v>3862</v>
       </c>
-      <c r="G241" s="483" t="s">
-        <v>4706</v>
+      <c r="G241" s="467" t="s">
+        <v>4699</v>
       </c>
       <c r="H241" s="201"/>
       <c r="I241" s="13" t="s">
@@ -42507,16 +42464,16 @@
       <c r="B242" s="95" t="s">
         <v>929</v>
       </c>
-      <c r="C242" s="482" t="s">
-        <v>4705</v>
+      <c r="C242" s="466" t="s">
+        <v>4698</v>
       </c>
       <c r="D242" s="74"/>
       <c r="E242" s="252"/>
       <c r="F242" s="240" t="s">
         <v>3862</v>
       </c>
-      <c r="G242" s="483" t="s">
-        <v>4706</v>
+      <c r="G242" s="467" t="s">
+        <v>4699</v>
       </c>
       <c r="H242" s="201"/>
       <c r="I242" s="13" t="s">
@@ -42540,7 +42497,7 @@
       <c r="Q242" s="24" t="s">
         <v>1916</v>
       </c>
-      <c r="R242" s="520"/>
+      <c r="R242" s="504"/>
       <c r="S242" s="17" t="s">
         <v>1788</v>
       </c>
@@ -42598,7 +42555,7 @@
       </c>
       <c r="D243" s="74"/>
       <c r="E243" s="252" t="s">
-        <v>4410</v>
+        <v>4409</v>
       </c>
       <c r="F243" s="208"/>
       <c r="G243" s="228"/>
@@ -42624,7 +42581,7 @@
       <c r="Q243" s="17" t="s">
         <v>1927</v>
       </c>
-      <c r="R243" s="518"/>
+      <c r="R243" s="502"/>
       <c r="S243" s="163" t="s">
         <v>96</v>
       </c>
@@ -42637,7 +42594,7 @@
       <c r="V243" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="W243" s="473"/>
+      <c r="W243" s="458"/>
       <c r="X243" s="167" t="s">
         <v>171</v>
       </c>
@@ -42774,7 +42731,7 @@
       </c>
       <c r="D245" s="74"/>
       <c r="E245" s="252" t="s">
-        <v>4411</v>
+        <v>4410</v>
       </c>
       <c r="F245" s="13"/>
       <c r="G245" s="228"/>
@@ -42792,7 +42749,7 @@
       <c r="M245" s="148"/>
       <c r="N245" s="148"/>
       <c r="O245" s="147"/>
-      <c r="P245" s="512" t="s">
+      <c r="P245" s="496" t="s">
         <v>603</v>
       </c>
       <c r="Q245" s="56" t="s">
@@ -42854,7 +42811,7 @@
       </c>
       <c r="D246" s="74"/>
       <c r="E246" s="252" t="s">
-        <v>4411</v>
+        <v>4410</v>
       </c>
       <c r="F246" s="85" t="s">
         <v>3844</v>
@@ -42921,82 +42878,82 @@
       <c r="AT246" s="13"/>
     </row>
     <row r="247" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A247" s="530" t="s">
+      <c r="A247" s="514" t="s">
         <v>3578</v>
       </c>
-      <c r="B247" s="491" t="s">
+      <c r="B247" s="475" t="s">
         <v>3814</v>
       </c>
-      <c r="C247" s="534" t="s">
-        <v>4715</v>
-      </c>
-      <c r="D247" s="539"/>
+      <c r="C247" s="518" t="s">
+        <v>4708</v>
+      </c>
+      <c r="D247" s="523"/>
       <c r="E247" s="333"/>
-      <c r="F247" s="498" t="s">
+      <c r="F247" s="482" t="s">
         <v>3844</v>
       </c>
       <c r="G247" s="326" t="s">
-        <v>4716</v>
-      </c>
-      <c r="H247" s="503"/>
-      <c r="I247" s="556" t="s">
-        <v>4454</v>
-      </c>
-      <c r="J247" s="548" t="s">
+        <v>4709</v>
+      </c>
+      <c r="H247" s="487"/>
+      <c r="I247" s="540" t="s">
+        <v>4453</v>
+      </c>
+      <c r="J247" s="532" t="s">
         <v>3579</v>
       </c>
-      <c r="K247" s="531" t="s">
+      <c r="K247" s="515" t="s">
         <v>3643</v>
       </c>
-      <c r="L247" s="557" t="s">
+      <c r="L247" s="541" t="s">
         <v>1795</v>
       </c>
-      <c r="M247" s="548"/>
-      <c r="N247" s="531"/>
-      <c r="O247" s="548"/>
-      <c r="P247" s="557" t="s">
+      <c r="M247" s="532"/>
+      <c r="N247" s="515"/>
+      <c r="O247" s="532"/>
+      <c r="P247" s="541" t="s">
         <v>3641</v>
       </c>
-      <c r="Q247" s="560" t="s">
+      <c r="Q247" s="544" t="s">
         <v>3680</v>
       </c>
-      <c r="R247" s="561"/>
+      <c r="R247" s="545"/>
       <c r="S247" s="17" t="s">
         <v>1788</v>
       </c>
       <c r="T247" s="17" t="s">
         <v>1789</v>
       </c>
-      <c r="U247" s="563" t="s">
+      <c r="U247" s="547" t="s">
         <v>346</v>
       </c>
-      <c r="V247" s="556" t="s">
+      <c r="V247" s="540" t="s">
         <v>33</v>
       </c>
-      <c r="W247" s="548" t="s">
+      <c r="W247" s="532" t="s">
         <v>3580</v>
       </c>
-      <c r="X247" s="556" t="s">
+      <c r="X247" s="540" t="s">
         <v>1788</v>
       </c>
-      <c r="Y247" s="556" t="s">
+      <c r="Y247" s="540" t="s">
         <v>1789</v>
       </c>
-      <c r="Z247" s="548"/>
-      <c r="AA247" s="548"/>
-      <c r="AB247" s="392" t="s">
+      <c r="Z247" s="532"/>
+      <c r="AA247" s="532"/>
+      <c r="AB247" s="378" t="s">
         <v>3633</v>
       </c>
-      <c r="AC247" s="548"/>
-      <c r="AD247" s="548"/>
-      <c r="AE247" s="548"/>
-      <c r="AF247" s="556" t="s">
+      <c r="AC247" s="532"/>
+      <c r="AD247" s="532"/>
+      <c r="AE247" s="532"/>
+      <c r="AF247" s="540" t="s">
         <v>1960</v>
       </c>
-      <c r="AG247" s="548" t="s">
+      <c r="AG247" s="532" t="s">
         <v>3634</v>
       </c>
-      <c r="AH247" s="548"/>
+      <c r="AH247" s="532"/>
       <c r="AI247" s="133"/>
       <c r="AJ247" s="133"/>
       <c r="AK247" s="133"/>
@@ -43011,74 +42968,74 @@
       <c r="AT247" s="133"/>
     </row>
     <row r="248" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A248" s="530" t="s">
+      <c r="A248" s="514" t="s">
         <v>3575</v>
       </c>
-      <c r="B248" s="531" t="s">
+      <c r="B248" s="515" t="s">
         <v>3815</v>
       </c>
-      <c r="C248" s="534" t="s">
-        <v>4715</v>
-      </c>
-      <c r="D248" s="539"/>
+      <c r="C248" s="518" t="s">
+        <v>4708</v>
+      </c>
+      <c r="D248" s="523"/>
       <c r="E248" s="333"/>
-      <c r="F248" s="498" t="s">
+      <c r="F248" s="482" t="s">
         <v>3844</v>
       </c>
       <c r="G248" s="326" t="s">
-        <v>4716</v>
-      </c>
-      <c r="H248" s="503"/>
-      <c r="I248" s="554"/>
-      <c r="J248" s="548"/>
-      <c r="K248" s="531" t="s">
+        <v>4709</v>
+      </c>
+      <c r="H248" s="487"/>
+      <c r="I248" s="538"/>
+      <c r="J248" s="532"/>
+      <c r="K248" s="515" t="s">
         <v>3644</v>
       </c>
-      <c r="L248" s="557" t="s">
+      <c r="L248" s="541" t="s">
         <v>1909</v>
       </c>
-      <c r="M248" s="548"/>
-      <c r="N248" s="531"/>
-      <c r="O248" s="548"/>
-      <c r="P248" s="557" t="s">
+      <c r="M248" s="532"/>
+      <c r="N248" s="515"/>
+      <c r="O248" s="532"/>
+      <c r="P248" s="541" t="s">
         <v>3641</v>
       </c>
-      <c r="Q248" s="560" t="s">
+      <c r="Q248" s="544" t="s">
         <v>3680</v>
       </c>
-      <c r="R248" s="561"/>
+      <c r="R248" s="545"/>
       <c r="S248" s="17" t="s">
         <v>1788</v>
       </c>
       <c r="T248" s="17" t="s">
         <v>1789</v>
       </c>
-      <c r="U248" s="467" t="s">
+      <c r="U248" s="452" t="s">
         <v>346</v>
       </c>
-      <c r="V248" s="556" t="s">
+      <c r="V248" s="540" t="s">
         <v>33</v>
       </c>
-      <c r="W248" s="548" t="s">
+      <c r="W248" s="532" t="s">
         <v>3576</v>
       </c>
-      <c r="X248" s="556" t="s">
+      <c r="X248" s="540" t="s">
         <v>1788</v>
       </c>
-      <c r="Y248" s="556" t="s">
+      <c r="Y248" s="540" t="s">
         <v>1789</v>
       </c>
-      <c r="Z248" s="548"/>
-      <c r="AA248" s="548"/>
-      <c r="AB248" s="556" t="s">
+      <c r="Z248" s="532"/>
+      <c r="AA248" s="532"/>
+      <c r="AB248" s="540" t="s">
         <v>3577</v>
       </c>
-      <c r="AC248" s="548"/>
-      <c r="AD248" s="548"/>
-      <c r="AE248" s="548"/>
-      <c r="AF248" s="556"/>
-      <c r="AG248" s="548"/>
-      <c r="AH248" s="548"/>
+      <c r="AC248" s="532"/>
+      <c r="AD248" s="532"/>
+      <c r="AE248" s="532"/>
+      <c r="AF248" s="540"/>
+      <c r="AG248" s="532"/>
+      <c r="AH248" s="532"/>
       <c r="AI248" s="133"/>
       <c r="AJ248" s="133"/>
       <c r="AK248" s="133"/>
@@ -43110,7 +43067,7 @@
         <v>3844</v>
       </c>
       <c r="G249" s="320" t="s">
-        <v>4507</v>
+        <v>4503</v>
       </c>
       <c r="H249" s="201"/>
       <c r="I249" s="98" t="s">
@@ -43746,7 +43703,7 @@
       </c>
       <c r="D257" s="74"/>
       <c r="E257" s="252" t="s">
-        <v>4412</v>
+        <v>4411</v>
       </c>
       <c r="F257" s="85" t="s">
         <v>3844</v>
@@ -43826,7 +43783,7 @@
       </c>
       <c r="D258" s="74"/>
       <c r="E258" s="252" t="s">
-        <v>4412</v>
+        <v>4411</v>
       </c>
       <c r="F258" s="217" t="s">
         <v>2031</v>
@@ -43834,7 +43791,7 @@
       <c r="G258" s="322" t="s">
         <v>4049</v>
       </c>
-      <c r="H258" s="430"/>
+      <c r="H258" s="416"/>
       <c r="I258" s="98" t="s">
         <v>2032</v>
       </c>
@@ -43909,7 +43866,7 @@
       <c r="D259" s="74"/>
       <c r="E259" s="252"/>
       <c r="F259" s="299" t="s">
-        <v>4515</v>
+        <v>4511</v>
       </c>
       <c r="G259" s="320"/>
       <c r="H259" s="201"/>
@@ -43993,7 +43950,7 @@
       <c r="D260" s="74"/>
       <c r="E260" s="252"/>
       <c r="F260" s="299" t="s">
-        <v>4516</v>
+        <v>4512</v>
       </c>
       <c r="G260" s="320"/>
       <c r="H260" s="201"/>
@@ -44116,7 +44073,7 @@
         <v>33</v>
       </c>
       <c r="W261" s="38" t="s">
-        <v>4529</v>
+        <v>4524</v>
       </c>
       <c r="X261" s="13"/>
       <c r="Y261" s="13"/>
@@ -44196,13 +44153,13 @@
       <c r="S262" s="24"/>
       <c r="T262" s="24"/>
       <c r="U262" s="301" t="s">
-        <v>4547</v>
+        <v>4542</v>
       </c>
       <c r="V262" s="13" t="s">
         <v>33</v>
       </c>
       <c r="W262" s="38" t="s">
-        <v>4530</v>
+        <v>4525</v>
       </c>
       <c r="X262" s="13"/>
       <c r="Y262" s="13"/>
@@ -44387,16 +44344,16 @@
       <c r="B265" s="95" t="s">
         <v>3816</v>
       </c>
-      <c r="C265" s="482" t="s">
-        <v>4707</v>
+      <c r="C265" s="466" t="s">
+        <v>4700</v>
       </c>
       <c r="D265" s="74"/>
       <c r="E265" s="252"/>
       <c r="F265" s="85" t="s">
         <v>3844</v>
       </c>
-      <c r="G265" s="483" t="s">
-        <v>4706</v>
+      <c r="G265" s="467" t="s">
+        <v>4699</v>
       </c>
       <c r="H265" s="201"/>
       <c r="I265" s="13" t="s">
@@ -44434,7 +44391,7 @@
         <v>33</v>
       </c>
       <c r="W265" s="38" t="s">
-        <v>4708</v>
+        <v>4701</v>
       </c>
       <c r="X265" s="13"/>
       <c r="Y265" s="13"/>
@@ -44462,13 +44419,13 @@
     </row>
     <row r="266" spans="1:46" s="105" customFormat="1" ht="15.75" customHeight="1">
       <c r="A266" s="95" t="s">
-        <v>4374</v>
+        <v>4373</v>
       </c>
       <c r="B266" s="95" t="s">
         <v>393</v>
       </c>
-      <c r="C266" s="492" t="s">
-        <v>4374</v>
+      <c r="C266" s="476" t="s">
+        <v>4373</v>
       </c>
       <c r="D266" s="74"/>
       <c r="E266" s="252" t="s">
@@ -44479,7 +44436,7 @@
       </c>
       <c r="G266" s="228"/>
       <c r="H266" s="13"/>
-      <c r="I266" s="412" t="s">
+      <c r="I266" s="398" t="s">
         <v>2081</v>
       </c>
       <c r="J266" s="38"/>
@@ -44662,7 +44619,7 @@
       <c r="Q268" s="17" t="s">
         <v>2101</v>
       </c>
-      <c r="R268" s="518"/>
+      <c r="R268" s="502"/>
       <c r="S268" s="97"/>
       <c r="T268" s="17"/>
       <c r="U268" s="38" t="s">
@@ -44839,7 +44796,7 @@
       <c r="X270" s="17" t="s">
         <v>1788</v>
       </c>
-      <c r="Y270" s="381" t="s">
+      <c r="Y270" s="369" t="s">
         <v>1789</v>
       </c>
       <c r="Z270" s="13"/>
@@ -44880,7 +44837,7 @@
       <c r="E271" s="253"/>
       <c r="F271" s="213"/>
       <c r="G271" s="121" t="s">
-        <v>4557</v>
+        <v>4552</v>
       </c>
       <c r="H271" s="201"/>
       <c r="I271" s="13" t="s">
@@ -44898,7 +44855,7 @@
       <c r="M271" s="147"/>
       <c r="N271" s="147"/>
       <c r="O271" s="147"/>
-      <c r="P271" s="514" t="s">
+      <c r="P271" s="498" t="s">
         <v>2125</v>
       </c>
       <c r="Q271" s="24" t="s">
@@ -44974,7 +44931,7 @@
       </c>
       <c r="N272" s="149"/>
       <c r="O272" s="149"/>
-      <c r="P272" s="514" t="s">
+      <c r="P272" s="498" t="s">
         <v>125</v>
       </c>
       <c r="Q272" s="29" t="s">
@@ -44989,8 +44946,8 @@
       <c r="V272" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="W272" s="422" t="s">
-        <v>4640</v>
+      <c r="W272" s="408" t="s">
+        <v>4634</v>
       </c>
       <c r="X272" s="13"/>
       <c r="Y272" s="13"/>
@@ -45054,7 +45011,7 @@
       </c>
       <c r="N273" s="152"/>
       <c r="O273" s="152"/>
-      <c r="P273" s="514" t="s">
+      <c r="P273" s="498" t="s">
         <v>125</v>
       </c>
       <c r="Q273" s="24" t="s">
@@ -45130,7 +45087,7 @@
       </c>
       <c r="N274" s="135"/>
       <c r="O274" s="135"/>
-      <c r="P274" s="514" t="s">
+      <c r="P274" s="498" t="s">
         <v>125</v>
       </c>
       <c r="Q274" s="29" t="s">
@@ -45180,7 +45137,7 @@
         <v>2148</v>
       </c>
       <c r="C275" s="195" t="s">
-        <v>4662</v>
+        <v>4656</v>
       </c>
       <c r="D275" s="74"/>
       <c r="E275" s="252"/>
@@ -45188,7 +45145,7 @@
         <v>3844</v>
       </c>
       <c r="G275" s="320" t="s">
-        <v>4663</v>
+        <v>4657</v>
       </c>
       <c r="H275" s="201"/>
       <c r="I275" s="13" t="s">
@@ -45208,7 +45165,7 @@
       </c>
       <c r="N275" s="147"/>
       <c r="O275" s="147"/>
-      <c r="P275" s="514" t="s">
+      <c r="P275" s="498" t="s">
         <v>125</v>
       </c>
       <c r="Q275" s="17" t="s">
@@ -45339,16 +45296,16 @@
       <c r="B277" s="95" t="s">
         <v>929</v>
       </c>
-      <c r="C277" s="469" t="s">
-        <v>4696</v>
+      <c r="C277" s="454" t="s">
+        <v>4689</v>
       </c>
       <c r="D277" s="74"/>
       <c r="E277" s="252"/>
       <c r="F277" s="85" t="s">
         <v>3844</v>
       </c>
-      <c r="G277" s="483" t="s">
-        <v>4699</v>
+      <c r="G277" s="467" t="s">
+        <v>4692</v>
       </c>
       <c r="H277" s="201"/>
       <c r="I277" s="13" t="s">
@@ -45386,12 +45343,12 @@
         <v>33</v>
       </c>
       <c r="W277" s="38" t="s">
-        <v>4700</v>
+        <v>4693</v>
       </c>
       <c r="X277" s="17" t="s">
         <v>1788</v>
       </c>
-      <c r="Y277" s="381" t="s">
+      <c r="Y277" s="369" t="s">
         <v>1789</v>
       </c>
       <c r="Z277" s="13"/>
@@ -45433,13 +45390,13 @@
         <v>2107</v>
       </c>
       <c r="F278" s="85" t="s">
-        <v>4641</v>
+        <v>4635</v>
       </c>
       <c r="G278" s="320" t="s">
-        <v>4642</v>
+        <v>4636</v>
       </c>
       <c r="H278" s="201"/>
-      <c r="I278" s="413" t="s">
+      <c r="I278" s="399" t="s">
         <v>2168</v>
       </c>
       <c r="J278" s="38" t="s">
@@ -45476,7 +45433,7 @@
         <v>33</v>
       </c>
       <c r="W278" s="38" t="s">
-        <v>4643</v>
+        <v>4637</v>
       </c>
       <c r="X278" s="13"/>
       <c r="Y278" s="13"/>
@@ -45517,8 +45474,8 @@
       <c r="B279" s="95" t="s">
         <v>393</v>
       </c>
-      <c r="C279" s="449" t="s">
-        <v>4666</v>
+      <c r="C279" s="434" t="s">
+        <v>4660</v>
       </c>
       <c r="D279" s="74"/>
       <c r="E279" s="252"/>
@@ -45526,7 +45483,7 @@
         <v>3844</v>
       </c>
       <c r="G279" s="320" t="s">
-        <v>4667</v>
+        <v>4661</v>
       </c>
       <c r="H279" s="201"/>
       <c r="I279" s="13" t="s">
@@ -45535,8 +45492,8 @@
       <c r="J279" s="38" t="s">
         <v>2176</v>
       </c>
-      <c r="K279" s="447" t="s">
-        <v>4701</v>
+      <c r="K279" s="432" t="s">
+        <v>4694</v>
       </c>
       <c r="L279" s="19" t="s">
         <v>2177</v>
@@ -45552,7 +45509,7 @@
       <c r="Q279" s="33" t="s">
         <v>1959</v>
       </c>
-      <c r="R279" s="519"/>
+      <c r="R279" s="503"/>
       <c r="S279" s="153"/>
       <c r="T279" s="33"/>
       <c r="U279" s="13" t="s">
@@ -45562,7 +45519,7 @@
         <v>33</v>
       </c>
       <c r="W279" s="38" t="s">
-        <v>4644</v>
+        <v>4638</v>
       </c>
       <c r="X279" s="13"/>
       <c r="Y279" s="13"/>
@@ -45600,7 +45557,7 @@
       </c>
       <c r="D280" s="74"/>
       <c r="E280" s="252" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
       <c r="F280" s="85"/>
       <c r="G280" s="320"/>
@@ -45764,7 +45721,7 @@
         <v>3844</v>
       </c>
       <c r="G282" s="320" t="s">
-        <v>4698</v>
+        <v>4691</v>
       </c>
       <c r="H282" s="201"/>
       <c r="I282" s="112" t="s">
@@ -45785,10 +45742,10 @@
       <c r="P282" s="115" t="s">
         <v>3641</v>
       </c>
-      <c r="Q282" s="559" t="s">
-        <v>4639</v>
-      </c>
-      <c r="R282" s="518"/>
+      <c r="Q282" s="543" t="s">
+        <v>4633</v>
+      </c>
+      <c r="R282" s="502"/>
       <c r="S282" s="97" t="s">
         <v>1788</v>
       </c>
@@ -45802,7 +45759,7 @@
         <v>33</v>
       </c>
       <c r="W282" s="38" t="s">
-        <v>4638</v>
+        <v>4632</v>
       </c>
       <c r="X282" s="17" t="s">
         <v>1788</v>
@@ -45843,7 +45800,7 @@
       <c r="B283" s="95" t="s">
         <v>393</v>
       </c>
-      <c r="C283" s="493" t="s">
+      <c r="C283" s="477" t="s">
         <v>4074</v>
       </c>
       <c r="D283" s="74"/>
@@ -45862,7 +45819,7 @@
         <v>2195</v>
       </c>
       <c r="K283" s="38" t="s">
-        <v>4508</v>
+        <v>4504</v>
       </c>
       <c r="L283" s="19" t="s">
         <v>2196</v>
@@ -45870,7 +45827,7 @@
       <c r="M283" s="147"/>
       <c r="N283" s="147"/>
       <c r="O283" s="147"/>
-      <c r="P283" s="525" t="s">
+      <c r="P283" s="509" t="s">
         <v>2197</v>
       </c>
       <c r="Q283" s="17" t="s">
@@ -45927,7 +45884,7 @@
         <v>4079</v>
       </c>
       <c r="D284" s="74"/>
-      <c r="E284" s="351" t="s">
+      <c r="E284" s="346" t="s">
         <v>4077</v>
       </c>
       <c r="F284" s="85" t="s">
@@ -46034,7 +45991,7 @@
       <c r="Q285" s="17" t="s">
         <v>2211</v>
       </c>
-      <c r="R285" s="518"/>
+      <c r="R285" s="502"/>
       <c r="S285" s="97"/>
       <c r="T285" s="17"/>
       <c r="U285" s="225" t="s">
@@ -46076,15 +46033,15 @@
         <v>929</v>
       </c>
       <c r="C286" s="95" t="s">
-        <v>4532</v>
+        <v>4527</v>
       </c>
       <c r="D286" s="74"/>
       <c r="E286" s="252"/>
       <c r="F286" s="85" t="s">
-        <v>4533</v>
+        <v>4528</v>
       </c>
       <c r="G286" s="320" t="s">
-        <v>4697</v>
+        <v>4690</v>
       </c>
       <c r="H286" s="201"/>
       <c r="I286" s="13" t="s">
@@ -46102,7 +46059,7 @@
       <c r="M286" s="147"/>
       <c r="N286" s="147"/>
       <c r="O286" s="147"/>
-      <c r="P286" s="375" t="s">
+      <c r="P286" s="365" t="s">
         <v>3641</v>
       </c>
       <c r="Q286" s="33" t="s">
@@ -46165,10 +46122,10 @@
         <v>2107</v>
       </c>
       <c r="F287" s="85" t="s">
-        <v>4521</v>
+        <v>4733</v>
       </c>
       <c r="G287" s="320" t="s">
-        <v>4522</v>
+        <v>4517</v>
       </c>
       <c r="H287" s="201"/>
       <c r="I287" s="13" t="s">
@@ -46204,7 +46161,7 @@
         <v>33</v>
       </c>
       <c r="W287" s="38" t="s">
-        <v>4523</v>
+        <v>4518</v>
       </c>
       <c r="X287" s="13"/>
       <c r="Y287" s="13"/>
@@ -46242,7 +46199,7 @@
       </c>
       <c r="D288" s="74"/>
       <c r="E288" s="252" t="s">
-        <v>4414</v>
+        <v>4413</v>
       </c>
       <c r="F288" s="85" t="s">
         <v>3844</v>
@@ -46272,7 +46229,7 @@
       <c r="Q288" s="26" t="s">
         <v>2225</v>
       </c>
-      <c r="R288" s="518"/>
+      <c r="R288" s="502"/>
       <c r="S288" s="97"/>
       <c r="T288" s="97"/>
       <c r="U288" s="13" t="s">
@@ -46318,7 +46275,7 @@
       </c>
       <c r="D289" s="74"/>
       <c r="E289" s="252" t="s">
-        <v>4415</v>
+        <v>4414</v>
       </c>
       <c r="F289" s="85" t="s">
         <v>3844</v>
@@ -46401,8 +46358,8 @@
       <c r="B290" s="95" t="s">
         <v>929</v>
       </c>
-      <c r="C290" s="482" t="s">
-        <v>4695</v>
+      <c r="C290" s="466" t="s">
+        <v>4688</v>
       </c>
       <c r="D290" s="74"/>
       <c r="E290" s="252"/>
@@ -46410,7 +46367,7 @@
         <v>3844</v>
       </c>
       <c r="G290" s="320" t="s">
-        <v>4692</v>
+        <v>4685</v>
       </c>
       <c r="H290" s="201"/>
       <c r="I290" s="13" t="s">
@@ -46430,7 +46387,7 @@
         <v>3641</v>
       </c>
       <c r="Q290" s="273" t="s">
-        <v>4693</v>
+        <v>4686</v>
       </c>
       <c r="R290" s="17"/>
       <c r="S290" s="97" t="s">
@@ -46446,7 +46403,7 @@
         <v>33</v>
       </c>
       <c r="W290" s="38" t="s">
-        <v>4694</v>
+        <v>4687</v>
       </c>
       <c r="X290" s="13"/>
       <c r="Y290" s="13"/>
@@ -46484,7 +46441,7 @@
       </c>
       <c r="D291" s="74"/>
       <c r="E291" s="252" t="s">
-        <v>4416</v>
+        <v>4415</v>
       </c>
       <c r="F291" s="85" t="s">
         <v>3844</v>
@@ -46563,7 +46520,7 @@
         <v>4081</v>
       </c>
       <c r="F292" s="85" t="s">
-        <v>4503</v>
+        <v>4499</v>
       </c>
       <c r="G292" s="95" t="s">
         <v>2247</v>
@@ -46644,7 +46601,7 @@
       </c>
       <c r="D293" s="74"/>
       <c r="E293" s="252" t="s">
-        <v>4418</v>
+        <v>4417</v>
       </c>
       <c r="F293" s="85" t="s">
         <v>3844</v>
@@ -46652,7 +46609,7 @@
       <c r="G293" s="320"/>
       <c r="H293" s="201"/>
       <c r="I293" s="139" t="s">
-        <v>4417</v>
+        <v>4416</v>
       </c>
       <c r="J293" s="38"/>
       <c r="K293" s="38" t="s">
@@ -46672,7 +46629,7 @@
       <c r="Q293" s="17" t="s">
         <v>2260</v>
       </c>
-      <c r="R293" s="518" t="s">
+      <c r="R293" s="502" t="s">
         <v>742</v>
       </c>
       <c r="S293" s="97"/>
@@ -46690,7 +46647,7 @@
       <c r="Y293" s="13"/>
       <c r="Z293" s="89"/>
       <c r="AA293" s="89"/>
-      <c r="AB293" s="390" t="s">
+      <c r="AB293" s="376" t="s">
         <v>3799</v>
       </c>
       <c r="AC293" s="13" t="s">
@@ -46728,12 +46685,12 @@
       </c>
       <c r="D294" s="74"/>
       <c r="E294" s="252" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="F294" s="85"/>
       <c r="G294" s="320"/>
       <c r="H294" s="201"/>
-      <c r="I294" s="412" t="s">
+      <c r="I294" s="398" t="s">
         <v>2264</v>
       </c>
       <c r="J294" s="38" t="s">
@@ -46754,7 +46711,7 @@
       <c r="Q294" s="33" t="s">
         <v>3684</v>
       </c>
-      <c r="R294" s="519"/>
+      <c r="R294" s="503"/>
       <c r="S294" s="97" t="s">
         <v>1788</v>
       </c>
@@ -46812,7 +46769,7 @@
       </c>
       <c r="D295" s="74"/>
       <c r="E295" s="252" t="s">
-        <v>4420</v>
+        <v>4419</v>
       </c>
       <c r="F295" s="13"/>
       <c r="G295" s="228"/>
@@ -46853,7 +46810,7 @@
       <c r="V295" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="W295" s="473"/>
+      <c r="W295" s="458"/>
       <c r="X295" s="167" t="s">
         <v>171</v>
       </c>
@@ -46896,7 +46853,7 @@
       </c>
       <c r="D296" s="74"/>
       <c r="E296" s="252" t="s">
-        <v>4421</v>
+        <v>4420</v>
       </c>
       <c r="F296" s="85" t="s">
         <v>3844</v>
@@ -46920,7 +46877,7 @@
       </c>
       <c r="N296" s="147"/>
       <c r="O296" s="147"/>
-      <c r="P296" s="504" t="s">
+      <c r="P296" s="488" t="s">
         <v>125</v>
       </c>
       <c r="Q296" s="17" t="s">
@@ -46935,7 +46892,7 @@
       <c r="V296" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="W296" s="478"/>
+      <c r="W296" s="463"/>
       <c r="X296" s="27" t="s">
         <v>2282</v>
       </c>
@@ -47065,7 +47022,7 @@
         <v>4082</v>
       </c>
       <c r="F298" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G298" s="321"/>
       <c r="H298" s="201"/>
@@ -47090,7 +47047,7 @@
       <c r="Q298" s="33" t="s">
         <v>2049</v>
       </c>
-      <c r="R298" s="519"/>
+      <c r="R298" s="503"/>
       <c r="S298" s="153"/>
       <c r="T298" s="33"/>
       <c r="U298" s="39" t="s">
@@ -47222,7 +47179,7 @@
       </c>
       <c r="D300" s="74"/>
       <c r="E300" s="252" t="s">
-        <v>4422</v>
+        <v>4421</v>
       </c>
       <c r="F300" s="208"/>
       <c r="G300" s="228"/>
@@ -47300,11 +47257,11 @@
         <v>393</v>
       </c>
       <c r="C301" s="195" t="s">
-        <v>4444</v>
+        <v>4443</v>
       </c>
       <c r="D301" s="74"/>
       <c r="E301" s="252" t="s">
-        <v>4423</v>
+        <v>4422</v>
       </c>
       <c r="F301" s="74"/>
       <c r="G301" s="320"/>
@@ -47378,13 +47335,13 @@
       </c>
       <c r="D302" s="74"/>
       <c r="E302" s="252" t="s">
-        <v>4424</v>
+        <v>4423</v>
       </c>
       <c r="F302" s="232" t="s">
         <v>3873</v>
       </c>
       <c r="G302" s="320" t="s">
-        <v>4577</v>
+        <v>4571</v>
       </c>
       <c r="H302" s="201"/>
       <c r="I302" s="5" t="s">
@@ -47460,7 +47417,7 @@
       </c>
       <c r="D303" s="74"/>
       <c r="E303" s="252" t="s">
-        <v>4425</v>
+        <v>4424</v>
       </c>
       <c r="F303" s="85" t="s">
         <v>3844</v>
@@ -47468,7 +47425,7 @@
       <c r="G303" s="320"/>
       <c r="H303" s="201"/>
       <c r="I303" s="13" t="s">
-        <v>4427</v>
+        <v>4426</v>
       </c>
       <c r="J303" s="38"/>
       <c r="K303" s="38" t="s">
@@ -47488,7 +47445,7 @@
       </c>
       <c r="R303" s="17"/>
       <c r="S303" s="17"/>
-      <c r="T303" s="381"/>
+      <c r="T303" s="369"/>
       <c r="U303" s="39" t="s">
         <v>496</v>
       </c>
@@ -47534,7 +47491,7 @@
       </c>
       <c r="D304" s="74"/>
       <c r="E304" s="252" t="s">
-        <v>4425</v>
+        <v>4424</v>
       </c>
       <c r="F304" s="85" t="s">
         <v>3844</v>
@@ -47542,7 +47499,7 @@
       <c r="G304" s="320"/>
       <c r="H304" s="201"/>
       <c r="I304" s="13" t="s">
-        <v>4426</v>
+        <v>4425</v>
       </c>
       <c r="J304" s="38"/>
       <c r="K304" s="38" t="s">
@@ -47608,7 +47565,7 @@
       </c>
       <c r="D305" s="74"/>
       <c r="E305" s="252" t="s">
-        <v>4425</v>
+        <v>4424</v>
       </c>
       <c r="F305" s="85" t="s">
         <v>3844</v>
@@ -47684,7 +47641,7 @@
         <v>393</v>
       </c>
       <c r="C306" s="101" t="s">
-        <v>4439</v>
+        <v>4438</v>
       </c>
       <c r="D306" s="74"/>
       <c r="E306" s="266" t="s">
@@ -47785,10 +47742,10 @@
       </c>
       <c r="G307" s="320"/>
       <c r="H307" s="201"/>
-      <c r="I307" s="414" t="s">
+      <c r="I307" s="400" t="s">
         <v>4089</v>
       </c>
-      <c r="J307" s="421"/>
+      <c r="J307" s="407"/>
       <c r="K307" s="109" t="s">
         <v>3878</v>
       </c>
@@ -47862,15 +47819,15 @@
       </c>
       <c r="D308" s="84"/>
       <c r="E308" s="262" t="s">
-        <v>4428</v>
+        <v>4427</v>
       </c>
       <c r="F308" s="209"/>
       <c r="G308" s="281"/>
       <c r="H308" s="57"/>
-      <c r="I308" s="414" t="s">
+      <c r="I308" s="400" t="s">
         <v>2364</v>
       </c>
-      <c r="J308" s="421"/>
+      <c r="J308" s="407"/>
       <c r="K308" s="109" t="s">
         <v>2365</v>
       </c>
@@ -47939,12 +47896,12 @@
       <c r="B309" s="95" t="s">
         <v>393</v>
       </c>
-      <c r="C309" s="493" t="s">
+      <c r="C309" s="477" t="s">
         <v>2373</v>
       </c>
       <c r="D309" s="74"/>
       <c r="E309" s="252" t="s">
-        <v>4429</v>
+        <v>4428</v>
       </c>
       <c r="F309" s="208"/>
       <c r="G309" s="228"/>
@@ -48226,10 +48183,10 @@
       <c r="Q312" s="17" t="s">
         <v>2404</v>
       </c>
-      <c r="R312" s="518"/>
+      <c r="R312" s="502"/>
       <c r="S312" s="97"/>
       <c r="T312" s="96"/>
-      <c r="U312" s="504" t="s">
+      <c r="U312" s="488" t="s">
         <v>588</v>
       </c>
       <c r="V312" s="30" t="s">
@@ -48277,10 +48234,10 @@
         <v>4098</v>
       </c>
       <c r="F313" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G313" s="109" t="s">
-        <v>4504</v>
+        <v>4500</v>
       </c>
       <c r="H313" s="201"/>
       <c r="I313" s="98" t="s">
@@ -48302,14 +48259,14 @@
       <c r="Q313" s="17" t="s">
         <v>2410</v>
       </c>
-      <c r="R313" s="518"/>
+      <c r="R313" s="502"/>
       <c r="S313" s="163" t="s">
         <v>2411</v>
       </c>
       <c r="T313" s="17" t="s">
         <v>2412</v>
       </c>
-      <c r="U313" s="521" t="s">
+      <c r="U313" s="505" t="s">
         <v>32</v>
       </c>
       <c r="V313" s="30" t="s">
@@ -48352,7 +48309,7 @@
         <v>393</v>
       </c>
       <c r="C314" s="205" t="s">
-        <v>4668</v>
+        <v>4662</v>
       </c>
       <c r="D314" s="77"/>
       <c r="E314" s="254"/>
@@ -48360,7 +48317,7 @@
         <v>3844</v>
       </c>
       <c r="G314" s="329" t="s">
-        <v>4669</v>
+        <v>4663</v>
       </c>
       <c r="H314" s="201"/>
       <c r="I314" s="9" t="s">
@@ -48387,13 +48344,13 @@
         <v>2421</v>
       </c>
       <c r="R314" s="26"/>
-      <c r="S314" s="452" t="s">
+      <c r="S314" s="437" t="s">
         <v>2422</v>
       </c>
       <c r="T314" s="17" t="s">
         <v>2423</v>
       </c>
-      <c r="U314" s="521" t="s">
+      <c r="U314" s="505" t="s">
         <v>32</v>
       </c>
       <c r="V314" s="37" t="s">
@@ -48448,7 +48405,7 @@
       </c>
       <c r="D315" s="74"/>
       <c r="E315" s="252" t="s">
-        <v>4430</v>
+        <v>4429</v>
       </c>
       <c r="F315" s="85" t="s">
         <v>3844</v>
@@ -48481,13 +48438,13 @@
       <c r="R315" s="17"/>
       <c r="S315" s="17"/>
       <c r="T315" s="17"/>
-      <c r="U315" s="504" t="s">
+      <c r="U315" s="488" t="s">
         <v>335</v>
       </c>
       <c r="V315" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="W315" s="479" t="s">
+      <c r="W315" s="553" t="s">
         <v>2433</v>
       </c>
       <c r="X315" s="13"/>
@@ -48624,7 +48581,7 @@
       <c r="M317" s="147"/>
       <c r="N317" s="148"/>
       <c r="O317" s="148"/>
-      <c r="P317" s="516" t="s">
+      <c r="P317" s="500" t="s">
         <v>1518</v>
       </c>
       <c r="Q317" s="17" t="s">
@@ -48684,18 +48641,18 @@
       <c r="C318" s="287" t="s">
         <v>3880</v>
       </c>
-      <c r="D318" s="542"/>
-      <c r="E318" s="466" t="s">
-        <v>4451</v>
+      <c r="D318" s="526"/>
+      <c r="E318" s="451" t="s">
+        <v>4450</v>
       </c>
       <c r="F318" s="13" t="s">
         <v>2447</v>
       </c>
       <c r="G318" s="212" t="s">
-        <v>4669</v>
-      </c>
-      <c r="H318" s="553"/>
-      <c r="I318" s="413" t="s">
+        <v>4663</v>
+      </c>
+      <c r="H318" s="537"/>
+      <c r="I318" s="399" t="s">
         <v>2448</v>
       </c>
       <c r="J318" s="38"/>
@@ -48710,7 +48667,7 @@
       </c>
       <c r="N318" s="147"/>
       <c r="O318" s="39"/>
-      <c r="P318" s="509" t="s">
+      <c r="P318" s="493" t="s">
         <v>2451</v>
       </c>
       <c r="Q318" s="33" t="s">
@@ -48719,7 +48676,7 @@
       <c r="R318" s="33"/>
       <c r="S318" s="33"/>
       <c r="T318" s="33"/>
-      <c r="U318" s="521" t="s">
+      <c r="U318" s="505" t="s">
         <v>32</v>
       </c>
       <c r="V318" s="13" t="s">
@@ -48767,12 +48724,12 @@
       <c r="B319" s="95" t="s">
         <v>393</v>
       </c>
-      <c r="C319" s="347" t="s">
+      <c r="C319" s="343" t="s">
         <v>2457</v>
       </c>
       <c r="D319" s="73"/>
       <c r="E319" s="249" t="s">
-        <v>4466</v>
+        <v>4465</v>
       </c>
       <c r="F319" s="85"/>
       <c r="G319" s="320"/>
@@ -48790,7 +48747,7 @@
       <c r="M319" s="148"/>
       <c r="N319" s="148"/>
       <c r="O319" s="147"/>
-      <c r="P319" s="516" t="s">
+      <c r="P319" s="500" t="s">
         <v>1196</v>
       </c>
       <c r="Q319" s="17" t="s">
@@ -48803,7 +48760,7 @@
       <c r="T319" s="24" t="s">
         <v>2462</v>
       </c>
-      <c r="U319" s="504" t="s">
+      <c r="U319" s="488" t="s">
         <v>477</v>
       </c>
       <c r="V319" s="30" t="s">
@@ -48855,16 +48812,16 @@
         <v>2466</v>
       </c>
       <c r="D320" s="86" t="s">
-        <v>4375</v>
+        <v>4374</v>
       </c>
       <c r="E320" s="261" t="s">
-        <v>4445</v>
+        <v>4444</v>
       </c>
       <c r="F320" s="211"/>
       <c r="G320" s="316"/>
       <c r="H320" s="22"/>
       <c r="I320" s="285" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="J320" s="318"/>
       <c r="K320" s="38" t="s">
@@ -48878,7 +48835,7 @@
       <c r="O320" s="147" t="s">
         <v>2469</v>
       </c>
-      <c r="P320" s="370" t="s">
+      <c r="P320" s="362" t="s">
         <v>792</v>
       </c>
       <c r="Q320" s="17" t="s">
@@ -48928,11 +48885,11 @@
         <v>393</v>
       </c>
       <c r="C321" s="86" t="s">
-        <v>4440</v>
-      </c>
-      <c r="D321" s="539"/>
+        <v>4439</v>
+      </c>
+      <c r="D321" s="523"/>
       <c r="E321" s="261" t="s">
-        <v>4445</v>
+        <v>4444</v>
       </c>
       <c r="F321" s="120"/>
       <c r="G321" s="320" t="s">
@@ -48940,7 +48897,7 @@
       </c>
       <c r="H321" s="22"/>
       <c r="I321" s="285" t="s">
-        <v>4446</v>
+        <v>4445</v>
       </c>
       <c r="J321" s="318"/>
       <c r="K321" s="95" t="s">
@@ -48965,7 +48922,7 @@
       <c r="R321" s="17"/>
       <c r="S321" s="17"/>
       <c r="T321" s="24"/>
-      <c r="U321" s="490" t="s">
+      <c r="U321" s="474" t="s">
         <v>496</v>
       </c>
       <c r="V321" s="30" t="s">
@@ -49024,10 +48981,10 @@
       </c>
       <c r="D322" s="74"/>
       <c r="E322" s="252" t="s">
-        <v>4431</v>
+        <v>4430</v>
       </c>
       <c r="F322" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G322" s="320" t="s">
         <v>2471</v>
@@ -49048,7 +49005,7 @@
       <c r="M322" s="147"/>
       <c r="N322" s="148"/>
       <c r="O322" s="148"/>
-      <c r="P322" s="516" t="s">
+      <c r="P322" s="500" t="s">
         <v>740</v>
       </c>
       <c r="Q322" s="17" t="s">
@@ -49057,13 +49014,13 @@
       <c r="R322" s="17"/>
       <c r="S322" s="17"/>
       <c r="T322" s="24"/>
-      <c r="U322" s="490" t="s">
+      <c r="U322" s="474" t="s">
         <v>1024</v>
       </c>
       <c r="V322" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="W322" s="478"/>
+      <c r="W322" s="463"/>
       <c r="X322" s="27"/>
       <c r="Y322" s="27"/>
       <c r="Z322" s="13" t="s">
@@ -49109,7 +49066,7 @@
         <v>4105</v>
       </c>
       <c r="F323" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G323" s="109" t="s">
         <v>2490</v>
@@ -49139,7 +49096,7 @@
       <c r="R323" s="17"/>
       <c r="S323" s="17"/>
       <c r="T323" s="24"/>
-      <c r="U323" s="504" t="s">
+      <c r="U323" s="488" t="s">
         <v>588</v>
       </c>
       <c r="V323" s="30" t="s">
@@ -49219,7 +49176,7 @@
       <c r="R324" s="17"/>
       <c r="S324" s="17"/>
       <c r="T324" s="24"/>
-      <c r="U324" s="516" t="s">
+      <c r="U324" s="500" t="s">
         <v>2502</v>
       </c>
       <c r="V324" s="48" t="s">
@@ -49305,7 +49262,7 @@
       <c r="T325" s="24" t="s">
         <v>2509</v>
       </c>
-      <c r="U325" s="504" t="s">
+      <c r="U325" s="488" t="s">
         <v>656</v>
       </c>
       <c r="V325" s="30" t="s">
@@ -49346,21 +49303,21 @@
       <c r="C326" s="101" t="s">
         <v>4116</v>
       </c>
-      <c r="D326" s="540"/>
+      <c r="D326" s="524"/>
       <c r="E326" s="263" t="s">
         <v>4114</v>
       </c>
-      <c r="F326" s="547" t="s">
+      <c r="F326" s="531" t="s">
         <v>3844</v>
       </c>
       <c r="G326" s="320" t="s">
         <v>4115</v>
       </c>
       <c r="H326" s="201"/>
-      <c r="I326" s="414" t="s">
+      <c r="I326" s="400" t="s">
         <v>2511</v>
       </c>
-      <c r="J326" s="421"/>
+      <c r="J326" s="407"/>
       <c r="K326" s="38" t="s">
         <v>2512</v>
       </c>
@@ -49434,7 +49391,7 @@
       </c>
       <c r="D327" s="82"/>
       <c r="E327" s="261" t="s">
-        <v>4447</v>
+        <v>4446</v>
       </c>
       <c r="F327" s="232"/>
       <c r="G327" s="320"/>
@@ -49465,7 +49422,7 @@
       <c r="T327" s="24" t="s">
         <v>2524</v>
       </c>
-      <c r="U327" s="504" t="s">
+      <c r="U327" s="488" t="s">
         <v>477</v>
       </c>
       <c r="V327" s="30" t="s">
@@ -49518,15 +49475,15 @@
       </c>
       <c r="D328" s="84"/>
       <c r="E328" s="262" t="s">
-        <v>4464</v>
+        <v>4463</v>
       </c>
       <c r="F328" s="209"/>
       <c r="G328" s="281"/>
       <c r="H328" s="57"/>
-      <c r="I328" s="555" t="s">
+      <c r="I328" s="539" t="s">
         <v>2528</v>
       </c>
-      <c r="J328" s="421"/>
+      <c r="J328" s="407"/>
       <c r="K328" s="38" t="s">
         <v>2529</v>
       </c>
@@ -49549,7 +49506,7 @@
       <c r="R328" s="17"/>
       <c r="S328" s="17"/>
       <c r="T328" s="24"/>
-      <c r="U328" s="490" t="s">
+      <c r="U328" s="474" t="s">
         <v>496</v>
       </c>
       <c r="V328" s="30" t="s">
@@ -49599,12 +49556,12 @@
       <c r="B329" s="95" t="s">
         <v>393</v>
       </c>
-      <c r="C329" s="346" t="s">
+      <c r="C329" s="342" t="s">
         <v>3843</v>
       </c>
       <c r="D329" s="74"/>
       <c r="E329" s="252" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="F329" s="85"/>
       <c r="G329" s="320"/>
@@ -49633,7 +49590,7 @@
       <c r="R329" s="17"/>
       <c r="S329" s="17"/>
       <c r="T329" s="24"/>
-      <c r="U329" s="490" t="s">
+      <c r="U329" s="474" t="s">
         <v>496</v>
       </c>
       <c r="V329" s="30" t="s">
@@ -49729,7 +49686,7 @@
       <c r="T330" s="24" t="s">
         <v>2553</v>
       </c>
-      <c r="U330" s="504" t="s">
+      <c r="U330" s="488" t="s">
         <v>477</v>
       </c>
       <c r="V330" s="30" t="s">
@@ -49813,7 +49770,7 @@
       <c r="R331" s="17"/>
       <c r="S331" s="17"/>
       <c r="T331" s="24"/>
-      <c r="U331" s="132" t="s">
+      <c r="U331" s="488" t="s">
         <v>588</v>
       </c>
       <c r="V331" s="30" t="s">
@@ -49899,7 +49856,7 @@
       <c r="R332" s="17"/>
       <c r="S332" s="17"/>
       <c r="T332" s="24"/>
-      <c r="U332" s="504" t="s">
+      <c r="U332" s="488" t="s">
         <v>588</v>
       </c>
       <c r="V332" s="30" t="s">
@@ -49952,7 +49909,7 @@
         <v>3844</v>
       </c>
       <c r="G333" s="320" t="s">
-        <v>4672</v>
+        <v>4666</v>
       </c>
       <c r="H333" s="201"/>
       <c r="I333" s="22" t="s">
@@ -49984,7 +49941,7 @@
         <v>33</v>
       </c>
       <c r="W333" s="38" t="s">
-        <v>4673</v>
+        <v>4667</v>
       </c>
       <c r="X333" s="13"/>
       <c r="Y333" s="13"/>
@@ -50030,7 +49987,7 @@
       </c>
       <c r="D334" s="74"/>
       <c r="E334" s="252" t="s">
-        <v>4455</v>
+        <v>4454</v>
       </c>
       <c r="F334" s="85" t="s">
         <v>3844</v>
@@ -50063,7 +50020,7 @@
       <c r="R334" s="17"/>
       <c r="S334" s="17"/>
       <c r="T334" s="24"/>
-      <c r="U334" s="296" t="s">
+      <c r="U334" s="474" t="s">
         <v>1024</v>
       </c>
       <c r="V334" s="30" t="s">
@@ -50142,10 +50099,10 @@
       <c r="Q335" s="17" t="s">
         <v>2588</v>
       </c>
-      <c r="R335" s="518"/>
+      <c r="R335" s="502"/>
       <c r="S335" s="97"/>
       <c r="T335" s="24"/>
-      <c r="U335" s="490" t="s">
+      <c r="U335" s="474" t="s">
         <v>496</v>
       </c>
       <c r="V335" s="30" t="s">
@@ -50197,7 +50154,7 @@
         <v>4124</v>
       </c>
       <c r="F336" s="85" t="s">
-        <v>4502</v>
+        <v>4498</v>
       </c>
       <c r="G336" s="110" t="s">
         <v>2593</v>
@@ -50233,7 +50190,7 @@
       <c r="T336" s="17" t="s">
         <v>1789</v>
       </c>
-      <c r="U336" s="525" t="s">
+      <c r="U336" s="509" t="s">
         <v>1453</v>
       </c>
       <c r="V336" s="42" t="s">
@@ -50310,7 +50267,7 @@
       <c r="O337" s="148" t="s">
         <v>2603</v>
       </c>
-      <c r="P337" s="516" t="s">
+      <c r="P337" s="500" t="s">
         <v>2604</v>
       </c>
       <c r="Q337" s="17" t="s">
@@ -50323,7 +50280,7 @@
       <c r="T337" s="24" t="s">
         <v>2607</v>
       </c>
-      <c r="U337" s="504" t="s">
+      <c r="U337" s="488" t="s">
         <v>1636</v>
       </c>
       <c r="V337" s="30" t="s">
@@ -50358,24 +50315,24 @@
       <c r="A338" s="101" t="s">
         <v>2608</v>
       </c>
-      <c r="B338" s="95" t="s">
-        <v>393</v>
+      <c r="B338" s="413" t="s">
+        <v>4730</v>
       </c>
       <c r="C338" s="101" t="s">
-        <v>4720</v>
+        <v>4713</v>
       </c>
       <c r="D338" s="82" t="s">
-        <v>4722</v>
+        <v>4715</v>
       </c>
       <c r="E338" s="261"/>
       <c r="F338" s="85" t="s">
-        <v>4502</v>
+        <v>4498</v>
       </c>
       <c r="G338" s="320" t="s">
-        <v>4721</v>
-      </c>
-      <c r="H338" s="551" t="s">
-        <v>4723</v>
+        <v>4714</v>
+      </c>
+      <c r="H338" s="535" t="s">
+        <v>4716</v>
       </c>
       <c r="I338" s="22" t="s">
         <v>2149</v>
@@ -50405,7 +50362,7 @@
       <c r="T338" s="24" t="s">
         <v>2613</v>
       </c>
-      <c r="U338" s="385" t="s">
+      <c r="U338" s="552" t="s">
         <v>3672</v>
       </c>
       <c r="V338" s="30" t="s">
@@ -50450,7 +50407,7 @@
       </c>
       <c r="D339" s="73"/>
       <c r="E339" s="249" t="s">
-        <v>4468</v>
+        <v>4467</v>
       </c>
       <c r="F339" s="208"/>
       <c r="G339" s="228"/>
@@ -50476,7 +50433,7 @@
       <c r="Q339" s="17" t="s">
         <v>2621</v>
       </c>
-      <c r="R339" s="518"/>
+      <c r="R339" s="502"/>
       <c r="S339" s="97"/>
       <c r="T339" s="24"/>
       <c r="U339" s="36" t="s">
@@ -50532,7 +50489,7 @@
       </c>
       <c r="D340" s="82"/>
       <c r="E340" s="261" t="s">
-        <v>4469</v>
+        <v>4468</v>
       </c>
       <c r="F340" s="211"/>
       <c r="G340" s="316"/>
@@ -50558,20 +50515,20 @@
       <c r="Q340" s="17" t="s">
         <v>2630</v>
       </c>
-      <c r="R340" s="518"/>
+      <c r="R340" s="502"/>
       <c r="S340" s="153" t="s">
         <v>2631</v>
       </c>
       <c r="T340" s="24" t="s">
         <v>2632</v>
       </c>
-      <c r="U340" s="504" t="s">
+      <c r="U340" s="488" t="s">
         <v>335</v>
       </c>
       <c r="V340" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="W340" s="473"/>
+      <c r="W340" s="458"/>
       <c r="X340" s="167" t="s">
         <v>171</v>
       </c>
@@ -50620,7 +50577,7 @@
       </c>
       <c r="D341" s="74"/>
       <c r="E341" s="252" t="s">
-        <v>4469</v>
+        <v>4468</v>
       </c>
       <c r="F341" s="13"/>
       <c r="G341" s="228"/>
@@ -50653,7 +50610,7 @@
       <c r="T341" s="24" t="s">
         <v>2632</v>
       </c>
-      <c r="U341" s="132" t="s">
+      <c r="U341" s="488" t="s">
         <v>335</v>
       </c>
       <c r="V341" s="30" t="s">
@@ -50700,7 +50657,7 @@
       </c>
       <c r="D342" s="74"/>
       <c r="E342" s="252" t="s">
-        <v>4470</v>
+        <v>4469</v>
       </c>
       <c r="F342" s="208"/>
       <c r="G342" s="228"/>
@@ -50712,7 +50669,7 @@
       <c r="K342" s="109" t="s">
         <v>2644</v>
       </c>
-      <c r="L342" s="510" t="s">
+      <c r="L342" s="494" t="s">
         <v>2355</v>
       </c>
       <c r="M342" s="147" t="s">
@@ -50785,10 +50742,10 @@
         <v>4129</v>
       </c>
       <c r="F343" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G343" s="320" t="s">
-        <v>4505</v>
+        <v>4501</v>
       </c>
       <c r="H343" s="201"/>
       <c r="I343" s="139" t="s">
@@ -50864,7 +50821,7 @@
       </c>
       <c r="D344" s="74"/>
       <c r="E344" s="252" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="F344" s="208"/>
       <c r="G344" s="228"/>
@@ -50885,10 +50842,10 @@
       <c r="P344" s="48" t="s">
         <v>2660</v>
       </c>
-      <c r="Q344" s="518" t="s">
+      <c r="Q344" s="502" t="s">
         <v>2661</v>
       </c>
-      <c r="R344" s="518" t="s">
+      <c r="R344" s="502" t="s">
         <v>2662</v>
       </c>
       <c r="S344" s="17"/>
@@ -50948,11 +50905,11 @@
       </c>
       <c r="D345" s="137"/>
       <c r="E345" s="253" t="s">
-        <v>4472</v>
+        <v>4471</v>
       </c>
       <c r="F345" s="208"/>
       <c r="G345" s="121" t="s">
-        <v>4574</v>
+        <v>4568</v>
       </c>
       <c r="H345" s="13"/>
       <c r="I345" s="5" t="s">
@@ -51034,13 +50991,13 @@
       </c>
       <c r="D346" s="74"/>
       <c r="E346" s="266" t="s">
-        <v>4452</v>
+        <v>4451</v>
       </c>
       <c r="F346" s="227" t="s">
-        <v>4371</v>
+        <v>4732</v>
       </c>
       <c r="G346" s="320" t="s">
-        <v>4575</v>
+        <v>4569</v>
       </c>
       <c r="H346" s="201"/>
       <c r="I346" s="5" t="s">
@@ -51058,7 +51015,7 @@
       <c r="O346" s="147" t="s">
         <v>1195</v>
       </c>
-      <c r="P346" s="512" t="s">
+      <c r="P346" s="496" t="s">
         <v>603</v>
       </c>
       <c r="Q346" s="17" t="s">
@@ -51124,7 +51081,7 @@
       </c>
       <c r="D347" s="74"/>
       <c r="E347" s="252" t="s">
-        <v>4456</v>
+        <v>4455</v>
       </c>
       <c r="F347" s="85" t="s">
         <v>3844</v>
@@ -51150,7 +51107,7 @@
       </c>
       <c r="N347" s="147"/>
       <c r="O347" s="147"/>
-      <c r="P347" s="374" t="s">
+      <c r="P347" s="364" t="s">
         <v>2646</v>
       </c>
       <c r="Q347" s="26" t="s">
@@ -51211,14 +51168,14 @@
         <v>4131</v>
       </c>
       <c r="F348" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G348" s="320"/>
       <c r="H348" s="201"/>
       <c r="I348" s="65" t="s">
         <v>2691</v>
       </c>
-      <c r="J348" s="421"/>
+      <c r="J348" s="407"/>
       <c r="K348" s="110" t="s">
         <v>2692</v>
       </c>
@@ -51324,7 +51281,7 @@
       <c r="Q349" s="17" t="s">
         <v>2701</v>
       </c>
-      <c r="R349" s="378" t="s">
+      <c r="R349" s="502" t="s">
         <v>711</v>
       </c>
       <c r="S349" s="97"/>
@@ -51496,7 +51453,7 @@
       <c r="Q351" s="17" t="s">
         <v>2717</v>
       </c>
-      <c r="R351" s="518"/>
+      <c r="R351" s="502"/>
       <c r="S351" s="97"/>
       <c r="T351" s="17"/>
       <c r="U351" s="38" t="s">
@@ -51505,7 +51462,7 @@
       <c r="V351" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="W351" s="478"/>
+      <c r="W351" s="463"/>
       <c r="X351" s="27"/>
       <c r="Y351" s="27"/>
       <c r="Z351" s="22" t="s">
@@ -51553,7 +51510,7 @@
         <v>4139</v>
       </c>
       <c r="F352" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G352" s="321"/>
       <c r="H352" s="201"/>
@@ -51668,7 +51625,7 @@
       <c r="Q353" s="33" t="s">
         <v>2729</v>
       </c>
-      <c r="R353" s="519"/>
+      <c r="R353" s="503"/>
       <c r="S353" s="153"/>
       <c r="T353" s="33"/>
       <c r="U353" s="30" t="s">
@@ -51723,7 +51680,7 @@
         <v>4143</v>
       </c>
       <c r="F354" s="227" t="s">
-        <v>4371</v>
+        <v>4732</v>
       </c>
       <c r="G354" s="320"/>
       <c r="H354" s="201"/>
@@ -51806,7 +51763,7 @@
       </c>
       <c r="D355" s="74"/>
       <c r="E355" s="252" t="s">
-        <v>4473</v>
+        <v>4472</v>
       </c>
       <c r="F355" s="145"/>
       <c r="G355" s="317"/>
@@ -51895,7 +51852,7 @@
         <v>4144</v>
       </c>
       <c r="F356" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G356" s="320"/>
       <c r="H356" s="201"/>
@@ -52054,7 +52011,7 @@
       <c r="A358" s="101" t="s">
         <v>2763</v>
       </c>
-      <c r="B358" s="426" t="s">
+      <c r="B358" s="412" t="s">
         <v>3888</v>
       </c>
       <c r="C358" s="101" t="s">
@@ -52065,7 +52022,7 @@
         <v>4145</v>
       </c>
       <c r="F358" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G358" s="320"/>
       <c r="H358" s="201"/>
@@ -52233,7 +52190,7 @@
         <v>4146</v>
       </c>
       <c r="F360" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G360" s="320"/>
       <c r="H360" s="201"/>
@@ -52320,17 +52277,17 @@
         <v>3844</v>
       </c>
       <c r="G361" s="320" t="s">
-        <v>4717</v>
+        <v>4710</v>
       </c>
       <c r="H361" s="201"/>
       <c r="I361" s="13" t="s">
         <v>2149</v>
       </c>
-      <c r="J361" s="421" t="s">
+      <c r="J361" s="407" t="s">
         <v>2790</v>
       </c>
-      <c r="K361" s="422" t="s">
-        <v>4718</v>
+      <c r="K361" s="408" t="s">
+        <v>4711</v>
       </c>
       <c r="L361" s="58" t="s">
         <v>2791</v>
@@ -52348,8 +52305,8 @@
       <c r="S361" s="17" t="s">
         <v>1788</v>
       </c>
-      <c r="T361" s="528" t="s">
-        <v>4719</v>
+      <c r="T361" s="512" t="s">
+        <v>4712</v>
       </c>
       <c r="U361" s="43" t="s">
         <v>346</v>
@@ -52398,15 +52355,15 @@
         <v>337</v>
       </c>
       <c r="C362" s="287" t="s">
-        <v>4561</v>
+        <v>4555</v>
       </c>
       <c r="D362" s="74"/>
       <c r="E362" s="252" t="s">
-        <v>4474</v>
+        <v>4473</v>
       </c>
       <c r="F362" s="85"/>
       <c r="G362" s="121" t="s">
-        <v>4560</v>
+        <v>4554</v>
       </c>
       <c r="H362" s="201"/>
       <c r="I362" s="139" t="s">
@@ -52486,19 +52443,19 @@
         <v>337</v>
       </c>
       <c r="C363" s="287" t="s">
-        <v>4563</v>
+        <v>4557</v>
       </c>
       <c r="D363" s="74"/>
       <c r="E363" s="250" t="s">
-        <v>4475</v>
-      </c>
-      <c r="F363" s="531"/>
+        <v>4474</v>
+      </c>
+      <c r="F363" s="515"/>
       <c r="G363" s="121" t="s">
-        <v>4564</v>
+        <v>4558</v>
       </c>
       <c r="H363" s="201"/>
       <c r="I363" s="112" t="s">
-        <v>4562</v>
+        <v>4556</v>
       </c>
       <c r="J363" s="38"/>
       <c r="K363" s="38" t="s">
@@ -52577,7 +52534,7 @@
         <v>4147</v>
       </c>
       <c r="F364" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G364" s="320"/>
       <c r="H364" s="201"/>
@@ -52726,7 +52683,7 @@
       <c r="A366" s="239" t="s">
         <v>4149</v>
       </c>
-      <c r="B366" s="427"/>
+      <c r="B366" s="413"/>
       <c r="C366" s="239" t="s">
         <v>4151</v>
       </c>
@@ -52740,11 +52697,11 @@
       <c r="G366" s="330" t="s">
         <v>4150</v>
       </c>
-      <c r="H366" s="432"/>
-      <c r="I366" s="415" t="s">
+      <c r="H366" s="418"/>
+      <c r="I366" s="401" t="s">
         <v>4154</v>
       </c>
-      <c r="J366" s="422" t="s">
+      <c r="J366" s="408" t="s">
         <v>4155</v>
       </c>
       <c r="K366" s="269" t="s">
@@ -52761,13 +52718,13 @@
       <c r="T366" s="273"/>
       <c r="U366" s="274"/>
       <c r="V366" s="274"/>
-      <c r="W366" s="422"/>
+      <c r="W366" s="408"/>
       <c r="X366" s="87"/>
       <c r="Y366" s="87"/>
       <c r="Z366" s="87"/>
       <c r="AA366" s="87"/>
       <c r="AB366" s="87"/>
-      <c r="AC366" s="394"/>
+      <c r="AC366" s="380"/>
       <c r="AD366" s="87"/>
       <c r="AE366" s="87"/>
       <c r="AF366" s="87"/>
@@ -52881,14 +52838,14 @@
         <v>4156</v>
       </c>
       <c r="F368" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G368" s="320"/>
       <c r="H368" s="201"/>
       <c r="I368" s="98" t="s">
         <v>2827</v>
       </c>
-      <c r="J368" s="490"/>
+      <c r="J368" s="474"/>
       <c r="K368" s="109" t="s">
         <v>2828</v>
       </c>
@@ -52913,7 +52870,7 @@
       <c r="T368" s="17" t="s">
         <v>2832</v>
       </c>
-      <c r="U368" s="504" t="s">
+      <c r="U368" s="488" t="s">
         <v>477</v>
       </c>
       <c r="V368" s="30" t="s">
@@ -52969,14 +52926,14 @@
         <v>4157</v>
       </c>
       <c r="F369" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G369" s="320"/>
       <c r="H369" s="201"/>
       <c r="I369" s="98" t="s">
         <v>2837</v>
       </c>
-      <c r="J369" s="490"/>
+      <c r="J369" s="474"/>
       <c r="K369" s="109" t="s">
         <v>2838</v>
       </c>
@@ -52999,7 +52956,7 @@
       <c r="T369" s="17" t="s">
         <v>2842</v>
       </c>
-      <c r="U369" s="504" t="s">
+      <c r="U369" s="488" t="s">
         <v>477</v>
       </c>
       <c r="V369" s="30" t="s">
@@ -53052,7 +53009,7 @@
       </c>
       <c r="D370" s="74"/>
       <c r="E370" s="252" t="s">
-        <v>4476</v>
+        <v>4475</v>
       </c>
       <c r="F370" s="13"/>
       <c r="G370" s="228"/>
@@ -53083,7 +53040,7 @@
       <c r="T370" s="17" t="s">
         <v>1083</v>
       </c>
-      <c r="U370" s="504" t="s">
+      <c r="U370" s="488" t="s">
         <v>477</v>
       </c>
       <c r="V370" s="30" t="s">
@@ -53140,7 +53097,7 @@
       </c>
       <c r="D371" s="74"/>
       <c r="E371" s="252" t="s">
-        <v>4477</v>
+        <v>4476</v>
       </c>
       <c r="F371" s="208"/>
       <c r="G371" s="228"/>
@@ -53148,7 +53105,7 @@
       <c r="I371" s="98" t="s">
         <v>2857</v>
       </c>
-      <c r="J371" s="296"/>
+      <c r="J371" s="474"/>
       <c r="K371" s="109" t="s">
         <v>2858</v>
       </c>
@@ -53171,7 +53128,7 @@
       <c r="T371" s="17" t="s">
         <v>1083</v>
       </c>
-      <c r="U371" s="490" t="s">
+      <c r="U371" s="474" t="s">
         <v>496</v>
       </c>
       <c r="V371" s="30" t="s">
@@ -53226,7 +53183,7 @@
         <v>2856</v>
       </c>
       <c r="E372" s="249" t="s">
-        <v>4457</v>
+        <v>4456</v>
       </c>
       <c r="F372" s="85" t="s">
         <v>3844</v>
@@ -53263,7 +53220,7 @@
       <c r="R372" s="24"/>
       <c r="S372" s="24"/>
       <c r="T372" s="24"/>
-      <c r="U372" s="490" t="s">
+      <c r="U372" s="474" t="s">
         <v>1024</v>
       </c>
       <c r="V372" s="30" t="s">
@@ -53307,14 +53264,14 @@
       <c r="B373" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C373" s="493" t="s">
+      <c r="C373" s="477" t="s">
         <v>2872</v>
       </c>
       <c r="D373" s="74" t="s">
-        <v>4478</v>
+        <v>4477</v>
       </c>
       <c r="E373" s="252" t="s">
-        <v>4478</v>
+        <v>4477</v>
       </c>
       <c r="F373" s="208"/>
       <c r="G373" s="228"/>
@@ -53322,7 +53279,7 @@
       <c r="I373" s="139" t="s">
         <v>2873</v>
       </c>
-      <c r="J373" s="296"/>
+      <c r="J373" s="474"/>
       <c r="K373" s="109" t="s">
         <v>3713</v>
       </c>
@@ -53394,14 +53351,14 @@
       <c r="C374" s="101" t="s">
         <v>2879</v>
       </c>
-      <c r="D374" s="349" t="s">
+      <c r="D374" s="344" t="s">
         <v>3889</v>
       </c>
-      <c r="E374" s="353" t="s">
+      <c r="E374" s="348" t="s">
         <v>4158</v>
       </c>
       <c r="F374" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G374" s="320"/>
       <c r="H374" s="201"/>
@@ -53431,7 +53388,7 @@
       <c r="R374" s="24"/>
       <c r="S374" s="24"/>
       <c r="T374" s="24"/>
-      <c r="U374" s="522" t="s">
+      <c r="U374" s="506" t="s">
         <v>127</v>
       </c>
       <c r="V374" s="30" t="s">
@@ -53480,7 +53437,7 @@
       </c>
       <c r="D375" s="74"/>
       <c r="E375" s="252" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
       <c r="F375" s="242"/>
       <c r="G375" s="228"/>
@@ -53488,7 +53445,7 @@
       <c r="I375" s="98" t="s">
         <v>2887</v>
       </c>
-      <c r="J375" s="296"/>
+      <c r="J375" s="474"/>
       <c r="K375" s="109" t="s">
         <v>2888</v>
       </c>
@@ -53513,7 +53470,7 @@
       <c r="T375" s="24" t="s">
         <v>2891</v>
       </c>
-      <c r="U375" s="504" t="s">
+      <c r="U375" s="488" t="s">
         <v>477</v>
       </c>
       <c r="V375" s="30" t="s">
@@ -53561,7 +53518,7 @@
       <c r="B376" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C376" s="493" t="s">
+      <c r="C376" s="477" t="s">
         <v>2896</v>
       </c>
       <c r="D376" s="74"/>
@@ -53592,7 +53549,7 @@
       <c r="Q376" s="24" t="s">
         <v>2901</v>
       </c>
-      <c r="R376" s="518" t="s">
+      <c r="R376" s="502" t="s">
         <v>30</v>
       </c>
       <c r="S376" s="96"/>
@@ -53614,7 +53571,7 @@
       <c r="AA376" s="13" t="s">
         <v>2103</v>
       </c>
-      <c r="AB376" s="391" t="s">
+      <c r="AB376" s="377" t="s">
         <v>2902</v>
       </c>
       <c r="AC376" s="126"/>
@@ -53641,17 +53598,17 @@
       <c r="AT376" s="13"/>
     </row>
     <row r="377" spans="1:46" ht="48" customHeight="1">
-      <c r="A377" s="489" t="s">
+      <c r="A377" s="473" t="s">
         <v>2905</v>
       </c>
       <c r="B377" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C377" s="533" t="s">
+      <c r="C377" s="517" t="s">
         <v>4162</v>
       </c>
-      <c r="D377" s="539"/>
-      <c r="E377" s="352" t="s">
+      <c r="D377" s="523"/>
+      <c r="E377" s="347" t="s">
         <v>4160</v>
       </c>
       <c r="F377" s="85" t="s">
@@ -53661,50 +53618,50 @@
         <v>4161</v>
       </c>
       <c r="H377" s="201"/>
-      <c r="I377" s="416" t="s">
+      <c r="I377" s="402" t="s">
         <v>3590</v>
       </c>
-      <c r="J377" s="548"/>
-      <c r="K377" s="531" t="s">
+      <c r="J377" s="532"/>
+      <c r="K377" s="515" t="s">
         <v>4159</v>
       </c>
-      <c r="L377" s="556" t="s">
+      <c r="L377" s="540" t="s">
         <v>2906</v>
       </c>
-      <c r="M377" s="548"/>
-      <c r="N377" s="531"/>
-      <c r="O377" s="548"/>
-      <c r="P377" s="558" t="s">
+      <c r="M377" s="532"/>
+      <c r="N377" s="515"/>
+      <c r="O377" s="532"/>
+      <c r="P377" s="542" t="s">
         <v>1958</v>
       </c>
-      <c r="Q377" s="561" t="s">
+      <c r="Q377" s="545" t="s">
         <v>1959</v>
       </c>
-      <c r="R377" s="548"/>
-      <c r="S377" s="548"/>
-      <c r="T377" s="548"/>
-      <c r="U377" s="548" t="s">
+      <c r="R377" s="532"/>
+      <c r="S377" s="532"/>
+      <c r="T377" s="532"/>
+      <c r="U377" s="532" t="s">
         <v>588</v>
       </c>
-      <c r="V377" s="556" t="s">
+      <c r="V377" s="540" t="s">
         <v>33</v>
       </c>
-      <c r="W377" s="548" t="s">
+      <c r="W377" s="532" t="s">
         <v>3581</v>
       </c>
-      <c r="X377" s="548"/>
-      <c r="Y377" s="548"/>
-      <c r="Z377" s="548"/>
-      <c r="AA377" s="548"/>
-      <c r="AB377" s="548"/>
-      <c r="AC377" s="548"/>
-      <c r="AD377" s="548"/>
-      <c r="AE377" s="548"/>
-      <c r="AF377" s="548"/>
-      <c r="AG377" s="556" t="s">
+      <c r="X377" s="532"/>
+      <c r="Y377" s="532"/>
+      <c r="Z377" s="532"/>
+      <c r="AA377" s="532"/>
+      <c r="AB377" s="532"/>
+      <c r="AC377" s="532"/>
+      <c r="AD377" s="532"/>
+      <c r="AE377" s="532"/>
+      <c r="AF377" s="532"/>
+      <c r="AG377" s="540" t="s">
         <v>3793</v>
       </c>
-      <c r="AH377" s="548"/>
+      <c r="AH377" s="532"/>
       <c r="AI377" s="133"/>
       <c r="AJ377" s="133"/>
       <c r="AK377" s="133"/>
@@ -53719,53 +53676,53 @@
       <c r="AT377" s="133"/>
     </row>
     <row r="378" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A378" s="566" t="s">
-        <v>4736</v>
+      <c r="A378" s="550" t="s">
+        <v>4729</v>
       </c>
       <c r="B378" s="118" t="s">
-        <v>4588</v>
-      </c>
-      <c r="C378" s="434" t="s">
-        <v>4590</v>
-      </c>
-      <c r="D378" s="434" t="s">
-        <v>4590</v>
+        <v>4582</v>
+      </c>
+      <c r="C378" s="420" t="s">
+        <v>4584</v>
+      </c>
+      <c r="D378" s="420" t="s">
+        <v>4584</v>
       </c>
       <c r="E378" s="264"/>
       <c r="F378" s="215"/>
-      <c r="G378" s="441" t="s">
-        <v>4602</v>
+      <c r="G378" s="427" t="s">
+        <v>4596</v>
       </c>
       <c r="H378" s="119"/>
       <c r="I378" s="178" t="s">
-        <v>4613</v>
-      </c>
-      <c r="J378" s="422" t="s">
-        <v>4628</v>
+        <v>4607</v>
+      </c>
+      <c r="J378" s="408" t="s">
+        <v>4622</v>
       </c>
       <c r="K378" s="109" t="s">
-        <v>4615</v>
+        <v>4609</v>
       </c>
       <c r="L378" s="59" t="s">
         <v>2355</v>
       </c>
-      <c r="M378" s="435"/>
+      <c r="M378" s="421"/>
       <c r="N378" s="305"/>
       <c r="O378" s="126" t="s">
-        <v>4626</v>
+        <v>4620</v>
       </c>
       <c r="P378" s="272" t="s">
         <v>2954</v>
       </c>
-      <c r="Q378" s="437" t="s">
-        <v>4616</v>
+      <c r="Q378" s="423" t="s">
+        <v>4610</v>
       </c>
       <c r="R378" s="118"/>
       <c r="S378" s="118" t="s">
-        <v>4634</v>
+        <v>4628</v>
       </c>
       <c r="T378" s="118"/>
-      <c r="U378" s="532"/>
+      <c r="U378" s="516"/>
       <c r="V378" s="13" t="s">
         <v>33</v>
       </c>
@@ -53779,10 +53736,10 @@
         <v>2103</v>
       </c>
       <c r="AB378" s="126" t="s">
-        <v>4618</v>
-      </c>
-      <c r="AC378" s="465" t="s">
-        <v>4619</v>
+        <v>4612</v>
+      </c>
+      <c r="AC378" s="450" t="s">
+        <v>4613</v>
       </c>
       <c r="AD378" s="38"/>
       <c r="AE378" s="126"/>
@@ -53849,7 +53806,7 @@
       <c r="T379" s="24" t="s">
         <v>2913</v>
       </c>
-      <c r="U379" s="490" t="s">
+      <c r="U379" s="474" t="s">
         <v>496</v>
       </c>
       <c r="V379" s="30" t="s">
@@ -53903,7 +53860,7 @@
         <v>4165</v>
       </c>
       <c r="F380" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G380" s="320"/>
       <c r="H380" s="201"/>
@@ -53928,10 +53885,10 @@
       <c r="Q380" s="17" t="s">
         <v>2920</v>
       </c>
-      <c r="R380" s="378"/>
+      <c r="R380" s="502"/>
       <c r="S380" s="97"/>
       <c r="T380" s="17"/>
-      <c r="U380" s="490" t="s">
+      <c r="U380" s="474" t="s">
         <v>496</v>
       </c>
       <c r="V380" s="30" t="s">
@@ -53974,29 +53931,29 @@
     </row>
     <row r="381" spans="1:46" ht="15.75" customHeight="1">
       <c r="A381" s="101" t="s">
-        <v>4581</v>
+        <v>4575</v>
       </c>
       <c r="B381" s="118" t="s">
-        <v>4588</v>
+        <v>4582</v>
       </c>
       <c r="C381" s="195" t="s">
-        <v>4591</v>
+        <v>4585</v>
       </c>
       <c r="D381" s="195" t="s">
-        <v>4591</v>
+        <v>4585</v>
       </c>
       <c r="E381" s="252"/>
       <c r="F381" s="215"/>
-      <c r="G381" s="436" t="s">
-        <v>4603</v>
+      <c r="G381" s="422" t="s">
+        <v>4597</v>
       </c>
       <c r="H381" s="102"/>
       <c r="I381" s="178" t="s">
-        <v>4614</v>
+        <v>4608</v>
       </c>
       <c r="J381" s="193"/>
       <c r="K381" s="109" t="s">
-        <v>4631</v>
+        <v>4625</v>
       </c>
       <c r="L381" s="59" t="s">
         <v>2355</v>
@@ -54004,20 +53961,20 @@
       <c r="M381" s="157"/>
       <c r="N381" s="148"/>
       <c r="O381" s="126" t="s">
-        <v>4626</v>
+        <v>4620</v>
       </c>
       <c r="P381" s="272" t="s">
         <v>2954</v>
       </c>
       <c r="Q381" s="38" t="s">
-        <v>4617</v>
+        <v>4611</v>
       </c>
       <c r="R381" s="103"/>
-      <c r="S381" s="438" t="s">
-        <v>4634</v>
+      <c r="S381" s="424" t="s">
+        <v>4628</v>
       </c>
       <c r="T381" s="103"/>
-      <c r="U381" s="526"/>
+      <c r="U381" s="510"/>
       <c r="V381" s="13" t="s">
         <v>33</v>
       </c>
@@ -54031,7 +53988,7 @@
         <v>2103</v>
       </c>
       <c r="AB381" s="38"/>
-      <c r="AC381" s="465"/>
+      <c r="AC381" s="450"/>
       <c r="AD381" s="38"/>
       <c r="AE381" s="126"/>
       <c r="AF381" s="38"/>
@@ -54052,46 +54009,46 @@
     </row>
     <row r="382" spans="1:46" s="91" customFormat="1" ht="15.75" customHeight="1">
       <c r="A382" s="239" t="s">
-        <v>4735</v>
+        <v>4728</v>
       </c>
       <c r="B382" s="118" t="s">
-        <v>4588</v>
+        <v>4582</v>
       </c>
       <c r="C382" s="195" t="s">
-        <v>4591</v>
+        <v>4585</v>
       </c>
       <c r="D382" s="195" t="s">
-        <v>4591</v>
+        <v>4585</v>
       </c>
       <c r="E382" s="252"/>
       <c r="F382" s="215"/>
-      <c r="G382" s="436" t="s">
-        <v>4603</v>
+      <c r="G382" s="422" t="s">
+        <v>4597</v>
       </c>
       <c r="H382" s="13"/>
       <c r="I382" s="295"/>
       <c r="J382" s="38"/>
       <c r="K382" s="121" t="s">
-        <v>4632</v>
+        <v>4626</v>
       </c>
       <c r="L382" s="38"/>
       <c r="M382" s="126"/>
       <c r="N382" s="126"/>
       <c r="O382" s="126" t="s">
-        <v>4626</v>
+        <v>4620</v>
       </c>
       <c r="P382" s="272" t="s">
         <v>2954</v>
       </c>
       <c r="Q382" s="38" t="s">
-        <v>4617</v>
+        <v>4611</v>
       </c>
       <c r="R382" s="38"/>
       <c r="S382" s="38" t="s">
-        <v>4634</v>
+        <v>4628</v>
       </c>
       <c r="T382" s="38"/>
-      <c r="U382" s="490"/>
+      <c r="U382" s="474"/>
       <c r="V382" s="38"/>
       <c r="W382" s="38"/>
       <c r="X382" s="38"/>
@@ -54099,7 +54056,7 @@
       <c r="Z382" s="38"/>
       <c r="AA382" s="38"/>
       <c r="AB382" s="38"/>
-      <c r="AC382" s="490"/>
+      <c r="AC382" s="474"/>
       <c r="AD382" s="38"/>
       <c r="AE382" s="126"/>
       <c r="AF382" s="38"/>
@@ -54119,119 +54076,119 @@
       <c r="AT382" s="90"/>
     </row>
     <row r="383" spans="1:46" ht="15" customHeight="1">
-      <c r="A383" s="487" t="s">
+      <c r="A383" s="471" t="s">
         <v>2923</v>
       </c>
-      <c r="B383" s="488" t="s">
+      <c r="B383" s="472" t="s">
         <v>337</v>
       </c>
-      <c r="C383" s="342" t="s">
+      <c r="C383" s="471" t="s">
         <v>2923</v>
       </c>
-      <c r="D383" s="494"/>
+      <c r="D383" s="478"/>
       <c r="E383" s="250" t="s">
-        <v>4458</v>
+        <v>4457</v>
       </c>
       <c r="F383" s="85" t="s">
         <v>3844</v>
       </c>
       <c r="G383" s="320"/>
       <c r="H383" s="201"/>
-      <c r="I383" s="505" t="s">
+      <c r="I383" s="489" t="s">
         <v>2924</v>
       </c>
-      <c r="J383" s="490"/>
-      <c r="K383" s="507" t="s">
+      <c r="J383" s="474"/>
+      <c r="K383" s="491" t="s">
         <v>2925</v>
       </c>
-      <c r="L383" s="510" t="s">
+      <c r="L383" s="494" t="s">
         <v>2355</v>
       </c>
-      <c r="M383" s="511"/>
-      <c r="N383" s="511"/>
-      <c r="O383" s="511"/>
-      <c r="P383" s="371" t="s">
+      <c r="M383" s="495"/>
+      <c r="N383" s="495"/>
+      <c r="O383" s="495"/>
+      <c r="P383" s="496" t="s">
         <v>2926</v>
       </c>
-      <c r="Q383" s="520" t="s">
+      <c r="Q383" s="504" t="s">
         <v>2927</v>
       </c>
-      <c r="R383" s="520" t="s">
+      <c r="R383" s="504" t="s">
         <v>2928</v>
       </c>
-      <c r="S383" s="520"/>
-      <c r="T383" s="520" t="s">
+      <c r="S383" s="504"/>
+      <c r="T383" s="504" t="s">
         <v>2929</v>
       </c>
-      <c r="U383" s="504" t="s">
+      <c r="U383" s="488" t="s">
         <v>477</v>
       </c>
-      <c r="V383" s="522" t="s">
+      <c r="V383" s="506" t="s">
         <v>33</v>
       </c>
-      <c r="W383" s="490"/>
-      <c r="X383" s="504"/>
-      <c r="Y383" s="504"/>
-      <c r="Z383" s="504" t="s">
+      <c r="W383" s="474"/>
+      <c r="X383" s="488"/>
+      <c r="Y383" s="488"/>
+      <c r="Z383" s="488" t="s">
         <v>2102</v>
       </c>
-      <c r="AA383" s="504" t="s">
+      <c r="AA383" s="488" t="s">
         <v>2103</v>
       </c>
-      <c r="AB383" s="564" t="s">
+      <c r="AB383" s="548" t="s">
         <v>2930</v>
       </c>
-      <c r="AC383" s="504" t="s">
+      <c r="AC383" s="488" t="s">
         <v>2931</v>
       </c>
-      <c r="AD383" s="504" t="s">
+      <c r="AD383" s="488" t="s">
         <v>2932</v>
       </c>
-      <c r="AE383" s="504"/>
-      <c r="AF383" s="504"/>
-      <c r="AG383" s="527"/>
-      <c r="AH383" s="504"/>
+      <c r="AE383" s="488"/>
+      <c r="AF383" s="488"/>
+      <c r="AG383" s="511"/>
+      <c r="AH383" s="488"/>
     </row>
     <row r="384" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A384" s="422" t="s">
-        <v>4734</v>
+      <c r="A384" s="408" t="s">
+        <v>4727</v>
       </c>
       <c r="B384" s="118" t="s">
-        <v>4588</v>
+        <v>4582</v>
       </c>
       <c r="C384" s="38" t="s">
-        <v>4592</v>
+        <v>4586</v>
       </c>
       <c r="D384" s="38" t="s">
-        <v>4592</v>
+        <v>4586</v>
       </c>
       <c r="E384" s="252"/>
       <c r="F384" s="215"/>
-      <c r="G384" s="436" t="s">
-        <v>4604</v>
+      <c r="G384" s="422" t="s">
+        <v>4598</v>
       </c>
       <c r="H384" s="13"/>
       <c r="I384" s="208"/>
-      <c r="J384" s="490"/>
+      <c r="J384" s="474"/>
       <c r="K384" s="38"/>
       <c r="L384" s="38"/>
       <c r="M384" s="126"/>
       <c r="N384" s="126"/>
       <c r="O384" s="38" t="s">
-        <v>4626</v>
+        <v>4620</v>
       </c>
       <c r="P384" s="272" t="s">
         <v>2954</v>
       </c>
       <c r="Q384" s="38" t="s">
-        <v>4617</v>
+        <v>4611</v>
       </c>
       <c r="R384" s="38"/>
       <c r="S384" s="38" t="s">
-        <v>4634</v>
+        <v>4628</v>
       </c>
       <c r="T384" s="38"/>
-      <c r="U384" s="490"/>
+      <c r="U384" s="474"/>
       <c r="V384" s="38"/>
       <c r="W384" s="38"/>
       <c r="X384" s="38"/>
@@ -54270,7 +54227,7 @@
       </c>
       <c r="D385" s="74"/>
       <c r="E385" s="252" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="F385" s="208"/>
       <c r="G385" s="228"/>
@@ -54305,7 +54262,7 @@
       <c r="T385" s="24" t="s">
         <v>2941</v>
       </c>
-      <c r="U385" s="504" t="s">
+      <c r="U385" s="488" t="s">
         <v>477</v>
       </c>
       <c r="V385" s="30" t="s">
@@ -54347,49 +54304,49 @@
       <c r="AT385" s="13"/>
     </row>
     <row r="386" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A386" s="422" t="s">
-        <v>4733</v>
+      <c r="A386" s="408" t="s">
+        <v>4726</v>
       </c>
       <c r="B386" s="118" t="s">
-        <v>4588</v>
+        <v>4582</v>
       </c>
       <c r="C386" s="38" t="s">
-        <v>4593</v>
+        <v>4587</v>
       </c>
       <c r="D386" s="38" t="s">
-        <v>4593</v>
+        <v>4587</v>
       </c>
       <c r="E386" s="252"/>
       <c r="F386" s="215"/>
-      <c r="G386" s="436" t="s">
-        <v>4605</v>
+      <c r="G386" s="422" t="s">
+        <v>4599</v>
       </c>
       <c r="H386" s="13"/>
       <c r="I386" s="208"/>
-      <c r="J386" s="490"/>
+      <c r="J386" s="474"/>
       <c r="K386" s="38" t="s">
-        <v>4636</v>
+        <v>4630</v>
       </c>
       <c r="L386" s="118"/>
       <c r="M386" s="38"/>
       <c r="N386" s="38"/>
       <c r="O386" s="38" t="s">
-        <v>4626</v>
+        <v>4620</v>
       </c>
       <c r="P386" s="272" t="s">
         <v>2954</v>
       </c>
       <c r="Q386" s="38" t="s">
-        <v>4637</v>
+        <v>4631</v>
       </c>
       <c r="R386" s="38" t="s">
-        <v>4634</v>
+        <v>4628</v>
       </c>
       <c r="S386" s="38" t="s">
-        <v>4634</v>
+        <v>4628</v>
       </c>
       <c r="T386" s="38"/>
-      <c r="U386" s="490"/>
+      <c r="U386" s="474"/>
       <c r="V386" s="38"/>
       <c r="W386" s="38"/>
       <c r="X386" s="38"/>
@@ -54417,49 +54374,49 @@
       <c r="AT386" s="13"/>
     </row>
     <row r="387" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A387" s="422" t="s">
-        <v>4732</v>
+      <c r="A387" s="408" t="s">
+        <v>4725</v>
       </c>
       <c r="B387" s="118" t="s">
-        <v>4588</v>
+        <v>4582</v>
       </c>
       <c r="C387" s="38" t="s">
-        <v>4593</v>
+        <v>4587</v>
       </c>
       <c r="D387" s="38" t="s">
-        <v>4593</v>
+        <v>4587</v>
       </c>
       <c r="E387" s="252"/>
       <c r="F387" s="215"/>
-      <c r="G387" s="436" t="s">
-        <v>4605</v>
+      <c r="G387" s="422" t="s">
+        <v>4599</v>
       </c>
       <c r="H387" s="196"/>
       <c r="I387" s="208"/>
-      <c r="J387" s="490"/>
+      <c r="J387" s="474"/>
       <c r="K387" s="38" t="s">
-        <v>4633</v>
+        <v>4627</v>
       </c>
       <c r="L387" s="38"/>
       <c r="M387" s="38"/>
       <c r="N387" s="38"/>
       <c r="O387" s="38" t="s">
-        <v>4626</v>
+        <v>4620</v>
       </c>
       <c r="P387" s="272" t="s">
         <v>2954</v>
       </c>
       <c r="Q387" s="38" t="s">
-        <v>4617</v>
-      </c>
-      <c r="R387" s="422" t="s">
-        <v>4635</v>
+        <v>4611</v>
+      </c>
+      <c r="R387" s="408" t="s">
+        <v>4629</v>
       </c>
       <c r="S387" s="38" t="s">
-        <v>4634</v>
+        <v>4628</v>
       </c>
       <c r="T387" s="38"/>
-      <c r="U387" s="490"/>
+      <c r="U387" s="474"/>
       <c r="V387" s="38"/>
       <c r="W387" s="38"/>
       <c r="X387" s="38"/>
@@ -54487,7 +54444,7 @@
     </row>
     <row r="388" spans="1:46" ht="15.75" customHeight="1">
       <c r="A388" s="101" t="s">
-        <v>4730</v>
+        <v>4723</v>
       </c>
       <c r="B388" s="95" t="s">
         <v>337</v>
@@ -54497,7 +54454,7 @@
       </c>
       <c r="D388" s="74"/>
       <c r="E388" s="252" t="s">
-        <v>4480</v>
+        <v>4479</v>
       </c>
       <c r="F388" s="85"/>
       <c r="G388" s="320"/>
@@ -54505,7 +54462,7 @@
       <c r="I388" s="139" t="s">
         <v>2946</v>
       </c>
-      <c r="J388" s="490"/>
+      <c r="J388" s="474"/>
       <c r="K388" s="109" t="s">
         <v>2947</v>
       </c>
@@ -54568,47 +54525,47 @@
       <c r="AT388" s="13"/>
     </row>
     <row r="389" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A389" s="422" t="s">
-        <v>4731</v>
+      <c r="A389" s="408" t="s">
+        <v>4724</v>
       </c>
       <c r="B389" s="118" t="s">
+        <v>4582</v>
+      </c>
+      <c r="C389" s="38" t="s">
         <v>4588</v>
       </c>
-      <c r="C389" s="38" t="s">
-        <v>4594</v>
-      </c>
       <c r="D389" s="38" t="s">
-        <v>4594</v>
+        <v>4588</v>
       </c>
       <c r="E389" s="252"/>
       <c r="F389" s="215"/>
-      <c r="G389" s="436" t="s">
-        <v>4606</v>
+      <c r="G389" s="422" t="s">
+        <v>4600</v>
       </c>
       <c r="H389" s="13"/>
       <c r="I389" s="208"/>
       <c r="J389" s="38"/>
-      <c r="K389" s="443" t="s">
-        <v>4629</v>
+      <c r="K389" s="429" t="s">
+        <v>4623</v>
       </c>
       <c r="L389" s="38"/>
       <c r="M389" s="126"/>
       <c r="N389" s="126"/>
       <c r="O389" s="126" t="s">
-        <v>4626</v>
+        <v>4620</v>
       </c>
       <c r="P389" s="272" t="s">
         <v>2954</v>
       </c>
       <c r="Q389" s="38" t="s">
-        <v>4617</v>
+        <v>4611</v>
       </c>
       <c r="R389" s="38"/>
       <c r="S389" s="38" t="s">
-        <v>4634</v>
+        <v>4628</v>
       </c>
       <c r="T389" s="38"/>
-      <c r="U389" s="490"/>
+      <c r="U389" s="474"/>
       <c r="V389" s="38"/>
       <c r="W389" s="38"/>
       <c r="X389" s="38"/>
@@ -54636,74 +54593,74 @@
       <c r="AT389" s="13"/>
     </row>
     <row r="390" spans="1:46" ht="45.75" customHeight="1">
-      <c r="A390" s="487" t="s">
+      <c r="A390" s="471" t="s">
         <v>3663</v>
       </c>
-      <c r="B390" s="488" t="s">
+      <c r="B390" s="472" t="s">
         <v>337</v>
       </c>
       <c r="C390" s="287" t="s">
         <v>3838</v>
       </c>
-      <c r="D390" s="494"/>
+      <c r="D390" s="478"/>
       <c r="E390" s="250" t="s">
-        <v>4481</v>
+        <v>4480</v>
       </c>
       <c r="F390" s="208"/>
       <c r="G390" s="228"/>
       <c r="H390" s="13"/>
-      <c r="I390" s="506" t="s">
+      <c r="I390" s="490" t="s">
         <v>2952</v>
       </c>
-      <c r="J390" s="490"/>
-      <c r="K390" s="507" t="s">
+      <c r="J390" s="474"/>
+      <c r="K390" s="491" t="s">
         <v>2953</v>
       </c>
-      <c r="L390" s="510" t="s">
+      <c r="L390" s="494" t="s">
         <v>2355</v>
       </c>
-      <c r="M390" s="511"/>
-      <c r="N390" s="511"/>
-      <c r="O390" s="511"/>
-      <c r="P390" s="512" t="s">
+      <c r="M390" s="495"/>
+      <c r="N390" s="495"/>
+      <c r="O390" s="495"/>
+      <c r="P390" s="496" t="s">
         <v>2954</v>
       </c>
-      <c r="Q390" s="520" t="s">
+      <c r="Q390" s="504" t="s">
         <v>2955</v>
       </c>
-      <c r="R390" s="520" t="s">
+      <c r="R390" s="504" t="s">
         <v>30</v>
       </c>
-      <c r="S390" s="520"/>
-      <c r="T390" s="520" t="s">
+      <c r="S390" s="504"/>
+      <c r="T390" s="504" t="s">
         <v>1083</v>
       </c>
-      <c r="U390" s="490" t="s">
+      <c r="U390" s="474" t="s">
         <v>496</v>
       </c>
-      <c r="V390" s="522" t="s">
+      <c r="V390" s="506" t="s">
         <v>33</v>
       </c>
-      <c r="W390" s="490"/>
-      <c r="X390" s="504"/>
-      <c r="Y390" s="504"/>
-      <c r="Z390" s="504" t="s">
+      <c r="W390" s="474"/>
+      <c r="X390" s="488"/>
+      <c r="Y390" s="488"/>
+      <c r="Z390" s="488" t="s">
         <v>2102</v>
       </c>
-      <c r="AA390" s="504" t="s">
+      <c r="AA390" s="488" t="s">
         <v>2103</v>
       </c>
-      <c r="AB390" s="504" t="s">
+      <c r="AB390" s="488" t="s">
         <v>2648</v>
       </c>
-      <c r="AC390" s="504"/>
-      <c r="AD390" s="504" t="s">
+      <c r="AC390" s="488"/>
+      <c r="AD390" s="488" t="s">
         <v>2956</v>
       </c>
-      <c r="AE390" s="504"/>
-      <c r="AF390" s="504"/>
-      <c r="AG390" s="527"/>
-      <c r="AH390" s="504"/>
+      <c r="AE390" s="488"/>
+      <c r="AF390" s="488"/>
+      <c r="AG390" s="511"/>
+      <c r="AH390" s="488"/>
       <c r="AI390" s="133"/>
       <c r="AJ390" s="133"/>
       <c r="AK390" s="133"/>
@@ -54718,47 +54675,47 @@
       <c r="AT390" s="133"/>
     </row>
     <row r="391" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A391" s="422" t="s">
-        <v>4729</v>
+      <c r="A391" s="408" t="s">
+        <v>4722</v>
       </c>
       <c r="B391" s="118" t="s">
-        <v>4588</v>
+        <v>4582</v>
       </c>
       <c r="C391" s="195" t="s">
-        <v>4595</v>
+        <v>4589</v>
       </c>
       <c r="D391" s="195" t="s">
-        <v>4595</v>
+        <v>4589</v>
       </c>
       <c r="E391" s="252"/>
       <c r="F391" s="215"/>
-      <c r="G391" s="436" t="s">
-        <v>4607</v>
+      <c r="G391" s="422" t="s">
+        <v>4601</v>
       </c>
       <c r="H391" s="13"/>
       <c r="I391" s="13"/>
       <c r="J391" s="38"/>
       <c r="K391" s="121" t="s">
-        <v>4621</v>
+        <v>4615</v>
       </c>
       <c r="L391" s="38"/>
       <c r="M391" s="126"/>
       <c r="N391" s="126"/>
       <c r="O391" s="38" t="s">
-        <v>4626</v>
+        <v>4620</v>
       </c>
       <c r="P391" s="272" t="s">
         <v>2954</v>
       </c>
       <c r="Q391" s="38" t="s">
-        <v>4617</v>
-      </c>
-      <c r="R391" s="490"/>
+        <v>4611</v>
+      </c>
+      <c r="R391" s="474"/>
       <c r="S391" s="126" t="s">
-        <v>4634</v>
+        <v>4628</v>
       </c>
       <c r="T391" s="38"/>
-      <c r="U391" s="490"/>
+      <c r="U391" s="474"/>
       <c r="V391" s="38"/>
       <c r="W391" s="38"/>
       <c r="X391" s="38"/>
@@ -54824,7 +54781,7 @@
       <c r="R392" s="24"/>
       <c r="S392" s="24"/>
       <c r="T392" s="24"/>
-      <c r="U392" s="504" t="s">
+      <c r="U392" s="488" t="s">
         <v>335</v>
       </c>
       <c r="V392" s="30" t="s">
@@ -54930,48 +54887,48 @@
       <c r="AT393" s="13"/>
     </row>
     <row r="394" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A394" s="490" t="s">
+      <c r="A394" s="474" t="s">
+        <v>4576</v>
+      </c>
+      <c r="B394" s="516" t="s">
         <v>4582</v>
       </c>
-      <c r="B394" s="532" t="s">
-        <v>4588</v>
-      </c>
-      <c r="C394" s="296" t="s">
-        <v>4596</v>
-      </c>
-      <c r="D394" s="490" t="s">
-        <v>4596</v>
+      <c r="C394" s="474" t="s">
+        <v>4590</v>
+      </c>
+      <c r="D394" s="474" t="s">
+        <v>4590</v>
       </c>
       <c r="E394" s="250"/>
-      <c r="F394" s="453"/>
-      <c r="G394" s="454" t="s">
-        <v>4608</v>
+      <c r="F394" s="438"/>
+      <c r="G394" s="439" t="s">
+        <v>4602</v>
       </c>
       <c r="H394" s="89"/>
-      <c r="I394" s="504"/>
+      <c r="I394" s="488"/>
       <c r="J394" s="38"/>
-      <c r="K394" s="490" t="s">
-        <v>4624</v>
-      </c>
-      <c r="L394" s="490"/>
+      <c r="K394" s="474" t="s">
+        <v>4618</v>
+      </c>
+      <c r="L394" s="474"/>
       <c r="M394" s="126"/>
       <c r="N394" s="126"/>
       <c r="O394" s="126" t="s">
-        <v>4626</v>
+        <v>4620</v>
       </c>
       <c r="P394" s="272" t="s">
         <v>2954</v>
       </c>
-      <c r="Q394" s="490" t="s">
-        <v>4617</v>
-      </c>
-      <c r="R394" s="490"/>
+      <c r="Q394" s="474" t="s">
+        <v>4611</v>
+      </c>
+      <c r="R394" s="474"/>
       <c r="S394" s="126" t="s">
-        <v>4634</v>
+        <v>4628</v>
       </c>
       <c r="T394" s="126"/>
       <c r="U394" s="126"/>
-      <c r="V394" s="490"/>
+      <c r="V394" s="474"/>
       <c r="W394" s="126"/>
       <c r="X394" s="126"/>
       <c r="Y394" s="126"/>
@@ -54981,9 +54938,9 @@
       <c r="AC394" s="126"/>
       <c r="AD394" s="126"/>
       <c r="AE394" s="126"/>
-      <c r="AF394" s="490"/>
+      <c r="AF394" s="474"/>
       <c r="AG394" s="126"/>
-      <c r="AH394" s="490"/>
+      <c r="AH394" s="474"/>
       <c r="AI394" s="132"/>
       <c r="AJ394" s="132"/>
       <c r="AK394" s="132"/>
@@ -54999,45 +54956,45 @@
     </row>
     <row r="395" spans="1:46" ht="15.75" customHeight="1">
       <c r="A395" s="38" t="s">
-        <v>4583</v>
+        <v>4577</v>
       </c>
       <c r="B395" s="118" t="s">
-        <v>4588</v>
+        <v>4582</v>
       </c>
       <c r="C395" s="38" t="s">
-        <v>4596</v>
+        <v>4590</v>
       </c>
       <c r="D395" s="38" t="s">
-        <v>4596</v>
+        <v>4590</v>
       </c>
       <c r="E395" s="252"/>
       <c r="F395" s="215"/>
-      <c r="G395" s="454" t="s">
-        <v>4608</v>
+      <c r="G395" s="439" t="s">
+        <v>4602</v>
       </c>
       <c r="H395" s="13"/>
       <c r="I395" s="13"/>
       <c r="J395" s="38"/>
       <c r="K395" s="38" t="s">
-        <v>4625</v>
+        <v>4619</v>
       </c>
       <c r="L395" s="38"/>
       <c r="M395" s="118"/>
       <c r="N395" s="38"/>
       <c r="O395" s="38" t="s">
-        <v>4626</v>
+        <v>4620</v>
       </c>
       <c r="P395" s="272" t="s">
         <v>2954</v>
       </c>
       <c r="Q395" s="38" t="s">
-        <v>4617</v>
+        <v>4611</v>
       </c>
       <c r="R395" s="29" t="s">
         <v>730</v>
       </c>
       <c r="S395" s="38" t="s">
-        <v>4634</v>
+        <v>4628</v>
       </c>
       <c r="T395" s="38"/>
       <c r="U395" s="38"/>
@@ -55074,12 +55031,12 @@
       <c r="B396" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C396" s="493" t="s">
+      <c r="C396" s="477" t="s">
         <v>2965</v>
       </c>
       <c r="D396" s="74"/>
       <c r="E396" s="252" t="s">
-        <v>4482</v>
+        <v>4481</v>
       </c>
       <c r="F396" s="208"/>
       <c r="G396" s="228"/>
@@ -55143,45 +55100,45 @@
     </row>
     <row r="397" spans="1:46" ht="15.75" customHeight="1">
       <c r="A397" s="38" t="s">
-        <v>4584</v>
+        <v>4578</v>
       </c>
       <c r="B397" s="118" t="s">
-        <v>4588</v>
+        <v>4582</v>
       </c>
       <c r="C397" s="38" t="s">
-        <v>4597</v>
+        <v>4591</v>
       </c>
       <c r="D397" s="38" t="s">
-        <v>4597</v>
+        <v>4591</v>
       </c>
       <c r="E397" s="252"/>
       <c r="F397" s="215"/>
-      <c r="G397" s="454" t="s">
-        <v>4609</v>
+      <c r="G397" s="439" t="s">
+        <v>4603</v>
       </c>
       <c r="H397" s="13"/>
       <c r="I397" s="13"/>
       <c r="J397" s="38" t="s">
-        <v>4622</v>
+        <v>4616</v>
       </c>
       <c r="K397" s="38" t="s">
-        <v>4630</v>
+        <v>4624</v>
       </c>
       <c r="L397" s="38"/>
       <c r="M397" s="38"/>
       <c r="N397" s="38"/>
       <c r="O397" s="38" t="s">
-        <v>4626</v>
+        <v>4620</v>
       </c>
       <c r="P397" s="272" t="s">
         <v>2954</v>
       </c>
-      <c r="Q397" s="422" t="s">
-        <v>4627</v>
+      <c r="Q397" s="408" t="s">
+        <v>4621</v>
       </c>
       <c r="R397" s="38"/>
       <c r="S397" s="38" t="s">
-        <v>4634</v>
+        <v>4628</v>
       </c>
       <c r="T397" s="38"/>
       <c r="U397" s="38"/>
@@ -55191,8 +55148,8 @@
       <c r="Y397" s="38"/>
       <c r="Z397" s="38"/>
       <c r="AA397" s="38"/>
-      <c r="AB397" s="443" t="s">
-        <v>4623</v>
+      <c r="AB397" s="429" t="s">
+        <v>4617</v>
       </c>
       <c r="AC397" s="126"/>
       <c r="AD397" s="38"/>
@@ -55225,7 +55182,7 @@
       </c>
       <c r="D398" s="74"/>
       <c r="E398" s="252" t="s">
-        <v>4483</v>
+        <v>4482</v>
       </c>
       <c r="F398" s="208"/>
       <c r="G398" s="228"/>
@@ -55295,21 +55252,21 @@
     </row>
     <row r="399" spans="1:46" ht="15.75" customHeight="1">
       <c r="A399" s="318" t="s">
-        <v>4585</v>
+        <v>4579</v>
       </c>
       <c r="B399" s="118" t="s">
-        <v>4588</v>
+        <v>4582</v>
       </c>
       <c r="C399" s="318" t="s">
-        <v>4598</v>
+        <v>4592</v>
       </c>
       <c r="D399" s="318" t="s">
-        <v>4598</v>
+        <v>4592</v>
       </c>
       <c r="E399" s="252"/>
       <c r="F399" s="215"/>
-      <c r="G399" s="436" t="s">
-        <v>4610</v>
+      <c r="G399" s="422" t="s">
+        <v>4604</v>
       </c>
       <c r="H399" s="13"/>
       <c r="I399" s="13"/>
@@ -55319,17 +55276,17 @@
       <c r="M399" s="38"/>
       <c r="N399" s="38"/>
       <c r="O399" s="38" t="s">
-        <v>4626</v>
+        <v>4620</v>
       </c>
       <c r="P399" s="272" t="s">
         <v>2954</v>
       </c>
       <c r="Q399" s="38" t="s">
-        <v>4617</v>
+        <v>4611</v>
       </c>
       <c r="R399" s="38"/>
       <c r="S399" s="38" t="s">
-        <v>4634</v>
+        <v>4628</v>
       </c>
       <c r="T399" s="38"/>
       <c r="U399" s="38"/>
@@ -55371,7 +55328,7 @@
       </c>
       <c r="D400" s="74"/>
       <c r="E400" s="252" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
       <c r="F400" s="85"/>
       <c r="G400" s="228"/>
@@ -55455,15 +55412,15 @@
       <c r="C401" s="289"/>
       <c r="D401" s="120"/>
       <c r="E401" s="264" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
       <c r="F401" s="85" t="s">
         <v>3844</v>
       </c>
       <c r="G401" s="320"/>
       <c r="H401" s="201"/>
-      <c r="I401" s="417" t="s">
-        <v>4579</v>
+      <c r="I401" s="403" t="s">
+        <v>4573</v>
       </c>
       <c r="J401" s="121"/>
       <c r="K401" s="117" t="s">
@@ -55523,21 +55480,21 @@
     </row>
     <row r="402" spans="1:46" s="105" customFormat="1" ht="15.75" customHeight="1">
       <c r="A402" s="318" t="s">
-        <v>4586</v>
+        <v>4580</v>
       </c>
       <c r="B402" s="121" t="s">
-        <v>4601</v>
+        <v>4595</v>
       </c>
       <c r="C402" s="318" t="s">
-        <v>4599</v>
+        <v>4593</v>
       </c>
       <c r="D402" s="318" t="s">
-        <v>4599</v>
+        <v>4593</v>
       </c>
       <c r="E402" s="252"/>
       <c r="F402" s="215"/>
-      <c r="G402" s="436" t="s">
-        <v>4611</v>
+      <c r="G402" s="422" t="s">
+        <v>4605</v>
       </c>
       <c r="H402" s="13"/>
       <c r="I402" s="13"/>
@@ -55547,20 +55504,20 @@
       <c r="M402" s="38"/>
       <c r="N402" s="38"/>
       <c r="O402" s="38" t="s">
-        <v>4626</v>
-      </c>
-      <c r="P402" s="444" t="s">
+        <v>4620</v>
+      </c>
+      <c r="P402" s="430" t="s">
         <v>2954</v>
       </c>
       <c r="Q402" s="38" t="s">
-        <v>4617</v>
+        <v>4611</v>
       </c>
       <c r="R402" s="38"/>
       <c r="S402" s="38" t="s">
-        <v>4634</v>
+        <v>4628</v>
       </c>
       <c r="T402" s="38"/>
-      <c r="U402" s="490"/>
+      <c r="U402" s="474"/>
       <c r="V402" s="38"/>
       <c r="W402" s="38"/>
       <c r="X402" s="38"/>
@@ -55589,44 +55546,44 @@
     </row>
     <row r="403" spans="1:46" ht="15.75" customHeight="1">
       <c r="A403" s="118" t="s">
-        <v>4587</v>
+        <v>4581</v>
       </c>
       <c r="B403" s="118" t="s">
-        <v>4589</v>
+        <v>4583</v>
       </c>
       <c r="C403" s="195" t="s">
-        <v>4600</v>
+        <v>4594</v>
       </c>
       <c r="D403" s="195" t="s">
-        <v>4600</v>
+        <v>4594</v>
       </c>
       <c r="E403" s="252"/>
       <c r="F403" s="215"/>
-      <c r="G403" s="436" t="s">
-        <v>4612</v>
+      <c r="G403" s="422" t="s">
+        <v>4606</v>
       </c>
       <c r="H403" s="13"/>
       <c r="I403" s="13"/>
       <c r="J403" s="38"/>
       <c r="K403" s="38" t="s">
-        <v>4620</v>
+        <v>4614</v>
       </c>
       <c r="L403" s="118"/>
       <c r="M403" s="38"/>
       <c r="N403" s="38"/>
       <c r="O403" s="38" t="s">
-        <v>4626</v>
-      </c>
-      <c r="P403" s="513" t="s">
+        <v>4620</v>
+      </c>
+      <c r="P403" s="497" t="s">
         <v>2954</v>
       </c>
       <c r="Q403" s="38" t="s">
-        <v>4617</v>
+        <v>4611</v>
       </c>
       <c r="R403" s="38"/>
       <c r="S403" s="38"/>
       <c r="T403" s="38"/>
-      <c r="U403" s="490"/>
+      <c r="U403" s="474"/>
       <c r="V403" s="38"/>
       <c r="W403" s="38"/>
       <c r="X403" s="38"/>
@@ -55665,10 +55622,10 @@
       </c>
       <c r="D404" s="74"/>
       <c r="E404" s="252" t="s">
-        <v>4460</v>
+        <v>4459</v>
       </c>
       <c r="F404" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G404" s="320"/>
       <c r="H404" s="201"/>
@@ -55687,7 +55644,7 @@
       </c>
       <c r="N404" s="147"/>
       <c r="O404" s="147"/>
-      <c r="P404" s="515" t="s">
+      <c r="P404" s="499" t="s">
         <v>2994</v>
       </c>
       <c r="Q404" s="24" t="s">
@@ -55696,7 +55653,7 @@
       <c r="R404" s="24"/>
       <c r="S404" s="24"/>
       <c r="T404" s="24"/>
-      <c r="U404" s="522" t="s">
+      <c r="U404" s="506" t="s">
         <v>588</v>
       </c>
       <c r="V404" s="30" t="s">
@@ -55769,7 +55726,7 @@
       <c r="O405" s="13" t="s">
         <v>2998</v>
       </c>
-      <c r="P405" s="512" t="s">
+      <c r="P405" s="496" t="s">
         <v>2999</v>
       </c>
       <c r="Q405" s="47" t="s">
@@ -55782,7 +55739,7 @@
       <c r="T405" s="24" t="s">
         <v>3002</v>
       </c>
-      <c r="U405" s="521" t="s">
+      <c r="U405" s="505" t="s">
         <v>32</v>
       </c>
       <c r="V405" s="30" t="s">
@@ -55859,7 +55816,7 @@
       <c r="M406" s="126"/>
       <c r="N406" s="148"/>
       <c r="O406" s="148"/>
-      <c r="P406" s="512" t="s">
+      <c r="P406" s="496" t="s">
         <v>815</v>
       </c>
       <c r="Q406" s="24" t="s">
@@ -55943,7 +55900,7 @@
       <c r="O407" s="147" t="s">
         <v>2993</v>
       </c>
-      <c r="P407" s="512" t="s">
+      <c r="P407" s="496" t="s">
         <v>494</v>
       </c>
       <c r="Q407" s="24" t="s">
@@ -55952,7 +55909,7 @@
       <c r="R407" s="24"/>
       <c r="S407" s="24"/>
       <c r="T407" s="24"/>
-      <c r="U407" s="524" t="s">
+      <c r="U407" s="508" t="s">
         <v>496</v>
       </c>
       <c r="V407" s="30" t="s">
@@ -56031,7 +55988,7 @@
       <c r="Q408" s="24" t="s">
         <v>3021</v>
       </c>
-      <c r="R408" s="520"/>
+      <c r="R408" s="504"/>
       <c r="S408" s="96"/>
       <c r="T408" s="24"/>
       <c r="U408" s="43" t="s">
@@ -56082,7 +56039,7 @@
       <c r="B409" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C409" s="487" t="s">
+      <c r="C409" s="471" t="s">
         <v>3025</v>
       </c>
       <c r="D409" s="82"/>
@@ -56090,7 +56047,7 @@
         <v>4171</v>
       </c>
       <c r="F409" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G409" s="320"/>
       <c r="H409" s="201"/>
@@ -56165,7 +56122,7 @@
       </c>
       <c r="D410" s="74"/>
       <c r="E410" s="252" t="s">
-        <v>4484</v>
+        <v>4483</v>
       </c>
       <c r="F410" s="208"/>
       <c r="G410" s="228"/>
@@ -56239,7 +56196,7 @@
     </row>
     <row r="411" spans="1:46" ht="15.75" customHeight="1">
       <c r="A411" s="101" t="s">
-        <v>4511</v>
+        <v>4507</v>
       </c>
       <c r="B411" s="95" t="s">
         <v>337</v>
@@ -56252,7 +56209,7 @@
         <v>4172</v>
       </c>
       <c r="F411" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G411" s="320"/>
       <c r="H411" s="201"/>
@@ -56406,7 +56363,7 @@
       <c r="B413" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C413" s="342" t="s">
+      <c r="C413" s="471" t="s">
         <v>4177</v>
       </c>
       <c r="D413" s="74"/>
@@ -56414,14 +56371,14 @@
         <v>4176</v>
       </c>
       <c r="F413" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G413" s="320"/>
       <c r="H413" s="201"/>
       <c r="I413" s="139" t="s">
         <v>3055</v>
       </c>
-      <c r="J413" s="490" t="s">
+      <c r="J413" s="474" t="s">
         <v>3056</v>
       </c>
       <c r="K413" s="109" t="s">
@@ -56480,7 +56437,7 @@
       <c r="B414" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C414" s="487" t="s">
+      <c r="C414" s="471" t="s">
         <v>3593</v>
       </c>
       <c r="D414" s="74"/>
@@ -56568,7 +56525,7 @@
       <c r="B415" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C415" s="487" t="s">
+      <c r="C415" s="471" t="s">
         <v>3068</v>
       </c>
       <c r="D415" s="137"/>
@@ -56578,8 +56535,8 @@
       <c r="F415" s="214" t="s">
         <v>3844</v>
       </c>
-      <c r="G415" s="455"/>
-      <c r="H415" s="459"/>
+      <c r="G415" s="440"/>
+      <c r="H415" s="444"/>
       <c r="I415" s="139" t="s">
         <v>3069</v>
       </c>
@@ -56595,7 +56552,7 @@
         <v>26</v>
       </c>
       <c r="O415" s="147"/>
-      <c r="P415" s="384" t="s">
+      <c r="P415" s="506" t="s">
         <v>3071</v>
       </c>
       <c r="Q415" s="17" t="s">
@@ -56652,20 +56609,20 @@
       <c r="B416" s="38" t="s">
         <v>3076</v>
       </c>
-      <c r="C416" s="487" t="s">
+      <c r="C416" s="471" t="s">
         <v>4182</v>
       </c>
       <c r="D416" s="74"/>
       <c r="E416" s="250" t="s">
         <v>4181</v>
       </c>
-      <c r="F416" s="498" t="s">
+      <c r="F416" s="482" t="s">
         <v>3844</v>
       </c>
       <c r="G416" s="326" t="s">
         <v>4356</v>
       </c>
-      <c r="H416" s="503"/>
+      <c r="H416" s="487"/>
       <c r="I416" s="139" t="s">
         <v>3077</v>
       </c>
@@ -56692,7 +56649,7 @@
       <c r="R416" s="24"/>
       <c r="S416" s="24"/>
       <c r="T416" s="24"/>
-      <c r="U416" s="522" t="s">
+      <c r="U416" s="506" t="s">
         <v>127</v>
       </c>
       <c r="V416" s="30" t="s">
@@ -56751,7 +56708,7 @@
       <c r="G417" s="326" t="s">
         <v>4187</v>
       </c>
-      <c r="H417" s="364"/>
+      <c r="H417" s="357"/>
       <c r="I417" s="139" t="s">
         <v>3083</v>
       </c>
@@ -56767,7 +56724,7 @@
       <c r="O417" s="147" t="s">
         <v>3085</v>
       </c>
-      <c r="P417" s="517" t="s">
+      <c r="P417" s="501" t="s">
         <v>3086</v>
       </c>
       <c r="Q417" s="17" t="s">
@@ -56836,9 +56793,9 @@
         <v>4188</v>
       </c>
       <c r="F418" s="85" t="s">
-        <v>4498</v>
-      </c>
-      <c r="G418" s="360"/>
+        <v>4733</v>
+      </c>
+      <c r="G418" s="354"/>
       <c r="H418" s="201"/>
       <c r="I418" s="98" t="s">
         <v>3094</v>
@@ -56911,20 +56868,20 @@
     </row>
     <row r="419" spans="1:46" ht="15.75" customHeight="1">
       <c r="A419" s="101" t="s">
-        <v>4373</v>
+        <v>4372</v>
       </c>
       <c r="B419" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C419" s="342" t="s">
-        <v>4373</v>
+      <c r="C419" s="471" t="s">
+        <v>4372</v>
       </c>
       <c r="D419" s="74"/>
       <c r="E419" s="252" t="s">
         <v>4189</v>
       </c>
       <c r="F419" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G419" s="321"/>
       <c r="H419" s="201"/>
@@ -56932,7 +56889,7 @@
         <v>3103</v>
       </c>
       <c r="J419" s="38"/>
-      <c r="K419" s="507" t="s">
+      <c r="K419" s="491" t="s">
         <v>3104</v>
       </c>
       <c r="L419" s="59" t="s">
@@ -57044,7 +57001,7 @@
       <c r="T420" s="17" t="s">
         <v>1083</v>
       </c>
-      <c r="U420" s="490" t="s">
+      <c r="U420" s="474" t="s">
         <v>3111</v>
       </c>
       <c r="V420" s="30" t="s">
@@ -57094,7 +57051,7 @@
       <c r="B421" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C421" s="487" t="s">
+      <c r="C421" s="471" t="s">
         <v>3115</v>
       </c>
       <c r="D421" s="74"/>
@@ -57102,7 +57059,7 @@
         <v>4194</v>
       </c>
       <c r="F421" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G421" s="321"/>
       <c r="H421" s="201"/>
@@ -57192,7 +57149,7 @@
         <v>4196</v>
       </c>
       <c r="H422" s="201"/>
-      <c r="I422" s="414" t="s">
+      <c r="I422" s="400" t="s">
         <v>3123</v>
       </c>
       <c r="J422" s="38"/>
@@ -57220,7 +57177,7 @@
       <c r="T422" s="24" t="s">
         <v>3129</v>
       </c>
-      <c r="U422" s="521" t="s">
+      <c r="U422" s="505" t="s">
         <v>32</v>
       </c>
       <c r="V422" s="30" t="s">
@@ -57255,7 +57212,7 @@
       <c r="A423" s="101" t="s">
         <v>4197</v>
       </c>
-      <c r="B423" s="428" t="s">
+      <c r="B423" s="414" t="s">
         <v>337</v>
       </c>
       <c r="C423" s="195" t="s">
@@ -57273,7 +57230,7 @@
       <c r="I423" s="65" t="s">
         <v>3130</v>
       </c>
-      <c r="J423" s="421"/>
+      <c r="J423" s="407"/>
       <c r="K423" s="38" t="s">
         <v>3131</v>
       </c>
@@ -57294,7 +57251,7 @@
       <c r="R423" s="17"/>
       <c r="S423" s="17"/>
       <c r="T423" s="24"/>
-      <c r="U423" s="516" t="s">
+      <c r="U423" s="500" t="s">
         <v>3135</v>
       </c>
       <c r="V423" s="30" t="s">
@@ -57333,7 +57290,7 @@
     </row>
     <row r="424" spans="1:46" ht="15.75" customHeight="1">
       <c r="A424" s="101" t="s">
-        <v>4510</v>
+        <v>4506</v>
       </c>
       <c r="B424" s="95" t="s">
         <v>337</v>
@@ -57343,7 +57300,7 @@
       </c>
       <c r="D424" s="74"/>
       <c r="E424" s="252" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
       <c r="F424" s="208"/>
       <c r="G424" s="228"/>
@@ -57455,7 +57412,7 @@
       <c r="Q425" s="17" t="s">
         <v>3148</v>
       </c>
-      <c r="R425" s="518"/>
+      <c r="R425" s="502"/>
       <c r="S425" s="97"/>
       <c r="T425" s="24"/>
       <c r="U425" s="13" t="s">
@@ -57513,9 +57470,9 @@
         <v>3844</v>
       </c>
       <c r="G426" s="326" t="s">
-        <v>4670</v>
-      </c>
-      <c r="H426" s="364"/>
+        <v>4664</v>
+      </c>
+      <c r="H426" s="357"/>
       <c r="I426" s="98" t="s">
         <v>3151</v>
       </c>
@@ -57615,7 +57572,7 @@
       </c>
       <c r="N427" s="135"/>
       <c r="O427" s="135"/>
-      <c r="P427" s="509" t="s">
+      <c r="P427" s="493" t="s">
         <v>125</v>
       </c>
       <c r="Q427" s="17" t="s">
@@ -57768,10 +57725,10 @@
         <v>4209</v>
       </c>
       <c r="H429" s="57"/>
-      <c r="I429" s="405" t="s">
+      <c r="I429" s="391" t="s">
         <v>3172</v>
       </c>
-      <c r="J429" s="421"/>
+      <c r="J429" s="407"/>
       <c r="K429" s="109" t="s">
         <v>3173</v>
       </c>
@@ -57867,7 +57824,7 @@
       <c r="Q430" s="17" t="s">
         <v>3179</v>
       </c>
-      <c r="R430" s="562" t="s">
+      <c r="R430" s="546" t="s">
         <v>30</v>
       </c>
       <c r="S430" s="97"/>
@@ -57930,11 +57887,11 @@
         <v>4213</v>
       </c>
       <c r="F431" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G431" s="321"/>
       <c r="H431" s="201"/>
-      <c r="I431" s="407" t="s">
+      <c r="I431" s="393" t="s">
         <v>4211</v>
       </c>
       <c r="J431" s="38"/>
@@ -57954,7 +57911,7 @@
         <v>3184</v>
       </c>
       <c r="R431" s="17"/>
-      <c r="S431" s="518"/>
+      <c r="S431" s="502"/>
       <c r="T431" s="17"/>
       <c r="U431" s="134" t="s">
         <v>346</v>
@@ -57996,7 +57953,7 @@
       <c r="B432" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C432" s="487" t="s">
+      <c r="C432" s="471" t="s">
         <v>3610</v>
       </c>
       <c r="D432" s="74"/>
@@ -58004,7 +57961,7 @@
         <v>4213</v>
       </c>
       <c r="F432" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G432" s="321"/>
       <c r="H432" s="201"/>
@@ -58077,11 +58034,11 @@
       </c>
       <c r="D433" s="74"/>
       <c r="E433" s="252" t="s">
-        <v>4486</v>
+        <v>4485</v>
       </c>
       <c r="F433" s="233"/>
       <c r="G433" s="329"/>
-      <c r="H433" s="433"/>
+      <c r="H433" s="419"/>
       <c r="I433" s="139" t="s">
         <v>3190</v>
       </c>
@@ -58105,10 +58062,10 @@
       <c r="Q433" s="17" t="s">
         <v>3195</v>
       </c>
-      <c r="R433" s="378"/>
+      <c r="R433" s="502"/>
       <c r="S433" s="97"/>
       <c r="T433" s="96"/>
-      <c r="U433" s="384" t="s">
+      <c r="U433" s="506" t="s">
         <v>127</v>
       </c>
       <c r="V433" s="64" t="s">
@@ -58154,14 +58111,14 @@
         <v>4214</v>
       </c>
       <c r="F434" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G434" s="321"/>
-      <c r="H434" s="364"/>
-      <c r="I434" s="405" t="s">
+      <c r="H434" s="357"/>
+      <c r="I434" s="391" t="s">
         <v>3197</v>
       </c>
-      <c r="J434" s="421"/>
+      <c r="J434" s="407"/>
       <c r="K434" s="109" t="s">
         <v>3198</v>
       </c>
@@ -58233,15 +58190,15 @@
       </c>
       <c r="D435" s="84"/>
       <c r="E435" s="262" t="s">
-        <v>4487</v>
+        <v>4486</v>
       </c>
       <c r="F435" s="233"/>
       <c r="G435" s="325"/>
-      <c r="H435" s="458"/>
+      <c r="H435" s="443"/>
       <c r="I435" s="139" t="s">
         <v>3203</v>
       </c>
-      <c r="J435" s="421"/>
+      <c r="J435" s="407"/>
       <c r="K435" s="109" t="s">
         <v>3659</v>
       </c>
@@ -58323,11 +58280,11 @@
         <v>3844</v>
       </c>
       <c r="G436" s="320"/>
-      <c r="H436" s="364"/>
-      <c r="I436" s="414" t="s">
+      <c r="H436" s="357"/>
+      <c r="I436" s="400" t="s">
         <v>3211</v>
       </c>
-      <c r="J436" s="421"/>
+      <c r="J436" s="407"/>
       <c r="K436" s="109" t="s">
         <v>3212</v>
       </c>
@@ -58410,14 +58367,14 @@
         <v>4216</v>
       </c>
       <c r="F437" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G437" s="321"/>
       <c r="H437" s="201"/>
-      <c r="I437" s="414" t="s">
+      <c r="I437" s="400" t="s">
         <v>3222</v>
       </c>
-      <c r="J437" s="421"/>
+      <c r="J437" s="407"/>
       <c r="K437" s="109" t="s">
         <v>3656</v>
       </c>
@@ -58736,7 +58693,7 @@
         <v>4226</v>
       </c>
       <c r="F441" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G441" s="321"/>
       <c r="H441" s="201"/>
@@ -58761,10 +58718,10 @@
       <c r="Q441" s="48" t="s">
         <v>1959</v>
       </c>
-      <c r="R441" s="512"/>
+      <c r="R441" s="496"/>
       <c r="S441" s="96"/>
       <c r="T441" s="24"/>
-      <c r="U441" s="463" t="s">
+      <c r="U441" s="448" t="s">
         <v>588</v>
       </c>
       <c r="V441" s="30" t="s">
@@ -58862,7 +58819,7 @@
       <c r="AD442" s="13"/>
       <c r="AE442" s="13"/>
       <c r="AF442" s="13"/>
-      <c r="AG442" s="527"/>
+      <c r="AG442" s="511"/>
       <c r="AH442" s="13"/>
       <c r="AI442" s="13"/>
       <c r="AJ442" s="13"/>
@@ -58944,7 +58901,7 @@
       <c r="AD443" s="13"/>
       <c r="AE443" s="13"/>
       <c r="AF443" s="13"/>
-      <c r="AG443" s="527"/>
+      <c r="AG443" s="511"/>
       <c r="AH443" s="13"/>
       <c r="AI443" s="13"/>
       <c r="AJ443" s="13"/>
@@ -58982,7 +58939,7 @@
         <v>4232</v>
       </c>
       <c r="H444" s="201"/>
-      <c r="I444" s="413" t="s">
+      <c r="I444" s="399" t="s">
         <v>3254</v>
       </c>
       <c r="J444" s="38"/>
@@ -59001,7 +58958,7 @@
       <c r="Q444" s="17" t="s">
         <v>3256</v>
       </c>
-      <c r="R444" s="518"/>
+      <c r="R444" s="502"/>
       <c r="S444" s="305"/>
       <c r="T444" s="17" t="s">
         <v>3640</v>
@@ -59022,7 +58979,7 @@
       <c r="AD444" s="13"/>
       <c r="AE444" s="13"/>
       <c r="AF444" s="13"/>
-      <c r="AG444" s="527"/>
+      <c r="AG444" s="511"/>
       <c r="AH444" s="13"/>
       <c r="AI444" s="13"/>
       <c r="AJ444" s="13"/>
@@ -59044,7 +59001,7 @@
       <c r="B445" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C445" s="487" t="s">
+      <c r="C445" s="471" t="s">
         <v>3614</v>
       </c>
       <c r="D445" s="101" t="s">
@@ -59098,7 +59055,7 @@
       <c r="AD445" s="13"/>
       <c r="AE445" s="13"/>
       <c r="AF445" s="13"/>
-      <c r="AG445" s="527"/>
+      <c r="AG445" s="511"/>
       <c r="AH445" s="13"/>
       <c r="AI445" s="13"/>
       <c r="AJ445" s="13"/>
@@ -59125,11 +59082,11 @@
       </c>
       <c r="D446" s="74"/>
       <c r="E446" s="266" t="s">
-        <v>4488</v>
+        <v>4487</v>
       </c>
       <c r="F446" s="233"/>
       <c r="G446" s="228" t="s">
-        <v>4567</v>
+        <v>4561</v>
       </c>
       <c r="H446" s="13"/>
       <c r="I446" s="5" t="s">
@@ -59172,7 +59129,7 @@
       <c r="AD446" s="13"/>
       <c r="AE446" s="13"/>
       <c r="AF446" s="13"/>
-      <c r="AG446" s="527"/>
+      <c r="AG446" s="511"/>
       <c r="AH446" s="13"/>
       <c r="AI446" s="13"/>
       <c r="AJ446" s="13"/>
@@ -59202,7 +59159,7 @@
         <v>4236</v>
       </c>
       <c r="F447" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G447" s="321"/>
       <c r="H447" s="201"/>
@@ -59256,7 +59213,7 @@
       <c r="AD447" s="13"/>
       <c r="AE447" s="13"/>
       <c r="AF447" s="13"/>
-      <c r="AG447" s="527"/>
+      <c r="AG447" s="511"/>
       <c r="AH447" s="13"/>
       <c r="AI447" s="13"/>
       <c r="AJ447" s="13"/>
@@ -59286,7 +59243,7 @@
         <v>4237</v>
       </c>
       <c r="F448" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G448" s="321"/>
       <c r="H448" s="201"/>
@@ -59356,7 +59313,7 @@
       <c r="B449" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C449" s="487" t="s">
+      <c r="C449" s="471" t="s">
         <v>3616</v>
       </c>
       <c r="D449" s="137"/>
@@ -59503,10 +59460,10 @@
       <c r="A451" s="101" t="s">
         <v>4244</v>
       </c>
-      <c r="B451" s="428" t="s">
+      <c r="B451" s="414" t="s">
         <v>337</v>
       </c>
-      <c r="C451" s="344" t="s">
+      <c r="C451" s="476" t="s">
         <v>3283</v>
       </c>
       <c r="D451" s="74"/>
@@ -59602,7 +59559,7 @@
         <v>4247</v>
       </c>
       <c r="F452" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G452" s="321"/>
       <c r="H452" s="201"/>
@@ -59766,7 +59723,7 @@
         <v>4250</v>
       </c>
       <c r="F454" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G454" s="321"/>
       <c r="H454" s="201"/>
@@ -59848,7 +59805,7 @@
         <v>4251</v>
       </c>
       <c r="F455" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G455" s="321"/>
       <c r="H455" s="13"/>
@@ -59936,7 +59893,7 @@
         <v>4252</v>
       </c>
       <c r="F456" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G456" s="321"/>
       <c r="H456" s="201"/>
@@ -60054,7 +60011,7 @@
       <c r="R457" s="17"/>
       <c r="S457" s="17"/>
       <c r="T457" s="17"/>
-      <c r="U457" s="296" t="s">
+      <c r="U457" s="474" t="s">
         <v>1024</v>
       </c>
       <c r="V457" s="30" t="s">
@@ -60106,7 +60063,7 @@
         <v>4255</v>
       </c>
       <c r="F458" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G458" s="321"/>
       <c r="H458" s="201"/>
@@ -60136,7 +60093,7 @@
       <c r="T458" s="17" t="s">
         <v>3323</v>
       </c>
-      <c r="U458" s="343" t="s">
+      <c r="U458" s="509" t="s">
         <v>3334</v>
       </c>
       <c r="V458" s="30" t="s">
@@ -60179,17 +60136,17 @@
       </c>
       <c r="D459" s="84"/>
       <c r="E459" s="262" t="s">
-        <v>4489</v>
+        <v>4488</v>
       </c>
       <c r="F459" s="231"/>
       <c r="G459" s="321" t="s">
         <v>4016</v>
       </c>
-      <c r="H459" s="431"/>
-      <c r="I459" s="414" t="s">
+      <c r="H459" s="417"/>
+      <c r="I459" s="400" t="s">
         <v>3336</v>
       </c>
-      <c r="J459" s="421" t="s">
+      <c r="J459" s="407" t="s">
         <v>3337</v>
       </c>
       <c r="K459" s="38" t="s">
@@ -60212,7 +60169,7 @@
       <c r="R459" s="17"/>
       <c r="S459" s="17"/>
       <c r="T459" s="17"/>
-      <c r="U459" s="382" t="s">
+      <c r="U459" s="505" t="s">
         <v>32</v>
       </c>
       <c r="V459" s="30" t="s">
@@ -60267,17 +60224,17 @@
       </c>
       <c r="D460" s="84"/>
       <c r="E460" s="262" t="s">
-        <v>4490</v>
+        <v>4489</v>
       </c>
       <c r="F460" s="231"/>
       <c r="G460" s="321" t="s">
         <v>4016</v>
       </c>
-      <c r="H460" s="431"/>
-      <c r="I460" s="414" t="s">
+      <c r="H460" s="417"/>
+      <c r="I460" s="400" t="s">
         <v>3344</v>
       </c>
-      <c r="J460" s="421" t="s">
+      <c r="J460" s="407" t="s">
         <v>3345</v>
       </c>
       <c r="K460" s="38" t="s">
@@ -60358,7 +60315,7 @@
         <v>4257</v>
       </c>
       <c r="F461" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G461" s="321"/>
       <c r="H461" s="201"/>
@@ -60386,7 +60343,7 @@
       <c r="R461" s="24"/>
       <c r="S461" s="24"/>
       <c r="T461" s="24"/>
-      <c r="U461" s="514" t="s">
+      <c r="U461" s="498" t="s">
         <v>127</v>
       </c>
       <c r="V461" s="30" t="s">
@@ -60430,7 +60387,7 @@
       <c r="B462" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C462" s="348" t="s">
+      <c r="C462" s="478" t="s">
         <v>4260</v>
       </c>
       <c r="D462" s="74"/>
@@ -60465,10 +60422,10 @@
       <c r="Q462" s="24" t="s">
         <v>3358</v>
       </c>
-      <c r="R462" s="377"/>
+      <c r="R462" s="504"/>
       <c r="S462" s="96"/>
       <c r="T462" s="24"/>
-      <c r="U462" s="372" t="s">
+      <c r="U462" s="498" t="s">
         <v>127</v>
       </c>
       <c r="V462" s="30" t="s">
@@ -60511,7 +60468,7 @@
       </c>
       <c r="D463" s="74"/>
       <c r="E463" s="252" t="s">
-        <v>4491</v>
+        <v>4490</v>
       </c>
       <c r="F463" s="231"/>
       <c r="G463" s="320"/>
@@ -60540,7 +60497,7 @@
       <c r="R463" s="24"/>
       <c r="S463" s="24"/>
       <c r="T463" s="24"/>
-      <c r="U463" s="446" t="s">
+      <c r="U463" s="507" t="s">
         <v>984</v>
       </c>
       <c r="V463" s="13" t="s">
@@ -60592,7 +60549,7 @@
         <v>4262</v>
       </c>
       <c r="F464" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G464" s="320"/>
       <c r="H464" s="201"/>
@@ -60620,7 +60577,7 @@
       <c r="R464" s="29"/>
       <c r="S464" s="29"/>
       <c r="T464" s="29"/>
-      <c r="U464" s="523" t="s">
+      <c r="U464" s="507" t="s">
         <v>984</v>
       </c>
       <c r="V464" s="13" t="s">
@@ -60669,7 +60626,7 @@
       </c>
       <c r="D465" s="74"/>
       <c r="E465" s="252" t="s">
-        <v>4461</v>
+        <v>4460</v>
       </c>
       <c r="F465" s="231" t="s">
         <v>3844</v>
@@ -60677,7 +60634,7 @@
       <c r="G465" s="321" t="s">
         <v>4016</v>
       </c>
-      <c r="H465" s="431"/>
+      <c r="H465" s="417"/>
       <c r="I465" s="139" t="s">
         <v>3370</v>
       </c>
@@ -60704,7 +60661,7 @@
       <c r="R465" s="17"/>
       <c r="S465" s="17"/>
       <c r="T465" s="17"/>
-      <c r="U465" s="521" t="s">
+      <c r="U465" s="505" t="s">
         <v>32</v>
       </c>
       <c r="V465" s="13" t="s">
@@ -60790,7 +60747,7 @@
       <c r="R466" s="33"/>
       <c r="S466" s="33"/>
       <c r="T466" s="33"/>
-      <c r="U466" s="524" t="s">
+      <c r="U466" s="508" t="s">
         <v>346</v>
       </c>
       <c r="V466" s="30" t="s">
@@ -60840,7 +60797,7 @@
         <v>4264</v>
       </c>
       <c r="F467" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G467" s="321"/>
       <c r="H467" s="201"/>
@@ -60872,7 +60829,7 @@
       <c r="T467" s="24" t="s">
         <v>3387</v>
       </c>
-      <c r="U467" s="490" t="s">
+      <c r="U467" s="474" t="s">
         <v>1024</v>
       </c>
       <c r="V467" s="30" t="s">
@@ -60920,7 +60877,7 @@
         <v>4265</v>
       </c>
       <c r="F468" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G468" s="321"/>
       <c r="H468" s="201"/>
@@ -60948,13 +60905,13 @@
       <c r="R468" s="24"/>
       <c r="S468" s="24"/>
       <c r="T468" s="24"/>
-      <c r="U468" s="490" t="s">
+      <c r="U468" s="474" t="s">
         <v>1024</v>
       </c>
       <c r="V468" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="W468" s="480"/>
+      <c r="W468" s="464"/>
       <c r="X468" s="66"/>
       <c r="Y468" s="66"/>
       <c r="Z468" s="22" t="s">
@@ -61000,7 +60957,7 @@
         <v>4038</v>
       </c>
       <c r="F469" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G469" s="321"/>
       <c r="H469" s="201"/>
@@ -61017,7 +60974,7 @@
       <c r="M469" s="147"/>
       <c r="N469" s="147"/>
       <c r="O469" s="147"/>
-      <c r="P469" s="516" t="s">
+      <c r="P469" s="500" t="s">
         <v>167</v>
       </c>
       <c r="Q469" s="17" t="s">
@@ -61080,7 +61037,7 @@
         <v>4267</v>
       </c>
       <c r="F470" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G470" s="321"/>
       <c r="H470" s="201"/>
@@ -61107,7 +61064,7 @@
       <c r="Q470" s="26" t="s">
         <v>3405</v>
       </c>
-      <c r="R470" s="518" t="s">
+      <c r="R470" s="502" t="s">
         <v>3386</v>
       </c>
       <c r="S470" s="97"/>
@@ -61173,7 +61130,7 @@
       <c r="I471" s="139" t="s">
         <v>3406</v>
       </c>
-      <c r="J471" s="490"/>
+      <c r="J471" s="474"/>
       <c r="K471" s="109" t="s">
         <v>3407</v>
       </c>
@@ -61246,7 +61203,7 @@
       <c r="B472" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C472" s="487" t="s">
+      <c r="C472" s="471" t="s">
         <v>3626</v>
       </c>
       <c r="D472" s="74"/>
@@ -61261,7 +61218,7 @@
       <c r="I472" s="5" t="s">
         <v>3412</v>
       </c>
-      <c r="J472" s="490"/>
+      <c r="J472" s="474"/>
       <c r="K472" s="38" t="s">
         <v>3413</v>
       </c>
@@ -61349,7 +61306,7 @@
       <c r="I473" s="5" t="s">
         <v>3417</v>
       </c>
-      <c r="J473" s="490" t="s">
+      <c r="J473" s="474" t="s">
         <v>3418</v>
       </c>
       <c r="K473" s="38" t="s">
@@ -61422,22 +61379,22 @@
         <v>4038</v>
       </c>
       <c r="F474" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G474" s="320" t="s">
         <v>2471</v>
       </c>
       <c r="H474" s="201"/>
-      <c r="I474" s="412" t="s">
+      <c r="I474" s="398" t="s">
         <v>3423</v>
       </c>
-      <c r="J474" s="490" t="s">
+      <c r="J474" s="474" t="s">
         <v>3424</v>
       </c>
-      <c r="K474" s="507" t="s">
+      <c r="K474" s="491" t="s">
         <v>3425</v>
       </c>
-      <c r="L474" s="504" t="s">
+      <c r="L474" s="488" t="s">
         <v>3426</v>
       </c>
       <c r="M474" s="148"/>
@@ -61445,13 +61402,13 @@
         <v>3427</v>
       </c>
       <c r="O474" s="148"/>
-      <c r="P474" s="512" t="s">
+      <c r="P474" s="496" t="s">
         <v>603</v>
       </c>
-      <c r="Q474" s="445" t="s">
+      <c r="Q474" s="431" t="s">
         <v>3428</v>
       </c>
-      <c r="R474" s="518" t="s">
+      <c r="R474" s="502" t="s">
         <v>3386</v>
       </c>
       <c r="S474" s="96"/>
@@ -61461,7 +61418,7 @@
       <c r="U474" s="38" t="s">
         <v>1024</v>
       </c>
-      <c r="V474" s="522" t="s">
+      <c r="V474" s="506" t="s">
         <v>33</v>
       </c>
       <c r="W474" s="126"/>
@@ -61479,9 +61436,9 @@
       <c r="AC474" s="89"/>
       <c r="AD474" s="89"/>
       <c r="AE474" s="89"/>
-      <c r="AF474" s="504"/>
-      <c r="AG474" s="504"/>
-      <c r="AH474" s="504"/>
+      <c r="AF474" s="488"/>
+      <c r="AG474" s="488"/>
+      <c r="AH474" s="488"/>
       <c r="AI474" s="132"/>
       <c r="AJ474" s="132"/>
       <c r="AK474" s="132"/>
@@ -61507,7 +61464,7 @@
       </c>
       <c r="D475" s="74"/>
       <c r="E475" s="252" t="s">
-        <v>4492</v>
+        <v>4491</v>
       </c>
       <c r="F475" s="208"/>
       <c r="G475" s="228"/>
@@ -61515,7 +61472,7 @@
       <c r="I475" s="98" t="s">
         <v>3431</v>
       </c>
-      <c r="J475" s="490"/>
+      <c r="J475" s="474"/>
       <c r="K475" s="38" t="s">
         <v>3432</v>
       </c>
@@ -61543,7 +61500,7 @@
       <c r="U475" s="13" t="s">
         <v>477</v>
       </c>
-      <c r="V475" s="522"/>
+      <c r="V475" s="506"/>
       <c r="W475" s="126"/>
       <c r="X475" s="89"/>
       <c r="Y475" s="13"/>
@@ -61587,7 +61544,7 @@
       </c>
       <c r="D476" s="74"/>
       <c r="E476" s="252" t="s">
-        <v>4493</v>
+        <v>4492</v>
       </c>
       <c r="F476" s="231"/>
       <c r="G476" s="320"/>
@@ -61607,7 +61564,7 @@
       </c>
       <c r="N476" s="147"/>
       <c r="O476" s="39"/>
-      <c r="P476" s="516" t="s">
+      <c r="P476" s="500" t="s">
         <v>629</v>
       </c>
       <c r="Q476" s="33" t="s">
@@ -61623,11 +61580,11 @@
       <c r="U476" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="V476" s="522" t="s">
+      <c r="V476" s="506" t="s">
         <v>33</v>
       </c>
-      <c r="W476" s="481"/>
-      <c r="X476" s="464" t="s">
+      <c r="W476" s="465"/>
+      <c r="X476" s="449" t="s">
         <v>171</v>
       </c>
       <c r="Y476" s="170" t="s">
@@ -61676,7 +61633,7 @@
         <v>4274</v>
       </c>
       <c r="F477" s="85" t="s">
-        <v>4498</v>
+        <v>4733</v>
       </c>
       <c r="G477" s="321" t="s">
         <v>2471</v>
@@ -61699,7 +61656,7 @@
       </c>
       <c r="N477" s="147"/>
       <c r="O477" s="147"/>
-      <c r="P477" s="516" t="s">
+      <c r="P477" s="500" t="s">
         <v>2777</v>
       </c>
       <c r="Q477" s="26" t="s">
@@ -61749,23 +61706,23 @@
       <c r="A478" s="101" t="s">
         <v>3449</v>
       </c>
-      <c r="B478" s="427" t="s">
+      <c r="B478" s="413" t="s">
         <v>3450</v>
       </c>
       <c r="C478" s="74" t="s">
-        <v>4725</v>
+        <v>4718</v>
       </c>
       <c r="D478" s="119"/>
       <c r="E478" s="252" t="s">
-        <v>4724</v>
+        <v>4717</v>
       </c>
       <c r="F478" s="231" t="s">
-        <v>4726</v>
+        <v>4719</v>
       </c>
       <c r="G478" s="327"/>
       <c r="H478" s="201"/>
       <c r="I478" s="22" t="s">
-        <v>4727</v>
+        <v>4720</v>
       </c>
       <c r="J478" s="318" t="s">
         <v>2150</v>
@@ -61797,7 +61754,7 @@
         <v>33</v>
       </c>
       <c r="W478" s="318" t="s">
-        <v>4728</v>
+        <v>4721</v>
       </c>
       <c r="X478" s="22"/>
       <c r="Y478" s="22"/>
@@ -61830,19 +61787,19 @@
       <c r="B479" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C479" s="493" t="s">
+      <c r="C479" s="477" t="s">
         <v>3455</v>
       </c>
       <c r="D479" s="74"/>
       <c r="E479" s="252" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
       <c r="F479" s="212" t="s">
         <v>3844</v>
       </c>
       <c r="G479" s="228"/>
       <c r="H479" s="13"/>
-      <c r="I479" s="505" t="s">
+      <c r="I479" s="489" t="s">
         <v>3456</v>
       </c>
       <c r="J479" s="38"/>
@@ -61914,7 +61871,7 @@
       <c r="B480" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C480" s="342" t="s">
+      <c r="C480" s="471" t="s">
         <v>3628</v>
       </c>
       <c r="D480" s="74"/>
@@ -61922,7 +61879,7 @@
         <v>4275</v>
       </c>
       <c r="F480" s="231" t="s">
-        <v>4576</v>
+        <v>4570</v>
       </c>
       <c r="G480" s="320" t="s">
         <v>4277</v>
@@ -61994,10 +61951,10 @@
       <c r="AT480" s="13"/>
     </row>
     <row r="481" spans="1:46" ht="54" customHeight="1">
-      <c r="A481" s="487" t="s">
+      <c r="A481" s="471" t="s">
         <v>4352</v>
       </c>
-      <c r="B481" s="365" t="s">
+      <c r="B481" s="358" t="s">
         <v>337</v>
       </c>
       <c r="C481" s="205" t="s">
@@ -62007,14 +61964,14 @@
         <v>3473</v>
       </c>
       <c r="E481" s="249" t="s">
-        <v>4494</v>
+        <v>4493</v>
       </c>
       <c r="F481" s="132"/>
       <c r="G481" s="314"/>
       <c r="H481" s="13" t="s">
         <v>3474</v>
       </c>
-      <c r="I481" s="460" t="s">
+      <c r="I481" s="445" t="s">
         <v>3475</v>
       </c>
       <c r="J481" s="246" t="s">
@@ -62056,7 +62013,7 @@
       <c r="AB481" s="13"/>
       <c r="AC481" s="13"/>
       <c r="AD481" s="13"/>
-      <c r="AE481" s="504"/>
+      <c r="AE481" s="488"/>
       <c r="AF481" s="13"/>
       <c r="AG481" s="13"/>
       <c r="AH481" s="13"/>
@@ -62077,7 +62034,7 @@
       <c r="A482" s="101" t="s">
         <v>3482</v>
       </c>
-      <c r="B482" s="488" t="s">
+      <c r="B482" s="472" t="s">
         <v>337</v>
       </c>
       <c r="C482" s="101" t="s">
@@ -62089,14 +62046,14 @@
       <c r="E482" s="266" t="s">
         <v>4278</v>
       </c>
-      <c r="F482" s="498" t="s">
-        <v>4498</v>
+      <c r="F482" s="482" t="s">
+        <v>4733</v>
       </c>
       <c r="G482" s="321" t="s">
         <v>2471</v>
       </c>
       <c r="H482" s="201"/>
-      <c r="I482" s="462" t="s">
+      <c r="I482" s="447" t="s">
         <v>3483</v>
       </c>
       <c r="J482" s="38" t="s">
@@ -62120,7 +62077,7 @@
       <c r="R482" s="17"/>
       <c r="S482" s="17"/>
       <c r="T482" s="24"/>
-      <c r="U482" s="490" t="s">
+      <c r="U482" s="474" t="s">
         <v>1024</v>
       </c>
       <c r="V482" s="30" t="s">
@@ -62140,7 +62097,7 @@
       </c>
       <c r="AC482" s="13"/>
       <c r="AD482" s="13"/>
-      <c r="AE482" s="505" t="s">
+      <c r="AE482" s="489" t="s">
         <v>3487</v>
       </c>
       <c r="AF482" s="13"/>
@@ -62163,28 +62120,28 @@
       <c r="A483" s="101" t="s">
         <v>3488</v>
       </c>
-      <c r="B483" s="488" t="s">
+      <c r="B483" s="472" t="s">
         <v>337</v>
       </c>
       <c r="C483" s="101" t="s">
-        <v>4448</v>
+        <v>4447</v>
       </c>
       <c r="D483" s="74"/>
       <c r="E483" s="252" t="s">
-        <v>4449</v>
-      </c>
-      <c r="F483" s="500" t="s">
+        <v>4448</v>
+      </c>
+      <c r="F483" s="484" t="s">
         <v>3898</v>
       </c>
-      <c r="G483" s="456" t="s">
-        <v>4548</v>
+      <c r="G483" s="441" t="s">
+        <v>4543</v>
       </c>
       <c r="H483" s="201"/>
-      <c r="I483" s="461" t="s">
+      <c r="I483" s="446" t="s">
         <v>3489</v>
       </c>
       <c r="J483" s="38"/>
-      <c r="K483" s="490" t="s">
+      <c r="K483" s="474" t="s">
         <v>3490</v>
       </c>
       <c r="L483" s="58" t="s">
@@ -62226,7 +62183,7 @@
       <c r="AD483" s="13"/>
       <c r="AE483" s="175"/>
       <c r="AF483" s="28" t="s">
-        <v>4580</v>
+        <v>4574</v>
       </c>
       <c r="AG483" s="9"/>
       <c r="AH483" s="13"/>
@@ -62247,7 +62204,7 @@
       <c r="A484" s="101" t="s">
         <v>4281</v>
       </c>
-      <c r="B484" s="488" t="s">
+      <c r="B484" s="472" t="s">
         <v>337</v>
       </c>
       <c r="C484" s="195" t="s">
@@ -62257,12 +62214,12 @@
       <c r="E484" s="178" t="s">
         <v>4280</v>
       </c>
-      <c r="F484" s="544" t="s">
+      <c r="F484" s="528" t="s">
         <v>3844</v>
       </c>
-      <c r="G484" s="456"/>
+      <c r="G484" s="441"/>
       <c r="H484" s="201"/>
-      <c r="I484" s="407" t="s">
+      <c r="I484" s="393" t="s">
         <v>3498</v>
       </c>
       <c r="J484" s="318" t="s">
@@ -62325,7 +62282,7 @@
       <c r="A485" s="101" t="s">
         <v>3503</v>
       </c>
-      <c r="B485" s="488" t="s">
+      <c r="B485" s="472" t="s">
         <v>337</v>
       </c>
       <c r="C485" s="101" t="s">
@@ -62335,10 +62292,10 @@
       <c r="E485" s="252" t="s">
         <v>4282</v>
       </c>
-      <c r="F485" s="545" t="s">
-        <v>4497</v>
-      </c>
-      <c r="G485" s="442" t="s">
+      <c r="F485" s="482" t="s">
+        <v>4499</v>
+      </c>
+      <c r="G485" s="428" t="s">
         <v>2471</v>
       </c>
       <c r="H485" s="201"/>
@@ -62351,7 +62308,7 @@
       <c r="K485" s="95" t="s">
         <v>3506</v>
       </c>
-      <c r="L485" s="508" t="s">
+      <c r="L485" s="492" t="s">
         <v>2486</v>
       </c>
       <c r="M485" s="147"/>
@@ -62409,7 +62366,7 @@
       <c r="A486" s="101" t="s">
         <v>3512</v>
       </c>
-      <c r="B486" s="488" t="s">
+      <c r="B486" s="472" t="s">
         <v>337</v>
       </c>
       <c r="C486" s="291" t="s">
@@ -62417,15 +62374,15 @@
       </c>
       <c r="D486" s="74"/>
       <c r="E486" s="252" t="s">
-        <v>4495</v>
-      </c>
-      <c r="F486" s="532"/>
-      <c r="G486" s="457" t="s">
-        <v>4554</v>
+        <v>4494</v>
+      </c>
+      <c r="F486" s="516"/>
+      <c r="G486" s="442" t="s">
+        <v>4549</v>
       </c>
       <c r="H486" s="119"/>
       <c r="I486" s="139" t="s">
-        <v>4496</v>
+        <v>4495</v>
       </c>
       <c r="J486" s="38"/>
       <c r="K486" s="38" t="s">
@@ -62483,7 +62440,7 @@
       <c r="A487" s="101" t="s">
         <v>3518</v>
       </c>
-      <c r="B487" s="488" t="s">
+      <c r="B487" s="472" t="s">
         <v>337</v>
       </c>
       <c r="C487" s="101" t="s">
@@ -62493,10 +62450,10 @@
       <c r="E487" s="251" t="s">
         <v>4283</v>
       </c>
-      <c r="F487" s="545" t="s">
-        <v>4498</v>
-      </c>
-      <c r="G487" s="442" t="s">
+      <c r="F487" s="529" t="s">
+        <v>4733</v>
+      </c>
+      <c r="G487" s="428" t="s">
         <v>2471</v>
       </c>
       <c r="H487" s="201"/>
@@ -62506,7 +62463,7 @@
       <c r="J487" s="38" t="s">
         <v>3520</v>
       </c>
-      <c r="K487" s="490" t="s">
+      <c r="K487" s="474" t="s">
         <v>3521</v>
       </c>
       <c r="L487" s="58" t="s">
@@ -62561,7 +62518,7 @@
       <c r="A488" s="101" t="s">
         <v>4285</v>
       </c>
-      <c r="B488" s="488" t="s">
+      <c r="B488" s="472" t="s">
         <v>337</v>
       </c>
       <c r="C488" s="195" t="s">
@@ -62571,19 +62528,19 @@
       <c r="E488" s="74" t="s">
         <v>4284</v>
       </c>
-      <c r="F488" s="544" t="s">
+      <c r="F488" s="528" t="s">
         <v>3844</v>
       </c>
-      <c r="G488" s="456" t="s">
-        <v>4678</v>
+      <c r="G488" s="441" t="s">
+        <v>4671</v>
       </c>
       <c r="H488" s="201"/>
-      <c r="I488" s="407" t="s">
+      <c r="I488" s="393" t="s">
         <v>3523</v>
       </c>
       <c r="J488" s="38"/>
-      <c r="K488" s="507" t="s">
-        <v>4677</v>
+      <c r="K488" s="491" t="s">
+        <v>4670</v>
       </c>
       <c r="L488" s="59" t="s">
         <v>2355</v>
@@ -62599,7 +62556,7 @@
       <c r="Q488" s="17" t="s">
         <v>3524</v>
       </c>
-      <c r="R488" s="470" t="s">
+      <c r="R488" s="455" t="s">
         <v>742</v>
       </c>
       <c r="S488" s="17"/>
@@ -62645,7 +62602,7 @@
       <c r="A489" s="101" t="s">
         <v>4288</v>
       </c>
-      <c r="B489" s="488" t="s">
+      <c r="B489" s="472" t="s">
         <v>337</v>
       </c>
       <c r="C489" s="101" t="s">
@@ -62655,10 +62612,10 @@
       <c r="E489" s="266" t="s">
         <v>4287</v>
       </c>
-      <c r="F489" s="439" t="s">
-        <v>4497</v>
-      </c>
-      <c r="G489" s="442"/>
+      <c r="F489" s="482" t="s">
+        <v>4499</v>
+      </c>
+      <c r="G489" s="428"/>
       <c r="H489" s="201"/>
       <c r="I489" s="139" t="s">
         <v>3527</v>
@@ -62731,7 +62688,7 @@
       <c r="A490" s="101" t="s">
         <v>3535</v>
       </c>
-      <c r="B490" s="365" t="s">
+      <c r="B490" s="472" t="s">
         <v>337</v>
       </c>
       <c r="C490" s="205" t="s">
@@ -62741,10 +62698,10 @@
       <c r="E490" s="266" t="s">
         <v>4286</v>
       </c>
-      <c r="F490" s="357" t="s">
-        <v>4499</v>
-      </c>
-      <c r="G490" s="442" t="s">
+      <c r="F490" s="531" t="s">
+        <v>4496</v>
+      </c>
+      <c r="G490" s="428" t="s">
         <v>2471</v>
       </c>
       <c r="H490" s="13"/>
@@ -62760,7 +62717,7 @@
       <c r="L490" s="58" t="s">
         <v>3540</v>
       </c>
-      <c r="M490" s="511" t="s">
+      <c r="M490" s="495" t="s">
         <v>2776</v>
       </c>
       <c r="N490" s="147" t="s">
@@ -62821,7 +62778,7 @@
       <c r="A491" s="101" t="s">
         <v>3546</v>
       </c>
-      <c r="B491" s="488" t="s">
+      <c r="B491" s="472" t="s">
         <v>337</v>
       </c>
       <c r="C491" s="101" t="s">
@@ -62831,10 +62788,10 @@
       <c r="E491" s="266" t="s">
         <v>4289</v>
       </c>
-      <c r="F491" s="545" t="s">
-        <v>4500</v>
-      </c>
-      <c r="G491" s="442" t="s">
+      <c r="F491" s="529" t="s">
+        <v>4733</v>
+      </c>
+      <c r="G491" s="428" t="s">
         <v>2471</v>
       </c>
       <c r="H491" s="201"/>
@@ -62881,7 +62838,7 @@
       <c r="AA491" s="174" t="s">
         <v>2976</v>
       </c>
-      <c r="AB491" s="504" t="s">
+      <c r="AB491" s="488" t="s">
         <v>3552</v>
       </c>
       <c r="AC491" s="13"/>
@@ -62909,7 +62866,7 @@
       <c r="A492" s="101" t="s">
         <v>3554</v>
       </c>
-      <c r="B492" s="488" t="s">
+      <c r="B492" s="472" t="s">
         <v>337</v>
       </c>
       <c r="C492" s="101" t="s">
@@ -62919,10 +62876,10 @@
       <c r="E492" s="266" t="s">
         <v>4290</v>
       </c>
-      <c r="F492" s="545" t="s">
-        <v>4500</v>
-      </c>
-      <c r="G492" s="442" t="s">
+      <c r="F492" s="529" t="s">
+        <v>4733</v>
+      </c>
+      <c r="G492" s="428" t="s">
         <v>2471</v>
       </c>
       <c r="H492" s="201"/>
@@ -62995,7 +62952,7 @@
       <c r="A493" s="101" t="s">
         <v>3562</v>
       </c>
-      <c r="B493" s="365" t="s">
+      <c r="B493" s="358" t="s">
         <v>337</v>
       </c>
       <c r="C493" s="294" t="s">
@@ -63005,9 +62962,9 @@
       <c r="E493" s="266" t="s">
         <v>4103</v>
       </c>
-      <c r="F493" s="439"/>
-      <c r="G493" s="440" t="s">
-        <v>4571</v>
+      <c r="F493" s="425"/>
+      <c r="G493" s="426" t="s">
+        <v>4565</v>
       </c>
       <c r="H493" s="13"/>
       <c r="I493" s="98" t="s">
@@ -63068,10 +63025,10 @@
       <c r="AT493" s="38"/>
     </row>
     <row r="494" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A494" s="490" t="s">
+      <c r="A494" s="474" t="s">
         <v>3569</v>
       </c>
-      <c r="B494" s="488" t="s">
+      <c r="B494" s="472" t="s">
         <v>337</v>
       </c>
       <c r="C494" s="291" t="s">
@@ -63081,10 +63038,10 @@
       <c r="E494" s="251" t="s">
         <v>4102</v>
       </c>
-      <c r="F494" s="546" t="s">
-        <v>4499</v>
-      </c>
-      <c r="G494" s="442" t="s">
+      <c r="F494" s="530" t="s">
+        <v>4496</v>
+      </c>
+      <c r="G494" s="428" t="s">
         <v>2471</v>
       </c>
       <c r="H494" s="13"/>
@@ -63097,7 +63054,7 @@
       <c r="K494" s="38" t="s">
         <v>3572</v>
       </c>
-      <c r="L494" s="504" t="s">
+      <c r="L494" s="488" t="s">
         <v>2486</v>
       </c>
       <c r="M494" s="147"/>

--- a/indexation-estampes.xlsx
+++ b/indexation-estampes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annepiejus/Documents/Projets:Travaux/MERCURE GALANT/MG ÉDITIONS/mercure-galant-sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618D5496-AF75-634E-8E6F-D5B7022C39D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D91DC7F-5206-C54D-BA0E-D252E2147B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="2860" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -763,7 +763,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8248" uniqueCount="4734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8249" uniqueCount="4735">
   <si>
     <t>Provenance cliché</t>
   </si>
@@ -19582,12 +19582,15 @@
   <si>
     <t>non transcrit ; non mentionné dans la table</t>
   </si>
+  <si>
+    <t>&amp;&amp;&amp;&amp;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="182">
+  <fonts count="183">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -20833,6 +20836,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="40">
     <fill>
@@ -21166,7 +21176,7 @@
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="111" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="554">
+  <cellXfs count="533">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -22427,134 +22437,106 @@
     <xf numFmtId="0" fontId="174" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="177" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="100" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -22563,75 +22545,64 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="83" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="142" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="83" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="142" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="181" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="84" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="84" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="164" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -22863,7 +22834,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -22918,7 +22889,7 @@
       <c r="E1" s="247" t="s">
         <v>3748</v>
       </c>
-      <c r="F1" s="513" t="s">
+      <c r="F1" s="503" t="s">
         <v>3812</v>
       </c>
       <c r="G1" s="313" t="s">
@@ -23131,7 +23102,7 @@
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
-      <c r="U3" s="488" t="s">
+      <c r="U3" s="132" t="s">
         <v>41</v>
       </c>
       <c r="V3" s="18" t="s">
@@ -23193,10 +23164,10 @@
         <v>4038</v>
       </c>
       <c r="F4" s="235"/>
-      <c r="G4" s="533" t="s">
+      <c r="G4" s="515" t="s">
         <v>4368</v>
       </c>
-      <c r="H4" s="536" t="s">
+      <c r="H4" s="518" t="s">
         <v>3830</v>
       </c>
       <c r="I4" s="392" t="s">
@@ -23227,7 +23198,7 @@
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
-      <c r="U4" s="505" t="s">
+      <c r="U4" s="370" t="s">
         <v>32</v>
       </c>
       <c r="V4" s="18" t="s">
@@ -23285,7 +23256,7 @@
         <v>4038</v>
       </c>
       <c r="F5" s="210"/>
-      <c r="G5" s="533"/>
+      <c r="G5" s="515"/>
       <c r="H5" s="6"/>
       <c r="I5" s="392" t="s">
         <v>63</v>
@@ -23360,14 +23331,14 @@
       <c r="C6" s="205" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="479" t="s">
+      <c r="D6" s="474" t="s">
         <v>75</v>
       </c>
       <c r="E6" s="248" t="s">
         <v>4038</v>
       </c>
       <c r="F6" s="211"/>
-      <c r="G6" s="474" t="s">
+      <c r="G6" s="296" t="s">
         <v>3994</v>
       </c>
       <c r="H6" s="22" t="s">
@@ -23397,7 +23368,7 @@
       <c r="R6" s="24"/>
       <c r="S6" s="24"/>
       <c r="T6" s="24"/>
-      <c r="U6" s="488" t="s">
+      <c r="U6" s="132" t="s">
         <v>41</v>
       </c>
       <c r="V6" s="18" t="s">
@@ -23450,7 +23421,7 @@
       </c>
       <c r="F7" s="245"/>
       <c r="G7" s="353"/>
-      <c r="H7" s="481"/>
+      <c r="H7" s="476"/>
       <c r="I7" s="390" t="s">
         <v>86</v>
       </c>
@@ -23473,7 +23444,7 @@
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
       <c r="T7" s="17"/>
-      <c r="U7" s="488" t="s">
+      <c r="U7" s="132" t="s">
         <v>41</v>
       </c>
       <c r="V7" s="18" t="s">
@@ -23526,9 +23497,9 @@
       <c r="E8" s="278" t="s">
         <v>4436</v>
       </c>
-      <c r="F8" s="480"/>
+      <c r="F8" s="475"/>
       <c r="G8" s="228"/>
-      <c r="H8" s="488"/>
+      <c r="H8" s="132"/>
       <c r="I8" s="5" t="s">
         <v>91</v>
       </c>
@@ -23548,7 +23519,7 @@
       <c r="Q8" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="R8" s="502"/>
+      <c r="R8" s="493"/>
       <c r="S8" s="163" t="s">
         <v>96</v>
       </c>
@@ -23601,7 +23572,7 @@
       <c r="B9" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="477" t="s">
+      <c r="C9" s="472" t="s">
         <v>102</v>
       </c>
       <c r="D9" s="73" t="s">
@@ -23641,7 +23612,7 @@
       <c r="R9" s="25"/>
       <c r="S9" s="25"/>
       <c r="T9" s="25"/>
-      <c r="U9" s="488" t="s">
+      <c r="U9" s="132" t="s">
         <v>41</v>
       </c>
       <c r="V9" s="18" t="s">
@@ -23681,7 +23652,7 @@
       <c r="B10" s="409" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="477" t="s">
+      <c r="C10" s="472" t="s">
         <v>112</v>
       </c>
       <c r="D10" s="71"/>
@@ -23795,7 +23766,7 @@
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
       <c r="T11" s="24"/>
-      <c r="U11" s="488" t="s">
+      <c r="U11" s="132" t="s">
         <v>127</v>
       </c>
       <c r="V11" s="18" t="s">
@@ -23871,10 +23842,10 @@
       <c r="P12" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="Q12" s="503" t="s">
+      <c r="Q12" s="494" t="s">
         <v>134</v>
       </c>
-      <c r="R12" s="503"/>
+      <c r="R12" s="494"/>
       <c r="S12" s="153"/>
       <c r="T12" s="163"/>
       <c r="U12" s="132" t="s">
@@ -23924,7 +23895,6 @@
       <c r="E13" s="278" t="s">
         <v>4435</v>
       </c>
-      <c r="F13" s="530"/>
       <c r="G13" s="323"/>
       <c r="H13" s="201"/>
       <c r="I13" s="5" t="s">
@@ -23953,7 +23923,7 @@
       <c r="R13" s="29"/>
       <c r="S13" s="29"/>
       <c r="T13" s="29"/>
-      <c r="U13" s="488" t="s">
+      <c r="U13" s="132" t="s">
         <v>143</v>
       </c>
       <c r="V13" s="13" t="s">
@@ -24029,7 +23999,7 @@
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="24"/>
-      <c r="U14" s="488" t="s">
+      <c r="U14" s="132" t="s">
         <v>41</v>
       </c>
       <c r="V14" s="30" t="s">
@@ -24191,7 +24161,7 @@
       <c r="R16" s="17"/>
       <c r="S16" s="17"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="488" t="s">
+      <c r="U16" s="132" t="s">
         <v>169</v>
       </c>
       <c r="V16" s="13" t="s">
@@ -24351,7 +24321,7 @@
         <v>3789</v>
       </c>
       <c r="F18" s="208"/>
-      <c r="G18" s="486" t="s">
+      <c r="G18" s="480" t="s">
         <v>4502</v>
       </c>
       <c r="H18" s="13" t="s">
@@ -24445,7 +24415,7 @@
         <v>3789</v>
       </c>
       <c r="F19" s="208"/>
-      <c r="G19" s="486" t="s">
+      <c r="G19" s="480" t="s">
         <v>4502</v>
       </c>
       <c r="H19" s="13" t="s">
@@ -24539,7 +24509,7 @@
         <v>3789</v>
       </c>
       <c r="F20" s="208"/>
-      <c r="G20" s="486" t="s">
+      <c r="G20" s="480" t="s">
         <v>4502</v>
       </c>
       <c r="H20" s="13" t="s">
@@ -24569,7 +24539,7 @@
       <c r="R20" s="17"/>
       <c r="S20" s="17"/>
       <c r="T20" s="17"/>
-      <c r="U20" s="488" t="s">
+      <c r="U20" s="132" t="s">
         <v>169</v>
       </c>
       <c r="V20" s="13" t="s">
@@ -24657,7 +24627,7 @@
       <c r="R21" s="33"/>
       <c r="S21" s="33"/>
       <c r="T21" s="33"/>
-      <c r="U21" s="488" t="s">
+      <c r="U21" s="132" t="s">
         <v>169</v>
       </c>
       <c r="V21" s="13" t="s">
@@ -24749,7 +24719,7 @@
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="24"/>
-      <c r="U22" s="474" t="s">
+      <c r="U22" s="296" t="s">
         <v>127</v>
       </c>
       <c r="V22" s="13" t="s">
@@ -24878,7 +24848,9 @@
       <c r="C24" s="302" t="s">
         <v>223</v>
       </c>
-      <c r="D24" s="137"/>
+      <c r="D24" s="532" t="s">
+        <v>4734</v>
+      </c>
       <c r="E24" s="278" t="s">
         <v>4434</v>
       </c>
@@ -25293,7 +25265,7 @@
       <c r="F29" s="85" t="s">
         <v>3844</v>
       </c>
-      <c r="G29" s="485"/>
+      <c r="G29" s="352"/>
       <c r="H29" s="201"/>
       <c r="I29" s="392" t="s">
         <v>271</v>
@@ -25321,7 +25293,7 @@
       <c r="R29" s="24"/>
       <c r="S29" s="24"/>
       <c r="T29" s="24"/>
-      <c r="U29" s="493" t="s">
+      <c r="U29" s="486" t="s">
         <v>127</v>
       </c>
       <c r="V29" s="13" t="s">
@@ -25363,7 +25335,7 @@
       <c r="B30" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="C30" s="477" t="s">
+      <c r="C30" s="472" t="s">
         <v>241</v>
       </c>
       <c r="D30" s="78"/>
@@ -25534,11 +25506,11 @@
       <c r="E32" s="278" t="s">
         <v>4432</v>
       </c>
-      <c r="F32" s="483"/>
-      <c r="G32" s="532" t="s">
+      <c r="F32" s="478"/>
+      <c r="G32" s="133" t="s">
         <v>4546</v>
       </c>
-      <c r="H32" s="488" t="s">
+      <c r="H32" s="132" t="s">
         <v>3706</v>
       </c>
       <c r="I32" s="139" t="s">
@@ -25701,7 +25673,7 @@
       <c r="B34" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="517" t="s">
+      <c r="C34" s="288" t="s">
         <v>3976</v>
       </c>
       <c r="D34" s="74"/>
@@ -25765,7 +25737,7 @@
       <c r="AF34" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="AG34" s="549"/>
+      <c r="AG34" s="528"/>
       <c r="AH34" s="13"/>
       <c r="AI34" s="13"/>
       <c r="AJ34" s="13"/>
@@ -25787,7 +25759,7 @@
       <c r="B35" s="38" t="s">
         <v>312</v>
       </c>
-      <c r="C35" s="477" t="s">
+      <c r="C35" s="472" t="s">
         <v>313</v>
       </c>
       <c r="D35" s="73" t="s">
@@ -25982,7 +25954,7 @@
       <c r="Q37" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="R37" s="502" t="s">
+      <c r="R37" s="493" t="s">
         <v>325</v>
       </c>
       <c r="S37" s="338"/>
@@ -26039,7 +26011,7 @@
       <c r="F38" s="85" t="s">
         <v>4498</v>
       </c>
-      <c r="G38" s="485" t="s">
+      <c r="G38" s="352" t="s">
         <v>4522</v>
       </c>
       <c r="H38" s="201"/>
@@ -26064,7 +26036,7 @@
       <c r="Q38" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="R38" s="504"/>
+      <c r="R38" s="495"/>
       <c r="S38" s="96"/>
       <c r="T38" s="24"/>
       <c r="U38" s="13" t="s">
@@ -26107,7 +26079,7 @@
       <c r="B39" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="476" t="s">
+      <c r="C39" s="471" t="s">
         <v>3918</v>
       </c>
       <c r="D39" s="73" t="s">
@@ -26267,7 +26239,7 @@
       <c r="B41" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="521" t="s">
+      <c r="C41" s="507" t="s">
         <v>3832</v>
       </c>
       <c r="D41" s="74"/>
@@ -26519,7 +26491,7 @@
       <c r="J44" s="38" t="s">
         <v>368</v>
       </c>
-      <c r="K44" s="472" t="s">
+      <c r="K44" s="358" t="s">
         <v>369</v>
       </c>
       <c r="L44" s="19" t="s">
@@ -26583,7 +26555,7 @@
         <v>4291</v>
       </c>
       <c r="F45" s="208"/>
-      <c r="G45" s="534" t="s">
+      <c r="G45" s="516" t="s">
         <v>4012</v>
       </c>
       <c r="H45" s="13"/>
@@ -26661,7 +26633,7 @@
       <c r="F46" s="85" t="s">
         <v>3844</v>
       </c>
-      <c r="G46" s="485"/>
+      <c r="G46" s="352"/>
       <c r="H46" s="201"/>
       <c r="I46" s="5" t="s">
         <v>379</v>
@@ -26826,7 +26798,7 @@
       <c r="I48" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="J48" s="474"/>
+      <c r="J48" s="296"/>
       <c r="K48" s="38" t="s">
         <v>395</v>
       </c>
@@ -26836,13 +26808,13 @@
       <c r="M48" s="147"/>
       <c r="N48" s="147"/>
       <c r="O48" s="147"/>
-      <c r="P48" s="498" t="s">
+      <c r="P48" s="490" t="s">
         <v>397</v>
       </c>
       <c r="Q48" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="R48" s="504" t="s">
+      <c r="R48" s="495" t="s">
         <v>399</v>
       </c>
       <c r="S48" s="96"/>
@@ -26871,7 +26843,7 @@
       <c r="AC48" s="13"/>
       <c r="AD48" s="13"/>
       <c r="AE48" s="89"/>
-      <c r="AF48" s="488"/>
+      <c r="AF48" s="132"/>
       <c r="AG48" s="13"/>
       <c r="AH48" s="13"/>
       <c r="AI48" s="13"/>
@@ -26894,7 +26866,7 @@
       <c r="B49" s="95" t="s">
         <v>403</v>
       </c>
-      <c r="C49" s="477" t="s">
+      <c r="C49" s="472" t="s">
         <v>404</v>
       </c>
       <c r="D49" s="137"/>
@@ -26925,7 +26897,7 @@
       <c r="Q49" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="R49" s="504"/>
+      <c r="R49" s="495"/>
       <c r="S49" s="97" t="s">
         <v>411</v>
       </c>
@@ -27015,7 +26987,7 @@
       <c r="Q50" s="24" t="s">
         <v>421</v>
       </c>
-      <c r="R50" s="504"/>
+      <c r="R50" s="495"/>
       <c r="S50" s="96"/>
       <c r="T50" s="89"/>
       <c r="U50" s="19" t="s">
@@ -27229,7 +27201,7 @@
       <c r="C53" s="205" t="s">
         <v>3833</v>
       </c>
-      <c r="D53" s="527"/>
+      <c r="D53" s="512"/>
       <c r="E53" s="347" t="s">
         <v>4292</v>
       </c>
@@ -27314,7 +27286,7 @@
       <c r="B54" s="95" t="s">
         <v>453</v>
       </c>
-      <c r="C54" s="477" t="s">
+      <c r="C54" s="472" t="s">
         <v>430</v>
       </c>
       <c r="D54" s="74"/>
@@ -28194,7 +28166,7 @@
       <c r="F65" s="231" t="s">
         <v>3844</v>
       </c>
-      <c r="G65" s="534"/>
+      <c r="G65" s="516"/>
       <c r="H65" s="13"/>
       <c r="I65" s="139" t="s">
         <v>531</v>
@@ -28274,7 +28246,7 @@
         <v>4293</v>
       </c>
       <c r="F66" s="208"/>
-      <c r="G66" s="474" t="s">
+      <c r="G66" s="296" t="s">
         <v>3994</v>
       </c>
       <c r="H66" s="13" t="s">
@@ -28283,7 +28255,7 @@
       <c r="I66" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="J66" s="474" t="s">
+      <c r="J66" s="296" t="s">
         <v>542</v>
       </c>
       <c r="K66" s="38" t="s">
@@ -28467,7 +28439,7 @@
       <c r="Q68" s="17" t="s">
         <v>561</v>
       </c>
-      <c r="R68" s="502"/>
+      <c r="R68" s="493"/>
       <c r="S68" s="97"/>
       <c r="T68" s="17"/>
       <c r="U68" s="13" t="s">
@@ -28917,7 +28889,7 @@
       <c r="A74" s="95" t="s">
         <v>3939</v>
       </c>
-      <c r="B74" s="474" t="s">
+      <c r="B74" s="296" t="s">
         <v>35</v>
       </c>
       <c r="C74" s="205" t="s">
@@ -28953,10 +28925,10 @@
       <c r="Q74" s="24" t="s">
         <v>616</v>
       </c>
-      <c r="R74" s="504"/>
+      <c r="R74" s="495"/>
       <c r="S74" s="96"/>
       <c r="T74" s="96"/>
-      <c r="U74" s="488" t="s">
+      <c r="U74" s="132" t="s">
         <v>596</v>
       </c>
       <c r="V74" s="13" t="s">
@@ -28999,7 +28971,7 @@
       <c r="C75" s="195" t="s">
         <v>3589</v>
       </c>
-      <c r="D75" s="478"/>
+      <c r="D75" s="473"/>
       <c r="E75" s="250" t="s">
         <v>4310</v>
       </c>
@@ -29032,7 +29004,7 @@
       <c r="R75" s="24"/>
       <c r="S75" s="24"/>
       <c r="T75" s="24"/>
-      <c r="U75" s="488" t="s">
+      <c r="U75" s="132" t="s">
         <v>41</v>
       </c>
       <c r="V75" s="13" t="s">
@@ -29064,7 +29036,7 @@
       <c r="AT75" s="13"/>
     </row>
     <row r="76" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A76" s="469" t="s">
+      <c r="A76" s="466" t="s">
         <v>623</v>
       </c>
       <c r="B76" s="38" t="s">
@@ -29106,7 +29078,7 @@
       <c r="T76" s="29" t="s">
         <v>632</v>
       </c>
-      <c r="U76" s="505" t="s">
+      <c r="U76" s="370" t="s">
         <v>32</v>
       </c>
       <c r="V76" s="13" t="s">
@@ -29184,7 +29156,7 @@
       <c r="T77" s="29" t="s">
         <v>642</v>
       </c>
-      <c r="U77" s="488" t="s">
+      <c r="U77" s="132" t="s">
         <v>477</v>
       </c>
       <c r="V77" s="13" t="s">
@@ -29227,7 +29199,7 @@
       <c r="C78" s="95" t="s">
         <v>644</v>
       </c>
-      <c r="D78" s="478"/>
+      <c r="D78" s="473"/>
       <c r="E78" s="250" t="s">
         <v>4296</v>
       </c>
@@ -29262,7 +29234,7 @@
       <c r="R78" s="24"/>
       <c r="S78" s="24"/>
       <c r="T78" s="24"/>
-      <c r="U78" s="488" t="s">
+      <c r="U78" s="132" t="s">
         <v>41</v>
       </c>
       <c r="V78" s="13" t="s">
@@ -29338,7 +29310,7 @@
       <c r="T79" s="25" t="s">
         <v>655</v>
       </c>
-      <c r="U79" s="488" t="s">
+      <c r="U79" s="132" t="s">
         <v>656</v>
       </c>
       <c r="V79" s="13" t="s">
@@ -29586,7 +29558,7 @@
       <c r="T82" s="24" t="s">
         <v>680</v>
       </c>
-      <c r="U82" s="488" t="s">
+      <c r="U82" s="132" t="s">
         <v>41</v>
       </c>
       <c r="V82" s="13" t="s">
@@ -29662,7 +29634,7 @@
       <c r="T83" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="U83" s="474" t="s">
+      <c r="U83" s="296" t="s">
         <v>686</v>
       </c>
       <c r="V83" s="13" t="s">
@@ -29781,7 +29753,6 @@
       <c r="C85" s="95" t="s">
         <v>695</v>
       </c>
-      <c r="D85" s="523"/>
       <c r="E85" s="333" t="s">
         <v>4297</v>
       </c>
@@ -29818,7 +29789,7 @@
       <c r="R85" s="24"/>
       <c r="S85" s="24"/>
       <c r="T85" s="24"/>
-      <c r="U85" s="488" t="s">
+      <c r="U85" s="132" t="s">
         <v>41</v>
       </c>
       <c r="V85" s="13" t="s">
@@ -29896,7 +29867,7 @@
       <c r="T86" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="U86" s="500" t="s">
+      <c r="U86" s="292" t="s">
         <v>335</v>
       </c>
       <c r="V86" s="13" t="s">
@@ -29972,7 +29943,7 @@
       <c r="T87" s="29" t="s">
         <v>712</v>
       </c>
-      <c r="U87" s="488" t="s">
+      <c r="U87" s="132" t="s">
         <v>477</v>
       </c>
       <c r="V87" s="13" t="s">
@@ -30058,7 +30029,7 @@
       <c r="R88" s="24"/>
       <c r="S88" s="24"/>
       <c r="T88" s="24"/>
-      <c r="U88" s="488" t="s">
+      <c r="U88" s="132" t="s">
         <v>41</v>
       </c>
       <c r="V88" s="13" t="s">
@@ -30105,7 +30076,7 @@
       <c r="E89" s="250" t="s">
         <v>4299</v>
       </c>
-      <c r="F89" s="480"/>
+      <c r="F89" s="475"/>
       <c r="G89" s="228"/>
       <c r="H89" s="13"/>
       <c r="I89" s="139" t="s">
@@ -30136,7 +30107,7 @@
       <c r="T89" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="U89" s="488" t="s">
+      <c r="U89" s="132" t="s">
         <v>477</v>
       </c>
       <c r="V89" s="13" t="s">
@@ -30183,11 +30154,11 @@
       <c r="C90" s="287" t="s">
         <v>735</v>
       </c>
-      <c r="D90" s="478"/>
+      <c r="D90" s="473"/>
       <c r="E90" s="250" t="s">
         <v>4299</v>
       </c>
-      <c r="F90" s="480"/>
+      <c r="F90" s="475"/>
       <c r="G90" s="317"/>
       <c r="H90" s="356"/>
       <c r="I90" s="5" t="s">
@@ -30218,7 +30189,7 @@
       <c r="T90" s="24" t="s">
         <v>743</v>
       </c>
-      <c r="U90" s="488" t="s">
+      <c r="U90" s="132" t="s">
         <v>477</v>
       </c>
       <c r="V90" s="13" t="s">
@@ -30262,20 +30233,20 @@
       <c r="B91" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C91" s="477" t="s">
+      <c r="C91" s="472" t="s">
         <v>3834</v>
       </c>
-      <c r="D91" s="479" t="s">
+      <c r="D91" s="474" t="s">
         <v>746</v>
       </c>
       <c r="E91" s="290" t="s">
         <v>4299</v>
       </c>
-      <c r="F91" s="480"/>
+      <c r="F91" s="475"/>
       <c r="G91" s="126" t="s">
         <v>3994</v>
       </c>
-      <c r="H91" s="488"/>
+      <c r="H91" s="132"/>
       <c r="I91" s="5" t="s">
         <v>747</v>
       </c>
@@ -30300,13 +30271,13 @@
       <c r="R91" s="24"/>
       <c r="S91" s="24"/>
       <c r="T91" s="24"/>
-      <c r="U91" s="488" t="s">
+      <c r="U91" s="132" t="s">
         <v>41</v>
       </c>
       <c r="V91" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="W91" s="505" t="s">
+      <c r="W91" s="370" t="s">
         <v>751</v>
       </c>
       <c r="X91" s="13"/>
@@ -30380,7 +30351,7 @@
       <c r="T92" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="U92" s="488" t="s">
+      <c r="U92" s="132" t="s">
         <v>41</v>
       </c>
       <c r="V92" s="13" t="s">
@@ -30418,7 +30389,7 @@
       <c r="B93" s="38" t="s">
         <v>428</v>
       </c>
-      <c r="C93" s="522" t="s">
+      <c r="C93" s="508" t="s">
         <v>3966</v>
       </c>
       <c r="D93" s="74"/>
@@ -30460,7 +30431,7 @@
       <c r="T93" s="33" t="s">
         <v>3714</v>
       </c>
-      <c r="U93" s="488" t="s">
+      <c r="U93" s="132" t="s">
         <v>477</v>
       </c>
       <c r="V93" s="13" t="s">
@@ -30500,7 +30471,7 @@
       <c r="B94" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C94" s="477" t="s">
+      <c r="C94" s="472" t="s">
         <v>767</v>
       </c>
       <c r="D94" s="74"/>
@@ -30534,7 +30505,7 @@
       <c r="R94" s="24"/>
       <c r="S94" s="24"/>
       <c r="T94" s="24"/>
-      <c r="U94" s="505" t="s">
+      <c r="U94" s="370" t="s">
         <v>32</v>
       </c>
       <c r="V94" s="13" t="s">
@@ -30648,18 +30619,18 @@
       <c r="B96" s="95" t="s">
         <v>393</v>
       </c>
-      <c r="C96" s="477" t="s">
+      <c r="C96" s="472" t="s">
         <v>746</v>
       </c>
-      <c r="D96" s="478"/>
+      <c r="D96" s="473"/>
       <c r="E96" s="250" t="s">
         <v>4311</v>
       </c>
-      <c r="F96" s="480"/>
+      <c r="F96" s="475"/>
       <c r="G96" s="38" t="s">
         <v>3994</v>
       </c>
-      <c r="H96" s="488"/>
+      <c r="H96" s="132"/>
       <c r="I96" s="5" t="s">
         <v>778</v>
       </c>
@@ -30684,7 +30655,7 @@
       <c r="R96" s="24"/>
       <c r="S96" s="24"/>
       <c r="T96" s="24"/>
-      <c r="U96" s="488" t="s">
+      <c r="U96" s="132" t="s">
         <v>41</v>
       </c>
       <c r="V96" s="13" t="s">
@@ -30758,7 +30729,7 @@
       <c r="R97" s="24"/>
       <c r="S97" s="24"/>
       <c r="T97" s="24"/>
-      <c r="U97" s="505" t="s">
+      <c r="U97" s="370" t="s">
         <v>32</v>
       </c>
       <c r="V97" s="13" t="s">
@@ -30832,7 +30803,7 @@
       <c r="R98" s="24"/>
       <c r="S98" s="24"/>
       <c r="T98" s="24"/>
-      <c r="U98" s="500" t="s">
+      <c r="U98" s="292" t="s">
         <v>335</v>
       </c>
       <c r="V98" s="13" t="s">
@@ -30870,7 +30841,7 @@
       <c r="B99" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C99" s="515" t="s">
+      <c r="C99" s="105" t="s">
         <v>3969</v>
       </c>
       <c r="D99" s="73" t="s">
@@ -30908,7 +30879,7 @@
       <c r="R99" s="24"/>
       <c r="S99" s="24"/>
       <c r="T99" s="24"/>
-      <c r="U99" s="488" t="s">
+      <c r="U99" s="132" t="s">
         <v>41</v>
       </c>
       <c r="V99" s="13" t="s">
@@ -30946,7 +30917,7 @@
       <c r="B100" s="38" t="s">
         <v>798</v>
       </c>
-      <c r="C100" s="477" t="s">
+      <c r="C100" s="472" t="s">
         <v>799</v>
       </c>
       <c r="D100" s="74"/>
@@ -30980,7 +30951,7 @@
       <c r="R100" s="24"/>
       <c r="S100" s="24"/>
       <c r="T100" s="24"/>
-      <c r="U100" s="500" t="s">
+      <c r="U100" s="292" t="s">
         <v>335</v>
       </c>
       <c r="V100" s="13" t="s">
@@ -31102,7 +31073,7 @@
       <c r="B102" s="38" t="s">
         <v>817</v>
       </c>
-      <c r="C102" s="477" t="s">
+      <c r="C102" s="472" t="s">
         <v>793</v>
       </c>
       <c r="D102" s="74"/>
@@ -31140,7 +31111,7 @@
       <c r="R102" s="24"/>
       <c r="S102" s="24"/>
       <c r="T102" s="24"/>
-      <c r="U102" s="488" t="s">
+      <c r="U102" s="132" t="s">
         <v>41</v>
       </c>
       <c r="V102" s="13" t="s">
@@ -31220,7 +31191,7 @@
       <c r="T103" s="25" t="s">
         <v>829</v>
       </c>
-      <c r="U103" s="488" t="s">
+      <c r="U103" s="132" t="s">
         <v>477</v>
       </c>
       <c r="V103" s="13" t="s">
@@ -31302,7 +31273,7 @@
       <c r="R104" s="17"/>
       <c r="S104" s="17"/>
       <c r="T104" s="17"/>
-      <c r="U104" s="500" t="s">
+      <c r="U104" s="292" t="s">
         <v>335</v>
       </c>
       <c r="V104" s="13" t="s">
@@ -31384,7 +31355,7 @@
       <c r="T105" s="33" t="s">
         <v>848</v>
       </c>
-      <c r="U105" s="488" t="s">
+      <c r="U105" s="132" t="s">
         <v>477</v>
       </c>
       <c r="V105" s="13" t="s">
@@ -31424,7 +31395,7 @@
       <c r="B106" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C106" s="476" t="s">
+      <c r="C106" s="471" t="s">
         <v>850</v>
       </c>
       <c r="D106" s="74"/>
@@ -31460,7 +31431,7 @@
       <c r="R106" s="17"/>
       <c r="S106" s="17"/>
       <c r="T106" s="17"/>
-      <c r="U106" s="488" t="s">
+      <c r="U106" s="132" t="s">
         <v>41</v>
       </c>
       <c r="V106" s="13" t="s">
@@ -31538,7 +31509,7 @@
       <c r="T107" s="33" t="s">
         <v>861</v>
       </c>
-      <c r="U107" s="488" t="s">
+      <c r="U107" s="132" t="s">
         <v>862</v>
       </c>
       <c r="V107" s="13" t="s">
@@ -31634,7 +31605,7 @@
       <c r="T108" s="17" t="s">
         <v>871</v>
       </c>
-      <c r="U108" s="500" t="s">
+      <c r="U108" s="292" t="s">
         <v>872</v>
       </c>
       <c r="V108" s="35" t="s">
@@ -31715,10 +31686,10 @@
       <c r="Q109" s="17" t="s">
         <v>877</v>
       </c>
-      <c r="R109" s="502"/>
+      <c r="R109" s="493"/>
       <c r="S109" s="97"/>
       <c r="T109" s="17"/>
-      <c r="U109" s="505" t="s">
+      <c r="U109" s="370" t="s">
         <v>32</v>
       </c>
       <c r="V109" s="13" t="s">
@@ -31773,7 +31744,7 @@
       <c r="I110" s="139" t="s">
         <v>879</v>
       </c>
-      <c r="J110" s="474"/>
+      <c r="J110" s="296"/>
       <c r="K110" s="38" t="s">
         <v>880</v>
       </c>
@@ -31798,7 +31769,7 @@
       <c r="T110" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="U110" s="505" t="s">
+      <c r="U110" s="370" t="s">
         <v>32</v>
       </c>
       <c r="V110" s="13" t="s">
@@ -31946,7 +31917,7 @@
       <c r="R112" s="17"/>
       <c r="S112" s="17"/>
       <c r="T112" s="17"/>
-      <c r="U112" s="488" t="s">
+      <c r="U112" s="132" t="s">
         <v>41</v>
       </c>
       <c r="V112" s="13" t="s">
@@ -32024,7 +31995,7 @@
       <c r="T113" s="33" t="s">
         <v>906</v>
       </c>
-      <c r="U113" s="488" t="s">
+      <c r="U113" s="132" t="s">
         <v>477</v>
       </c>
       <c r="V113" s="13" t="s">
@@ -32266,7 +32237,7 @@
       <c r="R116" s="17"/>
       <c r="S116" s="17"/>
       <c r="T116" s="17"/>
-      <c r="U116" s="505" t="s">
+      <c r="U116" s="370" t="s">
         <v>32</v>
       </c>
       <c r="V116" s="13" t="s">
@@ -32344,7 +32315,7 @@
       <c r="T117" s="33" t="s">
         <v>942</v>
       </c>
-      <c r="U117" s="488" t="s">
+      <c r="U117" s="132" t="s">
         <v>477</v>
       </c>
       <c r="V117" s="13" t="s">
@@ -32428,7 +32399,7 @@
       <c r="T118" s="29" t="s">
         <v>954</v>
       </c>
-      <c r="U118" s="474" t="s">
+      <c r="U118" s="296" t="s">
         <v>955</v>
       </c>
       <c r="V118" s="13" t="s">
@@ -32502,7 +32473,7 @@
       <c r="R119" s="24"/>
       <c r="S119" s="24"/>
       <c r="T119" s="24"/>
-      <c r="U119" s="505" t="s">
+      <c r="U119" s="370" t="s">
         <v>32</v>
       </c>
       <c r="V119" s="13" t="s">
@@ -32581,10 +32552,10 @@
       <c r="Q120" s="24" t="s">
         <v>971</v>
       </c>
-      <c r="R120" s="504"/>
+      <c r="R120" s="495"/>
       <c r="S120" s="96"/>
       <c r="T120" s="24"/>
-      <c r="U120" s="488" t="s">
+      <c r="U120" s="132" t="s">
         <v>41</v>
       </c>
       <c r="V120" s="13" t="s">
@@ -32652,17 +32623,17 @@
       <c r="P121" s="23" t="s">
         <v>792</v>
       </c>
-      <c r="Q121" s="504" t="s">
+      <c r="Q121" s="495" t="s">
         <v>29</v>
       </c>
-      <c r="R121" s="504"/>
+      <c r="R121" s="495"/>
       <c r="S121" s="163" t="s">
         <v>975</v>
       </c>
       <c r="T121" s="96" t="s">
         <v>976</v>
       </c>
-      <c r="U121" s="500" t="s">
+      <c r="U121" s="292" t="s">
         <v>335</v>
       </c>
       <c r="V121" s="13" t="s">
@@ -32826,7 +32797,7 @@
       <c r="T123" s="24" t="s">
         <v>998</v>
       </c>
-      <c r="U123" s="500" t="s">
+      <c r="U123" s="292" t="s">
         <v>335</v>
       </c>
       <c r="V123" s="13" t="s">
@@ -32902,7 +32873,7 @@
       <c r="R124" s="24"/>
       <c r="S124" s="24"/>
       <c r="T124" s="24"/>
-      <c r="U124" s="488" t="s">
+      <c r="U124" s="132" t="s">
         <v>41</v>
       </c>
       <c r="V124" s="13" t="s">
@@ -33063,7 +33034,7 @@
       <c r="M126" s="147"/>
       <c r="N126" s="147"/>
       <c r="O126" s="147"/>
-      <c r="P126" s="493" t="s">
+      <c r="P126" s="486" t="s">
         <v>1022</v>
       </c>
       <c r="Q126" s="26" t="s">
@@ -33137,7 +33108,7 @@
       <c r="M127" s="147"/>
       <c r="N127" s="147"/>
       <c r="O127" s="147"/>
-      <c r="P127" s="496" t="s">
+      <c r="P127" s="489" t="s">
         <v>603</v>
       </c>
       <c r="Q127" s="26" t="s">
@@ -33150,7 +33121,7 @@
       <c r="T127" s="17" t="s">
         <v>1029</v>
       </c>
-      <c r="U127" s="488" t="s">
+      <c r="U127" s="132" t="s">
         <v>477</v>
       </c>
       <c r="V127" s="9" t="s">
@@ -33229,7 +33200,7 @@
       <c r="Q128" s="17" t="s">
         <v>1038</v>
       </c>
-      <c r="R128" s="502"/>
+      <c r="R128" s="493"/>
       <c r="S128" s="97"/>
       <c r="T128" s="17"/>
       <c r="U128" s="132" t="s">
@@ -33297,20 +33268,20 @@
       <c r="M129" s="147"/>
       <c r="N129" s="147"/>
       <c r="O129" s="147"/>
-      <c r="P129" s="488" t="s">
+      <c r="P129" s="132" t="s">
         <v>511</v>
       </c>
       <c r="Q129" s="24" t="s">
         <v>1045</v>
       </c>
-      <c r="R129" s="504"/>
+      <c r="R129" s="495"/>
       <c r="S129" s="163" t="s">
         <v>1046</v>
       </c>
       <c r="T129" s="24" t="s">
         <v>1047</v>
       </c>
-      <c r="U129" s="544" t="s">
+      <c r="U129" s="524" t="s">
         <v>1048</v>
       </c>
       <c r="V129" s="13" t="s">
@@ -33379,14 +33350,14 @@
       <c r="Q130" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="R130" s="504"/>
+      <c r="R130" s="495"/>
       <c r="S130" s="163" t="s">
         <v>1054</v>
       </c>
       <c r="T130" s="24" t="s">
         <v>1055</v>
       </c>
-      <c r="U130" s="500" t="s">
+      <c r="U130" s="292" t="s">
         <v>335</v>
       </c>
       <c r="V130" s="13" t="s">
@@ -33617,7 +33588,7 @@
       <c r="Q133" s="24" t="s">
         <v>1072</v>
       </c>
-      <c r="R133" s="504"/>
+      <c r="R133" s="495"/>
       <c r="S133" s="96"/>
       <c r="T133" s="24" t="s">
         <v>3797</v>
@@ -33882,7 +33853,7 @@
       <c r="V136" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="W136" s="515" t="s">
+      <c r="W136" s="105" t="s">
         <v>3785</v>
       </c>
       <c r="X136" s="13"/>
@@ -33947,10 +33918,10 @@
       <c r="Q137" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="R137" s="504"/>
+      <c r="R137" s="495"/>
       <c r="S137" s="96"/>
       <c r="T137" s="24"/>
-      <c r="U137" s="500" t="s">
+      <c r="U137" s="292" t="s">
         <v>335</v>
       </c>
       <c r="V137" s="35" t="s">
@@ -34030,7 +34001,7 @@
       <c r="T138" s="24" t="s">
         <v>1107</v>
       </c>
-      <c r="U138" s="505" t="s">
+      <c r="U138" s="370" t="s">
         <v>32</v>
       </c>
       <c r="V138" s="13" t="s">
@@ -34142,7 +34113,7 @@
       <c r="B140" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C140" s="472" t="s">
+      <c r="C140" s="358" t="s">
         <v>1112</v>
       </c>
       <c r="D140" s="74"/>
@@ -34178,7 +34149,7 @@
       <c r="R140" s="17"/>
       <c r="S140" s="17"/>
       <c r="T140" s="17"/>
-      <c r="U140" s="488" t="s">
+      <c r="U140" s="132" t="s">
         <v>496</v>
       </c>
       <c r="V140" s="13" t="s">
@@ -34748,7 +34719,7 @@
       <c r="R147" s="47"/>
       <c r="S147" s="24"/>
       <c r="T147" s="24"/>
-      <c r="U147" s="488" t="s">
+      <c r="U147" s="132" t="s">
         <v>41</v>
       </c>
       <c r="V147" s="9" t="s">
@@ -35082,7 +35053,7 @@
       <c r="T151" s="24" t="s">
         <v>1198</v>
       </c>
-      <c r="U151" s="488" t="s">
+      <c r="U151" s="132" t="s">
         <v>477</v>
       </c>
       <c r="V151" s="13" t="s">
@@ -35101,7 +35072,7 @@
         <v>1200</v>
       </c>
       <c r="AE151" s="13"/>
-      <c r="AF151" s="488"/>
+      <c r="AF151" s="132"/>
       <c r="AG151" s="13"/>
       <c r="AH151" s="13"/>
       <c r="AI151" s="13"/>
@@ -35210,10 +35181,10 @@
       <c r="F153" s="85" t="s">
         <v>3844</v>
       </c>
-      <c r="G153" s="468" t="s">
+      <c r="G153" s="38" t="s">
         <v>4731</v>
       </c>
-      <c r="H153" s="551"/>
+      <c r="H153"/>
       <c r="I153" s="86" t="s">
         <v>1208</v>
       </c>
@@ -35286,10 +35257,9 @@
       <c r="F154" s="85" t="s">
         <v>3844</v>
       </c>
-      <c r="G154" s="468" t="s">
+      <c r="G154" s="38" t="s">
         <v>4731</v>
       </c>
-      <c r="H154" s="540"/>
       <c r="I154" s="5" t="s">
         <v>1213</v>
       </c>
@@ -35800,7 +35770,7 @@
       <c r="T160" s="17" t="s">
         <v>1270</v>
       </c>
-      <c r="U160" s="488" t="s">
+      <c r="U160" s="132" t="s">
         <v>477</v>
       </c>
       <c r="V160" s="9" t="s">
@@ -36124,7 +36094,7 @@
       <c r="T164" s="29" t="s">
         <v>1301</v>
       </c>
-      <c r="U164" s="488" t="s">
+      <c r="U164" s="132" t="s">
         <v>477</v>
       </c>
       <c r="V164" s="13" t="s">
@@ -36370,7 +36340,7 @@
       <c r="T167" s="24" t="s">
         <v>1324</v>
       </c>
-      <c r="U167" s="488" t="s">
+      <c r="U167" s="132" t="s">
         <v>3672</v>
       </c>
       <c r="V167" s="9" t="s">
@@ -36933,10 +36903,10 @@
       <c r="Q174" s="24" t="s">
         <v>1382</v>
       </c>
-      <c r="R174" s="504"/>
+      <c r="R174" s="495"/>
       <c r="S174" s="96"/>
       <c r="T174" s="96"/>
-      <c r="U174" s="488" t="s">
+      <c r="U174" s="132" t="s">
         <v>41</v>
       </c>
       <c r="V174" s="13" t="s">
@@ -37088,7 +37058,7 @@
       <c r="R176" s="24"/>
       <c r="S176" s="24"/>
       <c r="T176" s="24"/>
-      <c r="U176" s="488" t="s">
+      <c r="U176" s="132" t="s">
         <v>335</v>
       </c>
       <c r="V176" s="13" t="s">
@@ -37639,7 +37609,7 @@
       <c r="I183" s="5" t="s">
         <v>1447</v>
       </c>
-      <c r="J183" s="474"/>
+      <c r="J183" s="296"/>
       <c r="K183" s="38" t="s">
         <v>1448</v>
       </c>
@@ -37740,7 +37710,7 @@
       <c r="V184" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="W184" s="505" t="s">
+      <c r="W184" s="370" t="s">
         <v>1460</v>
       </c>
       <c r="X184" s="13"/>
@@ -37818,7 +37788,7 @@
       <c r="V185" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="W185" s="505" t="s">
+      <c r="W185" s="370" t="s">
         <v>4706</v>
       </c>
       <c r="X185" s="13" t="s">
@@ -39140,10 +39110,10 @@
       <c r="B202" s="95" t="s">
         <v>929</v>
       </c>
-      <c r="C202" s="470" t="s">
+      <c r="C202" s="467" t="s">
         <v>4703</v>
       </c>
-      <c r="D202" s="525" t="s">
+      <c r="D202" s="510" t="s">
         <v>4705</v>
       </c>
       <c r="E202" s="333"/>
@@ -39230,10 +39200,10 @@
       <c r="B203" s="95" t="s">
         <v>929</v>
       </c>
-      <c r="C203" s="520" t="s">
+      <c r="C203" s="506" t="s">
         <v>4704</v>
       </c>
-      <c r="D203" s="525" t="s">
+      <c r="D203" s="510" t="s">
         <v>4705</v>
       </c>
       <c r="E203" s="252"/>
@@ -39806,10 +39776,10 @@
       <c r="B210" s="95" t="s">
         <v>929</v>
       </c>
-      <c r="C210" s="469" t="s">
+      <c r="C210" s="466" t="s">
         <v>4702</v>
       </c>
-      <c r="D210" s="525" t="s">
+      <c r="D210" s="510" t="s">
         <v>4705</v>
       </c>
       <c r="E210" s="252"/>
@@ -40083,7 +40053,7 @@
       <c r="I213" s="13" t="s">
         <v>1018</v>
       </c>
-      <c r="J213" s="474"/>
+      <c r="J213" s="296"/>
       <c r="K213" s="38" t="s">
         <v>1680</v>
       </c>
@@ -40396,7 +40366,7 @@
       <c r="B217" s="95" t="s">
         <v>929</v>
       </c>
-      <c r="C217" s="519" t="s">
+      <c r="C217" s="505" t="s">
         <v>3837</v>
       </c>
       <c r="D217" s="74"/>
@@ -40480,7 +40450,7 @@
       <c r="F218" s="85" t="s">
         <v>3844</v>
       </c>
-      <c r="G218" s="468" t="s">
+      <c r="G218" s="38" t="s">
         <v>4695</v>
       </c>
       <c r="H218" s="13"/>
@@ -40738,8 +40708,6 @@
         <v>1747</v>
       </c>
       <c r="R221" s="24"/>
-      <c r="S221" s="516"/>
-      <c r="T221" s="516"/>
       <c r="U221" s="13" t="s">
         <v>335</v>
       </c>
@@ -40757,7 +40725,7 @@
       <c r="AA221" s="13" t="s">
         <v>3710</v>
       </c>
-      <c r="AB221" s="532" t="s">
+      <c r="AB221" s="133" t="s">
         <v>3711</v>
       </c>
       <c r="AC221" s="13"/>
@@ -40836,14 +40804,14 @@
       <c r="V222" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="W222" s="505" t="s">
+      <c r="W222" s="370" t="s">
         <v>1758</v>
       </c>
       <c r="X222" s="89"/>
       <c r="Y222" s="89"/>
       <c r="Z222" s="13"/>
       <c r="AA222" s="13"/>
-      <c r="AB222" s="532"/>
+      <c r="AB222" s="133"/>
       <c r="AC222" s="13"/>
       <c r="AD222" s="13"/>
       <c r="AE222" s="13"/>
@@ -40958,7 +40926,7 @@
       <c r="B224" s="95" t="s">
         <v>393</v>
       </c>
-      <c r="C224" s="477" t="s">
+      <c r="C224" s="472" t="s">
         <v>1773</v>
       </c>
       <c r="D224" s="137"/>
@@ -40989,7 +40957,7 @@
       <c r="Q224" s="24" t="s">
         <v>1777</v>
       </c>
-      <c r="R224" s="504"/>
+      <c r="R224" s="495"/>
       <c r="S224" s="96"/>
       <c r="T224" s="24"/>
       <c r="U224" s="223" t="s">
@@ -41106,7 +41074,7 @@
       <c r="B226" s="95" t="s">
         <v>929</v>
       </c>
-      <c r="C226" s="466" t="s">
+      <c r="C226" s="195" t="s">
         <v>4696</v>
       </c>
       <c r="D226" s="74"/>
@@ -41114,7 +41082,7 @@
       <c r="F226" s="85" t="s">
         <v>3844</v>
       </c>
-      <c r="G226" s="468" t="s">
+      <c r="G226" s="38" t="s">
         <v>4697</v>
       </c>
       <c r="H226" s="13"/>
@@ -41194,7 +41162,7 @@
       <c r="B227" s="95" t="s">
         <v>929</v>
       </c>
-      <c r="C227" s="466" t="s">
+      <c r="C227" s="195" t="s">
         <v>4696</v>
       </c>
       <c r="D227" s="74"/>
@@ -41202,7 +41170,7 @@
       <c r="F227" s="85" t="s">
         <v>3844</v>
       </c>
-      <c r="G227" s="468" t="s">
+      <c r="G227" s="38" t="s">
         <v>4697</v>
       </c>
       <c r="H227" s="13"/>
@@ -41227,7 +41195,7 @@
       <c r="Q227" s="24" t="s">
         <v>3676</v>
       </c>
-      <c r="R227" s="504"/>
+      <c r="R227" s="495"/>
       <c r="S227" s="17" t="s">
         <v>1788</v>
       </c>
@@ -41569,7 +41537,7 @@
       <c r="Q231" s="24" t="s">
         <v>1830</v>
       </c>
-      <c r="R231" s="504"/>
+      <c r="R231" s="495"/>
       <c r="S231" s="96"/>
       <c r="T231" s="24"/>
       <c r="U231" s="43" t="s">
@@ -41725,7 +41693,7 @@
       <c r="Q233" s="17" t="s">
         <v>1846</v>
       </c>
-      <c r="R233" s="502"/>
+      <c r="R233" s="493"/>
       <c r="S233" s="97"/>
       <c r="T233" s="17"/>
       <c r="U233" s="43" t="s">
@@ -41778,7 +41746,7 @@
       </c>
       <c r="G234" s="355"/>
       <c r="H234" s="415"/>
-      <c r="I234" s="489" t="s">
+      <c r="I234" s="482" t="s">
         <v>1847</v>
       </c>
       <c r="J234" s="38"/>
@@ -41822,7 +41790,7 @@
       <c r="AD234" s="13"/>
       <c r="AE234" s="13"/>
       <c r="AF234" s="13"/>
-      <c r="AG234" s="488"/>
+      <c r="AG234" s="132"/>
       <c r="AH234" s="13"/>
       <c r="AI234" s="13"/>
       <c r="AJ234" s="13"/>
@@ -41841,7 +41809,7 @@
       <c r="A235" s="95" t="s">
         <v>1851</v>
       </c>
-      <c r="B235" s="472" t="s">
+      <c r="B235" s="358" t="s">
         <v>929</v>
       </c>
       <c r="C235" s="95" t="s">
@@ -42376,7 +42344,7 @@
       <c r="B241" s="95" t="s">
         <v>929</v>
       </c>
-      <c r="C241" s="466" t="s">
+      <c r="C241" s="195" t="s">
         <v>4698</v>
       </c>
       <c r="D241" s="74"/>
@@ -42384,7 +42352,7 @@
       <c r="F241" s="240" t="s">
         <v>3862</v>
       </c>
-      <c r="G241" s="467" t="s">
+      <c r="G241" s="328" t="s">
         <v>4699</v>
       </c>
       <c r="H241" s="201"/>
@@ -42464,7 +42432,7 @@
       <c r="B242" s="95" t="s">
         <v>929</v>
       </c>
-      <c r="C242" s="466" t="s">
+      <c r="C242" s="195" t="s">
         <v>4698</v>
       </c>
       <c r="D242" s="74"/>
@@ -42472,7 +42440,7 @@
       <c r="F242" s="240" t="s">
         <v>3862</v>
       </c>
-      <c r="G242" s="467" t="s">
+      <c r="G242" s="328" t="s">
         <v>4699</v>
       </c>
       <c r="H242" s="201"/>
@@ -42497,7 +42465,7 @@
       <c r="Q242" s="24" t="s">
         <v>1916</v>
       </c>
-      <c r="R242" s="504"/>
+      <c r="R242" s="495"/>
       <c r="S242" s="17" t="s">
         <v>1788</v>
       </c>
@@ -42581,7 +42549,7 @@
       <c r="Q243" s="17" t="s">
         <v>1927</v>
       </c>
-      <c r="R243" s="502"/>
+      <c r="R243" s="493"/>
       <c r="S243" s="163" t="s">
         <v>96</v>
       </c>
@@ -42749,7 +42717,7 @@
       <c r="M245" s="148"/>
       <c r="N245" s="148"/>
       <c r="O245" s="147"/>
-      <c r="P245" s="496" t="s">
+      <c r="P245" s="489" t="s">
         <v>603</v>
       </c>
       <c r="Q245" s="56" t="s">
@@ -42878,82 +42846,80 @@
       <c r="AT246" s="13"/>
     </row>
     <row r="247" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A247" s="514" t="s">
+      <c r="A247" s="504" t="s">
         <v>3578</v>
       </c>
-      <c r="B247" s="475" t="s">
+      <c r="B247" s="470" t="s">
         <v>3814</v>
       </c>
-      <c r="C247" s="518" t="s">
+      <c r="C247" s="288" t="s">
         <v>4708</v>
       </c>
-      <c r="D247" s="523"/>
       <c r="E247" s="333"/>
-      <c r="F247" s="482" t="s">
+      <c r="F247" s="477" t="s">
         <v>3844</v>
       </c>
       <c r="G247" s="326" t="s">
         <v>4709</v>
       </c>
-      <c r="H247" s="487"/>
-      <c r="I247" s="540" t="s">
+      <c r="H247" s="481"/>
+      <c r="I247" s="138" t="s">
         <v>4453</v>
       </c>
-      <c r="J247" s="532" t="s">
+      <c r="J247" s="133" t="s">
         <v>3579</v>
       </c>
-      <c r="K247" s="515" t="s">
+      <c r="K247" s="105" t="s">
         <v>3643</v>
       </c>
-      <c r="L247" s="541" t="s">
+      <c r="L247" s="521" t="s">
         <v>1795</v>
       </c>
-      <c r="M247" s="532"/>
-      <c r="N247" s="515"/>
-      <c r="O247" s="532"/>
-      <c r="P247" s="541" t="s">
+      <c r="M247" s="133"/>
+      <c r="O247" s="133"/>
+      <c r="P247" s="521" t="s">
         <v>3641</v>
       </c>
-      <c r="Q247" s="544" t="s">
+      <c r="Q247" s="524" t="s">
         <v>3680</v>
       </c>
-      <c r="R247" s="545"/>
+      <c r="R247" s="525"/>
       <c r="S247" s="17" t="s">
         <v>1788</v>
       </c>
       <c r="T247" s="17" t="s">
         <v>1789</v>
       </c>
-      <c r="U247" s="547" t="s">
+      <c r="U247" s="452" t="s">
         <v>346</v>
       </c>
-      <c r="V247" s="540" t="s">
+      <c r="V247" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="W247" s="532" t="s">
+      <c r="W247" s="133" t="s">
         <v>3580</v>
       </c>
-      <c r="X247" s="540" t="s">
+      <c r="X247" s="138" t="s">
         <v>1788</v>
       </c>
-      <c r="Y247" s="540" t="s">
+      <c r="Y247" s="138" t="s">
         <v>1789</v>
       </c>
-      <c r="Z247" s="532"/>
-      <c r="AA247" s="532"/>
+      <c r="Z247" s="133"/>
+      <c r="AA247" s="133"/>
       <c r="AB247" s="378" t="s">
         <v>3633</v>
       </c>
-      <c r="AC247" s="532"/>
-      <c r="AD247" s="532"/>
-      <c r="AE247" s="532"/>
-      <c r="AF247" s="540" t="s">
+      <c r="AC247" s="133"/>
+      <c r="AD247" s="133"/>
+      <c r="AE247" s="133"/>
+      <c r="AF247" s="138" t="s">
         <v>1960</v>
       </c>
-      <c r="AG247" s="532" t="s">
+      <c r="AG247" s="133" t="s">
         <v>3634</v>
       </c>
-      <c r="AH247" s="532"/>
+      <c r="AH247" s="133"/>
       <c r="AI247" s="133"/>
       <c r="AJ247" s="133"/>
       <c r="AK247" s="133"/>
@@ -42968,42 +42934,39 @@
       <c r="AT247" s="133"/>
     </row>
     <row r="248" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A248" s="514" t="s">
+      <c r="A248" s="504" t="s">
         <v>3575</v>
       </c>
-      <c r="B248" s="515" t="s">
+      <c r="B248" s="105" t="s">
         <v>3815</v>
       </c>
-      <c r="C248" s="518" t="s">
+      <c r="C248" s="288" t="s">
         <v>4708</v>
       </c>
-      <c r="D248" s="523"/>
       <c r="E248" s="333"/>
-      <c r="F248" s="482" t="s">
+      <c r="F248" s="477" t="s">
         <v>3844</v>
       </c>
       <c r="G248" s="326" t="s">
         <v>4709</v>
       </c>
-      <c r="H248" s="487"/>
-      <c r="I248" s="538"/>
-      <c r="J248" s="532"/>
-      <c r="K248" s="515" t="s">
+      <c r="H248" s="481"/>
+      <c r="I248" s="519"/>
+      <c r="K248" s="105" t="s">
         <v>3644</v>
       </c>
-      <c r="L248" s="541" t="s">
+      <c r="L248" s="521" t="s">
         <v>1909</v>
       </c>
-      <c r="M248" s="532"/>
-      <c r="N248" s="515"/>
-      <c r="O248" s="532"/>
-      <c r="P248" s="541" t="s">
+      <c r="M248" s="133"/>
+      <c r="O248" s="133"/>
+      <c r="P248" s="521" t="s">
         <v>3641</v>
       </c>
-      <c r="Q248" s="544" t="s">
+      <c r="Q248" s="524" t="s">
         <v>3680</v>
       </c>
-      <c r="R248" s="545"/>
+      <c r="R248" s="525"/>
       <c r="S248" s="17" t="s">
         <v>1788</v>
       </c>
@@ -43013,29 +42976,29 @@
       <c r="U248" s="452" t="s">
         <v>346</v>
       </c>
-      <c r="V248" s="540" t="s">
+      <c r="V248" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="W248" s="532" t="s">
+      <c r="W248" s="133" t="s">
         <v>3576</v>
       </c>
-      <c r="X248" s="540" t="s">
+      <c r="X248" s="138" t="s">
         <v>1788</v>
       </c>
-      <c r="Y248" s="540" t="s">
+      <c r="Y248" s="138" t="s">
         <v>1789</v>
       </c>
-      <c r="Z248" s="532"/>
-      <c r="AA248" s="532"/>
-      <c r="AB248" s="540" t="s">
+      <c r="Z248" s="133"/>
+      <c r="AA248" s="133"/>
+      <c r="AB248" s="138" t="s">
         <v>3577</v>
       </c>
-      <c r="AC248" s="532"/>
-      <c r="AD248" s="532"/>
-      <c r="AE248" s="532"/>
-      <c r="AF248" s="540"/>
-      <c r="AG248" s="532"/>
-      <c r="AH248" s="532"/>
+      <c r="AC248" s="133"/>
+      <c r="AD248" s="133"/>
+      <c r="AE248" s="133"/>
+      <c r="AF248" s="138"/>
+      <c r="AG248" s="133"/>
+      <c r="AH248" s="133"/>
       <c r="AI248" s="133"/>
       <c r="AJ248" s="133"/>
       <c r="AK248" s="133"/>
@@ -44344,7 +44307,7 @@
       <c r="B265" s="95" t="s">
         <v>3816</v>
       </c>
-      <c r="C265" s="466" t="s">
+      <c r="C265" s="195" t="s">
         <v>4700</v>
       </c>
       <c r="D265" s="74"/>
@@ -44352,7 +44315,7 @@
       <c r="F265" s="85" t="s">
         <v>3844</v>
       </c>
-      <c r="G265" s="467" t="s">
+      <c r="G265" s="328" t="s">
         <v>4699</v>
       </c>
       <c r="H265" s="201"/>
@@ -44424,7 +44387,7 @@
       <c r="B266" s="95" t="s">
         <v>393</v>
       </c>
-      <c r="C266" s="476" t="s">
+      <c r="C266" s="471" t="s">
         <v>4373</v>
       </c>
       <c r="D266" s="74"/>
@@ -44619,7 +44582,7 @@
       <c r="Q268" s="17" t="s">
         <v>2101</v>
       </c>
-      <c r="R268" s="502"/>
+      <c r="R268" s="493"/>
       <c r="S268" s="97"/>
       <c r="T268" s="17"/>
       <c r="U268" s="38" t="s">
@@ -44855,7 +44818,7 @@
       <c r="M271" s="147"/>
       <c r="N271" s="147"/>
       <c r="O271" s="147"/>
-      <c r="P271" s="498" t="s">
+      <c r="P271" s="490" t="s">
         <v>2125</v>
       </c>
       <c r="Q271" s="24" t="s">
@@ -44931,7 +44894,7 @@
       </c>
       <c r="N272" s="149"/>
       <c r="O272" s="149"/>
-      <c r="P272" s="498" t="s">
+      <c r="P272" s="490" t="s">
         <v>125</v>
       </c>
       <c r="Q272" s="29" t="s">
@@ -45011,7 +44974,7 @@
       </c>
       <c r="N273" s="152"/>
       <c r="O273" s="152"/>
-      <c r="P273" s="498" t="s">
+      <c r="P273" s="490" t="s">
         <v>125</v>
       </c>
       <c r="Q273" s="24" t="s">
@@ -45087,7 +45050,7 @@
       </c>
       <c r="N274" s="135"/>
       <c r="O274" s="135"/>
-      <c r="P274" s="498" t="s">
+      <c r="P274" s="490" t="s">
         <v>125</v>
       </c>
       <c r="Q274" s="29" t="s">
@@ -45165,7 +45128,7 @@
       </c>
       <c r="N275" s="147"/>
       <c r="O275" s="147"/>
-      <c r="P275" s="498" t="s">
+      <c r="P275" s="490" t="s">
         <v>125</v>
       </c>
       <c r="Q275" s="17" t="s">
@@ -45304,7 +45267,7 @@
       <c r="F277" s="85" t="s">
         <v>3844</v>
       </c>
-      <c r="G277" s="467" t="s">
+      <c r="G277" s="328" t="s">
         <v>4692</v>
       </c>
       <c r="H277" s="201"/>
@@ -45509,7 +45472,7 @@
       <c r="Q279" s="33" t="s">
         <v>1959</v>
       </c>
-      <c r="R279" s="503"/>
+      <c r="R279" s="494"/>
       <c r="S279" s="153"/>
       <c r="T279" s="33"/>
       <c r="U279" s="13" t="s">
@@ -45742,10 +45705,10 @@
       <c r="P282" s="115" t="s">
         <v>3641</v>
       </c>
-      <c r="Q282" s="543" t="s">
+      <c r="Q282" s="523" t="s">
         <v>4633</v>
       </c>
-      <c r="R282" s="502"/>
+      <c r="R282" s="493"/>
       <c r="S282" s="97" t="s">
         <v>1788</v>
       </c>
@@ -45800,7 +45763,7 @@
       <c r="B283" s="95" t="s">
         <v>393</v>
       </c>
-      <c r="C283" s="477" t="s">
+      <c r="C283" s="472" t="s">
         <v>4074</v>
       </c>
       <c r="D283" s="74"/>
@@ -45827,7 +45790,7 @@
       <c r="M283" s="147"/>
       <c r="N283" s="147"/>
       <c r="O283" s="147"/>
-      <c r="P283" s="509" t="s">
+      <c r="P283" s="499" t="s">
         <v>2197</v>
       </c>
       <c r="Q283" s="17" t="s">
@@ -45991,7 +45954,7 @@
       <c r="Q285" s="17" t="s">
         <v>2211</v>
       </c>
-      <c r="R285" s="502"/>
+      <c r="R285" s="493"/>
       <c r="S285" s="97"/>
       <c r="T285" s="17"/>
       <c r="U285" s="225" t="s">
@@ -46229,7 +46192,7 @@
       <c r="Q288" s="26" t="s">
         <v>2225</v>
       </c>
-      <c r="R288" s="502"/>
+      <c r="R288" s="493"/>
       <c r="S288" s="97"/>
       <c r="T288" s="97"/>
       <c r="U288" s="13" t="s">
@@ -46358,7 +46321,7 @@
       <c r="B290" s="95" t="s">
         <v>929</v>
       </c>
-      <c r="C290" s="466" t="s">
+      <c r="C290" s="195" t="s">
         <v>4688</v>
       </c>
       <c r="D290" s="74"/>
@@ -46629,7 +46592,7 @@
       <c r="Q293" s="17" t="s">
         <v>2260</v>
       </c>
-      <c r="R293" s="502" t="s">
+      <c r="R293" s="493" t="s">
         <v>742</v>
       </c>
       <c r="S293" s="97"/>
@@ -46711,7 +46674,7 @@
       <c r="Q294" s="33" t="s">
         <v>3684</v>
       </c>
-      <c r="R294" s="503"/>
+      <c r="R294" s="494"/>
       <c r="S294" s="97" t="s">
         <v>1788</v>
       </c>
@@ -46877,7 +46840,7 @@
       </c>
       <c r="N296" s="147"/>
       <c r="O296" s="147"/>
-      <c r="P296" s="488" t="s">
+      <c r="P296" s="132" t="s">
         <v>125</v>
       </c>
       <c r="Q296" s="17" t="s">
@@ -47047,7 +47010,7 @@
       <c r="Q298" s="33" t="s">
         <v>2049</v>
       </c>
-      <c r="R298" s="503"/>
+      <c r="R298" s="494"/>
       <c r="S298" s="153"/>
       <c r="T298" s="33"/>
       <c r="U298" s="39" t="s">
@@ -47896,7 +47859,7 @@
       <c r="B309" s="95" t="s">
         <v>393</v>
       </c>
-      <c r="C309" s="477" t="s">
+      <c r="C309" s="472" t="s">
         <v>2373</v>
       </c>
       <c r="D309" s="74"/>
@@ -48183,10 +48146,10 @@
       <c r="Q312" s="17" t="s">
         <v>2404</v>
       </c>
-      <c r="R312" s="502"/>
+      <c r="R312" s="493"/>
       <c r="S312" s="97"/>
       <c r="T312" s="96"/>
-      <c r="U312" s="488" t="s">
+      <c r="U312" s="132" t="s">
         <v>588</v>
       </c>
       <c r="V312" s="30" t="s">
@@ -48259,14 +48222,14 @@
       <c r="Q313" s="17" t="s">
         <v>2410</v>
       </c>
-      <c r="R313" s="502"/>
+      <c r="R313" s="493"/>
       <c r="S313" s="163" t="s">
         <v>2411</v>
       </c>
       <c r="T313" s="17" t="s">
         <v>2412</v>
       </c>
-      <c r="U313" s="505" t="s">
+      <c r="U313" s="370" t="s">
         <v>32</v>
       </c>
       <c r="V313" s="30" t="s">
@@ -48350,7 +48313,7 @@
       <c r="T314" s="17" t="s">
         <v>2423</v>
       </c>
-      <c r="U314" s="505" t="s">
+      <c r="U314" s="370" t="s">
         <v>32</v>
       </c>
       <c r="V314" s="37" t="s">
@@ -48438,13 +48401,13 @@
       <c r="R315" s="17"/>
       <c r="S315" s="17"/>
       <c r="T315" s="17"/>
-      <c r="U315" s="488" t="s">
+      <c r="U315" s="132" t="s">
         <v>335</v>
       </c>
       <c r="V315" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="W315" s="553" t="s">
+      <c r="W315" s="531" t="s">
         <v>2433</v>
       </c>
       <c r="X315" s="13"/>
@@ -48581,7 +48544,7 @@
       <c r="M317" s="147"/>
       <c r="N317" s="148"/>
       <c r="O317" s="148"/>
-      <c r="P317" s="500" t="s">
+      <c r="P317" s="292" t="s">
         <v>1518</v>
       </c>
       <c r="Q317" s="17" t="s">
@@ -48641,7 +48604,7 @@
       <c r="C318" s="287" t="s">
         <v>3880</v>
       </c>
-      <c r="D318" s="526"/>
+      <c r="D318" s="511"/>
       <c r="E318" s="451" t="s">
         <v>4450</v>
       </c>
@@ -48651,7 +48614,7 @@
       <c r="G318" s="212" t="s">
         <v>4663</v>
       </c>
-      <c r="H318" s="537"/>
+      <c r="H318" s="144"/>
       <c r="I318" s="399" t="s">
         <v>2448</v>
       </c>
@@ -48667,7 +48630,7 @@
       </c>
       <c r="N318" s="147"/>
       <c r="O318" s="39"/>
-      <c r="P318" s="493" t="s">
+      <c r="P318" s="486" t="s">
         <v>2451</v>
       </c>
       <c r="Q318" s="33" t="s">
@@ -48676,7 +48639,7 @@
       <c r="R318" s="33"/>
       <c r="S318" s="33"/>
       <c r="T318" s="33"/>
-      <c r="U318" s="505" t="s">
+      <c r="U318" s="370" t="s">
         <v>32</v>
       </c>
       <c r="V318" s="13" t="s">
@@ -48747,7 +48710,7 @@
       <c r="M319" s="148"/>
       <c r="N319" s="148"/>
       <c r="O319" s="147"/>
-      <c r="P319" s="500" t="s">
+      <c r="P319" s="292" t="s">
         <v>1196</v>
       </c>
       <c r="Q319" s="17" t="s">
@@ -48760,7 +48723,7 @@
       <c r="T319" s="24" t="s">
         <v>2462</v>
       </c>
-      <c r="U319" s="488" t="s">
+      <c r="U319" s="132" t="s">
         <v>477</v>
       </c>
       <c r="V319" s="30" t="s">
@@ -48887,7 +48850,6 @@
       <c r="C321" s="86" t="s">
         <v>4439</v>
       </c>
-      <c r="D321" s="523"/>
       <c r="E321" s="261" t="s">
         <v>4444</v>
       </c>
@@ -48922,7 +48884,7 @@
       <c r="R321" s="17"/>
       <c r="S321" s="17"/>
       <c r="T321" s="24"/>
-      <c r="U321" s="474" t="s">
+      <c r="U321" s="296" t="s">
         <v>496</v>
       </c>
       <c r="V321" s="30" t="s">
@@ -49005,7 +48967,7 @@
       <c r="M322" s="147"/>
       <c r="N322" s="148"/>
       <c r="O322" s="148"/>
-      <c r="P322" s="500" t="s">
+      <c r="P322" s="292" t="s">
         <v>740</v>
       </c>
       <c r="Q322" s="17" t="s">
@@ -49014,7 +48976,7 @@
       <c r="R322" s="17"/>
       <c r="S322" s="17"/>
       <c r="T322" s="24"/>
-      <c r="U322" s="474" t="s">
+      <c r="U322" s="296" t="s">
         <v>1024</v>
       </c>
       <c r="V322" s="30" t="s">
@@ -49096,7 +49058,7 @@
       <c r="R323" s="17"/>
       <c r="S323" s="17"/>
       <c r="T323" s="24"/>
-      <c r="U323" s="488" t="s">
+      <c r="U323" s="132" t="s">
         <v>588</v>
       </c>
       <c r="V323" s="30" t="s">
@@ -49176,7 +49138,7 @@
       <c r="R324" s="17"/>
       <c r="S324" s="17"/>
       <c r="T324" s="24"/>
-      <c r="U324" s="500" t="s">
+      <c r="U324" s="292" t="s">
         <v>2502</v>
       </c>
       <c r="V324" s="48" t="s">
@@ -49262,7 +49224,7 @@
       <c r="T325" s="24" t="s">
         <v>2509</v>
       </c>
-      <c r="U325" s="488" t="s">
+      <c r="U325" s="132" t="s">
         <v>656</v>
       </c>
       <c r="V325" s="30" t="s">
@@ -49303,11 +49265,11 @@
       <c r="C326" s="101" t="s">
         <v>4116</v>
       </c>
-      <c r="D326" s="524"/>
+      <c r="D326" s="509"/>
       <c r="E326" s="263" t="s">
         <v>4114</v>
       </c>
-      <c r="F326" s="531" t="s">
+      <c r="F326" s="514" t="s">
         <v>3844</v>
       </c>
       <c r="G326" s="320" t="s">
@@ -49422,7 +49384,7 @@
       <c r="T327" s="24" t="s">
         <v>2524</v>
       </c>
-      <c r="U327" s="488" t="s">
+      <c r="U327" s="132" t="s">
         <v>477</v>
       </c>
       <c r="V327" s="30" t="s">
@@ -49480,7 +49442,7 @@
       <c r="F328" s="209"/>
       <c r="G328" s="281"/>
       <c r="H328" s="57"/>
-      <c r="I328" s="539" t="s">
+      <c r="I328" s="520" t="s">
         <v>2528</v>
       </c>
       <c r="J328" s="407"/>
@@ -49506,7 +49468,7 @@
       <c r="R328" s="17"/>
       <c r="S328" s="17"/>
       <c r="T328" s="24"/>
-      <c r="U328" s="474" t="s">
+      <c r="U328" s="296" t="s">
         <v>496</v>
       </c>
       <c r="V328" s="30" t="s">
@@ -49590,7 +49552,7 @@
       <c r="R329" s="17"/>
       <c r="S329" s="17"/>
       <c r="T329" s="24"/>
-      <c r="U329" s="474" t="s">
+      <c r="U329" s="296" t="s">
         <v>496</v>
       </c>
       <c r="V329" s="30" t="s">
@@ -49686,7 +49648,7 @@
       <c r="T330" s="24" t="s">
         <v>2553</v>
       </c>
-      <c r="U330" s="488" t="s">
+      <c r="U330" s="132" t="s">
         <v>477</v>
       </c>
       <c r="V330" s="30" t="s">
@@ -49770,7 +49732,7 @@
       <c r="R331" s="17"/>
       <c r="S331" s="17"/>
       <c r="T331" s="24"/>
-      <c r="U331" s="488" t="s">
+      <c r="U331" s="132" t="s">
         <v>588</v>
       </c>
       <c r="V331" s="30" t="s">
@@ -49856,7 +49818,7 @@
       <c r="R332" s="17"/>
       <c r="S332" s="17"/>
       <c r="T332" s="24"/>
-      <c r="U332" s="488" t="s">
+      <c r="U332" s="132" t="s">
         <v>588</v>
       </c>
       <c r="V332" s="30" t="s">
@@ -50020,7 +49982,7 @@
       <c r="R334" s="17"/>
       <c r="S334" s="17"/>
       <c r="T334" s="24"/>
-      <c r="U334" s="474" t="s">
+      <c r="U334" s="296" t="s">
         <v>1024</v>
       </c>
       <c r="V334" s="30" t="s">
@@ -50099,10 +50061,10 @@
       <c r="Q335" s="17" t="s">
         <v>2588</v>
       </c>
-      <c r="R335" s="502"/>
+      <c r="R335" s="493"/>
       <c r="S335" s="97"/>
       <c r="T335" s="24"/>
-      <c r="U335" s="474" t="s">
+      <c r="U335" s="296" t="s">
         <v>496</v>
       </c>
       <c r="V335" s="30" t="s">
@@ -50190,7 +50152,7 @@
       <c r="T336" s="17" t="s">
         <v>1789</v>
       </c>
-      <c r="U336" s="509" t="s">
+      <c r="U336" s="499" t="s">
         <v>1453</v>
       </c>
       <c r="V336" s="42" t="s">
@@ -50267,7 +50229,7 @@
       <c r="O337" s="148" t="s">
         <v>2603</v>
       </c>
-      <c r="P337" s="500" t="s">
+      <c r="P337" s="292" t="s">
         <v>2604</v>
       </c>
       <c r="Q337" s="17" t="s">
@@ -50280,7 +50242,7 @@
       <c r="T337" s="24" t="s">
         <v>2607</v>
       </c>
-      <c r="U337" s="488" t="s">
+      <c r="U337" s="132" t="s">
         <v>1636</v>
       </c>
       <c r="V337" s="30" t="s">
@@ -50331,7 +50293,7 @@
       <c r="G338" s="320" t="s">
         <v>4714</v>
       </c>
-      <c r="H338" s="535" t="s">
+      <c r="H338" s="517" t="s">
         <v>4716</v>
       </c>
       <c r="I338" s="22" t="s">
@@ -50362,7 +50324,7 @@
       <c r="T338" s="24" t="s">
         <v>2613</v>
       </c>
-      <c r="U338" s="552" t="s">
+      <c r="U338" s="530" t="s">
         <v>3672</v>
       </c>
       <c r="V338" s="30" t="s">
@@ -50433,7 +50395,7 @@
       <c r="Q339" s="17" t="s">
         <v>2621</v>
       </c>
-      <c r="R339" s="502"/>
+      <c r="R339" s="493"/>
       <c r="S339" s="97"/>
       <c r="T339" s="24"/>
       <c r="U339" s="36" t="s">
@@ -50515,14 +50477,14 @@
       <c r="Q340" s="17" t="s">
         <v>2630</v>
       </c>
-      <c r="R340" s="502"/>
+      <c r="R340" s="493"/>
       <c r="S340" s="153" t="s">
         <v>2631</v>
       </c>
       <c r="T340" s="24" t="s">
         <v>2632</v>
       </c>
-      <c r="U340" s="488" t="s">
+      <c r="U340" s="132" t="s">
         <v>335</v>
       </c>
       <c r="V340" s="30" t="s">
@@ -50610,7 +50572,7 @@
       <c r="T341" s="24" t="s">
         <v>2632</v>
       </c>
-      <c r="U341" s="488" t="s">
+      <c r="U341" s="132" t="s">
         <v>335</v>
       </c>
       <c r="V341" s="30" t="s">
@@ -50669,7 +50631,7 @@
       <c r="K342" s="109" t="s">
         <v>2644</v>
       </c>
-      <c r="L342" s="494" t="s">
+      <c r="L342" s="487" t="s">
         <v>2355</v>
       </c>
       <c r="M342" s="147" t="s">
@@ -50842,10 +50804,10 @@
       <c r="P344" s="48" t="s">
         <v>2660</v>
       </c>
-      <c r="Q344" s="502" t="s">
+      <c r="Q344" s="493" t="s">
         <v>2661</v>
       </c>
-      <c r="R344" s="502" t="s">
+      <c r="R344" s="493" t="s">
         <v>2662</v>
       </c>
       <c r="S344" s="17"/>
@@ -51015,7 +50977,7 @@
       <c r="O346" s="147" t="s">
         <v>1195</v>
       </c>
-      <c r="P346" s="496" t="s">
+      <c r="P346" s="489" t="s">
         <v>603</v>
       </c>
       <c r="Q346" s="17" t="s">
@@ -51281,7 +51243,7 @@
       <c r="Q349" s="17" t="s">
         <v>2701</v>
       </c>
-      <c r="R349" s="502" t="s">
+      <c r="R349" s="493" t="s">
         <v>711</v>
       </c>
       <c r="S349" s="97"/>
@@ -51453,7 +51415,7 @@
       <c r="Q351" s="17" t="s">
         <v>2717</v>
       </c>
-      <c r="R351" s="502"/>
+      <c r="R351" s="493"/>
       <c r="S351" s="97"/>
       <c r="T351" s="17"/>
       <c r="U351" s="38" t="s">
@@ -51625,7 +51587,7 @@
       <c r="Q353" s="33" t="s">
         <v>2729</v>
       </c>
-      <c r="R353" s="503"/>
+      <c r="R353" s="494"/>
       <c r="S353" s="153"/>
       <c r="T353" s="33"/>
       <c r="U353" s="30" t="s">
@@ -52305,7 +52267,7 @@
       <c r="S361" s="17" t="s">
         <v>1788</v>
       </c>
-      <c r="T361" s="512" t="s">
+      <c r="T361" s="502" t="s">
         <v>4712</v>
       </c>
       <c r="U361" s="43" t="s">
@@ -52449,7 +52411,6 @@
       <c r="E363" s="250" t="s">
         <v>4474</v>
       </c>
-      <c r="F363" s="515"/>
       <c r="G363" s="121" t="s">
         <v>4558</v>
       </c>
@@ -52845,7 +52806,7 @@
       <c r="I368" s="98" t="s">
         <v>2827</v>
       </c>
-      <c r="J368" s="474"/>
+      <c r="J368" s="296"/>
       <c r="K368" s="109" t="s">
         <v>2828</v>
       </c>
@@ -52870,7 +52831,7 @@
       <c r="T368" s="17" t="s">
         <v>2832</v>
       </c>
-      <c r="U368" s="488" t="s">
+      <c r="U368" s="132" t="s">
         <v>477</v>
       </c>
       <c r="V368" s="30" t="s">
@@ -52933,7 +52894,7 @@
       <c r="I369" s="98" t="s">
         <v>2837</v>
       </c>
-      <c r="J369" s="474"/>
+      <c r="J369" s="296"/>
       <c r="K369" s="109" t="s">
         <v>2838</v>
       </c>
@@ -52956,7 +52917,7 @@
       <c r="T369" s="17" t="s">
         <v>2842</v>
       </c>
-      <c r="U369" s="488" t="s">
+      <c r="U369" s="132" t="s">
         <v>477</v>
       </c>
       <c r="V369" s="30" t="s">
@@ -53040,7 +53001,7 @@
       <c r="T370" s="17" t="s">
         <v>1083</v>
       </c>
-      <c r="U370" s="488" t="s">
+      <c r="U370" s="132" t="s">
         <v>477</v>
       </c>
       <c r="V370" s="30" t="s">
@@ -53105,7 +53066,7 @@
       <c r="I371" s="98" t="s">
         <v>2857</v>
       </c>
-      <c r="J371" s="474"/>
+      <c r="J371" s="296"/>
       <c r="K371" s="109" t="s">
         <v>2858</v>
       </c>
@@ -53128,7 +53089,7 @@
       <c r="T371" s="17" t="s">
         <v>1083</v>
       </c>
-      <c r="U371" s="474" t="s">
+      <c r="U371" s="296" t="s">
         <v>496</v>
       </c>
       <c r="V371" s="30" t="s">
@@ -53220,7 +53181,7 @@
       <c r="R372" s="24"/>
       <c r="S372" s="24"/>
       <c r="T372" s="24"/>
-      <c r="U372" s="474" t="s">
+      <c r="U372" s="296" t="s">
         <v>1024</v>
       </c>
       <c r="V372" s="30" t="s">
@@ -53264,7 +53225,7 @@
       <c r="B373" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C373" s="477" t="s">
+      <c r="C373" s="472" t="s">
         <v>2872</v>
       </c>
       <c r="D373" s="74" t="s">
@@ -53279,7 +53240,7 @@
       <c r="I373" s="139" t="s">
         <v>2873</v>
       </c>
-      <c r="J373" s="474"/>
+      <c r="J373" s="296"/>
       <c r="K373" s="109" t="s">
         <v>3713</v>
       </c>
@@ -53388,7 +53349,7 @@
       <c r="R374" s="24"/>
       <c r="S374" s="24"/>
       <c r="T374" s="24"/>
-      <c r="U374" s="506" t="s">
+      <c r="U374" s="496" t="s">
         <v>127</v>
       </c>
       <c r="V374" s="30" t="s">
@@ -53445,7 +53406,7 @@
       <c r="I375" s="98" t="s">
         <v>2887</v>
       </c>
-      <c r="J375" s="474"/>
+      <c r="J375" s="296"/>
       <c r="K375" s="109" t="s">
         <v>2888</v>
       </c>
@@ -53470,7 +53431,7 @@
       <c r="T375" s="24" t="s">
         <v>2891</v>
       </c>
-      <c r="U375" s="488" t="s">
+      <c r="U375" s="132" t="s">
         <v>477</v>
       </c>
       <c r="V375" s="30" t="s">
@@ -53518,7 +53479,7 @@
       <c r="B376" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C376" s="477" t="s">
+      <c r="C376" s="472" t="s">
         <v>2896</v>
       </c>
       <c r="D376" s="74"/>
@@ -53549,7 +53510,7 @@
       <c r="Q376" s="24" t="s">
         <v>2901</v>
       </c>
-      <c r="R376" s="502" t="s">
+      <c r="R376" s="493" t="s">
         <v>30</v>
       </c>
       <c r="S376" s="96"/>
@@ -53598,16 +53559,15 @@
       <c r="AT376" s="13"/>
     </row>
     <row r="377" spans="1:46" ht="48" customHeight="1">
-      <c r="A377" s="473" t="s">
+      <c r="A377" s="469" t="s">
         <v>2905</v>
       </c>
       <c r="B377" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C377" s="517" t="s">
+      <c r="C377" s="288" t="s">
         <v>4162</v>
       </c>
-      <c r="D377" s="523"/>
       <c r="E377" s="347" t="s">
         <v>4160</v>
       </c>
@@ -53621,47 +53581,45 @@
       <c r="I377" s="402" t="s">
         <v>3590</v>
       </c>
-      <c r="J377" s="532"/>
-      <c r="K377" s="515" t="s">
+      <c r="K377" s="105" t="s">
         <v>4159</v>
       </c>
-      <c r="L377" s="540" t="s">
+      <c r="L377" s="138" t="s">
         <v>2906</v>
       </c>
-      <c r="M377" s="532"/>
-      <c r="N377" s="515"/>
-      <c r="O377" s="532"/>
-      <c r="P377" s="542" t="s">
+      <c r="M377" s="133"/>
+      <c r="O377" s="133"/>
+      <c r="P377" s="522" t="s">
         <v>1958</v>
       </c>
-      <c r="Q377" s="545" t="s">
+      <c r="Q377" s="525" t="s">
         <v>1959</v>
       </c>
-      <c r="R377" s="532"/>
-      <c r="S377" s="532"/>
-      <c r="T377" s="532"/>
-      <c r="U377" s="532" t="s">
+      <c r="R377" s="133"/>
+      <c r="S377" s="133"/>
+      <c r="T377" s="133"/>
+      <c r="U377" s="133" t="s">
         <v>588</v>
       </c>
-      <c r="V377" s="540" t="s">
+      <c r="V377" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="W377" s="532" t="s">
+      <c r="W377" s="133" t="s">
         <v>3581</v>
       </c>
-      <c r="X377" s="532"/>
-      <c r="Y377" s="532"/>
-      <c r="Z377" s="532"/>
-      <c r="AA377" s="532"/>
-      <c r="AB377" s="532"/>
-      <c r="AC377" s="532"/>
-      <c r="AD377" s="532"/>
-      <c r="AE377" s="532"/>
-      <c r="AF377" s="532"/>
-      <c r="AG377" s="540" t="s">
+      <c r="X377" s="133"/>
+      <c r="Y377" s="133"/>
+      <c r="Z377" s="133"/>
+      <c r="AA377" s="133"/>
+      <c r="AB377" s="133"/>
+      <c r="AC377" s="133"/>
+      <c r="AD377" s="133"/>
+      <c r="AE377" s="133"/>
+      <c r="AF377" s="133"/>
+      <c r="AG377" s="138" t="s">
         <v>3793</v>
       </c>
-      <c r="AH377" s="532"/>
+      <c r="AH377" s="133"/>
       <c r="AI377" s="133"/>
       <c r="AJ377" s="133"/>
       <c r="AK377" s="133"/>
@@ -53676,7 +53634,7 @@
       <c r="AT377" s="133"/>
     </row>
     <row r="378" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A378" s="550" t="s">
+      <c r="A378" s="529" t="s">
         <v>4729</v>
       </c>
       <c r="B378" s="118" t="s">
@@ -53722,7 +53680,6 @@
         <v>4628</v>
       </c>
       <c r="T378" s="118"/>
-      <c r="U378" s="516"/>
       <c r="V378" s="13" t="s">
         <v>33</v>
       </c>
@@ -53806,7 +53763,7 @@
       <c r="T379" s="24" t="s">
         <v>2913</v>
       </c>
-      <c r="U379" s="474" t="s">
+      <c r="U379" s="296" t="s">
         <v>496</v>
       </c>
       <c r="V379" s="30" t="s">
@@ -53885,10 +53842,10 @@
       <c r="Q380" s="17" t="s">
         <v>2920</v>
       </c>
-      <c r="R380" s="502"/>
+      <c r="R380" s="493"/>
       <c r="S380" s="97"/>
       <c r="T380" s="17"/>
-      <c r="U380" s="474" t="s">
+      <c r="U380" s="296" t="s">
         <v>496</v>
       </c>
       <c r="V380" s="30" t="s">
@@ -53974,7 +53931,7 @@
         <v>4628</v>
       </c>
       <c r="T381" s="103"/>
-      <c r="U381" s="510"/>
+      <c r="U381" s="500"/>
       <c r="V381" s="13" t="s">
         <v>33</v>
       </c>
@@ -54048,7 +54005,7 @@
         <v>4628</v>
       </c>
       <c r="T382" s="38"/>
-      <c r="U382" s="474"/>
+      <c r="U382" s="296"/>
       <c r="V382" s="38"/>
       <c r="W382" s="38"/>
       <c r="X382" s="38"/>
@@ -54056,7 +54013,7 @@
       <c r="Z382" s="38"/>
       <c r="AA382" s="38"/>
       <c r="AB382" s="38"/>
-      <c r="AC382" s="474"/>
+      <c r="AC382" s="296"/>
       <c r="AD382" s="38"/>
       <c r="AE382" s="126"/>
       <c r="AF382" s="38"/>
@@ -54076,16 +54033,16 @@
       <c r="AT382" s="90"/>
     </row>
     <row r="383" spans="1:46" ht="15" customHeight="1">
-      <c r="A383" s="471" t="s">
+      <c r="A383" s="468" t="s">
         <v>2923</v>
       </c>
-      <c r="B383" s="472" t="s">
+      <c r="B383" s="358" t="s">
         <v>337</v>
       </c>
-      <c r="C383" s="471" t="s">
+      <c r="C383" s="468" t="s">
         <v>2923</v>
       </c>
-      <c r="D383" s="478"/>
+      <c r="D383" s="473"/>
       <c r="E383" s="250" t="s">
         <v>4457</v>
       </c>
@@ -54094,60 +54051,60 @@
       </c>
       <c r="G383" s="320"/>
       <c r="H383" s="201"/>
-      <c r="I383" s="489" t="s">
+      <c r="I383" s="482" t="s">
         <v>2924</v>
       </c>
-      <c r="J383" s="474"/>
-      <c r="K383" s="491" t="s">
+      <c r="J383" s="296"/>
+      <c r="K383" s="484" t="s">
         <v>2925</v>
       </c>
-      <c r="L383" s="494" t="s">
+      <c r="L383" s="487" t="s">
         <v>2355</v>
       </c>
-      <c r="M383" s="495"/>
-      <c r="N383" s="495"/>
-      <c r="O383" s="495"/>
-      <c r="P383" s="496" t="s">
+      <c r="M383" s="488"/>
+      <c r="N383" s="488"/>
+      <c r="O383" s="488"/>
+      <c r="P383" s="489" t="s">
         <v>2926</v>
       </c>
-      <c r="Q383" s="504" t="s">
+      <c r="Q383" s="495" t="s">
         <v>2927</v>
       </c>
-      <c r="R383" s="504" t="s">
+      <c r="R383" s="495" t="s">
         <v>2928</v>
       </c>
-      <c r="S383" s="504"/>
-      <c r="T383" s="504" t="s">
+      <c r="S383" s="495"/>
+      <c r="T383" s="495" t="s">
         <v>2929</v>
       </c>
-      <c r="U383" s="488" t="s">
+      <c r="U383" s="132" t="s">
         <v>477</v>
       </c>
-      <c r="V383" s="506" t="s">
+      <c r="V383" s="496" t="s">
         <v>33</v>
       </c>
-      <c r="W383" s="474"/>
-      <c r="X383" s="488"/>
-      <c r="Y383" s="488"/>
-      <c r="Z383" s="488" t="s">
+      <c r="W383" s="296"/>
+      <c r="X383" s="132"/>
+      <c r="Y383" s="132"/>
+      <c r="Z383" s="132" t="s">
         <v>2102</v>
       </c>
-      <c r="AA383" s="488" t="s">
+      <c r="AA383" s="132" t="s">
         <v>2103</v>
       </c>
-      <c r="AB383" s="548" t="s">
+      <c r="AB383" s="527" t="s">
         <v>2930</v>
       </c>
-      <c r="AC383" s="488" t="s">
+      <c r="AC383" s="132" t="s">
         <v>2931</v>
       </c>
-      <c r="AD383" s="488" t="s">
+      <c r="AD383" s="132" t="s">
         <v>2932</v>
       </c>
-      <c r="AE383" s="488"/>
-      <c r="AF383" s="488"/>
-      <c r="AG383" s="511"/>
-      <c r="AH383" s="488"/>
+      <c r="AE383" s="132"/>
+      <c r="AF383" s="132"/>
+      <c r="AG383" s="501"/>
+      <c r="AH383" s="132"/>
     </row>
     <row r="384" spans="1:46" ht="15.75" customHeight="1">
       <c r="A384" s="408" t="s">
@@ -54169,7 +54126,7 @@
       </c>
       <c r="H384" s="13"/>
       <c r="I384" s="208"/>
-      <c r="J384" s="474"/>
+      <c r="J384" s="296"/>
       <c r="K384" s="38"/>
       <c r="L384" s="38"/>
       <c r="M384" s="126"/>
@@ -54188,7 +54145,7 @@
         <v>4628</v>
       </c>
       <c r="T384" s="38"/>
-      <c r="U384" s="474"/>
+      <c r="U384" s="296"/>
       <c r="V384" s="38"/>
       <c r="W384" s="38"/>
       <c r="X384" s="38"/>
@@ -54262,7 +54219,7 @@
       <c r="T385" s="24" t="s">
         <v>2941</v>
       </c>
-      <c r="U385" s="488" t="s">
+      <c r="U385" s="132" t="s">
         <v>477</v>
       </c>
       <c r="V385" s="30" t="s">
@@ -54323,7 +54280,7 @@
       </c>
       <c r="H386" s="13"/>
       <c r="I386" s="208"/>
-      <c r="J386" s="474"/>
+      <c r="J386" s="296"/>
       <c r="K386" s="38" t="s">
         <v>4630</v>
       </c>
@@ -54346,7 +54303,7 @@
         <v>4628</v>
       </c>
       <c r="T386" s="38"/>
-      <c r="U386" s="474"/>
+      <c r="U386" s="296"/>
       <c r="V386" s="38"/>
       <c r="W386" s="38"/>
       <c r="X386" s="38"/>
@@ -54393,7 +54350,7 @@
       </c>
       <c r="H387" s="196"/>
       <c r="I387" s="208"/>
-      <c r="J387" s="474"/>
+      <c r="J387" s="296"/>
       <c r="K387" s="38" t="s">
         <v>4627</v>
       </c>
@@ -54416,7 +54373,7 @@
         <v>4628</v>
       </c>
       <c r="T387" s="38"/>
-      <c r="U387" s="474"/>
+      <c r="U387" s="296"/>
       <c r="V387" s="38"/>
       <c r="W387" s="38"/>
       <c r="X387" s="38"/>
@@ -54462,7 +54419,7 @@
       <c r="I388" s="139" t="s">
         <v>2946</v>
       </c>
-      <c r="J388" s="474"/>
+      <c r="J388" s="296"/>
       <c r="K388" s="109" t="s">
         <v>2947</v>
       </c>
@@ -54565,7 +54522,7 @@
         <v>4628</v>
       </c>
       <c r="T389" s="38"/>
-      <c r="U389" s="474"/>
+      <c r="U389" s="296"/>
       <c r="V389" s="38"/>
       <c r="W389" s="38"/>
       <c r="X389" s="38"/>
@@ -54593,74 +54550,74 @@
       <c r="AT389" s="13"/>
     </row>
     <row r="390" spans="1:46" ht="45.75" customHeight="1">
-      <c r="A390" s="471" t="s">
+      <c r="A390" s="468" t="s">
         <v>3663</v>
       </c>
-      <c r="B390" s="472" t="s">
+      <c r="B390" s="358" t="s">
         <v>337</v>
       </c>
       <c r="C390" s="287" t="s">
         <v>3838</v>
       </c>
-      <c r="D390" s="478"/>
+      <c r="D390" s="473"/>
       <c r="E390" s="250" t="s">
         <v>4480</v>
       </c>
       <c r="F390" s="208"/>
       <c r="G390" s="228"/>
       <c r="H390" s="13"/>
-      <c r="I390" s="490" t="s">
+      <c r="I390" s="483" t="s">
         <v>2952</v>
       </c>
-      <c r="J390" s="474"/>
-      <c r="K390" s="491" t="s">
+      <c r="J390" s="296"/>
+      <c r="K390" s="484" t="s">
         <v>2953</v>
       </c>
-      <c r="L390" s="494" t="s">
+      <c r="L390" s="487" t="s">
         <v>2355</v>
       </c>
-      <c r="M390" s="495"/>
-      <c r="N390" s="495"/>
-      <c r="O390" s="495"/>
-      <c r="P390" s="496" t="s">
+      <c r="M390" s="488"/>
+      <c r="N390" s="488"/>
+      <c r="O390" s="488"/>
+      <c r="P390" s="489" t="s">
         <v>2954</v>
       </c>
-      <c r="Q390" s="504" t="s">
+      <c r="Q390" s="495" t="s">
         <v>2955</v>
       </c>
-      <c r="R390" s="504" t="s">
+      <c r="R390" s="495" t="s">
         <v>30</v>
       </c>
-      <c r="S390" s="504"/>
-      <c r="T390" s="504" t="s">
+      <c r="S390" s="495"/>
+      <c r="T390" s="495" t="s">
         <v>1083</v>
       </c>
-      <c r="U390" s="474" t="s">
+      <c r="U390" s="296" t="s">
         <v>496</v>
       </c>
-      <c r="V390" s="506" t="s">
+      <c r="V390" s="496" t="s">
         <v>33</v>
       </c>
-      <c r="W390" s="474"/>
-      <c r="X390" s="488"/>
-      <c r="Y390" s="488"/>
-      <c r="Z390" s="488" t="s">
+      <c r="W390" s="296"/>
+      <c r="X390" s="132"/>
+      <c r="Y390" s="132"/>
+      <c r="Z390" s="132" t="s">
         <v>2102</v>
       </c>
-      <c r="AA390" s="488" t="s">
+      <c r="AA390" s="132" t="s">
         <v>2103</v>
       </c>
-      <c r="AB390" s="488" t="s">
+      <c r="AB390" s="132" t="s">
         <v>2648</v>
       </c>
-      <c r="AC390" s="488"/>
-      <c r="AD390" s="488" t="s">
+      <c r="AC390" s="132"/>
+      <c r="AD390" s="132" t="s">
         <v>2956</v>
       </c>
-      <c r="AE390" s="488"/>
-      <c r="AF390" s="488"/>
-      <c r="AG390" s="511"/>
-      <c r="AH390" s="488"/>
+      <c r="AE390" s="132"/>
+      <c r="AF390" s="132"/>
+      <c r="AG390" s="501"/>
+      <c r="AH390" s="132"/>
       <c r="AI390" s="133"/>
       <c r="AJ390" s="133"/>
       <c r="AK390" s="133"/>
@@ -54710,12 +54667,12 @@
       <c r="Q391" s="38" t="s">
         <v>4611</v>
       </c>
-      <c r="R391" s="474"/>
+      <c r="R391" s="296"/>
       <c r="S391" s="126" t="s">
         <v>4628</v>
       </c>
       <c r="T391" s="38"/>
-      <c r="U391" s="474"/>
+      <c r="U391" s="296"/>
       <c r="V391" s="38"/>
       <c r="W391" s="38"/>
       <c r="X391" s="38"/>
@@ -54781,7 +54738,7 @@
       <c r="R392" s="24"/>
       <c r="S392" s="24"/>
       <c r="T392" s="24"/>
-      <c r="U392" s="488" t="s">
+      <c r="U392" s="132" t="s">
         <v>335</v>
       </c>
       <c r="V392" s="30" t="s">
@@ -54887,16 +54844,16 @@
       <c r="AT393" s="13"/>
     </row>
     <row r="394" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A394" s="474" t="s">
+      <c r="A394" s="296" t="s">
         <v>4576</v>
       </c>
-      <c r="B394" s="516" t="s">
+      <c r="B394" t="s">
         <v>4582</v>
       </c>
-      <c r="C394" s="474" t="s">
+      <c r="C394" s="296" t="s">
         <v>4590</v>
       </c>
-      <c r="D394" s="474" t="s">
+      <c r="D394" s="296" t="s">
         <v>4590</v>
       </c>
       <c r="E394" s="250"/>
@@ -54905,12 +54862,12 @@
         <v>4602</v>
       </c>
       <c r="H394" s="89"/>
-      <c r="I394" s="488"/>
+      <c r="I394" s="132"/>
       <c r="J394" s="38"/>
-      <c r="K394" s="474" t="s">
+      <c r="K394" s="296" t="s">
         <v>4618</v>
       </c>
-      <c r="L394" s="474"/>
+      <c r="L394" s="296"/>
       <c r="M394" s="126"/>
       <c r="N394" s="126"/>
       <c r="O394" s="126" t="s">
@@ -54919,16 +54876,16 @@
       <c r="P394" s="272" t="s">
         <v>2954</v>
       </c>
-      <c r="Q394" s="474" t="s">
+      <c r="Q394" s="296" t="s">
         <v>4611</v>
       </c>
-      <c r="R394" s="474"/>
+      <c r="R394" s="296"/>
       <c r="S394" s="126" t="s">
         <v>4628</v>
       </c>
       <c r="T394" s="126"/>
       <c r="U394" s="126"/>
-      <c r="V394" s="474"/>
+      <c r="V394" s="296"/>
       <c r="W394" s="126"/>
       <c r="X394" s="126"/>
       <c r="Y394" s="126"/>
@@ -54938,9 +54895,9 @@
       <c r="AC394" s="126"/>
       <c r="AD394" s="126"/>
       <c r="AE394" s="126"/>
-      <c r="AF394" s="474"/>
+      <c r="AF394" s="296"/>
       <c r="AG394" s="126"/>
-      <c r="AH394" s="474"/>
+      <c r="AH394" s="296"/>
       <c r="AI394" s="132"/>
       <c r="AJ394" s="132"/>
       <c r="AK394" s="132"/>
@@ -55031,7 +54988,7 @@
       <c r="B396" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C396" s="477" t="s">
+      <c r="C396" s="472" t="s">
         <v>2965</v>
       </c>
       <c r="D396" s="74"/>
@@ -55517,7 +55474,7 @@
         <v>4628</v>
       </c>
       <c r="T402" s="38"/>
-      <c r="U402" s="474"/>
+      <c r="U402" s="296"/>
       <c r="V402" s="38"/>
       <c r="W402" s="38"/>
       <c r="X402" s="38"/>
@@ -55574,7 +55531,7 @@
       <c r="O403" s="38" t="s">
         <v>4620</v>
       </c>
-      <c r="P403" s="497" t="s">
+      <c r="P403" s="430" t="s">
         <v>2954</v>
       </c>
       <c r="Q403" s="38" t="s">
@@ -55583,7 +55540,7 @@
       <c r="R403" s="38"/>
       <c r="S403" s="38"/>
       <c r="T403" s="38"/>
-      <c r="U403" s="474"/>
+      <c r="U403" s="296"/>
       <c r="V403" s="38"/>
       <c r="W403" s="38"/>
       <c r="X403" s="38"/>
@@ -55644,7 +55601,7 @@
       </c>
       <c r="N404" s="147"/>
       <c r="O404" s="147"/>
-      <c r="P404" s="499" t="s">
+      <c r="P404" s="491" t="s">
         <v>2994</v>
       </c>
       <c r="Q404" s="24" t="s">
@@ -55653,7 +55610,7 @@
       <c r="R404" s="24"/>
       <c r="S404" s="24"/>
       <c r="T404" s="24"/>
-      <c r="U404" s="506" t="s">
+      <c r="U404" s="496" t="s">
         <v>588</v>
       </c>
       <c r="V404" s="30" t="s">
@@ -55726,7 +55683,7 @@
       <c r="O405" s="13" t="s">
         <v>2998</v>
       </c>
-      <c r="P405" s="496" t="s">
+      <c r="P405" s="489" t="s">
         <v>2999</v>
       </c>
       <c r="Q405" s="47" t="s">
@@ -55739,7 +55696,7 @@
       <c r="T405" s="24" t="s">
         <v>3002</v>
       </c>
-      <c r="U405" s="505" t="s">
+      <c r="U405" s="370" t="s">
         <v>32</v>
       </c>
       <c r="V405" s="30" t="s">
@@ -55816,7 +55773,7 @@
       <c r="M406" s="126"/>
       <c r="N406" s="148"/>
       <c r="O406" s="148"/>
-      <c r="P406" s="496" t="s">
+      <c r="P406" s="489" t="s">
         <v>815</v>
       </c>
       <c r="Q406" s="24" t="s">
@@ -55900,7 +55857,7 @@
       <c r="O407" s="147" t="s">
         <v>2993</v>
       </c>
-      <c r="P407" s="496" t="s">
+      <c r="P407" s="489" t="s">
         <v>494</v>
       </c>
       <c r="Q407" s="24" t="s">
@@ -55909,7 +55866,7 @@
       <c r="R407" s="24"/>
       <c r="S407" s="24"/>
       <c r="T407" s="24"/>
-      <c r="U407" s="508" t="s">
+      <c r="U407" s="498" t="s">
         <v>496</v>
       </c>
       <c r="V407" s="30" t="s">
@@ -55988,7 +55945,7 @@
       <c r="Q408" s="24" t="s">
         <v>3021</v>
       </c>
-      <c r="R408" s="504"/>
+      <c r="R408" s="495"/>
       <c r="S408" s="96"/>
       <c r="T408" s="24"/>
       <c r="U408" s="43" t="s">
@@ -56039,7 +55996,7 @@
       <c r="B409" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C409" s="471" t="s">
+      <c r="C409" s="468" t="s">
         <v>3025</v>
       </c>
       <c r="D409" s="82"/>
@@ -56363,7 +56320,7 @@
       <c r="B413" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C413" s="471" t="s">
+      <c r="C413" s="468" t="s">
         <v>4177</v>
       </c>
       <c r="D413" s="74"/>
@@ -56378,7 +56335,7 @@
       <c r="I413" s="139" t="s">
         <v>3055</v>
       </c>
-      <c r="J413" s="474" t="s">
+      <c r="J413" s="296" t="s">
         <v>3056</v>
       </c>
       <c r="K413" s="109" t="s">
@@ -56437,7 +56394,7 @@
       <c r="B414" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C414" s="471" t="s">
+      <c r="C414" s="468" t="s">
         <v>3593</v>
       </c>
       <c r="D414" s="74"/>
@@ -56525,7 +56482,7 @@
       <c r="B415" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C415" s="471" t="s">
+      <c r="C415" s="468" t="s">
         <v>3068</v>
       </c>
       <c r="D415" s="137"/>
@@ -56552,7 +56509,7 @@
         <v>26</v>
       </c>
       <c r="O415" s="147"/>
-      <c r="P415" s="506" t="s">
+      <c r="P415" s="496" t="s">
         <v>3071</v>
       </c>
       <c r="Q415" s="17" t="s">
@@ -56609,20 +56566,20 @@
       <c r="B416" s="38" t="s">
         <v>3076</v>
       </c>
-      <c r="C416" s="471" t="s">
+      <c r="C416" s="468" t="s">
         <v>4182</v>
       </c>
       <c r="D416" s="74"/>
       <c r="E416" s="250" t="s">
         <v>4181</v>
       </c>
-      <c r="F416" s="482" t="s">
+      <c r="F416" s="477" t="s">
         <v>3844</v>
       </c>
       <c r="G416" s="326" t="s">
         <v>4356</v>
       </c>
-      <c r="H416" s="487"/>
+      <c r="H416" s="481"/>
       <c r="I416" s="139" t="s">
         <v>3077</v>
       </c>
@@ -56649,7 +56606,7 @@
       <c r="R416" s="24"/>
       <c r="S416" s="24"/>
       <c r="T416" s="24"/>
-      <c r="U416" s="506" t="s">
+      <c r="U416" s="496" t="s">
         <v>127</v>
       </c>
       <c r="V416" s="30" t="s">
@@ -56724,7 +56681,7 @@
       <c r="O417" s="147" t="s">
         <v>3085</v>
       </c>
-      <c r="P417" s="501" t="s">
+      <c r="P417" s="492" t="s">
         <v>3086</v>
       </c>
       <c r="Q417" s="17" t="s">
@@ -56873,7 +56830,7 @@
       <c r="B419" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C419" s="471" t="s">
+      <c r="C419" s="468" t="s">
         <v>4372</v>
       </c>
       <c r="D419" s="74"/>
@@ -56889,7 +56846,7 @@
         <v>3103</v>
       </c>
       <c r="J419" s="38"/>
-      <c r="K419" s="491" t="s">
+      <c r="K419" s="484" t="s">
         <v>3104</v>
       </c>
       <c r="L419" s="59" t="s">
@@ -57001,7 +56958,7 @@
       <c r="T420" s="17" t="s">
         <v>1083</v>
       </c>
-      <c r="U420" s="474" t="s">
+      <c r="U420" s="296" t="s">
         <v>3111</v>
       </c>
       <c r="V420" s="30" t="s">
@@ -57051,7 +57008,7 @@
       <c r="B421" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C421" s="471" t="s">
+      <c r="C421" s="468" t="s">
         <v>3115</v>
       </c>
       <c r="D421" s="74"/>
@@ -57177,7 +57134,7 @@
       <c r="T422" s="24" t="s">
         <v>3129</v>
       </c>
-      <c r="U422" s="505" t="s">
+      <c r="U422" s="370" t="s">
         <v>32</v>
       </c>
       <c r="V422" s="30" t="s">
@@ -57251,7 +57208,7 @@
       <c r="R423" s="17"/>
       <c r="S423" s="17"/>
       <c r="T423" s="24"/>
-      <c r="U423" s="500" t="s">
+      <c r="U423" s="292" t="s">
         <v>3135</v>
       </c>
       <c r="V423" s="30" t="s">
@@ -57412,7 +57369,7 @@
       <c r="Q425" s="17" t="s">
         <v>3148</v>
       </c>
-      <c r="R425" s="502"/>
+      <c r="R425" s="493"/>
       <c r="S425" s="97"/>
       <c r="T425" s="24"/>
       <c r="U425" s="13" t="s">
@@ -57572,7 +57529,7 @@
       </c>
       <c r="N427" s="135"/>
       <c r="O427" s="135"/>
-      <c r="P427" s="493" t="s">
+      <c r="P427" s="486" t="s">
         <v>125</v>
       </c>
       <c r="Q427" s="17" t="s">
@@ -57824,7 +57781,7 @@
       <c r="Q430" s="17" t="s">
         <v>3179</v>
       </c>
-      <c r="R430" s="546" t="s">
+      <c r="R430" s="526" t="s">
         <v>30</v>
       </c>
       <c r="S430" s="97"/>
@@ -57911,7 +57868,7 @@
         <v>3184</v>
       </c>
       <c r="R431" s="17"/>
-      <c r="S431" s="502"/>
+      <c r="S431" s="493"/>
       <c r="T431" s="17"/>
       <c r="U431" s="134" t="s">
         <v>346</v>
@@ -57953,7 +57910,7 @@
       <c r="B432" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C432" s="471" t="s">
+      <c r="C432" s="468" t="s">
         <v>3610</v>
       </c>
       <c r="D432" s="74"/>
@@ -58062,10 +58019,10 @@
       <c r="Q433" s="17" t="s">
         <v>3195</v>
       </c>
-      <c r="R433" s="502"/>
+      <c r="R433" s="493"/>
       <c r="S433" s="97"/>
       <c r="T433" s="96"/>
-      <c r="U433" s="506" t="s">
+      <c r="U433" s="496" t="s">
         <v>127</v>
       </c>
       <c r="V433" s="64" t="s">
@@ -58718,7 +58675,7 @@
       <c r="Q441" s="48" t="s">
         <v>1959</v>
       </c>
-      <c r="R441" s="496"/>
+      <c r="R441" s="489"/>
       <c r="S441" s="96"/>
       <c r="T441" s="24"/>
       <c r="U441" s="448" t="s">
@@ -58819,7 +58776,7 @@
       <c r="AD442" s="13"/>
       <c r="AE442" s="13"/>
       <c r="AF442" s="13"/>
-      <c r="AG442" s="511"/>
+      <c r="AG442" s="501"/>
       <c r="AH442" s="13"/>
       <c r="AI442" s="13"/>
       <c r="AJ442" s="13"/>
@@ -58901,7 +58858,7 @@
       <c r="AD443" s="13"/>
       <c r="AE443" s="13"/>
       <c r="AF443" s="13"/>
-      <c r="AG443" s="511"/>
+      <c r="AG443" s="501"/>
       <c r="AH443" s="13"/>
       <c r="AI443" s="13"/>
       <c r="AJ443" s="13"/>
@@ -58958,7 +58915,7 @@
       <c r="Q444" s="17" t="s">
         <v>3256</v>
       </c>
-      <c r="R444" s="502"/>
+      <c r="R444" s="493"/>
       <c r="S444" s="305"/>
       <c r="T444" s="17" t="s">
         <v>3640</v>
@@ -58979,7 +58936,7 @@
       <c r="AD444" s="13"/>
       <c r="AE444" s="13"/>
       <c r="AF444" s="13"/>
-      <c r="AG444" s="511"/>
+      <c r="AG444" s="501"/>
       <c r="AH444" s="13"/>
       <c r="AI444" s="13"/>
       <c r="AJ444" s="13"/>
@@ -59001,7 +58958,7 @@
       <c r="B445" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C445" s="471" t="s">
+      <c r="C445" s="468" t="s">
         <v>3614</v>
       </c>
       <c r="D445" s="101" t="s">
@@ -59055,7 +59012,7 @@
       <c r="AD445" s="13"/>
       <c r="AE445" s="13"/>
       <c r="AF445" s="13"/>
-      <c r="AG445" s="511"/>
+      <c r="AG445" s="501"/>
       <c r="AH445" s="13"/>
       <c r="AI445" s="13"/>
       <c r="AJ445" s="13"/>
@@ -59129,7 +59086,7 @@
       <c r="AD446" s="13"/>
       <c r="AE446" s="13"/>
       <c r="AF446" s="13"/>
-      <c r="AG446" s="511"/>
+      <c r="AG446" s="501"/>
       <c r="AH446" s="13"/>
       <c r="AI446" s="13"/>
       <c r="AJ446" s="13"/>
@@ -59213,7 +59170,7 @@
       <c r="AD447" s="13"/>
       <c r="AE447" s="13"/>
       <c r="AF447" s="13"/>
-      <c r="AG447" s="511"/>
+      <c r="AG447" s="501"/>
       <c r="AH447" s="13"/>
       <c r="AI447" s="13"/>
       <c r="AJ447" s="13"/>
@@ -59313,7 +59270,7 @@
       <c r="B449" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C449" s="471" t="s">
+      <c r="C449" s="468" t="s">
         <v>3616</v>
       </c>
       <c r="D449" s="137"/>
@@ -59463,7 +59420,7 @@
       <c r="B451" s="414" t="s">
         <v>337</v>
       </c>
-      <c r="C451" s="476" t="s">
+      <c r="C451" s="471" t="s">
         <v>3283</v>
       </c>
       <c r="D451" s="74"/>
@@ -60011,7 +59968,7 @@
       <c r="R457" s="17"/>
       <c r="S457" s="17"/>
       <c r="T457" s="17"/>
-      <c r="U457" s="474" t="s">
+      <c r="U457" s="296" t="s">
         <v>1024</v>
       </c>
       <c r="V457" s="30" t="s">
@@ -60093,7 +60050,7 @@
       <c r="T458" s="17" t="s">
         <v>3323</v>
       </c>
-      <c r="U458" s="509" t="s">
+      <c r="U458" s="499" t="s">
         <v>3334</v>
       </c>
       <c r="V458" s="30" t="s">
@@ -60169,7 +60126,7 @@
       <c r="R459" s="17"/>
       <c r="S459" s="17"/>
       <c r="T459" s="17"/>
-      <c r="U459" s="505" t="s">
+      <c r="U459" s="370" t="s">
         <v>32</v>
       </c>
       <c r="V459" s="30" t="s">
@@ -60343,7 +60300,7 @@
       <c r="R461" s="24"/>
       <c r="S461" s="24"/>
       <c r="T461" s="24"/>
-      <c r="U461" s="498" t="s">
+      <c r="U461" s="490" t="s">
         <v>127</v>
       </c>
       <c r="V461" s="30" t="s">
@@ -60387,7 +60344,7 @@
       <c r="B462" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C462" s="478" t="s">
+      <c r="C462" s="473" t="s">
         <v>4260</v>
       </c>
       <c r="D462" s="74"/>
@@ -60422,10 +60379,10 @@
       <c r="Q462" s="24" t="s">
         <v>3358</v>
       </c>
-      <c r="R462" s="504"/>
+      <c r="R462" s="495"/>
       <c r="S462" s="96"/>
       <c r="T462" s="24"/>
-      <c r="U462" s="498" t="s">
+      <c r="U462" s="490" t="s">
         <v>127</v>
       </c>
       <c r="V462" s="30" t="s">
@@ -60497,7 +60454,7 @@
       <c r="R463" s="24"/>
       <c r="S463" s="24"/>
       <c r="T463" s="24"/>
-      <c r="U463" s="507" t="s">
+      <c r="U463" s="497" t="s">
         <v>984</v>
       </c>
       <c r="V463" s="13" t="s">
@@ -60577,7 +60534,7 @@
       <c r="R464" s="29"/>
       <c r="S464" s="29"/>
       <c r="T464" s="29"/>
-      <c r="U464" s="507" t="s">
+      <c r="U464" s="497" t="s">
         <v>984</v>
       </c>
       <c r="V464" s="13" t="s">
@@ -60661,7 +60618,7 @@
       <c r="R465" s="17"/>
       <c r="S465" s="17"/>
       <c r="T465" s="17"/>
-      <c r="U465" s="505" t="s">
+      <c r="U465" s="370" t="s">
         <v>32</v>
       </c>
       <c r="V465" s="13" t="s">
@@ -60747,7 +60704,7 @@
       <c r="R466" s="33"/>
       <c r="S466" s="33"/>
       <c r="T466" s="33"/>
-      <c r="U466" s="508" t="s">
+      <c r="U466" s="498" t="s">
         <v>346</v>
       </c>
       <c r="V466" s="30" t="s">
@@ -60829,7 +60786,7 @@
       <c r="T467" s="24" t="s">
         <v>3387</v>
       </c>
-      <c r="U467" s="474" t="s">
+      <c r="U467" s="296" t="s">
         <v>1024</v>
       </c>
       <c r="V467" s="30" t="s">
@@ -60905,7 +60862,7 @@
       <c r="R468" s="24"/>
       <c r="S468" s="24"/>
       <c r="T468" s="24"/>
-      <c r="U468" s="474" t="s">
+      <c r="U468" s="296" t="s">
         <v>1024</v>
       </c>
       <c r="V468" s="30" t="s">
@@ -60974,7 +60931,7 @@
       <c r="M469" s="147"/>
       <c r="N469" s="147"/>
       <c r="O469" s="147"/>
-      <c r="P469" s="500" t="s">
+      <c r="P469" s="292" t="s">
         <v>167</v>
       </c>
       <c r="Q469" s="17" t="s">
@@ -61064,7 +61021,7 @@
       <c r="Q470" s="26" t="s">
         <v>3405</v>
       </c>
-      <c r="R470" s="502" t="s">
+      <c r="R470" s="493" t="s">
         <v>3386</v>
       </c>
       <c r="S470" s="97"/>
@@ -61130,7 +61087,7 @@
       <c r="I471" s="139" t="s">
         <v>3406</v>
       </c>
-      <c r="J471" s="474"/>
+      <c r="J471" s="296"/>
       <c r="K471" s="109" t="s">
         <v>3407</v>
       </c>
@@ -61203,7 +61160,7 @@
       <c r="B472" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C472" s="471" t="s">
+      <c r="C472" s="468" t="s">
         <v>3626</v>
       </c>
       <c r="D472" s="74"/>
@@ -61218,7 +61175,7 @@
       <c r="I472" s="5" t="s">
         <v>3412</v>
       </c>
-      <c r="J472" s="474"/>
+      <c r="J472" s="296"/>
       <c r="K472" s="38" t="s">
         <v>3413</v>
       </c>
@@ -61306,7 +61263,7 @@
       <c r="I473" s="5" t="s">
         <v>3417</v>
       </c>
-      <c r="J473" s="474" t="s">
+      <c r="J473" s="296" t="s">
         <v>3418</v>
       </c>
       <c r="K473" s="38" t="s">
@@ -61388,13 +61345,13 @@
       <c r="I474" s="398" t="s">
         <v>3423</v>
       </c>
-      <c r="J474" s="474" t="s">
+      <c r="J474" s="296" t="s">
         <v>3424</v>
       </c>
-      <c r="K474" s="491" t="s">
+      <c r="K474" s="484" t="s">
         <v>3425</v>
       </c>
-      <c r="L474" s="488" t="s">
+      <c r="L474" s="132" t="s">
         <v>3426</v>
       </c>
       <c r="M474" s="148"/>
@@ -61402,13 +61359,13 @@
         <v>3427</v>
       </c>
       <c r="O474" s="148"/>
-      <c r="P474" s="496" t="s">
+      <c r="P474" s="489" t="s">
         <v>603</v>
       </c>
       <c r="Q474" s="431" t="s">
         <v>3428</v>
       </c>
-      <c r="R474" s="502" t="s">
+      <c r="R474" s="493" t="s">
         <v>3386</v>
       </c>
       <c r="S474" s="96"/>
@@ -61418,7 +61375,7 @@
       <c r="U474" s="38" t="s">
         <v>1024</v>
       </c>
-      <c r="V474" s="506" t="s">
+      <c r="V474" s="496" t="s">
         <v>33</v>
       </c>
       <c r="W474" s="126"/>
@@ -61436,9 +61393,9 @@
       <c r="AC474" s="89"/>
       <c r="AD474" s="89"/>
       <c r="AE474" s="89"/>
-      <c r="AF474" s="488"/>
-      <c r="AG474" s="488"/>
-      <c r="AH474" s="488"/>
+      <c r="AF474" s="132"/>
+      <c r="AG474" s="132"/>
+      <c r="AH474" s="132"/>
       <c r="AI474" s="132"/>
       <c r="AJ474" s="132"/>
       <c r="AK474" s="132"/>
@@ -61472,7 +61429,7 @@
       <c r="I475" s="98" t="s">
         <v>3431</v>
       </c>
-      <c r="J475" s="474"/>
+      <c r="J475" s="296"/>
       <c r="K475" s="38" t="s">
         <v>3432</v>
       </c>
@@ -61500,7 +61457,7 @@
       <c r="U475" s="13" t="s">
         <v>477</v>
       </c>
-      <c r="V475" s="506"/>
+      <c r="V475" s="496"/>
       <c r="W475" s="126"/>
       <c r="X475" s="89"/>
       <c r="Y475" s="13"/>
@@ -61564,7 +61521,7 @@
       </c>
       <c r="N476" s="147"/>
       <c r="O476" s="39"/>
-      <c r="P476" s="500" t="s">
+      <c r="P476" s="292" t="s">
         <v>629</v>
       </c>
       <c r="Q476" s="33" t="s">
@@ -61580,7 +61537,7 @@
       <c r="U476" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="V476" s="506" t="s">
+      <c r="V476" s="496" t="s">
         <v>33</v>
       </c>
       <c r="W476" s="465"/>
@@ -61656,7 +61613,7 @@
       </c>
       <c r="N477" s="147"/>
       <c r="O477" s="147"/>
-      <c r="P477" s="500" t="s">
+      <c r="P477" s="292" t="s">
         <v>2777</v>
       </c>
       <c r="Q477" s="26" t="s">
@@ -61787,7 +61744,7 @@
       <c r="B479" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C479" s="477" t="s">
+      <c r="C479" s="472" t="s">
         <v>3455</v>
       </c>
       <c r="D479" s="74"/>
@@ -61799,7 +61756,7 @@
       </c>
       <c r="G479" s="228"/>
       <c r="H479" s="13"/>
-      <c r="I479" s="489" t="s">
+      <c r="I479" s="482" t="s">
         <v>3456</v>
       </c>
       <c r="J479" s="38"/>
@@ -61871,7 +61828,7 @@
       <c r="B480" s="95" t="s">
         <v>337</v>
       </c>
-      <c r="C480" s="471" t="s">
+      <c r="C480" s="468" t="s">
         <v>3628</v>
       </c>
       <c r="D480" s="74"/>
@@ -61951,7 +61908,7 @@
       <c r="AT480" s="13"/>
     </row>
     <row r="481" spans="1:46" ht="54" customHeight="1">
-      <c r="A481" s="471" t="s">
+      <c r="A481" s="468" t="s">
         <v>4352</v>
       </c>
       <c r="B481" s="358" t="s">
@@ -62013,7 +61970,7 @@
       <c r="AB481" s="13"/>
       <c r="AC481" s="13"/>
       <c r="AD481" s="13"/>
-      <c r="AE481" s="488"/>
+      <c r="AE481" s="132"/>
       <c r="AF481" s="13"/>
       <c r="AG481" s="13"/>
       <c r="AH481" s="13"/>
@@ -62034,7 +61991,7 @@
       <c r="A482" s="101" t="s">
         <v>3482</v>
       </c>
-      <c r="B482" s="472" t="s">
+      <c r="B482" s="358" t="s">
         <v>337</v>
       </c>
       <c r="C482" s="101" t="s">
@@ -62046,7 +62003,7 @@
       <c r="E482" s="266" t="s">
         <v>4278</v>
       </c>
-      <c r="F482" s="482" t="s">
+      <c r="F482" s="477" t="s">
         <v>4733</v>
       </c>
       <c r="G482" s="321" t="s">
@@ -62077,7 +62034,7 @@
       <c r="R482" s="17"/>
       <c r="S482" s="17"/>
       <c r="T482" s="24"/>
-      <c r="U482" s="474" t="s">
+      <c r="U482" s="296" t="s">
         <v>1024</v>
       </c>
       <c r="V482" s="30" t="s">
@@ -62097,7 +62054,7 @@
       </c>
       <c r="AC482" s="13"/>
       <c r="AD482" s="13"/>
-      <c r="AE482" s="489" t="s">
+      <c r="AE482" s="482" t="s">
         <v>3487</v>
       </c>
       <c r="AF482" s="13"/>
@@ -62120,7 +62077,7 @@
       <c r="A483" s="101" t="s">
         <v>3488</v>
       </c>
-      <c r="B483" s="472" t="s">
+      <c r="B483" s="358" t="s">
         <v>337</v>
       </c>
       <c r="C483" s="101" t="s">
@@ -62130,7 +62087,7 @@
       <c r="E483" s="252" t="s">
         <v>4448</v>
       </c>
-      <c r="F483" s="484" t="s">
+      <c r="F483" s="479" t="s">
         <v>3898</v>
       </c>
       <c r="G483" s="441" t="s">
@@ -62141,7 +62098,7 @@
         <v>3489</v>
       </c>
       <c r="J483" s="38"/>
-      <c r="K483" s="474" t="s">
+      <c r="K483" s="296" t="s">
         <v>3490</v>
       </c>
       <c r="L483" s="58" t="s">
@@ -62204,7 +62161,7 @@
       <c r="A484" s="101" t="s">
         <v>4281</v>
       </c>
-      <c r="B484" s="472" t="s">
+      <c r="B484" s="358" t="s">
         <v>337</v>
       </c>
       <c r="C484" s="195" t="s">
@@ -62214,7 +62171,7 @@
       <c r="E484" s="178" t="s">
         <v>4280</v>
       </c>
-      <c r="F484" s="528" t="s">
+      <c r="F484" s="513" t="s">
         <v>3844</v>
       </c>
       <c r="G484" s="441"/>
@@ -62282,7 +62239,7 @@
       <c r="A485" s="101" t="s">
         <v>3503</v>
       </c>
-      <c r="B485" s="472" t="s">
+      <c r="B485" s="358" t="s">
         <v>337</v>
       </c>
       <c r="C485" s="101" t="s">
@@ -62292,7 +62249,7 @@
       <c r="E485" s="252" t="s">
         <v>4282</v>
       </c>
-      <c r="F485" s="482" t="s">
+      <c r="F485" s="477" t="s">
         <v>4499</v>
       </c>
       <c r="G485" s="428" t="s">
@@ -62308,7 +62265,7 @@
       <c r="K485" s="95" t="s">
         <v>3506</v>
       </c>
-      <c r="L485" s="492" t="s">
+      <c r="L485" s="485" t="s">
         <v>2486</v>
       </c>
       <c r="M485" s="147"/>
@@ -62366,7 +62323,7 @@
       <c r="A486" s="101" t="s">
         <v>3512</v>
       </c>
-      <c r="B486" s="472" t="s">
+      <c r="B486" s="358" t="s">
         <v>337</v>
       </c>
       <c r="C486" s="291" t="s">
@@ -62376,7 +62333,7 @@
       <c r="E486" s="252" t="s">
         <v>4494</v>
       </c>
-      <c r="F486" s="516"/>
+      <c r="F486"/>
       <c r="G486" s="442" t="s">
         <v>4549</v>
       </c>
@@ -62440,7 +62397,7 @@
       <c r="A487" s="101" t="s">
         <v>3518</v>
       </c>
-      <c r="B487" s="472" t="s">
+      <c r="B487" s="358" t="s">
         <v>337</v>
       </c>
       <c r="C487" s="101" t="s">
@@ -62450,7 +62407,7 @@
       <c r="E487" s="251" t="s">
         <v>4283</v>
       </c>
-      <c r="F487" s="529" t="s">
+      <c r="F487" s="425" t="s">
         <v>4733</v>
       </c>
       <c r="G487" s="428" t="s">
@@ -62463,7 +62420,7 @@
       <c r="J487" s="38" t="s">
         <v>3520</v>
       </c>
-      <c r="K487" s="474" t="s">
+      <c r="K487" s="296" t="s">
         <v>3521</v>
       </c>
       <c r="L487" s="58" t="s">
@@ -62518,7 +62475,7 @@
       <c r="A488" s="101" t="s">
         <v>4285</v>
       </c>
-      <c r="B488" s="472" t="s">
+      <c r="B488" s="358" t="s">
         <v>337</v>
       </c>
       <c r="C488" s="195" t="s">
@@ -62528,7 +62485,7 @@
       <c r="E488" s="74" t="s">
         <v>4284</v>
       </c>
-      <c r="F488" s="528" t="s">
+      <c r="F488" s="513" t="s">
         <v>3844</v>
       </c>
       <c r="G488" s="441" t="s">
@@ -62539,7 +62496,7 @@
         <v>3523</v>
       </c>
       <c r="J488" s="38"/>
-      <c r="K488" s="491" t="s">
+      <c r="K488" s="484" t="s">
         <v>4670</v>
       </c>
       <c r="L488" s="59" t="s">
@@ -62602,7 +62559,7 @@
       <c r="A489" s="101" t="s">
         <v>4288</v>
       </c>
-      <c r="B489" s="472" t="s">
+      <c r="B489" s="358" t="s">
         <v>337</v>
       </c>
       <c r="C489" s="101" t="s">
@@ -62612,7 +62569,7 @@
       <c r="E489" s="266" t="s">
         <v>4287</v>
       </c>
-      <c r="F489" s="482" t="s">
+      <c r="F489" s="477" t="s">
         <v>4499</v>
       </c>
       <c r="G489" s="428"/>
@@ -62688,7 +62645,7 @@
       <c r="A490" s="101" t="s">
         <v>3535</v>
       </c>
-      <c r="B490" s="472" t="s">
+      <c r="B490" s="358" t="s">
         <v>337</v>
       </c>
       <c r="C490" s="205" t="s">
@@ -62698,7 +62655,7 @@
       <c r="E490" s="266" t="s">
         <v>4286</v>
       </c>
-      <c r="F490" s="531" t="s">
+      <c r="F490" s="514" t="s">
         <v>4496</v>
       </c>
       <c r="G490" s="428" t="s">
@@ -62717,7 +62674,7 @@
       <c r="L490" s="58" t="s">
         <v>3540</v>
       </c>
-      <c r="M490" s="495" t="s">
+      <c r="M490" s="488" t="s">
         <v>2776</v>
       </c>
       <c r="N490" s="147" t="s">
@@ -62778,7 +62735,7 @@
       <c r="A491" s="101" t="s">
         <v>3546</v>
       </c>
-      <c r="B491" s="472" t="s">
+      <c r="B491" s="358" t="s">
         <v>337</v>
       </c>
       <c r="C491" s="101" t="s">
@@ -62788,7 +62745,7 @@
       <c r="E491" s="266" t="s">
         <v>4289</v>
       </c>
-      <c r="F491" s="529" t="s">
+      <c r="F491" s="425" t="s">
         <v>4733</v>
       </c>
       <c r="G491" s="428" t="s">
@@ -62838,7 +62795,7 @@
       <c r="AA491" s="174" t="s">
         <v>2976</v>
       </c>
-      <c r="AB491" s="488" t="s">
+      <c r="AB491" s="132" t="s">
         <v>3552</v>
       </c>
       <c r="AC491" s="13"/>
@@ -62866,7 +62823,7 @@
       <c r="A492" s="101" t="s">
         <v>3554</v>
       </c>
-      <c r="B492" s="472" t="s">
+      <c r="B492" s="358" t="s">
         <v>337</v>
       </c>
       <c r="C492" s="101" t="s">
@@ -62876,7 +62833,7 @@
       <c r="E492" s="266" t="s">
         <v>4290</v>
       </c>
-      <c r="F492" s="529" t="s">
+      <c r="F492" s="425" t="s">
         <v>4733</v>
       </c>
       <c r="G492" s="428" t="s">
@@ -63025,10 +62982,10 @@
       <c r="AT493" s="38"/>
     </row>
     <row r="494" spans="1:46" ht="15.75" customHeight="1">
-      <c r="A494" s="474" t="s">
+      <c r="A494" s="296" t="s">
         <v>3569</v>
       </c>
-      <c r="B494" s="472" t="s">
+      <c r="B494" s="358" t="s">
         <v>337</v>
       </c>
       <c r="C494" s="291" t="s">
@@ -63038,7 +62995,7 @@
       <c r="E494" s="251" t="s">
         <v>4102</v>
       </c>
-      <c r="F494" s="530" t="s">
+      <c r="F494" s="216" t="s">
         <v>4496</v>
       </c>
       <c r="G494" s="428" t="s">
@@ -63054,7 +63011,7 @@
       <c r="K494" s="38" t="s">
         <v>3572</v>
       </c>
-      <c r="L494" s="488" t="s">
+      <c r="L494" s="132" t="s">
         <v>2486</v>
       </c>
       <c r="M494" s="147"/>
@@ -72087,7 +72044,7 @@
   <customSheetViews>
     <customSheetView guid="{CDB312C8-EF45-44D8-B316-E4A590B5DAF9}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AC678" xr:uid="{D8713657-5EB7-564D-8104-E6BB7AB64618}"/>
+      <autoFilter ref="A1:AC678" xr:uid="{FFA01808-DC56-9341-9EF8-DCFA9FBDB311}"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>

--- a/indexation-estampes.xlsx
+++ b/indexation-estampes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annepiejus/Documents/Projets:Travaux/MERCURE GALANT/MG ÉDITIONS/mercure-galant-sources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annepiejus/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618D5496-AF75-634E-8E6F-D5B7022C39D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7E3728E-6197-0746-8878-DCF98B4F1B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="2860" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3960" yWindow="-19860" windowWidth="35760" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -763,7 +763,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8248" uniqueCount="4734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8251" uniqueCount="4737">
   <si>
     <t>Provenance cliché</t>
   </si>
@@ -19581,6 +19581,15 @@
   </si>
   <si>
     <t>non transcrit ; non mentionné dans la table</t>
+  </si>
+  <si>
+    <t>MG-1678-02_076</t>
+  </si>
+  <si>
+    <t>[Discours sur les Devises]</t>
+  </si>
+  <si>
+    <t>[Planche de devises]*</t>
   </si>
 </sst>
 </file>
@@ -21166,7 +21175,7 @@
     <xf numFmtId="0" fontId="82" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="111" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="554">
+  <cellXfs count="555">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -22633,6 +22642,9 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="82" fillId="33" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -22861,9 +22873,9 @@
   </sheetPr>
   <dimension ref="A1:AT681"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="162" zoomScaleNormal="162" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -22871,7 +22883,7 @@
     <col min="1" max="1" width="15.1640625" style="105" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" style="105" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="288" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="83" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="83" customWidth="1"/>
     <col min="5" max="5" width="14" style="265" customWidth="1"/>
     <col min="6" max="6" width="26.1640625" style="216" customWidth="1"/>
     <col min="7" max="7" width="33.33203125" style="319" customWidth="1"/>
@@ -23522,13 +23534,19 @@
       <c r="C8" s="205" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="278" t="s">
+      <c r="D8" s="205" t="s">
+        <v>4734</v>
+      </c>
+      <c r="E8" s="554" t="s">
         <v>4436</v>
       </c>
       <c r="F8" s="480"/>
-      <c r="G8" s="228"/>
-      <c r="H8" s="488"/>
+      <c r="G8" s="228" t="s">
+        <v>4736</v>
+      </c>
+      <c r="H8" s="488" t="s">
+        <v>4735</v>
+      </c>
       <c r="I8" s="5" t="s">
         <v>91</v>
       </c>
@@ -73017,10 +73035,12 @@
     <hyperlink ref="I378" r:id="rId924" xr:uid="{336C2AA2-145B-FF41-BFF1-0AD706BDF61D}"/>
     <hyperlink ref="I381" r:id="rId925" xr:uid="{BAB3ABC7-0F4F-B44B-92FE-23C61A056FCC}"/>
     <hyperlink ref="C109" r:id="rId926" location="MG-1679-10b_043" xr:uid="{5089BC96-4F0C-924C-8596-8A284E70807F}"/>
+    <hyperlink ref="E8" r:id="rId927" xr:uid="{9C4FBF2F-0D12-534A-BD75-32F4014D5F01}"/>
+    <hyperlink ref="D8" r:id="rId928" location="MG-1678-02_073" display="MG-1678-02_073" xr:uid="{93B2058D-3CBF-7041-BF67-E68A860F6F66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <legacyDrawing r:id="rId927"/>
+  <legacyDrawing r:id="rId929"/>
 </worksheet>
 </file>
 
